--- a/【研修中】_日次報告書研修日誌林康輝.xlsx
+++ b/【研修中】_日次報告書研修日誌林康輝.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensyu004\Desktop\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.utsunomiya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7613E2-A4FA-439E-9BB7-EDFCCFDC0759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69AC484-4B07-4DE8-AA62-DFCEDD117C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="研修日誌" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t xml:space="preserve"> 研　修　日　誌 </t>
     <rPh sb="1" eb="2">
@@ -192,12 +192,58 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>今週の目標・課題を記入してください。計画・実績の記入も開始が1時間ずれているので修正してください。書く量もできるだけ枠を埋めるようにしてください。</t>
+    <rPh sb="0" eb="2">
+      <t>コンシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -239,6 +285,12 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -390,7 +442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -441,6 +493,72 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -499,71 +617,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2999,7 +3078,7 @@
   <dimension ref="A1:BS103"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AY28" sqref="AY28"/>
+      <selection activeCell="AQ25" sqref="AQ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="9.9499999999999993" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -3026,59 +3105,59 @@
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
       <c r="S1" s="20"/>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="57" t="s">
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38"/>
       <c r="BA1" s="14"/>
     </row>
     <row r="2" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
@@ -3087,39 +3166,39 @@
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
     </row>
     <row r="3" spans="1:53" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="40"/>
@@ -3149,216 +3228,216 @@
       <c r="AL3" s="11"/>
     </row>
     <row r="4" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="22"/>
-      <c r="AO4" s="22"/>
-      <c r="AP4" s="22"/>
-      <c r="AQ4" s="22"/>
-      <c r="AR4" s="22"/>
-      <c r="AS4" s="22"/>
-      <c r="AT4" s="22"/>
-      <c r="AU4" s="22"/>
-      <c r="AV4" s="22"/>
-      <c r="AW4" s="22"/>
-      <c r="AX4" s="22"/>
-      <c r="AY4" s="22"/>
-      <c r="AZ4" s="23"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44"/>
+      <c r="AU4" s="44"/>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="44"/>
+      <c r="AX4" s="44"/>
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="45"/>
     </row>
     <row r="5" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="25"/>
-      <c r="AL5" s="25"/>
-      <c r="AM5" s="25"/>
-      <c r="AN5" s="25"/>
-      <c r="AO5" s="25"/>
-      <c r="AP5" s="25"/>
-      <c r="AQ5" s="25"/>
-      <c r="AR5" s="25"/>
-      <c r="AS5" s="25"/>
-      <c r="AT5" s="25"/>
-      <c r="AU5" s="25"/>
-      <c r="AV5" s="25"/>
-      <c r="AW5" s="25"/>
-      <c r="AX5" s="25"/>
-      <c r="AY5" s="25"/>
-      <c r="AZ5" s="26"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="47"/>
+      <c r="AS5" s="47"/>
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="47"/>
+      <c r="AV5" s="47"/>
+      <c r="AW5" s="47"/>
+      <c r="AX5" s="47"/>
+      <c r="AY5" s="47"/>
+      <c r="AZ5" s="48"/>
     </row>
     <row r="6" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="25"/>
-      <c r="AR6" s="25"/>
-      <c r="AS6" s="25"/>
-      <c r="AT6" s="25"/>
-      <c r="AU6" s="25"/>
-      <c r="AV6" s="25"/>
-      <c r="AW6" s="25"/>
-      <c r="AX6" s="25"/>
-      <c r="AY6" s="25"/>
-      <c r="AZ6" s="26"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="47"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="47"/>
+      <c r="AP6" s="47"/>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="47"/>
+      <c r="AS6" s="47"/>
+      <c r="AT6" s="47"/>
+      <c r="AU6" s="47"/>
+      <c r="AV6" s="47"/>
+      <c r="AW6" s="47"/>
+      <c r="AX6" s="47"/>
+      <c r="AY6" s="47"/>
+      <c r="AZ6" s="48"/>
     </row>
     <row r="7" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
-      <c r="AP7" s="28"/>
-      <c r="AQ7" s="28"/>
-      <c r="AR7" s="28"/>
-      <c r="AS7" s="28"/>
-      <c r="AT7" s="28"/>
-      <c r="AU7" s="28"/>
-      <c r="AV7" s="28"/>
-      <c r="AW7" s="28"/>
-      <c r="AX7" s="28"/>
-      <c r="AY7" s="28"/>
-      <c r="AZ7" s="29"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="50"/>
+      <c r="AK7" s="50"/>
+      <c r="AL7" s="50"/>
+      <c r="AM7" s="50"/>
+      <c r="AN7" s="50"/>
+      <c r="AO7" s="50"/>
+      <c r="AP7" s="50"/>
+      <c r="AQ7" s="50"/>
+      <c r="AR7" s="50"/>
+      <c r="AS7" s="50"/>
+      <c r="AT7" s="50"/>
+      <c r="AU7" s="50"/>
+      <c r="AV7" s="50"/>
+      <c r="AW7" s="50"/>
+      <c r="AX7" s="50"/>
+      <c r="AY7" s="50"/>
+      <c r="AZ7" s="51"/>
     </row>
     <row r="8" spans="1:53" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="40"/>
@@ -3389,10 +3468,10 @@
       <c r="AL8" s="8"/>
     </row>
     <row r="9" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="56"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="12"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -3444,22 +3523,22 @@
       <c r="AZ9" s="2"/>
     </row>
     <row r="10" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="21"/>
       <c r="AZ10" s="3"/>
     </row>
     <row r="11" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="51"/>
-      <c r="C11" s="52"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="15"/>
       <c r="AZ11" s="3"/>
     </row>
     <row r="12" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -3511,14 +3590,14 @@
       <c r="AZ12" s="18"/>
     </row>
     <row r="13" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="15"/>
       <c r="AZ13" s="3"/>
     </row>
     <row r="14" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
@@ -3570,546 +3649,548 @@
       <c r="AZ14" s="6"/>
     </row>
     <row r="15" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="61">
+      <c r="B15" s="42">
         <v>44060</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="31"/>
-      <c r="AJ15" s="31"/>
-      <c r="AK15" s="31"/>
-      <c r="AL15" s="31"/>
-      <c r="AM15" s="31"/>
-      <c r="AN15" s="31"/>
-      <c r="AO15" s="31"/>
-      <c r="AP15" s="32"/>
-      <c r="AQ15" s="30"/>
-      <c r="AR15" s="31"/>
-      <c r="AS15" s="31"/>
-      <c r="AT15" s="31"/>
-      <c r="AU15" s="31"/>
-      <c r="AV15" s="31"/>
-      <c r="AW15" s="31"/>
-      <c r="AX15" s="31"/>
-      <c r="AY15" s="31"/>
-      <c r="AZ15" s="32"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="53"/>
+      <c r="AJ15" s="53"/>
+      <c r="AK15" s="53"/>
+      <c r="AL15" s="53"/>
+      <c r="AM15" s="53"/>
+      <c r="AN15" s="53"/>
+      <c r="AO15" s="53"/>
+      <c r="AP15" s="54"/>
+      <c r="AQ15" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR15" s="63"/>
+      <c r="AS15" s="63"/>
+      <c r="AT15" s="63"/>
+      <c r="AU15" s="63"/>
+      <c r="AV15" s="63"/>
+      <c r="AW15" s="63"/>
+      <c r="AX15" s="63"/>
+      <c r="AY15" s="63"/>
+      <c r="AZ15" s="64"/>
     </row>
     <row r="16" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="34"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="34"/>
-      <c r="AN16" s="34"/>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="35"/>
-      <c r="AQ16" s="33"/>
-      <c r="AR16" s="34"/>
-      <c r="AS16" s="34"/>
-      <c r="AT16" s="34"/>
-      <c r="AU16" s="34"/>
-      <c r="AV16" s="34"/>
-      <c r="AW16" s="34"/>
-      <c r="AX16" s="34"/>
-      <c r="AY16" s="34"/>
-      <c r="AZ16" s="35"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="57"/>
+      <c r="AQ16" s="65"/>
+      <c r="AR16" s="66"/>
+      <c r="AS16" s="66"/>
+      <c r="AT16" s="66"/>
+      <c r="AU16" s="66"/>
+      <c r="AV16" s="66"/>
+      <c r="AW16" s="66"/>
+      <c r="AX16" s="66"/>
+      <c r="AY16" s="66"/>
+      <c r="AZ16" s="67"/>
     </row>
     <row r="17" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="34"/>
-      <c r="AI17" s="34"/>
-      <c r="AJ17" s="34"/>
-      <c r="AK17" s="34"/>
-      <c r="AL17" s="34"/>
-      <c r="AM17" s="34"/>
-      <c r="AN17" s="34"/>
-      <c r="AO17" s="34"/>
-      <c r="AP17" s="35"/>
-      <c r="AQ17" s="33"/>
-      <c r="AR17" s="34"/>
-      <c r="AS17" s="34"/>
-      <c r="AT17" s="34"/>
-      <c r="AU17" s="34"/>
-      <c r="AV17" s="34"/>
-      <c r="AW17" s="34"/>
-      <c r="AX17" s="34"/>
-      <c r="AY17" s="34"/>
-      <c r="AZ17" s="35"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="56"/>
+      <c r="AM17" s="56"/>
+      <c r="AN17" s="56"/>
+      <c r="AO17" s="56"/>
+      <c r="AP17" s="57"/>
+      <c r="AQ17" s="65"/>
+      <c r="AR17" s="66"/>
+      <c r="AS17" s="66"/>
+      <c r="AT17" s="66"/>
+      <c r="AU17" s="66"/>
+      <c r="AV17" s="66"/>
+      <c r="AW17" s="66"/>
+      <c r="AX17" s="66"/>
+      <c r="AY17" s="66"/>
+      <c r="AZ17" s="67"/>
     </row>
     <row r="18" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="34"/>
-      <c r="AI18" s="34"/>
-      <c r="AJ18" s="34"/>
-      <c r="AK18" s="34"/>
-      <c r="AL18" s="34"/>
-      <c r="AM18" s="34"/>
-      <c r="AN18" s="34"/>
-      <c r="AO18" s="34"/>
-      <c r="AP18" s="35"/>
-      <c r="AQ18" s="33"/>
-      <c r="AR18" s="34"/>
-      <c r="AS18" s="34"/>
-      <c r="AT18" s="34"/>
-      <c r="AU18" s="34"/>
-      <c r="AV18" s="34"/>
-      <c r="AW18" s="34"/>
-      <c r="AX18" s="34"/>
-      <c r="AY18" s="34"/>
-      <c r="AZ18" s="35"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="56"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="56"/>
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="56"/>
+      <c r="AN18" s="56"/>
+      <c r="AO18" s="56"/>
+      <c r="AP18" s="57"/>
+      <c r="AQ18" s="65"/>
+      <c r="AR18" s="66"/>
+      <c r="AS18" s="66"/>
+      <c r="AT18" s="66"/>
+      <c r="AU18" s="66"/>
+      <c r="AV18" s="66"/>
+      <c r="AW18" s="66"/>
+      <c r="AX18" s="66"/>
+      <c r="AY18" s="66"/>
+      <c r="AZ18" s="67"/>
     </row>
     <row r="19" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
-      <c r="AI19" s="34"/>
-      <c r="AJ19" s="34"/>
-      <c r="AK19" s="34"/>
-      <c r="AL19" s="34"/>
-      <c r="AM19" s="34"/>
-      <c r="AN19" s="34"/>
-      <c r="AO19" s="34"/>
-      <c r="AP19" s="35"/>
-      <c r="AQ19" s="33"/>
-      <c r="AR19" s="34"/>
-      <c r="AS19" s="34"/>
-      <c r="AT19" s="34"/>
-      <c r="AU19" s="34"/>
-      <c r="AV19" s="34"/>
-      <c r="AW19" s="34"/>
-      <c r="AX19" s="34"/>
-      <c r="AY19" s="34"/>
-      <c r="AZ19" s="35"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="56"/>
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="56"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="56"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="56"/>
+      <c r="AP19" s="57"/>
+      <c r="AQ19" s="65"/>
+      <c r="AR19" s="66"/>
+      <c r="AS19" s="66"/>
+      <c r="AT19" s="66"/>
+      <c r="AU19" s="66"/>
+      <c r="AV19" s="66"/>
+      <c r="AW19" s="66"/>
+      <c r="AX19" s="66"/>
+      <c r="AY19" s="66"/>
+      <c r="AZ19" s="67"/>
     </row>
     <row r="20" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="34"/>
-      <c r="AI20" s="34"/>
-      <c r="AJ20" s="34"/>
-      <c r="AK20" s="34"/>
-      <c r="AL20" s="34"/>
-      <c r="AM20" s="34"/>
-      <c r="AN20" s="34"/>
-      <c r="AO20" s="34"/>
-      <c r="AP20" s="35"/>
-      <c r="AQ20" s="33"/>
-      <c r="AR20" s="34"/>
-      <c r="AS20" s="34"/>
-      <c r="AT20" s="34"/>
-      <c r="AU20" s="34"/>
-      <c r="AV20" s="34"/>
-      <c r="AW20" s="34"/>
-      <c r="AX20" s="34"/>
-      <c r="AY20" s="34"/>
-      <c r="AZ20" s="35"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="56"/>
+      <c r="AN20" s="56"/>
+      <c r="AO20" s="56"/>
+      <c r="AP20" s="57"/>
+      <c r="AQ20" s="65"/>
+      <c r="AR20" s="66"/>
+      <c r="AS20" s="66"/>
+      <c r="AT20" s="66"/>
+      <c r="AU20" s="66"/>
+      <c r="AV20" s="66"/>
+      <c r="AW20" s="66"/>
+      <c r="AX20" s="66"/>
+      <c r="AY20" s="66"/>
+      <c r="AZ20" s="67"/>
     </row>
     <row r="21" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="34"/>
-      <c r="AH21" s="34"/>
-      <c r="AI21" s="34"/>
-      <c r="AJ21" s="34"/>
-      <c r="AK21" s="34"/>
-      <c r="AL21" s="34"/>
-      <c r="AM21" s="34"/>
-      <c r="AN21" s="34"/>
-      <c r="AO21" s="34"/>
-      <c r="AP21" s="35"/>
-      <c r="AQ21" s="33"/>
-      <c r="AR21" s="34"/>
-      <c r="AS21" s="34"/>
-      <c r="AT21" s="34"/>
-      <c r="AU21" s="34"/>
-      <c r="AV21" s="34"/>
-      <c r="AW21" s="34"/>
-      <c r="AX21" s="34"/>
-      <c r="AY21" s="34"/>
-      <c r="AZ21" s="35"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="56"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="56"/>
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="56"/>
+      <c r="AH21" s="56"/>
+      <c r="AI21" s="56"/>
+      <c r="AJ21" s="56"/>
+      <c r="AK21" s="56"/>
+      <c r="AL21" s="56"/>
+      <c r="AM21" s="56"/>
+      <c r="AN21" s="56"/>
+      <c r="AO21" s="56"/>
+      <c r="AP21" s="57"/>
+      <c r="AQ21" s="65"/>
+      <c r="AR21" s="66"/>
+      <c r="AS21" s="66"/>
+      <c r="AT21" s="66"/>
+      <c r="AU21" s="66"/>
+      <c r="AV21" s="66"/>
+      <c r="AW21" s="66"/>
+      <c r="AX21" s="66"/>
+      <c r="AY21" s="66"/>
+      <c r="AZ21" s="67"/>
     </row>
     <row r="22" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="34"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="34"/>
-      <c r="AI22" s="34"/>
-      <c r="AJ22" s="34"/>
-      <c r="AK22" s="34"/>
-      <c r="AL22" s="34"/>
-      <c r="AM22" s="34"/>
-      <c r="AN22" s="34"/>
-      <c r="AO22" s="34"/>
-      <c r="AP22" s="35"/>
-      <c r="AQ22" s="33"/>
-      <c r="AR22" s="34"/>
-      <c r="AS22" s="34"/>
-      <c r="AT22" s="34"/>
-      <c r="AU22" s="34"/>
-      <c r="AV22" s="34"/>
-      <c r="AW22" s="34"/>
-      <c r="AX22" s="34"/>
-      <c r="AY22" s="34"/>
-      <c r="AZ22" s="35"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="56"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="56"/>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="56"/>
+      <c r="AL22" s="56"/>
+      <c r="AM22" s="56"/>
+      <c r="AN22" s="56"/>
+      <c r="AO22" s="56"/>
+      <c r="AP22" s="57"/>
+      <c r="AQ22" s="65"/>
+      <c r="AR22" s="66"/>
+      <c r="AS22" s="66"/>
+      <c r="AT22" s="66"/>
+      <c r="AU22" s="66"/>
+      <c r="AV22" s="66"/>
+      <c r="AW22" s="66"/>
+      <c r="AX22" s="66"/>
+      <c r="AY22" s="66"/>
+      <c r="AZ22" s="67"/>
     </row>
     <row r="23" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="34"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="34"/>
-      <c r="AI23" s="34"/>
-      <c r="AJ23" s="34"/>
-      <c r="AK23" s="34"/>
-      <c r="AL23" s="34"/>
-      <c r="AM23" s="34"/>
-      <c r="AN23" s="34"/>
-      <c r="AO23" s="34"/>
-      <c r="AP23" s="35"/>
-      <c r="AQ23" s="33"/>
-      <c r="AR23" s="34"/>
-      <c r="AS23" s="34"/>
-      <c r="AT23" s="34"/>
-      <c r="AU23" s="34"/>
-      <c r="AV23" s="34"/>
-      <c r="AW23" s="34"/>
-      <c r="AX23" s="34"/>
-      <c r="AY23" s="34"/>
-      <c r="AZ23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="56"/>
+      <c r="AF23" s="56"/>
+      <c r="AG23" s="56"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="56"/>
+      <c r="AJ23" s="56"/>
+      <c r="AK23" s="56"/>
+      <c r="AL23" s="56"/>
+      <c r="AM23" s="56"/>
+      <c r="AN23" s="56"/>
+      <c r="AO23" s="56"/>
+      <c r="AP23" s="57"/>
+      <c r="AQ23" s="65"/>
+      <c r="AR23" s="66"/>
+      <c r="AS23" s="66"/>
+      <c r="AT23" s="66"/>
+      <c r="AU23" s="66"/>
+      <c r="AV23" s="66"/>
+      <c r="AW23" s="66"/>
+      <c r="AX23" s="66"/>
+      <c r="AY23" s="66"/>
+      <c r="AZ23" s="67"/>
     </row>
     <row r="24" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="37"/>
-      <c r="AB24" s="37"/>
-      <c r="AC24" s="37"/>
-      <c r="AD24" s="37"/>
-      <c r="AE24" s="37"/>
-      <c r="AF24" s="37"/>
-      <c r="AG24" s="37"/>
-      <c r="AH24" s="37"/>
-      <c r="AI24" s="37"/>
-      <c r="AJ24" s="37"/>
-      <c r="AK24" s="37"/>
-      <c r="AL24" s="37"/>
-      <c r="AM24" s="37"/>
-      <c r="AN24" s="37"/>
-      <c r="AO24" s="37"/>
-      <c r="AP24" s="38"/>
-      <c r="AQ24" s="36"/>
-      <c r="AR24" s="37"/>
-      <c r="AS24" s="37"/>
-      <c r="AT24" s="37"/>
-      <c r="AU24" s="37"/>
-      <c r="AV24" s="37"/>
-      <c r="AW24" s="37"/>
-      <c r="AX24" s="37"/>
-      <c r="AY24" s="37"/>
-      <c r="AZ24" s="38"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="59"/>
+      <c r="AH24" s="59"/>
+      <c r="AI24" s="59"/>
+      <c r="AJ24" s="59"/>
+      <c r="AK24" s="59"/>
+      <c r="AL24" s="59"/>
+      <c r="AM24" s="59"/>
+      <c r="AN24" s="59"/>
+      <c r="AO24" s="59"/>
+      <c r="AP24" s="60"/>
+      <c r="AQ24" s="68"/>
+      <c r="AR24" s="69"/>
+      <c r="AS24" s="69"/>
+      <c r="AT24" s="69"/>
+      <c r="AU24" s="69"/>
+      <c r="AV24" s="69"/>
+      <c r="AW24" s="69"/>
+      <c r="AX24" s="69"/>
+      <c r="AY24" s="69"/>
+      <c r="AZ24" s="70"/>
     </row>
     <row r="25" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="56"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="12"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -4161,22 +4242,22 @@
       <c r="AZ25" s="2"/>
     </row>
     <row r="26" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="15"/>
       <c r="AZ26" s="3"/>
     </row>
     <row r="27" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="15"/>
       <c r="AZ27" s="3"/>
     </row>
     <row r="28" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="50"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -4228,14 +4309,14 @@
       <c r="AZ28" s="18"/>
     </row>
     <row r="29" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="51"/>
-      <c r="C29" s="52"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="15"/>
       <c r="AZ29" s="3"/>
     </row>
     <row r="30" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="53"/>
-      <c r="C30" s="54"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
@@ -4287,544 +4368,544 @@
       <c r="AZ30" s="6"/>
     </row>
     <row r="31" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="31"/>
-      <c r="AD31" s="31"/>
-      <c r="AE31" s="31"/>
-      <c r="AF31" s="31"/>
-      <c r="AG31" s="31"/>
-      <c r="AH31" s="31"/>
-      <c r="AI31" s="31"/>
-      <c r="AJ31" s="31"/>
-      <c r="AK31" s="31"/>
-      <c r="AL31" s="31"/>
-      <c r="AM31" s="31"/>
-      <c r="AN31" s="31"/>
-      <c r="AO31" s="31"/>
-      <c r="AP31" s="32"/>
-      <c r="AQ31" s="30"/>
-      <c r="AR31" s="31"/>
-      <c r="AS31" s="31"/>
-      <c r="AT31" s="31"/>
-      <c r="AU31" s="31"/>
-      <c r="AV31" s="31"/>
-      <c r="AW31" s="31"/>
-      <c r="AX31" s="31"/>
-      <c r="AY31" s="31"/>
-      <c r="AZ31" s="32"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="53"/>
+      <c r="AJ31" s="53"/>
+      <c r="AK31" s="53"/>
+      <c r="AL31" s="53"/>
+      <c r="AM31" s="53"/>
+      <c r="AN31" s="53"/>
+      <c r="AO31" s="53"/>
+      <c r="AP31" s="54"/>
+      <c r="AQ31" s="52"/>
+      <c r="AR31" s="53"/>
+      <c r="AS31" s="53"/>
+      <c r="AT31" s="53"/>
+      <c r="AU31" s="53"/>
+      <c r="AV31" s="53"/>
+      <c r="AW31" s="53"/>
+      <c r="AX31" s="53"/>
+      <c r="AY31" s="53"/>
+      <c r="AZ31" s="54"/>
     </row>
     <row r="32" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="34"/>
-      <c r="AD32" s="34"/>
-      <c r="AE32" s="34"/>
-      <c r="AF32" s="34"/>
-      <c r="AG32" s="34"/>
-      <c r="AH32" s="34"/>
-      <c r="AI32" s="34"/>
-      <c r="AJ32" s="34"/>
-      <c r="AK32" s="34"/>
-      <c r="AL32" s="34"/>
-      <c r="AM32" s="34"/>
-      <c r="AN32" s="34"/>
-      <c r="AO32" s="34"/>
-      <c r="AP32" s="35"/>
-      <c r="AQ32" s="33"/>
-      <c r="AR32" s="34"/>
-      <c r="AS32" s="34"/>
-      <c r="AT32" s="34"/>
-      <c r="AU32" s="34"/>
-      <c r="AV32" s="34"/>
-      <c r="AW32" s="34"/>
-      <c r="AX32" s="34"/>
-      <c r="AY32" s="34"/>
-      <c r="AZ32" s="35"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="56"/>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="56"/>
+      <c r="AE32" s="56"/>
+      <c r="AF32" s="56"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="56"/>
+      <c r="AI32" s="56"/>
+      <c r="AJ32" s="56"/>
+      <c r="AK32" s="56"/>
+      <c r="AL32" s="56"/>
+      <c r="AM32" s="56"/>
+      <c r="AN32" s="56"/>
+      <c r="AO32" s="56"/>
+      <c r="AP32" s="57"/>
+      <c r="AQ32" s="55"/>
+      <c r="AR32" s="56"/>
+      <c r="AS32" s="56"/>
+      <c r="AT32" s="56"/>
+      <c r="AU32" s="56"/>
+      <c r="AV32" s="56"/>
+      <c r="AW32" s="56"/>
+      <c r="AX32" s="56"/>
+      <c r="AY32" s="56"/>
+      <c r="AZ32" s="57"/>
     </row>
     <row r="33" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="34"/>
-      <c r="AD33" s="34"/>
-      <c r="AE33" s="34"/>
-      <c r="AF33" s="34"/>
-      <c r="AG33" s="34"/>
-      <c r="AH33" s="34"/>
-      <c r="AI33" s="34"/>
-      <c r="AJ33" s="34"/>
-      <c r="AK33" s="34"/>
-      <c r="AL33" s="34"/>
-      <c r="AM33" s="34"/>
-      <c r="AN33" s="34"/>
-      <c r="AO33" s="34"/>
-      <c r="AP33" s="35"/>
-      <c r="AQ33" s="33"/>
-      <c r="AR33" s="34"/>
-      <c r="AS33" s="34"/>
-      <c r="AT33" s="34"/>
-      <c r="AU33" s="34"/>
-      <c r="AV33" s="34"/>
-      <c r="AW33" s="34"/>
-      <c r="AX33" s="34"/>
-      <c r="AY33" s="34"/>
-      <c r="AZ33" s="35"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="56"/>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="56"/>
+      <c r="AF33" s="56"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="56"/>
+      <c r="AJ33" s="56"/>
+      <c r="AK33" s="56"/>
+      <c r="AL33" s="56"/>
+      <c r="AM33" s="56"/>
+      <c r="AN33" s="56"/>
+      <c r="AO33" s="56"/>
+      <c r="AP33" s="57"/>
+      <c r="AQ33" s="55"/>
+      <c r="AR33" s="56"/>
+      <c r="AS33" s="56"/>
+      <c r="AT33" s="56"/>
+      <c r="AU33" s="56"/>
+      <c r="AV33" s="56"/>
+      <c r="AW33" s="56"/>
+      <c r="AX33" s="56"/>
+      <c r="AY33" s="56"/>
+      <c r="AZ33" s="57"/>
     </row>
     <row r="34" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="47"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="34"/>
-      <c r="AF34" s="34"/>
-      <c r="AG34" s="34"/>
-      <c r="AH34" s="34"/>
-      <c r="AI34" s="34"/>
-      <c r="AJ34" s="34"/>
-      <c r="AK34" s="34"/>
-      <c r="AL34" s="34"/>
-      <c r="AM34" s="34"/>
-      <c r="AN34" s="34"/>
-      <c r="AO34" s="34"/>
-      <c r="AP34" s="35"/>
-      <c r="AQ34" s="33"/>
-      <c r="AR34" s="34"/>
-      <c r="AS34" s="34"/>
-      <c r="AT34" s="34"/>
-      <c r="AU34" s="34"/>
-      <c r="AV34" s="34"/>
-      <c r="AW34" s="34"/>
-      <c r="AX34" s="34"/>
-      <c r="AY34" s="34"/>
-      <c r="AZ34" s="35"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="56"/>
+      <c r="Z34" s="56"/>
+      <c r="AA34" s="56"/>
+      <c r="AB34" s="56"/>
+      <c r="AC34" s="56"/>
+      <c r="AD34" s="56"/>
+      <c r="AE34" s="56"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="56"/>
+      <c r="AJ34" s="56"/>
+      <c r="AK34" s="56"/>
+      <c r="AL34" s="56"/>
+      <c r="AM34" s="56"/>
+      <c r="AN34" s="56"/>
+      <c r="AO34" s="56"/>
+      <c r="AP34" s="57"/>
+      <c r="AQ34" s="55"/>
+      <c r="AR34" s="56"/>
+      <c r="AS34" s="56"/>
+      <c r="AT34" s="56"/>
+      <c r="AU34" s="56"/>
+      <c r="AV34" s="56"/>
+      <c r="AW34" s="56"/>
+      <c r="AX34" s="56"/>
+      <c r="AY34" s="56"/>
+      <c r="AZ34" s="57"/>
     </row>
     <row r="35" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
-      <c r="AB35" s="34"/>
-      <c r="AC35" s="34"/>
-      <c r="AD35" s="34"/>
-      <c r="AE35" s="34"/>
-      <c r="AF35" s="34"/>
-      <c r="AG35" s="34"/>
-      <c r="AH35" s="34"/>
-      <c r="AI35" s="34"/>
-      <c r="AJ35" s="34"/>
-      <c r="AK35" s="34"/>
-      <c r="AL35" s="34"/>
-      <c r="AM35" s="34"/>
-      <c r="AN35" s="34"/>
-      <c r="AO35" s="34"/>
-      <c r="AP35" s="35"/>
-      <c r="AQ35" s="33"/>
-      <c r="AR35" s="34"/>
-      <c r="AS35" s="34"/>
-      <c r="AT35" s="34"/>
-      <c r="AU35" s="34"/>
-      <c r="AV35" s="34"/>
-      <c r="AW35" s="34"/>
-      <c r="AX35" s="34"/>
-      <c r="AY35" s="34"/>
-      <c r="AZ35" s="35"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="56"/>
+      <c r="AC35" s="56"/>
+      <c r="AD35" s="56"/>
+      <c r="AE35" s="56"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="56"/>
+      <c r="AJ35" s="56"/>
+      <c r="AK35" s="56"/>
+      <c r="AL35" s="56"/>
+      <c r="AM35" s="56"/>
+      <c r="AN35" s="56"/>
+      <c r="AO35" s="56"/>
+      <c r="AP35" s="57"/>
+      <c r="AQ35" s="55"/>
+      <c r="AR35" s="56"/>
+      <c r="AS35" s="56"/>
+      <c r="AT35" s="56"/>
+      <c r="AU35" s="56"/>
+      <c r="AV35" s="56"/>
+      <c r="AW35" s="56"/>
+      <c r="AX35" s="56"/>
+      <c r="AY35" s="56"/>
+      <c r="AZ35" s="57"/>
     </row>
     <row r="36" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="47"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="34"/>
-      <c r="AD36" s="34"/>
-      <c r="AE36" s="34"/>
-      <c r="AF36" s="34"/>
-      <c r="AG36" s="34"/>
-      <c r="AH36" s="34"/>
-      <c r="AI36" s="34"/>
-      <c r="AJ36" s="34"/>
-      <c r="AK36" s="34"/>
-      <c r="AL36" s="34"/>
-      <c r="AM36" s="34"/>
-      <c r="AN36" s="34"/>
-      <c r="AO36" s="34"/>
-      <c r="AP36" s="35"/>
-      <c r="AQ36" s="33"/>
-      <c r="AR36" s="34"/>
-      <c r="AS36" s="34"/>
-      <c r="AT36" s="34"/>
-      <c r="AU36" s="34"/>
-      <c r="AV36" s="34"/>
-      <c r="AW36" s="34"/>
-      <c r="AX36" s="34"/>
-      <c r="AY36" s="34"/>
-      <c r="AZ36" s="35"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56"/>
+      <c r="AB36" s="56"/>
+      <c r="AC36" s="56"/>
+      <c r="AD36" s="56"/>
+      <c r="AE36" s="56"/>
+      <c r="AF36" s="56"/>
+      <c r="AG36" s="56"/>
+      <c r="AH36" s="56"/>
+      <c r="AI36" s="56"/>
+      <c r="AJ36" s="56"/>
+      <c r="AK36" s="56"/>
+      <c r="AL36" s="56"/>
+      <c r="AM36" s="56"/>
+      <c r="AN36" s="56"/>
+      <c r="AO36" s="56"/>
+      <c r="AP36" s="57"/>
+      <c r="AQ36" s="55"/>
+      <c r="AR36" s="56"/>
+      <c r="AS36" s="56"/>
+      <c r="AT36" s="56"/>
+      <c r="AU36" s="56"/>
+      <c r="AV36" s="56"/>
+      <c r="AW36" s="56"/>
+      <c r="AX36" s="56"/>
+      <c r="AY36" s="56"/>
+      <c r="AZ36" s="57"/>
     </row>
     <row r="37" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="47"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="34"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="34"/>
-      <c r="AF37" s="34"/>
-      <c r="AG37" s="34"/>
-      <c r="AH37" s="34"/>
-      <c r="AI37" s="34"/>
-      <c r="AJ37" s="34"/>
-      <c r="AK37" s="34"/>
-      <c r="AL37" s="34"/>
-      <c r="AM37" s="34"/>
-      <c r="AN37" s="34"/>
-      <c r="AO37" s="34"/>
-      <c r="AP37" s="35"/>
-      <c r="AQ37" s="33"/>
-      <c r="AR37" s="34"/>
-      <c r="AS37" s="34"/>
-      <c r="AT37" s="34"/>
-      <c r="AU37" s="34"/>
-      <c r="AV37" s="34"/>
-      <c r="AW37" s="34"/>
-      <c r="AX37" s="34"/>
-      <c r="AY37" s="34"/>
-      <c r="AZ37" s="35"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
+      <c r="AB37" s="56"/>
+      <c r="AC37" s="56"/>
+      <c r="AD37" s="56"/>
+      <c r="AE37" s="56"/>
+      <c r="AF37" s="56"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="56"/>
+      <c r="AI37" s="56"/>
+      <c r="AJ37" s="56"/>
+      <c r="AK37" s="56"/>
+      <c r="AL37" s="56"/>
+      <c r="AM37" s="56"/>
+      <c r="AN37" s="56"/>
+      <c r="AO37" s="56"/>
+      <c r="AP37" s="57"/>
+      <c r="AQ37" s="55"/>
+      <c r="AR37" s="56"/>
+      <c r="AS37" s="56"/>
+      <c r="AT37" s="56"/>
+      <c r="AU37" s="56"/>
+      <c r="AV37" s="56"/>
+      <c r="AW37" s="56"/>
+      <c r="AX37" s="56"/>
+      <c r="AY37" s="56"/>
+      <c r="AZ37" s="57"/>
     </row>
     <row r="38" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="47"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="34"/>
-      <c r="AD38" s="34"/>
-      <c r="AE38" s="34"/>
-      <c r="AF38" s="34"/>
-      <c r="AG38" s="34"/>
-      <c r="AH38" s="34"/>
-      <c r="AI38" s="34"/>
-      <c r="AJ38" s="34"/>
-      <c r="AK38" s="34"/>
-      <c r="AL38" s="34"/>
-      <c r="AM38" s="34"/>
-      <c r="AN38" s="34"/>
-      <c r="AO38" s="34"/>
-      <c r="AP38" s="35"/>
-      <c r="AQ38" s="33"/>
-      <c r="AR38" s="34"/>
-      <c r="AS38" s="34"/>
-      <c r="AT38" s="34"/>
-      <c r="AU38" s="34"/>
-      <c r="AV38" s="34"/>
-      <c r="AW38" s="34"/>
-      <c r="AX38" s="34"/>
-      <c r="AY38" s="34"/>
-      <c r="AZ38" s="35"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="56"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="56"/>
+      <c r="AB38" s="56"/>
+      <c r="AC38" s="56"/>
+      <c r="AD38" s="56"/>
+      <c r="AE38" s="56"/>
+      <c r="AF38" s="56"/>
+      <c r="AG38" s="56"/>
+      <c r="AH38" s="56"/>
+      <c r="AI38" s="56"/>
+      <c r="AJ38" s="56"/>
+      <c r="AK38" s="56"/>
+      <c r="AL38" s="56"/>
+      <c r="AM38" s="56"/>
+      <c r="AN38" s="56"/>
+      <c r="AO38" s="56"/>
+      <c r="AP38" s="57"/>
+      <c r="AQ38" s="55"/>
+      <c r="AR38" s="56"/>
+      <c r="AS38" s="56"/>
+      <c r="AT38" s="56"/>
+      <c r="AU38" s="56"/>
+      <c r="AV38" s="56"/>
+      <c r="AW38" s="56"/>
+      <c r="AX38" s="56"/>
+      <c r="AY38" s="56"/>
+      <c r="AZ38" s="57"/>
     </row>
     <row r="39" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="34"/>
-      <c r="AE39" s="34"/>
-      <c r="AF39" s="34"/>
-      <c r="AG39" s="34"/>
-      <c r="AH39" s="34"/>
-      <c r="AI39" s="34"/>
-      <c r="AJ39" s="34"/>
-      <c r="AK39" s="34"/>
-      <c r="AL39" s="34"/>
-      <c r="AM39" s="34"/>
-      <c r="AN39" s="34"/>
-      <c r="AO39" s="34"/>
-      <c r="AP39" s="35"/>
-      <c r="AQ39" s="33"/>
-      <c r="AR39" s="34"/>
-      <c r="AS39" s="34"/>
-      <c r="AT39" s="34"/>
-      <c r="AU39" s="34"/>
-      <c r="AV39" s="34"/>
-      <c r="AW39" s="34"/>
-      <c r="AX39" s="34"/>
-      <c r="AY39" s="34"/>
-      <c r="AZ39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="56"/>
+      <c r="AC39" s="56"/>
+      <c r="AD39" s="56"/>
+      <c r="AE39" s="56"/>
+      <c r="AF39" s="56"/>
+      <c r="AG39" s="56"/>
+      <c r="AH39" s="56"/>
+      <c r="AI39" s="56"/>
+      <c r="AJ39" s="56"/>
+      <c r="AK39" s="56"/>
+      <c r="AL39" s="56"/>
+      <c r="AM39" s="56"/>
+      <c r="AN39" s="56"/>
+      <c r="AO39" s="56"/>
+      <c r="AP39" s="57"/>
+      <c r="AQ39" s="55"/>
+      <c r="AR39" s="56"/>
+      <c r="AS39" s="56"/>
+      <c r="AT39" s="56"/>
+      <c r="AU39" s="56"/>
+      <c r="AV39" s="56"/>
+      <c r="AW39" s="56"/>
+      <c r="AX39" s="56"/>
+      <c r="AY39" s="56"/>
+      <c r="AZ39" s="57"/>
     </row>
     <row r="40" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="43"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="37"/>
-      <c r="AA40" s="37"/>
-      <c r="AB40" s="37"/>
-      <c r="AC40" s="37"/>
-      <c r="AD40" s="37"/>
-      <c r="AE40" s="37"/>
-      <c r="AF40" s="37"/>
-      <c r="AG40" s="37"/>
-      <c r="AH40" s="37"/>
-      <c r="AI40" s="37"/>
-      <c r="AJ40" s="37"/>
-      <c r="AK40" s="37"/>
-      <c r="AL40" s="37"/>
-      <c r="AM40" s="37"/>
-      <c r="AN40" s="37"/>
-      <c r="AO40" s="37"/>
-      <c r="AP40" s="38"/>
-      <c r="AQ40" s="36"/>
-      <c r="AR40" s="37"/>
-      <c r="AS40" s="37"/>
-      <c r="AT40" s="37"/>
-      <c r="AU40" s="37"/>
-      <c r="AV40" s="37"/>
-      <c r="AW40" s="37"/>
-      <c r="AX40" s="37"/>
-      <c r="AY40" s="37"/>
-      <c r="AZ40" s="38"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="59"/>
+      <c r="AF40" s="59"/>
+      <c r="AG40" s="59"/>
+      <c r="AH40" s="59"/>
+      <c r="AI40" s="59"/>
+      <c r="AJ40" s="59"/>
+      <c r="AK40" s="59"/>
+      <c r="AL40" s="59"/>
+      <c r="AM40" s="59"/>
+      <c r="AN40" s="59"/>
+      <c r="AO40" s="59"/>
+      <c r="AP40" s="60"/>
+      <c r="AQ40" s="58"/>
+      <c r="AR40" s="59"/>
+      <c r="AS40" s="59"/>
+      <c r="AT40" s="59"/>
+      <c r="AU40" s="59"/>
+      <c r="AV40" s="59"/>
+      <c r="AW40" s="59"/>
+      <c r="AX40" s="59"/>
+      <c r="AY40" s="59"/>
+      <c r="AZ40" s="60"/>
     </row>
     <row r="41" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="56"/>
+      <c r="C41" s="27"/>
       <c r="D41" s="12"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -4876,22 +4957,22 @@
       <c r="AZ41" s="2"/>
     </row>
     <row r="42" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="51"/>
-      <c r="C42" s="52"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="29"/>
       <c r="D42" s="15"/>
       <c r="AZ42" s="3"/>
     </row>
     <row r="43" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="51"/>
-      <c r="C43" s="52"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="29"/>
       <c r="D43" s="15"/>
       <c r="AZ43" s="3"/>
     </row>
     <row r="44" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="50"/>
+      <c r="C44" s="31"/>
       <c r="D44" s="16"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
@@ -4943,14 +5024,14 @@
       <c r="AZ44" s="18"/>
     </row>
     <row r="45" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="51"/>
-      <c r="C45" s="52"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="29"/>
       <c r="D45" s="15"/>
       <c r="AZ45" s="3"/>
     </row>
     <row r="46" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="53"/>
-      <c r="C46" s="54"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="6"/>
@@ -5002,544 +5083,544 @@
       <c r="AZ46" s="6"/>
     </row>
     <row r="47" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="31"/>
-      <c r="V47" s="31"/>
-      <c r="W47" s="31"/>
-      <c r="X47" s="31"/>
-      <c r="Y47" s="31"/>
-      <c r="Z47" s="31"/>
-      <c r="AA47" s="31"/>
-      <c r="AB47" s="31"/>
-      <c r="AC47" s="31"/>
-      <c r="AD47" s="31"/>
-      <c r="AE47" s="31"/>
-      <c r="AF47" s="31"/>
-      <c r="AG47" s="31"/>
-      <c r="AH47" s="31"/>
-      <c r="AI47" s="31"/>
-      <c r="AJ47" s="31"/>
-      <c r="AK47" s="31"/>
-      <c r="AL47" s="31"/>
-      <c r="AM47" s="31"/>
-      <c r="AN47" s="31"/>
-      <c r="AO47" s="31"/>
-      <c r="AP47" s="32"/>
-      <c r="AQ47" s="30"/>
-      <c r="AR47" s="31"/>
-      <c r="AS47" s="31"/>
-      <c r="AT47" s="31"/>
-      <c r="AU47" s="31"/>
-      <c r="AV47" s="31"/>
-      <c r="AW47" s="31"/>
-      <c r="AX47" s="31"/>
-      <c r="AY47" s="31"/>
-      <c r="AZ47" s="32"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="53"/>
+      <c r="T47" s="53"/>
+      <c r="U47" s="53"/>
+      <c r="V47" s="53"/>
+      <c r="W47" s="53"/>
+      <c r="X47" s="53"/>
+      <c r="Y47" s="53"/>
+      <c r="Z47" s="53"/>
+      <c r="AA47" s="53"/>
+      <c r="AB47" s="53"/>
+      <c r="AC47" s="53"/>
+      <c r="AD47" s="53"/>
+      <c r="AE47" s="53"/>
+      <c r="AF47" s="53"/>
+      <c r="AG47" s="53"/>
+      <c r="AH47" s="53"/>
+      <c r="AI47" s="53"/>
+      <c r="AJ47" s="53"/>
+      <c r="AK47" s="53"/>
+      <c r="AL47" s="53"/>
+      <c r="AM47" s="53"/>
+      <c r="AN47" s="53"/>
+      <c r="AO47" s="53"/>
+      <c r="AP47" s="54"/>
+      <c r="AQ47" s="52"/>
+      <c r="AR47" s="53"/>
+      <c r="AS47" s="53"/>
+      <c r="AT47" s="53"/>
+      <c r="AU47" s="53"/>
+      <c r="AV47" s="53"/>
+      <c r="AW47" s="53"/>
+      <c r="AX47" s="53"/>
+      <c r="AY47" s="53"/>
+      <c r="AZ47" s="54"/>
     </row>
     <row r="48" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="47"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="34"/>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="34"/>
-      <c r="AA48" s="34"/>
-      <c r="AB48" s="34"/>
-      <c r="AC48" s="34"/>
-      <c r="AD48" s="34"/>
-      <c r="AE48" s="34"/>
-      <c r="AF48" s="34"/>
-      <c r="AG48" s="34"/>
-      <c r="AH48" s="34"/>
-      <c r="AI48" s="34"/>
-      <c r="AJ48" s="34"/>
-      <c r="AK48" s="34"/>
-      <c r="AL48" s="34"/>
-      <c r="AM48" s="34"/>
-      <c r="AN48" s="34"/>
-      <c r="AO48" s="34"/>
-      <c r="AP48" s="35"/>
-      <c r="AQ48" s="33"/>
-      <c r="AR48" s="34"/>
-      <c r="AS48" s="34"/>
-      <c r="AT48" s="34"/>
-      <c r="AU48" s="34"/>
-      <c r="AV48" s="34"/>
-      <c r="AW48" s="34"/>
-      <c r="AX48" s="34"/>
-      <c r="AY48" s="34"/>
-      <c r="AZ48" s="35"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="56"/>
+      <c r="T48" s="56"/>
+      <c r="U48" s="56"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="56"/>
+      <c r="X48" s="56"/>
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="56"/>
+      <c r="AC48" s="56"/>
+      <c r="AD48" s="56"/>
+      <c r="AE48" s="56"/>
+      <c r="AF48" s="56"/>
+      <c r="AG48" s="56"/>
+      <c r="AH48" s="56"/>
+      <c r="AI48" s="56"/>
+      <c r="AJ48" s="56"/>
+      <c r="AK48" s="56"/>
+      <c r="AL48" s="56"/>
+      <c r="AM48" s="56"/>
+      <c r="AN48" s="56"/>
+      <c r="AO48" s="56"/>
+      <c r="AP48" s="57"/>
+      <c r="AQ48" s="55"/>
+      <c r="AR48" s="56"/>
+      <c r="AS48" s="56"/>
+      <c r="AT48" s="56"/>
+      <c r="AU48" s="56"/>
+      <c r="AV48" s="56"/>
+      <c r="AW48" s="56"/>
+      <c r="AX48" s="56"/>
+      <c r="AY48" s="56"/>
+      <c r="AZ48" s="57"/>
     </row>
     <row r="49" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="47"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="34"/>
-      <c r="S49" s="34"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="34"/>
-      <c r="V49" s="34"/>
-      <c r="W49" s="34"/>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="34"/>
-      <c r="Z49" s="34"/>
-      <c r="AA49" s="34"/>
-      <c r="AB49" s="34"/>
-      <c r="AC49" s="34"/>
-      <c r="AD49" s="34"/>
-      <c r="AE49" s="34"/>
-      <c r="AF49" s="34"/>
-      <c r="AG49" s="34"/>
-      <c r="AH49" s="34"/>
-      <c r="AI49" s="34"/>
-      <c r="AJ49" s="34"/>
-      <c r="AK49" s="34"/>
-      <c r="AL49" s="34"/>
-      <c r="AM49" s="34"/>
-      <c r="AN49" s="34"/>
-      <c r="AO49" s="34"/>
-      <c r="AP49" s="35"/>
-      <c r="AQ49" s="33"/>
-      <c r="AR49" s="34"/>
-      <c r="AS49" s="34"/>
-      <c r="AT49" s="34"/>
-      <c r="AU49" s="34"/>
-      <c r="AV49" s="34"/>
-      <c r="AW49" s="34"/>
-      <c r="AX49" s="34"/>
-      <c r="AY49" s="34"/>
-      <c r="AZ49" s="35"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="56"/>
+      <c r="T49" s="56"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="56"/>
+      <c r="Z49" s="56"/>
+      <c r="AA49" s="56"/>
+      <c r="AB49" s="56"/>
+      <c r="AC49" s="56"/>
+      <c r="AD49" s="56"/>
+      <c r="AE49" s="56"/>
+      <c r="AF49" s="56"/>
+      <c r="AG49" s="56"/>
+      <c r="AH49" s="56"/>
+      <c r="AI49" s="56"/>
+      <c r="AJ49" s="56"/>
+      <c r="AK49" s="56"/>
+      <c r="AL49" s="56"/>
+      <c r="AM49" s="56"/>
+      <c r="AN49" s="56"/>
+      <c r="AO49" s="56"/>
+      <c r="AP49" s="57"/>
+      <c r="AQ49" s="55"/>
+      <c r="AR49" s="56"/>
+      <c r="AS49" s="56"/>
+      <c r="AT49" s="56"/>
+      <c r="AU49" s="56"/>
+      <c r="AV49" s="56"/>
+      <c r="AW49" s="56"/>
+      <c r="AX49" s="56"/>
+      <c r="AY49" s="56"/>
+      <c r="AZ49" s="57"/>
     </row>
     <row r="50" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="47"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="34"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="34"/>
-      <c r="V50" s="34"/>
-      <c r="W50" s="34"/>
-      <c r="X50" s="34"/>
-      <c r="Y50" s="34"/>
-      <c r="Z50" s="34"/>
-      <c r="AA50" s="34"/>
-      <c r="AB50" s="34"/>
-      <c r="AC50" s="34"/>
-      <c r="AD50" s="34"/>
-      <c r="AE50" s="34"/>
-      <c r="AF50" s="34"/>
-      <c r="AG50" s="34"/>
-      <c r="AH50" s="34"/>
-      <c r="AI50" s="34"/>
-      <c r="AJ50" s="34"/>
-      <c r="AK50" s="34"/>
-      <c r="AL50" s="34"/>
-      <c r="AM50" s="34"/>
-      <c r="AN50" s="34"/>
-      <c r="AO50" s="34"/>
-      <c r="AP50" s="35"/>
-      <c r="AQ50" s="33"/>
-      <c r="AR50" s="34"/>
-      <c r="AS50" s="34"/>
-      <c r="AT50" s="34"/>
-      <c r="AU50" s="34"/>
-      <c r="AV50" s="34"/>
-      <c r="AW50" s="34"/>
-      <c r="AX50" s="34"/>
-      <c r="AY50" s="34"/>
-      <c r="AZ50" s="35"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="56"/>
+      <c r="T50" s="56"/>
+      <c r="U50" s="56"/>
+      <c r="V50" s="56"/>
+      <c r="W50" s="56"/>
+      <c r="X50" s="56"/>
+      <c r="Y50" s="56"/>
+      <c r="Z50" s="56"/>
+      <c r="AA50" s="56"/>
+      <c r="AB50" s="56"/>
+      <c r="AC50" s="56"/>
+      <c r="AD50" s="56"/>
+      <c r="AE50" s="56"/>
+      <c r="AF50" s="56"/>
+      <c r="AG50" s="56"/>
+      <c r="AH50" s="56"/>
+      <c r="AI50" s="56"/>
+      <c r="AJ50" s="56"/>
+      <c r="AK50" s="56"/>
+      <c r="AL50" s="56"/>
+      <c r="AM50" s="56"/>
+      <c r="AN50" s="56"/>
+      <c r="AO50" s="56"/>
+      <c r="AP50" s="57"/>
+      <c r="AQ50" s="55"/>
+      <c r="AR50" s="56"/>
+      <c r="AS50" s="56"/>
+      <c r="AT50" s="56"/>
+      <c r="AU50" s="56"/>
+      <c r="AV50" s="56"/>
+      <c r="AW50" s="56"/>
+      <c r="AX50" s="56"/>
+      <c r="AY50" s="56"/>
+      <c r="AZ50" s="57"/>
     </row>
     <row r="51" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="47"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="34"/>
-      <c r="V51" s="34"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="34"/>
-      <c r="Y51" s="34"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
-      <c r="AB51" s="34"/>
-      <c r="AC51" s="34"/>
-      <c r="AD51" s="34"/>
-      <c r="AE51" s="34"/>
-      <c r="AF51" s="34"/>
-      <c r="AG51" s="34"/>
-      <c r="AH51" s="34"/>
-      <c r="AI51" s="34"/>
-      <c r="AJ51" s="34"/>
-      <c r="AK51" s="34"/>
-      <c r="AL51" s="34"/>
-      <c r="AM51" s="34"/>
-      <c r="AN51" s="34"/>
-      <c r="AO51" s="34"/>
-      <c r="AP51" s="35"/>
-      <c r="AQ51" s="33"/>
-      <c r="AR51" s="34"/>
-      <c r="AS51" s="34"/>
-      <c r="AT51" s="34"/>
-      <c r="AU51" s="34"/>
-      <c r="AV51" s="34"/>
-      <c r="AW51" s="34"/>
-      <c r="AX51" s="34"/>
-      <c r="AY51" s="34"/>
-      <c r="AZ51" s="35"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="56"/>
+      <c r="T51" s="56"/>
+      <c r="U51" s="56"/>
+      <c r="V51" s="56"/>
+      <c r="W51" s="56"/>
+      <c r="X51" s="56"/>
+      <c r="Y51" s="56"/>
+      <c r="Z51" s="56"/>
+      <c r="AA51" s="56"/>
+      <c r="AB51" s="56"/>
+      <c r="AC51" s="56"/>
+      <c r="AD51" s="56"/>
+      <c r="AE51" s="56"/>
+      <c r="AF51" s="56"/>
+      <c r="AG51" s="56"/>
+      <c r="AH51" s="56"/>
+      <c r="AI51" s="56"/>
+      <c r="AJ51" s="56"/>
+      <c r="AK51" s="56"/>
+      <c r="AL51" s="56"/>
+      <c r="AM51" s="56"/>
+      <c r="AN51" s="56"/>
+      <c r="AO51" s="56"/>
+      <c r="AP51" s="57"/>
+      <c r="AQ51" s="55"/>
+      <c r="AR51" s="56"/>
+      <c r="AS51" s="56"/>
+      <c r="AT51" s="56"/>
+      <c r="AU51" s="56"/>
+      <c r="AV51" s="56"/>
+      <c r="AW51" s="56"/>
+      <c r="AX51" s="56"/>
+      <c r="AY51" s="56"/>
+      <c r="AZ51" s="57"/>
     </row>
     <row r="52" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="47"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="34"/>
-      <c r="V52" s="34"/>
-      <c r="W52" s="34"/>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="34"/>
-      <c r="Z52" s="34"/>
-      <c r="AA52" s="34"/>
-      <c r="AB52" s="34"/>
-      <c r="AC52" s="34"/>
-      <c r="AD52" s="34"/>
-      <c r="AE52" s="34"/>
-      <c r="AF52" s="34"/>
-      <c r="AG52" s="34"/>
-      <c r="AH52" s="34"/>
-      <c r="AI52" s="34"/>
-      <c r="AJ52" s="34"/>
-      <c r="AK52" s="34"/>
-      <c r="AL52" s="34"/>
-      <c r="AM52" s="34"/>
-      <c r="AN52" s="34"/>
-      <c r="AO52" s="34"/>
-      <c r="AP52" s="35"/>
-      <c r="AQ52" s="33"/>
-      <c r="AR52" s="34"/>
-      <c r="AS52" s="34"/>
-      <c r="AT52" s="34"/>
-      <c r="AU52" s="34"/>
-      <c r="AV52" s="34"/>
-      <c r="AW52" s="34"/>
-      <c r="AX52" s="34"/>
-      <c r="AY52" s="34"/>
-      <c r="AZ52" s="35"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="56"/>
+      <c r="T52" s="56"/>
+      <c r="U52" s="56"/>
+      <c r="V52" s="56"/>
+      <c r="W52" s="56"/>
+      <c r="X52" s="56"/>
+      <c r="Y52" s="56"/>
+      <c r="Z52" s="56"/>
+      <c r="AA52" s="56"/>
+      <c r="AB52" s="56"/>
+      <c r="AC52" s="56"/>
+      <c r="AD52" s="56"/>
+      <c r="AE52" s="56"/>
+      <c r="AF52" s="56"/>
+      <c r="AG52" s="56"/>
+      <c r="AH52" s="56"/>
+      <c r="AI52" s="56"/>
+      <c r="AJ52" s="56"/>
+      <c r="AK52" s="56"/>
+      <c r="AL52" s="56"/>
+      <c r="AM52" s="56"/>
+      <c r="AN52" s="56"/>
+      <c r="AO52" s="56"/>
+      <c r="AP52" s="57"/>
+      <c r="AQ52" s="55"/>
+      <c r="AR52" s="56"/>
+      <c r="AS52" s="56"/>
+      <c r="AT52" s="56"/>
+      <c r="AU52" s="56"/>
+      <c r="AV52" s="56"/>
+      <c r="AW52" s="56"/>
+      <c r="AX52" s="56"/>
+      <c r="AY52" s="56"/>
+      <c r="AZ52" s="57"/>
     </row>
     <row r="53" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="47"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="34"/>
-      <c r="V53" s="34"/>
-      <c r="W53" s="34"/>
-      <c r="X53" s="34"/>
-      <c r="Y53" s="34"/>
-      <c r="Z53" s="34"/>
-      <c r="AA53" s="34"/>
-      <c r="AB53" s="34"/>
-      <c r="AC53" s="34"/>
-      <c r="AD53" s="34"/>
-      <c r="AE53" s="34"/>
-      <c r="AF53" s="34"/>
-      <c r="AG53" s="34"/>
-      <c r="AH53" s="34"/>
-      <c r="AI53" s="34"/>
-      <c r="AJ53" s="34"/>
-      <c r="AK53" s="34"/>
-      <c r="AL53" s="34"/>
-      <c r="AM53" s="34"/>
-      <c r="AN53" s="34"/>
-      <c r="AO53" s="34"/>
-      <c r="AP53" s="35"/>
-      <c r="AQ53" s="33"/>
-      <c r="AR53" s="34"/>
-      <c r="AS53" s="34"/>
-      <c r="AT53" s="34"/>
-      <c r="AU53" s="34"/>
-      <c r="AV53" s="34"/>
-      <c r="AW53" s="34"/>
-      <c r="AX53" s="34"/>
-      <c r="AY53" s="34"/>
-      <c r="AZ53" s="35"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="56"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56"/>
+      <c r="V53" s="56"/>
+      <c r="W53" s="56"/>
+      <c r="X53" s="56"/>
+      <c r="Y53" s="56"/>
+      <c r="Z53" s="56"/>
+      <c r="AA53" s="56"/>
+      <c r="AB53" s="56"/>
+      <c r="AC53" s="56"/>
+      <c r="AD53" s="56"/>
+      <c r="AE53" s="56"/>
+      <c r="AF53" s="56"/>
+      <c r="AG53" s="56"/>
+      <c r="AH53" s="56"/>
+      <c r="AI53" s="56"/>
+      <c r="AJ53" s="56"/>
+      <c r="AK53" s="56"/>
+      <c r="AL53" s="56"/>
+      <c r="AM53" s="56"/>
+      <c r="AN53" s="56"/>
+      <c r="AO53" s="56"/>
+      <c r="AP53" s="57"/>
+      <c r="AQ53" s="55"/>
+      <c r="AR53" s="56"/>
+      <c r="AS53" s="56"/>
+      <c r="AT53" s="56"/>
+      <c r="AU53" s="56"/>
+      <c r="AV53" s="56"/>
+      <c r="AW53" s="56"/>
+      <c r="AX53" s="56"/>
+      <c r="AY53" s="56"/>
+      <c r="AZ53" s="57"/>
     </row>
     <row r="54" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="47"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="34"/>
-      <c r="V54" s="34"/>
-      <c r="W54" s="34"/>
-      <c r="X54" s="34"/>
-      <c r="Y54" s="34"/>
-      <c r="Z54" s="34"/>
-      <c r="AA54" s="34"/>
-      <c r="AB54" s="34"/>
-      <c r="AC54" s="34"/>
-      <c r="AD54" s="34"/>
-      <c r="AE54" s="34"/>
-      <c r="AF54" s="34"/>
-      <c r="AG54" s="34"/>
-      <c r="AH54" s="34"/>
-      <c r="AI54" s="34"/>
-      <c r="AJ54" s="34"/>
-      <c r="AK54" s="34"/>
-      <c r="AL54" s="34"/>
-      <c r="AM54" s="34"/>
-      <c r="AN54" s="34"/>
-      <c r="AO54" s="34"/>
-      <c r="AP54" s="35"/>
-      <c r="AQ54" s="33"/>
-      <c r="AR54" s="34"/>
-      <c r="AS54" s="34"/>
-      <c r="AT54" s="34"/>
-      <c r="AU54" s="34"/>
-      <c r="AV54" s="34"/>
-      <c r="AW54" s="34"/>
-      <c r="AX54" s="34"/>
-      <c r="AY54" s="34"/>
-      <c r="AZ54" s="35"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="56"/>
+      <c r="S54" s="56"/>
+      <c r="T54" s="56"/>
+      <c r="U54" s="56"/>
+      <c r="V54" s="56"/>
+      <c r="W54" s="56"/>
+      <c r="X54" s="56"/>
+      <c r="Y54" s="56"/>
+      <c r="Z54" s="56"/>
+      <c r="AA54" s="56"/>
+      <c r="AB54" s="56"/>
+      <c r="AC54" s="56"/>
+      <c r="AD54" s="56"/>
+      <c r="AE54" s="56"/>
+      <c r="AF54" s="56"/>
+      <c r="AG54" s="56"/>
+      <c r="AH54" s="56"/>
+      <c r="AI54" s="56"/>
+      <c r="AJ54" s="56"/>
+      <c r="AK54" s="56"/>
+      <c r="AL54" s="56"/>
+      <c r="AM54" s="56"/>
+      <c r="AN54" s="56"/>
+      <c r="AO54" s="56"/>
+      <c r="AP54" s="57"/>
+      <c r="AQ54" s="55"/>
+      <c r="AR54" s="56"/>
+      <c r="AS54" s="56"/>
+      <c r="AT54" s="56"/>
+      <c r="AU54" s="56"/>
+      <c r="AV54" s="56"/>
+      <c r="AW54" s="56"/>
+      <c r="AX54" s="56"/>
+      <c r="AY54" s="56"/>
+      <c r="AZ54" s="57"/>
     </row>
     <row r="55" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="42"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="34"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="34"/>
-      <c r="U55" s="34"/>
-      <c r="V55" s="34"/>
-      <c r="W55" s="34"/>
-      <c r="X55" s="34"/>
-      <c r="Y55" s="34"/>
-      <c r="Z55" s="34"/>
-      <c r="AA55" s="34"/>
-      <c r="AB55" s="34"/>
-      <c r="AC55" s="34"/>
-      <c r="AD55" s="34"/>
-      <c r="AE55" s="34"/>
-      <c r="AF55" s="34"/>
-      <c r="AG55" s="34"/>
-      <c r="AH55" s="34"/>
-      <c r="AI55" s="34"/>
-      <c r="AJ55" s="34"/>
-      <c r="AK55" s="34"/>
-      <c r="AL55" s="34"/>
-      <c r="AM55" s="34"/>
-      <c r="AN55" s="34"/>
-      <c r="AO55" s="34"/>
-      <c r="AP55" s="35"/>
-      <c r="AQ55" s="33"/>
-      <c r="AR55" s="34"/>
-      <c r="AS55" s="34"/>
-      <c r="AT55" s="34"/>
-      <c r="AU55" s="34"/>
-      <c r="AV55" s="34"/>
-      <c r="AW55" s="34"/>
-      <c r="AX55" s="34"/>
-      <c r="AY55" s="34"/>
-      <c r="AZ55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="56"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="56"/>
+      <c r="T55" s="56"/>
+      <c r="U55" s="56"/>
+      <c r="V55" s="56"/>
+      <c r="W55" s="56"/>
+      <c r="X55" s="56"/>
+      <c r="Y55" s="56"/>
+      <c r="Z55" s="56"/>
+      <c r="AA55" s="56"/>
+      <c r="AB55" s="56"/>
+      <c r="AC55" s="56"/>
+      <c r="AD55" s="56"/>
+      <c r="AE55" s="56"/>
+      <c r="AF55" s="56"/>
+      <c r="AG55" s="56"/>
+      <c r="AH55" s="56"/>
+      <c r="AI55" s="56"/>
+      <c r="AJ55" s="56"/>
+      <c r="AK55" s="56"/>
+      <c r="AL55" s="56"/>
+      <c r="AM55" s="56"/>
+      <c r="AN55" s="56"/>
+      <c r="AO55" s="56"/>
+      <c r="AP55" s="57"/>
+      <c r="AQ55" s="55"/>
+      <c r="AR55" s="56"/>
+      <c r="AS55" s="56"/>
+      <c r="AT55" s="56"/>
+      <c r="AU55" s="56"/>
+      <c r="AV55" s="56"/>
+      <c r="AW55" s="56"/>
+      <c r="AX55" s="56"/>
+      <c r="AY55" s="56"/>
+      <c r="AZ55" s="57"/>
     </row>
     <row r="56" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="43"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="37"/>
-      <c r="U56" s="37"/>
-      <c r="V56" s="37"/>
-      <c r="W56" s="37"/>
-      <c r="X56" s="37"/>
-      <c r="Y56" s="37"/>
-      <c r="Z56" s="37"/>
-      <c r="AA56" s="37"/>
-      <c r="AB56" s="37"/>
-      <c r="AC56" s="37"/>
-      <c r="AD56" s="37"/>
-      <c r="AE56" s="37"/>
-      <c r="AF56" s="37"/>
-      <c r="AG56" s="37"/>
-      <c r="AH56" s="37"/>
-      <c r="AI56" s="37"/>
-      <c r="AJ56" s="37"/>
-      <c r="AK56" s="37"/>
-      <c r="AL56" s="37"/>
-      <c r="AM56" s="37"/>
-      <c r="AN56" s="37"/>
-      <c r="AO56" s="37"/>
-      <c r="AP56" s="38"/>
-      <c r="AQ56" s="36"/>
-      <c r="AR56" s="37"/>
-      <c r="AS56" s="37"/>
-      <c r="AT56" s="37"/>
-      <c r="AU56" s="37"/>
-      <c r="AV56" s="37"/>
-      <c r="AW56" s="37"/>
-      <c r="AX56" s="37"/>
-      <c r="AY56" s="37"/>
-      <c r="AZ56" s="38"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="59"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="59"/>
+      <c r="Q56" s="59"/>
+      <c r="R56" s="59"/>
+      <c r="S56" s="59"/>
+      <c r="T56" s="59"/>
+      <c r="U56" s="59"/>
+      <c r="V56" s="59"/>
+      <c r="W56" s="59"/>
+      <c r="X56" s="59"/>
+      <c r="Y56" s="59"/>
+      <c r="Z56" s="59"/>
+      <c r="AA56" s="59"/>
+      <c r="AB56" s="59"/>
+      <c r="AC56" s="59"/>
+      <c r="AD56" s="59"/>
+      <c r="AE56" s="59"/>
+      <c r="AF56" s="59"/>
+      <c r="AG56" s="59"/>
+      <c r="AH56" s="59"/>
+      <c r="AI56" s="59"/>
+      <c r="AJ56" s="59"/>
+      <c r="AK56" s="59"/>
+      <c r="AL56" s="59"/>
+      <c r="AM56" s="59"/>
+      <c r="AN56" s="59"/>
+      <c r="AO56" s="59"/>
+      <c r="AP56" s="60"/>
+      <c r="AQ56" s="58"/>
+      <c r="AR56" s="59"/>
+      <c r="AS56" s="59"/>
+      <c r="AT56" s="59"/>
+      <c r="AU56" s="59"/>
+      <c r="AV56" s="59"/>
+      <c r="AW56" s="59"/>
+      <c r="AX56" s="59"/>
+      <c r="AY56" s="59"/>
+      <c r="AZ56" s="60"/>
     </row>
     <row r="57" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="56"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="12"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -5591,22 +5672,22 @@
       <c r="AZ57" s="2"/>
     </row>
     <row r="58" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="51"/>
-      <c r="C58" s="52"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="29"/>
       <c r="D58" s="15"/>
       <c r="AZ58" s="3"/>
     </row>
     <row r="59" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="51"/>
-      <c r="C59" s="52"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="29"/>
       <c r="D59" s="15"/>
       <c r="AZ59" s="3"/>
     </row>
     <row r="60" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="49" t="s">
+      <c r="B60" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="50"/>
+      <c r="C60" s="31"/>
       <c r="D60" s="16"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -5658,14 +5739,14 @@
       <c r="AZ60" s="18"/>
     </row>
     <row r="61" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="51"/>
-      <c r="C61" s="52"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="29"/>
       <c r="D61" s="15"/>
       <c r="AZ61" s="3"/>
     </row>
     <row r="62" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="53"/>
-      <c r="C62" s="54"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="33"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="6"/>
@@ -5717,544 +5798,544 @@
       <c r="AZ62" s="6"/>
     </row>
     <row r="63" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="46"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="31"/>
-      <c r="S63" s="31"/>
-      <c r="T63" s="31"/>
-      <c r="U63" s="31"/>
-      <c r="V63" s="31"/>
-      <c r="W63" s="31"/>
-      <c r="X63" s="31"/>
-      <c r="Y63" s="31"/>
-      <c r="Z63" s="31"/>
-      <c r="AA63" s="31"/>
-      <c r="AB63" s="31"/>
-      <c r="AC63" s="31"/>
-      <c r="AD63" s="31"/>
-      <c r="AE63" s="31"/>
-      <c r="AF63" s="31"/>
-      <c r="AG63" s="31"/>
-      <c r="AH63" s="31"/>
-      <c r="AI63" s="31"/>
-      <c r="AJ63" s="31"/>
-      <c r="AK63" s="31"/>
-      <c r="AL63" s="31"/>
-      <c r="AM63" s="31"/>
-      <c r="AN63" s="31"/>
-      <c r="AO63" s="31"/>
-      <c r="AP63" s="32"/>
-      <c r="AQ63" s="30"/>
-      <c r="AR63" s="31"/>
-      <c r="AS63" s="31"/>
-      <c r="AT63" s="31"/>
-      <c r="AU63" s="31"/>
-      <c r="AV63" s="31"/>
-      <c r="AW63" s="31"/>
-      <c r="AX63" s="31"/>
-      <c r="AY63" s="31"/>
-      <c r="AZ63" s="32"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="53"/>
+      <c r="M63" s="53"/>
+      <c r="N63" s="53"/>
+      <c r="O63" s="53"/>
+      <c r="P63" s="53"/>
+      <c r="Q63" s="53"/>
+      <c r="R63" s="53"/>
+      <c r="S63" s="53"/>
+      <c r="T63" s="53"/>
+      <c r="U63" s="53"/>
+      <c r="V63" s="53"/>
+      <c r="W63" s="53"/>
+      <c r="X63" s="53"/>
+      <c r="Y63" s="53"/>
+      <c r="Z63" s="53"/>
+      <c r="AA63" s="53"/>
+      <c r="AB63" s="53"/>
+      <c r="AC63" s="53"/>
+      <c r="AD63" s="53"/>
+      <c r="AE63" s="53"/>
+      <c r="AF63" s="53"/>
+      <c r="AG63" s="53"/>
+      <c r="AH63" s="53"/>
+      <c r="AI63" s="53"/>
+      <c r="AJ63" s="53"/>
+      <c r="AK63" s="53"/>
+      <c r="AL63" s="53"/>
+      <c r="AM63" s="53"/>
+      <c r="AN63" s="53"/>
+      <c r="AO63" s="53"/>
+      <c r="AP63" s="54"/>
+      <c r="AQ63" s="52"/>
+      <c r="AR63" s="53"/>
+      <c r="AS63" s="53"/>
+      <c r="AT63" s="53"/>
+      <c r="AU63" s="53"/>
+      <c r="AV63" s="53"/>
+      <c r="AW63" s="53"/>
+      <c r="AX63" s="53"/>
+      <c r="AY63" s="53"/>
+      <c r="AZ63" s="54"/>
     </row>
     <row r="64" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="47"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="34"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="34"/>
-      <c r="T64" s="34"/>
-      <c r="U64" s="34"/>
-      <c r="V64" s="34"/>
-      <c r="W64" s="34"/>
-      <c r="X64" s="34"/>
-      <c r="Y64" s="34"/>
-      <c r="Z64" s="34"/>
-      <c r="AA64" s="34"/>
-      <c r="AB64" s="34"/>
-      <c r="AC64" s="34"/>
-      <c r="AD64" s="34"/>
-      <c r="AE64" s="34"/>
-      <c r="AF64" s="34"/>
-      <c r="AG64" s="34"/>
-      <c r="AH64" s="34"/>
-      <c r="AI64" s="34"/>
-      <c r="AJ64" s="34"/>
-      <c r="AK64" s="34"/>
-      <c r="AL64" s="34"/>
-      <c r="AM64" s="34"/>
-      <c r="AN64" s="34"/>
-      <c r="AO64" s="34"/>
-      <c r="AP64" s="35"/>
-      <c r="AQ64" s="33"/>
-      <c r="AR64" s="34"/>
-      <c r="AS64" s="34"/>
-      <c r="AT64" s="34"/>
-      <c r="AU64" s="34"/>
-      <c r="AV64" s="34"/>
-      <c r="AW64" s="34"/>
-      <c r="AX64" s="34"/>
-      <c r="AY64" s="34"/>
-      <c r="AZ64" s="35"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="56"/>
+      <c r="O64" s="56"/>
+      <c r="P64" s="56"/>
+      <c r="Q64" s="56"/>
+      <c r="R64" s="56"/>
+      <c r="S64" s="56"/>
+      <c r="T64" s="56"/>
+      <c r="U64" s="56"/>
+      <c r="V64" s="56"/>
+      <c r="W64" s="56"/>
+      <c r="X64" s="56"/>
+      <c r="Y64" s="56"/>
+      <c r="Z64" s="56"/>
+      <c r="AA64" s="56"/>
+      <c r="AB64" s="56"/>
+      <c r="AC64" s="56"/>
+      <c r="AD64" s="56"/>
+      <c r="AE64" s="56"/>
+      <c r="AF64" s="56"/>
+      <c r="AG64" s="56"/>
+      <c r="AH64" s="56"/>
+      <c r="AI64" s="56"/>
+      <c r="AJ64" s="56"/>
+      <c r="AK64" s="56"/>
+      <c r="AL64" s="56"/>
+      <c r="AM64" s="56"/>
+      <c r="AN64" s="56"/>
+      <c r="AO64" s="56"/>
+      <c r="AP64" s="57"/>
+      <c r="AQ64" s="55"/>
+      <c r="AR64" s="56"/>
+      <c r="AS64" s="56"/>
+      <c r="AT64" s="56"/>
+      <c r="AU64" s="56"/>
+      <c r="AV64" s="56"/>
+      <c r="AW64" s="56"/>
+      <c r="AX64" s="56"/>
+      <c r="AY64" s="56"/>
+      <c r="AZ64" s="57"/>
     </row>
     <row r="65" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="47"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="34"/>
-      <c r="P65" s="34"/>
-      <c r="Q65" s="34"/>
-      <c r="R65" s="34"/>
-      <c r="S65" s="34"/>
-      <c r="T65" s="34"/>
-      <c r="U65" s="34"/>
-      <c r="V65" s="34"/>
-      <c r="W65" s="34"/>
-      <c r="X65" s="34"/>
-      <c r="Y65" s="34"/>
-      <c r="Z65" s="34"/>
-      <c r="AA65" s="34"/>
-      <c r="AB65" s="34"/>
-      <c r="AC65" s="34"/>
-      <c r="AD65" s="34"/>
-      <c r="AE65" s="34"/>
-      <c r="AF65" s="34"/>
-      <c r="AG65" s="34"/>
-      <c r="AH65" s="34"/>
-      <c r="AI65" s="34"/>
-      <c r="AJ65" s="34"/>
-      <c r="AK65" s="34"/>
-      <c r="AL65" s="34"/>
-      <c r="AM65" s="34"/>
-      <c r="AN65" s="34"/>
-      <c r="AO65" s="34"/>
-      <c r="AP65" s="35"/>
-      <c r="AQ65" s="33"/>
-      <c r="AR65" s="34"/>
-      <c r="AS65" s="34"/>
-      <c r="AT65" s="34"/>
-      <c r="AU65" s="34"/>
-      <c r="AV65" s="34"/>
-      <c r="AW65" s="34"/>
-      <c r="AX65" s="34"/>
-      <c r="AY65" s="34"/>
-      <c r="AZ65" s="35"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="56"/>
+      <c r="K65" s="56"/>
+      <c r="L65" s="56"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="56"/>
+      <c r="O65" s="56"/>
+      <c r="P65" s="56"/>
+      <c r="Q65" s="56"/>
+      <c r="R65" s="56"/>
+      <c r="S65" s="56"/>
+      <c r="T65" s="56"/>
+      <c r="U65" s="56"/>
+      <c r="V65" s="56"/>
+      <c r="W65" s="56"/>
+      <c r="X65" s="56"/>
+      <c r="Y65" s="56"/>
+      <c r="Z65" s="56"/>
+      <c r="AA65" s="56"/>
+      <c r="AB65" s="56"/>
+      <c r="AC65" s="56"/>
+      <c r="AD65" s="56"/>
+      <c r="AE65" s="56"/>
+      <c r="AF65" s="56"/>
+      <c r="AG65" s="56"/>
+      <c r="AH65" s="56"/>
+      <c r="AI65" s="56"/>
+      <c r="AJ65" s="56"/>
+      <c r="AK65" s="56"/>
+      <c r="AL65" s="56"/>
+      <c r="AM65" s="56"/>
+      <c r="AN65" s="56"/>
+      <c r="AO65" s="56"/>
+      <c r="AP65" s="57"/>
+      <c r="AQ65" s="55"/>
+      <c r="AR65" s="56"/>
+      <c r="AS65" s="56"/>
+      <c r="AT65" s="56"/>
+      <c r="AU65" s="56"/>
+      <c r="AV65" s="56"/>
+      <c r="AW65" s="56"/>
+      <c r="AX65" s="56"/>
+      <c r="AY65" s="56"/>
+      <c r="AZ65" s="57"/>
     </row>
     <row r="66" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="47"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="34"/>
-      <c r="T66" s="34"/>
-      <c r="U66" s="34"/>
-      <c r="V66" s="34"/>
-      <c r="W66" s="34"/>
-      <c r="X66" s="34"/>
-      <c r="Y66" s="34"/>
-      <c r="Z66" s="34"/>
-      <c r="AA66" s="34"/>
-      <c r="AB66" s="34"/>
-      <c r="AC66" s="34"/>
-      <c r="AD66" s="34"/>
-      <c r="AE66" s="34"/>
-      <c r="AF66" s="34"/>
-      <c r="AG66" s="34"/>
-      <c r="AH66" s="34"/>
-      <c r="AI66" s="34"/>
-      <c r="AJ66" s="34"/>
-      <c r="AK66" s="34"/>
-      <c r="AL66" s="34"/>
-      <c r="AM66" s="34"/>
-      <c r="AN66" s="34"/>
-      <c r="AO66" s="34"/>
-      <c r="AP66" s="35"/>
-      <c r="AQ66" s="33"/>
-      <c r="AR66" s="34"/>
-      <c r="AS66" s="34"/>
-      <c r="AT66" s="34"/>
-      <c r="AU66" s="34"/>
-      <c r="AV66" s="34"/>
-      <c r="AW66" s="34"/>
-      <c r="AX66" s="34"/>
-      <c r="AY66" s="34"/>
-      <c r="AZ66" s="35"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="56"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="56"/>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="56"/>
+      <c r="S66" s="56"/>
+      <c r="T66" s="56"/>
+      <c r="U66" s="56"/>
+      <c r="V66" s="56"/>
+      <c r="W66" s="56"/>
+      <c r="X66" s="56"/>
+      <c r="Y66" s="56"/>
+      <c r="Z66" s="56"/>
+      <c r="AA66" s="56"/>
+      <c r="AB66" s="56"/>
+      <c r="AC66" s="56"/>
+      <c r="AD66" s="56"/>
+      <c r="AE66" s="56"/>
+      <c r="AF66" s="56"/>
+      <c r="AG66" s="56"/>
+      <c r="AH66" s="56"/>
+      <c r="AI66" s="56"/>
+      <c r="AJ66" s="56"/>
+      <c r="AK66" s="56"/>
+      <c r="AL66" s="56"/>
+      <c r="AM66" s="56"/>
+      <c r="AN66" s="56"/>
+      <c r="AO66" s="56"/>
+      <c r="AP66" s="57"/>
+      <c r="AQ66" s="55"/>
+      <c r="AR66" s="56"/>
+      <c r="AS66" s="56"/>
+      <c r="AT66" s="56"/>
+      <c r="AU66" s="56"/>
+      <c r="AV66" s="56"/>
+      <c r="AW66" s="56"/>
+      <c r="AX66" s="56"/>
+      <c r="AY66" s="56"/>
+      <c r="AZ66" s="57"/>
     </row>
     <row r="67" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="47"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="34"/>
-      <c r="O67" s="34"/>
-      <c r="P67" s="34"/>
-      <c r="Q67" s="34"/>
-      <c r="R67" s="34"/>
-      <c r="S67" s="34"/>
-      <c r="T67" s="34"/>
-      <c r="U67" s="34"/>
-      <c r="V67" s="34"/>
-      <c r="W67" s="34"/>
-      <c r="X67" s="34"/>
-      <c r="Y67" s="34"/>
-      <c r="Z67" s="34"/>
-      <c r="AA67" s="34"/>
-      <c r="AB67" s="34"/>
-      <c r="AC67" s="34"/>
-      <c r="AD67" s="34"/>
-      <c r="AE67" s="34"/>
-      <c r="AF67" s="34"/>
-      <c r="AG67" s="34"/>
-      <c r="AH67" s="34"/>
-      <c r="AI67" s="34"/>
-      <c r="AJ67" s="34"/>
-      <c r="AK67" s="34"/>
-      <c r="AL67" s="34"/>
-      <c r="AM67" s="34"/>
-      <c r="AN67" s="34"/>
-      <c r="AO67" s="34"/>
-      <c r="AP67" s="35"/>
-      <c r="AQ67" s="33"/>
-      <c r="AR67" s="34"/>
-      <c r="AS67" s="34"/>
-      <c r="AT67" s="34"/>
-      <c r="AU67" s="34"/>
-      <c r="AV67" s="34"/>
-      <c r="AW67" s="34"/>
-      <c r="AX67" s="34"/>
-      <c r="AY67" s="34"/>
-      <c r="AZ67" s="35"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="56"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="56"/>
+      <c r="P67" s="56"/>
+      <c r="Q67" s="56"/>
+      <c r="R67" s="56"/>
+      <c r="S67" s="56"/>
+      <c r="T67" s="56"/>
+      <c r="U67" s="56"/>
+      <c r="V67" s="56"/>
+      <c r="W67" s="56"/>
+      <c r="X67" s="56"/>
+      <c r="Y67" s="56"/>
+      <c r="Z67" s="56"/>
+      <c r="AA67" s="56"/>
+      <c r="AB67" s="56"/>
+      <c r="AC67" s="56"/>
+      <c r="AD67" s="56"/>
+      <c r="AE67" s="56"/>
+      <c r="AF67" s="56"/>
+      <c r="AG67" s="56"/>
+      <c r="AH67" s="56"/>
+      <c r="AI67" s="56"/>
+      <c r="AJ67" s="56"/>
+      <c r="AK67" s="56"/>
+      <c r="AL67" s="56"/>
+      <c r="AM67" s="56"/>
+      <c r="AN67" s="56"/>
+      <c r="AO67" s="56"/>
+      <c r="AP67" s="57"/>
+      <c r="AQ67" s="55"/>
+      <c r="AR67" s="56"/>
+      <c r="AS67" s="56"/>
+      <c r="AT67" s="56"/>
+      <c r="AU67" s="56"/>
+      <c r="AV67" s="56"/>
+      <c r="AW67" s="56"/>
+      <c r="AX67" s="56"/>
+      <c r="AY67" s="56"/>
+      <c r="AZ67" s="57"/>
     </row>
     <row r="68" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="47"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="34"/>
-      <c r="L68" s="34"/>
-      <c r="M68" s="34"/>
-      <c r="N68" s="34"/>
-      <c r="O68" s="34"/>
-      <c r="P68" s="34"/>
-      <c r="Q68" s="34"/>
-      <c r="R68" s="34"/>
-      <c r="S68" s="34"/>
-      <c r="T68" s="34"/>
-      <c r="U68" s="34"/>
-      <c r="V68" s="34"/>
-      <c r="W68" s="34"/>
-      <c r="X68" s="34"/>
-      <c r="Y68" s="34"/>
-      <c r="Z68" s="34"/>
-      <c r="AA68" s="34"/>
-      <c r="AB68" s="34"/>
-      <c r="AC68" s="34"/>
-      <c r="AD68" s="34"/>
-      <c r="AE68" s="34"/>
-      <c r="AF68" s="34"/>
-      <c r="AG68" s="34"/>
-      <c r="AH68" s="34"/>
-      <c r="AI68" s="34"/>
-      <c r="AJ68" s="34"/>
-      <c r="AK68" s="34"/>
-      <c r="AL68" s="34"/>
-      <c r="AM68" s="34"/>
-      <c r="AN68" s="34"/>
-      <c r="AO68" s="34"/>
-      <c r="AP68" s="35"/>
-      <c r="AQ68" s="33"/>
-      <c r="AR68" s="34"/>
-      <c r="AS68" s="34"/>
-      <c r="AT68" s="34"/>
-      <c r="AU68" s="34"/>
-      <c r="AV68" s="34"/>
-      <c r="AW68" s="34"/>
-      <c r="AX68" s="34"/>
-      <c r="AY68" s="34"/>
-      <c r="AZ68" s="35"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="56"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="56"/>
+      <c r="O68" s="56"/>
+      <c r="P68" s="56"/>
+      <c r="Q68" s="56"/>
+      <c r="R68" s="56"/>
+      <c r="S68" s="56"/>
+      <c r="T68" s="56"/>
+      <c r="U68" s="56"/>
+      <c r="V68" s="56"/>
+      <c r="W68" s="56"/>
+      <c r="X68" s="56"/>
+      <c r="Y68" s="56"/>
+      <c r="Z68" s="56"/>
+      <c r="AA68" s="56"/>
+      <c r="AB68" s="56"/>
+      <c r="AC68" s="56"/>
+      <c r="AD68" s="56"/>
+      <c r="AE68" s="56"/>
+      <c r="AF68" s="56"/>
+      <c r="AG68" s="56"/>
+      <c r="AH68" s="56"/>
+      <c r="AI68" s="56"/>
+      <c r="AJ68" s="56"/>
+      <c r="AK68" s="56"/>
+      <c r="AL68" s="56"/>
+      <c r="AM68" s="56"/>
+      <c r="AN68" s="56"/>
+      <c r="AO68" s="56"/>
+      <c r="AP68" s="57"/>
+      <c r="AQ68" s="55"/>
+      <c r="AR68" s="56"/>
+      <c r="AS68" s="56"/>
+      <c r="AT68" s="56"/>
+      <c r="AU68" s="56"/>
+      <c r="AV68" s="56"/>
+      <c r="AW68" s="56"/>
+      <c r="AX68" s="56"/>
+      <c r="AY68" s="56"/>
+      <c r="AZ68" s="57"/>
     </row>
     <row r="69" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="47"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="34"/>
-      <c r="O69" s="34"/>
-      <c r="P69" s="34"/>
-      <c r="Q69" s="34"/>
-      <c r="R69" s="34"/>
-      <c r="S69" s="34"/>
-      <c r="T69" s="34"/>
-      <c r="U69" s="34"/>
-      <c r="V69" s="34"/>
-      <c r="W69" s="34"/>
-      <c r="X69" s="34"/>
-      <c r="Y69" s="34"/>
-      <c r="Z69" s="34"/>
-      <c r="AA69" s="34"/>
-      <c r="AB69" s="34"/>
-      <c r="AC69" s="34"/>
-      <c r="AD69" s="34"/>
-      <c r="AE69" s="34"/>
-      <c r="AF69" s="34"/>
-      <c r="AG69" s="34"/>
-      <c r="AH69" s="34"/>
-      <c r="AI69" s="34"/>
-      <c r="AJ69" s="34"/>
-      <c r="AK69" s="34"/>
-      <c r="AL69" s="34"/>
-      <c r="AM69" s="34"/>
-      <c r="AN69" s="34"/>
-      <c r="AO69" s="34"/>
-      <c r="AP69" s="35"/>
-      <c r="AQ69" s="33"/>
-      <c r="AR69" s="34"/>
-      <c r="AS69" s="34"/>
-      <c r="AT69" s="34"/>
-      <c r="AU69" s="34"/>
-      <c r="AV69" s="34"/>
-      <c r="AW69" s="34"/>
-      <c r="AX69" s="34"/>
-      <c r="AY69" s="34"/>
-      <c r="AZ69" s="35"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
+      <c r="L69" s="56"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="56"/>
+      <c r="O69" s="56"/>
+      <c r="P69" s="56"/>
+      <c r="Q69" s="56"/>
+      <c r="R69" s="56"/>
+      <c r="S69" s="56"/>
+      <c r="T69" s="56"/>
+      <c r="U69" s="56"/>
+      <c r="V69" s="56"/>
+      <c r="W69" s="56"/>
+      <c r="X69" s="56"/>
+      <c r="Y69" s="56"/>
+      <c r="Z69" s="56"/>
+      <c r="AA69" s="56"/>
+      <c r="AB69" s="56"/>
+      <c r="AC69" s="56"/>
+      <c r="AD69" s="56"/>
+      <c r="AE69" s="56"/>
+      <c r="AF69" s="56"/>
+      <c r="AG69" s="56"/>
+      <c r="AH69" s="56"/>
+      <c r="AI69" s="56"/>
+      <c r="AJ69" s="56"/>
+      <c r="AK69" s="56"/>
+      <c r="AL69" s="56"/>
+      <c r="AM69" s="56"/>
+      <c r="AN69" s="56"/>
+      <c r="AO69" s="56"/>
+      <c r="AP69" s="57"/>
+      <c r="AQ69" s="55"/>
+      <c r="AR69" s="56"/>
+      <c r="AS69" s="56"/>
+      <c r="AT69" s="56"/>
+      <c r="AU69" s="56"/>
+      <c r="AV69" s="56"/>
+      <c r="AW69" s="56"/>
+      <c r="AX69" s="56"/>
+      <c r="AY69" s="56"/>
+      <c r="AZ69" s="57"/>
     </row>
     <row r="70" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="47"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
-      <c r="L70" s="34"/>
-      <c r="M70" s="34"/>
-      <c r="N70" s="34"/>
-      <c r="O70" s="34"/>
-      <c r="P70" s="34"/>
-      <c r="Q70" s="34"/>
-      <c r="R70" s="34"/>
-      <c r="S70" s="34"/>
-      <c r="T70" s="34"/>
-      <c r="U70" s="34"/>
-      <c r="V70" s="34"/>
-      <c r="W70" s="34"/>
-      <c r="X70" s="34"/>
-      <c r="Y70" s="34"/>
-      <c r="Z70" s="34"/>
-      <c r="AA70" s="34"/>
-      <c r="AB70" s="34"/>
-      <c r="AC70" s="34"/>
-      <c r="AD70" s="34"/>
-      <c r="AE70" s="34"/>
-      <c r="AF70" s="34"/>
-      <c r="AG70" s="34"/>
-      <c r="AH70" s="34"/>
-      <c r="AI70" s="34"/>
-      <c r="AJ70" s="34"/>
-      <c r="AK70" s="34"/>
-      <c r="AL70" s="34"/>
-      <c r="AM70" s="34"/>
-      <c r="AN70" s="34"/>
-      <c r="AO70" s="34"/>
-      <c r="AP70" s="35"/>
-      <c r="AQ70" s="33"/>
-      <c r="AR70" s="34"/>
-      <c r="AS70" s="34"/>
-      <c r="AT70" s="34"/>
-      <c r="AU70" s="34"/>
-      <c r="AV70" s="34"/>
-      <c r="AW70" s="34"/>
-      <c r="AX70" s="34"/>
-      <c r="AY70" s="34"/>
-      <c r="AZ70" s="35"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="56"/>
+      <c r="O70" s="56"/>
+      <c r="P70" s="56"/>
+      <c r="Q70" s="56"/>
+      <c r="R70" s="56"/>
+      <c r="S70" s="56"/>
+      <c r="T70" s="56"/>
+      <c r="U70" s="56"/>
+      <c r="V70" s="56"/>
+      <c r="W70" s="56"/>
+      <c r="X70" s="56"/>
+      <c r="Y70" s="56"/>
+      <c r="Z70" s="56"/>
+      <c r="AA70" s="56"/>
+      <c r="AB70" s="56"/>
+      <c r="AC70" s="56"/>
+      <c r="AD70" s="56"/>
+      <c r="AE70" s="56"/>
+      <c r="AF70" s="56"/>
+      <c r="AG70" s="56"/>
+      <c r="AH70" s="56"/>
+      <c r="AI70" s="56"/>
+      <c r="AJ70" s="56"/>
+      <c r="AK70" s="56"/>
+      <c r="AL70" s="56"/>
+      <c r="AM70" s="56"/>
+      <c r="AN70" s="56"/>
+      <c r="AO70" s="56"/>
+      <c r="AP70" s="57"/>
+      <c r="AQ70" s="55"/>
+      <c r="AR70" s="56"/>
+      <c r="AS70" s="56"/>
+      <c r="AT70" s="56"/>
+      <c r="AU70" s="56"/>
+      <c r="AV70" s="56"/>
+      <c r="AW70" s="56"/>
+      <c r="AX70" s="56"/>
+      <c r="AY70" s="56"/>
+      <c r="AZ70" s="57"/>
     </row>
     <row r="71" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="42"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="34"/>
-      <c r="M71" s="34"/>
-      <c r="N71" s="34"/>
-      <c r="O71" s="34"/>
-      <c r="P71" s="34"/>
-      <c r="Q71" s="34"/>
-      <c r="R71" s="34"/>
-      <c r="S71" s="34"/>
-      <c r="T71" s="34"/>
-      <c r="U71" s="34"/>
-      <c r="V71" s="34"/>
-      <c r="W71" s="34"/>
-      <c r="X71" s="34"/>
-      <c r="Y71" s="34"/>
-      <c r="Z71" s="34"/>
-      <c r="AA71" s="34"/>
-      <c r="AB71" s="34"/>
-      <c r="AC71" s="34"/>
-      <c r="AD71" s="34"/>
-      <c r="AE71" s="34"/>
-      <c r="AF71" s="34"/>
-      <c r="AG71" s="34"/>
-      <c r="AH71" s="34"/>
-      <c r="AI71" s="34"/>
-      <c r="AJ71" s="34"/>
-      <c r="AK71" s="34"/>
-      <c r="AL71" s="34"/>
-      <c r="AM71" s="34"/>
-      <c r="AN71" s="34"/>
-      <c r="AO71" s="34"/>
-      <c r="AP71" s="35"/>
-      <c r="AQ71" s="33"/>
-      <c r="AR71" s="34"/>
-      <c r="AS71" s="34"/>
-      <c r="AT71" s="34"/>
-      <c r="AU71" s="34"/>
-      <c r="AV71" s="34"/>
-      <c r="AW71" s="34"/>
-      <c r="AX71" s="34"/>
-      <c r="AY71" s="34"/>
-      <c r="AZ71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="56"/>
+      <c r="L71" s="56"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56"/>
+      <c r="O71" s="56"/>
+      <c r="P71" s="56"/>
+      <c r="Q71" s="56"/>
+      <c r="R71" s="56"/>
+      <c r="S71" s="56"/>
+      <c r="T71" s="56"/>
+      <c r="U71" s="56"/>
+      <c r="V71" s="56"/>
+      <c r="W71" s="56"/>
+      <c r="X71" s="56"/>
+      <c r="Y71" s="56"/>
+      <c r="Z71" s="56"/>
+      <c r="AA71" s="56"/>
+      <c r="AB71" s="56"/>
+      <c r="AC71" s="56"/>
+      <c r="AD71" s="56"/>
+      <c r="AE71" s="56"/>
+      <c r="AF71" s="56"/>
+      <c r="AG71" s="56"/>
+      <c r="AH71" s="56"/>
+      <c r="AI71" s="56"/>
+      <c r="AJ71" s="56"/>
+      <c r="AK71" s="56"/>
+      <c r="AL71" s="56"/>
+      <c r="AM71" s="56"/>
+      <c r="AN71" s="56"/>
+      <c r="AO71" s="56"/>
+      <c r="AP71" s="57"/>
+      <c r="AQ71" s="55"/>
+      <c r="AR71" s="56"/>
+      <c r="AS71" s="56"/>
+      <c r="AT71" s="56"/>
+      <c r="AU71" s="56"/>
+      <c r="AV71" s="56"/>
+      <c r="AW71" s="56"/>
+      <c r="AX71" s="56"/>
+      <c r="AY71" s="56"/>
+      <c r="AZ71" s="57"/>
     </row>
     <row r="72" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="43"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="37"/>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="37"/>
-      <c r="S72" s="37"/>
-      <c r="T72" s="37"/>
-      <c r="U72" s="37"/>
-      <c r="V72" s="37"/>
-      <c r="W72" s="37"/>
-      <c r="X72" s="37"/>
-      <c r="Y72" s="37"/>
-      <c r="Z72" s="37"/>
-      <c r="AA72" s="37"/>
-      <c r="AB72" s="37"/>
-      <c r="AC72" s="37"/>
-      <c r="AD72" s="37"/>
-      <c r="AE72" s="37"/>
-      <c r="AF72" s="37"/>
-      <c r="AG72" s="37"/>
-      <c r="AH72" s="37"/>
-      <c r="AI72" s="37"/>
-      <c r="AJ72" s="37"/>
-      <c r="AK72" s="37"/>
-      <c r="AL72" s="37"/>
-      <c r="AM72" s="37"/>
-      <c r="AN72" s="37"/>
-      <c r="AO72" s="37"/>
-      <c r="AP72" s="38"/>
-      <c r="AQ72" s="36"/>
-      <c r="AR72" s="37"/>
-      <c r="AS72" s="37"/>
-      <c r="AT72" s="37"/>
-      <c r="AU72" s="37"/>
-      <c r="AV72" s="37"/>
-      <c r="AW72" s="37"/>
-      <c r="AX72" s="37"/>
-      <c r="AY72" s="37"/>
-      <c r="AZ72" s="38"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="59"/>
+      <c r="M72" s="59"/>
+      <c r="N72" s="59"/>
+      <c r="O72" s="59"/>
+      <c r="P72" s="59"/>
+      <c r="Q72" s="59"/>
+      <c r="R72" s="59"/>
+      <c r="S72" s="59"/>
+      <c r="T72" s="59"/>
+      <c r="U72" s="59"/>
+      <c r="V72" s="59"/>
+      <c r="W72" s="59"/>
+      <c r="X72" s="59"/>
+      <c r="Y72" s="59"/>
+      <c r="Z72" s="59"/>
+      <c r="AA72" s="59"/>
+      <c r="AB72" s="59"/>
+      <c r="AC72" s="59"/>
+      <c r="AD72" s="59"/>
+      <c r="AE72" s="59"/>
+      <c r="AF72" s="59"/>
+      <c r="AG72" s="59"/>
+      <c r="AH72" s="59"/>
+      <c r="AI72" s="59"/>
+      <c r="AJ72" s="59"/>
+      <c r="AK72" s="59"/>
+      <c r="AL72" s="59"/>
+      <c r="AM72" s="59"/>
+      <c r="AN72" s="59"/>
+      <c r="AO72" s="59"/>
+      <c r="AP72" s="60"/>
+      <c r="AQ72" s="58"/>
+      <c r="AR72" s="59"/>
+      <c r="AS72" s="59"/>
+      <c r="AT72" s="59"/>
+      <c r="AU72" s="59"/>
+      <c r="AV72" s="59"/>
+      <c r="AW72" s="59"/>
+      <c r="AX72" s="59"/>
+      <c r="AY72" s="59"/>
+      <c r="AZ72" s="60"/>
     </row>
     <row r="73" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="55" t="s">
+      <c r="B73" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="56"/>
+      <c r="C73" s="27"/>
       <c r="D73" s="12"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -6306,22 +6387,22 @@
       <c r="AZ73" s="2"/>
     </row>
     <row r="74" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="51"/>
-      <c r="C74" s="52"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="29"/>
       <c r="D74" s="15"/>
       <c r="AZ74" s="3"/>
     </row>
     <row r="75" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="51"/>
-      <c r="C75" s="52"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="29"/>
       <c r="D75" s="15"/>
       <c r="AZ75" s="3"/>
     </row>
     <row r="76" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="49" t="s">
+      <c r="B76" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="50"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="16"/>
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
@@ -6373,14 +6454,14 @@
       <c r="AZ76" s="18"/>
     </row>
     <row r="77" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="51"/>
-      <c r="C77" s="52"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="29"/>
       <c r="D77" s="15"/>
       <c r="AZ77" s="3"/>
     </row>
     <row r="78" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="53"/>
-      <c r="C78" s="54"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="33"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="6"/>
@@ -6432,552 +6513,552 @@
       <c r="AZ78" s="6"/>
     </row>
     <row r="79" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="45" t="s">
+      <c r="B79" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="46"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="31"/>
-      <c r="K79" s="31"/>
-      <c r="L79" s="31"/>
-      <c r="M79" s="31"/>
-      <c r="N79" s="31"/>
-      <c r="O79" s="31"/>
-      <c r="P79" s="31"/>
-      <c r="Q79" s="31"/>
-      <c r="R79" s="31"/>
-      <c r="S79" s="31"/>
-      <c r="T79" s="31"/>
-      <c r="U79" s="31"/>
-      <c r="V79" s="31"/>
-      <c r="W79" s="31"/>
-      <c r="X79" s="31"/>
-      <c r="Y79" s="31"/>
-      <c r="Z79" s="31"/>
-      <c r="AA79" s="31"/>
-      <c r="AB79" s="31"/>
-      <c r="AC79" s="31"/>
-      <c r="AD79" s="31"/>
-      <c r="AE79" s="31"/>
-      <c r="AF79" s="31"/>
-      <c r="AG79" s="31"/>
-      <c r="AH79" s="31"/>
-      <c r="AI79" s="31"/>
-      <c r="AJ79" s="31"/>
-      <c r="AK79" s="31"/>
-      <c r="AL79" s="31"/>
-      <c r="AM79" s="31"/>
-      <c r="AN79" s="31"/>
-      <c r="AO79" s="31"/>
-      <c r="AP79" s="32"/>
-      <c r="AQ79" s="30"/>
-      <c r="AR79" s="31"/>
-      <c r="AS79" s="31"/>
-      <c r="AT79" s="31"/>
-      <c r="AU79" s="31"/>
-      <c r="AV79" s="31"/>
-      <c r="AW79" s="31"/>
-      <c r="AX79" s="31"/>
-      <c r="AY79" s="31"/>
-      <c r="AZ79" s="32"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="52"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="53"/>
+      <c r="H79" s="53"/>
+      <c r="I79" s="53"/>
+      <c r="J79" s="53"/>
+      <c r="K79" s="53"/>
+      <c r="L79" s="53"/>
+      <c r="M79" s="53"/>
+      <c r="N79" s="53"/>
+      <c r="O79" s="53"/>
+      <c r="P79" s="53"/>
+      <c r="Q79" s="53"/>
+      <c r="R79" s="53"/>
+      <c r="S79" s="53"/>
+      <c r="T79" s="53"/>
+      <c r="U79" s="53"/>
+      <c r="V79" s="53"/>
+      <c r="W79" s="53"/>
+      <c r="X79" s="53"/>
+      <c r="Y79" s="53"/>
+      <c r="Z79" s="53"/>
+      <c r="AA79" s="53"/>
+      <c r="AB79" s="53"/>
+      <c r="AC79" s="53"/>
+      <c r="AD79" s="53"/>
+      <c r="AE79" s="53"/>
+      <c r="AF79" s="53"/>
+      <c r="AG79" s="53"/>
+      <c r="AH79" s="53"/>
+      <c r="AI79" s="53"/>
+      <c r="AJ79" s="53"/>
+      <c r="AK79" s="53"/>
+      <c r="AL79" s="53"/>
+      <c r="AM79" s="53"/>
+      <c r="AN79" s="53"/>
+      <c r="AO79" s="53"/>
+      <c r="AP79" s="54"/>
+      <c r="AQ79" s="52"/>
+      <c r="AR79" s="53"/>
+      <c r="AS79" s="53"/>
+      <c r="AT79" s="53"/>
+      <c r="AU79" s="53"/>
+      <c r="AV79" s="53"/>
+      <c r="AW79" s="53"/>
+      <c r="AX79" s="53"/>
+      <c r="AY79" s="53"/>
+      <c r="AZ79" s="54"/>
     </row>
     <row r="80" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="47"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="34"/>
-      <c r="L80" s="34"/>
-      <c r="M80" s="34"/>
-      <c r="N80" s="34"/>
-      <c r="O80" s="34"/>
-      <c r="P80" s="34"/>
-      <c r="Q80" s="34"/>
-      <c r="R80" s="34"/>
-      <c r="S80" s="34"/>
-      <c r="T80" s="34"/>
-      <c r="U80" s="34"/>
-      <c r="V80" s="34"/>
-      <c r="W80" s="34"/>
-      <c r="X80" s="34"/>
-      <c r="Y80" s="34"/>
-      <c r="Z80" s="34"/>
-      <c r="AA80" s="34"/>
-      <c r="AB80" s="34"/>
-      <c r="AC80" s="34"/>
-      <c r="AD80" s="34"/>
-      <c r="AE80" s="34"/>
-      <c r="AF80" s="34"/>
-      <c r="AG80" s="34"/>
-      <c r="AH80" s="34"/>
-      <c r="AI80" s="34"/>
-      <c r="AJ80" s="34"/>
-      <c r="AK80" s="34"/>
-      <c r="AL80" s="34"/>
-      <c r="AM80" s="34"/>
-      <c r="AN80" s="34"/>
-      <c r="AO80" s="34"/>
-      <c r="AP80" s="35"/>
-      <c r="AQ80" s="33"/>
-      <c r="AR80" s="34"/>
-      <c r="AS80" s="34"/>
-      <c r="AT80" s="34"/>
-      <c r="AU80" s="34"/>
-      <c r="AV80" s="34"/>
-      <c r="AW80" s="34"/>
-      <c r="AX80" s="34"/>
-      <c r="AY80" s="34"/>
-      <c r="AZ80" s="35"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="56"/>
+      <c r="M80" s="56"/>
+      <c r="N80" s="56"/>
+      <c r="O80" s="56"/>
+      <c r="P80" s="56"/>
+      <c r="Q80" s="56"/>
+      <c r="R80" s="56"/>
+      <c r="S80" s="56"/>
+      <c r="T80" s="56"/>
+      <c r="U80" s="56"/>
+      <c r="V80" s="56"/>
+      <c r="W80" s="56"/>
+      <c r="X80" s="56"/>
+      <c r="Y80" s="56"/>
+      <c r="Z80" s="56"/>
+      <c r="AA80" s="56"/>
+      <c r="AB80" s="56"/>
+      <c r="AC80" s="56"/>
+      <c r="AD80" s="56"/>
+      <c r="AE80" s="56"/>
+      <c r="AF80" s="56"/>
+      <c r="AG80" s="56"/>
+      <c r="AH80" s="56"/>
+      <c r="AI80" s="56"/>
+      <c r="AJ80" s="56"/>
+      <c r="AK80" s="56"/>
+      <c r="AL80" s="56"/>
+      <c r="AM80" s="56"/>
+      <c r="AN80" s="56"/>
+      <c r="AO80" s="56"/>
+      <c r="AP80" s="57"/>
+      <c r="AQ80" s="55"/>
+      <c r="AR80" s="56"/>
+      <c r="AS80" s="56"/>
+      <c r="AT80" s="56"/>
+      <c r="AU80" s="56"/>
+      <c r="AV80" s="56"/>
+      <c r="AW80" s="56"/>
+      <c r="AX80" s="56"/>
+      <c r="AY80" s="56"/>
+      <c r="AZ80" s="57"/>
     </row>
     <row r="81" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="47"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="34"/>
-      <c r="L81" s="34"/>
-      <c r="M81" s="34"/>
-      <c r="N81" s="34"/>
-      <c r="O81" s="34"/>
-      <c r="P81" s="34"/>
-      <c r="Q81" s="34"/>
-      <c r="R81" s="34"/>
-      <c r="S81" s="34"/>
-      <c r="T81" s="34"/>
-      <c r="U81" s="34"/>
-      <c r="V81" s="34"/>
-      <c r="W81" s="34"/>
-      <c r="X81" s="34"/>
-      <c r="Y81" s="34"/>
-      <c r="Z81" s="34"/>
-      <c r="AA81" s="34"/>
-      <c r="AB81" s="34"/>
-      <c r="AC81" s="34"/>
-      <c r="AD81" s="34"/>
-      <c r="AE81" s="34"/>
-      <c r="AF81" s="34"/>
-      <c r="AG81" s="34"/>
-      <c r="AH81" s="34"/>
-      <c r="AI81" s="34"/>
-      <c r="AJ81" s="34"/>
-      <c r="AK81" s="34"/>
-      <c r="AL81" s="34"/>
-      <c r="AM81" s="34"/>
-      <c r="AN81" s="34"/>
-      <c r="AO81" s="34"/>
-      <c r="AP81" s="35"/>
-      <c r="AQ81" s="33"/>
-      <c r="AR81" s="34"/>
-      <c r="AS81" s="34"/>
-      <c r="AT81" s="34"/>
-      <c r="AU81" s="34"/>
-      <c r="AV81" s="34"/>
-      <c r="AW81" s="34"/>
-      <c r="AX81" s="34"/>
-      <c r="AY81" s="34"/>
-      <c r="AZ81" s="35"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="56"/>
+      <c r="K81" s="56"/>
+      <c r="L81" s="56"/>
+      <c r="M81" s="56"/>
+      <c r="N81" s="56"/>
+      <c r="O81" s="56"/>
+      <c r="P81" s="56"/>
+      <c r="Q81" s="56"/>
+      <c r="R81" s="56"/>
+      <c r="S81" s="56"/>
+      <c r="T81" s="56"/>
+      <c r="U81" s="56"/>
+      <c r="V81" s="56"/>
+      <c r="W81" s="56"/>
+      <c r="X81" s="56"/>
+      <c r="Y81" s="56"/>
+      <c r="Z81" s="56"/>
+      <c r="AA81" s="56"/>
+      <c r="AB81" s="56"/>
+      <c r="AC81" s="56"/>
+      <c r="AD81" s="56"/>
+      <c r="AE81" s="56"/>
+      <c r="AF81" s="56"/>
+      <c r="AG81" s="56"/>
+      <c r="AH81" s="56"/>
+      <c r="AI81" s="56"/>
+      <c r="AJ81" s="56"/>
+      <c r="AK81" s="56"/>
+      <c r="AL81" s="56"/>
+      <c r="AM81" s="56"/>
+      <c r="AN81" s="56"/>
+      <c r="AO81" s="56"/>
+      <c r="AP81" s="57"/>
+      <c r="AQ81" s="55"/>
+      <c r="AR81" s="56"/>
+      <c r="AS81" s="56"/>
+      <c r="AT81" s="56"/>
+      <c r="AU81" s="56"/>
+      <c r="AV81" s="56"/>
+      <c r="AW81" s="56"/>
+      <c r="AX81" s="56"/>
+      <c r="AY81" s="56"/>
+      <c r="AZ81" s="57"/>
     </row>
     <row r="82" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="47"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="34"/>
-      <c r="L82" s="34"/>
-      <c r="M82" s="34"/>
-      <c r="N82" s="34"/>
-      <c r="O82" s="34"/>
-      <c r="P82" s="34"/>
-      <c r="Q82" s="34"/>
-      <c r="R82" s="34"/>
-      <c r="S82" s="34"/>
-      <c r="T82" s="34"/>
-      <c r="U82" s="34"/>
-      <c r="V82" s="34"/>
-      <c r="W82" s="34"/>
-      <c r="X82" s="34"/>
-      <c r="Y82" s="34"/>
-      <c r="Z82" s="34"/>
-      <c r="AA82" s="34"/>
-      <c r="AB82" s="34"/>
-      <c r="AC82" s="34"/>
-      <c r="AD82" s="34"/>
-      <c r="AE82" s="34"/>
-      <c r="AF82" s="34"/>
-      <c r="AG82" s="34"/>
-      <c r="AH82" s="34"/>
-      <c r="AI82" s="34"/>
-      <c r="AJ82" s="34"/>
-      <c r="AK82" s="34"/>
-      <c r="AL82" s="34"/>
-      <c r="AM82" s="34"/>
-      <c r="AN82" s="34"/>
-      <c r="AO82" s="34"/>
-      <c r="AP82" s="35"/>
-      <c r="AQ82" s="33"/>
-      <c r="AR82" s="34"/>
-      <c r="AS82" s="34"/>
-      <c r="AT82" s="34"/>
-      <c r="AU82" s="34"/>
-      <c r="AV82" s="34"/>
-      <c r="AW82" s="34"/>
-      <c r="AX82" s="34"/>
-      <c r="AY82" s="34"/>
-      <c r="AZ82" s="35"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="56"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="56"/>
+      <c r="L82" s="56"/>
+      <c r="M82" s="56"/>
+      <c r="N82" s="56"/>
+      <c r="O82" s="56"/>
+      <c r="P82" s="56"/>
+      <c r="Q82" s="56"/>
+      <c r="R82" s="56"/>
+      <c r="S82" s="56"/>
+      <c r="T82" s="56"/>
+      <c r="U82" s="56"/>
+      <c r="V82" s="56"/>
+      <c r="W82" s="56"/>
+      <c r="X82" s="56"/>
+      <c r="Y82" s="56"/>
+      <c r="Z82" s="56"/>
+      <c r="AA82" s="56"/>
+      <c r="AB82" s="56"/>
+      <c r="AC82" s="56"/>
+      <c r="AD82" s="56"/>
+      <c r="AE82" s="56"/>
+      <c r="AF82" s="56"/>
+      <c r="AG82" s="56"/>
+      <c r="AH82" s="56"/>
+      <c r="AI82" s="56"/>
+      <c r="AJ82" s="56"/>
+      <c r="AK82" s="56"/>
+      <c r="AL82" s="56"/>
+      <c r="AM82" s="56"/>
+      <c r="AN82" s="56"/>
+      <c r="AO82" s="56"/>
+      <c r="AP82" s="57"/>
+      <c r="AQ82" s="55"/>
+      <c r="AR82" s="56"/>
+      <c r="AS82" s="56"/>
+      <c r="AT82" s="56"/>
+      <c r="AU82" s="56"/>
+      <c r="AV82" s="56"/>
+      <c r="AW82" s="56"/>
+      <c r="AX82" s="56"/>
+      <c r="AY82" s="56"/>
+      <c r="AZ82" s="57"/>
     </row>
     <row r="83" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="47"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="34"/>
-      <c r="L83" s="34"/>
-      <c r="M83" s="34"/>
-      <c r="N83" s="34"/>
-      <c r="O83" s="34"/>
-      <c r="P83" s="34"/>
-      <c r="Q83" s="34"/>
-      <c r="R83" s="34"/>
-      <c r="S83" s="34"/>
-      <c r="T83" s="34"/>
-      <c r="U83" s="34"/>
-      <c r="V83" s="34"/>
-      <c r="W83" s="34"/>
-      <c r="X83" s="34"/>
-      <c r="Y83" s="34"/>
-      <c r="Z83" s="34"/>
-      <c r="AA83" s="34"/>
-      <c r="AB83" s="34"/>
-      <c r="AC83" s="34"/>
-      <c r="AD83" s="34"/>
-      <c r="AE83" s="34"/>
-      <c r="AF83" s="34"/>
-      <c r="AG83" s="34"/>
-      <c r="AH83" s="34"/>
-      <c r="AI83" s="34"/>
-      <c r="AJ83" s="34"/>
-      <c r="AK83" s="34"/>
-      <c r="AL83" s="34"/>
-      <c r="AM83" s="34"/>
-      <c r="AN83" s="34"/>
-      <c r="AO83" s="34"/>
-      <c r="AP83" s="35"/>
-      <c r="AQ83" s="33"/>
-      <c r="AR83" s="34"/>
-      <c r="AS83" s="34"/>
-      <c r="AT83" s="34"/>
-      <c r="AU83" s="34"/>
-      <c r="AV83" s="34"/>
-      <c r="AW83" s="34"/>
-      <c r="AX83" s="34"/>
-      <c r="AY83" s="34"/>
-      <c r="AZ83" s="35"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="56"/>
+      <c r="K83" s="56"/>
+      <c r="L83" s="56"/>
+      <c r="M83" s="56"/>
+      <c r="N83" s="56"/>
+      <c r="O83" s="56"/>
+      <c r="P83" s="56"/>
+      <c r="Q83" s="56"/>
+      <c r="R83" s="56"/>
+      <c r="S83" s="56"/>
+      <c r="T83" s="56"/>
+      <c r="U83" s="56"/>
+      <c r="V83" s="56"/>
+      <c r="W83" s="56"/>
+      <c r="X83" s="56"/>
+      <c r="Y83" s="56"/>
+      <c r="Z83" s="56"/>
+      <c r="AA83" s="56"/>
+      <c r="AB83" s="56"/>
+      <c r="AC83" s="56"/>
+      <c r="AD83" s="56"/>
+      <c r="AE83" s="56"/>
+      <c r="AF83" s="56"/>
+      <c r="AG83" s="56"/>
+      <c r="AH83" s="56"/>
+      <c r="AI83" s="56"/>
+      <c r="AJ83" s="56"/>
+      <c r="AK83" s="56"/>
+      <c r="AL83" s="56"/>
+      <c r="AM83" s="56"/>
+      <c r="AN83" s="56"/>
+      <c r="AO83" s="56"/>
+      <c r="AP83" s="57"/>
+      <c r="AQ83" s="55"/>
+      <c r="AR83" s="56"/>
+      <c r="AS83" s="56"/>
+      <c r="AT83" s="56"/>
+      <c r="AU83" s="56"/>
+      <c r="AV83" s="56"/>
+      <c r="AW83" s="56"/>
+      <c r="AX83" s="56"/>
+      <c r="AY83" s="56"/>
+      <c r="AZ83" s="57"/>
     </row>
     <row r="84" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="47"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="34"/>
-      <c r="L84" s="34"/>
-      <c r="M84" s="34"/>
-      <c r="N84" s="34"/>
-      <c r="O84" s="34"/>
-      <c r="P84" s="34"/>
-      <c r="Q84" s="34"/>
-      <c r="R84" s="34"/>
-      <c r="S84" s="34"/>
-      <c r="T84" s="34"/>
-      <c r="U84" s="34"/>
-      <c r="V84" s="34"/>
-      <c r="W84" s="34"/>
-      <c r="X84" s="34"/>
-      <c r="Y84" s="34"/>
-      <c r="Z84" s="34"/>
-      <c r="AA84" s="34"/>
-      <c r="AB84" s="34"/>
-      <c r="AC84" s="34"/>
-      <c r="AD84" s="34"/>
-      <c r="AE84" s="34"/>
-      <c r="AF84" s="34"/>
-      <c r="AG84" s="34"/>
-      <c r="AH84" s="34"/>
-      <c r="AI84" s="34"/>
-      <c r="AJ84" s="34"/>
-      <c r="AK84" s="34"/>
-      <c r="AL84" s="34"/>
-      <c r="AM84" s="34"/>
-      <c r="AN84" s="34"/>
-      <c r="AO84" s="34"/>
-      <c r="AP84" s="35"/>
-      <c r="AQ84" s="33"/>
-      <c r="AR84" s="34"/>
-      <c r="AS84" s="34"/>
-      <c r="AT84" s="34"/>
-      <c r="AU84" s="34"/>
-      <c r="AV84" s="34"/>
-      <c r="AW84" s="34"/>
-      <c r="AX84" s="34"/>
-      <c r="AY84" s="34"/>
-      <c r="AZ84" s="35"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="56"/>
+      <c r="I84" s="56"/>
+      <c r="J84" s="56"/>
+      <c r="K84" s="56"/>
+      <c r="L84" s="56"/>
+      <c r="M84" s="56"/>
+      <c r="N84" s="56"/>
+      <c r="O84" s="56"/>
+      <c r="P84" s="56"/>
+      <c r="Q84" s="56"/>
+      <c r="R84" s="56"/>
+      <c r="S84" s="56"/>
+      <c r="T84" s="56"/>
+      <c r="U84" s="56"/>
+      <c r="V84" s="56"/>
+      <c r="W84" s="56"/>
+      <c r="X84" s="56"/>
+      <c r="Y84" s="56"/>
+      <c r="Z84" s="56"/>
+      <c r="AA84" s="56"/>
+      <c r="AB84" s="56"/>
+      <c r="AC84" s="56"/>
+      <c r="AD84" s="56"/>
+      <c r="AE84" s="56"/>
+      <c r="AF84" s="56"/>
+      <c r="AG84" s="56"/>
+      <c r="AH84" s="56"/>
+      <c r="AI84" s="56"/>
+      <c r="AJ84" s="56"/>
+      <c r="AK84" s="56"/>
+      <c r="AL84" s="56"/>
+      <c r="AM84" s="56"/>
+      <c r="AN84" s="56"/>
+      <c r="AO84" s="56"/>
+      <c r="AP84" s="57"/>
+      <c r="AQ84" s="55"/>
+      <c r="AR84" s="56"/>
+      <c r="AS84" s="56"/>
+      <c r="AT84" s="56"/>
+      <c r="AU84" s="56"/>
+      <c r="AV84" s="56"/>
+      <c r="AW84" s="56"/>
+      <c r="AX84" s="56"/>
+      <c r="AY84" s="56"/>
+      <c r="AZ84" s="57"/>
     </row>
     <row r="85" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="47"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="34"/>
-      <c r="L85" s="34"/>
-      <c r="M85" s="34"/>
-      <c r="N85" s="34"/>
-      <c r="O85" s="34"/>
-      <c r="P85" s="34"/>
-      <c r="Q85" s="34"/>
-      <c r="R85" s="34"/>
-      <c r="S85" s="34"/>
-      <c r="T85" s="34"/>
-      <c r="U85" s="34"/>
-      <c r="V85" s="34"/>
-      <c r="W85" s="34"/>
-      <c r="X85" s="34"/>
-      <c r="Y85" s="34"/>
-      <c r="Z85" s="34"/>
-      <c r="AA85" s="34"/>
-      <c r="AB85" s="34"/>
-      <c r="AC85" s="34"/>
-      <c r="AD85" s="34"/>
-      <c r="AE85" s="34"/>
-      <c r="AF85" s="34"/>
-      <c r="AG85" s="34"/>
-      <c r="AH85" s="34"/>
-      <c r="AI85" s="34"/>
-      <c r="AJ85" s="34"/>
-      <c r="AK85" s="34"/>
-      <c r="AL85" s="34"/>
-      <c r="AM85" s="34"/>
-      <c r="AN85" s="34"/>
-      <c r="AO85" s="34"/>
-      <c r="AP85" s="35"/>
-      <c r="AQ85" s="33"/>
-      <c r="AR85" s="34"/>
-      <c r="AS85" s="34"/>
-      <c r="AT85" s="34"/>
-      <c r="AU85" s="34"/>
-      <c r="AV85" s="34"/>
-      <c r="AW85" s="34"/>
-      <c r="AX85" s="34"/>
-      <c r="AY85" s="34"/>
-      <c r="AZ85" s="35"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="56"/>
+      <c r="K85" s="56"/>
+      <c r="L85" s="56"/>
+      <c r="M85" s="56"/>
+      <c r="N85" s="56"/>
+      <c r="O85" s="56"/>
+      <c r="P85" s="56"/>
+      <c r="Q85" s="56"/>
+      <c r="R85" s="56"/>
+      <c r="S85" s="56"/>
+      <c r="T85" s="56"/>
+      <c r="U85" s="56"/>
+      <c r="V85" s="56"/>
+      <c r="W85" s="56"/>
+      <c r="X85" s="56"/>
+      <c r="Y85" s="56"/>
+      <c r="Z85" s="56"/>
+      <c r="AA85" s="56"/>
+      <c r="AB85" s="56"/>
+      <c r="AC85" s="56"/>
+      <c r="AD85" s="56"/>
+      <c r="AE85" s="56"/>
+      <c r="AF85" s="56"/>
+      <c r="AG85" s="56"/>
+      <c r="AH85" s="56"/>
+      <c r="AI85" s="56"/>
+      <c r="AJ85" s="56"/>
+      <c r="AK85" s="56"/>
+      <c r="AL85" s="56"/>
+      <c r="AM85" s="56"/>
+      <c r="AN85" s="56"/>
+      <c r="AO85" s="56"/>
+      <c r="AP85" s="57"/>
+      <c r="AQ85" s="55"/>
+      <c r="AR85" s="56"/>
+      <c r="AS85" s="56"/>
+      <c r="AT85" s="56"/>
+      <c r="AU85" s="56"/>
+      <c r="AV85" s="56"/>
+      <c r="AW85" s="56"/>
+      <c r="AX85" s="56"/>
+      <c r="AY85" s="56"/>
+      <c r="AZ85" s="57"/>
     </row>
     <row r="86" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="47"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="34"/>
-      <c r="L86" s="34"/>
-      <c r="M86" s="34"/>
-      <c r="N86" s="34"/>
-      <c r="O86" s="34"/>
-      <c r="P86" s="34"/>
-      <c r="Q86" s="34"/>
-      <c r="R86" s="34"/>
-      <c r="S86" s="34"/>
-      <c r="T86" s="34"/>
-      <c r="U86" s="34"/>
-      <c r="V86" s="34"/>
-      <c r="W86" s="34"/>
-      <c r="X86" s="34"/>
-      <c r="Y86" s="34"/>
-      <c r="Z86" s="34"/>
-      <c r="AA86" s="34"/>
-      <c r="AB86" s="34"/>
-      <c r="AC86" s="34"/>
-      <c r="AD86" s="34"/>
-      <c r="AE86" s="34"/>
-      <c r="AF86" s="34"/>
-      <c r="AG86" s="34"/>
-      <c r="AH86" s="34"/>
-      <c r="AI86" s="34"/>
-      <c r="AJ86" s="34"/>
-      <c r="AK86" s="34"/>
-      <c r="AL86" s="34"/>
-      <c r="AM86" s="34"/>
-      <c r="AN86" s="34"/>
-      <c r="AO86" s="34"/>
-      <c r="AP86" s="35"/>
-      <c r="AQ86" s="33"/>
-      <c r="AR86" s="34"/>
-      <c r="AS86" s="34"/>
-      <c r="AT86" s="34"/>
-      <c r="AU86" s="34"/>
-      <c r="AV86" s="34"/>
-      <c r="AW86" s="34"/>
-      <c r="AX86" s="34"/>
-      <c r="AY86" s="34"/>
-      <c r="AZ86" s="35"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="56"/>
+      <c r="K86" s="56"/>
+      <c r="L86" s="56"/>
+      <c r="M86" s="56"/>
+      <c r="N86" s="56"/>
+      <c r="O86" s="56"/>
+      <c r="P86" s="56"/>
+      <c r="Q86" s="56"/>
+      <c r="R86" s="56"/>
+      <c r="S86" s="56"/>
+      <c r="T86" s="56"/>
+      <c r="U86" s="56"/>
+      <c r="V86" s="56"/>
+      <c r="W86" s="56"/>
+      <c r="X86" s="56"/>
+      <c r="Y86" s="56"/>
+      <c r="Z86" s="56"/>
+      <c r="AA86" s="56"/>
+      <c r="AB86" s="56"/>
+      <c r="AC86" s="56"/>
+      <c r="AD86" s="56"/>
+      <c r="AE86" s="56"/>
+      <c r="AF86" s="56"/>
+      <c r="AG86" s="56"/>
+      <c r="AH86" s="56"/>
+      <c r="AI86" s="56"/>
+      <c r="AJ86" s="56"/>
+      <c r="AK86" s="56"/>
+      <c r="AL86" s="56"/>
+      <c r="AM86" s="56"/>
+      <c r="AN86" s="56"/>
+      <c r="AO86" s="56"/>
+      <c r="AP86" s="57"/>
+      <c r="AQ86" s="55"/>
+      <c r="AR86" s="56"/>
+      <c r="AS86" s="56"/>
+      <c r="AT86" s="56"/>
+      <c r="AU86" s="56"/>
+      <c r="AV86" s="56"/>
+      <c r="AW86" s="56"/>
+      <c r="AX86" s="56"/>
+      <c r="AY86" s="56"/>
+      <c r="AZ86" s="57"/>
     </row>
     <row r="87" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="41" t="s">
+      <c r="B87" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C87" s="42"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="34"/>
-      <c r="L87" s="34"/>
-      <c r="M87" s="34"/>
-      <c r="N87" s="34"/>
-      <c r="O87" s="34"/>
-      <c r="P87" s="34"/>
-      <c r="Q87" s="34"/>
-      <c r="R87" s="34"/>
-      <c r="S87" s="34"/>
-      <c r="T87" s="34"/>
-      <c r="U87" s="34"/>
-      <c r="V87" s="34"/>
-      <c r="W87" s="34"/>
-      <c r="X87" s="34"/>
-      <c r="Y87" s="34"/>
-      <c r="Z87" s="34"/>
-      <c r="AA87" s="34"/>
-      <c r="AB87" s="34"/>
-      <c r="AC87" s="34"/>
-      <c r="AD87" s="34"/>
-      <c r="AE87" s="34"/>
-      <c r="AF87" s="34"/>
-      <c r="AG87" s="34"/>
-      <c r="AH87" s="34"/>
-      <c r="AI87" s="34"/>
-      <c r="AJ87" s="34"/>
-      <c r="AK87" s="34"/>
-      <c r="AL87" s="34"/>
-      <c r="AM87" s="34"/>
-      <c r="AN87" s="34"/>
-      <c r="AO87" s="34"/>
-      <c r="AP87" s="35"/>
-      <c r="AQ87" s="33"/>
-      <c r="AR87" s="34"/>
-      <c r="AS87" s="34"/>
-      <c r="AT87" s="34"/>
-      <c r="AU87" s="34"/>
-      <c r="AV87" s="34"/>
-      <c r="AW87" s="34"/>
-      <c r="AX87" s="34"/>
-      <c r="AY87" s="34"/>
-      <c r="AZ87" s="35"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="56"/>
+      <c r="K87" s="56"/>
+      <c r="L87" s="56"/>
+      <c r="M87" s="56"/>
+      <c r="N87" s="56"/>
+      <c r="O87" s="56"/>
+      <c r="P87" s="56"/>
+      <c r="Q87" s="56"/>
+      <c r="R87" s="56"/>
+      <c r="S87" s="56"/>
+      <c r="T87" s="56"/>
+      <c r="U87" s="56"/>
+      <c r="V87" s="56"/>
+      <c r="W87" s="56"/>
+      <c r="X87" s="56"/>
+      <c r="Y87" s="56"/>
+      <c r="Z87" s="56"/>
+      <c r="AA87" s="56"/>
+      <c r="AB87" s="56"/>
+      <c r="AC87" s="56"/>
+      <c r="AD87" s="56"/>
+      <c r="AE87" s="56"/>
+      <c r="AF87" s="56"/>
+      <c r="AG87" s="56"/>
+      <c r="AH87" s="56"/>
+      <c r="AI87" s="56"/>
+      <c r="AJ87" s="56"/>
+      <c r="AK87" s="56"/>
+      <c r="AL87" s="56"/>
+      <c r="AM87" s="56"/>
+      <c r="AN87" s="56"/>
+      <c r="AO87" s="56"/>
+      <c r="AP87" s="57"/>
+      <c r="AQ87" s="55"/>
+      <c r="AR87" s="56"/>
+      <c r="AS87" s="56"/>
+      <c r="AT87" s="56"/>
+      <c r="AU87" s="56"/>
+      <c r="AV87" s="56"/>
+      <c r="AW87" s="56"/>
+      <c r="AX87" s="56"/>
+      <c r="AY87" s="56"/>
+      <c r="AZ87" s="57"/>
     </row>
     <row r="88" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="43"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="37"/>
-      <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="37"/>
-      <c r="O88" s="37"/>
-      <c r="P88" s="37"/>
-      <c r="Q88" s="37"/>
-      <c r="R88" s="37"/>
-      <c r="S88" s="37"/>
-      <c r="T88" s="37"/>
-      <c r="U88" s="37"/>
-      <c r="V88" s="37"/>
-      <c r="W88" s="37"/>
-      <c r="X88" s="37"/>
-      <c r="Y88" s="37"/>
-      <c r="Z88" s="37"/>
-      <c r="AA88" s="37"/>
-      <c r="AB88" s="37"/>
-      <c r="AC88" s="37"/>
-      <c r="AD88" s="37"/>
-      <c r="AE88" s="37"/>
-      <c r="AF88" s="37"/>
-      <c r="AG88" s="37"/>
-      <c r="AH88" s="37"/>
-      <c r="AI88" s="37"/>
-      <c r="AJ88" s="37"/>
-      <c r="AK88" s="37"/>
-      <c r="AL88" s="37"/>
-      <c r="AM88" s="37"/>
-      <c r="AN88" s="37"/>
-      <c r="AO88" s="37"/>
-      <c r="AP88" s="38"/>
-      <c r="AQ88" s="36"/>
-      <c r="AR88" s="37"/>
-      <c r="AS88" s="37"/>
-      <c r="AT88" s="37"/>
-      <c r="AU88" s="37"/>
-      <c r="AV88" s="37"/>
-      <c r="AW88" s="37"/>
-      <c r="AX88" s="37"/>
-      <c r="AY88" s="37"/>
-      <c r="AZ88" s="38"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="59"/>
+      <c r="J88" s="59"/>
+      <c r="K88" s="59"/>
+      <c r="L88" s="59"/>
+      <c r="M88" s="59"/>
+      <c r="N88" s="59"/>
+      <c r="O88" s="59"/>
+      <c r="P88" s="59"/>
+      <c r="Q88" s="59"/>
+      <c r="R88" s="59"/>
+      <c r="S88" s="59"/>
+      <c r="T88" s="59"/>
+      <c r="U88" s="59"/>
+      <c r="V88" s="59"/>
+      <c r="W88" s="59"/>
+      <c r="X88" s="59"/>
+      <c r="Y88" s="59"/>
+      <c r="Z88" s="59"/>
+      <c r="AA88" s="59"/>
+      <c r="AB88" s="59"/>
+      <c r="AC88" s="59"/>
+      <c r="AD88" s="59"/>
+      <c r="AE88" s="59"/>
+      <c r="AF88" s="59"/>
+      <c r="AG88" s="59"/>
+      <c r="AH88" s="59"/>
+      <c r="AI88" s="59"/>
+      <c r="AJ88" s="59"/>
+      <c r="AK88" s="59"/>
+      <c r="AL88" s="59"/>
+      <c r="AM88" s="59"/>
+      <c r="AN88" s="59"/>
+      <c r="AO88" s="59"/>
+      <c r="AP88" s="60"/>
+      <c r="AQ88" s="58"/>
+      <c r="AR88" s="59"/>
+      <c r="AS88" s="59"/>
+      <c r="AT88" s="59"/>
+      <c r="AU88" s="59"/>
+      <c r="AV88" s="59"/>
+      <c r="AW88" s="59"/>
+      <c r="AX88" s="59"/>
+      <c r="AY88" s="59"/>
+      <c r="AZ88" s="60"/>
     </row>
     <row r="89" spans="2:52" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="39" t="s">
+      <c r="B89" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="39"/>
-      <c r="K89" s="39"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="61"/>
+      <c r="H89" s="61"/>
+      <c r="I89" s="61"/>
+      <c r="J89" s="61"/>
+      <c r="K89" s="61"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
@@ -7004,216 +7085,216 @@
       <c r="AL90" s="8"/>
     </row>
     <row r="91" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="21"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="22"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="22"/>
-      <c r="P91" s="22"/>
-      <c r="Q91" s="22"/>
-      <c r="R91" s="22"/>
-      <c r="S91" s="22"/>
-      <c r="T91" s="22"/>
-      <c r="U91" s="22"/>
-      <c r="V91" s="22"/>
-      <c r="W91" s="22"/>
-      <c r="X91" s="22"/>
-      <c r="Y91" s="22"/>
-      <c r="Z91" s="22"/>
-      <c r="AA91" s="22"/>
-      <c r="AB91" s="22"/>
-      <c r="AC91" s="22"/>
-      <c r="AD91" s="22"/>
-      <c r="AE91" s="22"/>
-      <c r="AF91" s="22"/>
-      <c r="AG91" s="22"/>
-      <c r="AH91" s="22"/>
-      <c r="AI91" s="22"/>
-      <c r="AJ91" s="22"/>
-      <c r="AK91" s="22"/>
-      <c r="AL91" s="22"/>
-      <c r="AM91" s="22"/>
-      <c r="AN91" s="22"/>
-      <c r="AO91" s="22"/>
-      <c r="AP91" s="22"/>
-      <c r="AQ91" s="22"/>
-      <c r="AR91" s="22"/>
-      <c r="AS91" s="22"/>
-      <c r="AT91" s="22"/>
-      <c r="AU91" s="22"/>
-      <c r="AV91" s="22"/>
-      <c r="AW91" s="22"/>
-      <c r="AX91" s="22"/>
-      <c r="AY91" s="22"/>
-      <c r="AZ91" s="23"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="44"/>
+      <c r="M91" s="44"/>
+      <c r="N91" s="44"/>
+      <c r="O91" s="44"/>
+      <c r="P91" s="44"/>
+      <c r="Q91" s="44"/>
+      <c r="R91" s="44"/>
+      <c r="S91" s="44"/>
+      <c r="T91" s="44"/>
+      <c r="U91" s="44"/>
+      <c r="V91" s="44"/>
+      <c r="W91" s="44"/>
+      <c r="X91" s="44"/>
+      <c r="Y91" s="44"/>
+      <c r="Z91" s="44"/>
+      <c r="AA91" s="44"/>
+      <c r="AB91" s="44"/>
+      <c r="AC91" s="44"/>
+      <c r="AD91" s="44"/>
+      <c r="AE91" s="44"/>
+      <c r="AF91" s="44"/>
+      <c r="AG91" s="44"/>
+      <c r="AH91" s="44"/>
+      <c r="AI91" s="44"/>
+      <c r="AJ91" s="44"/>
+      <c r="AK91" s="44"/>
+      <c r="AL91" s="44"/>
+      <c r="AM91" s="44"/>
+      <c r="AN91" s="44"/>
+      <c r="AO91" s="44"/>
+      <c r="AP91" s="44"/>
+      <c r="AQ91" s="44"/>
+      <c r="AR91" s="44"/>
+      <c r="AS91" s="44"/>
+      <c r="AT91" s="44"/>
+      <c r="AU91" s="44"/>
+      <c r="AV91" s="44"/>
+      <c r="AW91" s="44"/>
+      <c r="AX91" s="44"/>
+      <c r="AY91" s="44"/>
+      <c r="AZ91" s="45"/>
     </row>
     <row r="92" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="24"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="25"/>
-      <c r="K92" s="25"/>
-      <c r="L92" s="25"/>
-      <c r="M92" s="25"/>
-      <c r="N92" s="25"/>
-      <c r="O92" s="25"/>
-      <c r="P92" s="25"/>
-      <c r="Q92" s="25"/>
-      <c r="R92" s="25"/>
-      <c r="S92" s="25"/>
-      <c r="T92" s="25"/>
-      <c r="U92" s="25"/>
-      <c r="V92" s="25"/>
-      <c r="W92" s="25"/>
-      <c r="X92" s="25"/>
-      <c r="Y92" s="25"/>
-      <c r="Z92" s="25"/>
-      <c r="AA92" s="25"/>
-      <c r="AB92" s="25"/>
-      <c r="AC92" s="25"/>
-      <c r="AD92" s="25"/>
-      <c r="AE92" s="25"/>
-      <c r="AF92" s="25"/>
-      <c r="AG92" s="25"/>
-      <c r="AH92" s="25"/>
-      <c r="AI92" s="25"/>
-      <c r="AJ92" s="25"/>
-      <c r="AK92" s="25"/>
-      <c r="AL92" s="25"/>
-      <c r="AM92" s="25"/>
-      <c r="AN92" s="25"/>
-      <c r="AO92" s="25"/>
-      <c r="AP92" s="25"/>
-      <c r="AQ92" s="25"/>
-      <c r="AR92" s="25"/>
-      <c r="AS92" s="25"/>
-      <c r="AT92" s="25"/>
-      <c r="AU92" s="25"/>
-      <c r="AV92" s="25"/>
-      <c r="AW92" s="25"/>
-      <c r="AX92" s="25"/>
-      <c r="AY92" s="25"/>
-      <c r="AZ92" s="26"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="47"/>
+      <c r="N92" s="47"/>
+      <c r="O92" s="47"/>
+      <c r="P92" s="47"/>
+      <c r="Q92" s="47"/>
+      <c r="R92" s="47"/>
+      <c r="S92" s="47"/>
+      <c r="T92" s="47"/>
+      <c r="U92" s="47"/>
+      <c r="V92" s="47"/>
+      <c r="W92" s="47"/>
+      <c r="X92" s="47"/>
+      <c r="Y92" s="47"/>
+      <c r="Z92" s="47"/>
+      <c r="AA92" s="47"/>
+      <c r="AB92" s="47"/>
+      <c r="AC92" s="47"/>
+      <c r="AD92" s="47"/>
+      <c r="AE92" s="47"/>
+      <c r="AF92" s="47"/>
+      <c r="AG92" s="47"/>
+      <c r="AH92" s="47"/>
+      <c r="AI92" s="47"/>
+      <c r="AJ92" s="47"/>
+      <c r="AK92" s="47"/>
+      <c r="AL92" s="47"/>
+      <c r="AM92" s="47"/>
+      <c r="AN92" s="47"/>
+      <c r="AO92" s="47"/>
+      <c r="AP92" s="47"/>
+      <c r="AQ92" s="47"/>
+      <c r="AR92" s="47"/>
+      <c r="AS92" s="47"/>
+      <c r="AT92" s="47"/>
+      <c r="AU92" s="47"/>
+      <c r="AV92" s="47"/>
+      <c r="AW92" s="47"/>
+      <c r="AX92" s="47"/>
+      <c r="AY92" s="47"/>
+      <c r="AZ92" s="48"/>
     </row>
     <row r="93" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="24"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="25"/>
-      <c r="K93" s="25"/>
-      <c r="L93" s="25"/>
-      <c r="M93" s="25"/>
-      <c r="N93" s="25"/>
-      <c r="O93" s="25"/>
-      <c r="P93" s="25"/>
-      <c r="Q93" s="25"/>
-      <c r="R93" s="25"/>
-      <c r="S93" s="25"/>
-      <c r="T93" s="25"/>
-      <c r="U93" s="25"/>
-      <c r="V93" s="25"/>
-      <c r="W93" s="25"/>
-      <c r="X93" s="25"/>
-      <c r="Y93" s="25"/>
-      <c r="Z93" s="25"/>
-      <c r="AA93" s="25"/>
-      <c r="AB93" s="25"/>
-      <c r="AC93" s="25"/>
-      <c r="AD93" s="25"/>
-      <c r="AE93" s="25"/>
-      <c r="AF93" s="25"/>
-      <c r="AG93" s="25"/>
-      <c r="AH93" s="25"/>
-      <c r="AI93" s="25"/>
-      <c r="AJ93" s="25"/>
-      <c r="AK93" s="25"/>
-      <c r="AL93" s="25"/>
-      <c r="AM93" s="25"/>
-      <c r="AN93" s="25"/>
-      <c r="AO93" s="25"/>
-      <c r="AP93" s="25"/>
-      <c r="AQ93" s="25"/>
-      <c r="AR93" s="25"/>
-      <c r="AS93" s="25"/>
-      <c r="AT93" s="25"/>
-      <c r="AU93" s="25"/>
-      <c r="AV93" s="25"/>
-      <c r="AW93" s="25"/>
-      <c r="AX93" s="25"/>
-      <c r="AY93" s="25"/>
-      <c r="AZ93" s="26"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="47"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="47"/>
+      <c r="I93" s="47"/>
+      <c r="J93" s="47"/>
+      <c r="K93" s="47"/>
+      <c r="L93" s="47"/>
+      <c r="M93" s="47"/>
+      <c r="N93" s="47"/>
+      <c r="O93" s="47"/>
+      <c r="P93" s="47"/>
+      <c r="Q93" s="47"/>
+      <c r="R93" s="47"/>
+      <c r="S93" s="47"/>
+      <c r="T93" s="47"/>
+      <c r="U93" s="47"/>
+      <c r="V93" s="47"/>
+      <c r="W93" s="47"/>
+      <c r="X93" s="47"/>
+      <c r="Y93" s="47"/>
+      <c r="Z93" s="47"/>
+      <c r="AA93" s="47"/>
+      <c r="AB93" s="47"/>
+      <c r="AC93" s="47"/>
+      <c r="AD93" s="47"/>
+      <c r="AE93" s="47"/>
+      <c r="AF93" s="47"/>
+      <c r="AG93" s="47"/>
+      <c r="AH93" s="47"/>
+      <c r="AI93" s="47"/>
+      <c r="AJ93" s="47"/>
+      <c r="AK93" s="47"/>
+      <c r="AL93" s="47"/>
+      <c r="AM93" s="47"/>
+      <c r="AN93" s="47"/>
+      <c r="AO93" s="47"/>
+      <c r="AP93" s="47"/>
+      <c r="AQ93" s="47"/>
+      <c r="AR93" s="47"/>
+      <c r="AS93" s="47"/>
+      <c r="AT93" s="47"/>
+      <c r="AU93" s="47"/>
+      <c r="AV93" s="47"/>
+      <c r="AW93" s="47"/>
+      <c r="AX93" s="47"/>
+      <c r="AY93" s="47"/>
+      <c r="AZ93" s="48"/>
     </row>
     <row r="94" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="27"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
-      <c r="K94" s="28"/>
-      <c r="L94" s="28"/>
-      <c r="M94" s="28"/>
-      <c r="N94" s="28"/>
-      <c r="O94" s="28"/>
-      <c r="P94" s="28"/>
-      <c r="Q94" s="28"/>
-      <c r="R94" s="28"/>
-      <c r="S94" s="28"/>
-      <c r="T94" s="28"/>
-      <c r="U94" s="28"/>
-      <c r="V94" s="28"/>
-      <c r="W94" s="28"/>
-      <c r="X94" s="28"/>
-      <c r="Y94" s="28"/>
-      <c r="Z94" s="28"/>
-      <c r="AA94" s="28"/>
-      <c r="AB94" s="28"/>
-      <c r="AC94" s="28"/>
-      <c r="AD94" s="28"/>
-      <c r="AE94" s="28"/>
-      <c r="AF94" s="28"/>
-      <c r="AG94" s="28"/>
-      <c r="AH94" s="28"/>
-      <c r="AI94" s="28"/>
-      <c r="AJ94" s="28"/>
-      <c r="AK94" s="28"/>
-      <c r="AL94" s="28"/>
-      <c r="AM94" s="28"/>
-      <c r="AN94" s="28"/>
-      <c r="AO94" s="28"/>
-      <c r="AP94" s="28"/>
-      <c r="AQ94" s="28"/>
-      <c r="AR94" s="28"/>
-      <c r="AS94" s="28"/>
-      <c r="AT94" s="28"/>
-      <c r="AU94" s="28"/>
-      <c r="AV94" s="28"/>
-      <c r="AW94" s="28"/>
-      <c r="AX94" s="28"/>
-      <c r="AY94" s="28"/>
-      <c r="AZ94" s="29"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="50"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="50"/>
+      <c r="I94" s="50"/>
+      <c r="J94" s="50"/>
+      <c r="K94" s="50"/>
+      <c r="L94" s="50"/>
+      <c r="M94" s="50"/>
+      <c r="N94" s="50"/>
+      <c r="O94" s="50"/>
+      <c r="P94" s="50"/>
+      <c r="Q94" s="50"/>
+      <c r="R94" s="50"/>
+      <c r="S94" s="50"/>
+      <c r="T94" s="50"/>
+      <c r="U94" s="50"/>
+      <c r="V94" s="50"/>
+      <c r="W94" s="50"/>
+      <c r="X94" s="50"/>
+      <c r="Y94" s="50"/>
+      <c r="Z94" s="50"/>
+      <c r="AA94" s="50"/>
+      <c r="AB94" s="50"/>
+      <c r="AC94" s="50"/>
+      <c r="AD94" s="50"/>
+      <c r="AE94" s="50"/>
+      <c r="AF94" s="50"/>
+      <c r="AG94" s="50"/>
+      <c r="AH94" s="50"/>
+      <c r="AI94" s="50"/>
+      <c r="AJ94" s="50"/>
+      <c r="AK94" s="50"/>
+      <c r="AL94" s="50"/>
+      <c r="AM94" s="50"/>
+      <c r="AN94" s="50"/>
+      <c r="AO94" s="50"/>
+      <c r="AP94" s="50"/>
+      <c r="AQ94" s="50"/>
+      <c r="AR94" s="50"/>
+      <c r="AS94" s="50"/>
+      <c r="AT94" s="50"/>
+      <c r="AU94" s="50"/>
+      <c r="AV94" s="50"/>
+      <c r="AW94" s="50"/>
+      <c r="AX94" s="50"/>
+      <c r="AY94" s="50"/>
+      <c r="AZ94" s="51"/>
     </row>
     <row r="95" spans="2:52" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="2:52" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7226,28 +7307,6 @@
     <row r="103" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B63:C70"/>
-    <mergeCell ref="B73:C75"/>
-    <mergeCell ref="B76:C78"/>
-    <mergeCell ref="B44:C46"/>
-    <mergeCell ref="B57:C59"/>
-    <mergeCell ref="B60:C62"/>
-    <mergeCell ref="B47:C54"/>
-    <mergeCell ref="B55:C56"/>
-    <mergeCell ref="B41:C43"/>
-    <mergeCell ref="AG1:AZ2"/>
-    <mergeCell ref="T1:AF2"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="AB8:AK8"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="B28:C30"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B15:C22"/>
-    <mergeCell ref="B31:C38"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="B25:C27"/>
     <mergeCell ref="B91:AZ94"/>
     <mergeCell ref="B4:AZ7"/>
     <mergeCell ref="D15:AP24"/>
@@ -7264,6 +7323,28 @@
     <mergeCell ref="B87:C88"/>
     <mergeCell ref="D79:AP88"/>
     <mergeCell ref="AQ79:AZ88"/>
+    <mergeCell ref="B41:C43"/>
+    <mergeCell ref="AG1:AZ2"/>
+    <mergeCell ref="T1:AF2"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="AB8:AK8"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B28:C30"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B15:C22"/>
+    <mergeCell ref="B31:C38"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="B25:C27"/>
+    <mergeCell ref="B63:C70"/>
+    <mergeCell ref="B73:C75"/>
+    <mergeCell ref="B76:C78"/>
+    <mergeCell ref="B44:C46"/>
+    <mergeCell ref="B57:C59"/>
+    <mergeCell ref="B60:C62"/>
+    <mergeCell ref="B47:C54"/>
+    <mergeCell ref="B55:C56"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions verticalCentered="1"/>
@@ -7275,6 +7356,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D5379252AF64A748BDD859550927C367" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2116e7e1946d68e35c0eaf3b6cc07ccd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67bb9ec5-9b1b-486c-a632-e2dd655875ec" xmlns:ns3="3fd75491-3ac1-4e58-b8d5-9038dca3fcdc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bef8a7803ea145e855fe7a4317e18dd6" ns2:_="" ns3:_="">
     <xsd:import namespace="67bb9ec5-9b1b-486c-a632-e2dd655875ec"/>
@@ -7491,12 +7578,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7507,6 +7588,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57598A84-87D5-4E37-AB32-A40732200DBA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="67bb9ec5-9b1b-486c-a632-e2dd655875ec"/>
+    <ds:schemaRef ds:uri="3fd75491-3ac1-4e58-b8d5-9038dca3fcdc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{847108D8-BB9B-483A-861E-97C086A0D0E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7525,23 +7623,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57598A84-87D5-4E37-AB32-A40732200DBA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="67bb9ec5-9b1b-486c-a632-e2dd655875ec"/>
-    <ds:schemaRef ds:uri="3fd75491-3ac1-4e58-b8d5-9038dca3fcdc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA46E2CD-519D-47DE-B196-0DD50840862B}">
   <ds:schemaRefs>

--- a/【研修中】_日次報告書研修日誌林康輝.xlsx
+++ b/【研修中】_日次報告書研修日誌林康輝.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.utsunomiya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81805\Desktop\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69AC484-4B07-4DE8-AA62-DFCEDD117C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA192870-DEA3-41F6-A12F-9269631E232B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7065" yWindow="975" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="研修日誌" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t xml:space="preserve"> 研　修　日　誌 </t>
     <rPh sb="1" eb="2">
@@ -236,6 +236,19 @@
     <rPh sb="60" eb="61">
       <t>ウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事内容や、使うアプリケーションに慣れ、スムーズに作業を行うことができるようになること。
+また、自分の考えや案を、おそれず積極的にだしていくこと。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テレワーク初日でしたが、思ったよりスムーズに作業に入ることができました。自宅なので気持ちが入らないのではと少し心配でしたが、前日に宇都宮さんがおっしゃられた通り、自宅でもスーツを着ることで、私の場合はさらにネクタイを締めることで、真剣に取り組むスイッチが入り、集中することができたように感じました。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8月 18日　</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -498,69 +511,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -614,9 +564,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -644,6 +591,72 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -665,14 +678,132 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6F64E9-2B07-42D2-AE47-B008FDC7A16C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304926" y="3162300"/>
+          <a:ext cx="419100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F58E9F13-880D-4274-9872-89F0A223E330}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="3162300"/>
+          <a:ext cx="1704975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -689,7 +820,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2152650" y="2876550"/>
+          <a:off x="1314450" y="2876550"/>
           <a:ext cx="409575" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -724,8 +855,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -748,8 +879,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2571750" y="2876550"/>
-          <a:ext cx="857250" cy="276225"/>
+          <a:off x="1724025" y="2876550"/>
+          <a:ext cx="1704975" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1136,7 +1267,7 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1160,8 +1291,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2571750" y="981075"/>
-          <a:ext cx="857250" cy="266700"/>
+          <a:off x="1714500" y="981075"/>
+          <a:ext cx="1714500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1430,8 +1561,8 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
@@ -1454,8 +1585,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2571750" y="1266825"/>
-          <a:ext cx="857250" cy="266700"/>
+          <a:off x="1724025" y="1266825"/>
+          <a:ext cx="1704975" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1489,14 +1620,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
@@ -1513,7 +1644,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2133600" y="1257299"/>
+          <a:off x="1285875" y="1257299"/>
           <a:ext cx="428626" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1725,14 +1856,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
@@ -1749,7 +1880,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2133600" y="981074"/>
+          <a:off x="1285875" y="981074"/>
           <a:ext cx="428626" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1784,7 +1915,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -1803,7 +1934,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="1019175"/>
+          <a:off x="1200150" y="1019175"/>
           <a:ext cx="595035" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1842,7 +1973,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -1861,7 +1992,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2066925" y="1285875"/>
+          <a:off x="1209675" y="1285875"/>
           <a:ext cx="595035" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1900,8 +2031,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
@@ -1919,7 +2050,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2714625" y="1009650"/>
+          <a:off x="2324100" y="1009650"/>
           <a:ext cx="586058" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1962,8 +2093,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
@@ -1981,7 +2112,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2714625" y="1285875"/>
+          <a:off x="2333625" y="1285875"/>
           <a:ext cx="586058" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2380,8 +2511,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
@@ -2399,7 +2530,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2733675" y="2905125"/>
+          <a:off x="2333625" y="2905125"/>
           <a:ext cx="586058" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2685,8 +2816,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
@@ -2704,7 +2835,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2152650" y="2847975"/>
+          <a:off x="1304925" y="2847975"/>
           <a:ext cx="442814" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2748,6 +2879,1261 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586058" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DE6C6A-2C8D-44DE-925F-AB535FF399B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="3190875"/>
+          <a:ext cx="586058" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>開発</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="442814" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{753BD17D-38EB-43A5-87E2-4E9AF49409F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="3133725"/>
+          <a:ext cx="442814" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ミーテ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ィング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>69319</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="330732" cy="649997"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A59A99A-AC3F-4DC3-84C7-7AE49E80B190}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3355444" y="3143249"/>
+          <a:ext cx="330732" cy="649997"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>休憩</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C958ED2E-A204-4C1F-A18C-1164BCBDE413}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581399" y="3162300"/>
+          <a:ext cx="2562225" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586058" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC67FF2-F2CE-4290-850F-7EA85C74E57E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552950" y="3190875"/>
+          <a:ext cx="586058" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>開発</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D724B0CF-F1E9-4F99-A66A-802644CAD146}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="3162300"/>
+          <a:ext cx="428624" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B44E2CC-95B4-45E0-AB0F-C0C984A4FFFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6581775" y="3162300"/>
+          <a:ext cx="428624" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="389850" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="テキスト ボックス 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80350452-12C7-41E6-AA86-73ACC3218134}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619875" y="3171825"/>
+          <a:ext cx="389850" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>日誌</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="464038" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="テキスト ボックス 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300E65FC-62D1-4374-85E8-29E1CDF14ECB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="3181350"/>
+          <a:ext cx="464038" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>京セラ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD313F5-D6D8-4CED-9060-0B395BC0F2D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304926" y="3162300"/>
+          <a:ext cx="419100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B65428F-F3AA-4DC6-B4D1-BE04AE46909E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="3162300"/>
+          <a:ext cx="1704975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586058" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A5CC4A-00EE-4588-8A5A-7B273317410D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="3190875"/>
+          <a:ext cx="586058" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>開発</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B50BDF9F-49C0-4A1E-9E10-4A15C40912BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581399" y="3162300"/>
+          <a:ext cx="2562225" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586058" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="テキスト ボックス 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BE11D5-ADCD-4DEB-9C9D-A115E3A89EC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552950" y="3190875"/>
+          <a:ext cx="586058" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>開発</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B81EAD-403B-49FD-8AE0-EFAB12D829D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="3162300"/>
+          <a:ext cx="428624" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21709C9B-2DA5-4C7D-92E4-99339DFA9275}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6581775" y="3162300"/>
+          <a:ext cx="428624" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="389850" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="テキスト ボックス 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48FE0496-1C9A-4EE5-883E-0C6ACE9D246D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619875" y="3171825"/>
+          <a:ext cx="389850" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>日誌</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="テキスト ボックス 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25B10F00-27B3-4B6C-ABA4-CF47467274B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="4752975"/>
+          <a:ext cx="492443" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>社会人</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>研修</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="442814" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="テキスト ボックス 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B8787D-F971-4A71-AEC5-F1E8997D2710}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="4743450"/>
+          <a:ext cx="442814" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ミーテ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ィング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>69319</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="330732" cy="649997"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="テキスト ボックス 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E8D94C1-55B5-442E-A355-F4C450D799EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3355444" y="4762499"/>
+          <a:ext cx="330732" cy="649997"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>休憩</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>88369</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>86873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>86873</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C21A8B98-BCDD-4BEF-AEE3-B2001140C5E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3374494" y="5058923"/>
+          <a:ext cx="330732" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3078,7 +4464,7 @@
   <dimension ref="A1:BS103"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AQ25" sqref="AQ25"/>
+      <selection activeCell="AY45" sqref="AY45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="9.9499999999999993" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -3105,59 +4491,59 @@
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
       <c r="S1" s="20"/>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="38" t="s">
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="63"/>
+      <c r="AY1" s="63"/>
+      <c r="AZ1" s="63"/>
       <c r="BA1" s="14"/>
     </row>
     <row r="2" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
@@ -3166,51 +4552,51 @@
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="38"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="63"/>
+      <c r="AQ2" s="63"/>
+      <c r="AR2" s="63"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="63"/>
+      <c r="AU2" s="63"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="63"/>
     </row>
     <row r="3" spans="1:53" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -3228,250 +4614,252 @@
       <c r="AL3" s="11"/>
     </row>
     <row r="4" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="44"/>
-      <c r="AU4" s="44"/>
-      <c r="AV4" s="44"/>
-      <c r="AW4" s="44"/>
-      <c r="AX4" s="44"/>
-      <c r="AY4" s="44"/>
-      <c r="AZ4" s="45"/>
+      <c r="B4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
+      <c r="AT4" s="23"/>
+      <c r="AU4" s="23"/>
+      <c r="AV4" s="23"/>
+      <c r="AW4" s="23"/>
+      <c r="AX4" s="23"/>
+      <c r="AY4" s="23"/>
+      <c r="AZ4" s="24"/>
     </row>
     <row r="5" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="48"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="26"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26"/>
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="26"/>
+      <c r="AP5" s="26"/>
+      <c r="AQ5" s="26"/>
+      <c r="AR5" s="26"/>
+      <c r="AS5" s="26"/>
+      <c r="AT5" s="26"/>
+      <c r="AU5" s="26"/>
+      <c r="AV5" s="26"/>
+      <c r="AW5" s="26"/>
+      <c r="AX5" s="26"/>
+      <c r="AY5" s="26"/>
+      <c r="AZ5" s="27"/>
     </row>
     <row r="6" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="47"/>
-      <c r="AP6" s="47"/>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="47"/>
-      <c r="AS6" s="47"/>
-      <c r="AT6" s="47"/>
-      <c r="AU6" s="47"/>
-      <c r="AV6" s="47"/>
-      <c r="AW6" s="47"/>
-      <c r="AX6" s="47"/>
-      <c r="AY6" s="47"/>
-      <c r="AZ6" s="48"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="26"/>
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="26"/>
+      <c r="AS6" s="26"/>
+      <c r="AT6" s="26"/>
+      <c r="AU6" s="26"/>
+      <c r="AV6" s="26"/>
+      <c r="AW6" s="26"/>
+      <c r="AX6" s="26"/>
+      <c r="AY6" s="26"/>
+      <c r="AZ6" s="27"/>
     </row>
     <row r="7" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="50"/>
-      <c r="AJ7" s="50"/>
-      <c r="AK7" s="50"/>
-      <c r="AL7" s="50"/>
-      <c r="AM7" s="50"/>
-      <c r="AN7" s="50"/>
-      <c r="AO7" s="50"/>
-      <c r="AP7" s="50"/>
-      <c r="AQ7" s="50"/>
-      <c r="AR7" s="50"/>
-      <c r="AS7" s="50"/>
-      <c r="AT7" s="50"/>
-      <c r="AU7" s="50"/>
-      <c r="AV7" s="50"/>
-      <c r="AW7" s="50"/>
-      <c r="AX7" s="50"/>
-      <c r="AY7" s="50"/>
-      <c r="AZ7" s="51"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="30"/>
     </row>
     <row r="8" spans="1:53" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="AA8" s="11"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="40"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="40"/>
-      <c r="AK8" s="40"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="50"/>
+      <c r="AI8" s="50"/>
+      <c r="AJ8" s="50"/>
+      <c r="AK8" s="50"/>
       <c r="AL8" s="8"/>
     </row>
     <row r="9" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="12"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -3523,22 +4911,22 @@
       <c r="AZ9" s="2"/>
     </row>
     <row r="10" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="21"/>
       <c r="AZ10" s="3"/>
     </row>
     <row r="11" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="15"/>
       <c r="AZ11" s="3"/>
     </row>
     <row r="12" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -3590,14 +4978,14 @@
       <c r="AZ12" s="18"/>
     </row>
     <row r="13" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="15"/>
       <c r="AZ13" s="3"/>
     </row>
     <row r="14" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
@@ -3649,548 +5037,548 @@
       <c r="AZ14" s="6"/>
     </row>
     <row r="15" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="42">
+      <c r="B15" s="70">
         <v>44060</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="52" t="s">
+      <c r="C15" s="56"/>
+      <c r="D15" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
-      <c r="AD15" s="53"/>
-      <c r="AE15" s="53"/>
-      <c r="AF15" s="53"/>
-      <c r="AG15" s="53"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="53"/>
-      <c r="AJ15" s="53"/>
-      <c r="AK15" s="53"/>
-      <c r="AL15" s="53"/>
-      <c r="AM15" s="53"/>
-      <c r="AN15" s="53"/>
-      <c r="AO15" s="53"/>
-      <c r="AP15" s="54"/>
-      <c r="AQ15" s="62" t="s">
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="33"/>
+      <c r="AQ15" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AR15" s="63"/>
-      <c r="AS15" s="63"/>
-      <c r="AT15" s="63"/>
-      <c r="AU15" s="63"/>
-      <c r="AV15" s="63"/>
-      <c r="AW15" s="63"/>
-      <c r="AX15" s="63"/>
-      <c r="AY15" s="63"/>
-      <c r="AZ15" s="64"/>
+      <c r="AR15" s="41"/>
+      <c r="AS15" s="41"/>
+      <c r="AT15" s="41"/>
+      <c r="AU15" s="41"/>
+      <c r="AV15" s="41"/>
+      <c r="AW15" s="41"/>
+      <c r="AX15" s="41"/>
+      <c r="AY15" s="41"/>
+      <c r="AZ15" s="42"/>
     </row>
     <row r="16" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="56"/>
-      <c r="AK16" s="56"/>
-      <c r="AL16" s="56"/>
-      <c r="AM16" s="56"/>
-      <c r="AN16" s="56"/>
-      <c r="AO16" s="56"/>
-      <c r="AP16" s="57"/>
-      <c r="AQ16" s="65"/>
-      <c r="AR16" s="66"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="66"/>
-      <c r="AU16" s="66"/>
-      <c r="AV16" s="66"/>
-      <c r="AW16" s="66"/>
-      <c r="AX16" s="66"/>
-      <c r="AY16" s="66"/>
-      <c r="AZ16" s="67"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="35"/>
+      <c r="AO16" s="35"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="43"/>
+      <c r="AR16" s="44"/>
+      <c r="AS16" s="44"/>
+      <c r="AT16" s="44"/>
+      <c r="AU16" s="44"/>
+      <c r="AV16" s="44"/>
+      <c r="AW16" s="44"/>
+      <c r="AX16" s="44"/>
+      <c r="AY16" s="44"/>
+      <c r="AZ16" s="45"/>
     </row>
     <row r="17" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="56"/>
-      <c r="AF17" s="56"/>
-      <c r="AG17" s="56"/>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="56"/>
-      <c r="AJ17" s="56"/>
-      <c r="AK17" s="56"/>
-      <c r="AL17" s="56"/>
-      <c r="AM17" s="56"/>
-      <c r="AN17" s="56"/>
-      <c r="AO17" s="56"/>
-      <c r="AP17" s="57"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="66"/>
-      <c r="AS17" s="66"/>
-      <c r="AT17" s="66"/>
-      <c r="AU17" s="66"/>
-      <c r="AV17" s="66"/>
-      <c r="AW17" s="66"/>
-      <c r="AX17" s="66"/>
-      <c r="AY17" s="66"/>
-      <c r="AZ17" s="67"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="35"/>
+      <c r="AK17" s="35"/>
+      <c r="AL17" s="35"/>
+      <c r="AM17" s="35"/>
+      <c r="AN17" s="35"/>
+      <c r="AO17" s="35"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="43"/>
+      <c r="AR17" s="44"/>
+      <c r="AS17" s="44"/>
+      <c r="AT17" s="44"/>
+      <c r="AU17" s="44"/>
+      <c r="AV17" s="44"/>
+      <c r="AW17" s="44"/>
+      <c r="AX17" s="44"/>
+      <c r="AY17" s="44"/>
+      <c r="AZ17" s="45"/>
     </row>
     <row r="18" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="56"/>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="56"/>
-      <c r="AJ18" s="56"/>
-      <c r="AK18" s="56"/>
-      <c r="AL18" s="56"/>
-      <c r="AM18" s="56"/>
-      <c r="AN18" s="56"/>
-      <c r="AO18" s="56"/>
-      <c r="AP18" s="57"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="66"/>
-      <c r="AS18" s="66"/>
-      <c r="AT18" s="66"/>
-      <c r="AU18" s="66"/>
-      <c r="AV18" s="66"/>
-      <c r="AW18" s="66"/>
-      <c r="AX18" s="66"/>
-      <c r="AY18" s="66"/>
-      <c r="AZ18" s="67"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="35"/>
+      <c r="AO18" s="35"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="43"/>
+      <c r="AR18" s="44"/>
+      <c r="AS18" s="44"/>
+      <c r="AT18" s="44"/>
+      <c r="AU18" s="44"/>
+      <c r="AV18" s="44"/>
+      <c r="AW18" s="44"/>
+      <c r="AX18" s="44"/>
+      <c r="AY18" s="44"/>
+      <c r="AZ18" s="45"/>
     </row>
     <row r="19" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="56"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="56"/>
-      <c r="AK19" s="56"/>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="56"/>
-      <c r="AN19" s="56"/>
-      <c r="AO19" s="56"/>
-      <c r="AP19" s="57"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="66"/>
-      <c r="AS19" s="66"/>
-      <c r="AT19" s="66"/>
-      <c r="AU19" s="66"/>
-      <c r="AV19" s="66"/>
-      <c r="AW19" s="66"/>
-      <c r="AX19" s="66"/>
-      <c r="AY19" s="66"/>
-      <c r="AZ19" s="67"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
+      <c r="AI19" s="35"/>
+      <c r="AJ19" s="35"/>
+      <c r="AK19" s="35"/>
+      <c r="AL19" s="35"/>
+      <c r="AM19" s="35"/>
+      <c r="AN19" s="35"/>
+      <c r="AO19" s="35"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="43"/>
+      <c r="AR19" s="44"/>
+      <c r="AS19" s="44"/>
+      <c r="AT19" s="44"/>
+      <c r="AU19" s="44"/>
+      <c r="AV19" s="44"/>
+      <c r="AW19" s="44"/>
+      <c r="AX19" s="44"/>
+      <c r="AY19" s="44"/>
+      <c r="AZ19" s="45"/>
     </row>
     <row r="20" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="56"/>
-      <c r="AL20" s="56"/>
-      <c r="AM20" s="56"/>
-      <c r="AN20" s="56"/>
-      <c r="AO20" s="56"/>
-      <c r="AP20" s="57"/>
-      <c r="AQ20" s="65"/>
-      <c r="AR20" s="66"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="66"/>
-      <c r="AU20" s="66"/>
-      <c r="AV20" s="66"/>
-      <c r="AW20" s="66"/>
-      <c r="AX20" s="66"/>
-      <c r="AY20" s="66"/>
-      <c r="AZ20" s="67"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="35"/>
+      <c r="AJ20" s="35"/>
+      <c r="AK20" s="35"/>
+      <c r="AL20" s="35"/>
+      <c r="AM20" s="35"/>
+      <c r="AN20" s="35"/>
+      <c r="AO20" s="35"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="43"/>
+      <c r="AR20" s="44"/>
+      <c r="AS20" s="44"/>
+      <c r="AT20" s="44"/>
+      <c r="AU20" s="44"/>
+      <c r="AV20" s="44"/>
+      <c r="AW20" s="44"/>
+      <c r="AX20" s="44"/>
+      <c r="AY20" s="44"/>
+      <c r="AZ20" s="45"/>
     </row>
     <row r="21" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="56"/>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="56"/>
-      <c r="AJ21" s="56"/>
-      <c r="AK21" s="56"/>
-      <c r="AL21" s="56"/>
-      <c r="AM21" s="56"/>
-      <c r="AN21" s="56"/>
-      <c r="AO21" s="56"/>
-      <c r="AP21" s="57"/>
-      <c r="AQ21" s="65"/>
-      <c r="AR21" s="66"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="66"/>
-      <c r="AU21" s="66"/>
-      <c r="AV21" s="66"/>
-      <c r="AW21" s="66"/>
-      <c r="AX21" s="66"/>
-      <c r="AY21" s="66"/>
-      <c r="AZ21" s="67"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="35"/>
+      <c r="AJ21" s="35"/>
+      <c r="AK21" s="35"/>
+      <c r="AL21" s="35"/>
+      <c r="AM21" s="35"/>
+      <c r="AN21" s="35"/>
+      <c r="AO21" s="35"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="43"/>
+      <c r="AR21" s="44"/>
+      <c r="AS21" s="44"/>
+      <c r="AT21" s="44"/>
+      <c r="AU21" s="44"/>
+      <c r="AV21" s="44"/>
+      <c r="AW21" s="44"/>
+      <c r="AX21" s="44"/>
+      <c r="AY21" s="44"/>
+      <c r="AZ21" s="45"/>
     </row>
     <row r="22" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="56"/>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="56"/>
-      <c r="AJ22" s="56"/>
-      <c r="AK22" s="56"/>
-      <c r="AL22" s="56"/>
-      <c r="AM22" s="56"/>
-      <c r="AN22" s="56"/>
-      <c r="AO22" s="56"/>
-      <c r="AP22" s="57"/>
-      <c r="AQ22" s="65"/>
-      <c r="AR22" s="66"/>
-      <c r="AS22" s="66"/>
-      <c r="AT22" s="66"/>
-      <c r="AU22" s="66"/>
-      <c r="AV22" s="66"/>
-      <c r="AW22" s="66"/>
-      <c r="AX22" s="66"/>
-      <c r="AY22" s="66"/>
-      <c r="AZ22" s="67"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="35"/>
+      <c r="AK22" s="35"/>
+      <c r="AL22" s="35"/>
+      <c r="AM22" s="35"/>
+      <c r="AN22" s="35"/>
+      <c r="AO22" s="35"/>
+      <c r="AP22" s="36"/>
+      <c r="AQ22" s="43"/>
+      <c r="AR22" s="44"/>
+      <c r="AS22" s="44"/>
+      <c r="AT22" s="44"/>
+      <c r="AU22" s="44"/>
+      <c r="AV22" s="44"/>
+      <c r="AW22" s="44"/>
+      <c r="AX22" s="44"/>
+      <c r="AY22" s="44"/>
+      <c r="AZ22" s="45"/>
     </row>
     <row r="23" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="56"/>
-      <c r="AF23" s="56"/>
-      <c r="AG23" s="56"/>
-      <c r="AH23" s="56"/>
-      <c r="AI23" s="56"/>
-      <c r="AJ23" s="56"/>
-      <c r="AK23" s="56"/>
-      <c r="AL23" s="56"/>
-      <c r="AM23" s="56"/>
-      <c r="AN23" s="56"/>
-      <c r="AO23" s="56"/>
-      <c r="AP23" s="57"/>
-      <c r="AQ23" s="65"/>
-      <c r="AR23" s="66"/>
-      <c r="AS23" s="66"/>
-      <c r="AT23" s="66"/>
-      <c r="AU23" s="66"/>
-      <c r="AV23" s="66"/>
-      <c r="AW23" s="66"/>
-      <c r="AX23" s="66"/>
-      <c r="AY23" s="66"/>
-      <c r="AZ23" s="67"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="35"/>
+      <c r="AJ23" s="35"/>
+      <c r="AK23" s="35"/>
+      <c r="AL23" s="35"/>
+      <c r="AM23" s="35"/>
+      <c r="AN23" s="35"/>
+      <c r="AO23" s="35"/>
+      <c r="AP23" s="36"/>
+      <c r="AQ23" s="43"/>
+      <c r="AR23" s="44"/>
+      <c r="AS23" s="44"/>
+      <c r="AT23" s="44"/>
+      <c r="AU23" s="44"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="45"/>
     </row>
     <row r="24" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="59"/>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="59"/>
-      <c r="AJ24" s="59"/>
-      <c r="AK24" s="59"/>
-      <c r="AL24" s="59"/>
-      <c r="AM24" s="59"/>
-      <c r="AN24" s="59"/>
-      <c r="AO24" s="59"/>
-      <c r="AP24" s="60"/>
-      <c r="AQ24" s="68"/>
-      <c r="AR24" s="69"/>
-      <c r="AS24" s="69"/>
-      <c r="AT24" s="69"/>
-      <c r="AU24" s="69"/>
-      <c r="AV24" s="69"/>
-      <c r="AW24" s="69"/>
-      <c r="AX24" s="69"/>
-      <c r="AY24" s="69"/>
-      <c r="AZ24" s="70"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="38"/>
+      <c r="AM24" s="38"/>
+      <c r="AN24" s="38"/>
+      <c r="AO24" s="38"/>
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="46"/>
+      <c r="AR24" s="47"/>
+      <c r="AS24" s="47"/>
+      <c r="AT24" s="47"/>
+      <c r="AU24" s="47"/>
+      <c r="AV24" s="47"/>
+      <c r="AW24" s="47"/>
+      <c r="AX24" s="47"/>
+      <c r="AY24" s="47"/>
+      <c r="AZ24" s="48"/>
     </row>
     <row r="25" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="12"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -4242,22 +5630,22 @@
       <c r="AZ25" s="2"/>
     </row>
     <row r="26" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="15"/>
       <c r="AZ26" s="3"/>
     </row>
     <row r="27" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="15"/>
       <c r="AZ27" s="3"/>
     </row>
     <row r="28" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="31"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -4309,14 +5697,14 @@
       <c r="AZ28" s="18"/>
     </row>
     <row r="29" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="15"/>
       <c r="AZ29" s="3"/>
     </row>
     <row r="30" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
@@ -4368,544 +5756,546 @@
       <c r="AZ30" s="6"/>
     </row>
     <row r="31" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="22" t="s">
-        <v>4</v>
+      <c r="B31" s="55" t="s">
+        <v>16</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="53"/>
-      <c r="AC31" s="53"/>
-      <c r="AD31" s="53"/>
-      <c r="AE31" s="53"/>
-      <c r="AF31" s="53"/>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="53"/>
-      <c r="AJ31" s="53"/>
-      <c r="AK31" s="53"/>
-      <c r="AL31" s="53"/>
-      <c r="AM31" s="53"/>
-      <c r="AN31" s="53"/>
-      <c r="AO31" s="53"/>
-      <c r="AP31" s="54"/>
-      <c r="AQ31" s="52"/>
-      <c r="AR31" s="53"/>
-      <c r="AS31" s="53"/>
-      <c r="AT31" s="53"/>
-      <c r="AU31" s="53"/>
-      <c r="AV31" s="53"/>
-      <c r="AW31" s="53"/>
-      <c r="AX31" s="53"/>
-      <c r="AY31" s="53"/>
-      <c r="AZ31" s="54"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="32"/>
+      <c r="AC31" s="32"/>
+      <c r="AD31" s="32"/>
+      <c r="AE31" s="32"/>
+      <c r="AF31" s="32"/>
+      <c r="AG31" s="32"/>
+      <c r="AH31" s="32"/>
+      <c r="AI31" s="32"/>
+      <c r="AJ31" s="32"/>
+      <c r="AK31" s="32"/>
+      <c r="AL31" s="32"/>
+      <c r="AM31" s="32"/>
+      <c r="AN31" s="32"/>
+      <c r="AO31" s="32"/>
+      <c r="AP31" s="33"/>
+      <c r="AQ31" s="31"/>
+      <c r="AR31" s="32"/>
+      <c r="AS31" s="32"/>
+      <c r="AT31" s="32"/>
+      <c r="AU31" s="32"/>
+      <c r="AV31" s="32"/>
+      <c r="AW31" s="32"/>
+      <c r="AX31" s="32"/>
+      <c r="AY31" s="32"/>
+      <c r="AZ31" s="33"/>
     </row>
     <row r="32" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="56"/>
-      <c r="AC32" s="56"/>
-      <c r="AD32" s="56"/>
-      <c r="AE32" s="56"/>
-      <c r="AF32" s="56"/>
-      <c r="AG32" s="56"/>
-      <c r="AH32" s="56"/>
-      <c r="AI32" s="56"/>
-      <c r="AJ32" s="56"/>
-      <c r="AK32" s="56"/>
-      <c r="AL32" s="56"/>
-      <c r="AM32" s="56"/>
-      <c r="AN32" s="56"/>
-      <c r="AO32" s="56"/>
-      <c r="AP32" s="57"/>
-      <c r="AQ32" s="55"/>
-      <c r="AR32" s="56"/>
-      <c r="AS32" s="56"/>
-      <c r="AT32" s="56"/>
-      <c r="AU32" s="56"/>
-      <c r="AV32" s="56"/>
-      <c r="AW32" s="56"/>
-      <c r="AX32" s="56"/>
-      <c r="AY32" s="56"/>
-      <c r="AZ32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="35"/>
+      <c r="AF32" s="35"/>
+      <c r="AG32" s="35"/>
+      <c r="AH32" s="35"/>
+      <c r="AI32" s="35"/>
+      <c r="AJ32" s="35"/>
+      <c r="AK32" s="35"/>
+      <c r="AL32" s="35"/>
+      <c r="AM32" s="35"/>
+      <c r="AN32" s="35"/>
+      <c r="AO32" s="35"/>
+      <c r="AP32" s="36"/>
+      <c r="AQ32" s="34"/>
+      <c r="AR32" s="35"/>
+      <c r="AS32" s="35"/>
+      <c r="AT32" s="35"/>
+      <c r="AU32" s="35"/>
+      <c r="AV32" s="35"/>
+      <c r="AW32" s="35"/>
+      <c r="AX32" s="35"/>
+      <c r="AY32" s="35"/>
+      <c r="AZ32" s="36"/>
     </row>
     <row r="33" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="56"/>
-      <c r="AB33" s="56"/>
-      <c r="AC33" s="56"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="56"/>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="56"/>
-      <c r="AH33" s="56"/>
-      <c r="AI33" s="56"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="56"/>
-      <c r="AL33" s="56"/>
-      <c r="AM33" s="56"/>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="56"/>
-      <c r="AP33" s="57"/>
-      <c r="AQ33" s="55"/>
-      <c r="AR33" s="56"/>
-      <c r="AS33" s="56"/>
-      <c r="AT33" s="56"/>
-      <c r="AU33" s="56"/>
-      <c r="AV33" s="56"/>
-      <c r="AW33" s="56"/>
-      <c r="AX33" s="56"/>
-      <c r="AY33" s="56"/>
-      <c r="AZ33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35"/>
+      <c r="AF33" s="35"/>
+      <c r="AG33" s="35"/>
+      <c r="AH33" s="35"/>
+      <c r="AI33" s="35"/>
+      <c r="AJ33" s="35"/>
+      <c r="AK33" s="35"/>
+      <c r="AL33" s="35"/>
+      <c r="AM33" s="35"/>
+      <c r="AN33" s="35"/>
+      <c r="AO33" s="35"/>
+      <c r="AP33" s="36"/>
+      <c r="AQ33" s="34"/>
+      <c r="AR33" s="35"/>
+      <c r="AS33" s="35"/>
+      <c r="AT33" s="35"/>
+      <c r="AU33" s="35"/>
+      <c r="AV33" s="35"/>
+      <c r="AW33" s="35"/>
+      <c r="AX33" s="35"/>
+      <c r="AY33" s="35"/>
+      <c r="AZ33" s="36"/>
     </row>
     <row r="34" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="56"/>
-      <c r="Y34" s="56"/>
-      <c r="Z34" s="56"/>
-      <c r="AA34" s="56"/>
-      <c r="AB34" s="56"/>
-      <c r="AC34" s="56"/>
-      <c r="AD34" s="56"/>
-      <c r="AE34" s="56"/>
-      <c r="AF34" s="56"/>
-      <c r="AG34" s="56"/>
-      <c r="AH34" s="56"/>
-      <c r="AI34" s="56"/>
-      <c r="AJ34" s="56"/>
-      <c r="AK34" s="56"/>
-      <c r="AL34" s="56"/>
-      <c r="AM34" s="56"/>
-      <c r="AN34" s="56"/>
-      <c r="AO34" s="56"/>
-      <c r="AP34" s="57"/>
-      <c r="AQ34" s="55"/>
-      <c r="AR34" s="56"/>
-      <c r="AS34" s="56"/>
-      <c r="AT34" s="56"/>
-      <c r="AU34" s="56"/>
-      <c r="AV34" s="56"/>
-      <c r="AW34" s="56"/>
-      <c r="AX34" s="56"/>
-      <c r="AY34" s="56"/>
-      <c r="AZ34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="35"/>
+      <c r="AE34" s="35"/>
+      <c r="AF34" s="35"/>
+      <c r="AG34" s="35"/>
+      <c r="AH34" s="35"/>
+      <c r="AI34" s="35"/>
+      <c r="AJ34" s="35"/>
+      <c r="AK34" s="35"/>
+      <c r="AL34" s="35"/>
+      <c r="AM34" s="35"/>
+      <c r="AN34" s="35"/>
+      <c r="AO34" s="35"/>
+      <c r="AP34" s="36"/>
+      <c r="AQ34" s="34"/>
+      <c r="AR34" s="35"/>
+      <c r="AS34" s="35"/>
+      <c r="AT34" s="35"/>
+      <c r="AU34" s="35"/>
+      <c r="AV34" s="35"/>
+      <c r="AW34" s="35"/>
+      <c r="AX34" s="35"/>
+      <c r="AY34" s="35"/>
+      <c r="AZ34" s="36"/>
     </row>
     <row r="35" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56"/>
-      <c r="AA35" s="56"/>
-      <c r="AB35" s="56"/>
-      <c r="AC35" s="56"/>
-      <c r="AD35" s="56"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56"/>
-      <c r="AH35" s="56"/>
-      <c r="AI35" s="56"/>
-      <c r="AJ35" s="56"/>
-      <c r="AK35" s="56"/>
-      <c r="AL35" s="56"/>
-      <c r="AM35" s="56"/>
-      <c r="AN35" s="56"/>
-      <c r="AO35" s="56"/>
-      <c r="AP35" s="57"/>
-      <c r="AQ35" s="55"/>
-      <c r="AR35" s="56"/>
-      <c r="AS35" s="56"/>
-      <c r="AT35" s="56"/>
-      <c r="AU35" s="56"/>
-      <c r="AV35" s="56"/>
-      <c r="AW35" s="56"/>
-      <c r="AX35" s="56"/>
-      <c r="AY35" s="56"/>
-      <c r="AZ35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
+      <c r="AF35" s="35"/>
+      <c r="AG35" s="35"/>
+      <c r="AH35" s="35"/>
+      <c r="AI35" s="35"/>
+      <c r="AJ35" s="35"/>
+      <c r="AK35" s="35"/>
+      <c r="AL35" s="35"/>
+      <c r="AM35" s="35"/>
+      <c r="AN35" s="35"/>
+      <c r="AO35" s="35"/>
+      <c r="AP35" s="36"/>
+      <c r="AQ35" s="34"/>
+      <c r="AR35" s="35"/>
+      <c r="AS35" s="35"/>
+      <c r="AT35" s="35"/>
+      <c r="AU35" s="35"/>
+      <c r="AV35" s="35"/>
+      <c r="AW35" s="35"/>
+      <c r="AX35" s="35"/>
+      <c r="AY35" s="35"/>
+      <c r="AZ35" s="36"/>
     </row>
     <row r="36" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="56"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="56"/>
-      <c r="Z36" s="56"/>
-      <c r="AA36" s="56"/>
-      <c r="AB36" s="56"/>
-      <c r="AC36" s="56"/>
-      <c r="AD36" s="56"/>
-      <c r="AE36" s="56"/>
-      <c r="AF36" s="56"/>
-      <c r="AG36" s="56"/>
-      <c r="AH36" s="56"/>
-      <c r="AI36" s="56"/>
-      <c r="AJ36" s="56"/>
-      <c r="AK36" s="56"/>
-      <c r="AL36" s="56"/>
-      <c r="AM36" s="56"/>
-      <c r="AN36" s="56"/>
-      <c r="AO36" s="56"/>
-      <c r="AP36" s="57"/>
-      <c r="AQ36" s="55"/>
-      <c r="AR36" s="56"/>
-      <c r="AS36" s="56"/>
-      <c r="AT36" s="56"/>
-      <c r="AU36" s="56"/>
-      <c r="AV36" s="56"/>
-      <c r="AW36" s="56"/>
-      <c r="AX36" s="56"/>
-      <c r="AY36" s="56"/>
-      <c r="AZ36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="35"/>
+      <c r="AF36" s="35"/>
+      <c r="AG36" s="35"/>
+      <c r="AH36" s="35"/>
+      <c r="AI36" s="35"/>
+      <c r="AJ36" s="35"/>
+      <c r="AK36" s="35"/>
+      <c r="AL36" s="35"/>
+      <c r="AM36" s="35"/>
+      <c r="AN36" s="35"/>
+      <c r="AO36" s="35"/>
+      <c r="AP36" s="36"/>
+      <c r="AQ36" s="34"/>
+      <c r="AR36" s="35"/>
+      <c r="AS36" s="35"/>
+      <c r="AT36" s="35"/>
+      <c r="AU36" s="35"/>
+      <c r="AV36" s="35"/>
+      <c r="AW36" s="35"/>
+      <c r="AX36" s="35"/>
+      <c r="AY36" s="35"/>
+      <c r="AZ36" s="36"/>
     </row>
     <row r="37" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="56"/>
-      <c r="AC37" s="56"/>
-      <c r="AD37" s="56"/>
-      <c r="AE37" s="56"/>
-      <c r="AF37" s="56"/>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="56"/>
-      <c r="AJ37" s="56"/>
-      <c r="AK37" s="56"/>
-      <c r="AL37" s="56"/>
-      <c r="AM37" s="56"/>
-      <c r="AN37" s="56"/>
-      <c r="AO37" s="56"/>
-      <c r="AP37" s="57"/>
-      <c r="AQ37" s="55"/>
-      <c r="AR37" s="56"/>
-      <c r="AS37" s="56"/>
-      <c r="AT37" s="56"/>
-      <c r="AU37" s="56"/>
-      <c r="AV37" s="56"/>
-      <c r="AW37" s="56"/>
-      <c r="AX37" s="56"/>
-      <c r="AY37" s="56"/>
-      <c r="AZ37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="35"/>
+      <c r="AD37" s="35"/>
+      <c r="AE37" s="35"/>
+      <c r="AF37" s="35"/>
+      <c r="AG37" s="35"/>
+      <c r="AH37" s="35"/>
+      <c r="AI37" s="35"/>
+      <c r="AJ37" s="35"/>
+      <c r="AK37" s="35"/>
+      <c r="AL37" s="35"/>
+      <c r="AM37" s="35"/>
+      <c r="AN37" s="35"/>
+      <c r="AO37" s="35"/>
+      <c r="AP37" s="36"/>
+      <c r="AQ37" s="34"/>
+      <c r="AR37" s="35"/>
+      <c r="AS37" s="35"/>
+      <c r="AT37" s="35"/>
+      <c r="AU37" s="35"/>
+      <c r="AV37" s="35"/>
+      <c r="AW37" s="35"/>
+      <c r="AX37" s="35"/>
+      <c r="AY37" s="35"/>
+      <c r="AZ37" s="36"/>
     </row>
     <row r="38" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="56"/>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="56"/>
-      <c r="T38" s="56"/>
-      <c r="U38" s="56"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="56"/>
-      <c r="Z38" s="56"/>
-      <c r="AA38" s="56"/>
-      <c r="AB38" s="56"/>
-      <c r="AC38" s="56"/>
-      <c r="AD38" s="56"/>
-      <c r="AE38" s="56"/>
-      <c r="AF38" s="56"/>
-      <c r="AG38" s="56"/>
-      <c r="AH38" s="56"/>
-      <c r="AI38" s="56"/>
-      <c r="AJ38" s="56"/>
-      <c r="AK38" s="56"/>
-      <c r="AL38" s="56"/>
-      <c r="AM38" s="56"/>
-      <c r="AN38" s="56"/>
-      <c r="AO38" s="56"/>
-      <c r="AP38" s="57"/>
-      <c r="AQ38" s="55"/>
-      <c r="AR38" s="56"/>
-      <c r="AS38" s="56"/>
-      <c r="AT38" s="56"/>
-      <c r="AU38" s="56"/>
-      <c r="AV38" s="56"/>
-      <c r="AW38" s="56"/>
-      <c r="AX38" s="56"/>
-      <c r="AY38" s="56"/>
-      <c r="AZ38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35"/>
+      <c r="AD38" s="35"/>
+      <c r="AE38" s="35"/>
+      <c r="AF38" s="35"/>
+      <c r="AG38" s="35"/>
+      <c r="AH38" s="35"/>
+      <c r="AI38" s="35"/>
+      <c r="AJ38" s="35"/>
+      <c r="AK38" s="35"/>
+      <c r="AL38" s="35"/>
+      <c r="AM38" s="35"/>
+      <c r="AN38" s="35"/>
+      <c r="AO38" s="35"/>
+      <c r="AP38" s="36"/>
+      <c r="AQ38" s="34"/>
+      <c r="AR38" s="35"/>
+      <c r="AS38" s="35"/>
+      <c r="AT38" s="35"/>
+      <c r="AU38" s="35"/>
+      <c r="AV38" s="35"/>
+      <c r="AW38" s="35"/>
+      <c r="AX38" s="35"/>
+      <c r="AY38" s="35"/>
+      <c r="AZ38" s="36"/>
     </row>
     <row r="39" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="56"/>
-      <c r="AE39" s="56"/>
-      <c r="AF39" s="56"/>
-      <c r="AG39" s="56"/>
-      <c r="AH39" s="56"/>
-      <c r="AI39" s="56"/>
-      <c r="AJ39" s="56"/>
-      <c r="AK39" s="56"/>
-      <c r="AL39" s="56"/>
-      <c r="AM39" s="56"/>
-      <c r="AN39" s="56"/>
-      <c r="AO39" s="56"/>
-      <c r="AP39" s="57"/>
-      <c r="AQ39" s="55"/>
-      <c r="AR39" s="56"/>
-      <c r="AS39" s="56"/>
-      <c r="AT39" s="56"/>
-      <c r="AU39" s="56"/>
-      <c r="AV39" s="56"/>
-      <c r="AW39" s="56"/>
-      <c r="AX39" s="56"/>
-      <c r="AY39" s="56"/>
-      <c r="AZ39" s="57"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
+      <c r="AD39" s="35"/>
+      <c r="AE39" s="35"/>
+      <c r="AF39" s="35"/>
+      <c r="AG39" s="35"/>
+      <c r="AH39" s="35"/>
+      <c r="AI39" s="35"/>
+      <c r="AJ39" s="35"/>
+      <c r="AK39" s="35"/>
+      <c r="AL39" s="35"/>
+      <c r="AM39" s="35"/>
+      <c r="AN39" s="35"/>
+      <c r="AO39" s="35"/>
+      <c r="AP39" s="36"/>
+      <c r="AQ39" s="34"/>
+      <c r="AR39" s="35"/>
+      <c r="AS39" s="35"/>
+      <c r="AT39" s="35"/>
+      <c r="AU39" s="35"/>
+      <c r="AV39" s="35"/>
+      <c r="AW39" s="35"/>
+      <c r="AX39" s="35"/>
+      <c r="AY39" s="35"/>
+      <c r="AZ39" s="36"/>
     </row>
     <row r="40" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="59"/>
-      <c r="AF40" s="59"/>
-      <c r="AG40" s="59"/>
-      <c r="AH40" s="59"/>
-      <c r="AI40" s="59"/>
-      <c r="AJ40" s="59"/>
-      <c r="AK40" s="59"/>
-      <c r="AL40" s="59"/>
-      <c r="AM40" s="59"/>
-      <c r="AN40" s="59"/>
-      <c r="AO40" s="59"/>
-      <c r="AP40" s="60"/>
-      <c r="AQ40" s="58"/>
-      <c r="AR40" s="59"/>
-      <c r="AS40" s="59"/>
-      <c r="AT40" s="59"/>
-      <c r="AU40" s="59"/>
-      <c r="AV40" s="59"/>
-      <c r="AW40" s="59"/>
-      <c r="AX40" s="59"/>
-      <c r="AY40" s="59"/>
-      <c r="AZ40" s="60"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="38"/>
+      <c r="Z40" s="38"/>
+      <c r="AA40" s="38"/>
+      <c r="AB40" s="38"/>
+      <c r="AC40" s="38"/>
+      <c r="AD40" s="38"/>
+      <c r="AE40" s="38"/>
+      <c r="AF40" s="38"/>
+      <c r="AG40" s="38"/>
+      <c r="AH40" s="38"/>
+      <c r="AI40" s="38"/>
+      <c r="AJ40" s="38"/>
+      <c r="AK40" s="38"/>
+      <c r="AL40" s="38"/>
+      <c r="AM40" s="38"/>
+      <c r="AN40" s="38"/>
+      <c r="AO40" s="38"/>
+      <c r="AP40" s="39"/>
+      <c r="AQ40" s="37"/>
+      <c r="AR40" s="38"/>
+      <c r="AS40" s="38"/>
+      <c r="AT40" s="38"/>
+      <c r="AU40" s="38"/>
+      <c r="AV40" s="38"/>
+      <c r="AW40" s="38"/>
+      <c r="AX40" s="38"/>
+      <c r="AY40" s="38"/>
+      <c r="AZ40" s="39"/>
     </row>
     <row r="41" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="27"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="12"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -4957,22 +6347,22 @@
       <c r="AZ41" s="2"/>
     </row>
     <row r="42" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="28"/>
-      <c r="C42" s="29"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="15"/>
       <c r="AZ42" s="3"/>
     </row>
     <row r="43" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="15"/>
       <c r="AZ43" s="3"/>
     </row>
     <row r="44" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="31"/>
+      <c r="C44" s="67"/>
       <c r="D44" s="16"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
@@ -5024,14 +6414,14 @@
       <c r="AZ44" s="18"/>
     </row>
     <row r="45" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="28"/>
-      <c r="C45" s="29"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="62"/>
       <c r="D45" s="15"/>
       <c r="AZ45" s="3"/>
     </row>
     <row r="46" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="32"/>
-      <c r="C46" s="33"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="69"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="6"/>
@@ -5083,544 +6473,544 @@
       <c r="AZ46" s="6"/>
     </row>
     <row r="47" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="53"/>
-      <c r="V47" s="53"/>
-      <c r="W47" s="53"/>
-      <c r="X47" s="53"/>
-      <c r="Y47" s="53"/>
-      <c r="Z47" s="53"/>
-      <c r="AA47" s="53"/>
-      <c r="AB47" s="53"/>
-      <c r="AC47" s="53"/>
-      <c r="AD47" s="53"/>
-      <c r="AE47" s="53"/>
-      <c r="AF47" s="53"/>
-      <c r="AG47" s="53"/>
-      <c r="AH47" s="53"/>
-      <c r="AI47" s="53"/>
-      <c r="AJ47" s="53"/>
-      <c r="AK47" s="53"/>
-      <c r="AL47" s="53"/>
-      <c r="AM47" s="53"/>
-      <c r="AN47" s="53"/>
-      <c r="AO47" s="53"/>
-      <c r="AP47" s="54"/>
-      <c r="AQ47" s="52"/>
-      <c r="AR47" s="53"/>
-      <c r="AS47" s="53"/>
-      <c r="AT47" s="53"/>
-      <c r="AU47" s="53"/>
-      <c r="AV47" s="53"/>
-      <c r="AW47" s="53"/>
-      <c r="AX47" s="53"/>
-      <c r="AY47" s="53"/>
-      <c r="AZ47" s="54"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="32"/>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="32"/>
+      <c r="AE47" s="32"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32"/>
+      <c r="AI47" s="32"/>
+      <c r="AJ47" s="32"/>
+      <c r="AK47" s="32"/>
+      <c r="AL47" s="32"/>
+      <c r="AM47" s="32"/>
+      <c r="AN47" s="32"/>
+      <c r="AO47" s="32"/>
+      <c r="AP47" s="33"/>
+      <c r="AQ47" s="31"/>
+      <c r="AR47" s="32"/>
+      <c r="AS47" s="32"/>
+      <c r="AT47" s="32"/>
+      <c r="AU47" s="32"/>
+      <c r="AV47" s="32"/>
+      <c r="AW47" s="32"/>
+      <c r="AX47" s="32"/>
+      <c r="AY47" s="32"/>
+      <c r="AZ47" s="33"/>
     </row>
     <row r="48" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="56"/>
-      <c r="T48" s="56"/>
-      <c r="U48" s="56"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="56"/>
-      <c r="X48" s="56"/>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="56"/>
-      <c r="AC48" s="56"/>
-      <c r="AD48" s="56"/>
-      <c r="AE48" s="56"/>
-      <c r="AF48" s="56"/>
-      <c r="AG48" s="56"/>
-      <c r="AH48" s="56"/>
-      <c r="AI48" s="56"/>
-      <c r="AJ48" s="56"/>
-      <c r="AK48" s="56"/>
-      <c r="AL48" s="56"/>
-      <c r="AM48" s="56"/>
-      <c r="AN48" s="56"/>
-      <c r="AO48" s="56"/>
-      <c r="AP48" s="57"/>
-      <c r="AQ48" s="55"/>
-      <c r="AR48" s="56"/>
-      <c r="AS48" s="56"/>
-      <c r="AT48" s="56"/>
-      <c r="AU48" s="56"/>
-      <c r="AV48" s="56"/>
-      <c r="AW48" s="56"/>
-      <c r="AX48" s="56"/>
-      <c r="AY48" s="56"/>
-      <c r="AZ48" s="57"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="35"/>
+      <c r="AD48" s="35"/>
+      <c r="AE48" s="35"/>
+      <c r="AF48" s="35"/>
+      <c r="AG48" s="35"/>
+      <c r="AH48" s="35"/>
+      <c r="AI48" s="35"/>
+      <c r="AJ48" s="35"/>
+      <c r="AK48" s="35"/>
+      <c r="AL48" s="35"/>
+      <c r="AM48" s="35"/>
+      <c r="AN48" s="35"/>
+      <c r="AO48" s="35"/>
+      <c r="AP48" s="36"/>
+      <c r="AQ48" s="34"/>
+      <c r="AR48" s="35"/>
+      <c r="AS48" s="35"/>
+      <c r="AT48" s="35"/>
+      <c r="AU48" s="35"/>
+      <c r="AV48" s="35"/>
+      <c r="AW48" s="35"/>
+      <c r="AX48" s="35"/>
+      <c r="AY48" s="35"/>
+      <c r="AZ48" s="36"/>
     </row>
     <row r="49" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="56"/>
-      <c r="P49" s="56"/>
-      <c r="Q49" s="56"/>
-      <c r="R49" s="56"/>
-      <c r="S49" s="56"/>
-      <c r="T49" s="56"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="56"/>
-      <c r="Z49" s="56"/>
-      <c r="AA49" s="56"/>
-      <c r="AB49" s="56"/>
-      <c r="AC49" s="56"/>
-      <c r="AD49" s="56"/>
-      <c r="AE49" s="56"/>
-      <c r="AF49" s="56"/>
-      <c r="AG49" s="56"/>
-      <c r="AH49" s="56"/>
-      <c r="AI49" s="56"/>
-      <c r="AJ49" s="56"/>
-      <c r="AK49" s="56"/>
-      <c r="AL49" s="56"/>
-      <c r="AM49" s="56"/>
-      <c r="AN49" s="56"/>
-      <c r="AO49" s="56"/>
-      <c r="AP49" s="57"/>
-      <c r="AQ49" s="55"/>
-      <c r="AR49" s="56"/>
-      <c r="AS49" s="56"/>
-      <c r="AT49" s="56"/>
-      <c r="AU49" s="56"/>
-      <c r="AV49" s="56"/>
-      <c r="AW49" s="56"/>
-      <c r="AX49" s="56"/>
-      <c r="AY49" s="56"/>
-      <c r="AZ49" s="57"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="35"/>
+      <c r="AD49" s="35"/>
+      <c r="AE49" s="35"/>
+      <c r="AF49" s="35"/>
+      <c r="AG49" s="35"/>
+      <c r="AH49" s="35"/>
+      <c r="AI49" s="35"/>
+      <c r="AJ49" s="35"/>
+      <c r="AK49" s="35"/>
+      <c r="AL49" s="35"/>
+      <c r="AM49" s="35"/>
+      <c r="AN49" s="35"/>
+      <c r="AO49" s="35"/>
+      <c r="AP49" s="36"/>
+      <c r="AQ49" s="34"/>
+      <c r="AR49" s="35"/>
+      <c r="AS49" s="35"/>
+      <c r="AT49" s="35"/>
+      <c r="AU49" s="35"/>
+      <c r="AV49" s="35"/>
+      <c r="AW49" s="35"/>
+      <c r="AX49" s="35"/>
+      <c r="AY49" s="35"/>
+      <c r="AZ49" s="36"/>
     </row>
     <row r="50" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="56"/>
-      <c r="Q50" s="56"/>
-      <c r="R50" s="56"/>
-      <c r="S50" s="56"/>
-      <c r="T50" s="56"/>
-      <c r="U50" s="56"/>
-      <c r="V50" s="56"/>
-      <c r="W50" s="56"/>
-      <c r="X50" s="56"/>
-      <c r="Y50" s="56"/>
-      <c r="Z50" s="56"/>
-      <c r="AA50" s="56"/>
-      <c r="AB50" s="56"/>
-      <c r="AC50" s="56"/>
-      <c r="AD50" s="56"/>
-      <c r="AE50" s="56"/>
-      <c r="AF50" s="56"/>
-      <c r="AG50" s="56"/>
-      <c r="AH50" s="56"/>
-      <c r="AI50" s="56"/>
-      <c r="AJ50" s="56"/>
-      <c r="AK50" s="56"/>
-      <c r="AL50" s="56"/>
-      <c r="AM50" s="56"/>
-      <c r="AN50" s="56"/>
-      <c r="AO50" s="56"/>
-      <c r="AP50" s="57"/>
-      <c r="AQ50" s="55"/>
-      <c r="AR50" s="56"/>
-      <c r="AS50" s="56"/>
-      <c r="AT50" s="56"/>
-      <c r="AU50" s="56"/>
-      <c r="AV50" s="56"/>
-      <c r="AW50" s="56"/>
-      <c r="AX50" s="56"/>
-      <c r="AY50" s="56"/>
-      <c r="AZ50" s="57"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="35"/>
+      <c r="AA50" s="35"/>
+      <c r="AB50" s="35"/>
+      <c r="AC50" s="35"/>
+      <c r="AD50" s="35"/>
+      <c r="AE50" s="35"/>
+      <c r="AF50" s="35"/>
+      <c r="AG50" s="35"/>
+      <c r="AH50" s="35"/>
+      <c r="AI50" s="35"/>
+      <c r="AJ50" s="35"/>
+      <c r="AK50" s="35"/>
+      <c r="AL50" s="35"/>
+      <c r="AM50" s="35"/>
+      <c r="AN50" s="35"/>
+      <c r="AO50" s="35"/>
+      <c r="AP50" s="36"/>
+      <c r="AQ50" s="34"/>
+      <c r="AR50" s="35"/>
+      <c r="AS50" s="35"/>
+      <c r="AT50" s="35"/>
+      <c r="AU50" s="35"/>
+      <c r="AV50" s="35"/>
+      <c r="AW50" s="35"/>
+      <c r="AX50" s="35"/>
+      <c r="AY50" s="35"/>
+      <c r="AZ50" s="36"/>
     </row>
     <row r="51" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="56"/>
-      <c r="Q51" s="56"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="56"/>
-      <c r="T51" s="56"/>
-      <c r="U51" s="56"/>
-      <c r="V51" s="56"/>
-      <c r="W51" s="56"/>
-      <c r="X51" s="56"/>
-      <c r="Y51" s="56"/>
-      <c r="Z51" s="56"/>
-      <c r="AA51" s="56"/>
-      <c r="AB51" s="56"/>
-      <c r="AC51" s="56"/>
-      <c r="AD51" s="56"/>
-      <c r="AE51" s="56"/>
-      <c r="AF51" s="56"/>
-      <c r="AG51" s="56"/>
-      <c r="AH51" s="56"/>
-      <c r="AI51" s="56"/>
-      <c r="AJ51" s="56"/>
-      <c r="AK51" s="56"/>
-      <c r="AL51" s="56"/>
-      <c r="AM51" s="56"/>
-      <c r="AN51" s="56"/>
-      <c r="AO51" s="56"/>
-      <c r="AP51" s="57"/>
-      <c r="AQ51" s="55"/>
-      <c r="AR51" s="56"/>
-      <c r="AS51" s="56"/>
-      <c r="AT51" s="56"/>
-      <c r="AU51" s="56"/>
-      <c r="AV51" s="56"/>
-      <c r="AW51" s="56"/>
-      <c r="AX51" s="56"/>
-      <c r="AY51" s="56"/>
-      <c r="AZ51" s="57"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="35"/>
+      <c r="Y51" s="35"/>
+      <c r="Z51" s="35"/>
+      <c r="AA51" s="35"/>
+      <c r="AB51" s="35"/>
+      <c r="AC51" s="35"/>
+      <c r="AD51" s="35"/>
+      <c r="AE51" s="35"/>
+      <c r="AF51" s="35"/>
+      <c r="AG51" s="35"/>
+      <c r="AH51" s="35"/>
+      <c r="AI51" s="35"/>
+      <c r="AJ51" s="35"/>
+      <c r="AK51" s="35"/>
+      <c r="AL51" s="35"/>
+      <c r="AM51" s="35"/>
+      <c r="AN51" s="35"/>
+      <c r="AO51" s="35"/>
+      <c r="AP51" s="36"/>
+      <c r="AQ51" s="34"/>
+      <c r="AR51" s="35"/>
+      <c r="AS51" s="35"/>
+      <c r="AT51" s="35"/>
+      <c r="AU51" s="35"/>
+      <c r="AV51" s="35"/>
+      <c r="AW51" s="35"/>
+      <c r="AX51" s="35"/>
+      <c r="AY51" s="35"/>
+      <c r="AZ51" s="36"/>
     </row>
     <row r="52" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="56"/>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="56"/>
-      <c r="S52" s="56"/>
-      <c r="T52" s="56"/>
-      <c r="U52" s="56"/>
-      <c r="V52" s="56"/>
-      <c r="W52" s="56"/>
-      <c r="X52" s="56"/>
-      <c r="Y52" s="56"/>
-      <c r="Z52" s="56"/>
-      <c r="AA52" s="56"/>
-      <c r="AB52" s="56"/>
-      <c r="AC52" s="56"/>
-      <c r="AD52" s="56"/>
-      <c r="AE52" s="56"/>
-      <c r="AF52" s="56"/>
-      <c r="AG52" s="56"/>
-      <c r="AH52" s="56"/>
-      <c r="AI52" s="56"/>
-      <c r="AJ52" s="56"/>
-      <c r="AK52" s="56"/>
-      <c r="AL52" s="56"/>
-      <c r="AM52" s="56"/>
-      <c r="AN52" s="56"/>
-      <c r="AO52" s="56"/>
-      <c r="AP52" s="57"/>
-      <c r="AQ52" s="55"/>
-      <c r="AR52" s="56"/>
-      <c r="AS52" s="56"/>
-      <c r="AT52" s="56"/>
-      <c r="AU52" s="56"/>
-      <c r="AV52" s="56"/>
-      <c r="AW52" s="56"/>
-      <c r="AX52" s="56"/>
-      <c r="AY52" s="56"/>
-      <c r="AZ52" s="57"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="35"/>
+      <c r="V52" s="35"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="35"/>
+      <c r="Y52" s="35"/>
+      <c r="Z52" s="35"/>
+      <c r="AA52" s="35"/>
+      <c r="AB52" s="35"/>
+      <c r="AC52" s="35"/>
+      <c r="AD52" s="35"/>
+      <c r="AE52" s="35"/>
+      <c r="AF52" s="35"/>
+      <c r="AG52" s="35"/>
+      <c r="AH52" s="35"/>
+      <c r="AI52" s="35"/>
+      <c r="AJ52" s="35"/>
+      <c r="AK52" s="35"/>
+      <c r="AL52" s="35"/>
+      <c r="AM52" s="35"/>
+      <c r="AN52" s="35"/>
+      <c r="AO52" s="35"/>
+      <c r="AP52" s="36"/>
+      <c r="AQ52" s="34"/>
+      <c r="AR52" s="35"/>
+      <c r="AS52" s="35"/>
+      <c r="AT52" s="35"/>
+      <c r="AU52" s="35"/>
+      <c r="AV52" s="35"/>
+      <c r="AW52" s="35"/>
+      <c r="AX52" s="35"/>
+      <c r="AY52" s="35"/>
+      <c r="AZ52" s="36"/>
     </row>
     <row r="53" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="56"/>
-      <c r="Q53" s="56"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="56"/>
-      <c r="T53" s="56"/>
-      <c r="U53" s="56"/>
-      <c r="V53" s="56"/>
-      <c r="W53" s="56"/>
-      <c r="X53" s="56"/>
-      <c r="Y53" s="56"/>
-      <c r="Z53" s="56"/>
-      <c r="AA53" s="56"/>
-      <c r="AB53" s="56"/>
-      <c r="AC53" s="56"/>
-      <c r="AD53" s="56"/>
-      <c r="AE53" s="56"/>
-      <c r="AF53" s="56"/>
-      <c r="AG53" s="56"/>
-      <c r="AH53" s="56"/>
-      <c r="AI53" s="56"/>
-      <c r="AJ53" s="56"/>
-      <c r="AK53" s="56"/>
-      <c r="AL53" s="56"/>
-      <c r="AM53" s="56"/>
-      <c r="AN53" s="56"/>
-      <c r="AO53" s="56"/>
-      <c r="AP53" s="57"/>
-      <c r="AQ53" s="55"/>
-      <c r="AR53" s="56"/>
-      <c r="AS53" s="56"/>
-      <c r="AT53" s="56"/>
-      <c r="AU53" s="56"/>
-      <c r="AV53" s="56"/>
-      <c r="AW53" s="56"/>
-      <c r="AX53" s="56"/>
-      <c r="AY53" s="56"/>
-      <c r="AZ53" s="57"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="35"/>
+      <c r="AD53" s="35"/>
+      <c r="AE53" s="35"/>
+      <c r="AF53" s="35"/>
+      <c r="AG53" s="35"/>
+      <c r="AH53" s="35"/>
+      <c r="AI53" s="35"/>
+      <c r="AJ53" s="35"/>
+      <c r="AK53" s="35"/>
+      <c r="AL53" s="35"/>
+      <c r="AM53" s="35"/>
+      <c r="AN53" s="35"/>
+      <c r="AO53" s="35"/>
+      <c r="AP53" s="36"/>
+      <c r="AQ53" s="34"/>
+      <c r="AR53" s="35"/>
+      <c r="AS53" s="35"/>
+      <c r="AT53" s="35"/>
+      <c r="AU53" s="35"/>
+      <c r="AV53" s="35"/>
+      <c r="AW53" s="35"/>
+      <c r="AX53" s="35"/>
+      <c r="AY53" s="35"/>
+      <c r="AZ53" s="36"/>
     </row>
     <row r="54" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="56"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="56"/>
-      <c r="S54" s="56"/>
-      <c r="T54" s="56"/>
-      <c r="U54" s="56"/>
-      <c r="V54" s="56"/>
-      <c r="W54" s="56"/>
-      <c r="X54" s="56"/>
-      <c r="Y54" s="56"/>
-      <c r="Z54" s="56"/>
-      <c r="AA54" s="56"/>
-      <c r="AB54" s="56"/>
-      <c r="AC54" s="56"/>
-      <c r="AD54" s="56"/>
-      <c r="AE54" s="56"/>
-      <c r="AF54" s="56"/>
-      <c r="AG54" s="56"/>
-      <c r="AH54" s="56"/>
-      <c r="AI54" s="56"/>
-      <c r="AJ54" s="56"/>
-      <c r="AK54" s="56"/>
-      <c r="AL54" s="56"/>
-      <c r="AM54" s="56"/>
-      <c r="AN54" s="56"/>
-      <c r="AO54" s="56"/>
-      <c r="AP54" s="57"/>
-      <c r="AQ54" s="55"/>
-      <c r="AR54" s="56"/>
-      <c r="AS54" s="56"/>
-      <c r="AT54" s="56"/>
-      <c r="AU54" s="56"/>
-      <c r="AV54" s="56"/>
-      <c r="AW54" s="56"/>
-      <c r="AX54" s="56"/>
-      <c r="AY54" s="56"/>
-      <c r="AZ54" s="57"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="35"/>
+      <c r="Y54" s="35"/>
+      <c r="Z54" s="35"/>
+      <c r="AA54" s="35"/>
+      <c r="AB54" s="35"/>
+      <c r="AC54" s="35"/>
+      <c r="AD54" s="35"/>
+      <c r="AE54" s="35"/>
+      <c r="AF54" s="35"/>
+      <c r="AG54" s="35"/>
+      <c r="AH54" s="35"/>
+      <c r="AI54" s="35"/>
+      <c r="AJ54" s="35"/>
+      <c r="AK54" s="35"/>
+      <c r="AL54" s="35"/>
+      <c r="AM54" s="35"/>
+      <c r="AN54" s="35"/>
+      <c r="AO54" s="35"/>
+      <c r="AP54" s="36"/>
+      <c r="AQ54" s="34"/>
+      <c r="AR54" s="35"/>
+      <c r="AS54" s="35"/>
+      <c r="AT54" s="35"/>
+      <c r="AU54" s="35"/>
+      <c r="AV54" s="35"/>
+      <c r="AW54" s="35"/>
+      <c r="AX54" s="35"/>
+      <c r="AY54" s="35"/>
+      <c r="AZ54" s="36"/>
     </row>
     <row r="55" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="56"/>
-      <c r="Q55" s="56"/>
-      <c r="R55" s="56"/>
-      <c r="S55" s="56"/>
-      <c r="T55" s="56"/>
-      <c r="U55" s="56"/>
-      <c r="V55" s="56"/>
-      <c r="W55" s="56"/>
-      <c r="X55" s="56"/>
-      <c r="Y55" s="56"/>
-      <c r="Z55" s="56"/>
-      <c r="AA55" s="56"/>
-      <c r="AB55" s="56"/>
-      <c r="AC55" s="56"/>
-      <c r="AD55" s="56"/>
-      <c r="AE55" s="56"/>
-      <c r="AF55" s="56"/>
-      <c r="AG55" s="56"/>
-      <c r="AH55" s="56"/>
-      <c r="AI55" s="56"/>
-      <c r="AJ55" s="56"/>
-      <c r="AK55" s="56"/>
-      <c r="AL55" s="56"/>
-      <c r="AM55" s="56"/>
-      <c r="AN55" s="56"/>
-      <c r="AO55" s="56"/>
-      <c r="AP55" s="57"/>
-      <c r="AQ55" s="55"/>
-      <c r="AR55" s="56"/>
-      <c r="AS55" s="56"/>
-      <c r="AT55" s="56"/>
-      <c r="AU55" s="56"/>
-      <c r="AV55" s="56"/>
-      <c r="AW55" s="56"/>
-      <c r="AX55" s="56"/>
-      <c r="AY55" s="56"/>
-      <c r="AZ55" s="57"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="35"/>
+      <c r="AB55" s="35"/>
+      <c r="AC55" s="35"/>
+      <c r="AD55" s="35"/>
+      <c r="AE55" s="35"/>
+      <c r="AF55" s="35"/>
+      <c r="AG55" s="35"/>
+      <c r="AH55" s="35"/>
+      <c r="AI55" s="35"/>
+      <c r="AJ55" s="35"/>
+      <c r="AK55" s="35"/>
+      <c r="AL55" s="35"/>
+      <c r="AM55" s="35"/>
+      <c r="AN55" s="35"/>
+      <c r="AO55" s="35"/>
+      <c r="AP55" s="36"/>
+      <c r="AQ55" s="34"/>
+      <c r="AR55" s="35"/>
+      <c r="AS55" s="35"/>
+      <c r="AT55" s="35"/>
+      <c r="AU55" s="35"/>
+      <c r="AV55" s="35"/>
+      <c r="AW55" s="35"/>
+      <c r="AX55" s="35"/>
+      <c r="AY55" s="35"/>
+      <c r="AZ55" s="36"/>
     </row>
     <row r="56" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="36"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="59"/>
-      <c r="O56" s="59"/>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="59"/>
-      <c r="S56" s="59"/>
-      <c r="T56" s="59"/>
-      <c r="U56" s="59"/>
-      <c r="V56" s="59"/>
-      <c r="W56" s="59"/>
-      <c r="X56" s="59"/>
-      <c r="Y56" s="59"/>
-      <c r="Z56" s="59"/>
-      <c r="AA56" s="59"/>
-      <c r="AB56" s="59"/>
-      <c r="AC56" s="59"/>
-      <c r="AD56" s="59"/>
-      <c r="AE56" s="59"/>
-      <c r="AF56" s="59"/>
-      <c r="AG56" s="59"/>
-      <c r="AH56" s="59"/>
-      <c r="AI56" s="59"/>
-      <c r="AJ56" s="59"/>
-      <c r="AK56" s="59"/>
-      <c r="AL56" s="59"/>
-      <c r="AM56" s="59"/>
-      <c r="AN56" s="59"/>
-      <c r="AO56" s="59"/>
-      <c r="AP56" s="60"/>
-      <c r="AQ56" s="58"/>
-      <c r="AR56" s="59"/>
-      <c r="AS56" s="59"/>
-      <c r="AT56" s="59"/>
-      <c r="AU56" s="59"/>
-      <c r="AV56" s="59"/>
-      <c r="AW56" s="59"/>
-      <c r="AX56" s="59"/>
-      <c r="AY56" s="59"/>
-      <c r="AZ56" s="60"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="38"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="38"/>
+      <c r="V56" s="38"/>
+      <c r="W56" s="38"/>
+      <c r="X56" s="38"/>
+      <c r="Y56" s="38"/>
+      <c r="Z56" s="38"/>
+      <c r="AA56" s="38"/>
+      <c r="AB56" s="38"/>
+      <c r="AC56" s="38"/>
+      <c r="AD56" s="38"/>
+      <c r="AE56" s="38"/>
+      <c r="AF56" s="38"/>
+      <c r="AG56" s="38"/>
+      <c r="AH56" s="38"/>
+      <c r="AI56" s="38"/>
+      <c r="AJ56" s="38"/>
+      <c r="AK56" s="38"/>
+      <c r="AL56" s="38"/>
+      <c r="AM56" s="38"/>
+      <c r="AN56" s="38"/>
+      <c r="AO56" s="38"/>
+      <c r="AP56" s="39"/>
+      <c r="AQ56" s="37"/>
+      <c r="AR56" s="38"/>
+      <c r="AS56" s="38"/>
+      <c r="AT56" s="38"/>
+      <c r="AU56" s="38"/>
+      <c r="AV56" s="38"/>
+      <c r="AW56" s="38"/>
+      <c r="AX56" s="38"/>
+      <c r="AY56" s="38"/>
+      <c r="AZ56" s="39"/>
     </row>
     <row r="57" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="27"/>
+      <c r="C57" s="60"/>
       <c r="D57" s="12"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -5672,22 +7062,22 @@
       <c r="AZ57" s="2"/>
     </row>
     <row r="58" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="28"/>
-      <c r="C58" s="29"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="62"/>
       <c r="D58" s="15"/>
       <c r="AZ58" s="3"/>
     </row>
     <row r="59" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="28"/>
-      <c r="C59" s="29"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="62"/>
       <c r="D59" s="15"/>
       <c r="AZ59" s="3"/>
     </row>
     <row r="60" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="31"/>
+      <c r="C60" s="67"/>
       <c r="D60" s="16"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -5739,14 +7129,14 @@
       <c r="AZ60" s="18"/>
     </row>
     <row r="61" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="28"/>
-      <c r="C61" s="29"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="62"/>
       <c r="D61" s="15"/>
       <c r="AZ61" s="3"/>
     </row>
     <row r="62" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="32"/>
-      <c r="C62" s="33"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="69"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="6"/>
@@ -5798,544 +7188,544 @@
       <c r="AZ62" s="6"/>
     </row>
     <row r="63" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="23"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="53"/>
-      <c r="O63" s="53"/>
-      <c r="P63" s="53"/>
-      <c r="Q63" s="53"/>
-      <c r="R63" s="53"/>
-      <c r="S63" s="53"/>
-      <c r="T63" s="53"/>
-      <c r="U63" s="53"/>
-      <c r="V63" s="53"/>
-      <c r="W63" s="53"/>
-      <c r="X63" s="53"/>
-      <c r="Y63" s="53"/>
-      <c r="Z63" s="53"/>
-      <c r="AA63" s="53"/>
-      <c r="AB63" s="53"/>
-      <c r="AC63" s="53"/>
-      <c r="AD63" s="53"/>
-      <c r="AE63" s="53"/>
-      <c r="AF63" s="53"/>
-      <c r="AG63" s="53"/>
-      <c r="AH63" s="53"/>
-      <c r="AI63" s="53"/>
-      <c r="AJ63" s="53"/>
-      <c r="AK63" s="53"/>
-      <c r="AL63" s="53"/>
-      <c r="AM63" s="53"/>
-      <c r="AN63" s="53"/>
-      <c r="AO63" s="53"/>
-      <c r="AP63" s="54"/>
-      <c r="AQ63" s="52"/>
-      <c r="AR63" s="53"/>
-      <c r="AS63" s="53"/>
-      <c r="AT63" s="53"/>
-      <c r="AU63" s="53"/>
-      <c r="AV63" s="53"/>
-      <c r="AW63" s="53"/>
-      <c r="AX63" s="53"/>
-      <c r="AY63" s="53"/>
-      <c r="AZ63" s="54"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="32"/>
+      <c r="U63" s="32"/>
+      <c r="V63" s="32"/>
+      <c r="W63" s="32"/>
+      <c r="X63" s="32"/>
+      <c r="Y63" s="32"/>
+      <c r="Z63" s="32"/>
+      <c r="AA63" s="32"/>
+      <c r="AB63" s="32"/>
+      <c r="AC63" s="32"/>
+      <c r="AD63" s="32"/>
+      <c r="AE63" s="32"/>
+      <c r="AF63" s="32"/>
+      <c r="AG63" s="32"/>
+      <c r="AH63" s="32"/>
+      <c r="AI63" s="32"/>
+      <c r="AJ63" s="32"/>
+      <c r="AK63" s="32"/>
+      <c r="AL63" s="32"/>
+      <c r="AM63" s="32"/>
+      <c r="AN63" s="32"/>
+      <c r="AO63" s="32"/>
+      <c r="AP63" s="33"/>
+      <c r="AQ63" s="31"/>
+      <c r="AR63" s="32"/>
+      <c r="AS63" s="32"/>
+      <c r="AT63" s="32"/>
+      <c r="AU63" s="32"/>
+      <c r="AV63" s="32"/>
+      <c r="AW63" s="32"/>
+      <c r="AX63" s="32"/>
+      <c r="AY63" s="32"/>
+      <c r="AZ63" s="33"/>
     </row>
     <row r="64" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="24"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="56"/>
-      <c r="K64" s="56"/>
-      <c r="L64" s="56"/>
-      <c r="M64" s="56"/>
-      <c r="N64" s="56"/>
-      <c r="O64" s="56"/>
-      <c r="P64" s="56"/>
-      <c r="Q64" s="56"/>
-      <c r="R64" s="56"/>
-      <c r="S64" s="56"/>
-      <c r="T64" s="56"/>
-      <c r="U64" s="56"/>
-      <c r="V64" s="56"/>
-      <c r="W64" s="56"/>
-      <c r="X64" s="56"/>
-      <c r="Y64" s="56"/>
-      <c r="Z64" s="56"/>
-      <c r="AA64" s="56"/>
-      <c r="AB64" s="56"/>
-      <c r="AC64" s="56"/>
-      <c r="AD64" s="56"/>
-      <c r="AE64" s="56"/>
-      <c r="AF64" s="56"/>
-      <c r="AG64" s="56"/>
-      <c r="AH64" s="56"/>
-      <c r="AI64" s="56"/>
-      <c r="AJ64" s="56"/>
-      <c r="AK64" s="56"/>
-      <c r="AL64" s="56"/>
-      <c r="AM64" s="56"/>
-      <c r="AN64" s="56"/>
-      <c r="AO64" s="56"/>
-      <c r="AP64" s="57"/>
-      <c r="AQ64" s="55"/>
-      <c r="AR64" s="56"/>
-      <c r="AS64" s="56"/>
-      <c r="AT64" s="56"/>
-      <c r="AU64" s="56"/>
-      <c r="AV64" s="56"/>
-      <c r="AW64" s="56"/>
-      <c r="AX64" s="56"/>
-      <c r="AY64" s="56"/>
-      <c r="AZ64" s="57"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="35"/>
+      <c r="S64" s="35"/>
+      <c r="T64" s="35"/>
+      <c r="U64" s="35"/>
+      <c r="V64" s="35"/>
+      <c r="W64" s="35"/>
+      <c r="X64" s="35"/>
+      <c r="Y64" s="35"/>
+      <c r="Z64" s="35"/>
+      <c r="AA64" s="35"/>
+      <c r="AB64" s="35"/>
+      <c r="AC64" s="35"/>
+      <c r="AD64" s="35"/>
+      <c r="AE64" s="35"/>
+      <c r="AF64" s="35"/>
+      <c r="AG64" s="35"/>
+      <c r="AH64" s="35"/>
+      <c r="AI64" s="35"/>
+      <c r="AJ64" s="35"/>
+      <c r="AK64" s="35"/>
+      <c r="AL64" s="35"/>
+      <c r="AM64" s="35"/>
+      <c r="AN64" s="35"/>
+      <c r="AO64" s="35"/>
+      <c r="AP64" s="36"/>
+      <c r="AQ64" s="34"/>
+      <c r="AR64" s="35"/>
+      <c r="AS64" s="35"/>
+      <c r="AT64" s="35"/>
+      <c r="AU64" s="35"/>
+      <c r="AV64" s="35"/>
+      <c r="AW64" s="35"/>
+      <c r="AX64" s="35"/>
+      <c r="AY64" s="35"/>
+      <c r="AZ64" s="36"/>
     </row>
     <row r="65" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="56"/>
-      <c r="K65" s="56"/>
-      <c r="L65" s="56"/>
-      <c r="M65" s="56"/>
-      <c r="N65" s="56"/>
-      <c r="O65" s="56"/>
-      <c r="P65" s="56"/>
-      <c r="Q65" s="56"/>
-      <c r="R65" s="56"/>
-      <c r="S65" s="56"/>
-      <c r="T65" s="56"/>
-      <c r="U65" s="56"/>
-      <c r="V65" s="56"/>
-      <c r="W65" s="56"/>
-      <c r="X65" s="56"/>
-      <c r="Y65" s="56"/>
-      <c r="Z65" s="56"/>
-      <c r="AA65" s="56"/>
-      <c r="AB65" s="56"/>
-      <c r="AC65" s="56"/>
-      <c r="AD65" s="56"/>
-      <c r="AE65" s="56"/>
-      <c r="AF65" s="56"/>
-      <c r="AG65" s="56"/>
-      <c r="AH65" s="56"/>
-      <c r="AI65" s="56"/>
-      <c r="AJ65" s="56"/>
-      <c r="AK65" s="56"/>
-      <c r="AL65" s="56"/>
-      <c r="AM65" s="56"/>
-      <c r="AN65" s="56"/>
-      <c r="AO65" s="56"/>
-      <c r="AP65" s="57"/>
-      <c r="AQ65" s="55"/>
-      <c r="AR65" s="56"/>
-      <c r="AS65" s="56"/>
-      <c r="AT65" s="56"/>
-      <c r="AU65" s="56"/>
-      <c r="AV65" s="56"/>
-      <c r="AW65" s="56"/>
-      <c r="AX65" s="56"/>
-      <c r="AY65" s="56"/>
-      <c r="AZ65" s="57"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="35"/>
+      <c r="V65" s="35"/>
+      <c r="W65" s="35"/>
+      <c r="X65" s="35"/>
+      <c r="Y65" s="35"/>
+      <c r="Z65" s="35"/>
+      <c r="AA65" s="35"/>
+      <c r="AB65" s="35"/>
+      <c r="AC65" s="35"/>
+      <c r="AD65" s="35"/>
+      <c r="AE65" s="35"/>
+      <c r="AF65" s="35"/>
+      <c r="AG65" s="35"/>
+      <c r="AH65" s="35"/>
+      <c r="AI65" s="35"/>
+      <c r="AJ65" s="35"/>
+      <c r="AK65" s="35"/>
+      <c r="AL65" s="35"/>
+      <c r="AM65" s="35"/>
+      <c r="AN65" s="35"/>
+      <c r="AO65" s="35"/>
+      <c r="AP65" s="36"/>
+      <c r="AQ65" s="34"/>
+      <c r="AR65" s="35"/>
+      <c r="AS65" s="35"/>
+      <c r="AT65" s="35"/>
+      <c r="AU65" s="35"/>
+      <c r="AV65" s="35"/>
+      <c r="AW65" s="35"/>
+      <c r="AX65" s="35"/>
+      <c r="AY65" s="35"/>
+      <c r="AZ65" s="36"/>
     </row>
     <row r="66" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="56"/>
-      <c r="K66" s="56"/>
-      <c r="L66" s="56"/>
-      <c r="M66" s="56"/>
-      <c r="N66" s="56"/>
-      <c r="O66" s="56"/>
-      <c r="P66" s="56"/>
-      <c r="Q66" s="56"/>
-      <c r="R66" s="56"/>
-      <c r="S66" s="56"/>
-      <c r="T66" s="56"/>
-      <c r="U66" s="56"/>
-      <c r="V66" s="56"/>
-      <c r="W66" s="56"/>
-      <c r="X66" s="56"/>
-      <c r="Y66" s="56"/>
-      <c r="Z66" s="56"/>
-      <c r="AA66" s="56"/>
-      <c r="AB66" s="56"/>
-      <c r="AC66" s="56"/>
-      <c r="AD66" s="56"/>
-      <c r="AE66" s="56"/>
-      <c r="AF66" s="56"/>
-      <c r="AG66" s="56"/>
-      <c r="AH66" s="56"/>
-      <c r="AI66" s="56"/>
-      <c r="AJ66" s="56"/>
-      <c r="AK66" s="56"/>
-      <c r="AL66" s="56"/>
-      <c r="AM66" s="56"/>
-      <c r="AN66" s="56"/>
-      <c r="AO66" s="56"/>
-      <c r="AP66" s="57"/>
-      <c r="AQ66" s="55"/>
-      <c r="AR66" s="56"/>
-      <c r="AS66" s="56"/>
-      <c r="AT66" s="56"/>
-      <c r="AU66" s="56"/>
-      <c r="AV66" s="56"/>
-      <c r="AW66" s="56"/>
-      <c r="AX66" s="56"/>
-      <c r="AY66" s="56"/>
-      <c r="AZ66" s="57"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="35"/>
+      <c r="V66" s="35"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="35"/>
+      <c r="Y66" s="35"/>
+      <c r="Z66" s="35"/>
+      <c r="AA66" s="35"/>
+      <c r="AB66" s="35"/>
+      <c r="AC66" s="35"/>
+      <c r="AD66" s="35"/>
+      <c r="AE66" s="35"/>
+      <c r="AF66" s="35"/>
+      <c r="AG66" s="35"/>
+      <c r="AH66" s="35"/>
+      <c r="AI66" s="35"/>
+      <c r="AJ66" s="35"/>
+      <c r="AK66" s="35"/>
+      <c r="AL66" s="35"/>
+      <c r="AM66" s="35"/>
+      <c r="AN66" s="35"/>
+      <c r="AO66" s="35"/>
+      <c r="AP66" s="36"/>
+      <c r="AQ66" s="34"/>
+      <c r="AR66" s="35"/>
+      <c r="AS66" s="35"/>
+      <c r="AT66" s="35"/>
+      <c r="AU66" s="35"/>
+      <c r="AV66" s="35"/>
+      <c r="AW66" s="35"/>
+      <c r="AX66" s="35"/>
+      <c r="AY66" s="35"/>
+      <c r="AZ66" s="36"/>
     </row>
     <row r="67" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="56"/>
-      <c r="K67" s="56"/>
-      <c r="L67" s="56"/>
-      <c r="M67" s="56"/>
-      <c r="N67" s="56"/>
-      <c r="O67" s="56"/>
-      <c r="P67" s="56"/>
-      <c r="Q67" s="56"/>
-      <c r="R67" s="56"/>
-      <c r="S67" s="56"/>
-      <c r="T67" s="56"/>
-      <c r="U67" s="56"/>
-      <c r="V67" s="56"/>
-      <c r="W67" s="56"/>
-      <c r="X67" s="56"/>
-      <c r="Y67" s="56"/>
-      <c r="Z67" s="56"/>
-      <c r="AA67" s="56"/>
-      <c r="AB67" s="56"/>
-      <c r="AC67" s="56"/>
-      <c r="AD67" s="56"/>
-      <c r="AE67" s="56"/>
-      <c r="AF67" s="56"/>
-      <c r="AG67" s="56"/>
-      <c r="AH67" s="56"/>
-      <c r="AI67" s="56"/>
-      <c r="AJ67" s="56"/>
-      <c r="AK67" s="56"/>
-      <c r="AL67" s="56"/>
-      <c r="AM67" s="56"/>
-      <c r="AN67" s="56"/>
-      <c r="AO67" s="56"/>
-      <c r="AP67" s="57"/>
-      <c r="AQ67" s="55"/>
-      <c r="AR67" s="56"/>
-      <c r="AS67" s="56"/>
-      <c r="AT67" s="56"/>
-      <c r="AU67" s="56"/>
-      <c r="AV67" s="56"/>
-      <c r="AW67" s="56"/>
-      <c r="AX67" s="56"/>
-      <c r="AY67" s="56"/>
-      <c r="AZ67" s="57"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35"/>
+      <c r="V67" s="35"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="35"/>
+      <c r="Y67" s="35"/>
+      <c r="Z67" s="35"/>
+      <c r="AA67" s="35"/>
+      <c r="AB67" s="35"/>
+      <c r="AC67" s="35"/>
+      <c r="AD67" s="35"/>
+      <c r="AE67" s="35"/>
+      <c r="AF67" s="35"/>
+      <c r="AG67" s="35"/>
+      <c r="AH67" s="35"/>
+      <c r="AI67" s="35"/>
+      <c r="AJ67" s="35"/>
+      <c r="AK67" s="35"/>
+      <c r="AL67" s="35"/>
+      <c r="AM67" s="35"/>
+      <c r="AN67" s="35"/>
+      <c r="AO67" s="35"/>
+      <c r="AP67" s="36"/>
+      <c r="AQ67" s="34"/>
+      <c r="AR67" s="35"/>
+      <c r="AS67" s="35"/>
+      <c r="AT67" s="35"/>
+      <c r="AU67" s="35"/>
+      <c r="AV67" s="35"/>
+      <c r="AW67" s="35"/>
+      <c r="AX67" s="35"/>
+      <c r="AY67" s="35"/>
+      <c r="AZ67" s="36"/>
     </row>
     <row r="68" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="56"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="56"/>
-      <c r="N68" s="56"/>
-      <c r="O68" s="56"/>
-      <c r="P68" s="56"/>
-      <c r="Q68" s="56"/>
-      <c r="R68" s="56"/>
-      <c r="S68" s="56"/>
-      <c r="T68" s="56"/>
-      <c r="U68" s="56"/>
-      <c r="V68" s="56"/>
-      <c r="W68" s="56"/>
-      <c r="X68" s="56"/>
-      <c r="Y68" s="56"/>
-      <c r="Z68" s="56"/>
-      <c r="AA68" s="56"/>
-      <c r="AB68" s="56"/>
-      <c r="AC68" s="56"/>
-      <c r="AD68" s="56"/>
-      <c r="AE68" s="56"/>
-      <c r="AF68" s="56"/>
-      <c r="AG68" s="56"/>
-      <c r="AH68" s="56"/>
-      <c r="AI68" s="56"/>
-      <c r="AJ68" s="56"/>
-      <c r="AK68" s="56"/>
-      <c r="AL68" s="56"/>
-      <c r="AM68" s="56"/>
-      <c r="AN68" s="56"/>
-      <c r="AO68" s="56"/>
-      <c r="AP68" s="57"/>
-      <c r="AQ68" s="55"/>
-      <c r="AR68" s="56"/>
-      <c r="AS68" s="56"/>
-      <c r="AT68" s="56"/>
-      <c r="AU68" s="56"/>
-      <c r="AV68" s="56"/>
-      <c r="AW68" s="56"/>
-      <c r="AX68" s="56"/>
-      <c r="AY68" s="56"/>
-      <c r="AZ68" s="57"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="35"/>
+      <c r="U68" s="35"/>
+      <c r="V68" s="35"/>
+      <c r="W68" s="35"/>
+      <c r="X68" s="35"/>
+      <c r="Y68" s="35"/>
+      <c r="Z68" s="35"/>
+      <c r="AA68" s="35"/>
+      <c r="AB68" s="35"/>
+      <c r="AC68" s="35"/>
+      <c r="AD68" s="35"/>
+      <c r="AE68" s="35"/>
+      <c r="AF68" s="35"/>
+      <c r="AG68" s="35"/>
+      <c r="AH68" s="35"/>
+      <c r="AI68" s="35"/>
+      <c r="AJ68" s="35"/>
+      <c r="AK68" s="35"/>
+      <c r="AL68" s="35"/>
+      <c r="AM68" s="35"/>
+      <c r="AN68" s="35"/>
+      <c r="AO68" s="35"/>
+      <c r="AP68" s="36"/>
+      <c r="AQ68" s="34"/>
+      <c r="AR68" s="35"/>
+      <c r="AS68" s="35"/>
+      <c r="AT68" s="35"/>
+      <c r="AU68" s="35"/>
+      <c r="AV68" s="35"/>
+      <c r="AW68" s="35"/>
+      <c r="AX68" s="35"/>
+      <c r="AY68" s="35"/>
+      <c r="AZ68" s="36"/>
     </row>
     <row r="69" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="24"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="56"/>
-      <c r="K69" s="56"/>
-      <c r="L69" s="56"/>
-      <c r="M69" s="56"/>
-      <c r="N69" s="56"/>
-      <c r="O69" s="56"/>
-      <c r="P69" s="56"/>
-      <c r="Q69" s="56"/>
-      <c r="R69" s="56"/>
-      <c r="S69" s="56"/>
-      <c r="T69" s="56"/>
-      <c r="U69" s="56"/>
-      <c r="V69" s="56"/>
-      <c r="W69" s="56"/>
-      <c r="X69" s="56"/>
-      <c r="Y69" s="56"/>
-      <c r="Z69" s="56"/>
-      <c r="AA69" s="56"/>
-      <c r="AB69" s="56"/>
-      <c r="AC69" s="56"/>
-      <c r="AD69" s="56"/>
-      <c r="AE69" s="56"/>
-      <c r="AF69" s="56"/>
-      <c r="AG69" s="56"/>
-      <c r="AH69" s="56"/>
-      <c r="AI69" s="56"/>
-      <c r="AJ69" s="56"/>
-      <c r="AK69" s="56"/>
-      <c r="AL69" s="56"/>
-      <c r="AM69" s="56"/>
-      <c r="AN69" s="56"/>
-      <c r="AO69" s="56"/>
-      <c r="AP69" s="57"/>
-      <c r="AQ69" s="55"/>
-      <c r="AR69" s="56"/>
-      <c r="AS69" s="56"/>
-      <c r="AT69" s="56"/>
-      <c r="AU69" s="56"/>
-      <c r="AV69" s="56"/>
-      <c r="AW69" s="56"/>
-      <c r="AX69" s="56"/>
-      <c r="AY69" s="56"/>
-      <c r="AZ69" s="57"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="35"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35"/>
+      <c r="Y69" s="35"/>
+      <c r="Z69" s="35"/>
+      <c r="AA69" s="35"/>
+      <c r="AB69" s="35"/>
+      <c r="AC69" s="35"/>
+      <c r="AD69" s="35"/>
+      <c r="AE69" s="35"/>
+      <c r="AF69" s="35"/>
+      <c r="AG69" s="35"/>
+      <c r="AH69" s="35"/>
+      <c r="AI69" s="35"/>
+      <c r="AJ69" s="35"/>
+      <c r="AK69" s="35"/>
+      <c r="AL69" s="35"/>
+      <c r="AM69" s="35"/>
+      <c r="AN69" s="35"/>
+      <c r="AO69" s="35"/>
+      <c r="AP69" s="36"/>
+      <c r="AQ69" s="34"/>
+      <c r="AR69" s="35"/>
+      <c r="AS69" s="35"/>
+      <c r="AT69" s="35"/>
+      <c r="AU69" s="35"/>
+      <c r="AV69" s="35"/>
+      <c r="AW69" s="35"/>
+      <c r="AX69" s="35"/>
+      <c r="AY69" s="35"/>
+      <c r="AZ69" s="36"/>
     </row>
     <row r="70" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="56"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="56"/>
-      <c r="J70" s="56"/>
-      <c r="K70" s="56"/>
-      <c r="L70" s="56"/>
-      <c r="M70" s="56"/>
-      <c r="N70" s="56"/>
-      <c r="O70" s="56"/>
-      <c r="P70" s="56"/>
-      <c r="Q70" s="56"/>
-      <c r="R70" s="56"/>
-      <c r="S70" s="56"/>
-      <c r="T70" s="56"/>
-      <c r="U70" s="56"/>
-      <c r="V70" s="56"/>
-      <c r="W70" s="56"/>
-      <c r="X70" s="56"/>
-      <c r="Y70" s="56"/>
-      <c r="Z70" s="56"/>
-      <c r="AA70" s="56"/>
-      <c r="AB70" s="56"/>
-      <c r="AC70" s="56"/>
-      <c r="AD70" s="56"/>
-      <c r="AE70" s="56"/>
-      <c r="AF70" s="56"/>
-      <c r="AG70" s="56"/>
-      <c r="AH70" s="56"/>
-      <c r="AI70" s="56"/>
-      <c r="AJ70" s="56"/>
-      <c r="AK70" s="56"/>
-      <c r="AL70" s="56"/>
-      <c r="AM70" s="56"/>
-      <c r="AN70" s="56"/>
-      <c r="AO70" s="56"/>
-      <c r="AP70" s="57"/>
-      <c r="AQ70" s="55"/>
-      <c r="AR70" s="56"/>
-      <c r="AS70" s="56"/>
-      <c r="AT70" s="56"/>
-      <c r="AU70" s="56"/>
-      <c r="AV70" s="56"/>
-      <c r="AW70" s="56"/>
-      <c r="AX70" s="56"/>
-      <c r="AY70" s="56"/>
-      <c r="AZ70" s="57"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="35"/>
+      <c r="T70" s="35"/>
+      <c r="U70" s="35"/>
+      <c r="V70" s="35"/>
+      <c r="W70" s="35"/>
+      <c r="X70" s="35"/>
+      <c r="Y70" s="35"/>
+      <c r="Z70" s="35"/>
+      <c r="AA70" s="35"/>
+      <c r="AB70" s="35"/>
+      <c r="AC70" s="35"/>
+      <c r="AD70" s="35"/>
+      <c r="AE70" s="35"/>
+      <c r="AF70" s="35"/>
+      <c r="AG70" s="35"/>
+      <c r="AH70" s="35"/>
+      <c r="AI70" s="35"/>
+      <c r="AJ70" s="35"/>
+      <c r="AK70" s="35"/>
+      <c r="AL70" s="35"/>
+      <c r="AM70" s="35"/>
+      <c r="AN70" s="35"/>
+      <c r="AO70" s="35"/>
+      <c r="AP70" s="36"/>
+      <c r="AQ70" s="34"/>
+      <c r="AR70" s="35"/>
+      <c r="AS70" s="35"/>
+      <c r="AT70" s="35"/>
+      <c r="AU70" s="35"/>
+      <c r="AV70" s="35"/>
+      <c r="AW70" s="35"/>
+      <c r="AX70" s="35"/>
+      <c r="AY70" s="35"/>
+      <c r="AZ70" s="36"/>
     </row>
     <row r="71" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="35"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="56"/>
-      <c r="K71" s="56"/>
-      <c r="L71" s="56"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="56"/>
-      <c r="O71" s="56"/>
-      <c r="P71" s="56"/>
-      <c r="Q71" s="56"/>
-      <c r="R71" s="56"/>
-      <c r="S71" s="56"/>
-      <c r="T71" s="56"/>
-      <c r="U71" s="56"/>
-      <c r="V71" s="56"/>
-      <c r="W71" s="56"/>
-      <c r="X71" s="56"/>
-      <c r="Y71" s="56"/>
-      <c r="Z71" s="56"/>
-      <c r="AA71" s="56"/>
-      <c r="AB71" s="56"/>
-      <c r="AC71" s="56"/>
-      <c r="AD71" s="56"/>
-      <c r="AE71" s="56"/>
-      <c r="AF71" s="56"/>
-      <c r="AG71" s="56"/>
-      <c r="AH71" s="56"/>
-      <c r="AI71" s="56"/>
-      <c r="AJ71" s="56"/>
-      <c r="AK71" s="56"/>
-      <c r="AL71" s="56"/>
-      <c r="AM71" s="56"/>
-      <c r="AN71" s="56"/>
-      <c r="AO71" s="56"/>
-      <c r="AP71" s="57"/>
-      <c r="AQ71" s="55"/>
-      <c r="AR71" s="56"/>
-      <c r="AS71" s="56"/>
-      <c r="AT71" s="56"/>
-      <c r="AU71" s="56"/>
-      <c r="AV71" s="56"/>
-      <c r="AW71" s="56"/>
-      <c r="AX71" s="56"/>
-      <c r="AY71" s="56"/>
-      <c r="AZ71" s="57"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="35"/>
+      <c r="S71" s="35"/>
+      <c r="T71" s="35"/>
+      <c r="U71" s="35"/>
+      <c r="V71" s="35"/>
+      <c r="W71" s="35"/>
+      <c r="X71" s="35"/>
+      <c r="Y71" s="35"/>
+      <c r="Z71" s="35"/>
+      <c r="AA71" s="35"/>
+      <c r="AB71" s="35"/>
+      <c r="AC71" s="35"/>
+      <c r="AD71" s="35"/>
+      <c r="AE71" s="35"/>
+      <c r="AF71" s="35"/>
+      <c r="AG71" s="35"/>
+      <c r="AH71" s="35"/>
+      <c r="AI71" s="35"/>
+      <c r="AJ71" s="35"/>
+      <c r="AK71" s="35"/>
+      <c r="AL71" s="35"/>
+      <c r="AM71" s="35"/>
+      <c r="AN71" s="35"/>
+      <c r="AO71" s="35"/>
+      <c r="AP71" s="36"/>
+      <c r="AQ71" s="34"/>
+      <c r="AR71" s="35"/>
+      <c r="AS71" s="35"/>
+      <c r="AT71" s="35"/>
+      <c r="AU71" s="35"/>
+      <c r="AV71" s="35"/>
+      <c r="AW71" s="35"/>
+      <c r="AX71" s="35"/>
+      <c r="AY71" s="35"/>
+      <c r="AZ71" s="36"/>
     </row>
     <row r="72" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="36"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
-      <c r="L72" s="59"/>
-      <c r="M72" s="59"/>
-      <c r="N72" s="59"/>
-      <c r="O72" s="59"/>
-      <c r="P72" s="59"/>
-      <c r="Q72" s="59"/>
-      <c r="R72" s="59"/>
-      <c r="S72" s="59"/>
-      <c r="T72" s="59"/>
-      <c r="U72" s="59"/>
-      <c r="V72" s="59"/>
-      <c r="W72" s="59"/>
-      <c r="X72" s="59"/>
-      <c r="Y72" s="59"/>
-      <c r="Z72" s="59"/>
-      <c r="AA72" s="59"/>
-      <c r="AB72" s="59"/>
-      <c r="AC72" s="59"/>
-      <c r="AD72" s="59"/>
-      <c r="AE72" s="59"/>
-      <c r="AF72" s="59"/>
-      <c r="AG72" s="59"/>
-      <c r="AH72" s="59"/>
-      <c r="AI72" s="59"/>
-      <c r="AJ72" s="59"/>
-      <c r="AK72" s="59"/>
-      <c r="AL72" s="59"/>
-      <c r="AM72" s="59"/>
-      <c r="AN72" s="59"/>
-      <c r="AO72" s="59"/>
-      <c r="AP72" s="60"/>
-      <c r="AQ72" s="58"/>
-      <c r="AR72" s="59"/>
-      <c r="AS72" s="59"/>
-      <c r="AT72" s="59"/>
-      <c r="AU72" s="59"/>
-      <c r="AV72" s="59"/>
-      <c r="AW72" s="59"/>
-      <c r="AX72" s="59"/>
-      <c r="AY72" s="59"/>
-      <c r="AZ72" s="60"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="38"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
+      <c r="Q72" s="38"/>
+      <c r="R72" s="38"/>
+      <c r="S72" s="38"/>
+      <c r="T72" s="38"/>
+      <c r="U72" s="38"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="38"/>
+      <c r="X72" s="38"/>
+      <c r="Y72" s="38"/>
+      <c r="Z72" s="38"/>
+      <c r="AA72" s="38"/>
+      <c r="AB72" s="38"/>
+      <c r="AC72" s="38"/>
+      <c r="AD72" s="38"/>
+      <c r="AE72" s="38"/>
+      <c r="AF72" s="38"/>
+      <c r="AG72" s="38"/>
+      <c r="AH72" s="38"/>
+      <c r="AI72" s="38"/>
+      <c r="AJ72" s="38"/>
+      <c r="AK72" s="38"/>
+      <c r="AL72" s="38"/>
+      <c r="AM72" s="38"/>
+      <c r="AN72" s="38"/>
+      <c r="AO72" s="38"/>
+      <c r="AP72" s="39"/>
+      <c r="AQ72" s="37"/>
+      <c r="AR72" s="38"/>
+      <c r="AS72" s="38"/>
+      <c r="AT72" s="38"/>
+      <c r="AU72" s="38"/>
+      <c r="AV72" s="38"/>
+      <c r="AW72" s="38"/>
+      <c r="AX72" s="38"/>
+      <c r="AY72" s="38"/>
+      <c r="AZ72" s="39"/>
     </row>
     <row r="73" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="27"/>
+      <c r="C73" s="60"/>
       <c r="D73" s="12"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -6387,22 +7777,22 @@
       <c r="AZ73" s="2"/>
     </row>
     <row r="74" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="28"/>
-      <c r="C74" s="29"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="62"/>
       <c r="D74" s="15"/>
       <c r="AZ74" s="3"/>
     </row>
     <row r="75" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="28"/>
-      <c r="C75" s="29"/>
+      <c r="B75" s="61"/>
+      <c r="C75" s="62"/>
       <c r="D75" s="15"/>
       <c r="AZ75" s="3"/>
     </row>
     <row r="76" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="31"/>
+      <c r="C76" s="67"/>
       <c r="D76" s="16"/>
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
@@ -6454,14 +7844,14 @@
       <c r="AZ76" s="18"/>
     </row>
     <row r="77" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="28"/>
-      <c r="C77" s="29"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="62"/>
       <c r="D77" s="15"/>
       <c r="AZ77" s="3"/>
     </row>
     <row r="78" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="32"/>
-      <c r="C78" s="33"/>
+      <c r="B78" s="68"/>
+      <c r="C78" s="69"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="6"/>
@@ -6513,552 +7903,552 @@
       <c r="AZ78" s="6"/>
     </row>
     <row r="79" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="23"/>
-      <c r="D79" s="52"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="53"/>
-      <c r="H79" s="53"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="53"/>
-      <c r="K79" s="53"/>
-      <c r="L79" s="53"/>
-      <c r="M79" s="53"/>
-      <c r="N79" s="53"/>
-      <c r="O79" s="53"/>
-      <c r="P79" s="53"/>
-      <c r="Q79" s="53"/>
-      <c r="R79" s="53"/>
-      <c r="S79" s="53"/>
-      <c r="T79" s="53"/>
-      <c r="U79" s="53"/>
-      <c r="V79" s="53"/>
-      <c r="W79" s="53"/>
-      <c r="X79" s="53"/>
-      <c r="Y79" s="53"/>
-      <c r="Z79" s="53"/>
-      <c r="AA79" s="53"/>
-      <c r="AB79" s="53"/>
-      <c r="AC79" s="53"/>
-      <c r="AD79" s="53"/>
-      <c r="AE79" s="53"/>
-      <c r="AF79" s="53"/>
-      <c r="AG79" s="53"/>
-      <c r="AH79" s="53"/>
-      <c r="AI79" s="53"/>
-      <c r="AJ79" s="53"/>
-      <c r="AK79" s="53"/>
-      <c r="AL79" s="53"/>
-      <c r="AM79" s="53"/>
-      <c r="AN79" s="53"/>
-      <c r="AO79" s="53"/>
-      <c r="AP79" s="54"/>
-      <c r="AQ79" s="52"/>
-      <c r="AR79" s="53"/>
-      <c r="AS79" s="53"/>
-      <c r="AT79" s="53"/>
-      <c r="AU79" s="53"/>
-      <c r="AV79" s="53"/>
-      <c r="AW79" s="53"/>
-      <c r="AX79" s="53"/>
-      <c r="AY79" s="53"/>
-      <c r="AZ79" s="54"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="32"/>
+      <c r="L79" s="32"/>
+      <c r="M79" s="32"/>
+      <c r="N79" s="32"/>
+      <c r="O79" s="32"/>
+      <c r="P79" s="32"/>
+      <c r="Q79" s="32"/>
+      <c r="R79" s="32"/>
+      <c r="S79" s="32"/>
+      <c r="T79" s="32"/>
+      <c r="U79" s="32"/>
+      <c r="V79" s="32"/>
+      <c r="W79" s="32"/>
+      <c r="X79" s="32"/>
+      <c r="Y79" s="32"/>
+      <c r="Z79" s="32"/>
+      <c r="AA79" s="32"/>
+      <c r="AB79" s="32"/>
+      <c r="AC79" s="32"/>
+      <c r="AD79" s="32"/>
+      <c r="AE79" s="32"/>
+      <c r="AF79" s="32"/>
+      <c r="AG79" s="32"/>
+      <c r="AH79" s="32"/>
+      <c r="AI79" s="32"/>
+      <c r="AJ79" s="32"/>
+      <c r="AK79" s="32"/>
+      <c r="AL79" s="32"/>
+      <c r="AM79" s="32"/>
+      <c r="AN79" s="32"/>
+      <c r="AO79" s="32"/>
+      <c r="AP79" s="33"/>
+      <c r="AQ79" s="31"/>
+      <c r="AR79" s="32"/>
+      <c r="AS79" s="32"/>
+      <c r="AT79" s="32"/>
+      <c r="AU79" s="32"/>
+      <c r="AV79" s="32"/>
+      <c r="AW79" s="32"/>
+      <c r="AX79" s="32"/>
+      <c r="AY79" s="32"/>
+      <c r="AZ79" s="33"/>
     </row>
     <row r="80" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="56"/>
-      <c r="K80" s="56"/>
-      <c r="L80" s="56"/>
-      <c r="M80" s="56"/>
-      <c r="N80" s="56"/>
-      <c r="O80" s="56"/>
-      <c r="P80" s="56"/>
-      <c r="Q80" s="56"/>
-      <c r="R80" s="56"/>
-      <c r="S80" s="56"/>
-      <c r="T80" s="56"/>
-      <c r="U80" s="56"/>
-      <c r="V80" s="56"/>
-      <c r="W80" s="56"/>
-      <c r="X80" s="56"/>
-      <c r="Y80" s="56"/>
-      <c r="Z80" s="56"/>
-      <c r="AA80" s="56"/>
-      <c r="AB80" s="56"/>
-      <c r="AC80" s="56"/>
-      <c r="AD80" s="56"/>
-      <c r="AE80" s="56"/>
-      <c r="AF80" s="56"/>
-      <c r="AG80" s="56"/>
-      <c r="AH80" s="56"/>
-      <c r="AI80" s="56"/>
-      <c r="AJ80" s="56"/>
-      <c r="AK80" s="56"/>
-      <c r="AL80" s="56"/>
-      <c r="AM80" s="56"/>
-      <c r="AN80" s="56"/>
-      <c r="AO80" s="56"/>
-      <c r="AP80" s="57"/>
-      <c r="AQ80" s="55"/>
-      <c r="AR80" s="56"/>
-      <c r="AS80" s="56"/>
-      <c r="AT80" s="56"/>
-      <c r="AU80" s="56"/>
-      <c r="AV80" s="56"/>
-      <c r="AW80" s="56"/>
-      <c r="AX80" s="56"/>
-      <c r="AY80" s="56"/>
-      <c r="AZ80" s="57"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35"/>
+      <c r="T80" s="35"/>
+      <c r="U80" s="35"/>
+      <c r="V80" s="35"/>
+      <c r="W80" s="35"/>
+      <c r="X80" s="35"/>
+      <c r="Y80" s="35"/>
+      <c r="Z80" s="35"/>
+      <c r="AA80" s="35"/>
+      <c r="AB80" s="35"/>
+      <c r="AC80" s="35"/>
+      <c r="AD80" s="35"/>
+      <c r="AE80" s="35"/>
+      <c r="AF80" s="35"/>
+      <c r="AG80" s="35"/>
+      <c r="AH80" s="35"/>
+      <c r="AI80" s="35"/>
+      <c r="AJ80" s="35"/>
+      <c r="AK80" s="35"/>
+      <c r="AL80" s="35"/>
+      <c r="AM80" s="35"/>
+      <c r="AN80" s="35"/>
+      <c r="AO80" s="35"/>
+      <c r="AP80" s="36"/>
+      <c r="AQ80" s="34"/>
+      <c r="AR80" s="35"/>
+      <c r="AS80" s="35"/>
+      <c r="AT80" s="35"/>
+      <c r="AU80" s="35"/>
+      <c r="AV80" s="35"/>
+      <c r="AW80" s="35"/>
+      <c r="AX80" s="35"/>
+      <c r="AY80" s="35"/>
+      <c r="AZ80" s="36"/>
     </row>
     <row r="81" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="24"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="56"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="56"/>
-      <c r="K81" s="56"/>
-      <c r="L81" s="56"/>
-      <c r="M81" s="56"/>
-      <c r="N81" s="56"/>
-      <c r="O81" s="56"/>
-      <c r="P81" s="56"/>
-      <c r="Q81" s="56"/>
-      <c r="R81" s="56"/>
-      <c r="S81" s="56"/>
-      <c r="T81" s="56"/>
-      <c r="U81" s="56"/>
-      <c r="V81" s="56"/>
-      <c r="W81" s="56"/>
-      <c r="X81" s="56"/>
-      <c r="Y81" s="56"/>
-      <c r="Z81" s="56"/>
-      <c r="AA81" s="56"/>
-      <c r="AB81" s="56"/>
-      <c r="AC81" s="56"/>
-      <c r="AD81" s="56"/>
-      <c r="AE81" s="56"/>
-      <c r="AF81" s="56"/>
-      <c r="AG81" s="56"/>
-      <c r="AH81" s="56"/>
-      <c r="AI81" s="56"/>
-      <c r="AJ81" s="56"/>
-      <c r="AK81" s="56"/>
-      <c r="AL81" s="56"/>
-      <c r="AM81" s="56"/>
-      <c r="AN81" s="56"/>
-      <c r="AO81" s="56"/>
-      <c r="AP81" s="57"/>
-      <c r="AQ81" s="55"/>
-      <c r="AR81" s="56"/>
-      <c r="AS81" s="56"/>
-      <c r="AT81" s="56"/>
-      <c r="AU81" s="56"/>
-      <c r="AV81" s="56"/>
-      <c r="AW81" s="56"/>
-      <c r="AX81" s="56"/>
-      <c r="AY81" s="56"/>
-      <c r="AZ81" s="57"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="35"/>
+      <c r="R81" s="35"/>
+      <c r="S81" s="35"/>
+      <c r="T81" s="35"/>
+      <c r="U81" s="35"/>
+      <c r="V81" s="35"/>
+      <c r="W81" s="35"/>
+      <c r="X81" s="35"/>
+      <c r="Y81" s="35"/>
+      <c r="Z81" s="35"/>
+      <c r="AA81" s="35"/>
+      <c r="AB81" s="35"/>
+      <c r="AC81" s="35"/>
+      <c r="AD81" s="35"/>
+      <c r="AE81" s="35"/>
+      <c r="AF81" s="35"/>
+      <c r="AG81" s="35"/>
+      <c r="AH81" s="35"/>
+      <c r="AI81" s="35"/>
+      <c r="AJ81" s="35"/>
+      <c r="AK81" s="35"/>
+      <c r="AL81" s="35"/>
+      <c r="AM81" s="35"/>
+      <c r="AN81" s="35"/>
+      <c r="AO81" s="35"/>
+      <c r="AP81" s="36"/>
+      <c r="AQ81" s="34"/>
+      <c r="AR81" s="35"/>
+      <c r="AS81" s="35"/>
+      <c r="AT81" s="35"/>
+      <c r="AU81" s="35"/>
+      <c r="AV81" s="35"/>
+      <c r="AW81" s="35"/>
+      <c r="AX81" s="35"/>
+      <c r="AY81" s="35"/>
+      <c r="AZ81" s="36"/>
     </row>
     <row r="82" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="56"/>
-      <c r="K82" s="56"/>
-      <c r="L82" s="56"/>
-      <c r="M82" s="56"/>
-      <c r="N82" s="56"/>
-      <c r="O82" s="56"/>
-      <c r="P82" s="56"/>
-      <c r="Q82" s="56"/>
-      <c r="R82" s="56"/>
-      <c r="S82" s="56"/>
-      <c r="T82" s="56"/>
-      <c r="U82" s="56"/>
-      <c r="V82" s="56"/>
-      <c r="W82" s="56"/>
-      <c r="X82" s="56"/>
-      <c r="Y82" s="56"/>
-      <c r="Z82" s="56"/>
-      <c r="AA82" s="56"/>
-      <c r="AB82" s="56"/>
-      <c r="AC82" s="56"/>
-      <c r="AD82" s="56"/>
-      <c r="AE82" s="56"/>
-      <c r="AF82" s="56"/>
-      <c r="AG82" s="56"/>
-      <c r="AH82" s="56"/>
-      <c r="AI82" s="56"/>
-      <c r="AJ82" s="56"/>
-      <c r="AK82" s="56"/>
-      <c r="AL82" s="56"/>
-      <c r="AM82" s="56"/>
-      <c r="AN82" s="56"/>
-      <c r="AO82" s="56"/>
-      <c r="AP82" s="57"/>
-      <c r="AQ82" s="55"/>
-      <c r="AR82" s="56"/>
-      <c r="AS82" s="56"/>
-      <c r="AT82" s="56"/>
-      <c r="AU82" s="56"/>
-      <c r="AV82" s="56"/>
-      <c r="AW82" s="56"/>
-      <c r="AX82" s="56"/>
-      <c r="AY82" s="56"/>
-      <c r="AZ82" s="57"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="35"/>
+      <c r="T82" s="35"/>
+      <c r="U82" s="35"/>
+      <c r="V82" s="35"/>
+      <c r="W82" s="35"/>
+      <c r="X82" s="35"/>
+      <c r="Y82" s="35"/>
+      <c r="Z82" s="35"/>
+      <c r="AA82" s="35"/>
+      <c r="AB82" s="35"/>
+      <c r="AC82" s="35"/>
+      <c r="AD82" s="35"/>
+      <c r="AE82" s="35"/>
+      <c r="AF82" s="35"/>
+      <c r="AG82" s="35"/>
+      <c r="AH82" s="35"/>
+      <c r="AI82" s="35"/>
+      <c r="AJ82" s="35"/>
+      <c r="AK82" s="35"/>
+      <c r="AL82" s="35"/>
+      <c r="AM82" s="35"/>
+      <c r="AN82" s="35"/>
+      <c r="AO82" s="35"/>
+      <c r="AP82" s="36"/>
+      <c r="AQ82" s="34"/>
+      <c r="AR82" s="35"/>
+      <c r="AS82" s="35"/>
+      <c r="AT82" s="35"/>
+      <c r="AU82" s="35"/>
+      <c r="AV82" s="35"/>
+      <c r="AW82" s="35"/>
+      <c r="AX82" s="35"/>
+      <c r="AY82" s="35"/>
+      <c r="AZ82" s="36"/>
     </row>
     <row r="83" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="24"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="56"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="56"/>
-      <c r="K83" s="56"/>
-      <c r="L83" s="56"/>
-      <c r="M83" s="56"/>
-      <c r="N83" s="56"/>
-      <c r="O83" s="56"/>
-      <c r="P83" s="56"/>
-      <c r="Q83" s="56"/>
-      <c r="R83" s="56"/>
-      <c r="S83" s="56"/>
-      <c r="T83" s="56"/>
-      <c r="U83" s="56"/>
-      <c r="V83" s="56"/>
-      <c r="W83" s="56"/>
-      <c r="X83" s="56"/>
-      <c r="Y83" s="56"/>
-      <c r="Z83" s="56"/>
-      <c r="AA83" s="56"/>
-      <c r="AB83" s="56"/>
-      <c r="AC83" s="56"/>
-      <c r="AD83" s="56"/>
-      <c r="AE83" s="56"/>
-      <c r="AF83" s="56"/>
-      <c r="AG83" s="56"/>
-      <c r="AH83" s="56"/>
-      <c r="AI83" s="56"/>
-      <c r="AJ83" s="56"/>
-      <c r="AK83" s="56"/>
-      <c r="AL83" s="56"/>
-      <c r="AM83" s="56"/>
-      <c r="AN83" s="56"/>
-      <c r="AO83" s="56"/>
-      <c r="AP83" s="57"/>
-      <c r="AQ83" s="55"/>
-      <c r="AR83" s="56"/>
-      <c r="AS83" s="56"/>
-      <c r="AT83" s="56"/>
-      <c r="AU83" s="56"/>
-      <c r="AV83" s="56"/>
-      <c r="AW83" s="56"/>
-      <c r="AX83" s="56"/>
-      <c r="AY83" s="56"/>
-      <c r="AZ83" s="57"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="35"/>
+      <c r="T83" s="35"/>
+      <c r="U83" s="35"/>
+      <c r="V83" s="35"/>
+      <c r="W83" s="35"/>
+      <c r="X83" s="35"/>
+      <c r="Y83" s="35"/>
+      <c r="Z83" s="35"/>
+      <c r="AA83" s="35"/>
+      <c r="AB83" s="35"/>
+      <c r="AC83" s="35"/>
+      <c r="AD83" s="35"/>
+      <c r="AE83" s="35"/>
+      <c r="AF83" s="35"/>
+      <c r="AG83" s="35"/>
+      <c r="AH83" s="35"/>
+      <c r="AI83" s="35"/>
+      <c r="AJ83" s="35"/>
+      <c r="AK83" s="35"/>
+      <c r="AL83" s="35"/>
+      <c r="AM83" s="35"/>
+      <c r="AN83" s="35"/>
+      <c r="AO83" s="35"/>
+      <c r="AP83" s="36"/>
+      <c r="AQ83" s="34"/>
+      <c r="AR83" s="35"/>
+      <c r="AS83" s="35"/>
+      <c r="AT83" s="35"/>
+      <c r="AU83" s="35"/>
+      <c r="AV83" s="35"/>
+      <c r="AW83" s="35"/>
+      <c r="AX83" s="35"/>
+      <c r="AY83" s="35"/>
+      <c r="AZ83" s="36"/>
     </row>
     <row r="84" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="24"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="56"/>
-      <c r="J84" s="56"/>
-      <c r="K84" s="56"/>
-      <c r="L84" s="56"/>
-      <c r="M84" s="56"/>
-      <c r="N84" s="56"/>
-      <c r="O84" s="56"/>
-      <c r="P84" s="56"/>
-      <c r="Q84" s="56"/>
-      <c r="R84" s="56"/>
-      <c r="S84" s="56"/>
-      <c r="T84" s="56"/>
-      <c r="U84" s="56"/>
-      <c r="V84" s="56"/>
-      <c r="W84" s="56"/>
-      <c r="X84" s="56"/>
-      <c r="Y84" s="56"/>
-      <c r="Z84" s="56"/>
-      <c r="AA84" s="56"/>
-      <c r="AB84" s="56"/>
-      <c r="AC84" s="56"/>
-      <c r="AD84" s="56"/>
-      <c r="AE84" s="56"/>
-      <c r="AF84" s="56"/>
-      <c r="AG84" s="56"/>
-      <c r="AH84" s="56"/>
-      <c r="AI84" s="56"/>
-      <c r="AJ84" s="56"/>
-      <c r="AK84" s="56"/>
-      <c r="AL84" s="56"/>
-      <c r="AM84" s="56"/>
-      <c r="AN84" s="56"/>
-      <c r="AO84" s="56"/>
-      <c r="AP84" s="57"/>
-      <c r="AQ84" s="55"/>
-      <c r="AR84" s="56"/>
-      <c r="AS84" s="56"/>
-      <c r="AT84" s="56"/>
-      <c r="AU84" s="56"/>
-      <c r="AV84" s="56"/>
-      <c r="AW84" s="56"/>
-      <c r="AX84" s="56"/>
-      <c r="AY84" s="56"/>
-      <c r="AZ84" s="57"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="35"/>
+      <c r="R84" s="35"/>
+      <c r="S84" s="35"/>
+      <c r="T84" s="35"/>
+      <c r="U84" s="35"/>
+      <c r="V84" s="35"/>
+      <c r="W84" s="35"/>
+      <c r="X84" s="35"/>
+      <c r="Y84" s="35"/>
+      <c r="Z84" s="35"/>
+      <c r="AA84" s="35"/>
+      <c r="AB84" s="35"/>
+      <c r="AC84" s="35"/>
+      <c r="AD84" s="35"/>
+      <c r="AE84" s="35"/>
+      <c r="AF84" s="35"/>
+      <c r="AG84" s="35"/>
+      <c r="AH84" s="35"/>
+      <c r="AI84" s="35"/>
+      <c r="AJ84" s="35"/>
+      <c r="AK84" s="35"/>
+      <c r="AL84" s="35"/>
+      <c r="AM84" s="35"/>
+      <c r="AN84" s="35"/>
+      <c r="AO84" s="35"/>
+      <c r="AP84" s="36"/>
+      <c r="AQ84" s="34"/>
+      <c r="AR84" s="35"/>
+      <c r="AS84" s="35"/>
+      <c r="AT84" s="35"/>
+      <c r="AU84" s="35"/>
+      <c r="AV84" s="35"/>
+      <c r="AW84" s="35"/>
+      <c r="AX84" s="35"/>
+      <c r="AY84" s="35"/>
+      <c r="AZ84" s="36"/>
     </row>
     <row r="85" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="24"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="56"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="56"/>
-      <c r="K85" s="56"/>
-      <c r="L85" s="56"/>
-      <c r="M85" s="56"/>
-      <c r="N85" s="56"/>
-      <c r="O85" s="56"/>
-      <c r="P85" s="56"/>
-      <c r="Q85" s="56"/>
-      <c r="R85" s="56"/>
-      <c r="S85" s="56"/>
-      <c r="T85" s="56"/>
-      <c r="U85" s="56"/>
-      <c r="V85" s="56"/>
-      <c r="W85" s="56"/>
-      <c r="X85" s="56"/>
-      <c r="Y85" s="56"/>
-      <c r="Z85" s="56"/>
-      <c r="AA85" s="56"/>
-      <c r="AB85" s="56"/>
-      <c r="AC85" s="56"/>
-      <c r="AD85" s="56"/>
-      <c r="AE85" s="56"/>
-      <c r="AF85" s="56"/>
-      <c r="AG85" s="56"/>
-      <c r="AH85" s="56"/>
-      <c r="AI85" s="56"/>
-      <c r="AJ85" s="56"/>
-      <c r="AK85" s="56"/>
-      <c r="AL85" s="56"/>
-      <c r="AM85" s="56"/>
-      <c r="AN85" s="56"/>
-      <c r="AO85" s="56"/>
-      <c r="AP85" s="57"/>
-      <c r="AQ85" s="55"/>
-      <c r="AR85" s="56"/>
-      <c r="AS85" s="56"/>
-      <c r="AT85" s="56"/>
-      <c r="AU85" s="56"/>
-      <c r="AV85" s="56"/>
-      <c r="AW85" s="56"/>
-      <c r="AX85" s="56"/>
-      <c r="AY85" s="56"/>
-      <c r="AZ85" s="57"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
+      <c r="Q85" s="35"/>
+      <c r="R85" s="35"/>
+      <c r="S85" s="35"/>
+      <c r="T85" s="35"/>
+      <c r="U85" s="35"/>
+      <c r="V85" s="35"/>
+      <c r="W85" s="35"/>
+      <c r="X85" s="35"/>
+      <c r="Y85" s="35"/>
+      <c r="Z85" s="35"/>
+      <c r="AA85" s="35"/>
+      <c r="AB85" s="35"/>
+      <c r="AC85" s="35"/>
+      <c r="AD85" s="35"/>
+      <c r="AE85" s="35"/>
+      <c r="AF85" s="35"/>
+      <c r="AG85" s="35"/>
+      <c r="AH85" s="35"/>
+      <c r="AI85" s="35"/>
+      <c r="AJ85" s="35"/>
+      <c r="AK85" s="35"/>
+      <c r="AL85" s="35"/>
+      <c r="AM85" s="35"/>
+      <c r="AN85" s="35"/>
+      <c r="AO85" s="35"/>
+      <c r="AP85" s="36"/>
+      <c r="AQ85" s="34"/>
+      <c r="AR85" s="35"/>
+      <c r="AS85" s="35"/>
+      <c r="AT85" s="35"/>
+      <c r="AU85" s="35"/>
+      <c r="AV85" s="35"/>
+      <c r="AW85" s="35"/>
+      <c r="AX85" s="35"/>
+      <c r="AY85" s="35"/>
+      <c r="AZ85" s="36"/>
     </row>
     <row r="86" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="24"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="56"/>
-      <c r="I86" s="56"/>
-      <c r="J86" s="56"/>
-      <c r="K86" s="56"/>
-      <c r="L86" s="56"/>
-      <c r="M86" s="56"/>
-      <c r="N86" s="56"/>
-      <c r="O86" s="56"/>
-      <c r="P86" s="56"/>
-      <c r="Q86" s="56"/>
-      <c r="R86" s="56"/>
-      <c r="S86" s="56"/>
-      <c r="T86" s="56"/>
-      <c r="U86" s="56"/>
-      <c r="V86" s="56"/>
-      <c r="W86" s="56"/>
-      <c r="X86" s="56"/>
-      <c r="Y86" s="56"/>
-      <c r="Z86" s="56"/>
-      <c r="AA86" s="56"/>
-      <c r="AB86" s="56"/>
-      <c r="AC86" s="56"/>
-      <c r="AD86" s="56"/>
-      <c r="AE86" s="56"/>
-      <c r="AF86" s="56"/>
-      <c r="AG86" s="56"/>
-      <c r="AH86" s="56"/>
-      <c r="AI86" s="56"/>
-      <c r="AJ86" s="56"/>
-      <c r="AK86" s="56"/>
-      <c r="AL86" s="56"/>
-      <c r="AM86" s="56"/>
-      <c r="AN86" s="56"/>
-      <c r="AO86" s="56"/>
-      <c r="AP86" s="57"/>
-      <c r="AQ86" s="55"/>
-      <c r="AR86" s="56"/>
-      <c r="AS86" s="56"/>
-      <c r="AT86" s="56"/>
-      <c r="AU86" s="56"/>
-      <c r="AV86" s="56"/>
-      <c r="AW86" s="56"/>
-      <c r="AX86" s="56"/>
-      <c r="AY86" s="56"/>
-      <c r="AZ86" s="57"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="35"/>
+      <c r="T86" s="35"/>
+      <c r="U86" s="35"/>
+      <c r="V86" s="35"/>
+      <c r="W86" s="35"/>
+      <c r="X86" s="35"/>
+      <c r="Y86" s="35"/>
+      <c r="Z86" s="35"/>
+      <c r="AA86" s="35"/>
+      <c r="AB86" s="35"/>
+      <c r="AC86" s="35"/>
+      <c r="AD86" s="35"/>
+      <c r="AE86" s="35"/>
+      <c r="AF86" s="35"/>
+      <c r="AG86" s="35"/>
+      <c r="AH86" s="35"/>
+      <c r="AI86" s="35"/>
+      <c r="AJ86" s="35"/>
+      <c r="AK86" s="35"/>
+      <c r="AL86" s="35"/>
+      <c r="AM86" s="35"/>
+      <c r="AN86" s="35"/>
+      <c r="AO86" s="35"/>
+      <c r="AP86" s="36"/>
+      <c r="AQ86" s="34"/>
+      <c r="AR86" s="35"/>
+      <c r="AS86" s="35"/>
+      <c r="AT86" s="35"/>
+      <c r="AU86" s="35"/>
+      <c r="AV86" s="35"/>
+      <c r="AW86" s="35"/>
+      <c r="AX86" s="35"/>
+      <c r="AY86" s="35"/>
+      <c r="AZ86" s="36"/>
     </row>
     <row r="87" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C87" s="35"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="56"/>
-      <c r="K87" s="56"/>
-      <c r="L87" s="56"/>
-      <c r="M87" s="56"/>
-      <c r="N87" s="56"/>
-      <c r="O87" s="56"/>
-      <c r="P87" s="56"/>
-      <c r="Q87" s="56"/>
-      <c r="R87" s="56"/>
-      <c r="S87" s="56"/>
-      <c r="T87" s="56"/>
-      <c r="U87" s="56"/>
-      <c r="V87" s="56"/>
-      <c r="W87" s="56"/>
-      <c r="X87" s="56"/>
-      <c r="Y87" s="56"/>
-      <c r="Z87" s="56"/>
-      <c r="AA87" s="56"/>
-      <c r="AB87" s="56"/>
-      <c r="AC87" s="56"/>
-      <c r="AD87" s="56"/>
-      <c r="AE87" s="56"/>
-      <c r="AF87" s="56"/>
-      <c r="AG87" s="56"/>
-      <c r="AH87" s="56"/>
-      <c r="AI87" s="56"/>
-      <c r="AJ87" s="56"/>
-      <c r="AK87" s="56"/>
-      <c r="AL87" s="56"/>
-      <c r="AM87" s="56"/>
-      <c r="AN87" s="56"/>
-      <c r="AO87" s="56"/>
-      <c r="AP87" s="57"/>
-      <c r="AQ87" s="55"/>
-      <c r="AR87" s="56"/>
-      <c r="AS87" s="56"/>
-      <c r="AT87" s="56"/>
-      <c r="AU87" s="56"/>
-      <c r="AV87" s="56"/>
-      <c r="AW87" s="56"/>
-      <c r="AX87" s="56"/>
-      <c r="AY87" s="56"/>
-      <c r="AZ87" s="57"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
+      <c r="Q87" s="35"/>
+      <c r="R87" s="35"/>
+      <c r="S87" s="35"/>
+      <c r="T87" s="35"/>
+      <c r="U87" s="35"/>
+      <c r="V87" s="35"/>
+      <c r="W87" s="35"/>
+      <c r="X87" s="35"/>
+      <c r="Y87" s="35"/>
+      <c r="Z87" s="35"/>
+      <c r="AA87" s="35"/>
+      <c r="AB87" s="35"/>
+      <c r="AC87" s="35"/>
+      <c r="AD87" s="35"/>
+      <c r="AE87" s="35"/>
+      <c r="AF87" s="35"/>
+      <c r="AG87" s="35"/>
+      <c r="AH87" s="35"/>
+      <c r="AI87" s="35"/>
+      <c r="AJ87" s="35"/>
+      <c r="AK87" s="35"/>
+      <c r="AL87" s="35"/>
+      <c r="AM87" s="35"/>
+      <c r="AN87" s="35"/>
+      <c r="AO87" s="35"/>
+      <c r="AP87" s="36"/>
+      <c r="AQ87" s="34"/>
+      <c r="AR87" s="35"/>
+      <c r="AS87" s="35"/>
+      <c r="AT87" s="35"/>
+      <c r="AU87" s="35"/>
+      <c r="AV87" s="35"/>
+      <c r="AW87" s="35"/>
+      <c r="AX87" s="35"/>
+      <c r="AY87" s="35"/>
+      <c r="AZ87" s="36"/>
     </row>
     <row r="88" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="36"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="59"/>
-      <c r="G88" s="59"/>
-      <c r="H88" s="59"/>
-      <c r="I88" s="59"/>
-      <c r="J88" s="59"/>
-      <c r="K88" s="59"/>
-      <c r="L88" s="59"/>
-      <c r="M88" s="59"/>
-      <c r="N88" s="59"/>
-      <c r="O88" s="59"/>
-      <c r="P88" s="59"/>
-      <c r="Q88" s="59"/>
-      <c r="R88" s="59"/>
-      <c r="S88" s="59"/>
-      <c r="T88" s="59"/>
-      <c r="U88" s="59"/>
-      <c r="V88" s="59"/>
-      <c r="W88" s="59"/>
-      <c r="X88" s="59"/>
-      <c r="Y88" s="59"/>
-      <c r="Z88" s="59"/>
-      <c r="AA88" s="59"/>
-      <c r="AB88" s="59"/>
-      <c r="AC88" s="59"/>
-      <c r="AD88" s="59"/>
-      <c r="AE88" s="59"/>
-      <c r="AF88" s="59"/>
-      <c r="AG88" s="59"/>
-      <c r="AH88" s="59"/>
-      <c r="AI88" s="59"/>
-      <c r="AJ88" s="59"/>
-      <c r="AK88" s="59"/>
-      <c r="AL88" s="59"/>
-      <c r="AM88" s="59"/>
-      <c r="AN88" s="59"/>
-      <c r="AO88" s="59"/>
-      <c r="AP88" s="60"/>
-      <c r="AQ88" s="58"/>
-      <c r="AR88" s="59"/>
-      <c r="AS88" s="59"/>
-      <c r="AT88" s="59"/>
-      <c r="AU88" s="59"/>
-      <c r="AV88" s="59"/>
-      <c r="AW88" s="59"/>
-      <c r="AX88" s="59"/>
-      <c r="AY88" s="59"/>
-      <c r="AZ88" s="60"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="38"/>
+      <c r="M88" s="38"/>
+      <c r="N88" s="38"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
+      <c r="Q88" s="38"/>
+      <c r="R88" s="38"/>
+      <c r="S88" s="38"/>
+      <c r="T88" s="38"/>
+      <c r="U88" s="38"/>
+      <c r="V88" s="38"/>
+      <c r="W88" s="38"/>
+      <c r="X88" s="38"/>
+      <c r="Y88" s="38"/>
+      <c r="Z88" s="38"/>
+      <c r="AA88" s="38"/>
+      <c r="AB88" s="38"/>
+      <c r="AC88" s="38"/>
+      <c r="AD88" s="38"/>
+      <c r="AE88" s="38"/>
+      <c r="AF88" s="38"/>
+      <c r="AG88" s="38"/>
+      <c r="AH88" s="38"/>
+      <c r="AI88" s="38"/>
+      <c r="AJ88" s="38"/>
+      <c r="AK88" s="38"/>
+      <c r="AL88" s="38"/>
+      <c r="AM88" s="38"/>
+      <c r="AN88" s="38"/>
+      <c r="AO88" s="38"/>
+      <c r="AP88" s="39"/>
+      <c r="AQ88" s="37"/>
+      <c r="AR88" s="38"/>
+      <c r="AS88" s="38"/>
+      <c r="AT88" s="38"/>
+      <c r="AU88" s="38"/>
+      <c r="AV88" s="38"/>
+      <c r="AW88" s="38"/>
+      <c r="AX88" s="38"/>
+      <c r="AY88" s="38"/>
+      <c r="AZ88" s="39"/>
     </row>
     <row r="89" spans="2:52" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="61" t="s">
+      <c r="B89" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="61"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="61"/>
-      <c r="I89" s="61"/>
-      <c r="J89" s="61"/>
-      <c r="K89" s="61"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="49"/>
+      <c r="J89" s="49"/>
+      <c r="K89" s="49"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
@@ -7067,16 +8457,16 @@
       <c r="AL89" s="7"/>
     </row>
     <row r="90" spans="2:52" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="40"/>
-      <c r="G90" s="40"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="40"/>
-      <c r="K90" s="40"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="50"/>
+      <c r="H90" s="50"/>
+      <c r="I90" s="50"/>
+      <c r="J90" s="50"/>
+      <c r="K90" s="50"/>
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
@@ -7085,216 +8475,216 @@
       <c r="AL90" s="8"/>
     </row>
     <row r="91" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="43"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="44"/>
-      <c r="K91" s="44"/>
-      <c r="L91" s="44"/>
-      <c r="M91" s="44"/>
-      <c r="N91" s="44"/>
-      <c r="O91" s="44"/>
-      <c r="P91" s="44"/>
-      <c r="Q91" s="44"/>
-      <c r="R91" s="44"/>
-      <c r="S91" s="44"/>
-      <c r="T91" s="44"/>
-      <c r="U91" s="44"/>
-      <c r="V91" s="44"/>
-      <c r="W91" s="44"/>
-      <c r="X91" s="44"/>
-      <c r="Y91" s="44"/>
-      <c r="Z91" s="44"/>
-      <c r="AA91" s="44"/>
-      <c r="AB91" s="44"/>
-      <c r="AC91" s="44"/>
-      <c r="AD91" s="44"/>
-      <c r="AE91" s="44"/>
-      <c r="AF91" s="44"/>
-      <c r="AG91" s="44"/>
-      <c r="AH91" s="44"/>
-      <c r="AI91" s="44"/>
-      <c r="AJ91" s="44"/>
-      <c r="AK91" s="44"/>
-      <c r="AL91" s="44"/>
-      <c r="AM91" s="44"/>
-      <c r="AN91" s="44"/>
-      <c r="AO91" s="44"/>
-      <c r="AP91" s="44"/>
-      <c r="AQ91" s="44"/>
-      <c r="AR91" s="44"/>
-      <c r="AS91" s="44"/>
-      <c r="AT91" s="44"/>
-      <c r="AU91" s="44"/>
-      <c r="AV91" s="44"/>
-      <c r="AW91" s="44"/>
-      <c r="AX91" s="44"/>
-      <c r="AY91" s="44"/>
-      <c r="AZ91" s="45"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="23"/>
+      <c r="P91" s="23"/>
+      <c r="Q91" s="23"/>
+      <c r="R91" s="23"/>
+      <c r="S91" s="23"/>
+      <c r="T91" s="23"/>
+      <c r="U91" s="23"/>
+      <c r="V91" s="23"/>
+      <c r="W91" s="23"/>
+      <c r="X91" s="23"/>
+      <c r="Y91" s="23"/>
+      <c r="Z91" s="23"/>
+      <c r="AA91" s="23"/>
+      <c r="AB91" s="23"/>
+      <c r="AC91" s="23"/>
+      <c r="AD91" s="23"/>
+      <c r="AE91" s="23"/>
+      <c r="AF91" s="23"/>
+      <c r="AG91" s="23"/>
+      <c r="AH91" s="23"/>
+      <c r="AI91" s="23"/>
+      <c r="AJ91" s="23"/>
+      <c r="AK91" s="23"/>
+      <c r="AL91" s="23"/>
+      <c r="AM91" s="23"/>
+      <c r="AN91" s="23"/>
+      <c r="AO91" s="23"/>
+      <c r="AP91" s="23"/>
+      <c r="AQ91" s="23"/>
+      <c r="AR91" s="23"/>
+      <c r="AS91" s="23"/>
+      <c r="AT91" s="23"/>
+      <c r="AU91" s="23"/>
+      <c r="AV91" s="23"/>
+      <c r="AW91" s="23"/>
+      <c r="AX91" s="23"/>
+      <c r="AY91" s="23"/>
+      <c r="AZ91" s="24"/>
     </row>
     <row r="92" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="46"/>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="47"/>
-      <c r="N92" s="47"/>
-      <c r="O92" s="47"/>
-      <c r="P92" s="47"/>
-      <c r="Q92" s="47"/>
-      <c r="R92" s="47"/>
-      <c r="S92" s="47"/>
-      <c r="T92" s="47"/>
-      <c r="U92" s="47"/>
-      <c r="V92" s="47"/>
-      <c r="W92" s="47"/>
-      <c r="X92" s="47"/>
-      <c r="Y92" s="47"/>
-      <c r="Z92" s="47"/>
-      <c r="AA92" s="47"/>
-      <c r="AB92" s="47"/>
-      <c r="AC92" s="47"/>
-      <c r="AD92" s="47"/>
-      <c r="AE92" s="47"/>
-      <c r="AF92" s="47"/>
-      <c r="AG92" s="47"/>
-      <c r="AH92" s="47"/>
-      <c r="AI92" s="47"/>
-      <c r="AJ92" s="47"/>
-      <c r="AK92" s="47"/>
-      <c r="AL92" s="47"/>
-      <c r="AM92" s="47"/>
-      <c r="AN92" s="47"/>
-      <c r="AO92" s="47"/>
-      <c r="AP92" s="47"/>
-      <c r="AQ92" s="47"/>
-      <c r="AR92" s="47"/>
-      <c r="AS92" s="47"/>
-      <c r="AT92" s="47"/>
-      <c r="AU92" s="47"/>
-      <c r="AV92" s="47"/>
-      <c r="AW92" s="47"/>
-      <c r="AX92" s="47"/>
-      <c r="AY92" s="47"/>
-      <c r="AZ92" s="48"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="26"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="26"/>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="26"/>
+      <c r="R92" s="26"/>
+      <c r="S92" s="26"/>
+      <c r="T92" s="26"/>
+      <c r="U92" s="26"/>
+      <c r="V92" s="26"/>
+      <c r="W92" s="26"/>
+      <c r="X92" s="26"/>
+      <c r="Y92" s="26"/>
+      <c r="Z92" s="26"/>
+      <c r="AA92" s="26"/>
+      <c r="AB92" s="26"/>
+      <c r="AC92" s="26"/>
+      <c r="AD92" s="26"/>
+      <c r="AE92" s="26"/>
+      <c r="AF92" s="26"/>
+      <c r="AG92" s="26"/>
+      <c r="AH92" s="26"/>
+      <c r="AI92" s="26"/>
+      <c r="AJ92" s="26"/>
+      <c r="AK92" s="26"/>
+      <c r="AL92" s="26"/>
+      <c r="AM92" s="26"/>
+      <c r="AN92" s="26"/>
+      <c r="AO92" s="26"/>
+      <c r="AP92" s="26"/>
+      <c r="AQ92" s="26"/>
+      <c r="AR92" s="26"/>
+      <c r="AS92" s="26"/>
+      <c r="AT92" s="26"/>
+      <c r="AU92" s="26"/>
+      <c r="AV92" s="26"/>
+      <c r="AW92" s="26"/>
+      <c r="AX92" s="26"/>
+      <c r="AY92" s="26"/>
+      <c r="AZ92" s="27"/>
     </row>
     <row r="93" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="46"/>
-      <c r="C93" s="47"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47"/>
-      <c r="J93" s="47"/>
-      <c r="K93" s="47"/>
-      <c r="L93" s="47"/>
-      <c r="M93" s="47"/>
-      <c r="N93" s="47"/>
-      <c r="O93" s="47"/>
-      <c r="P93" s="47"/>
-      <c r="Q93" s="47"/>
-      <c r="R93" s="47"/>
-      <c r="S93" s="47"/>
-      <c r="T93" s="47"/>
-      <c r="U93" s="47"/>
-      <c r="V93" s="47"/>
-      <c r="W93" s="47"/>
-      <c r="X93" s="47"/>
-      <c r="Y93" s="47"/>
-      <c r="Z93" s="47"/>
-      <c r="AA93" s="47"/>
-      <c r="AB93" s="47"/>
-      <c r="AC93" s="47"/>
-      <c r="AD93" s="47"/>
-      <c r="AE93" s="47"/>
-      <c r="AF93" s="47"/>
-      <c r="AG93" s="47"/>
-      <c r="AH93" s="47"/>
-      <c r="AI93" s="47"/>
-      <c r="AJ93" s="47"/>
-      <c r="AK93" s="47"/>
-      <c r="AL93" s="47"/>
-      <c r="AM93" s="47"/>
-      <c r="AN93" s="47"/>
-      <c r="AO93" s="47"/>
-      <c r="AP93" s="47"/>
-      <c r="AQ93" s="47"/>
-      <c r="AR93" s="47"/>
-      <c r="AS93" s="47"/>
-      <c r="AT93" s="47"/>
-      <c r="AU93" s="47"/>
-      <c r="AV93" s="47"/>
-      <c r="AW93" s="47"/>
-      <c r="AX93" s="47"/>
-      <c r="AY93" s="47"/>
-      <c r="AZ93" s="48"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="26"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="26"/>
+      <c r="P93" s="26"/>
+      <c r="Q93" s="26"/>
+      <c r="R93" s="26"/>
+      <c r="S93" s="26"/>
+      <c r="T93" s="26"/>
+      <c r="U93" s="26"/>
+      <c r="V93" s="26"/>
+      <c r="W93" s="26"/>
+      <c r="X93" s="26"/>
+      <c r="Y93" s="26"/>
+      <c r="Z93" s="26"/>
+      <c r="AA93" s="26"/>
+      <c r="AB93" s="26"/>
+      <c r="AC93" s="26"/>
+      <c r="AD93" s="26"/>
+      <c r="AE93" s="26"/>
+      <c r="AF93" s="26"/>
+      <c r="AG93" s="26"/>
+      <c r="AH93" s="26"/>
+      <c r="AI93" s="26"/>
+      <c r="AJ93" s="26"/>
+      <c r="AK93" s="26"/>
+      <c r="AL93" s="26"/>
+      <c r="AM93" s="26"/>
+      <c r="AN93" s="26"/>
+      <c r="AO93" s="26"/>
+      <c r="AP93" s="26"/>
+      <c r="AQ93" s="26"/>
+      <c r="AR93" s="26"/>
+      <c r="AS93" s="26"/>
+      <c r="AT93" s="26"/>
+      <c r="AU93" s="26"/>
+      <c r="AV93" s="26"/>
+      <c r="AW93" s="26"/>
+      <c r="AX93" s="26"/>
+      <c r="AY93" s="26"/>
+      <c r="AZ93" s="27"/>
     </row>
     <row r="94" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="49"/>
-      <c r="C94" s="50"/>
-      <c r="D94" s="50"/>
-      <c r="E94" s="50"/>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50"/>
-      <c r="H94" s="50"/>
-      <c r="I94" s="50"/>
-      <c r="J94" s="50"/>
-      <c r="K94" s="50"/>
-      <c r="L94" s="50"/>
-      <c r="M94" s="50"/>
-      <c r="N94" s="50"/>
-      <c r="O94" s="50"/>
-      <c r="P94" s="50"/>
-      <c r="Q94" s="50"/>
-      <c r="R94" s="50"/>
-      <c r="S94" s="50"/>
-      <c r="T94" s="50"/>
-      <c r="U94" s="50"/>
-      <c r="V94" s="50"/>
-      <c r="W94" s="50"/>
-      <c r="X94" s="50"/>
-      <c r="Y94" s="50"/>
-      <c r="Z94" s="50"/>
-      <c r="AA94" s="50"/>
-      <c r="AB94" s="50"/>
-      <c r="AC94" s="50"/>
-      <c r="AD94" s="50"/>
-      <c r="AE94" s="50"/>
-      <c r="AF94" s="50"/>
-      <c r="AG94" s="50"/>
-      <c r="AH94" s="50"/>
-      <c r="AI94" s="50"/>
-      <c r="AJ94" s="50"/>
-      <c r="AK94" s="50"/>
-      <c r="AL94" s="50"/>
-      <c r="AM94" s="50"/>
-      <c r="AN94" s="50"/>
-      <c r="AO94" s="50"/>
-      <c r="AP94" s="50"/>
-      <c r="AQ94" s="50"/>
-      <c r="AR94" s="50"/>
-      <c r="AS94" s="50"/>
-      <c r="AT94" s="50"/>
-      <c r="AU94" s="50"/>
-      <c r="AV94" s="50"/>
-      <c r="AW94" s="50"/>
-      <c r="AX94" s="50"/>
-      <c r="AY94" s="50"/>
-      <c r="AZ94" s="51"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="29"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="29"/>
+      <c r="M94" s="29"/>
+      <c r="N94" s="29"/>
+      <c r="O94" s="29"/>
+      <c r="P94" s="29"/>
+      <c r="Q94" s="29"/>
+      <c r="R94" s="29"/>
+      <c r="S94" s="29"/>
+      <c r="T94" s="29"/>
+      <c r="U94" s="29"/>
+      <c r="V94" s="29"/>
+      <c r="W94" s="29"/>
+      <c r="X94" s="29"/>
+      <c r="Y94" s="29"/>
+      <c r="Z94" s="29"/>
+      <c r="AA94" s="29"/>
+      <c r="AB94" s="29"/>
+      <c r="AC94" s="29"/>
+      <c r="AD94" s="29"/>
+      <c r="AE94" s="29"/>
+      <c r="AF94" s="29"/>
+      <c r="AG94" s="29"/>
+      <c r="AH94" s="29"/>
+      <c r="AI94" s="29"/>
+      <c r="AJ94" s="29"/>
+      <c r="AK94" s="29"/>
+      <c r="AL94" s="29"/>
+      <c r="AM94" s="29"/>
+      <c r="AN94" s="29"/>
+      <c r="AO94" s="29"/>
+      <c r="AP94" s="29"/>
+      <c r="AQ94" s="29"/>
+      <c r="AR94" s="29"/>
+      <c r="AS94" s="29"/>
+      <c r="AT94" s="29"/>
+      <c r="AU94" s="29"/>
+      <c r="AV94" s="29"/>
+      <c r="AW94" s="29"/>
+      <c r="AX94" s="29"/>
+      <c r="AY94" s="29"/>
+      <c r="AZ94" s="30"/>
     </row>
     <row r="95" spans="2:52" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="2:52" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7307,6 +8697,28 @@
     <row r="103" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B63:C70"/>
+    <mergeCell ref="B73:C75"/>
+    <mergeCell ref="B76:C78"/>
+    <mergeCell ref="B44:C46"/>
+    <mergeCell ref="B57:C59"/>
+    <mergeCell ref="B60:C62"/>
+    <mergeCell ref="B47:C54"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="B41:C43"/>
+    <mergeCell ref="AG1:AZ2"/>
+    <mergeCell ref="T1:AF2"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="AB8:AK8"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B28:C30"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B15:C22"/>
+    <mergeCell ref="B31:C38"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="B25:C27"/>
     <mergeCell ref="B91:AZ94"/>
     <mergeCell ref="B4:AZ7"/>
     <mergeCell ref="D15:AP24"/>
@@ -7323,28 +8735,6 @@
     <mergeCell ref="B87:C88"/>
     <mergeCell ref="D79:AP88"/>
     <mergeCell ref="AQ79:AZ88"/>
-    <mergeCell ref="B41:C43"/>
-    <mergeCell ref="AG1:AZ2"/>
-    <mergeCell ref="T1:AF2"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="AB8:AK8"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="B28:C30"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B15:C22"/>
-    <mergeCell ref="B31:C38"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="B25:C27"/>
-    <mergeCell ref="B63:C70"/>
-    <mergeCell ref="B73:C75"/>
-    <mergeCell ref="B76:C78"/>
-    <mergeCell ref="B44:C46"/>
-    <mergeCell ref="B57:C59"/>
-    <mergeCell ref="B60:C62"/>
-    <mergeCell ref="B47:C54"/>
-    <mergeCell ref="B55:C56"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions verticalCentered="1"/>
@@ -7356,9 +8746,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7579,27 +8972,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57598A84-87D5-4E37-AB32-A40732200DBA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA46E2CD-519D-47DE-B196-0DD50840862B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="67bb9ec5-9b1b-486c-a632-e2dd655875ec"/>
-    <ds:schemaRef ds:uri="3fd75491-3ac1-4e58-b8d5-9038dca3fcdc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7624,9 +9005,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA46E2CD-519D-47DE-B196-0DD50840862B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57598A84-87D5-4E37-AB32-A40732200DBA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="67bb9ec5-9b1b-486c-a632-e2dd655875ec"/>
+    <ds:schemaRef ds:uri="3fd75491-3ac1-4e58-b8d5-9038dca3fcdc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/【研修中】_日次報告書研修日誌林康輝.xlsx
+++ b/【研修中】_日次報告書研修日誌林康輝.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81805\Desktop\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.utsunomiya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA192870-DEA3-41F6-A12F-9269631E232B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626A705B-E8EA-4058-B3C2-20A4B5D24934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7065" yWindow="975" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="研修日誌" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t xml:space="preserve"> 研　修　日　誌 </t>
     <rPh sb="1" eb="2">
@@ -249,6 +249,55 @@
   </si>
   <si>
     <t>8月 18日　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「形」は結構大事だったりします。服装や髪型や姿勢が自分の心に与える影響は侮れません。身だしなみを整えるということは心を整えるということでもあるわけです。</t>
+    <rPh sb="1" eb="2">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ダイジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フクソウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カミガタ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>アナド</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>トトノ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>トトノ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -511,6 +560,69 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -593,69 +705,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4464,7 +4513,7 @@
   <dimension ref="A1:BS103"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AY45" sqref="AY45"/>
+      <selection activeCell="AQ41" sqref="AQ41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="9.9499999999999993" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -4491,59 +4540,59 @@
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
       <c r="S1" s="20"/>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="63" t="s">
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="63"/>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="63"/>
-      <c r="AY1" s="63"/>
-      <c r="AZ1" s="63"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38"/>
       <c r="BA1" s="14"/>
     </row>
     <row r="2" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
@@ -4552,51 +4601,51 @@
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="63"/>
-      <c r="AQ2" s="63"/>
-      <c r="AR2" s="63"/>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="63"/>
-      <c r="AU2" s="63"/>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="63"/>
-      <c r="AZ2" s="63"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
     </row>
     <row r="3" spans="1:53" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -4614,252 +4663,252 @@
       <c r="AL3" s="11"/>
     </row>
     <row r="4" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="23"/>
-      <c r="AO4" s="23"/>
-      <c r="AP4" s="23"/>
-      <c r="AQ4" s="23"/>
-      <c r="AR4" s="23"/>
-      <c r="AS4" s="23"/>
-      <c r="AT4" s="23"/>
-      <c r="AU4" s="23"/>
-      <c r="AV4" s="23"/>
-      <c r="AW4" s="23"/>
-      <c r="AX4" s="23"/>
-      <c r="AY4" s="23"/>
-      <c r="AZ4" s="24"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44"/>
+      <c r="AU4" s="44"/>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="44"/>
+      <c r="AX4" s="44"/>
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="45"/>
     </row>
     <row r="5" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="26"/>
-      <c r="AJ5" s="26"/>
-      <c r="AK5" s="26"/>
-      <c r="AL5" s="26"/>
-      <c r="AM5" s="26"/>
-      <c r="AN5" s="26"/>
-      <c r="AO5" s="26"/>
-      <c r="AP5" s="26"/>
-      <c r="AQ5" s="26"/>
-      <c r="AR5" s="26"/>
-      <c r="AS5" s="26"/>
-      <c r="AT5" s="26"/>
-      <c r="AU5" s="26"/>
-      <c r="AV5" s="26"/>
-      <c r="AW5" s="26"/>
-      <c r="AX5" s="26"/>
-      <c r="AY5" s="26"/>
-      <c r="AZ5" s="27"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="47"/>
+      <c r="AS5" s="47"/>
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="47"/>
+      <c r="AV5" s="47"/>
+      <c r="AW5" s="47"/>
+      <c r="AX5" s="47"/>
+      <c r="AY5" s="47"/>
+      <c r="AZ5" s="48"/>
     </row>
     <row r="6" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="26"/>
-      <c r="AJ6" s="26"/>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="26"/>
-      <c r="AM6" s="26"/>
-      <c r="AN6" s="26"/>
-      <c r="AO6" s="26"/>
-      <c r="AP6" s="26"/>
-      <c r="AQ6" s="26"/>
-      <c r="AR6" s="26"/>
-      <c r="AS6" s="26"/>
-      <c r="AT6" s="26"/>
-      <c r="AU6" s="26"/>
-      <c r="AV6" s="26"/>
-      <c r="AW6" s="26"/>
-      <c r="AX6" s="26"/>
-      <c r="AY6" s="26"/>
-      <c r="AZ6" s="27"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="47"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="47"/>
+      <c r="AP6" s="47"/>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="47"/>
+      <c r="AS6" s="47"/>
+      <c r="AT6" s="47"/>
+      <c r="AU6" s="47"/>
+      <c r="AV6" s="47"/>
+      <c r="AW6" s="47"/>
+      <c r="AX6" s="47"/>
+      <c r="AY6" s="47"/>
+      <c r="AZ6" s="48"/>
     </row>
     <row r="7" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="29"/>
-      <c r="AT7" s="29"/>
-      <c r="AU7" s="29"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="29"/>
-      <c r="AX7" s="29"/>
-      <c r="AY7" s="29"/>
-      <c r="AZ7" s="30"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="50"/>
+      <c r="AK7" s="50"/>
+      <c r="AL7" s="50"/>
+      <c r="AM7" s="50"/>
+      <c r="AN7" s="50"/>
+      <c r="AO7" s="50"/>
+      <c r="AP7" s="50"/>
+      <c r="AQ7" s="50"/>
+      <c r="AR7" s="50"/>
+      <c r="AS7" s="50"/>
+      <c r="AT7" s="50"/>
+      <c r="AU7" s="50"/>
+      <c r="AV7" s="50"/>
+      <c r="AW7" s="50"/>
+      <c r="AX7" s="50"/>
+      <c r="AY7" s="50"/>
+      <c r="AZ7" s="51"/>
     </row>
     <row r="8" spans="1:53" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="AA8" s="11"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
-      <c r="AH8" s="50"/>
-      <c r="AI8" s="50"/>
-      <c r="AJ8" s="50"/>
-      <c r="AK8" s="50"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="40"/>
+      <c r="AI8" s="40"/>
+      <c r="AJ8" s="40"/>
+      <c r="AK8" s="40"/>
       <c r="AL8" s="8"/>
     </row>
     <row r="9" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="60"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="12"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -4911,22 +4960,22 @@
       <c r="AZ9" s="2"/>
     </row>
     <row r="10" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="21"/>
       <c r="AZ10" s="3"/>
     </row>
     <row r="11" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="61"/>
-      <c r="C11" s="62"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="15"/>
       <c r="AZ11" s="3"/>
     </row>
     <row r="12" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="67"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -4978,14 +5027,14 @@
       <c r="AZ12" s="18"/>
     </row>
     <row r="13" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="15"/>
       <c r="AZ13" s="3"/>
     </row>
     <row r="14" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="68"/>
-      <c r="C14" s="69"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
@@ -5037,548 +5086,548 @@
       <c r="AZ14" s="6"/>
     </row>
     <row r="15" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="70">
+      <c r="B15" s="42">
         <v>44060</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="32"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="33"/>
-      <c r="AQ15" s="40" t="s">
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="53"/>
+      <c r="AJ15" s="53"/>
+      <c r="AK15" s="53"/>
+      <c r="AL15" s="53"/>
+      <c r="AM15" s="53"/>
+      <c r="AN15" s="53"/>
+      <c r="AO15" s="53"/>
+      <c r="AP15" s="54"/>
+      <c r="AQ15" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="AR15" s="41"/>
-      <c r="AS15" s="41"/>
-      <c r="AT15" s="41"/>
-      <c r="AU15" s="41"/>
-      <c r="AV15" s="41"/>
-      <c r="AW15" s="41"/>
-      <c r="AX15" s="41"/>
-      <c r="AY15" s="41"/>
-      <c r="AZ15" s="42"/>
+      <c r="AR15" s="62"/>
+      <c r="AS15" s="62"/>
+      <c r="AT15" s="62"/>
+      <c r="AU15" s="62"/>
+      <c r="AV15" s="62"/>
+      <c r="AW15" s="62"/>
+      <c r="AX15" s="62"/>
+      <c r="AY15" s="62"/>
+      <c r="AZ15" s="63"/>
     </row>
     <row r="16" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="35"/>
-      <c r="AI16" s="35"/>
-      <c r="AJ16" s="35"/>
-      <c r="AK16" s="35"/>
-      <c r="AL16" s="35"/>
-      <c r="AM16" s="35"/>
-      <c r="AN16" s="35"/>
-      <c r="AO16" s="35"/>
-      <c r="AP16" s="36"/>
-      <c r="AQ16" s="43"/>
-      <c r="AR16" s="44"/>
-      <c r="AS16" s="44"/>
-      <c r="AT16" s="44"/>
-      <c r="AU16" s="44"/>
-      <c r="AV16" s="44"/>
-      <c r="AW16" s="44"/>
-      <c r="AX16" s="44"/>
-      <c r="AY16" s="44"/>
-      <c r="AZ16" s="45"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="57"/>
+      <c r="AQ16" s="64"/>
+      <c r="AR16" s="65"/>
+      <c r="AS16" s="65"/>
+      <c r="AT16" s="65"/>
+      <c r="AU16" s="65"/>
+      <c r="AV16" s="65"/>
+      <c r="AW16" s="65"/>
+      <c r="AX16" s="65"/>
+      <c r="AY16" s="65"/>
+      <c r="AZ16" s="66"/>
     </row>
     <row r="17" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="35"/>
-      <c r="AH17" s="35"/>
-      <c r="AI17" s="35"/>
-      <c r="AJ17" s="35"/>
-      <c r="AK17" s="35"/>
-      <c r="AL17" s="35"/>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="35"/>
-      <c r="AO17" s="35"/>
-      <c r="AP17" s="36"/>
-      <c r="AQ17" s="43"/>
-      <c r="AR17" s="44"/>
-      <c r="AS17" s="44"/>
-      <c r="AT17" s="44"/>
-      <c r="AU17" s="44"/>
-      <c r="AV17" s="44"/>
-      <c r="AW17" s="44"/>
-      <c r="AX17" s="44"/>
-      <c r="AY17" s="44"/>
-      <c r="AZ17" s="45"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="56"/>
+      <c r="AM17" s="56"/>
+      <c r="AN17" s="56"/>
+      <c r="AO17" s="56"/>
+      <c r="AP17" s="57"/>
+      <c r="AQ17" s="64"/>
+      <c r="AR17" s="65"/>
+      <c r="AS17" s="65"/>
+      <c r="AT17" s="65"/>
+      <c r="AU17" s="65"/>
+      <c r="AV17" s="65"/>
+      <c r="AW17" s="65"/>
+      <c r="AX17" s="65"/>
+      <c r="AY17" s="65"/>
+      <c r="AZ17" s="66"/>
     </row>
     <row r="18" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="35"/>
-      <c r="AI18" s="35"/>
-      <c r="AJ18" s="35"/>
-      <c r="AK18" s="35"/>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="35"/>
-      <c r="AO18" s="35"/>
-      <c r="AP18" s="36"/>
-      <c r="AQ18" s="43"/>
-      <c r="AR18" s="44"/>
-      <c r="AS18" s="44"/>
-      <c r="AT18" s="44"/>
-      <c r="AU18" s="44"/>
-      <c r="AV18" s="44"/>
-      <c r="AW18" s="44"/>
-      <c r="AX18" s="44"/>
-      <c r="AY18" s="44"/>
-      <c r="AZ18" s="45"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="56"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="56"/>
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="56"/>
+      <c r="AN18" s="56"/>
+      <c r="AO18" s="56"/>
+      <c r="AP18" s="57"/>
+      <c r="AQ18" s="64"/>
+      <c r="AR18" s="65"/>
+      <c r="AS18" s="65"/>
+      <c r="AT18" s="65"/>
+      <c r="AU18" s="65"/>
+      <c r="AV18" s="65"/>
+      <c r="AW18" s="65"/>
+      <c r="AX18" s="65"/>
+      <c r="AY18" s="65"/>
+      <c r="AZ18" s="66"/>
     </row>
     <row r="19" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="35"/>
-      <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="35"/>
-      <c r="AH19" s="35"/>
-      <c r="AI19" s="35"/>
-      <c r="AJ19" s="35"/>
-      <c r="AK19" s="35"/>
-      <c r="AL19" s="35"/>
-      <c r="AM19" s="35"/>
-      <c r="AN19" s="35"/>
-      <c r="AO19" s="35"/>
-      <c r="AP19" s="36"/>
-      <c r="AQ19" s="43"/>
-      <c r="AR19" s="44"/>
-      <c r="AS19" s="44"/>
-      <c r="AT19" s="44"/>
-      <c r="AU19" s="44"/>
-      <c r="AV19" s="44"/>
-      <c r="AW19" s="44"/>
-      <c r="AX19" s="44"/>
-      <c r="AY19" s="44"/>
-      <c r="AZ19" s="45"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="56"/>
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="56"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="56"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="56"/>
+      <c r="AP19" s="57"/>
+      <c r="AQ19" s="64"/>
+      <c r="AR19" s="65"/>
+      <c r="AS19" s="65"/>
+      <c r="AT19" s="65"/>
+      <c r="AU19" s="65"/>
+      <c r="AV19" s="65"/>
+      <c r="AW19" s="65"/>
+      <c r="AX19" s="65"/>
+      <c r="AY19" s="65"/>
+      <c r="AZ19" s="66"/>
     </row>
     <row r="20" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="35"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="35"/>
-      <c r="AH20" s="35"/>
-      <c r="AI20" s="35"/>
-      <c r="AJ20" s="35"/>
-      <c r="AK20" s="35"/>
-      <c r="AL20" s="35"/>
-      <c r="AM20" s="35"/>
-      <c r="AN20" s="35"/>
-      <c r="AO20" s="35"/>
-      <c r="AP20" s="36"/>
-      <c r="AQ20" s="43"/>
-      <c r="AR20" s="44"/>
-      <c r="AS20" s="44"/>
-      <c r="AT20" s="44"/>
-      <c r="AU20" s="44"/>
-      <c r="AV20" s="44"/>
-      <c r="AW20" s="44"/>
-      <c r="AX20" s="44"/>
-      <c r="AY20" s="44"/>
-      <c r="AZ20" s="45"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="56"/>
+      <c r="AN20" s="56"/>
+      <c r="AO20" s="56"/>
+      <c r="AP20" s="57"/>
+      <c r="AQ20" s="64"/>
+      <c r="AR20" s="65"/>
+      <c r="AS20" s="65"/>
+      <c r="AT20" s="65"/>
+      <c r="AU20" s="65"/>
+      <c r="AV20" s="65"/>
+      <c r="AW20" s="65"/>
+      <c r="AX20" s="65"/>
+      <c r="AY20" s="65"/>
+      <c r="AZ20" s="66"/>
     </row>
     <row r="21" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="35"/>
-      <c r="AI21" s="35"/>
-      <c r="AJ21" s="35"/>
-      <c r="AK21" s="35"/>
-      <c r="AL21" s="35"/>
-      <c r="AM21" s="35"/>
-      <c r="AN21" s="35"/>
-      <c r="AO21" s="35"/>
-      <c r="AP21" s="36"/>
-      <c r="AQ21" s="43"/>
-      <c r="AR21" s="44"/>
-      <c r="AS21" s="44"/>
-      <c r="AT21" s="44"/>
-      <c r="AU21" s="44"/>
-      <c r="AV21" s="44"/>
-      <c r="AW21" s="44"/>
-      <c r="AX21" s="44"/>
-      <c r="AY21" s="44"/>
-      <c r="AZ21" s="45"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="56"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="56"/>
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="56"/>
+      <c r="AH21" s="56"/>
+      <c r="AI21" s="56"/>
+      <c r="AJ21" s="56"/>
+      <c r="AK21" s="56"/>
+      <c r="AL21" s="56"/>
+      <c r="AM21" s="56"/>
+      <c r="AN21" s="56"/>
+      <c r="AO21" s="56"/>
+      <c r="AP21" s="57"/>
+      <c r="AQ21" s="64"/>
+      <c r="AR21" s="65"/>
+      <c r="AS21" s="65"/>
+      <c r="AT21" s="65"/>
+      <c r="AU21" s="65"/>
+      <c r="AV21" s="65"/>
+      <c r="AW21" s="65"/>
+      <c r="AX21" s="65"/>
+      <c r="AY21" s="65"/>
+      <c r="AZ21" s="66"/>
     </row>
     <row r="22" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="35"/>
-      <c r="AI22" s="35"/>
-      <c r="AJ22" s="35"/>
-      <c r="AK22" s="35"/>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="35"/>
-      <c r="AN22" s="35"/>
-      <c r="AO22" s="35"/>
-      <c r="AP22" s="36"/>
-      <c r="AQ22" s="43"/>
-      <c r="AR22" s="44"/>
-      <c r="AS22" s="44"/>
-      <c r="AT22" s="44"/>
-      <c r="AU22" s="44"/>
-      <c r="AV22" s="44"/>
-      <c r="AW22" s="44"/>
-      <c r="AX22" s="44"/>
-      <c r="AY22" s="44"/>
-      <c r="AZ22" s="45"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="56"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="56"/>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="56"/>
+      <c r="AL22" s="56"/>
+      <c r="AM22" s="56"/>
+      <c r="AN22" s="56"/>
+      <c r="AO22" s="56"/>
+      <c r="AP22" s="57"/>
+      <c r="AQ22" s="64"/>
+      <c r="AR22" s="65"/>
+      <c r="AS22" s="65"/>
+      <c r="AT22" s="65"/>
+      <c r="AU22" s="65"/>
+      <c r="AV22" s="65"/>
+      <c r="AW22" s="65"/>
+      <c r="AX22" s="65"/>
+      <c r="AY22" s="65"/>
+      <c r="AZ22" s="66"/>
     </row>
     <row r="23" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="35"/>
-      <c r="AI23" s="35"/>
-      <c r="AJ23" s="35"/>
-      <c r="AK23" s="35"/>
-      <c r="AL23" s="35"/>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="35"/>
-      <c r="AO23" s="35"/>
-      <c r="AP23" s="36"/>
-      <c r="AQ23" s="43"/>
-      <c r="AR23" s="44"/>
-      <c r="AS23" s="44"/>
-      <c r="AT23" s="44"/>
-      <c r="AU23" s="44"/>
-      <c r="AV23" s="44"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="45"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="56"/>
+      <c r="AF23" s="56"/>
+      <c r="AG23" s="56"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="56"/>
+      <c r="AJ23" s="56"/>
+      <c r="AK23" s="56"/>
+      <c r="AL23" s="56"/>
+      <c r="AM23" s="56"/>
+      <c r="AN23" s="56"/>
+      <c r="AO23" s="56"/>
+      <c r="AP23" s="57"/>
+      <c r="AQ23" s="64"/>
+      <c r="AR23" s="65"/>
+      <c r="AS23" s="65"/>
+      <c r="AT23" s="65"/>
+      <c r="AU23" s="65"/>
+      <c r="AV23" s="65"/>
+      <c r="AW23" s="65"/>
+      <c r="AX23" s="65"/>
+      <c r="AY23" s="65"/>
+      <c r="AZ23" s="66"/>
     </row>
     <row r="24" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="53"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="38"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="38"/>
-      <c r="AI24" s="38"/>
-      <c r="AJ24" s="38"/>
-      <c r="AK24" s="38"/>
-      <c r="AL24" s="38"/>
-      <c r="AM24" s="38"/>
-      <c r="AN24" s="38"/>
-      <c r="AO24" s="38"/>
-      <c r="AP24" s="39"/>
-      <c r="AQ24" s="46"/>
-      <c r="AR24" s="47"/>
-      <c r="AS24" s="47"/>
-      <c r="AT24" s="47"/>
-      <c r="AU24" s="47"/>
-      <c r="AV24" s="47"/>
-      <c r="AW24" s="47"/>
-      <c r="AX24" s="47"/>
-      <c r="AY24" s="47"/>
-      <c r="AZ24" s="48"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="59"/>
+      <c r="AH24" s="59"/>
+      <c r="AI24" s="59"/>
+      <c r="AJ24" s="59"/>
+      <c r="AK24" s="59"/>
+      <c r="AL24" s="59"/>
+      <c r="AM24" s="59"/>
+      <c r="AN24" s="59"/>
+      <c r="AO24" s="59"/>
+      <c r="AP24" s="60"/>
+      <c r="AQ24" s="67"/>
+      <c r="AR24" s="68"/>
+      <c r="AS24" s="68"/>
+      <c r="AT24" s="68"/>
+      <c r="AU24" s="68"/>
+      <c r="AV24" s="68"/>
+      <c r="AW24" s="68"/>
+      <c r="AX24" s="68"/>
+      <c r="AY24" s="68"/>
+      <c r="AZ24" s="69"/>
     </row>
     <row r="25" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="60"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="12"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -5630,22 +5679,22 @@
       <c r="AZ25" s="2"/>
     </row>
     <row r="26" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="61"/>
-      <c r="C26" s="62"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="15"/>
       <c r="AZ26" s="3"/>
     </row>
     <row r="27" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="61"/>
-      <c r="C27" s="62"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="15"/>
       <c r="AZ27" s="3"/>
     </row>
     <row r="28" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="67"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -5697,14 +5746,14 @@
       <c r="AZ28" s="18"/>
     </row>
     <row r="29" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="15"/>
       <c r="AZ29" s="3"/>
     </row>
     <row r="30" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="68"/>
-      <c r="C30" s="69"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
@@ -5756,546 +5805,548 @@
       <c r="AZ30" s="6"/>
     </row>
     <row r="31" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="31" t="s">
+      <c r="C31" s="23"/>
+      <c r="D31" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="32"/>
-      <c r="AG31" s="32"/>
-      <c r="AH31" s="32"/>
-      <c r="AI31" s="32"/>
-      <c r="AJ31" s="32"/>
-      <c r="AK31" s="32"/>
-      <c r="AL31" s="32"/>
-      <c r="AM31" s="32"/>
-      <c r="AN31" s="32"/>
-      <c r="AO31" s="32"/>
-      <c r="AP31" s="33"/>
-      <c r="AQ31" s="31"/>
-      <c r="AR31" s="32"/>
-      <c r="AS31" s="32"/>
-      <c r="AT31" s="32"/>
-      <c r="AU31" s="32"/>
-      <c r="AV31" s="32"/>
-      <c r="AW31" s="32"/>
-      <c r="AX31" s="32"/>
-      <c r="AY31" s="32"/>
-      <c r="AZ31" s="33"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="53"/>
+      <c r="AJ31" s="53"/>
+      <c r="AK31" s="53"/>
+      <c r="AL31" s="53"/>
+      <c r="AM31" s="53"/>
+      <c r="AN31" s="53"/>
+      <c r="AO31" s="53"/>
+      <c r="AP31" s="54"/>
+      <c r="AQ31" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR31" s="62"/>
+      <c r="AS31" s="62"/>
+      <c r="AT31" s="62"/>
+      <c r="AU31" s="62"/>
+      <c r="AV31" s="62"/>
+      <c r="AW31" s="62"/>
+      <c r="AX31" s="62"/>
+      <c r="AY31" s="62"/>
+      <c r="AZ31" s="63"/>
     </row>
     <row r="32" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="57"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="35"/>
-      <c r="AA32" s="35"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="35"/>
-      <c r="AD32" s="35"/>
-      <c r="AE32" s="35"/>
-      <c r="AF32" s="35"/>
-      <c r="AG32" s="35"/>
-      <c r="AH32" s="35"/>
-      <c r="AI32" s="35"/>
-      <c r="AJ32" s="35"/>
-      <c r="AK32" s="35"/>
-      <c r="AL32" s="35"/>
-      <c r="AM32" s="35"/>
-      <c r="AN32" s="35"/>
-      <c r="AO32" s="35"/>
-      <c r="AP32" s="36"/>
-      <c r="AQ32" s="34"/>
-      <c r="AR32" s="35"/>
-      <c r="AS32" s="35"/>
-      <c r="AT32" s="35"/>
-      <c r="AU32" s="35"/>
-      <c r="AV32" s="35"/>
-      <c r="AW32" s="35"/>
-      <c r="AX32" s="35"/>
-      <c r="AY32" s="35"/>
-      <c r="AZ32" s="36"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="56"/>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="56"/>
+      <c r="AE32" s="56"/>
+      <c r="AF32" s="56"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="56"/>
+      <c r="AI32" s="56"/>
+      <c r="AJ32" s="56"/>
+      <c r="AK32" s="56"/>
+      <c r="AL32" s="56"/>
+      <c r="AM32" s="56"/>
+      <c r="AN32" s="56"/>
+      <c r="AO32" s="56"/>
+      <c r="AP32" s="57"/>
+      <c r="AQ32" s="64"/>
+      <c r="AR32" s="65"/>
+      <c r="AS32" s="65"/>
+      <c r="AT32" s="65"/>
+      <c r="AU32" s="65"/>
+      <c r="AV32" s="65"/>
+      <c r="AW32" s="65"/>
+      <c r="AX32" s="65"/>
+      <c r="AY32" s="65"/>
+      <c r="AZ32" s="66"/>
     </row>
     <row r="33" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="57"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="35"/>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="35"/>
-      <c r="AD33" s="35"/>
-      <c r="AE33" s="35"/>
-      <c r="AF33" s="35"/>
-      <c r="AG33" s="35"/>
-      <c r="AH33" s="35"/>
-      <c r="AI33" s="35"/>
-      <c r="AJ33" s="35"/>
-      <c r="AK33" s="35"/>
-      <c r="AL33" s="35"/>
-      <c r="AM33" s="35"/>
-      <c r="AN33" s="35"/>
-      <c r="AO33" s="35"/>
-      <c r="AP33" s="36"/>
-      <c r="AQ33" s="34"/>
-      <c r="AR33" s="35"/>
-      <c r="AS33" s="35"/>
-      <c r="AT33" s="35"/>
-      <c r="AU33" s="35"/>
-      <c r="AV33" s="35"/>
-      <c r="AW33" s="35"/>
-      <c r="AX33" s="35"/>
-      <c r="AY33" s="35"/>
-      <c r="AZ33" s="36"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="56"/>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="56"/>
+      <c r="AF33" s="56"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="56"/>
+      <c r="AJ33" s="56"/>
+      <c r="AK33" s="56"/>
+      <c r="AL33" s="56"/>
+      <c r="AM33" s="56"/>
+      <c r="AN33" s="56"/>
+      <c r="AO33" s="56"/>
+      <c r="AP33" s="57"/>
+      <c r="AQ33" s="64"/>
+      <c r="AR33" s="65"/>
+      <c r="AS33" s="65"/>
+      <c r="AT33" s="65"/>
+      <c r="AU33" s="65"/>
+      <c r="AV33" s="65"/>
+      <c r="AW33" s="65"/>
+      <c r="AX33" s="65"/>
+      <c r="AY33" s="65"/>
+      <c r="AZ33" s="66"/>
     </row>
     <row r="34" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="57"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="35"/>
-      <c r="AA34" s="35"/>
-      <c r="AB34" s="35"/>
-      <c r="AC34" s="35"/>
-      <c r="AD34" s="35"/>
-      <c r="AE34" s="35"/>
-      <c r="AF34" s="35"/>
-      <c r="AG34" s="35"/>
-      <c r="AH34" s="35"/>
-      <c r="AI34" s="35"/>
-      <c r="AJ34" s="35"/>
-      <c r="AK34" s="35"/>
-      <c r="AL34" s="35"/>
-      <c r="AM34" s="35"/>
-      <c r="AN34" s="35"/>
-      <c r="AO34" s="35"/>
-      <c r="AP34" s="36"/>
-      <c r="AQ34" s="34"/>
-      <c r="AR34" s="35"/>
-      <c r="AS34" s="35"/>
-      <c r="AT34" s="35"/>
-      <c r="AU34" s="35"/>
-      <c r="AV34" s="35"/>
-      <c r="AW34" s="35"/>
-      <c r="AX34" s="35"/>
-      <c r="AY34" s="35"/>
-      <c r="AZ34" s="36"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="56"/>
+      <c r="Z34" s="56"/>
+      <c r="AA34" s="56"/>
+      <c r="AB34" s="56"/>
+      <c r="AC34" s="56"/>
+      <c r="AD34" s="56"/>
+      <c r="AE34" s="56"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="56"/>
+      <c r="AJ34" s="56"/>
+      <c r="AK34" s="56"/>
+      <c r="AL34" s="56"/>
+      <c r="AM34" s="56"/>
+      <c r="AN34" s="56"/>
+      <c r="AO34" s="56"/>
+      <c r="AP34" s="57"/>
+      <c r="AQ34" s="64"/>
+      <c r="AR34" s="65"/>
+      <c r="AS34" s="65"/>
+      <c r="AT34" s="65"/>
+      <c r="AU34" s="65"/>
+      <c r="AV34" s="65"/>
+      <c r="AW34" s="65"/>
+      <c r="AX34" s="65"/>
+      <c r="AY34" s="65"/>
+      <c r="AZ34" s="66"/>
     </row>
     <row r="35" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="57"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="35"/>
-      <c r="Y35" s="35"/>
-      <c r="Z35" s="35"/>
-      <c r="AA35" s="35"/>
-      <c r="AB35" s="35"/>
-      <c r="AC35" s="35"/>
-      <c r="AD35" s="35"/>
-      <c r="AE35" s="35"/>
-      <c r="AF35" s="35"/>
-      <c r="AG35" s="35"/>
-      <c r="AH35" s="35"/>
-      <c r="AI35" s="35"/>
-      <c r="AJ35" s="35"/>
-      <c r="AK35" s="35"/>
-      <c r="AL35" s="35"/>
-      <c r="AM35" s="35"/>
-      <c r="AN35" s="35"/>
-      <c r="AO35" s="35"/>
-      <c r="AP35" s="36"/>
-      <c r="AQ35" s="34"/>
-      <c r="AR35" s="35"/>
-      <c r="AS35" s="35"/>
-      <c r="AT35" s="35"/>
-      <c r="AU35" s="35"/>
-      <c r="AV35" s="35"/>
-      <c r="AW35" s="35"/>
-      <c r="AX35" s="35"/>
-      <c r="AY35" s="35"/>
-      <c r="AZ35" s="36"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="56"/>
+      <c r="AC35" s="56"/>
+      <c r="AD35" s="56"/>
+      <c r="AE35" s="56"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="56"/>
+      <c r="AJ35" s="56"/>
+      <c r="AK35" s="56"/>
+      <c r="AL35" s="56"/>
+      <c r="AM35" s="56"/>
+      <c r="AN35" s="56"/>
+      <c r="AO35" s="56"/>
+      <c r="AP35" s="57"/>
+      <c r="AQ35" s="64"/>
+      <c r="AR35" s="65"/>
+      <c r="AS35" s="65"/>
+      <c r="AT35" s="65"/>
+      <c r="AU35" s="65"/>
+      <c r="AV35" s="65"/>
+      <c r="AW35" s="65"/>
+      <c r="AX35" s="65"/>
+      <c r="AY35" s="65"/>
+      <c r="AZ35" s="66"/>
     </row>
     <row r="36" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="57"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="35"/>
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="35"/>
-      <c r="AD36" s="35"/>
-      <c r="AE36" s="35"/>
-      <c r="AF36" s="35"/>
-      <c r="AG36" s="35"/>
-      <c r="AH36" s="35"/>
-      <c r="AI36" s="35"/>
-      <c r="AJ36" s="35"/>
-      <c r="AK36" s="35"/>
-      <c r="AL36" s="35"/>
-      <c r="AM36" s="35"/>
-      <c r="AN36" s="35"/>
-      <c r="AO36" s="35"/>
-      <c r="AP36" s="36"/>
-      <c r="AQ36" s="34"/>
-      <c r="AR36" s="35"/>
-      <c r="AS36" s="35"/>
-      <c r="AT36" s="35"/>
-      <c r="AU36" s="35"/>
-      <c r="AV36" s="35"/>
-      <c r="AW36" s="35"/>
-      <c r="AX36" s="35"/>
-      <c r="AY36" s="35"/>
-      <c r="AZ36" s="36"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56"/>
+      <c r="AB36" s="56"/>
+      <c r="AC36" s="56"/>
+      <c r="AD36" s="56"/>
+      <c r="AE36" s="56"/>
+      <c r="AF36" s="56"/>
+      <c r="AG36" s="56"/>
+      <c r="AH36" s="56"/>
+      <c r="AI36" s="56"/>
+      <c r="AJ36" s="56"/>
+      <c r="AK36" s="56"/>
+      <c r="AL36" s="56"/>
+      <c r="AM36" s="56"/>
+      <c r="AN36" s="56"/>
+      <c r="AO36" s="56"/>
+      <c r="AP36" s="57"/>
+      <c r="AQ36" s="64"/>
+      <c r="AR36" s="65"/>
+      <c r="AS36" s="65"/>
+      <c r="AT36" s="65"/>
+      <c r="AU36" s="65"/>
+      <c r="AV36" s="65"/>
+      <c r="AW36" s="65"/>
+      <c r="AX36" s="65"/>
+      <c r="AY36" s="65"/>
+      <c r="AZ36" s="66"/>
     </row>
     <row r="37" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="57"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="35"/>
-      <c r="Z37" s="35"/>
-      <c r="AA37" s="35"/>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="35"/>
-      <c r="AD37" s="35"/>
-      <c r="AE37" s="35"/>
-      <c r="AF37" s="35"/>
-      <c r="AG37" s="35"/>
-      <c r="AH37" s="35"/>
-      <c r="AI37" s="35"/>
-      <c r="AJ37" s="35"/>
-      <c r="AK37" s="35"/>
-      <c r="AL37" s="35"/>
-      <c r="AM37" s="35"/>
-      <c r="AN37" s="35"/>
-      <c r="AO37" s="35"/>
-      <c r="AP37" s="36"/>
-      <c r="AQ37" s="34"/>
-      <c r="AR37" s="35"/>
-      <c r="AS37" s="35"/>
-      <c r="AT37" s="35"/>
-      <c r="AU37" s="35"/>
-      <c r="AV37" s="35"/>
-      <c r="AW37" s="35"/>
-      <c r="AX37" s="35"/>
-      <c r="AY37" s="35"/>
-      <c r="AZ37" s="36"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
+      <c r="AB37" s="56"/>
+      <c r="AC37" s="56"/>
+      <c r="AD37" s="56"/>
+      <c r="AE37" s="56"/>
+      <c r="AF37" s="56"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="56"/>
+      <c r="AI37" s="56"/>
+      <c r="AJ37" s="56"/>
+      <c r="AK37" s="56"/>
+      <c r="AL37" s="56"/>
+      <c r="AM37" s="56"/>
+      <c r="AN37" s="56"/>
+      <c r="AO37" s="56"/>
+      <c r="AP37" s="57"/>
+      <c r="AQ37" s="64"/>
+      <c r="AR37" s="65"/>
+      <c r="AS37" s="65"/>
+      <c r="AT37" s="65"/>
+      <c r="AU37" s="65"/>
+      <c r="AV37" s="65"/>
+      <c r="AW37" s="65"/>
+      <c r="AX37" s="65"/>
+      <c r="AY37" s="65"/>
+      <c r="AZ37" s="66"/>
     </row>
     <row r="38" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="57"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="35"/>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="35"/>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="35"/>
-      <c r="AC38" s="35"/>
-      <c r="AD38" s="35"/>
-      <c r="AE38" s="35"/>
-      <c r="AF38" s="35"/>
-      <c r="AG38" s="35"/>
-      <c r="AH38" s="35"/>
-      <c r="AI38" s="35"/>
-      <c r="AJ38" s="35"/>
-      <c r="AK38" s="35"/>
-      <c r="AL38" s="35"/>
-      <c r="AM38" s="35"/>
-      <c r="AN38" s="35"/>
-      <c r="AO38" s="35"/>
-      <c r="AP38" s="36"/>
-      <c r="AQ38" s="34"/>
-      <c r="AR38" s="35"/>
-      <c r="AS38" s="35"/>
-      <c r="AT38" s="35"/>
-      <c r="AU38" s="35"/>
-      <c r="AV38" s="35"/>
-      <c r="AW38" s="35"/>
-      <c r="AX38" s="35"/>
-      <c r="AY38" s="35"/>
-      <c r="AZ38" s="36"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="56"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="56"/>
+      <c r="AB38" s="56"/>
+      <c r="AC38" s="56"/>
+      <c r="AD38" s="56"/>
+      <c r="AE38" s="56"/>
+      <c r="AF38" s="56"/>
+      <c r="AG38" s="56"/>
+      <c r="AH38" s="56"/>
+      <c r="AI38" s="56"/>
+      <c r="AJ38" s="56"/>
+      <c r="AK38" s="56"/>
+      <c r="AL38" s="56"/>
+      <c r="AM38" s="56"/>
+      <c r="AN38" s="56"/>
+      <c r="AO38" s="56"/>
+      <c r="AP38" s="57"/>
+      <c r="AQ38" s="64"/>
+      <c r="AR38" s="65"/>
+      <c r="AS38" s="65"/>
+      <c r="AT38" s="65"/>
+      <c r="AU38" s="65"/>
+      <c r="AV38" s="65"/>
+      <c r="AW38" s="65"/>
+      <c r="AX38" s="65"/>
+      <c r="AY38" s="65"/>
+      <c r="AZ38" s="66"/>
     </row>
     <row r="39" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="35"/>
-      <c r="Z39" s="35"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="35"/>
-      <c r="AD39" s="35"/>
-      <c r="AE39" s="35"/>
-      <c r="AF39" s="35"/>
-      <c r="AG39" s="35"/>
-      <c r="AH39" s="35"/>
-      <c r="AI39" s="35"/>
-      <c r="AJ39" s="35"/>
-      <c r="AK39" s="35"/>
-      <c r="AL39" s="35"/>
-      <c r="AM39" s="35"/>
-      <c r="AN39" s="35"/>
-      <c r="AO39" s="35"/>
-      <c r="AP39" s="36"/>
-      <c r="AQ39" s="34"/>
-      <c r="AR39" s="35"/>
-      <c r="AS39" s="35"/>
-      <c r="AT39" s="35"/>
-      <c r="AU39" s="35"/>
-      <c r="AV39" s="35"/>
-      <c r="AW39" s="35"/>
-      <c r="AX39" s="35"/>
-      <c r="AY39" s="35"/>
-      <c r="AZ39" s="36"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="56"/>
+      <c r="AC39" s="56"/>
+      <c r="AD39" s="56"/>
+      <c r="AE39" s="56"/>
+      <c r="AF39" s="56"/>
+      <c r="AG39" s="56"/>
+      <c r="AH39" s="56"/>
+      <c r="AI39" s="56"/>
+      <c r="AJ39" s="56"/>
+      <c r="AK39" s="56"/>
+      <c r="AL39" s="56"/>
+      <c r="AM39" s="56"/>
+      <c r="AN39" s="56"/>
+      <c r="AO39" s="56"/>
+      <c r="AP39" s="57"/>
+      <c r="AQ39" s="64"/>
+      <c r="AR39" s="65"/>
+      <c r="AS39" s="65"/>
+      <c r="AT39" s="65"/>
+      <c r="AU39" s="65"/>
+      <c r="AV39" s="65"/>
+      <c r="AW39" s="65"/>
+      <c r="AX39" s="65"/>
+      <c r="AY39" s="65"/>
+      <c r="AZ39" s="66"/>
     </row>
     <row r="40" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="53"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
-      <c r="AA40" s="38"/>
-      <c r="AB40" s="38"/>
-      <c r="AC40" s="38"/>
-      <c r="AD40" s="38"/>
-      <c r="AE40" s="38"/>
-      <c r="AF40" s="38"/>
-      <c r="AG40" s="38"/>
-      <c r="AH40" s="38"/>
-      <c r="AI40" s="38"/>
-      <c r="AJ40" s="38"/>
-      <c r="AK40" s="38"/>
-      <c r="AL40" s="38"/>
-      <c r="AM40" s="38"/>
-      <c r="AN40" s="38"/>
-      <c r="AO40" s="38"/>
-      <c r="AP40" s="39"/>
-      <c r="AQ40" s="37"/>
-      <c r="AR40" s="38"/>
-      <c r="AS40" s="38"/>
-      <c r="AT40" s="38"/>
-      <c r="AU40" s="38"/>
-      <c r="AV40" s="38"/>
-      <c r="AW40" s="38"/>
-      <c r="AX40" s="38"/>
-      <c r="AY40" s="38"/>
-      <c r="AZ40" s="39"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="59"/>
+      <c r="AF40" s="59"/>
+      <c r="AG40" s="59"/>
+      <c r="AH40" s="59"/>
+      <c r="AI40" s="59"/>
+      <c r="AJ40" s="59"/>
+      <c r="AK40" s="59"/>
+      <c r="AL40" s="59"/>
+      <c r="AM40" s="59"/>
+      <c r="AN40" s="59"/>
+      <c r="AO40" s="59"/>
+      <c r="AP40" s="60"/>
+      <c r="AQ40" s="67"/>
+      <c r="AR40" s="68"/>
+      <c r="AS40" s="68"/>
+      <c r="AT40" s="68"/>
+      <c r="AU40" s="68"/>
+      <c r="AV40" s="68"/>
+      <c r="AW40" s="68"/>
+      <c r="AX40" s="68"/>
+      <c r="AY40" s="68"/>
+      <c r="AZ40" s="69"/>
     </row>
     <row r="41" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="60"/>
+      <c r="C41" s="27"/>
       <c r="D41" s="12"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -6347,22 +6398,22 @@
       <c r="AZ41" s="2"/>
     </row>
     <row r="42" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="61"/>
-      <c r="C42" s="62"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="29"/>
       <c r="D42" s="15"/>
       <c r="AZ42" s="3"/>
     </row>
     <row r="43" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="61"/>
-      <c r="C43" s="62"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="29"/>
       <c r="D43" s="15"/>
       <c r="AZ43" s="3"/>
     </row>
     <row r="44" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="67"/>
+      <c r="C44" s="31"/>
       <c r="D44" s="16"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
@@ -6414,14 +6465,14 @@
       <c r="AZ44" s="18"/>
     </row>
     <row r="45" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="61"/>
-      <c r="C45" s="62"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="29"/>
       <c r="D45" s="15"/>
       <c r="AZ45" s="3"/>
     </row>
     <row r="46" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="68"/>
-      <c r="C46" s="69"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="6"/>
@@ -6473,544 +6524,544 @@
       <c r="AZ46" s="6"/>
     </row>
     <row r="47" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="56"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="32"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="32"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="32"/>
-      <c r="W47" s="32"/>
-      <c r="X47" s="32"/>
-      <c r="Y47" s="32"/>
-      <c r="Z47" s="32"/>
-      <c r="AA47" s="32"/>
-      <c r="AB47" s="32"/>
-      <c r="AC47" s="32"/>
-      <c r="AD47" s="32"/>
-      <c r="AE47" s="32"/>
-      <c r="AF47" s="32"/>
-      <c r="AG47" s="32"/>
-      <c r="AH47" s="32"/>
-      <c r="AI47" s="32"/>
-      <c r="AJ47" s="32"/>
-      <c r="AK47" s="32"/>
-      <c r="AL47" s="32"/>
-      <c r="AM47" s="32"/>
-      <c r="AN47" s="32"/>
-      <c r="AO47" s="32"/>
-      <c r="AP47" s="33"/>
-      <c r="AQ47" s="31"/>
-      <c r="AR47" s="32"/>
-      <c r="AS47" s="32"/>
-      <c r="AT47" s="32"/>
-      <c r="AU47" s="32"/>
-      <c r="AV47" s="32"/>
-      <c r="AW47" s="32"/>
-      <c r="AX47" s="32"/>
-      <c r="AY47" s="32"/>
-      <c r="AZ47" s="33"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="53"/>
+      <c r="T47" s="53"/>
+      <c r="U47" s="53"/>
+      <c r="V47" s="53"/>
+      <c r="W47" s="53"/>
+      <c r="X47" s="53"/>
+      <c r="Y47" s="53"/>
+      <c r="Z47" s="53"/>
+      <c r="AA47" s="53"/>
+      <c r="AB47" s="53"/>
+      <c r="AC47" s="53"/>
+      <c r="AD47" s="53"/>
+      <c r="AE47" s="53"/>
+      <c r="AF47" s="53"/>
+      <c r="AG47" s="53"/>
+      <c r="AH47" s="53"/>
+      <c r="AI47" s="53"/>
+      <c r="AJ47" s="53"/>
+      <c r="AK47" s="53"/>
+      <c r="AL47" s="53"/>
+      <c r="AM47" s="53"/>
+      <c r="AN47" s="53"/>
+      <c r="AO47" s="53"/>
+      <c r="AP47" s="54"/>
+      <c r="AQ47" s="52"/>
+      <c r="AR47" s="53"/>
+      <c r="AS47" s="53"/>
+      <c r="AT47" s="53"/>
+      <c r="AU47" s="53"/>
+      <c r="AV47" s="53"/>
+      <c r="AW47" s="53"/>
+      <c r="AX47" s="53"/>
+      <c r="AY47" s="53"/>
+      <c r="AZ47" s="54"/>
     </row>
     <row r="48" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="57"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="35"/>
-      <c r="Y48" s="35"/>
-      <c r="Z48" s="35"/>
-      <c r="AA48" s="35"/>
-      <c r="AB48" s="35"/>
-      <c r="AC48" s="35"/>
-      <c r="AD48" s="35"/>
-      <c r="AE48" s="35"/>
-      <c r="AF48" s="35"/>
-      <c r="AG48" s="35"/>
-      <c r="AH48" s="35"/>
-      <c r="AI48" s="35"/>
-      <c r="AJ48" s="35"/>
-      <c r="AK48" s="35"/>
-      <c r="AL48" s="35"/>
-      <c r="AM48" s="35"/>
-      <c r="AN48" s="35"/>
-      <c r="AO48" s="35"/>
-      <c r="AP48" s="36"/>
-      <c r="AQ48" s="34"/>
-      <c r="AR48" s="35"/>
-      <c r="AS48" s="35"/>
-      <c r="AT48" s="35"/>
-      <c r="AU48" s="35"/>
-      <c r="AV48" s="35"/>
-      <c r="AW48" s="35"/>
-      <c r="AX48" s="35"/>
-      <c r="AY48" s="35"/>
-      <c r="AZ48" s="36"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="56"/>
+      <c r="T48" s="56"/>
+      <c r="U48" s="56"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="56"/>
+      <c r="X48" s="56"/>
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="56"/>
+      <c r="AC48" s="56"/>
+      <c r="AD48" s="56"/>
+      <c r="AE48" s="56"/>
+      <c r="AF48" s="56"/>
+      <c r="AG48" s="56"/>
+      <c r="AH48" s="56"/>
+      <c r="AI48" s="56"/>
+      <c r="AJ48" s="56"/>
+      <c r="AK48" s="56"/>
+      <c r="AL48" s="56"/>
+      <c r="AM48" s="56"/>
+      <c r="AN48" s="56"/>
+      <c r="AO48" s="56"/>
+      <c r="AP48" s="57"/>
+      <c r="AQ48" s="55"/>
+      <c r="AR48" s="56"/>
+      <c r="AS48" s="56"/>
+      <c r="AT48" s="56"/>
+      <c r="AU48" s="56"/>
+      <c r="AV48" s="56"/>
+      <c r="AW48" s="56"/>
+      <c r="AX48" s="56"/>
+      <c r="AY48" s="56"/>
+      <c r="AZ48" s="57"/>
     </row>
     <row r="49" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="57"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="35"/>
-      <c r="X49" s="35"/>
-      <c r="Y49" s="35"/>
-      <c r="Z49" s="35"/>
-      <c r="AA49" s="35"/>
-      <c r="AB49" s="35"/>
-      <c r="AC49" s="35"/>
-      <c r="AD49" s="35"/>
-      <c r="AE49" s="35"/>
-      <c r="AF49" s="35"/>
-      <c r="AG49" s="35"/>
-      <c r="AH49" s="35"/>
-      <c r="AI49" s="35"/>
-      <c r="AJ49" s="35"/>
-      <c r="AK49" s="35"/>
-      <c r="AL49" s="35"/>
-      <c r="AM49" s="35"/>
-      <c r="AN49" s="35"/>
-      <c r="AO49" s="35"/>
-      <c r="AP49" s="36"/>
-      <c r="AQ49" s="34"/>
-      <c r="AR49" s="35"/>
-      <c r="AS49" s="35"/>
-      <c r="AT49" s="35"/>
-      <c r="AU49" s="35"/>
-      <c r="AV49" s="35"/>
-      <c r="AW49" s="35"/>
-      <c r="AX49" s="35"/>
-      <c r="AY49" s="35"/>
-      <c r="AZ49" s="36"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="56"/>
+      <c r="T49" s="56"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="56"/>
+      <c r="Z49" s="56"/>
+      <c r="AA49" s="56"/>
+      <c r="AB49" s="56"/>
+      <c r="AC49" s="56"/>
+      <c r="AD49" s="56"/>
+      <c r="AE49" s="56"/>
+      <c r="AF49" s="56"/>
+      <c r="AG49" s="56"/>
+      <c r="AH49" s="56"/>
+      <c r="AI49" s="56"/>
+      <c r="AJ49" s="56"/>
+      <c r="AK49" s="56"/>
+      <c r="AL49" s="56"/>
+      <c r="AM49" s="56"/>
+      <c r="AN49" s="56"/>
+      <c r="AO49" s="56"/>
+      <c r="AP49" s="57"/>
+      <c r="AQ49" s="55"/>
+      <c r="AR49" s="56"/>
+      <c r="AS49" s="56"/>
+      <c r="AT49" s="56"/>
+      <c r="AU49" s="56"/>
+      <c r="AV49" s="56"/>
+      <c r="AW49" s="56"/>
+      <c r="AX49" s="56"/>
+      <c r="AY49" s="56"/>
+      <c r="AZ49" s="57"/>
     </row>
     <row r="50" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="57"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="35"/>
-      <c r="W50" s="35"/>
-      <c r="X50" s="35"/>
-      <c r="Y50" s="35"/>
-      <c r="Z50" s="35"/>
-      <c r="AA50" s="35"/>
-      <c r="AB50" s="35"/>
-      <c r="AC50" s="35"/>
-      <c r="AD50" s="35"/>
-      <c r="AE50" s="35"/>
-      <c r="AF50" s="35"/>
-      <c r="AG50" s="35"/>
-      <c r="AH50" s="35"/>
-      <c r="AI50" s="35"/>
-      <c r="AJ50" s="35"/>
-      <c r="AK50" s="35"/>
-      <c r="AL50" s="35"/>
-      <c r="AM50" s="35"/>
-      <c r="AN50" s="35"/>
-      <c r="AO50" s="35"/>
-      <c r="AP50" s="36"/>
-      <c r="AQ50" s="34"/>
-      <c r="AR50" s="35"/>
-      <c r="AS50" s="35"/>
-      <c r="AT50" s="35"/>
-      <c r="AU50" s="35"/>
-      <c r="AV50" s="35"/>
-      <c r="AW50" s="35"/>
-      <c r="AX50" s="35"/>
-      <c r="AY50" s="35"/>
-      <c r="AZ50" s="36"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="56"/>
+      <c r="T50" s="56"/>
+      <c r="U50" s="56"/>
+      <c r="V50" s="56"/>
+      <c r="W50" s="56"/>
+      <c r="X50" s="56"/>
+      <c r="Y50" s="56"/>
+      <c r="Z50" s="56"/>
+      <c r="AA50" s="56"/>
+      <c r="AB50" s="56"/>
+      <c r="AC50" s="56"/>
+      <c r="AD50" s="56"/>
+      <c r="AE50" s="56"/>
+      <c r="AF50" s="56"/>
+      <c r="AG50" s="56"/>
+      <c r="AH50" s="56"/>
+      <c r="AI50" s="56"/>
+      <c r="AJ50" s="56"/>
+      <c r="AK50" s="56"/>
+      <c r="AL50" s="56"/>
+      <c r="AM50" s="56"/>
+      <c r="AN50" s="56"/>
+      <c r="AO50" s="56"/>
+      <c r="AP50" s="57"/>
+      <c r="AQ50" s="55"/>
+      <c r="AR50" s="56"/>
+      <c r="AS50" s="56"/>
+      <c r="AT50" s="56"/>
+      <c r="AU50" s="56"/>
+      <c r="AV50" s="56"/>
+      <c r="AW50" s="56"/>
+      <c r="AX50" s="56"/>
+      <c r="AY50" s="56"/>
+      <c r="AZ50" s="57"/>
     </row>
     <row r="51" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="57"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="35"/>
-      <c r="Y51" s="35"/>
-      <c r="Z51" s="35"/>
-      <c r="AA51" s="35"/>
-      <c r="AB51" s="35"/>
-      <c r="AC51" s="35"/>
-      <c r="AD51" s="35"/>
-      <c r="AE51" s="35"/>
-      <c r="AF51" s="35"/>
-      <c r="AG51" s="35"/>
-      <c r="AH51" s="35"/>
-      <c r="AI51" s="35"/>
-      <c r="AJ51" s="35"/>
-      <c r="AK51" s="35"/>
-      <c r="AL51" s="35"/>
-      <c r="AM51" s="35"/>
-      <c r="AN51" s="35"/>
-      <c r="AO51" s="35"/>
-      <c r="AP51" s="36"/>
-      <c r="AQ51" s="34"/>
-      <c r="AR51" s="35"/>
-      <c r="AS51" s="35"/>
-      <c r="AT51" s="35"/>
-      <c r="AU51" s="35"/>
-      <c r="AV51" s="35"/>
-      <c r="AW51" s="35"/>
-      <c r="AX51" s="35"/>
-      <c r="AY51" s="35"/>
-      <c r="AZ51" s="36"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="56"/>
+      <c r="T51" s="56"/>
+      <c r="U51" s="56"/>
+      <c r="V51" s="56"/>
+      <c r="W51" s="56"/>
+      <c r="X51" s="56"/>
+      <c r="Y51" s="56"/>
+      <c r="Z51" s="56"/>
+      <c r="AA51" s="56"/>
+      <c r="AB51" s="56"/>
+      <c r="AC51" s="56"/>
+      <c r="AD51" s="56"/>
+      <c r="AE51" s="56"/>
+      <c r="AF51" s="56"/>
+      <c r="AG51" s="56"/>
+      <c r="AH51" s="56"/>
+      <c r="AI51" s="56"/>
+      <c r="AJ51" s="56"/>
+      <c r="AK51" s="56"/>
+      <c r="AL51" s="56"/>
+      <c r="AM51" s="56"/>
+      <c r="AN51" s="56"/>
+      <c r="AO51" s="56"/>
+      <c r="AP51" s="57"/>
+      <c r="AQ51" s="55"/>
+      <c r="AR51" s="56"/>
+      <c r="AS51" s="56"/>
+      <c r="AT51" s="56"/>
+      <c r="AU51" s="56"/>
+      <c r="AV51" s="56"/>
+      <c r="AW51" s="56"/>
+      <c r="AX51" s="56"/>
+      <c r="AY51" s="56"/>
+      <c r="AZ51" s="57"/>
     </row>
     <row r="52" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="57"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
-      <c r="S52" s="35"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="35"/>
-      <c r="V52" s="35"/>
-      <c r="W52" s="35"/>
-      <c r="X52" s="35"/>
-      <c r="Y52" s="35"/>
-      <c r="Z52" s="35"/>
-      <c r="AA52" s="35"/>
-      <c r="AB52" s="35"/>
-      <c r="AC52" s="35"/>
-      <c r="AD52" s="35"/>
-      <c r="AE52" s="35"/>
-      <c r="AF52" s="35"/>
-      <c r="AG52" s="35"/>
-      <c r="AH52" s="35"/>
-      <c r="AI52" s="35"/>
-      <c r="AJ52" s="35"/>
-      <c r="AK52" s="35"/>
-      <c r="AL52" s="35"/>
-      <c r="AM52" s="35"/>
-      <c r="AN52" s="35"/>
-      <c r="AO52" s="35"/>
-      <c r="AP52" s="36"/>
-      <c r="AQ52" s="34"/>
-      <c r="AR52" s="35"/>
-      <c r="AS52" s="35"/>
-      <c r="AT52" s="35"/>
-      <c r="AU52" s="35"/>
-      <c r="AV52" s="35"/>
-      <c r="AW52" s="35"/>
-      <c r="AX52" s="35"/>
-      <c r="AY52" s="35"/>
-      <c r="AZ52" s="36"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="56"/>
+      <c r="T52" s="56"/>
+      <c r="U52" s="56"/>
+      <c r="V52" s="56"/>
+      <c r="W52" s="56"/>
+      <c r="X52" s="56"/>
+      <c r="Y52" s="56"/>
+      <c r="Z52" s="56"/>
+      <c r="AA52" s="56"/>
+      <c r="AB52" s="56"/>
+      <c r="AC52" s="56"/>
+      <c r="AD52" s="56"/>
+      <c r="AE52" s="56"/>
+      <c r="AF52" s="56"/>
+      <c r="AG52" s="56"/>
+      <c r="AH52" s="56"/>
+      <c r="AI52" s="56"/>
+      <c r="AJ52" s="56"/>
+      <c r="AK52" s="56"/>
+      <c r="AL52" s="56"/>
+      <c r="AM52" s="56"/>
+      <c r="AN52" s="56"/>
+      <c r="AO52" s="56"/>
+      <c r="AP52" s="57"/>
+      <c r="AQ52" s="55"/>
+      <c r="AR52" s="56"/>
+      <c r="AS52" s="56"/>
+      <c r="AT52" s="56"/>
+      <c r="AU52" s="56"/>
+      <c r="AV52" s="56"/>
+      <c r="AW52" s="56"/>
+      <c r="AX52" s="56"/>
+      <c r="AY52" s="56"/>
+      <c r="AZ52" s="57"/>
     </row>
     <row r="53" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="57"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
-      <c r="S53" s="35"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="35"/>
-      <c r="V53" s="35"/>
-      <c r="W53" s="35"/>
-      <c r="X53" s="35"/>
-      <c r="Y53" s="35"/>
-      <c r="Z53" s="35"/>
-      <c r="AA53" s="35"/>
-      <c r="AB53" s="35"/>
-      <c r="AC53" s="35"/>
-      <c r="AD53" s="35"/>
-      <c r="AE53" s="35"/>
-      <c r="AF53" s="35"/>
-      <c r="AG53" s="35"/>
-      <c r="AH53" s="35"/>
-      <c r="AI53" s="35"/>
-      <c r="AJ53" s="35"/>
-      <c r="AK53" s="35"/>
-      <c r="AL53" s="35"/>
-      <c r="AM53" s="35"/>
-      <c r="AN53" s="35"/>
-      <c r="AO53" s="35"/>
-      <c r="AP53" s="36"/>
-      <c r="AQ53" s="34"/>
-      <c r="AR53" s="35"/>
-      <c r="AS53" s="35"/>
-      <c r="AT53" s="35"/>
-      <c r="AU53" s="35"/>
-      <c r="AV53" s="35"/>
-      <c r="AW53" s="35"/>
-      <c r="AX53" s="35"/>
-      <c r="AY53" s="35"/>
-      <c r="AZ53" s="36"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="56"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56"/>
+      <c r="V53" s="56"/>
+      <c r="W53" s="56"/>
+      <c r="X53" s="56"/>
+      <c r="Y53" s="56"/>
+      <c r="Z53" s="56"/>
+      <c r="AA53" s="56"/>
+      <c r="AB53" s="56"/>
+      <c r="AC53" s="56"/>
+      <c r="AD53" s="56"/>
+      <c r="AE53" s="56"/>
+      <c r="AF53" s="56"/>
+      <c r="AG53" s="56"/>
+      <c r="AH53" s="56"/>
+      <c r="AI53" s="56"/>
+      <c r="AJ53" s="56"/>
+      <c r="AK53" s="56"/>
+      <c r="AL53" s="56"/>
+      <c r="AM53" s="56"/>
+      <c r="AN53" s="56"/>
+      <c r="AO53" s="56"/>
+      <c r="AP53" s="57"/>
+      <c r="AQ53" s="55"/>
+      <c r="AR53" s="56"/>
+      <c r="AS53" s="56"/>
+      <c r="AT53" s="56"/>
+      <c r="AU53" s="56"/>
+      <c r="AV53" s="56"/>
+      <c r="AW53" s="56"/>
+      <c r="AX53" s="56"/>
+      <c r="AY53" s="56"/>
+      <c r="AZ53" s="57"/>
     </row>
     <row r="54" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="57"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
-      <c r="S54" s="35"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="35"/>
-      <c r="V54" s="35"/>
-      <c r="W54" s="35"/>
-      <c r="X54" s="35"/>
-      <c r="Y54" s="35"/>
-      <c r="Z54" s="35"/>
-      <c r="AA54" s="35"/>
-      <c r="AB54" s="35"/>
-      <c r="AC54" s="35"/>
-      <c r="AD54" s="35"/>
-      <c r="AE54" s="35"/>
-      <c r="AF54" s="35"/>
-      <c r="AG54" s="35"/>
-      <c r="AH54" s="35"/>
-      <c r="AI54" s="35"/>
-      <c r="AJ54" s="35"/>
-      <c r="AK54" s="35"/>
-      <c r="AL54" s="35"/>
-      <c r="AM54" s="35"/>
-      <c r="AN54" s="35"/>
-      <c r="AO54" s="35"/>
-      <c r="AP54" s="36"/>
-      <c r="AQ54" s="34"/>
-      <c r="AR54" s="35"/>
-      <c r="AS54" s="35"/>
-      <c r="AT54" s="35"/>
-      <c r="AU54" s="35"/>
-      <c r="AV54" s="35"/>
-      <c r="AW54" s="35"/>
-      <c r="AX54" s="35"/>
-      <c r="AY54" s="35"/>
-      <c r="AZ54" s="36"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="56"/>
+      <c r="S54" s="56"/>
+      <c r="T54" s="56"/>
+      <c r="U54" s="56"/>
+      <c r="V54" s="56"/>
+      <c r="W54" s="56"/>
+      <c r="X54" s="56"/>
+      <c r="Y54" s="56"/>
+      <c r="Z54" s="56"/>
+      <c r="AA54" s="56"/>
+      <c r="AB54" s="56"/>
+      <c r="AC54" s="56"/>
+      <c r="AD54" s="56"/>
+      <c r="AE54" s="56"/>
+      <c r="AF54" s="56"/>
+      <c r="AG54" s="56"/>
+      <c r="AH54" s="56"/>
+      <c r="AI54" s="56"/>
+      <c r="AJ54" s="56"/>
+      <c r="AK54" s="56"/>
+      <c r="AL54" s="56"/>
+      <c r="AM54" s="56"/>
+      <c r="AN54" s="56"/>
+      <c r="AO54" s="56"/>
+      <c r="AP54" s="57"/>
+      <c r="AQ54" s="55"/>
+      <c r="AR54" s="56"/>
+      <c r="AS54" s="56"/>
+      <c r="AT54" s="56"/>
+      <c r="AU54" s="56"/>
+      <c r="AV54" s="56"/>
+      <c r="AW54" s="56"/>
+      <c r="AX54" s="56"/>
+      <c r="AY54" s="56"/>
+      <c r="AZ54" s="57"/>
     </row>
     <row r="55" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="52"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="35"/>
-      <c r="Y55" s="35"/>
-      <c r="Z55" s="35"/>
-      <c r="AA55" s="35"/>
-      <c r="AB55" s="35"/>
-      <c r="AC55" s="35"/>
-      <c r="AD55" s="35"/>
-      <c r="AE55" s="35"/>
-      <c r="AF55" s="35"/>
-      <c r="AG55" s="35"/>
-      <c r="AH55" s="35"/>
-      <c r="AI55" s="35"/>
-      <c r="AJ55" s="35"/>
-      <c r="AK55" s="35"/>
-      <c r="AL55" s="35"/>
-      <c r="AM55" s="35"/>
-      <c r="AN55" s="35"/>
-      <c r="AO55" s="35"/>
-      <c r="AP55" s="36"/>
-      <c r="AQ55" s="34"/>
-      <c r="AR55" s="35"/>
-      <c r="AS55" s="35"/>
-      <c r="AT55" s="35"/>
-      <c r="AU55" s="35"/>
-      <c r="AV55" s="35"/>
-      <c r="AW55" s="35"/>
-      <c r="AX55" s="35"/>
-      <c r="AY55" s="35"/>
-      <c r="AZ55" s="36"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="56"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="56"/>
+      <c r="T55" s="56"/>
+      <c r="U55" s="56"/>
+      <c r="V55" s="56"/>
+      <c r="W55" s="56"/>
+      <c r="X55" s="56"/>
+      <c r="Y55" s="56"/>
+      <c r="Z55" s="56"/>
+      <c r="AA55" s="56"/>
+      <c r="AB55" s="56"/>
+      <c r="AC55" s="56"/>
+      <c r="AD55" s="56"/>
+      <c r="AE55" s="56"/>
+      <c r="AF55" s="56"/>
+      <c r="AG55" s="56"/>
+      <c r="AH55" s="56"/>
+      <c r="AI55" s="56"/>
+      <c r="AJ55" s="56"/>
+      <c r="AK55" s="56"/>
+      <c r="AL55" s="56"/>
+      <c r="AM55" s="56"/>
+      <c r="AN55" s="56"/>
+      <c r="AO55" s="56"/>
+      <c r="AP55" s="57"/>
+      <c r="AQ55" s="55"/>
+      <c r="AR55" s="56"/>
+      <c r="AS55" s="56"/>
+      <c r="AT55" s="56"/>
+      <c r="AU55" s="56"/>
+      <c r="AV55" s="56"/>
+      <c r="AW55" s="56"/>
+      <c r="AX55" s="56"/>
+      <c r="AY55" s="56"/>
+      <c r="AZ55" s="57"/>
     </row>
     <row r="56" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="53"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="38"/>
-      <c r="P56" s="38"/>
-      <c r="Q56" s="38"/>
-      <c r="R56" s="38"/>
-      <c r="S56" s="38"/>
-      <c r="T56" s="38"/>
-      <c r="U56" s="38"/>
-      <c r="V56" s="38"/>
-      <c r="W56" s="38"/>
-      <c r="X56" s="38"/>
-      <c r="Y56" s="38"/>
-      <c r="Z56" s="38"/>
-      <c r="AA56" s="38"/>
-      <c r="AB56" s="38"/>
-      <c r="AC56" s="38"/>
-      <c r="AD56" s="38"/>
-      <c r="AE56" s="38"/>
-      <c r="AF56" s="38"/>
-      <c r="AG56" s="38"/>
-      <c r="AH56" s="38"/>
-      <c r="AI56" s="38"/>
-      <c r="AJ56" s="38"/>
-      <c r="AK56" s="38"/>
-      <c r="AL56" s="38"/>
-      <c r="AM56" s="38"/>
-      <c r="AN56" s="38"/>
-      <c r="AO56" s="38"/>
-      <c r="AP56" s="39"/>
-      <c r="AQ56" s="37"/>
-      <c r="AR56" s="38"/>
-      <c r="AS56" s="38"/>
-      <c r="AT56" s="38"/>
-      <c r="AU56" s="38"/>
-      <c r="AV56" s="38"/>
-      <c r="AW56" s="38"/>
-      <c r="AX56" s="38"/>
-      <c r="AY56" s="38"/>
-      <c r="AZ56" s="39"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="59"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="59"/>
+      <c r="Q56" s="59"/>
+      <c r="R56" s="59"/>
+      <c r="S56" s="59"/>
+      <c r="T56" s="59"/>
+      <c r="U56" s="59"/>
+      <c r="V56" s="59"/>
+      <c r="W56" s="59"/>
+      <c r="X56" s="59"/>
+      <c r="Y56" s="59"/>
+      <c r="Z56" s="59"/>
+      <c r="AA56" s="59"/>
+      <c r="AB56" s="59"/>
+      <c r="AC56" s="59"/>
+      <c r="AD56" s="59"/>
+      <c r="AE56" s="59"/>
+      <c r="AF56" s="59"/>
+      <c r="AG56" s="59"/>
+      <c r="AH56" s="59"/>
+      <c r="AI56" s="59"/>
+      <c r="AJ56" s="59"/>
+      <c r="AK56" s="59"/>
+      <c r="AL56" s="59"/>
+      <c r="AM56" s="59"/>
+      <c r="AN56" s="59"/>
+      <c r="AO56" s="59"/>
+      <c r="AP56" s="60"/>
+      <c r="AQ56" s="58"/>
+      <c r="AR56" s="59"/>
+      <c r="AS56" s="59"/>
+      <c r="AT56" s="59"/>
+      <c r="AU56" s="59"/>
+      <c r="AV56" s="59"/>
+      <c r="AW56" s="59"/>
+      <c r="AX56" s="59"/>
+      <c r="AY56" s="59"/>
+      <c r="AZ56" s="60"/>
     </row>
     <row r="57" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="59" t="s">
+      <c r="B57" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="60"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="12"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -7062,22 +7113,22 @@
       <c r="AZ57" s="2"/>
     </row>
     <row r="58" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="61"/>
-      <c r="C58" s="62"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="29"/>
       <c r="D58" s="15"/>
       <c r="AZ58" s="3"/>
     </row>
     <row r="59" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="61"/>
-      <c r="C59" s="62"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="29"/>
       <c r="D59" s="15"/>
       <c r="AZ59" s="3"/>
     </row>
     <row r="60" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="66" t="s">
+      <c r="B60" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="67"/>
+      <c r="C60" s="31"/>
       <c r="D60" s="16"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -7129,14 +7180,14 @@
       <c r="AZ60" s="18"/>
     </row>
     <row r="61" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="61"/>
-      <c r="C61" s="62"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="29"/>
       <c r="D61" s="15"/>
       <c r="AZ61" s="3"/>
     </row>
     <row r="62" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="68"/>
-      <c r="C62" s="69"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="33"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="6"/>
@@ -7188,544 +7239,544 @@
       <c r="AZ62" s="6"/>
     </row>
     <row r="63" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="55" t="s">
+      <c r="B63" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="56"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="32"/>
-      <c r="S63" s="32"/>
-      <c r="T63" s="32"/>
-      <c r="U63" s="32"/>
-      <c r="V63" s="32"/>
-      <c r="W63" s="32"/>
-      <c r="X63" s="32"/>
-      <c r="Y63" s="32"/>
-      <c r="Z63" s="32"/>
-      <c r="AA63" s="32"/>
-      <c r="AB63" s="32"/>
-      <c r="AC63" s="32"/>
-      <c r="AD63" s="32"/>
-      <c r="AE63" s="32"/>
-      <c r="AF63" s="32"/>
-      <c r="AG63" s="32"/>
-      <c r="AH63" s="32"/>
-      <c r="AI63" s="32"/>
-      <c r="AJ63" s="32"/>
-      <c r="AK63" s="32"/>
-      <c r="AL63" s="32"/>
-      <c r="AM63" s="32"/>
-      <c r="AN63" s="32"/>
-      <c r="AO63" s="32"/>
-      <c r="AP63" s="33"/>
-      <c r="AQ63" s="31"/>
-      <c r="AR63" s="32"/>
-      <c r="AS63" s="32"/>
-      <c r="AT63" s="32"/>
-      <c r="AU63" s="32"/>
-      <c r="AV63" s="32"/>
-      <c r="AW63" s="32"/>
-      <c r="AX63" s="32"/>
-      <c r="AY63" s="32"/>
-      <c r="AZ63" s="33"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="53"/>
+      <c r="M63" s="53"/>
+      <c r="N63" s="53"/>
+      <c r="O63" s="53"/>
+      <c r="P63" s="53"/>
+      <c r="Q63" s="53"/>
+      <c r="R63" s="53"/>
+      <c r="S63" s="53"/>
+      <c r="T63" s="53"/>
+      <c r="U63" s="53"/>
+      <c r="V63" s="53"/>
+      <c r="W63" s="53"/>
+      <c r="X63" s="53"/>
+      <c r="Y63" s="53"/>
+      <c r="Z63" s="53"/>
+      <c r="AA63" s="53"/>
+      <c r="AB63" s="53"/>
+      <c r="AC63" s="53"/>
+      <c r="AD63" s="53"/>
+      <c r="AE63" s="53"/>
+      <c r="AF63" s="53"/>
+      <c r="AG63" s="53"/>
+      <c r="AH63" s="53"/>
+      <c r="AI63" s="53"/>
+      <c r="AJ63" s="53"/>
+      <c r="AK63" s="53"/>
+      <c r="AL63" s="53"/>
+      <c r="AM63" s="53"/>
+      <c r="AN63" s="53"/>
+      <c r="AO63" s="53"/>
+      <c r="AP63" s="54"/>
+      <c r="AQ63" s="52"/>
+      <c r="AR63" s="53"/>
+      <c r="AS63" s="53"/>
+      <c r="AT63" s="53"/>
+      <c r="AU63" s="53"/>
+      <c r="AV63" s="53"/>
+      <c r="AW63" s="53"/>
+      <c r="AX63" s="53"/>
+      <c r="AY63" s="53"/>
+      <c r="AZ63" s="54"/>
     </row>
     <row r="64" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="57"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="35"/>
-      <c r="V64" s="35"/>
-      <c r="W64" s="35"/>
-      <c r="X64" s="35"/>
-      <c r="Y64" s="35"/>
-      <c r="Z64" s="35"/>
-      <c r="AA64" s="35"/>
-      <c r="AB64" s="35"/>
-      <c r="AC64" s="35"/>
-      <c r="AD64" s="35"/>
-      <c r="AE64" s="35"/>
-      <c r="AF64" s="35"/>
-      <c r="AG64" s="35"/>
-      <c r="AH64" s="35"/>
-      <c r="AI64" s="35"/>
-      <c r="AJ64" s="35"/>
-      <c r="AK64" s="35"/>
-      <c r="AL64" s="35"/>
-      <c r="AM64" s="35"/>
-      <c r="AN64" s="35"/>
-      <c r="AO64" s="35"/>
-      <c r="AP64" s="36"/>
-      <c r="AQ64" s="34"/>
-      <c r="AR64" s="35"/>
-      <c r="AS64" s="35"/>
-      <c r="AT64" s="35"/>
-      <c r="AU64" s="35"/>
-      <c r="AV64" s="35"/>
-      <c r="AW64" s="35"/>
-      <c r="AX64" s="35"/>
-      <c r="AY64" s="35"/>
-      <c r="AZ64" s="36"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="56"/>
+      <c r="O64" s="56"/>
+      <c r="P64" s="56"/>
+      <c r="Q64" s="56"/>
+      <c r="R64" s="56"/>
+      <c r="S64" s="56"/>
+      <c r="T64" s="56"/>
+      <c r="U64" s="56"/>
+      <c r="V64" s="56"/>
+      <c r="W64" s="56"/>
+      <c r="X64" s="56"/>
+      <c r="Y64" s="56"/>
+      <c r="Z64" s="56"/>
+      <c r="AA64" s="56"/>
+      <c r="AB64" s="56"/>
+      <c r="AC64" s="56"/>
+      <c r="AD64" s="56"/>
+      <c r="AE64" s="56"/>
+      <c r="AF64" s="56"/>
+      <c r="AG64" s="56"/>
+      <c r="AH64" s="56"/>
+      <c r="AI64" s="56"/>
+      <c r="AJ64" s="56"/>
+      <c r="AK64" s="56"/>
+      <c r="AL64" s="56"/>
+      <c r="AM64" s="56"/>
+      <c r="AN64" s="56"/>
+      <c r="AO64" s="56"/>
+      <c r="AP64" s="57"/>
+      <c r="AQ64" s="55"/>
+      <c r="AR64" s="56"/>
+      <c r="AS64" s="56"/>
+      <c r="AT64" s="56"/>
+      <c r="AU64" s="56"/>
+      <c r="AV64" s="56"/>
+      <c r="AW64" s="56"/>
+      <c r="AX64" s="56"/>
+      <c r="AY64" s="56"/>
+      <c r="AZ64" s="57"/>
     </row>
     <row r="65" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="57"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
-      <c r="S65" s="35"/>
-      <c r="T65" s="35"/>
-      <c r="U65" s="35"/>
-      <c r="V65" s="35"/>
-      <c r="W65" s="35"/>
-      <c r="X65" s="35"/>
-      <c r="Y65" s="35"/>
-      <c r="Z65" s="35"/>
-      <c r="AA65" s="35"/>
-      <c r="AB65" s="35"/>
-      <c r="AC65" s="35"/>
-      <c r="AD65" s="35"/>
-      <c r="AE65" s="35"/>
-      <c r="AF65" s="35"/>
-      <c r="AG65" s="35"/>
-      <c r="AH65" s="35"/>
-      <c r="AI65" s="35"/>
-      <c r="AJ65" s="35"/>
-      <c r="AK65" s="35"/>
-      <c r="AL65" s="35"/>
-      <c r="AM65" s="35"/>
-      <c r="AN65" s="35"/>
-      <c r="AO65" s="35"/>
-      <c r="AP65" s="36"/>
-      <c r="AQ65" s="34"/>
-      <c r="AR65" s="35"/>
-      <c r="AS65" s="35"/>
-      <c r="AT65" s="35"/>
-      <c r="AU65" s="35"/>
-      <c r="AV65" s="35"/>
-      <c r="AW65" s="35"/>
-      <c r="AX65" s="35"/>
-      <c r="AY65" s="35"/>
-      <c r="AZ65" s="36"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="56"/>
+      <c r="K65" s="56"/>
+      <c r="L65" s="56"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="56"/>
+      <c r="O65" s="56"/>
+      <c r="P65" s="56"/>
+      <c r="Q65" s="56"/>
+      <c r="R65" s="56"/>
+      <c r="S65" s="56"/>
+      <c r="T65" s="56"/>
+      <c r="U65" s="56"/>
+      <c r="V65" s="56"/>
+      <c r="W65" s="56"/>
+      <c r="X65" s="56"/>
+      <c r="Y65" s="56"/>
+      <c r="Z65" s="56"/>
+      <c r="AA65" s="56"/>
+      <c r="AB65" s="56"/>
+      <c r="AC65" s="56"/>
+      <c r="AD65" s="56"/>
+      <c r="AE65" s="56"/>
+      <c r="AF65" s="56"/>
+      <c r="AG65" s="56"/>
+      <c r="AH65" s="56"/>
+      <c r="AI65" s="56"/>
+      <c r="AJ65" s="56"/>
+      <c r="AK65" s="56"/>
+      <c r="AL65" s="56"/>
+      <c r="AM65" s="56"/>
+      <c r="AN65" s="56"/>
+      <c r="AO65" s="56"/>
+      <c r="AP65" s="57"/>
+      <c r="AQ65" s="55"/>
+      <c r="AR65" s="56"/>
+      <c r="AS65" s="56"/>
+      <c r="AT65" s="56"/>
+      <c r="AU65" s="56"/>
+      <c r="AV65" s="56"/>
+      <c r="AW65" s="56"/>
+      <c r="AX65" s="56"/>
+      <c r="AY65" s="56"/>
+      <c r="AZ65" s="57"/>
     </row>
     <row r="66" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="57"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
-      <c r="S66" s="35"/>
-      <c r="T66" s="35"/>
-      <c r="U66" s="35"/>
-      <c r="V66" s="35"/>
-      <c r="W66" s="35"/>
-      <c r="X66" s="35"/>
-      <c r="Y66" s="35"/>
-      <c r="Z66" s="35"/>
-      <c r="AA66" s="35"/>
-      <c r="AB66" s="35"/>
-      <c r="AC66" s="35"/>
-      <c r="AD66" s="35"/>
-      <c r="AE66" s="35"/>
-      <c r="AF66" s="35"/>
-      <c r="AG66" s="35"/>
-      <c r="AH66" s="35"/>
-      <c r="AI66" s="35"/>
-      <c r="AJ66" s="35"/>
-      <c r="AK66" s="35"/>
-      <c r="AL66" s="35"/>
-      <c r="AM66" s="35"/>
-      <c r="AN66" s="35"/>
-      <c r="AO66" s="35"/>
-      <c r="AP66" s="36"/>
-      <c r="AQ66" s="34"/>
-      <c r="AR66" s="35"/>
-      <c r="AS66" s="35"/>
-      <c r="AT66" s="35"/>
-      <c r="AU66" s="35"/>
-      <c r="AV66" s="35"/>
-      <c r="AW66" s="35"/>
-      <c r="AX66" s="35"/>
-      <c r="AY66" s="35"/>
-      <c r="AZ66" s="36"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="56"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="56"/>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="56"/>
+      <c r="S66" s="56"/>
+      <c r="T66" s="56"/>
+      <c r="U66" s="56"/>
+      <c r="V66" s="56"/>
+      <c r="W66" s="56"/>
+      <c r="X66" s="56"/>
+      <c r="Y66" s="56"/>
+      <c r="Z66" s="56"/>
+      <c r="AA66" s="56"/>
+      <c r="AB66" s="56"/>
+      <c r="AC66" s="56"/>
+      <c r="AD66" s="56"/>
+      <c r="AE66" s="56"/>
+      <c r="AF66" s="56"/>
+      <c r="AG66" s="56"/>
+      <c r="AH66" s="56"/>
+      <c r="AI66" s="56"/>
+      <c r="AJ66" s="56"/>
+      <c r="AK66" s="56"/>
+      <c r="AL66" s="56"/>
+      <c r="AM66" s="56"/>
+      <c r="AN66" s="56"/>
+      <c r="AO66" s="56"/>
+      <c r="AP66" s="57"/>
+      <c r="AQ66" s="55"/>
+      <c r="AR66" s="56"/>
+      <c r="AS66" s="56"/>
+      <c r="AT66" s="56"/>
+      <c r="AU66" s="56"/>
+      <c r="AV66" s="56"/>
+      <c r="AW66" s="56"/>
+      <c r="AX66" s="56"/>
+      <c r="AY66" s="56"/>
+      <c r="AZ66" s="57"/>
     </row>
     <row r="67" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="57"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35"/>
-      <c r="S67" s="35"/>
-      <c r="T67" s="35"/>
-      <c r="U67" s="35"/>
-      <c r="V67" s="35"/>
-      <c r="W67" s="35"/>
-      <c r="X67" s="35"/>
-      <c r="Y67" s="35"/>
-      <c r="Z67" s="35"/>
-      <c r="AA67" s="35"/>
-      <c r="AB67" s="35"/>
-      <c r="AC67" s="35"/>
-      <c r="AD67" s="35"/>
-      <c r="AE67" s="35"/>
-      <c r="AF67" s="35"/>
-      <c r="AG67" s="35"/>
-      <c r="AH67" s="35"/>
-      <c r="AI67" s="35"/>
-      <c r="AJ67" s="35"/>
-      <c r="AK67" s="35"/>
-      <c r="AL67" s="35"/>
-      <c r="AM67" s="35"/>
-      <c r="AN67" s="35"/>
-      <c r="AO67" s="35"/>
-      <c r="AP67" s="36"/>
-      <c r="AQ67" s="34"/>
-      <c r="AR67" s="35"/>
-      <c r="AS67" s="35"/>
-      <c r="AT67" s="35"/>
-      <c r="AU67" s="35"/>
-      <c r="AV67" s="35"/>
-      <c r="AW67" s="35"/>
-      <c r="AX67" s="35"/>
-      <c r="AY67" s="35"/>
-      <c r="AZ67" s="36"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="56"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="56"/>
+      <c r="P67" s="56"/>
+      <c r="Q67" s="56"/>
+      <c r="R67" s="56"/>
+      <c r="S67" s="56"/>
+      <c r="T67" s="56"/>
+      <c r="U67" s="56"/>
+      <c r="V67" s="56"/>
+      <c r="W67" s="56"/>
+      <c r="X67" s="56"/>
+      <c r="Y67" s="56"/>
+      <c r="Z67" s="56"/>
+      <c r="AA67" s="56"/>
+      <c r="AB67" s="56"/>
+      <c r="AC67" s="56"/>
+      <c r="AD67" s="56"/>
+      <c r="AE67" s="56"/>
+      <c r="AF67" s="56"/>
+      <c r="AG67" s="56"/>
+      <c r="AH67" s="56"/>
+      <c r="AI67" s="56"/>
+      <c r="AJ67" s="56"/>
+      <c r="AK67" s="56"/>
+      <c r="AL67" s="56"/>
+      <c r="AM67" s="56"/>
+      <c r="AN67" s="56"/>
+      <c r="AO67" s="56"/>
+      <c r="AP67" s="57"/>
+      <c r="AQ67" s="55"/>
+      <c r="AR67" s="56"/>
+      <c r="AS67" s="56"/>
+      <c r="AT67" s="56"/>
+      <c r="AU67" s="56"/>
+      <c r="AV67" s="56"/>
+      <c r="AW67" s="56"/>
+      <c r="AX67" s="56"/>
+      <c r="AY67" s="56"/>
+      <c r="AZ67" s="57"/>
     </row>
     <row r="68" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="57"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="35"/>
-      <c r="O68" s="35"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
-      <c r="R68" s="35"/>
-      <c r="S68" s="35"/>
-      <c r="T68" s="35"/>
-      <c r="U68" s="35"/>
-      <c r="V68" s="35"/>
-      <c r="W68" s="35"/>
-      <c r="X68" s="35"/>
-      <c r="Y68" s="35"/>
-      <c r="Z68" s="35"/>
-      <c r="AA68" s="35"/>
-      <c r="AB68" s="35"/>
-      <c r="AC68" s="35"/>
-      <c r="AD68" s="35"/>
-      <c r="AE68" s="35"/>
-      <c r="AF68" s="35"/>
-      <c r="AG68" s="35"/>
-      <c r="AH68" s="35"/>
-      <c r="AI68" s="35"/>
-      <c r="AJ68" s="35"/>
-      <c r="AK68" s="35"/>
-      <c r="AL68" s="35"/>
-      <c r="AM68" s="35"/>
-      <c r="AN68" s="35"/>
-      <c r="AO68" s="35"/>
-      <c r="AP68" s="36"/>
-      <c r="AQ68" s="34"/>
-      <c r="AR68" s="35"/>
-      <c r="AS68" s="35"/>
-      <c r="AT68" s="35"/>
-      <c r="AU68" s="35"/>
-      <c r="AV68" s="35"/>
-      <c r="AW68" s="35"/>
-      <c r="AX68" s="35"/>
-      <c r="AY68" s="35"/>
-      <c r="AZ68" s="36"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="56"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="56"/>
+      <c r="O68" s="56"/>
+      <c r="P68" s="56"/>
+      <c r="Q68" s="56"/>
+      <c r="R68" s="56"/>
+      <c r="S68" s="56"/>
+      <c r="T68" s="56"/>
+      <c r="U68" s="56"/>
+      <c r="V68" s="56"/>
+      <c r="W68" s="56"/>
+      <c r="X68" s="56"/>
+      <c r="Y68" s="56"/>
+      <c r="Z68" s="56"/>
+      <c r="AA68" s="56"/>
+      <c r="AB68" s="56"/>
+      <c r="AC68" s="56"/>
+      <c r="AD68" s="56"/>
+      <c r="AE68" s="56"/>
+      <c r="AF68" s="56"/>
+      <c r="AG68" s="56"/>
+      <c r="AH68" s="56"/>
+      <c r="AI68" s="56"/>
+      <c r="AJ68" s="56"/>
+      <c r="AK68" s="56"/>
+      <c r="AL68" s="56"/>
+      <c r="AM68" s="56"/>
+      <c r="AN68" s="56"/>
+      <c r="AO68" s="56"/>
+      <c r="AP68" s="57"/>
+      <c r="AQ68" s="55"/>
+      <c r="AR68" s="56"/>
+      <c r="AS68" s="56"/>
+      <c r="AT68" s="56"/>
+      <c r="AU68" s="56"/>
+      <c r="AV68" s="56"/>
+      <c r="AW68" s="56"/>
+      <c r="AX68" s="56"/>
+      <c r="AY68" s="56"/>
+      <c r="AZ68" s="57"/>
     </row>
     <row r="69" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="57"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
-      <c r="S69" s="35"/>
-      <c r="T69" s="35"/>
-      <c r="U69" s="35"/>
-      <c r="V69" s="35"/>
-      <c r="W69" s="35"/>
-      <c r="X69" s="35"/>
-      <c r="Y69" s="35"/>
-      <c r="Z69" s="35"/>
-      <c r="AA69" s="35"/>
-      <c r="AB69" s="35"/>
-      <c r="AC69" s="35"/>
-      <c r="AD69" s="35"/>
-      <c r="AE69" s="35"/>
-      <c r="AF69" s="35"/>
-      <c r="AG69" s="35"/>
-      <c r="AH69" s="35"/>
-      <c r="AI69" s="35"/>
-      <c r="AJ69" s="35"/>
-      <c r="AK69" s="35"/>
-      <c r="AL69" s="35"/>
-      <c r="AM69" s="35"/>
-      <c r="AN69" s="35"/>
-      <c r="AO69" s="35"/>
-      <c r="AP69" s="36"/>
-      <c r="AQ69" s="34"/>
-      <c r="AR69" s="35"/>
-      <c r="AS69" s="35"/>
-      <c r="AT69" s="35"/>
-      <c r="AU69" s="35"/>
-      <c r="AV69" s="35"/>
-      <c r="AW69" s="35"/>
-      <c r="AX69" s="35"/>
-      <c r="AY69" s="35"/>
-      <c r="AZ69" s="36"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
+      <c r="L69" s="56"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="56"/>
+      <c r="O69" s="56"/>
+      <c r="P69" s="56"/>
+      <c r="Q69" s="56"/>
+      <c r="R69" s="56"/>
+      <c r="S69" s="56"/>
+      <c r="T69" s="56"/>
+      <c r="U69" s="56"/>
+      <c r="V69" s="56"/>
+      <c r="W69" s="56"/>
+      <c r="X69" s="56"/>
+      <c r="Y69" s="56"/>
+      <c r="Z69" s="56"/>
+      <c r="AA69" s="56"/>
+      <c r="AB69" s="56"/>
+      <c r="AC69" s="56"/>
+      <c r="AD69" s="56"/>
+      <c r="AE69" s="56"/>
+      <c r="AF69" s="56"/>
+      <c r="AG69" s="56"/>
+      <c r="AH69" s="56"/>
+      <c r="AI69" s="56"/>
+      <c r="AJ69" s="56"/>
+      <c r="AK69" s="56"/>
+      <c r="AL69" s="56"/>
+      <c r="AM69" s="56"/>
+      <c r="AN69" s="56"/>
+      <c r="AO69" s="56"/>
+      <c r="AP69" s="57"/>
+      <c r="AQ69" s="55"/>
+      <c r="AR69" s="56"/>
+      <c r="AS69" s="56"/>
+      <c r="AT69" s="56"/>
+      <c r="AU69" s="56"/>
+      <c r="AV69" s="56"/>
+      <c r="AW69" s="56"/>
+      <c r="AX69" s="56"/>
+      <c r="AY69" s="56"/>
+      <c r="AZ69" s="57"/>
     </row>
     <row r="70" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="57"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
-      <c r="U70" s="35"/>
-      <c r="V70" s="35"/>
-      <c r="W70" s="35"/>
-      <c r="X70" s="35"/>
-      <c r="Y70" s="35"/>
-      <c r="Z70" s="35"/>
-      <c r="AA70" s="35"/>
-      <c r="AB70" s="35"/>
-      <c r="AC70" s="35"/>
-      <c r="AD70" s="35"/>
-      <c r="AE70" s="35"/>
-      <c r="AF70" s="35"/>
-      <c r="AG70" s="35"/>
-      <c r="AH70" s="35"/>
-      <c r="AI70" s="35"/>
-      <c r="AJ70" s="35"/>
-      <c r="AK70" s="35"/>
-      <c r="AL70" s="35"/>
-      <c r="AM70" s="35"/>
-      <c r="AN70" s="35"/>
-      <c r="AO70" s="35"/>
-      <c r="AP70" s="36"/>
-      <c r="AQ70" s="34"/>
-      <c r="AR70" s="35"/>
-      <c r="AS70" s="35"/>
-      <c r="AT70" s="35"/>
-      <c r="AU70" s="35"/>
-      <c r="AV70" s="35"/>
-      <c r="AW70" s="35"/>
-      <c r="AX70" s="35"/>
-      <c r="AY70" s="35"/>
-      <c r="AZ70" s="36"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="56"/>
+      <c r="O70" s="56"/>
+      <c r="P70" s="56"/>
+      <c r="Q70" s="56"/>
+      <c r="R70" s="56"/>
+      <c r="S70" s="56"/>
+      <c r="T70" s="56"/>
+      <c r="U70" s="56"/>
+      <c r="V70" s="56"/>
+      <c r="W70" s="56"/>
+      <c r="X70" s="56"/>
+      <c r="Y70" s="56"/>
+      <c r="Z70" s="56"/>
+      <c r="AA70" s="56"/>
+      <c r="AB70" s="56"/>
+      <c r="AC70" s="56"/>
+      <c r="AD70" s="56"/>
+      <c r="AE70" s="56"/>
+      <c r="AF70" s="56"/>
+      <c r="AG70" s="56"/>
+      <c r="AH70" s="56"/>
+      <c r="AI70" s="56"/>
+      <c r="AJ70" s="56"/>
+      <c r="AK70" s="56"/>
+      <c r="AL70" s="56"/>
+      <c r="AM70" s="56"/>
+      <c r="AN70" s="56"/>
+      <c r="AO70" s="56"/>
+      <c r="AP70" s="57"/>
+      <c r="AQ70" s="55"/>
+      <c r="AR70" s="56"/>
+      <c r="AS70" s="56"/>
+      <c r="AT70" s="56"/>
+      <c r="AU70" s="56"/>
+      <c r="AV70" s="56"/>
+      <c r="AW70" s="56"/>
+      <c r="AX70" s="56"/>
+      <c r="AY70" s="56"/>
+      <c r="AZ70" s="57"/>
     </row>
     <row r="71" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="52"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="35"/>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35"/>
-      <c r="R71" s="35"/>
-      <c r="S71" s="35"/>
-      <c r="T71" s="35"/>
-      <c r="U71" s="35"/>
-      <c r="V71" s="35"/>
-      <c r="W71" s="35"/>
-      <c r="X71" s="35"/>
-      <c r="Y71" s="35"/>
-      <c r="Z71" s="35"/>
-      <c r="AA71" s="35"/>
-      <c r="AB71" s="35"/>
-      <c r="AC71" s="35"/>
-      <c r="AD71" s="35"/>
-      <c r="AE71" s="35"/>
-      <c r="AF71" s="35"/>
-      <c r="AG71" s="35"/>
-      <c r="AH71" s="35"/>
-      <c r="AI71" s="35"/>
-      <c r="AJ71" s="35"/>
-      <c r="AK71" s="35"/>
-      <c r="AL71" s="35"/>
-      <c r="AM71" s="35"/>
-      <c r="AN71" s="35"/>
-      <c r="AO71" s="35"/>
-      <c r="AP71" s="36"/>
-      <c r="AQ71" s="34"/>
-      <c r="AR71" s="35"/>
-      <c r="AS71" s="35"/>
-      <c r="AT71" s="35"/>
-      <c r="AU71" s="35"/>
-      <c r="AV71" s="35"/>
-      <c r="AW71" s="35"/>
-      <c r="AX71" s="35"/>
-      <c r="AY71" s="35"/>
-      <c r="AZ71" s="36"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="56"/>
+      <c r="L71" s="56"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56"/>
+      <c r="O71" s="56"/>
+      <c r="P71" s="56"/>
+      <c r="Q71" s="56"/>
+      <c r="R71" s="56"/>
+      <c r="S71" s="56"/>
+      <c r="T71" s="56"/>
+      <c r="U71" s="56"/>
+      <c r="V71" s="56"/>
+      <c r="W71" s="56"/>
+      <c r="X71" s="56"/>
+      <c r="Y71" s="56"/>
+      <c r="Z71" s="56"/>
+      <c r="AA71" s="56"/>
+      <c r="AB71" s="56"/>
+      <c r="AC71" s="56"/>
+      <c r="AD71" s="56"/>
+      <c r="AE71" s="56"/>
+      <c r="AF71" s="56"/>
+      <c r="AG71" s="56"/>
+      <c r="AH71" s="56"/>
+      <c r="AI71" s="56"/>
+      <c r="AJ71" s="56"/>
+      <c r="AK71" s="56"/>
+      <c r="AL71" s="56"/>
+      <c r="AM71" s="56"/>
+      <c r="AN71" s="56"/>
+      <c r="AO71" s="56"/>
+      <c r="AP71" s="57"/>
+      <c r="AQ71" s="55"/>
+      <c r="AR71" s="56"/>
+      <c r="AS71" s="56"/>
+      <c r="AT71" s="56"/>
+      <c r="AU71" s="56"/>
+      <c r="AV71" s="56"/>
+      <c r="AW71" s="56"/>
+      <c r="AX71" s="56"/>
+      <c r="AY71" s="56"/>
+      <c r="AZ71" s="57"/>
     </row>
     <row r="72" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="53"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="38"/>
-      <c r="O72" s="38"/>
-      <c r="P72" s="38"/>
-      <c r="Q72" s="38"/>
-      <c r="R72" s="38"/>
-      <c r="S72" s="38"/>
-      <c r="T72" s="38"/>
-      <c r="U72" s="38"/>
-      <c r="V72" s="38"/>
-      <c r="W72" s="38"/>
-      <c r="X72" s="38"/>
-      <c r="Y72" s="38"/>
-      <c r="Z72" s="38"/>
-      <c r="AA72" s="38"/>
-      <c r="AB72" s="38"/>
-      <c r="AC72" s="38"/>
-      <c r="AD72" s="38"/>
-      <c r="AE72" s="38"/>
-      <c r="AF72" s="38"/>
-      <c r="AG72" s="38"/>
-      <c r="AH72" s="38"/>
-      <c r="AI72" s="38"/>
-      <c r="AJ72" s="38"/>
-      <c r="AK72" s="38"/>
-      <c r="AL72" s="38"/>
-      <c r="AM72" s="38"/>
-      <c r="AN72" s="38"/>
-      <c r="AO72" s="38"/>
-      <c r="AP72" s="39"/>
-      <c r="AQ72" s="37"/>
-      <c r="AR72" s="38"/>
-      <c r="AS72" s="38"/>
-      <c r="AT72" s="38"/>
-      <c r="AU72" s="38"/>
-      <c r="AV72" s="38"/>
-      <c r="AW72" s="38"/>
-      <c r="AX72" s="38"/>
-      <c r="AY72" s="38"/>
-      <c r="AZ72" s="39"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="59"/>
+      <c r="M72" s="59"/>
+      <c r="N72" s="59"/>
+      <c r="O72" s="59"/>
+      <c r="P72" s="59"/>
+      <c r="Q72" s="59"/>
+      <c r="R72" s="59"/>
+      <c r="S72" s="59"/>
+      <c r="T72" s="59"/>
+      <c r="U72" s="59"/>
+      <c r="V72" s="59"/>
+      <c r="W72" s="59"/>
+      <c r="X72" s="59"/>
+      <c r="Y72" s="59"/>
+      <c r="Z72" s="59"/>
+      <c r="AA72" s="59"/>
+      <c r="AB72" s="59"/>
+      <c r="AC72" s="59"/>
+      <c r="AD72" s="59"/>
+      <c r="AE72" s="59"/>
+      <c r="AF72" s="59"/>
+      <c r="AG72" s="59"/>
+      <c r="AH72" s="59"/>
+      <c r="AI72" s="59"/>
+      <c r="AJ72" s="59"/>
+      <c r="AK72" s="59"/>
+      <c r="AL72" s="59"/>
+      <c r="AM72" s="59"/>
+      <c r="AN72" s="59"/>
+      <c r="AO72" s="59"/>
+      <c r="AP72" s="60"/>
+      <c r="AQ72" s="58"/>
+      <c r="AR72" s="59"/>
+      <c r="AS72" s="59"/>
+      <c r="AT72" s="59"/>
+      <c r="AU72" s="59"/>
+      <c r="AV72" s="59"/>
+      <c r="AW72" s="59"/>
+      <c r="AX72" s="59"/>
+      <c r="AY72" s="59"/>
+      <c r="AZ72" s="60"/>
     </row>
     <row r="73" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="59" t="s">
+      <c r="B73" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="60"/>
+      <c r="C73" s="27"/>
       <c r="D73" s="12"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -7777,22 +7828,22 @@
       <c r="AZ73" s="2"/>
     </row>
     <row r="74" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="61"/>
-      <c r="C74" s="62"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="29"/>
       <c r="D74" s="15"/>
       <c r="AZ74" s="3"/>
     </row>
     <row r="75" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="61"/>
-      <c r="C75" s="62"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="29"/>
       <c r="D75" s="15"/>
       <c r="AZ75" s="3"/>
     </row>
     <row r="76" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="66" t="s">
+      <c r="B76" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="67"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="16"/>
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
@@ -7844,14 +7895,14 @@
       <c r="AZ76" s="18"/>
     </row>
     <row r="77" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="61"/>
-      <c r="C77" s="62"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="29"/>
       <c r="D77" s="15"/>
       <c r="AZ77" s="3"/>
     </row>
     <row r="78" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="68"/>
-      <c r="C78" s="69"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="33"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="6"/>
@@ -7903,552 +7954,552 @@
       <c r="AZ78" s="6"/>
     </row>
     <row r="79" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="55" t="s">
+      <c r="B79" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="56"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="32"/>
-      <c r="L79" s="32"/>
-      <c r="M79" s="32"/>
-      <c r="N79" s="32"/>
-      <c r="O79" s="32"/>
-      <c r="P79" s="32"/>
-      <c r="Q79" s="32"/>
-      <c r="R79" s="32"/>
-      <c r="S79" s="32"/>
-      <c r="T79" s="32"/>
-      <c r="U79" s="32"/>
-      <c r="V79" s="32"/>
-      <c r="W79" s="32"/>
-      <c r="X79" s="32"/>
-      <c r="Y79" s="32"/>
-      <c r="Z79" s="32"/>
-      <c r="AA79" s="32"/>
-      <c r="AB79" s="32"/>
-      <c r="AC79" s="32"/>
-      <c r="AD79" s="32"/>
-      <c r="AE79" s="32"/>
-      <c r="AF79" s="32"/>
-      <c r="AG79" s="32"/>
-      <c r="AH79" s="32"/>
-      <c r="AI79" s="32"/>
-      <c r="AJ79" s="32"/>
-      <c r="AK79" s="32"/>
-      <c r="AL79" s="32"/>
-      <c r="AM79" s="32"/>
-      <c r="AN79" s="32"/>
-      <c r="AO79" s="32"/>
-      <c r="AP79" s="33"/>
-      <c r="AQ79" s="31"/>
-      <c r="AR79" s="32"/>
-      <c r="AS79" s="32"/>
-      <c r="AT79" s="32"/>
-      <c r="AU79" s="32"/>
-      <c r="AV79" s="32"/>
-      <c r="AW79" s="32"/>
-      <c r="AX79" s="32"/>
-      <c r="AY79" s="32"/>
-      <c r="AZ79" s="33"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="52"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="53"/>
+      <c r="H79" s="53"/>
+      <c r="I79" s="53"/>
+      <c r="J79" s="53"/>
+      <c r="K79" s="53"/>
+      <c r="L79" s="53"/>
+      <c r="M79" s="53"/>
+      <c r="N79" s="53"/>
+      <c r="O79" s="53"/>
+      <c r="P79" s="53"/>
+      <c r="Q79" s="53"/>
+      <c r="R79" s="53"/>
+      <c r="S79" s="53"/>
+      <c r="T79" s="53"/>
+      <c r="U79" s="53"/>
+      <c r="V79" s="53"/>
+      <c r="W79" s="53"/>
+      <c r="X79" s="53"/>
+      <c r="Y79" s="53"/>
+      <c r="Z79" s="53"/>
+      <c r="AA79" s="53"/>
+      <c r="AB79" s="53"/>
+      <c r="AC79" s="53"/>
+      <c r="AD79" s="53"/>
+      <c r="AE79" s="53"/>
+      <c r="AF79" s="53"/>
+      <c r="AG79" s="53"/>
+      <c r="AH79" s="53"/>
+      <c r="AI79" s="53"/>
+      <c r="AJ79" s="53"/>
+      <c r="AK79" s="53"/>
+      <c r="AL79" s="53"/>
+      <c r="AM79" s="53"/>
+      <c r="AN79" s="53"/>
+      <c r="AO79" s="53"/>
+      <c r="AP79" s="54"/>
+      <c r="AQ79" s="52"/>
+      <c r="AR79" s="53"/>
+      <c r="AS79" s="53"/>
+      <c r="AT79" s="53"/>
+      <c r="AU79" s="53"/>
+      <c r="AV79" s="53"/>
+      <c r="AW79" s="53"/>
+      <c r="AX79" s="53"/>
+      <c r="AY79" s="53"/>
+      <c r="AZ79" s="54"/>
     </row>
     <row r="80" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="57"/>
-      <c r="C80" s="58"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="35"/>
-      <c r="K80" s="35"/>
-      <c r="L80" s="35"/>
-      <c r="M80" s="35"/>
-      <c r="N80" s="35"/>
-      <c r="O80" s="35"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="35"/>
-      <c r="R80" s="35"/>
-      <c r="S80" s="35"/>
-      <c r="T80" s="35"/>
-      <c r="U80" s="35"/>
-      <c r="V80" s="35"/>
-      <c r="W80" s="35"/>
-      <c r="X80" s="35"/>
-      <c r="Y80" s="35"/>
-      <c r="Z80" s="35"/>
-      <c r="AA80" s="35"/>
-      <c r="AB80" s="35"/>
-      <c r="AC80" s="35"/>
-      <c r="AD80" s="35"/>
-      <c r="AE80" s="35"/>
-      <c r="AF80" s="35"/>
-      <c r="AG80" s="35"/>
-      <c r="AH80" s="35"/>
-      <c r="AI80" s="35"/>
-      <c r="AJ80" s="35"/>
-      <c r="AK80" s="35"/>
-      <c r="AL80" s="35"/>
-      <c r="AM80" s="35"/>
-      <c r="AN80" s="35"/>
-      <c r="AO80" s="35"/>
-      <c r="AP80" s="36"/>
-      <c r="AQ80" s="34"/>
-      <c r="AR80" s="35"/>
-      <c r="AS80" s="35"/>
-      <c r="AT80" s="35"/>
-      <c r="AU80" s="35"/>
-      <c r="AV80" s="35"/>
-      <c r="AW80" s="35"/>
-      <c r="AX80" s="35"/>
-      <c r="AY80" s="35"/>
-      <c r="AZ80" s="36"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="56"/>
+      <c r="M80" s="56"/>
+      <c r="N80" s="56"/>
+      <c r="O80" s="56"/>
+      <c r="P80" s="56"/>
+      <c r="Q80" s="56"/>
+      <c r="R80" s="56"/>
+      <c r="S80" s="56"/>
+      <c r="T80" s="56"/>
+      <c r="U80" s="56"/>
+      <c r="V80" s="56"/>
+      <c r="W80" s="56"/>
+      <c r="X80" s="56"/>
+      <c r="Y80" s="56"/>
+      <c r="Z80" s="56"/>
+      <c r="AA80" s="56"/>
+      <c r="AB80" s="56"/>
+      <c r="AC80" s="56"/>
+      <c r="AD80" s="56"/>
+      <c r="AE80" s="56"/>
+      <c r="AF80" s="56"/>
+      <c r="AG80" s="56"/>
+      <c r="AH80" s="56"/>
+      <c r="AI80" s="56"/>
+      <c r="AJ80" s="56"/>
+      <c r="AK80" s="56"/>
+      <c r="AL80" s="56"/>
+      <c r="AM80" s="56"/>
+      <c r="AN80" s="56"/>
+      <c r="AO80" s="56"/>
+      <c r="AP80" s="57"/>
+      <c r="AQ80" s="55"/>
+      <c r="AR80" s="56"/>
+      <c r="AS80" s="56"/>
+      <c r="AT80" s="56"/>
+      <c r="AU80" s="56"/>
+      <c r="AV80" s="56"/>
+      <c r="AW80" s="56"/>
+      <c r="AX80" s="56"/>
+      <c r="AY80" s="56"/>
+      <c r="AZ80" s="57"/>
     </row>
     <row r="81" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="57"/>
-      <c r="C81" s="58"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="35"/>
-      <c r="K81" s="35"/>
-      <c r="L81" s="35"/>
-      <c r="M81" s="35"/>
-      <c r="N81" s="35"/>
-      <c r="O81" s="35"/>
-      <c r="P81" s="35"/>
-      <c r="Q81" s="35"/>
-      <c r="R81" s="35"/>
-      <c r="S81" s="35"/>
-      <c r="T81" s="35"/>
-      <c r="U81" s="35"/>
-      <c r="V81" s="35"/>
-      <c r="W81" s="35"/>
-      <c r="X81" s="35"/>
-      <c r="Y81" s="35"/>
-      <c r="Z81" s="35"/>
-      <c r="AA81" s="35"/>
-      <c r="AB81" s="35"/>
-      <c r="AC81" s="35"/>
-      <c r="AD81" s="35"/>
-      <c r="AE81" s="35"/>
-      <c r="AF81" s="35"/>
-      <c r="AG81" s="35"/>
-      <c r="AH81" s="35"/>
-      <c r="AI81" s="35"/>
-      <c r="AJ81" s="35"/>
-      <c r="AK81" s="35"/>
-      <c r="AL81" s="35"/>
-      <c r="AM81" s="35"/>
-      <c r="AN81" s="35"/>
-      <c r="AO81" s="35"/>
-      <c r="AP81" s="36"/>
-      <c r="AQ81" s="34"/>
-      <c r="AR81" s="35"/>
-      <c r="AS81" s="35"/>
-      <c r="AT81" s="35"/>
-      <c r="AU81" s="35"/>
-      <c r="AV81" s="35"/>
-      <c r="AW81" s="35"/>
-      <c r="AX81" s="35"/>
-      <c r="AY81" s="35"/>
-      <c r="AZ81" s="36"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="56"/>
+      <c r="K81" s="56"/>
+      <c r="L81" s="56"/>
+      <c r="M81" s="56"/>
+      <c r="N81" s="56"/>
+      <c r="O81" s="56"/>
+      <c r="P81" s="56"/>
+      <c r="Q81" s="56"/>
+      <c r="R81" s="56"/>
+      <c r="S81" s="56"/>
+      <c r="T81" s="56"/>
+      <c r="U81" s="56"/>
+      <c r="V81" s="56"/>
+      <c r="W81" s="56"/>
+      <c r="X81" s="56"/>
+      <c r="Y81" s="56"/>
+      <c r="Z81" s="56"/>
+      <c r="AA81" s="56"/>
+      <c r="AB81" s="56"/>
+      <c r="AC81" s="56"/>
+      <c r="AD81" s="56"/>
+      <c r="AE81" s="56"/>
+      <c r="AF81" s="56"/>
+      <c r="AG81" s="56"/>
+      <c r="AH81" s="56"/>
+      <c r="AI81" s="56"/>
+      <c r="AJ81" s="56"/>
+      <c r="AK81" s="56"/>
+      <c r="AL81" s="56"/>
+      <c r="AM81" s="56"/>
+      <c r="AN81" s="56"/>
+      <c r="AO81" s="56"/>
+      <c r="AP81" s="57"/>
+      <c r="AQ81" s="55"/>
+      <c r="AR81" s="56"/>
+      <c r="AS81" s="56"/>
+      <c r="AT81" s="56"/>
+      <c r="AU81" s="56"/>
+      <c r="AV81" s="56"/>
+      <c r="AW81" s="56"/>
+      <c r="AX81" s="56"/>
+      <c r="AY81" s="56"/>
+      <c r="AZ81" s="57"/>
     </row>
     <row r="82" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="57"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="35"/>
-      <c r="N82" s="35"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="35"/>
-      <c r="Q82" s="35"/>
-      <c r="R82" s="35"/>
-      <c r="S82" s="35"/>
-      <c r="T82" s="35"/>
-      <c r="U82" s="35"/>
-      <c r="V82" s="35"/>
-      <c r="W82" s="35"/>
-      <c r="X82" s="35"/>
-      <c r="Y82" s="35"/>
-      <c r="Z82" s="35"/>
-      <c r="AA82" s="35"/>
-      <c r="AB82" s="35"/>
-      <c r="AC82" s="35"/>
-      <c r="AD82" s="35"/>
-      <c r="AE82" s="35"/>
-      <c r="AF82" s="35"/>
-      <c r="AG82" s="35"/>
-      <c r="AH82" s="35"/>
-      <c r="AI82" s="35"/>
-      <c r="AJ82" s="35"/>
-      <c r="AK82" s="35"/>
-      <c r="AL82" s="35"/>
-      <c r="AM82" s="35"/>
-      <c r="AN82" s="35"/>
-      <c r="AO82" s="35"/>
-      <c r="AP82" s="36"/>
-      <c r="AQ82" s="34"/>
-      <c r="AR82" s="35"/>
-      <c r="AS82" s="35"/>
-      <c r="AT82" s="35"/>
-      <c r="AU82" s="35"/>
-      <c r="AV82" s="35"/>
-      <c r="AW82" s="35"/>
-      <c r="AX82" s="35"/>
-      <c r="AY82" s="35"/>
-      <c r="AZ82" s="36"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="56"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="56"/>
+      <c r="L82" s="56"/>
+      <c r="M82" s="56"/>
+      <c r="N82" s="56"/>
+      <c r="O82" s="56"/>
+      <c r="P82" s="56"/>
+      <c r="Q82" s="56"/>
+      <c r="R82" s="56"/>
+      <c r="S82" s="56"/>
+      <c r="T82" s="56"/>
+      <c r="U82" s="56"/>
+      <c r="V82" s="56"/>
+      <c r="W82" s="56"/>
+      <c r="X82" s="56"/>
+      <c r="Y82" s="56"/>
+      <c r="Z82" s="56"/>
+      <c r="AA82" s="56"/>
+      <c r="AB82" s="56"/>
+      <c r="AC82" s="56"/>
+      <c r="AD82" s="56"/>
+      <c r="AE82" s="56"/>
+      <c r="AF82" s="56"/>
+      <c r="AG82" s="56"/>
+      <c r="AH82" s="56"/>
+      <c r="AI82" s="56"/>
+      <c r="AJ82" s="56"/>
+      <c r="AK82" s="56"/>
+      <c r="AL82" s="56"/>
+      <c r="AM82" s="56"/>
+      <c r="AN82" s="56"/>
+      <c r="AO82" s="56"/>
+      <c r="AP82" s="57"/>
+      <c r="AQ82" s="55"/>
+      <c r="AR82" s="56"/>
+      <c r="AS82" s="56"/>
+      <c r="AT82" s="56"/>
+      <c r="AU82" s="56"/>
+      <c r="AV82" s="56"/>
+      <c r="AW82" s="56"/>
+      <c r="AX82" s="56"/>
+      <c r="AY82" s="56"/>
+      <c r="AZ82" s="57"/>
     </row>
     <row r="83" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="57"/>
-      <c r="C83" s="58"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="35"/>
-      <c r="K83" s="35"/>
-      <c r="L83" s="35"/>
-      <c r="M83" s="35"/>
-      <c r="N83" s="35"/>
-      <c r="O83" s="35"/>
-      <c r="P83" s="35"/>
-      <c r="Q83" s="35"/>
-      <c r="R83" s="35"/>
-      <c r="S83" s="35"/>
-      <c r="T83" s="35"/>
-      <c r="U83" s="35"/>
-      <c r="V83" s="35"/>
-      <c r="W83" s="35"/>
-      <c r="X83" s="35"/>
-      <c r="Y83" s="35"/>
-      <c r="Z83" s="35"/>
-      <c r="AA83" s="35"/>
-      <c r="AB83" s="35"/>
-      <c r="AC83" s="35"/>
-      <c r="AD83" s="35"/>
-      <c r="AE83" s="35"/>
-      <c r="AF83" s="35"/>
-      <c r="AG83" s="35"/>
-      <c r="AH83" s="35"/>
-      <c r="AI83" s="35"/>
-      <c r="AJ83" s="35"/>
-      <c r="AK83" s="35"/>
-      <c r="AL83" s="35"/>
-      <c r="AM83" s="35"/>
-      <c r="AN83" s="35"/>
-      <c r="AO83" s="35"/>
-      <c r="AP83" s="36"/>
-      <c r="AQ83" s="34"/>
-      <c r="AR83" s="35"/>
-      <c r="AS83" s="35"/>
-      <c r="AT83" s="35"/>
-      <c r="AU83" s="35"/>
-      <c r="AV83" s="35"/>
-      <c r="AW83" s="35"/>
-      <c r="AX83" s="35"/>
-      <c r="AY83" s="35"/>
-      <c r="AZ83" s="36"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="56"/>
+      <c r="K83" s="56"/>
+      <c r="L83" s="56"/>
+      <c r="M83" s="56"/>
+      <c r="N83" s="56"/>
+      <c r="O83" s="56"/>
+      <c r="P83" s="56"/>
+      <c r="Q83" s="56"/>
+      <c r="R83" s="56"/>
+      <c r="S83" s="56"/>
+      <c r="T83" s="56"/>
+      <c r="U83" s="56"/>
+      <c r="V83" s="56"/>
+      <c r="W83" s="56"/>
+      <c r="X83" s="56"/>
+      <c r="Y83" s="56"/>
+      <c r="Z83" s="56"/>
+      <c r="AA83" s="56"/>
+      <c r="AB83" s="56"/>
+      <c r="AC83" s="56"/>
+      <c r="AD83" s="56"/>
+      <c r="AE83" s="56"/>
+      <c r="AF83" s="56"/>
+      <c r="AG83" s="56"/>
+      <c r="AH83" s="56"/>
+      <c r="AI83" s="56"/>
+      <c r="AJ83" s="56"/>
+      <c r="AK83" s="56"/>
+      <c r="AL83" s="56"/>
+      <c r="AM83" s="56"/>
+      <c r="AN83" s="56"/>
+      <c r="AO83" s="56"/>
+      <c r="AP83" s="57"/>
+      <c r="AQ83" s="55"/>
+      <c r="AR83" s="56"/>
+      <c r="AS83" s="56"/>
+      <c r="AT83" s="56"/>
+      <c r="AU83" s="56"/>
+      <c r="AV83" s="56"/>
+      <c r="AW83" s="56"/>
+      <c r="AX83" s="56"/>
+      <c r="AY83" s="56"/>
+      <c r="AZ83" s="57"/>
     </row>
     <row r="84" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="57"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="35"/>
-      <c r="K84" s="35"/>
-      <c r="L84" s="35"/>
-      <c r="M84" s="35"/>
-      <c r="N84" s="35"/>
-      <c r="O84" s="35"/>
-      <c r="P84" s="35"/>
-      <c r="Q84" s="35"/>
-      <c r="R84" s="35"/>
-      <c r="S84" s="35"/>
-      <c r="T84" s="35"/>
-      <c r="U84" s="35"/>
-      <c r="V84" s="35"/>
-      <c r="W84" s="35"/>
-      <c r="X84" s="35"/>
-      <c r="Y84" s="35"/>
-      <c r="Z84" s="35"/>
-      <c r="AA84" s="35"/>
-      <c r="AB84" s="35"/>
-      <c r="AC84" s="35"/>
-      <c r="AD84" s="35"/>
-      <c r="AE84" s="35"/>
-      <c r="AF84" s="35"/>
-      <c r="AG84" s="35"/>
-      <c r="AH84" s="35"/>
-      <c r="AI84" s="35"/>
-      <c r="AJ84" s="35"/>
-      <c r="AK84" s="35"/>
-      <c r="AL84" s="35"/>
-      <c r="AM84" s="35"/>
-      <c r="AN84" s="35"/>
-      <c r="AO84" s="35"/>
-      <c r="AP84" s="36"/>
-      <c r="AQ84" s="34"/>
-      <c r="AR84" s="35"/>
-      <c r="AS84" s="35"/>
-      <c r="AT84" s="35"/>
-      <c r="AU84" s="35"/>
-      <c r="AV84" s="35"/>
-      <c r="AW84" s="35"/>
-      <c r="AX84" s="35"/>
-      <c r="AY84" s="35"/>
-      <c r="AZ84" s="36"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="56"/>
+      <c r="I84" s="56"/>
+      <c r="J84" s="56"/>
+      <c r="K84" s="56"/>
+      <c r="L84" s="56"/>
+      <c r="M84" s="56"/>
+      <c r="N84" s="56"/>
+      <c r="O84" s="56"/>
+      <c r="P84" s="56"/>
+      <c r="Q84" s="56"/>
+      <c r="R84" s="56"/>
+      <c r="S84" s="56"/>
+      <c r="T84" s="56"/>
+      <c r="U84" s="56"/>
+      <c r="V84" s="56"/>
+      <c r="W84" s="56"/>
+      <c r="X84" s="56"/>
+      <c r="Y84" s="56"/>
+      <c r="Z84" s="56"/>
+      <c r="AA84" s="56"/>
+      <c r="AB84" s="56"/>
+      <c r="AC84" s="56"/>
+      <c r="AD84" s="56"/>
+      <c r="AE84" s="56"/>
+      <c r="AF84" s="56"/>
+      <c r="AG84" s="56"/>
+      <c r="AH84" s="56"/>
+      <c r="AI84" s="56"/>
+      <c r="AJ84" s="56"/>
+      <c r="AK84" s="56"/>
+      <c r="AL84" s="56"/>
+      <c r="AM84" s="56"/>
+      <c r="AN84" s="56"/>
+      <c r="AO84" s="56"/>
+      <c r="AP84" s="57"/>
+      <c r="AQ84" s="55"/>
+      <c r="AR84" s="56"/>
+      <c r="AS84" s="56"/>
+      <c r="AT84" s="56"/>
+      <c r="AU84" s="56"/>
+      <c r="AV84" s="56"/>
+      <c r="AW84" s="56"/>
+      <c r="AX84" s="56"/>
+      <c r="AY84" s="56"/>
+      <c r="AZ84" s="57"/>
     </row>
     <row r="85" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="57"/>
-      <c r="C85" s="58"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="35"/>
-      <c r="N85" s="35"/>
-      <c r="O85" s="35"/>
-      <c r="P85" s="35"/>
-      <c r="Q85" s="35"/>
-      <c r="R85" s="35"/>
-      <c r="S85" s="35"/>
-      <c r="T85" s="35"/>
-      <c r="U85" s="35"/>
-      <c r="V85" s="35"/>
-      <c r="W85" s="35"/>
-      <c r="X85" s="35"/>
-      <c r="Y85" s="35"/>
-      <c r="Z85" s="35"/>
-      <c r="AA85" s="35"/>
-      <c r="AB85" s="35"/>
-      <c r="AC85" s="35"/>
-      <c r="AD85" s="35"/>
-      <c r="AE85" s="35"/>
-      <c r="AF85" s="35"/>
-      <c r="AG85" s="35"/>
-      <c r="AH85" s="35"/>
-      <c r="AI85" s="35"/>
-      <c r="AJ85" s="35"/>
-      <c r="AK85" s="35"/>
-      <c r="AL85" s="35"/>
-      <c r="AM85" s="35"/>
-      <c r="AN85" s="35"/>
-      <c r="AO85" s="35"/>
-      <c r="AP85" s="36"/>
-      <c r="AQ85" s="34"/>
-      <c r="AR85" s="35"/>
-      <c r="AS85" s="35"/>
-      <c r="AT85" s="35"/>
-      <c r="AU85" s="35"/>
-      <c r="AV85" s="35"/>
-      <c r="AW85" s="35"/>
-      <c r="AX85" s="35"/>
-      <c r="AY85" s="35"/>
-      <c r="AZ85" s="36"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="56"/>
+      <c r="K85" s="56"/>
+      <c r="L85" s="56"/>
+      <c r="M85" s="56"/>
+      <c r="N85" s="56"/>
+      <c r="O85" s="56"/>
+      <c r="P85" s="56"/>
+      <c r="Q85" s="56"/>
+      <c r="R85" s="56"/>
+      <c r="S85" s="56"/>
+      <c r="T85" s="56"/>
+      <c r="U85" s="56"/>
+      <c r="V85" s="56"/>
+      <c r="W85" s="56"/>
+      <c r="X85" s="56"/>
+      <c r="Y85" s="56"/>
+      <c r="Z85" s="56"/>
+      <c r="AA85" s="56"/>
+      <c r="AB85" s="56"/>
+      <c r="AC85" s="56"/>
+      <c r="AD85" s="56"/>
+      <c r="AE85" s="56"/>
+      <c r="AF85" s="56"/>
+      <c r="AG85" s="56"/>
+      <c r="AH85" s="56"/>
+      <c r="AI85" s="56"/>
+      <c r="AJ85" s="56"/>
+      <c r="AK85" s="56"/>
+      <c r="AL85" s="56"/>
+      <c r="AM85" s="56"/>
+      <c r="AN85" s="56"/>
+      <c r="AO85" s="56"/>
+      <c r="AP85" s="57"/>
+      <c r="AQ85" s="55"/>
+      <c r="AR85" s="56"/>
+      <c r="AS85" s="56"/>
+      <c r="AT85" s="56"/>
+      <c r="AU85" s="56"/>
+      <c r="AV85" s="56"/>
+      <c r="AW85" s="56"/>
+      <c r="AX85" s="56"/>
+      <c r="AY85" s="56"/>
+      <c r="AZ85" s="57"/>
     </row>
     <row r="86" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="57"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="35"/>
-      <c r="N86" s="35"/>
-      <c r="O86" s="35"/>
-      <c r="P86" s="35"/>
-      <c r="Q86" s="35"/>
-      <c r="R86" s="35"/>
-      <c r="S86" s="35"/>
-      <c r="T86" s="35"/>
-      <c r="U86" s="35"/>
-      <c r="V86" s="35"/>
-      <c r="W86" s="35"/>
-      <c r="X86" s="35"/>
-      <c r="Y86" s="35"/>
-      <c r="Z86" s="35"/>
-      <c r="AA86" s="35"/>
-      <c r="AB86" s="35"/>
-      <c r="AC86" s="35"/>
-      <c r="AD86" s="35"/>
-      <c r="AE86" s="35"/>
-      <c r="AF86" s="35"/>
-      <c r="AG86" s="35"/>
-      <c r="AH86" s="35"/>
-      <c r="AI86" s="35"/>
-      <c r="AJ86" s="35"/>
-      <c r="AK86" s="35"/>
-      <c r="AL86" s="35"/>
-      <c r="AM86" s="35"/>
-      <c r="AN86" s="35"/>
-      <c r="AO86" s="35"/>
-      <c r="AP86" s="36"/>
-      <c r="AQ86" s="34"/>
-      <c r="AR86" s="35"/>
-      <c r="AS86" s="35"/>
-      <c r="AT86" s="35"/>
-      <c r="AU86" s="35"/>
-      <c r="AV86" s="35"/>
-      <c r="AW86" s="35"/>
-      <c r="AX86" s="35"/>
-      <c r="AY86" s="35"/>
-      <c r="AZ86" s="36"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="56"/>
+      <c r="K86" s="56"/>
+      <c r="L86" s="56"/>
+      <c r="M86" s="56"/>
+      <c r="N86" s="56"/>
+      <c r="O86" s="56"/>
+      <c r="P86" s="56"/>
+      <c r="Q86" s="56"/>
+      <c r="R86" s="56"/>
+      <c r="S86" s="56"/>
+      <c r="T86" s="56"/>
+      <c r="U86" s="56"/>
+      <c r="V86" s="56"/>
+      <c r="W86" s="56"/>
+      <c r="X86" s="56"/>
+      <c r="Y86" s="56"/>
+      <c r="Z86" s="56"/>
+      <c r="AA86" s="56"/>
+      <c r="AB86" s="56"/>
+      <c r="AC86" s="56"/>
+      <c r="AD86" s="56"/>
+      <c r="AE86" s="56"/>
+      <c r="AF86" s="56"/>
+      <c r="AG86" s="56"/>
+      <c r="AH86" s="56"/>
+      <c r="AI86" s="56"/>
+      <c r="AJ86" s="56"/>
+      <c r="AK86" s="56"/>
+      <c r="AL86" s="56"/>
+      <c r="AM86" s="56"/>
+      <c r="AN86" s="56"/>
+      <c r="AO86" s="56"/>
+      <c r="AP86" s="57"/>
+      <c r="AQ86" s="55"/>
+      <c r="AR86" s="56"/>
+      <c r="AS86" s="56"/>
+      <c r="AT86" s="56"/>
+      <c r="AU86" s="56"/>
+      <c r="AV86" s="56"/>
+      <c r="AW86" s="56"/>
+      <c r="AX86" s="56"/>
+      <c r="AY86" s="56"/>
+      <c r="AZ86" s="57"/>
     </row>
     <row r="87" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="51" t="s">
+      <c r="B87" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C87" s="52"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="35"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="35"/>
-      <c r="N87" s="35"/>
-      <c r="O87" s="35"/>
-      <c r="P87" s="35"/>
-      <c r="Q87" s="35"/>
-      <c r="R87" s="35"/>
-      <c r="S87" s="35"/>
-      <c r="T87" s="35"/>
-      <c r="U87" s="35"/>
-      <c r="V87" s="35"/>
-      <c r="W87" s="35"/>
-      <c r="X87" s="35"/>
-      <c r="Y87" s="35"/>
-      <c r="Z87" s="35"/>
-      <c r="AA87" s="35"/>
-      <c r="AB87" s="35"/>
-      <c r="AC87" s="35"/>
-      <c r="AD87" s="35"/>
-      <c r="AE87" s="35"/>
-      <c r="AF87" s="35"/>
-      <c r="AG87" s="35"/>
-      <c r="AH87" s="35"/>
-      <c r="AI87" s="35"/>
-      <c r="AJ87" s="35"/>
-      <c r="AK87" s="35"/>
-      <c r="AL87" s="35"/>
-      <c r="AM87" s="35"/>
-      <c r="AN87" s="35"/>
-      <c r="AO87" s="35"/>
-      <c r="AP87" s="36"/>
-      <c r="AQ87" s="34"/>
-      <c r="AR87" s="35"/>
-      <c r="AS87" s="35"/>
-      <c r="AT87" s="35"/>
-      <c r="AU87" s="35"/>
-      <c r="AV87" s="35"/>
-      <c r="AW87" s="35"/>
-      <c r="AX87" s="35"/>
-      <c r="AY87" s="35"/>
-      <c r="AZ87" s="36"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="56"/>
+      <c r="K87" s="56"/>
+      <c r="L87" s="56"/>
+      <c r="M87" s="56"/>
+      <c r="N87" s="56"/>
+      <c r="O87" s="56"/>
+      <c r="P87" s="56"/>
+      <c r="Q87" s="56"/>
+      <c r="R87" s="56"/>
+      <c r="S87" s="56"/>
+      <c r="T87" s="56"/>
+      <c r="U87" s="56"/>
+      <c r="V87" s="56"/>
+      <c r="W87" s="56"/>
+      <c r="X87" s="56"/>
+      <c r="Y87" s="56"/>
+      <c r="Z87" s="56"/>
+      <c r="AA87" s="56"/>
+      <c r="AB87" s="56"/>
+      <c r="AC87" s="56"/>
+      <c r="AD87" s="56"/>
+      <c r="AE87" s="56"/>
+      <c r="AF87" s="56"/>
+      <c r="AG87" s="56"/>
+      <c r="AH87" s="56"/>
+      <c r="AI87" s="56"/>
+      <c r="AJ87" s="56"/>
+      <c r="AK87" s="56"/>
+      <c r="AL87" s="56"/>
+      <c r="AM87" s="56"/>
+      <c r="AN87" s="56"/>
+      <c r="AO87" s="56"/>
+      <c r="AP87" s="57"/>
+      <c r="AQ87" s="55"/>
+      <c r="AR87" s="56"/>
+      <c r="AS87" s="56"/>
+      <c r="AT87" s="56"/>
+      <c r="AU87" s="56"/>
+      <c r="AV87" s="56"/>
+      <c r="AW87" s="56"/>
+      <c r="AX87" s="56"/>
+      <c r="AY87" s="56"/>
+      <c r="AZ87" s="57"/>
     </row>
     <row r="88" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="53"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="38"/>
-      <c r="J88" s="38"/>
-      <c r="K88" s="38"/>
-      <c r="L88" s="38"/>
-      <c r="M88" s="38"/>
-      <c r="N88" s="38"/>
-      <c r="O88" s="38"/>
-      <c r="P88" s="38"/>
-      <c r="Q88" s="38"/>
-      <c r="R88" s="38"/>
-      <c r="S88" s="38"/>
-      <c r="T88" s="38"/>
-      <c r="U88" s="38"/>
-      <c r="V88" s="38"/>
-      <c r="W88" s="38"/>
-      <c r="X88" s="38"/>
-      <c r="Y88" s="38"/>
-      <c r="Z88" s="38"/>
-      <c r="AA88" s="38"/>
-      <c r="AB88" s="38"/>
-      <c r="AC88" s="38"/>
-      <c r="AD88" s="38"/>
-      <c r="AE88" s="38"/>
-      <c r="AF88" s="38"/>
-      <c r="AG88" s="38"/>
-      <c r="AH88" s="38"/>
-      <c r="AI88" s="38"/>
-      <c r="AJ88" s="38"/>
-      <c r="AK88" s="38"/>
-      <c r="AL88" s="38"/>
-      <c r="AM88" s="38"/>
-      <c r="AN88" s="38"/>
-      <c r="AO88" s="38"/>
-      <c r="AP88" s="39"/>
-      <c r="AQ88" s="37"/>
-      <c r="AR88" s="38"/>
-      <c r="AS88" s="38"/>
-      <c r="AT88" s="38"/>
-      <c r="AU88" s="38"/>
-      <c r="AV88" s="38"/>
-      <c r="AW88" s="38"/>
-      <c r="AX88" s="38"/>
-      <c r="AY88" s="38"/>
-      <c r="AZ88" s="39"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="59"/>
+      <c r="J88" s="59"/>
+      <c r="K88" s="59"/>
+      <c r="L88" s="59"/>
+      <c r="M88" s="59"/>
+      <c r="N88" s="59"/>
+      <c r="O88" s="59"/>
+      <c r="P88" s="59"/>
+      <c r="Q88" s="59"/>
+      <c r="R88" s="59"/>
+      <c r="S88" s="59"/>
+      <c r="T88" s="59"/>
+      <c r="U88" s="59"/>
+      <c r="V88" s="59"/>
+      <c r="W88" s="59"/>
+      <c r="X88" s="59"/>
+      <c r="Y88" s="59"/>
+      <c r="Z88" s="59"/>
+      <c r="AA88" s="59"/>
+      <c r="AB88" s="59"/>
+      <c r="AC88" s="59"/>
+      <c r="AD88" s="59"/>
+      <c r="AE88" s="59"/>
+      <c r="AF88" s="59"/>
+      <c r="AG88" s="59"/>
+      <c r="AH88" s="59"/>
+      <c r="AI88" s="59"/>
+      <c r="AJ88" s="59"/>
+      <c r="AK88" s="59"/>
+      <c r="AL88" s="59"/>
+      <c r="AM88" s="59"/>
+      <c r="AN88" s="59"/>
+      <c r="AO88" s="59"/>
+      <c r="AP88" s="60"/>
+      <c r="AQ88" s="58"/>
+      <c r="AR88" s="59"/>
+      <c r="AS88" s="59"/>
+      <c r="AT88" s="59"/>
+      <c r="AU88" s="59"/>
+      <c r="AV88" s="59"/>
+      <c r="AW88" s="59"/>
+      <c r="AX88" s="59"/>
+      <c r="AY88" s="59"/>
+      <c r="AZ88" s="60"/>
     </row>
     <row r="89" spans="2:52" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="49" t="s">
+      <c r="B89" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="49"/>
-      <c r="D89" s="49"/>
-      <c r="E89" s="49"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="49"/>
-      <c r="H89" s="49"/>
-      <c r="I89" s="49"/>
-      <c r="J89" s="49"/>
-      <c r="K89" s="49"/>
+      <c r="C89" s="70"/>
+      <c r="D89" s="70"/>
+      <c r="E89" s="70"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="70"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="70"/>
+      <c r="J89" s="70"/>
+      <c r="K89" s="70"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
@@ -8457,16 +8508,16 @@
       <c r="AL89" s="7"/>
     </row>
     <row r="90" spans="2:52" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="50"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="50"/>
-      <c r="H90" s="50"/>
-      <c r="I90" s="50"/>
-      <c r="J90" s="50"/>
-      <c r="K90" s="50"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="40"/>
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
@@ -8475,216 +8526,216 @@
       <c r="AL90" s="8"/>
     </row>
     <row r="91" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="22"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="23"/>
-      <c r="M91" s="23"/>
-      <c r="N91" s="23"/>
-      <c r="O91" s="23"/>
-      <c r="P91" s="23"/>
-      <c r="Q91" s="23"/>
-      <c r="R91" s="23"/>
-      <c r="S91" s="23"/>
-      <c r="T91" s="23"/>
-      <c r="U91" s="23"/>
-      <c r="V91" s="23"/>
-      <c r="W91" s="23"/>
-      <c r="X91" s="23"/>
-      <c r="Y91" s="23"/>
-      <c r="Z91" s="23"/>
-      <c r="AA91" s="23"/>
-      <c r="AB91" s="23"/>
-      <c r="AC91" s="23"/>
-      <c r="AD91" s="23"/>
-      <c r="AE91" s="23"/>
-      <c r="AF91" s="23"/>
-      <c r="AG91" s="23"/>
-      <c r="AH91" s="23"/>
-      <c r="AI91" s="23"/>
-      <c r="AJ91" s="23"/>
-      <c r="AK91" s="23"/>
-      <c r="AL91" s="23"/>
-      <c r="AM91" s="23"/>
-      <c r="AN91" s="23"/>
-      <c r="AO91" s="23"/>
-      <c r="AP91" s="23"/>
-      <c r="AQ91" s="23"/>
-      <c r="AR91" s="23"/>
-      <c r="AS91" s="23"/>
-      <c r="AT91" s="23"/>
-      <c r="AU91" s="23"/>
-      <c r="AV91" s="23"/>
-      <c r="AW91" s="23"/>
-      <c r="AX91" s="23"/>
-      <c r="AY91" s="23"/>
-      <c r="AZ91" s="24"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="44"/>
+      <c r="M91" s="44"/>
+      <c r="N91" s="44"/>
+      <c r="O91" s="44"/>
+      <c r="P91" s="44"/>
+      <c r="Q91" s="44"/>
+      <c r="R91" s="44"/>
+      <c r="S91" s="44"/>
+      <c r="T91" s="44"/>
+      <c r="U91" s="44"/>
+      <c r="V91" s="44"/>
+      <c r="W91" s="44"/>
+      <c r="X91" s="44"/>
+      <c r="Y91" s="44"/>
+      <c r="Z91" s="44"/>
+      <c r="AA91" s="44"/>
+      <c r="AB91" s="44"/>
+      <c r="AC91" s="44"/>
+      <c r="AD91" s="44"/>
+      <c r="AE91" s="44"/>
+      <c r="AF91" s="44"/>
+      <c r="AG91" s="44"/>
+      <c r="AH91" s="44"/>
+      <c r="AI91" s="44"/>
+      <c r="AJ91" s="44"/>
+      <c r="AK91" s="44"/>
+      <c r="AL91" s="44"/>
+      <c r="AM91" s="44"/>
+      <c r="AN91" s="44"/>
+      <c r="AO91" s="44"/>
+      <c r="AP91" s="44"/>
+      <c r="AQ91" s="44"/>
+      <c r="AR91" s="44"/>
+      <c r="AS91" s="44"/>
+      <c r="AT91" s="44"/>
+      <c r="AU91" s="44"/>
+      <c r="AV91" s="44"/>
+      <c r="AW91" s="44"/>
+      <c r="AX91" s="44"/>
+      <c r="AY91" s="44"/>
+      <c r="AZ91" s="45"/>
     </row>
     <row r="92" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="25"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="26"/>
-      <c r="J92" s="26"/>
-      <c r="K92" s="26"/>
-      <c r="L92" s="26"/>
-      <c r="M92" s="26"/>
-      <c r="N92" s="26"/>
-      <c r="O92" s="26"/>
-      <c r="P92" s="26"/>
-      <c r="Q92" s="26"/>
-      <c r="R92" s="26"/>
-      <c r="S92" s="26"/>
-      <c r="T92" s="26"/>
-      <c r="U92" s="26"/>
-      <c r="V92" s="26"/>
-      <c r="W92" s="26"/>
-      <c r="X92" s="26"/>
-      <c r="Y92" s="26"/>
-      <c r="Z92" s="26"/>
-      <c r="AA92" s="26"/>
-      <c r="AB92" s="26"/>
-      <c r="AC92" s="26"/>
-      <c r="AD92" s="26"/>
-      <c r="AE92" s="26"/>
-      <c r="AF92" s="26"/>
-      <c r="AG92" s="26"/>
-      <c r="AH92" s="26"/>
-      <c r="AI92" s="26"/>
-      <c r="AJ92" s="26"/>
-      <c r="AK92" s="26"/>
-      <c r="AL92" s="26"/>
-      <c r="AM92" s="26"/>
-      <c r="AN92" s="26"/>
-      <c r="AO92" s="26"/>
-      <c r="AP92" s="26"/>
-      <c r="AQ92" s="26"/>
-      <c r="AR92" s="26"/>
-      <c r="AS92" s="26"/>
-      <c r="AT92" s="26"/>
-      <c r="AU92" s="26"/>
-      <c r="AV92" s="26"/>
-      <c r="AW92" s="26"/>
-      <c r="AX92" s="26"/>
-      <c r="AY92" s="26"/>
-      <c r="AZ92" s="27"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="47"/>
+      <c r="N92" s="47"/>
+      <c r="O92" s="47"/>
+      <c r="P92" s="47"/>
+      <c r="Q92" s="47"/>
+      <c r="R92" s="47"/>
+      <c r="S92" s="47"/>
+      <c r="T92" s="47"/>
+      <c r="U92" s="47"/>
+      <c r="V92" s="47"/>
+      <c r="W92" s="47"/>
+      <c r="X92" s="47"/>
+      <c r="Y92" s="47"/>
+      <c r="Z92" s="47"/>
+      <c r="AA92" s="47"/>
+      <c r="AB92" s="47"/>
+      <c r="AC92" s="47"/>
+      <c r="AD92" s="47"/>
+      <c r="AE92" s="47"/>
+      <c r="AF92" s="47"/>
+      <c r="AG92" s="47"/>
+      <c r="AH92" s="47"/>
+      <c r="AI92" s="47"/>
+      <c r="AJ92" s="47"/>
+      <c r="AK92" s="47"/>
+      <c r="AL92" s="47"/>
+      <c r="AM92" s="47"/>
+      <c r="AN92" s="47"/>
+      <c r="AO92" s="47"/>
+      <c r="AP92" s="47"/>
+      <c r="AQ92" s="47"/>
+      <c r="AR92" s="47"/>
+      <c r="AS92" s="47"/>
+      <c r="AT92" s="47"/>
+      <c r="AU92" s="47"/>
+      <c r="AV92" s="47"/>
+      <c r="AW92" s="47"/>
+      <c r="AX92" s="47"/>
+      <c r="AY92" s="47"/>
+      <c r="AZ92" s="48"/>
     </row>
     <row r="93" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="25"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="26"/>
-      <c r="L93" s="26"/>
-      <c r="M93" s="26"/>
-      <c r="N93" s="26"/>
-      <c r="O93" s="26"/>
-      <c r="P93" s="26"/>
-      <c r="Q93" s="26"/>
-      <c r="R93" s="26"/>
-      <c r="S93" s="26"/>
-      <c r="T93" s="26"/>
-      <c r="U93" s="26"/>
-      <c r="V93" s="26"/>
-      <c r="W93" s="26"/>
-      <c r="X93" s="26"/>
-      <c r="Y93" s="26"/>
-      <c r="Z93" s="26"/>
-      <c r="AA93" s="26"/>
-      <c r="AB93" s="26"/>
-      <c r="AC93" s="26"/>
-      <c r="AD93" s="26"/>
-      <c r="AE93" s="26"/>
-      <c r="AF93" s="26"/>
-      <c r="AG93" s="26"/>
-      <c r="AH93" s="26"/>
-      <c r="AI93" s="26"/>
-      <c r="AJ93" s="26"/>
-      <c r="AK93" s="26"/>
-      <c r="AL93" s="26"/>
-      <c r="AM93" s="26"/>
-      <c r="AN93" s="26"/>
-      <c r="AO93" s="26"/>
-      <c r="AP93" s="26"/>
-      <c r="AQ93" s="26"/>
-      <c r="AR93" s="26"/>
-      <c r="AS93" s="26"/>
-      <c r="AT93" s="26"/>
-      <c r="AU93" s="26"/>
-      <c r="AV93" s="26"/>
-      <c r="AW93" s="26"/>
-      <c r="AX93" s="26"/>
-      <c r="AY93" s="26"/>
-      <c r="AZ93" s="27"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="47"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="47"/>
+      <c r="I93" s="47"/>
+      <c r="J93" s="47"/>
+      <c r="K93" s="47"/>
+      <c r="L93" s="47"/>
+      <c r="M93" s="47"/>
+      <c r="N93" s="47"/>
+      <c r="O93" s="47"/>
+      <c r="P93" s="47"/>
+      <c r="Q93" s="47"/>
+      <c r="R93" s="47"/>
+      <c r="S93" s="47"/>
+      <c r="T93" s="47"/>
+      <c r="U93" s="47"/>
+      <c r="V93" s="47"/>
+      <c r="W93" s="47"/>
+      <c r="X93" s="47"/>
+      <c r="Y93" s="47"/>
+      <c r="Z93" s="47"/>
+      <c r="AA93" s="47"/>
+      <c r="AB93" s="47"/>
+      <c r="AC93" s="47"/>
+      <c r="AD93" s="47"/>
+      <c r="AE93" s="47"/>
+      <c r="AF93" s="47"/>
+      <c r="AG93" s="47"/>
+      <c r="AH93" s="47"/>
+      <c r="AI93" s="47"/>
+      <c r="AJ93" s="47"/>
+      <c r="AK93" s="47"/>
+      <c r="AL93" s="47"/>
+      <c r="AM93" s="47"/>
+      <c r="AN93" s="47"/>
+      <c r="AO93" s="47"/>
+      <c r="AP93" s="47"/>
+      <c r="AQ93" s="47"/>
+      <c r="AR93" s="47"/>
+      <c r="AS93" s="47"/>
+      <c r="AT93" s="47"/>
+      <c r="AU93" s="47"/>
+      <c r="AV93" s="47"/>
+      <c r="AW93" s="47"/>
+      <c r="AX93" s="47"/>
+      <c r="AY93" s="47"/>
+      <c r="AZ93" s="48"/>
     </row>
     <row r="94" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="28"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="29"/>
-      <c r="J94" s="29"/>
-      <c r="K94" s="29"/>
-      <c r="L94" s="29"/>
-      <c r="M94" s="29"/>
-      <c r="N94" s="29"/>
-      <c r="O94" s="29"/>
-      <c r="P94" s="29"/>
-      <c r="Q94" s="29"/>
-      <c r="R94" s="29"/>
-      <c r="S94" s="29"/>
-      <c r="T94" s="29"/>
-      <c r="U94" s="29"/>
-      <c r="V94" s="29"/>
-      <c r="W94" s="29"/>
-      <c r="X94" s="29"/>
-      <c r="Y94" s="29"/>
-      <c r="Z94" s="29"/>
-      <c r="AA94" s="29"/>
-      <c r="AB94" s="29"/>
-      <c r="AC94" s="29"/>
-      <c r="AD94" s="29"/>
-      <c r="AE94" s="29"/>
-      <c r="AF94" s="29"/>
-      <c r="AG94" s="29"/>
-      <c r="AH94" s="29"/>
-      <c r="AI94" s="29"/>
-      <c r="AJ94" s="29"/>
-      <c r="AK94" s="29"/>
-      <c r="AL94" s="29"/>
-      <c r="AM94" s="29"/>
-      <c r="AN94" s="29"/>
-      <c r="AO94" s="29"/>
-      <c r="AP94" s="29"/>
-      <c r="AQ94" s="29"/>
-      <c r="AR94" s="29"/>
-      <c r="AS94" s="29"/>
-      <c r="AT94" s="29"/>
-      <c r="AU94" s="29"/>
-      <c r="AV94" s="29"/>
-      <c r="AW94" s="29"/>
-      <c r="AX94" s="29"/>
-      <c r="AY94" s="29"/>
-      <c r="AZ94" s="30"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="50"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="50"/>
+      <c r="I94" s="50"/>
+      <c r="J94" s="50"/>
+      <c r="K94" s="50"/>
+      <c r="L94" s="50"/>
+      <c r="M94" s="50"/>
+      <c r="N94" s="50"/>
+      <c r="O94" s="50"/>
+      <c r="P94" s="50"/>
+      <c r="Q94" s="50"/>
+      <c r="R94" s="50"/>
+      <c r="S94" s="50"/>
+      <c r="T94" s="50"/>
+      <c r="U94" s="50"/>
+      <c r="V94" s="50"/>
+      <c r="W94" s="50"/>
+      <c r="X94" s="50"/>
+      <c r="Y94" s="50"/>
+      <c r="Z94" s="50"/>
+      <c r="AA94" s="50"/>
+      <c r="AB94" s="50"/>
+      <c r="AC94" s="50"/>
+      <c r="AD94" s="50"/>
+      <c r="AE94" s="50"/>
+      <c r="AF94" s="50"/>
+      <c r="AG94" s="50"/>
+      <c r="AH94" s="50"/>
+      <c r="AI94" s="50"/>
+      <c r="AJ94" s="50"/>
+      <c r="AK94" s="50"/>
+      <c r="AL94" s="50"/>
+      <c r="AM94" s="50"/>
+      <c r="AN94" s="50"/>
+      <c r="AO94" s="50"/>
+      <c r="AP94" s="50"/>
+      <c r="AQ94" s="50"/>
+      <c r="AR94" s="50"/>
+      <c r="AS94" s="50"/>
+      <c r="AT94" s="50"/>
+      <c r="AU94" s="50"/>
+      <c r="AV94" s="50"/>
+      <c r="AW94" s="50"/>
+      <c r="AX94" s="50"/>
+      <c r="AY94" s="50"/>
+      <c r="AZ94" s="51"/>
     </row>
     <row r="95" spans="2:52" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="2:52" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8697,28 +8748,6 @@
     <row r="103" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B63:C70"/>
-    <mergeCell ref="B73:C75"/>
-    <mergeCell ref="B76:C78"/>
-    <mergeCell ref="B44:C46"/>
-    <mergeCell ref="B57:C59"/>
-    <mergeCell ref="B60:C62"/>
-    <mergeCell ref="B47:C54"/>
-    <mergeCell ref="B55:C56"/>
-    <mergeCell ref="B41:C43"/>
-    <mergeCell ref="AG1:AZ2"/>
-    <mergeCell ref="T1:AF2"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="AB8:AK8"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="B28:C30"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B15:C22"/>
-    <mergeCell ref="B31:C38"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="B25:C27"/>
     <mergeCell ref="B91:AZ94"/>
     <mergeCell ref="B4:AZ7"/>
     <mergeCell ref="D15:AP24"/>
@@ -8735,6 +8764,28 @@
     <mergeCell ref="B87:C88"/>
     <mergeCell ref="D79:AP88"/>
     <mergeCell ref="AQ79:AZ88"/>
+    <mergeCell ref="B41:C43"/>
+    <mergeCell ref="AG1:AZ2"/>
+    <mergeCell ref="T1:AF2"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="AB8:AK8"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B28:C30"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B15:C22"/>
+    <mergeCell ref="B31:C38"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="B25:C27"/>
+    <mergeCell ref="B63:C70"/>
+    <mergeCell ref="B73:C75"/>
+    <mergeCell ref="B76:C78"/>
+    <mergeCell ref="B44:C46"/>
+    <mergeCell ref="B57:C59"/>
+    <mergeCell ref="B60:C62"/>
+    <mergeCell ref="B47:C54"/>
+    <mergeCell ref="B55:C56"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions verticalCentered="1"/>
@@ -8746,15 +8797,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D5379252AF64A748BDD859550927C367" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2116e7e1946d68e35c0eaf3b6cc07ccd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67bb9ec5-9b1b-486c-a632-e2dd655875ec" xmlns:ns3="3fd75491-3ac1-4e58-b8d5-9038dca3fcdc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bef8a7803ea145e855fe7a4317e18dd6" ns2:_="" ns3:_="">
     <xsd:import namespace="67bb9ec5-9b1b-486c-a632-e2dd655875ec"/>
@@ -8971,6 +9013,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -8978,14 +9029,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA46E2CD-519D-47DE-B196-0DD50840862B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{847108D8-BB9B-483A-861E-97C086A0D0E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9000,6 +9043,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA46E2CD-519D-47DE-B196-0DD50840862B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/【研修中】_日次報告書研修日誌林康輝.xlsx
+++ b/【研修中】_日次報告書研修日誌林康輝.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.utsunomiya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensyu004\Desktop\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626A705B-E8EA-4058-B3C2-20A4B5D24934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975A50EF-1BB5-4AF3-8646-845ADF35F255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="20250" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="研修日誌" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t xml:space="preserve"> 研　修　日　誌 </t>
     <rPh sb="1" eb="2">
@@ -297,6 +297,149 @@
     </rPh>
     <rPh sb="59" eb="60">
       <t>トトノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8月 19日　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初日は自分の作業で頭がいっぱいだったのですが、作業にも慣れてきて、宮崎さんとだけはでなくインターンの仲間とも情報共有しながら進めることができました。私の作業内容を参照しながら大倉君が作業するところもあり、「更新したよ」など声を掛け合いながら作業を進めることができたので良かったです。京セラでは、利益をあげるためには人間として正しいことをするという内容を学びました。これは利益を上げるという点だけではなく、周りの人間関係など、人生においても大切なことだと思うので正しい判断ができる人間になれるように、努力して言うと思いました。</t>
+    <rPh sb="0" eb="2">
+      <t>ショニチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ミヤザキ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ナカマ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="87" eb="90">
+      <t>オオクラクン</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>コエ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="194" eb="195">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="202" eb="203">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="205" eb="207">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="207" eb="209">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>ジンセイ</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>タイセツ</t>
+    </rPh>
+    <rPh sb="226" eb="227">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="230" eb="231">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="239" eb="241">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="249" eb="251">
+      <t>ドリョク</t>
+    </rPh>
+    <rPh sb="253" eb="254">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="256" eb="257">
+      <t>オモ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -560,69 +703,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -706,6 +786,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -725,6 +868,360 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="正方形/長方形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED220CAA-9F1A-418D-AA84-C13B35515ED5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="5067300"/>
+          <a:ext cx="1704975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="正方形/長方形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A903340A-6565-45E4-8585-2B9263F9BCAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="5067300"/>
+          <a:ext cx="428625" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="正方形/長方形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87EA3E08-E77D-42FC-A283-411ED322107D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429001" y="5067300"/>
+          <a:ext cx="152400" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="正方形/長方形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B5C7969-9EF8-4683-AD93-D5EC7FB80459}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3590925" y="5067300"/>
+          <a:ext cx="2552699" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="正方形/長方形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E6E60B-4873-4D85-8C6D-F0D6172302A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="5067300"/>
+          <a:ext cx="438149" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E90995-682E-4B30-8617-E3C02E8608BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6581775" y="5067300"/>
+          <a:ext cx="438149" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -3589,7 +4086,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
@@ -3607,7 +4104,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2324100" y="3190875"/>
+          <a:off x="2314575" y="4810125"/>
           <a:ext cx="586058" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3710,7 +4207,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
@@ -3728,7 +4225,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4552950" y="3190875"/>
+          <a:off x="4543425" y="4810125"/>
           <a:ext cx="586058" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3890,7 +4387,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
@@ -3908,7 +4405,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6619875" y="3171825"/>
+          <a:off x="6610350" y="4791075"/>
           <a:ext cx="389850" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3947,8 +4444,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
@@ -3966,7 +4463,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6143625" y="4752975"/>
+          <a:off x="6134100" y="4752975"/>
           <a:ext cx="492443" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4013,7 +4510,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
@@ -4031,7 +4528,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1304925" y="4743450"/>
+          <a:off x="1295400" y="4743450"/>
           <a:ext cx="442814" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4078,7 +4575,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>69319</xdr:colOff>
+      <xdr:colOff>59794</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
@@ -4096,7 +4593,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3355444" y="4762499"/>
+          <a:off x="3345919" y="4762499"/>
           <a:ext cx="330732" cy="649997"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4183,6 +4680,1095 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586058" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="テキスト ボックス 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF8E444-64AF-4CC4-9533-5013CA0F9AA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2314575" y="5086350"/>
+          <a:ext cx="586058" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>開発</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586058" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="テキスト ボックス 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE5494C5-04A1-48EE-85B1-AD8A4AF945C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="5086350"/>
+          <a:ext cx="586058" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>開発</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="389850" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="テキスト ボックス 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{013591F1-DFCE-4A8A-A501-F23BE3A00738}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619875" y="5105400"/>
+          <a:ext cx="389850" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>日誌</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="464038" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="テキスト ボックス 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C04D5BCC-C227-4E3D-AE70-C1D2E43EEAE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="5086350"/>
+          <a:ext cx="464038" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>京セラ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="442814" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="テキスト ボックス 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD50D9C-0C5E-448A-B63A-00B6CBBAF8A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="5019675"/>
+          <a:ext cx="442814" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ミーテ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ィング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>59794</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="330732" cy="649997"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="テキスト ボックス 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7124736-0B65-4FD1-A65E-DA3DD92DF820}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3345919" y="5038724"/>
+          <a:ext cx="330732" cy="649997"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>休憩</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967E10DC-2ECE-4394-95D6-6884CCD09230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="5067300"/>
+          <a:ext cx="1704975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="正方形/長方形 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DF10D3-ACED-45A4-82F6-5AEA4B91C33A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="5067300"/>
+          <a:ext cx="428625" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="正方形/長方形 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{541EBDDA-2DFA-4FE5-8179-B5D456EC47B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429001" y="5067300"/>
+          <a:ext cx="152400" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="正方形/長方形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BCE8F6E-31FE-451B-820F-36CDA3B0B55E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3590925" y="5067300"/>
+          <a:ext cx="2552699" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="正方形/長方形 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD84B13-7BCE-4BE6-AB68-89593FB5898E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="5067300"/>
+          <a:ext cx="438149" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="正方形/長方形 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4753063A-2238-4666-AD57-A98F35815D82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6581775" y="5067300"/>
+          <a:ext cx="438149" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586058" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="テキスト ボックス 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE4F816-0E32-4ED2-9039-2E3239E9C610}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2314575" y="5086350"/>
+          <a:ext cx="586058" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>開発</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586058" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="テキスト ボックス 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D19FAB-D7AB-4C0C-BB23-BDEECB24DD76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="5086350"/>
+          <a:ext cx="586058" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>開発</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="389850" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="テキスト ボックス 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9608BBF-7AA8-40C2-9580-4DB4334879E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619875" y="5105400"/>
+          <a:ext cx="389850" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>日誌</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="テキスト ボックス 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97FD740-7ADB-4523-9897-5050B76A27FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="6657975"/>
+          <a:ext cx="492443" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>社会人</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>研修</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="442814" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="テキスト ボックス 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68355503-C68A-40ED-9138-AEAB957AB925}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="6648450"/>
+          <a:ext cx="442814" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ミーテ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ィング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>69319</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="330732" cy="649997"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="テキスト ボックス 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3607401C-F489-4A7A-92F7-8A1121A36E8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3355444" y="6667499"/>
+          <a:ext cx="330732" cy="649997"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>休憩</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4512,8 +6098,8 @@
   </sheetPr>
   <dimension ref="A1:BS103"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AQ41" sqref="AQ41"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AQ47" sqref="AQ47:AZ56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="9.9499999999999993" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -4540,59 +6126,59 @@
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
       <c r="S1" s="20"/>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="38" t="s">
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="63"/>
+      <c r="AY1" s="63"/>
+      <c r="AZ1" s="63"/>
       <c r="BA1" s="14"/>
     </row>
     <row r="2" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
@@ -4601,51 +6187,51 @@
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="38"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="63"/>
+      <c r="AQ2" s="63"/>
+      <c r="AR2" s="63"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="63"/>
+      <c r="AU2" s="63"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="63"/>
     </row>
     <row r="3" spans="1:53" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -4663,252 +6249,252 @@
       <c r="AL3" s="11"/>
     </row>
     <row r="4" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="44"/>
-      <c r="AU4" s="44"/>
-      <c r="AV4" s="44"/>
-      <c r="AW4" s="44"/>
-      <c r="AX4" s="44"/>
-      <c r="AY4" s="44"/>
-      <c r="AZ4" s="45"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
+      <c r="AT4" s="23"/>
+      <c r="AU4" s="23"/>
+      <c r="AV4" s="23"/>
+      <c r="AW4" s="23"/>
+      <c r="AX4" s="23"/>
+      <c r="AY4" s="23"/>
+      <c r="AZ4" s="24"/>
     </row>
     <row r="5" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="48"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="26"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26"/>
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="26"/>
+      <c r="AP5" s="26"/>
+      <c r="AQ5" s="26"/>
+      <c r="AR5" s="26"/>
+      <c r="AS5" s="26"/>
+      <c r="AT5" s="26"/>
+      <c r="AU5" s="26"/>
+      <c r="AV5" s="26"/>
+      <c r="AW5" s="26"/>
+      <c r="AX5" s="26"/>
+      <c r="AY5" s="26"/>
+      <c r="AZ5" s="27"/>
     </row>
     <row r="6" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="47"/>
-      <c r="AP6" s="47"/>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="47"/>
-      <c r="AS6" s="47"/>
-      <c r="AT6" s="47"/>
-      <c r="AU6" s="47"/>
-      <c r="AV6" s="47"/>
-      <c r="AW6" s="47"/>
-      <c r="AX6" s="47"/>
-      <c r="AY6" s="47"/>
-      <c r="AZ6" s="48"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="26"/>
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="26"/>
+      <c r="AS6" s="26"/>
+      <c r="AT6" s="26"/>
+      <c r="AU6" s="26"/>
+      <c r="AV6" s="26"/>
+      <c r="AW6" s="26"/>
+      <c r="AX6" s="26"/>
+      <c r="AY6" s="26"/>
+      <c r="AZ6" s="27"/>
     </row>
     <row r="7" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="50"/>
-      <c r="AJ7" s="50"/>
-      <c r="AK7" s="50"/>
-      <c r="AL7" s="50"/>
-      <c r="AM7" s="50"/>
-      <c r="AN7" s="50"/>
-      <c r="AO7" s="50"/>
-      <c r="AP7" s="50"/>
-      <c r="AQ7" s="50"/>
-      <c r="AR7" s="50"/>
-      <c r="AS7" s="50"/>
-      <c r="AT7" s="50"/>
-      <c r="AU7" s="50"/>
-      <c r="AV7" s="50"/>
-      <c r="AW7" s="50"/>
-      <c r="AX7" s="50"/>
-      <c r="AY7" s="50"/>
-      <c r="AZ7" s="51"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="30"/>
     </row>
     <row r="8" spans="1:53" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="AA8" s="11"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="40"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="40"/>
-      <c r="AK8" s="40"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="50"/>
+      <c r="AI8" s="50"/>
+      <c r="AJ8" s="50"/>
+      <c r="AK8" s="50"/>
       <c r="AL8" s="8"/>
     </row>
     <row r="9" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="12"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -4960,22 +6546,22 @@
       <c r="AZ9" s="2"/>
     </row>
     <row r="10" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="21"/>
       <c r="AZ10" s="3"/>
     </row>
     <row r="11" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="15"/>
       <c r="AZ11" s="3"/>
     </row>
     <row r="12" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -5027,14 +6613,14 @@
       <c r="AZ12" s="18"/>
     </row>
     <row r="13" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="15"/>
       <c r="AZ13" s="3"/>
     </row>
     <row r="14" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
@@ -5086,548 +6672,548 @@
       <c r="AZ14" s="6"/>
     </row>
     <row r="15" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="42">
+      <c r="B15" s="70">
         <v>44060</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="52" t="s">
+      <c r="C15" s="56"/>
+      <c r="D15" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
-      <c r="AD15" s="53"/>
-      <c r="AE15" s="53"/>
-      <c r="AF15" s="53"/>
-      <c r="AG15" s="53"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="53"/>
-      <c r="AJ15" s="53"/>
-      <c r="AK15" s="53"/>
-      <c r="AL15" s="53"/>
-      <c r="AM15" s="53"/>
-      <c r="AN15" s="53"/>
-      <c r="AO15" s="53"/>
-      <c r="AP15" s="54"/>
-      <c r="AQ15" s="61" t="s">
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="33"/>
+      <c r="AQ15" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AR15" s="62"/>
-      <c r="AS15" s="62"/>
-      <c r="AT15" s="62"/>
-      <c r="AU15" s="62"/>
-      <c r="AV15" s="62"/>
-      <c r="AW15" s="62"/>
-      <c r="AX15" s="62"/>
-      <c r="AY15" s="62"/>
-      <c r="AZ15" s="63"/>
+      <c r="AR15" s="41"/>
+      <c r="AS15" s="41"/>
+      <c r="AT15" s="41"/>
+      <c r="AU15" s="41"/>
+      <c r="AV15" s="41"/>
+      <c r="AW15" s="41"/>
+      <c r="AX15" s="41"/>
+      <c r="AY15" s="41"/>
+      <c r="AZ15" s="42"/>
     </row>
     <row r="16" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="56"/>
-      <c r="AK16" s="56"/>
-      <c r="AL16" s="56"/>
-      <c r="AM16" s="56"/>
-      <c r="AN16" s="56"/>
-      <c r="AO16" s="56"/>
-      <c r="AP16" s="57"/>
-      <c r="AQ16" s="64"/>
-      <c r="AR16" s="65"/>
-      <c r="AS16" s="65"/>
-      <c r="AT16" s="65"/>
-      <c r="AU16" s="65"/>
-      <c r="AV16" s="65"/>
-      <c r="AW16" s="65"/>
-      <c r="AX16" s="65"/>
-      <c r="AY16" s="65"/>
-      <c r="AZ16" s="66"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="35"/>
+      <c r="AO16" s="35"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="43"/>
+      <c r="AR16" s="44"/>
+      <c r="AS16" s="44"/>
+      <c r="AT16" s="44"/>
+      <c r="AU16" s="44"/>
+      <c r="AV16" s="44"/>
+      <c r="AW16" s="44"/>
+      <c r="AX16" s="44"/>
+      <c r="AY16" s="44"/>
+      <c r="AZ16" s="45"/>
     </row>
     <row r="17" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="56"/>
-      <c r="AF17" s="56"/>
-      <c r="AG17" s="56"/>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="56"/>
-      <c r="AJ17" s="56"/>
-      <c r="AK17" s="56"/>
-      <c r="AL17" s="56"/>
-      <c r="AM17" s="56"/>
-      <c r="AN17" s="56"/>
-      <c r="AO17" s="56"/>
-      <c r="AP17" s="57"/>
-      <c r="AQ17" s="64"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="65"/>
-      <c r="AU17" s="65"/>
-      <c r="AV17" s="65"/>
-      <c r="AW17" s="65"/>
-      <c r="AX17" s="65"/>
-      <c r="AY17" s="65"/>
-      <c r="AZ17" s="66"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="35"/>
+      <c r="AK17" s="35"/>
+      <c r="AL17" s="35"/>
+      <c r="AM17" s="35"/>
+      <c r="AN17" s="35"/>
+      <c r="AO17" s="35"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="43"/>
+      <c r="AR17" s="44"/>
+      <c r="AS17" s="44"/>
+      <c r="AT17" s="44"/>
+      <c r="AU17" s="44"/>
+      <c r="AV17" s="44"/>
+      <c r="AW17" s="44"/>
+      <c r="AX17" s="44"/>
+      <c r="AY17" s="44"/>
+      <c r="AZ17" s="45"/>
     </row>
     <row r="18" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="56"/>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="56"/>
-      <c r="AJ18" s="56"/>
-      <c r="AK18" s="56"/>
-      <c r="AL18" s="56"/>
-      <c r="AM18" s="56"/>
-      <c r="AN18" s="56"/>
-      <c r="AO18" s="56"/>
-      <c r="AP18" s="57"/>
-      <c r="AQ18" s="64"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="65"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="65"/>
-      <c r="AV18" s="65"/>
-      <c r="AW18" s="65"/>
-      <c r="AX18" s="65"/>
-      <c r="AY18" s="65"/>
-      <c r="AZ18" s="66"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="35"/>
+      <c r="AO18" s="35"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="43"/>
+      <c r="AR18" s="44"/>
+      <c r="AS18" s="44"/>
+      <c r="AT18" s="44"/>
+      <c r="AU18" s="44"/>
+      <c r="AV18" s="44"/>
+      <c r="AW18" s="44"/>
+      <c r="AX18" s="44"/>
+      <c r="AY18" s="44"/>
+      <c r="AZ18" s="45"/>
     </row>
     <row r="19" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="56"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="56"/>
-      <c r="AK19" s="56"/>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="56"/>
-      <c r="AN19" s="56"/>
-      <c r="AO19" s="56"/>
-      <c r="AP19" s="57"/>
-      <c r="AQ19" s="64"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="65"/>
-      <c r="AV19" s="65"/>
-      <c r="AW19" s="65"/>
-      <c r="AX19" s="65"/>
-      <c r="AY19" s="65"/>
-      <c r="AZ19" s="66"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
+      <c r="AI19" s="35"/>
+      <c r="AJ19" s="35"/>
+      <c r="AK19" s="35"/>
+      <c r="AL19" s="35"/>
+      <c r="AM19" s="35"/>
+      <c r="AN19" s="35"/>
+      <c r="AO19" s="35"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="43"/>
+      <c r="AR19" s="44"/>
+      <c r="AS19" s="44"/>
+      <c r="AT19" s="44"/>
+      <c r="AU19" s="44"/>
+      <c r="AV19" s="44"/>
+      <c r="AW19" s="44"/>
+      <c r="AX19" s="44"/>
+      <c r="AY19" s="44"/>
+      <c r="AZ19" s="45"/>
     </row>
     <row r="20" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="56"/>
-      <c r="AL20" s="56"/>
-      <c r="AM20" s="56"/>
-      <c r="AN20" s="56"/>
-      <c r="AO20" s="56"/>
-      <c r="AP20" s="57"/>
-      <c r="AQ20" s="64"/>
-      <c r="AR20" s="65"/>
-      <c r="AS20" s="65"/>
-      <c r="AT20" s="65"/>
-      <c r="AU20" s="65"/>
-      <c r="AV20" s="65"/>
-      <c r="AW20" s="65"/>
-      <c r="AX20" s="65"/>
-      <c r="AY20" s="65"/>
-      <c r="AZ20" s="66"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="35"/>
+      <c r="AJ20" s="35"/>
+      <c r="AK20" s="35"/>
+      <c r="AL20" s="35"/>
+      <c r="AM20" s="35"/>
+      <c r="AN20" s="35"/>
+      <c r="AO20" s="35"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="43"/>
+      <c r="AR20" s="44"/>
+      <c r="AS20" s="44"/>
+      <c r="AT20" s="44"/>
+      <c r="AU20" s="44"/>
+      <c r="AV20" s="44"/>
+      <c r="AW20" s="44"/>
+      <c r="AX20" s="44"/>
+      <c r="AY20" s="44"/>
+      <c r="AZ20" s="45"/>
     </row>
     <row r="21" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="56"/>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="56"/>
-      <c r="AJ21" s="56"/>
-      <c r="AK21" s="56"/>
-      <c r="AL21" s="56"/>
-      <c r="AM21" s="56"/>
-      <c r="AN21" s="56"/>
-      <c r="AO21" s="56"/>
-      <c r="AP21" s="57"/>
-      <c r="AQ21" s="64"/>
-      <c r="AR21" s="65"/>
-      <c r="AS21" s="65"/>
-      <c r="AT21" s="65"/>
-      <c r="AU21" s="65"/>
-      <c r="AV21" s="65"/>
-      <c r="AW21" s="65"/>
-      <c r="AX21" s="65"/>
-      <c r="AY21" s="65"/>
-      <c r="AZ21" s="66"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="35"/>
+      <c r="AJ21" s="35"/>
+      <c r="AK21" s="35"/>
+      <c r="AL21" s="35"/>
+      <c r="AM21" s="35"/>
+      <c r="AN21" s="35"/>
+      <c r="AO21" s="35"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="43"/>
+      <c r="AR21" s="44"/>
+      <c r="AS21" s="44"/>
+      <c r="AT21" s="44"/>
+      <c r="AU21" s="44"/>
+      <c r="AV21" s="44"/>
+      <c r="AW21" s="44"/>
+      <c r="AX21" s="44"/>
+      <c r="AY21" s="44"/>
+      <c r="AZ21" s="45"/>
     </row>
     <row r="22" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="56"/>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="56"/>
-      <c r="AJ22" s="56"/>
-      <c r="AK22" s="56"/>
-      <c r="AL22" s="56"/>
-      <c r="AM22" s="56"/>
-      <c r="AN22" s="56"/>
-      <c r="AO22" s="56"/>
-      <c r="AP22" s="57"/>
-      <c r="AQ22" s="64"/>
-      <c r="AR22" s="65"/>
-      <c r="AS22" s="65"/>
-      <c r="AT22" s="65"/>
-      <c r="AU22" s="65"/>
-      <c r="AV22" s="65"/>
-      <c r="AW22" s="65"/>
-      <c r="AX22" s="65"/>
-      <c r="AY22" s="65"/>
-      <c r="AZ22" s="66"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="35"/>
+      <c r="AK22" s="35"/>
+      <c r="AL22" s="35"/>
+      <c r="AM22" s="35"/>
+      <c r="AN22" s="35"/>
+      <c r="AO22" s="35"/>
+      <c r="AP22" s="36"/>
+      <c r="AQ22" s="43"/>
+      <c r="AR22" s="44"/>
+      <c r="AS22" s="44"/>
+      <c r="AT22" s="44"/>
+      <c r="AU22" s="44"/>
+      <c r="AV22" s="44"/>
+      <c r="AW22" s="44"/>
+      <c r="AX22" s="44"/>
+      <c r="AY22" s="44"/>
+      <c r="AZ22" s="45"/>
     </row>
     <row r="23" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="56"/>
-      <c r="AF23" s="56"/>
-      <c r="AG23" s="56"/>
-      <c r="AH23" s="56"/>
-      <c r="AI23" s="56"/>
-      <c r="AJ23" s="56"/>
-      <c r="AK23" s="56"/>
-      <c r="AL23" s="56"/>
-      <c r="AM23" s="56"/>
-      <c r="AN23" s="56"/>
-      <c r="AO23" s="56"/>
-      <c r="AP23" s="57"/>
-      <c r="AQ23" s="64"/>
-      <c r="AR23" s="65"/>
-      <c r="AS23" s="65"/>
-      <c r="AT23" s="65"/>
-      <c r="AU23" s="65"/>
-      <c r="AV23" s="65"/>
-      <c r="AW23" s="65"/>
-      <c r="AX23" s="65"/>
-      <c r="AY23" s="65"/>
-      <c r="AZ23" s="66"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="35"/>
+      <c r="AJ23" s="35"/>
+      <c r="AK23" s="35"/>
+      <c r="AL23" s="35"/>
+      <c r="AM23" s="35"/>
+      <c r="AN23" s="35"/>
+      <c r="AO23" s="35"/>
+      <c r="AP23" s="36"/>
+      <c r="AQ23" s="43"/>
+      <c r="AR23" s="44"/>
+      <c r="AS23" s="44"/>
+      <c r="AT23" s="44"/>
+      <c r="AU23" s="44"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="45"/>
     </row>
     <row r="24" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="59"/>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="59"/>
-      <c r="AJ24" s="59"/>
-      <c r="AK24" s="59"/>
-      <c r="AL24" s="59"/>
-      <c r="AM24" s="59"/>
-      <c r="AN24" s="59"/>
-      <c r="AO24" s="59"/>
-      <c r="AP24" s="60"/>
-      <c r="AQ24" s="67"/>
-      <c r="AR24" s="68"/>
-      <c r="AS24" s="68"/>
-      <c r="AT24" s="68"/>
-      <c r="AU24" s="68"/>
-      <c r="AV24" s="68"/>
-      <c r="AW24" s="68"/>
-      <c r="AX24" s="68"/>
-      <c r="AY24" s="68"/>
-      <c r="AZ24" s="69"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="38"/>
+      <c r="AM24" s="38"/>
+      <c r="AN24" s="38"/>
+      <c r="AO24" s="38"/>
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="46"/>
+      <c r="AR24" s="47"/>
+      <c r="AS24" s="47"/>
+      <c r="AT24" s="47"/>
+      <c r="AU24" s="47"/>
+      <c r="AV24" s="47"/>
+      <c r="AW24" s="47"/>
+      <c r="AX24" s="47"/>
+      <c r="AY24" s="47"/>
+      <c r="AZ24" s="48"/>
     </row>
     <row r="25" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="12"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -5679,22 +7265,22 @@
       <c r="AZ25" s="2"/>
     </row>
     <row r="26" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="15"/>
       <c r="AZ26" s="3"/>
     </row>
     <row r="27" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="15"/>
       <c r="AZ27" s="3"/>
     </row>
     <row r="28" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="31"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -5746,14 +7332,14 @@
       <c r="AZ28" s="18"/>
     </row>
     <row r="29" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="15"/>
       <c r="AZ29" s="3"/>
     </row>
     <row r="30" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
@@ -5805,548 +7391,548 @@
       <c r="AZ30" s="6"/>
     </row>
     <row r="31" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="52" t="s">
+      <c r="C31" s="56"/>
+      <c r="D31" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="53"/>
-      <c r="AC31" s="53"/>
-      <c r="AD31" s="53"/>
-      <c r="AE31" s="53"/>
-      <c r="AF31" s="53"/>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="53"/>
-      <c r="AJ31" s="53"/>
-      <c r="AK31" s="53"/>
-      <c r="AL31" s="53"/>
-      <c r="AM31" s="53"/>
-      <c r="AN31" s="53"/>
-      <c r="AO31" s="53"/>
-      <c r="AP31" s="54"/>
-      <c r="AQ31" s="61" t="s">
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="32"/>
+      <c r="AC31" s="32"/>
+      <c r="AD31" s="32"/>
+      <c r="AE31" s="32"/>
+      <c r="AF31" s="32"/>
+      <c r="AG31" s="32"/>
+      <c r="AH31" s="32"/>
+      <c r="AI31" s="32"/>
+      <c r="AJ31" s="32"/>
+      <c r="AK31" s="32"/>
+      <c r="AL31" s="32"/>
+      <c r="AM31" s="32"/>
+      <c r="AN31" s="32"/>
+      <c r="AO31" s="32"/>
+      <c r="AP31" s="33"/>
+      <c r="AQ31" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="AR31" s="62"/>
-      <c r="AS31" s="62"/>
-      <c r="AT31" s="62"/>
-      <c r="AU31" s="62"/>
-      <c r="AV31" s="62"/>
-      <c r="AW31" s="62"/>
-      <c r="AX31" s="62"/>
-      <c r="AY31" s="62"/>
-      <c r="AZ31" s="63"/>
+      <c r="AR31" s="41"/>
+      <c r="AS31" s="41"/>
+      <c r="AT31" s="41"/>
+      <c r="AU31" s="41"/>
+      <c r="AV31" s="41"/>
+      <c r="AW31" s="41"/>
+      <c r="AX31" s="41"/>
+      <c r="AY31" s="41"/>
+      <c r="AZ31" s="42"/>
     </row>
     <row r="32" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="56"/>
-      <c r="AC32" s="56"/>
-      <c r="AD32" s="56"/>
-      <c r="AE32" s="56"/>
-      <c r="AF32" s="56"/>
-      <c r="AG32" s="56"/>
-      <c r="AH32" s="56"/>
-      <c r="AI32" s="56"/>
-      <c r="AJ32" s="56"/>
-      <c r="AK32" s="56"/>
-      <c r="AL32" s="56"/>
-      <c r="AM32" s="56"/>
-      <c r="AN32" s="56"/>
-      <c r="AO32" s="56"/>
-      <c r="AP32" s="57"/>
-      <c r="AQ32" s="64"/>
-      <c r="AR32" s="65"/>
-      <c r="AS32" s="65"/>
-      <c r="AT32" s="65"/>
-      <c r="AU32" s="65"/>
-      <c r="AV32" s="65"/>
-      <c r="AW32" s="65"/>
-      <c r="AX32" s="65"/>
-      <c r="AY32" s="65"/>
-      <c r="AZ32" s="66"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="35"/>
+      <c r="AF32" s="35"/>
+      <c r="AG32" s="35"/>
+      <c r="AH32" s="35"/>
+      <c r="AI32" s="35"/>
+      <c r="AJ32" s="35"/>
+      <c r="AK32" s="35"/>
+      <c r="AL32" s="35"/>
+      <c r="AM32" s="35"/>
+      <c r="AN32" s="35"/>
+      <c r="AO32" s="35"/>
+      <c r="AP32" s="36"/>
+      <c r="AQ32" s="43"/>
+      <c r="AR32" s="44"/>
+      <c r="AS32" s="44"/>
+      <c r="AT32" s="44"/>
+      <c r="AU32" s="44"/>
+      <c r="AV32" s="44"/>
+      <c r="AW32" s="44"/>
+      <c r="AX32" s="44"/>
+      <c r="AY32" s="44"/>
+      <c r="AZ32" s="45"/>
     </row>
     <row r="33" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="56"/>
-      <c r="AB33" s="56"/>
-      <c r="AC33" s="56"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="56"/>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="56"/>
-      <c r="AH33" s="56"/>
-      <c r="AI33" s="56"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="56"/>
-      <c r="AL33" s="56"/>
-      <c r="AM33" s="56"/>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="56"/>
-      <c r="AP33" s="57"/>
-      <c r="AQ33" s="64"/>
-      <c r="AR33" s="65"/>
-      <c r="AS33" s="65"/>
-      <c r="AT33" s="65"/>
-      <c r="AU33" s="65"/>
-      <c r="AV33" s="65"/>
-      <c r="AW33" s="65"/>
-      <c r="AX33" s="65"/>
-      <c r="AY33" s="65"/>
-      <c r="AZ33" s="66"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35"/>
+      <c r="AF33" s="35"/>
+      <c r="AG33" s="35"/>
+      <c r="AH33" s="35"/>
+      <c r="AI33" s="35"/>
+      <c r="AJ33" s="35"/>
+      <c r="AK33" s="35"/>
+      <c r="AL33" s="35"/>
+      <c r="AM33" s="35"/>
+      <c r="AN33" s="35"/>
+      <c r="AO33" s="35"/>
+      <c r="AP33" s="36"/>
+      <c r="AQ33" s="43"/>
+      <c r="AR33" s="44"/>
+      <c r="AS33" s="44"/>
+      <c r="AT33" s="44"/>
+      <c r="AU33" s="44"/>
+      <c r="AV33" s="44"/>
+      <c r="AW33" s="44"/>
+      <c r="AX33" s="44"/>
+      <c r="AY33" s="44"/>
+      <c r="AZ33" s="45"/>
     </row>
     <row r="34" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="56"/>
-      <c r="Y34" s="56"/>
-      <c r="Z34" s="56"/>
-      <c r="AA34" s="56"/>
-      <c r="AB34" s="56"/>
-      <c r="AC34" s="56"/>
-      <c r="AD34" s="56"/>
-      <c r="AE34" s="56"/>
-      <c r="AF34" s="56"/>
-      <c r="AG34" s="56"/>
-      <c r="AH34" s="56"/>
-      <c r="AI34" s="56"/>
-      <c r="AJ34" s="56"/>
-      <c r="AK34" s="56"/>
-      <c r="AL34" s="56"/>
-      <c r="AM34" s="56"/>
-      <c r="AN34" s="56"/>
-      <c r="AO34" s="56"/>
-      <c r="AP34" s="57"/>
-      <c r="AQ34" s="64"/>
-      <c r="AR34" s="65"/>
-      <c r="AS34" s="65"/>
-      <c r="AT34" s="65"/>
-      <c r="AU34" s="65"/>
-      <c r="AV34" s="65"/>
-      <c r="AW34" s="65"/>
-      <c r="AX34" s="65"/>
-      <c r="AY34" s="65"/>
-      <c r="AZ34" s="66"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="35"/>
+      <c r="AE34" s="35"/>
+      <c r="AF34" s="35"/>
+      <c r="AG34" s="35"/>
+      <c r="AH34" s="35"/>
+      <c r="AI34" s="35"/>
+      <c r="AJ34" s="35"/>
+      <c r="AK34" s="35"/>
+      <c r="AL34" s="35"/>
+      <c r="AM34" s="35"/>
+      <c r="AN34" s="35"/>
+      <c r="AO34" s="35"/>
+      <c r="AP34" s="36"/>
+      <c r="AQ34" s="43"/>
+      <c r="AR34" s="44"/>
+      <c r="AS34" s="44"/>
+      <c r="AT34" s="44"/>
+      <c r="AU34" s="44"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="44"/>
+      <c r="AX34" s="44"/>
+      <c r="AY34" s="44"/>
+      <c r="AZ34" s="45"/>
     </row>
     <row r="35" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56"/>
-      <c r="AA35" s="56"/>
-      <c r="AB35" s="56"/>
-      <c r="AC35" s="56"/>
-      <c r="AD35" s="56"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56"/>
-      <c r="AH35" s="56"/>
-      <c r="AI35" s="56"/>
-      <c r="AJ35" s="56"/>
-      <c r="AK35" s="56"/>
-      <c r="AL35" s="56"/>
-      <c r="AM35" s="56"/>
-      <c r="AN35" s="56"/>
-      <c r="AO35" s="56"/>
-      <c r="AP35" s="57"/>
-      <c r="AQ35" s="64"/>
-      <c r="AR35" s="65"/>
-      <c r="AS35" s="65"/>
-      <c r="AT35" s="65"/>
-      <c r="AU35" s="65"/>
-      <c r="AV35" s="65"/>
-      <c r="AW35" s="65"/>
-      <c r="AX35" s="65"/>
-      <c r="AY35" s="65"/>
-      <c r="AZ35" s="66"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
+      <c r="AF35" s="35"/>
+      <c r="AG35" s="35"/>
+      <c r="AH35" s="35"/>
+      <c r="AI35" s="35"/>
+      <c r="AJ35" s="35"/>
+      <c r="AK35" s="35"/>
+      <c r="AL35" s="35"/>
+      <c r="AM35" s="35"/>
+      <c r="AN35" s="35"/>
+      <c r="AO35" s="35"/>
+      <c r="AP35" s="36"/>
+      <c r="AQ35" s="43"/>
+      <c r="AR35" s="44"/>
+      <c r="AS35" s="44"/>
+      <c r="AT35" s="44"/>
+      <c r="AU35" s="44"/>
+      <c r="AV35" s="44"/>
+      <c r="AW35" s="44"/>
+      <c r="AX35" s="44"/>
+      <c r="AY35" s="44"/>
+      <c r="AZ35" s="45"/>
     </row>
     <row r="36" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="56"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="56"/>
-      <c r="Z36" s="56"/>
-      <c r="AA36" s="56"/>
-      <c r="AB36" s="56"/>
-      <c r="AC36" s="56"/>
-      <c r="AD36" s="56"/>
-      <c r="AE36" s="56"/>
-      <c r="AF36" s="56"/>
-      <c r="AG36" s="56"/>
-      <c r="AH36" s="56"/>
-      <c r="AI36" s="56"/>
-      <c r="AJ36" s="56"/>
-      <c r="AK36" s="56"/>
-      <c r="AL36" s="56"/>
-      <c r="AM36" s="56"/>
-      <c r="AN36" s="56"/>
-      <c r="AO36" s="56"/>
-      <c r="AP36" s="57"/>
-      <c r="AQ36" s="64"/>
-      <c r="AR36" s="65"/>
-      <c r="AS36" s="65"/>
-      <c r="AT36" s="65"/>
-      <c r="AU36" s="65"/>
-      <c r="AV36" s="65"/>
-      <c r="AW36" s="65"/>
-      <c r="AX36" s="65"/>
-      <c r="AY36" s="65"/>
-      <c r="AZ36" s="66"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="35"/>
+      <c r="AF36" s="35"/>
+      <c r="AG36" s="35"/>
+      <c r="AH36" s="35"/>
+      <c r="AI36" s="35"/>
+      <c r="AJ36" s="35"/>
+      <c r="AK36" s="35"/>
+      <c r="AL36" s="35"/>
+      <c r="AM36" s="35"/>
+      <c r="AN36" s="35"/>
+      <c r="AO36" s="35"/>
+      <c r="AP36" s="36"/>
+      <c r="AQ36" s="43"/>
+      <c r="AR36" s="44"/>
+      <c r="AS36" s="44"/>
+      <c r="AT36" s="44"/>
+      <c r="AU36" s="44"/>
+      <c r="AV36" s="44"/>
+      <c r="AW36" s="44"/>
+      <c r="AX36" s="44"/>
+      <c r="AY36" s="44"/>
+      <c r="AZ36" s="45"/>
     </row>
     <row r="37" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="56"/>
-      <c r="AC37" s="56"/>
-      <c r="AD37" s="56"/>
-      <c r="AE37" s="56"/>
-      <c r="AF37" s="56"/>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="56"/>
-      <c r="AJ37" s="56"/>
-      <c r="AK37" s="56"/>
-      <c r="AL37" s="56"/>
-      <c r="AM37" s="56"/>
-      <c r="AN37" s="56"/>
-      <c r="AO37" s="56"/>
-      <c r="AP37" s="57"/>
-      <c r="AQ37" s="64"/>
-      <c r="AR37" s="65"/>
-      <c r="AS37" s="65"/>
-      <c r="AT37" s="65"/>
-      <c r="AU37" s="65"/>
-      <c r="AV37" s="65"/>
-      <c r="AW37" s="65"/>
-      <c r="AX37" s="65"/>
-      <c r="AY37" s="65"/>
-      <c r="AZ37" s="66"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="35"/>
+      <c r="AD37" s="35"/>
+      <c r="AE37" s="35"/>
+      <c r="AF37" s="35"/>
+      <c r="AG37" s="35"/>
+      <c r="AH37" s="35"/>
+      <c r="AI37" s="35"/>
+      <c r="AJ37" s="35"/>
+      <c r="AK37" s="35"/>
+      <c r="AL37" s="35"/>
+      <c r="AM37" s="35"/>
+      <c r="AN37" s="35"/>
+      <c r="AO37" s="35"/>
+      <c r="AP37" s="36"/>
+      <c r="AQ37" s="43"/>
+      <c r="AR37" s="44"/>
+      <c r="AS37" s="44"/>
+      <c r="AT37" s="44"/>
+      <c r="AU37" s="44"/>
+      <c r="AV37" s="44"/>
+      <c r="AW37" s="44"/>
+      <c r="AX37" s="44"/>
+      <c r="AY37" s="44"/>
+      <c r="AZ37" s="45"/>
     </row>
     <row r="38" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="56"/>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="56"/>
-      <c r="T38" s="56"/>
-      <c r="U38" s="56"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="56"/>
-      <c r="Z38" s="56"/>
-      <c r="AA38" s="56"/>
-      <c r="AB38" s="56"/>
-      <c r="AC38" s="56"/>
-      <c r="AD38" s="56"/>
-      <c r="AE38" s="56"/>
-      <c r="AF38" s="56"/>
-      <c r="AG38" s="56"/>
-      <c r="AH38" s="56"/>
-      <c r="AI38" s="56"/>
-      <c r="AJ38" s="56"/>
-      <c r="AK38" s="56"/>
-      <c r="AL38" s="56"/>
-      <c r="AM38" s="56"/>
-      <c r="AN38" s="56"/>
-      <c r="AO38" s="56"/>
-      <c r="AP38" s="57"/>
-      <c r="AQ38" s="64"/>
-      <c r="AR38" s="65"/>
-      <c r="AS38" s="65"/>
-      <c r="AT38" s="65"/>
-      <c r="AU38" s="65"/>
-      <c r="AV38" s="65"/>
-      <c r="AW38" s="65"/>
-      <c r="AX38" s="65"/>
-      <c r="AY38" s="65"/>
-      <c r="AZ38" s="66"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35"/>
+      <c r="AD38" s="35"/>
+      <c r="AE38" s="35"/>
+      <c r="AF38" s="35"/>
+      <c r="AG38" s="35"/>
+      <c r="AH38" s="35"/>
+      <c r="AI38" s="35"/>
+      <c r="AJ38" s="35"/>
+      <c r="AK38" s="35"/>
+      <c r="AL38" s="35"/>
+      <c r="AM38" s="35"/>
+      <c r="AN38" s="35"/>
+      <c r="AO38" s="35"/>
+      <c r="AP38" s="36"/>
+      <c r="AQ38" s="43"/>
+      <c r="AR38" s="44"/>
+      <c r="AS38" s="44"/>
+      <c r="AT38" s="44"/>
+      <c r="AU38" s="44"/>
+      <c r="AV38" s="44"/>
+      <c r="AW38" s="44"/>
+      <c r="AX38" s="44"/>
+      <c r="AY38" s="44"/>
+      <c r="AZ38" s="45"/>
     </row>
     <row r="39" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="56"/>
-      <c r="AE39" s="56"/>
-      <c r="AF39" s="56"/>
-      <c r="AG39" s="56"/>
-      <c r="AH39" s="56"/>
-      <c r="AI39" s="56"/>
-      <c r="AJ39" s="56"/>
-      <c r="AK39" s="56"/>
-      <c r="AL39" s="56"/>
-      <c r="AM39" s="56"/>
-      <c r="AN39" s="56"/>
-      <c r="AO39" s="56"/>
-      <c r="AP39" s="57"/>
-      <c r="AQ39" s="64"/>
-      <c r="AR39" s="65"/>
-      <c r="AS39" s="65"/>
-      <c r="AT39" s="65"/>
-      <c r="AU39" s="65"/>
-      <c r="AV39" s="65"/>
-      <c r="AW39" s="65"/>
-      <c r="AX39" s="65"/>
-      <c r="AY39" s="65"/>
-      <c r="AZ39" s="66"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
+      <c r="AD39" s="35"/>
+      <c r="AE39" s="35"/>
+      <c r="AF39" s="35"/>
+      <c r="AG39" s="35"/>
+      <c r="AH39" s="35"/>
+      <c r="AI39" s="35"/>
+      <c r="AJ39" s="35"/>
+      <c r="AK39" s="35"/>
+      <c r="AL39" s="35"/>
+      <c r="AM39" s="35"/>
+      <c r="AN39" s="35"/>
+      <c r="AO39" s="35"/>
+      <c r="AP39" s="36"/>
+      <c r="AQ39" s="43"/>
+      <c r="AR39" s="44"/>
+      <c r="AS39" s="44"/>
+      <c r="AT39" s="44"/>
+      <c r="AU39" s="44"/>
+      <c r="AV39" s="44"/>
+      <c r="AW39" s="44"/>
+      <c r="AX39" s="44"/>
+      <c r="AY39" s="44"/>
+      <c r="AZ39" s="45"/>
     </row>
     <row r="40" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="59"/>
-      <c r="AF40" s="59"/>
-      <c r="AG40" s="59"/>
-      <c r="AH40" s="59"/>
-      <c r="AI40" s="59"/>
-      <c r="AJ40" s="59"/>
-      <c r="AK40" s="59"/>
-      <c r="AL40" s="59"/>
-      <c r="AM40" s="59"/>
-      <c r="AN40" s="59"/>
-      <c r="AO40" s="59"/>
-      <c r="AP40" s="60"/>
-      <c r="AQ40" s="67"/>
-      <c r="AR40" s="68"/>
-      <c r="AS40" s="68"/>
-      <c r="AT40" s="68"/>
-      <c r="AU40" s="68"/>
-      <c r="AV40" s="68"/>
-      <c r="AW40" s="68"/>
-      <c r="AX40" s="68"/>
-      <c r="AY40" s="68"/>
-      <c r="AZ40" s="69"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="38"/>
+      <c r="Z40" s="38"/>
+      <c r="AA40" s="38"/>
+      <c r="AB40" s="38"/>
+      <c r="AC40" s="38"/>
+      <c r="AD40" s="38"/>
+      <c r="AE40" s="38"/>
+      <c r="AF40" s="38"/>
+      <c r="AG40" s="38"/>
+      <c r="AH40" s="38"/>
+      <c r="AI40" s="38"/>
+      <c r="AJ40" s="38"/>
+      <c r="AK40" s="38"/>
+      <c r="AL40" s="38"/>
+      <c r="AM40" s="38"/>
+      <c r="AN40" s="38"/>
+      <c r="AO40" s="38"/>
+      <c r="AP40" s="39"/>
+      <c r="AQ40" s="46"/>
+      <c r="AR40" s="47"/>
+      <c r="AS40" s="47"/>
+      <c r="AT40" s="47"/>
+      <c r="AU40" s="47"/>
+      <c r="AV40" s="47"/>
+      <c r="AW40" s="47"/>
+      <c r="AX40" s="47"/>
+      <c r="AY40" s="47"/>
+      <c r="AZ40" s="48"/>
     </row>
     <row r="41" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="27"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="12"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -6398,22 +7984,22 @@
       <c r="AZ41" s="2"/>
     </row>
     <row r="42" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="28"/>
-      <c r="C42" s="29"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="15"/>
       <c r="AZ42" s="3"/>
     </row>
     <row r="43" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="15"/>
       <c r="AZ43" s="3"/>
     </row>
     <row r="44" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="31"/>
+      <c r="C44" s="67"/>
       <c r="D44" s="16"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
@@ -6465,14 +8051,14 @@
       <c r="AZ44" s="18"/>
     </row>
     <row r="45" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="28"/>
-      <c r="C45" s="29"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="62"/>
       <c r="D45" s="15"/>
       <c r="AZ45" s="3"/>
     </row>
     <row r="46" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="32"/>
-      <c r="C46" s="33"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="69"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="6"/>
@@ -6524,611 +8110,613 @@
       <c r="AZ46" s="6"/>
     </row>
     <row r="47" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="22" t="s">
-        <v>4</v>
+      <c r="B47" s="55" t="s">
+        <v>18</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="53"/>
-      <c r="V47" s="53"/>
-      <c r="W47" s="53"/>
-      <c r="X47" s="53"/>
-      <c r="Y47" s="53"/>
-      <c r="Z47" s="53"/>
-      <c r="AA47" s="53"/>
-      <c r="AB47" s="53"/>
-      <c r="AC47" s="53"/>
-      <c r="AD47" s="53"/>
-      <c r="AE47" s="53"/>
-      <c r="AF47" s="53"/>
-      <c r="AG47" s="53"/>
-      <c r="AH47" s="53"/>
-      <c r="AI47" s="53"/>
-      <c r="AJ47" s="53"/>
-      <c r="AK47" s="53"/>
-      <c r="AL47" s="53"/>
-      <c r="AM47" s="53"/>
-      <c r="AN47" s="53"/>
-      <c r="AO47" s="53"/>
-      <c r="AP47" s="54"/>
-      <c r="AQ47" s="52"/>
-      <c r="AR47" s="53"/>
-      <c r="AS47" s="53"/>
-      <c r="AT47" s="53"/>
-      <c r="AU47" s="53"/>
-      <c r="AV47" s="53"/>
-      <c r="AW47" s="53"/>
-      <c r="AX47" s="53"/>
-      <c r="AY47" s="53"/>
-      <c r="AZ47" s="54"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="32"/>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="32"/>
+      <c r="AE47" s="32"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32"/>
+      <c r="AI47" s="32"/>
+      <c r="AJ47" s="32"/>
+      <c r="AK47" s="32"/>
+      <c r="AL47" s="32"/>
+      <c r="AM47" s="32"/>
+      <c r="AN47" s="32"/>
+      <c r="AO47" s="32"/>
+      <c r="AP47" s="33"/>
+      <c r="AQ47" s="31"/>
+      <c r="AR47" s="32"/>
+      <c r="AS47" s="32"/>
+      <c r="AT47" s="32"/>
+      <c r="AU47" s="32"/>
+      <c r="AV47" s="32"/>
+      <c r="AW47" s="32"/>
+      <c r="AX47" s="32"/>
+      <c r="AY47" s="32"/>
+      <c r="AZ47" s="33"/>
     </row>
     <row r="48" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="56"/>
-      <c r="T48" s="56"/>
-      <c r="U48" s="56"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="56"/>
-      <c r="X48" s="56"/>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="56"/>
-      <c r="AC48" s="56"/>
-      <c r="AD48" s="56"/>
-      <c r="AE48" s="56"/>
-      <c r="AF48" s="56"/>
-      <c r="AG48" s="56"/>
-      <c r="AH48" s="56"/>
-      <c r="AI48" s="56"/>
-      <c r="AJ48" s="56"/>
-      <c r="AK48" s="56"/>
-      <c r="AL48" s="56"/>
-      <c r="AM48" s="56"/>
-      <c r="AN48" s="56"/>
-      <c r="AO48" s="56"/>
-      <c r="AP48" s="57"/>
-      <c r="AQ48" s="55"/>
-      <c r="AR48" s="56"/>
-      <c r="AS48" s="56"/>
-      <c r="AT48" s="56"/>
-      <c r="AU48" s="56"/>
-      <c r="AV48" s="56"/>
-      <c r="AW48" s="56"/>
-      <c r="AX48" s="56"/>
-      <c r="AY48" s="56"/>
-      <c r="AZ48" s="57"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="35"/>
+      <c r="AD48" s="35"/>
+      <c r="AE48" s="35"/>
+      <c r="AF48" s="35"/>
+      <c r="AG48" s="35"/>
+      <c r="AH48" s="35"/>
+      <c r="AI48" s="35"/>
+      <c r="AJ48" s="35"/>
+      <c r="AK48" s="35"/>
+      <c r="AL48" s="35"/>
+      <c r="AM48" s="35"/>
+      <c r="AN48" s="35"/>
+      <c r="AO48" s="35"/>
+      <c r="AP48" s="36"/>
+      <c r="AQ48" s="34"/>
+      <c r="AR48" s="35"/>
+      <c r="AS48" s="35"/>
+      <c r="AT48" s="35"/>
+      <c r="AU48" s="35"/>
+      <c r="AV48" s="35"/>
+      <c r="AW48" s="35"/>
+      <c r="AX48" s="35"/>
+      <c r="AY48" s="35"/>
+      <c r="AZ48" s="36"/>
     </row>
     <row r="49" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="56"/>
-      <c r="P49" s="56"/>
-      <c r="Q49" s="56"/>
-      <c r="R49" s="56"/>
-      <c r="S49" s="56"/>
-      <c r="T49" s="56"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="56"/>
-      <c r="Z49" s="56"/>
-      <c r="AA49" s="56"/>
-      <c r="AB49" s="56"/>
-      <c r="AC49" s="56"/>
-      <c r="AD49" s="56"/>
-      <c r="AE49" s="56"/>
-      <c r="AF49" s="56"/>
-      <c r="AG49" s="56"/>
-      <c r="AH49" s="56"/>
-      <c r="AI49" s="56"/>
-      <c r="AJ49" s="56"/>
-      <c r="AK49" s="56"/>
-      <c r="AL49" s="56"/>
-      <c r="AM49" s="56"/>
-      <c r="AN49" s="56"/>
-      <c r="AO49" s="56"/>
-      <c r="AP49" s="57"/>
-      <c r="AQ49" s="55"/>
-      <c r="AR49" s="56"/>
-      <c r="AS49" s="56"/>
-      <c r="AT49" s="56"/>
-      <c r="AU49" s="56"/>
-      <c r="AV49" s="56"/>
-      <c r="AW49" s="56"/>
-      <c r="AX49" s="56"/>
-      <c r="AY49" s="56"/>
-      <c r="AZ49" s="57"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="35"/>
+      <c r="AD49" s="35"/>
+      <c r="AE49" s="35"/>
+      <c r="AF49" s="35"/>
+      <c r="AG49" s="35"/>
+      <c r="AH49" s="35"/>
+      <c r="AI49" s="35"/>
+      <c r="AJ49" s="35"/>
+      <c r="AK49" s="35"/>
+      <c r="AL49" s="35"/>
+      <c r="AM49" s="35"/>
+      <c r="AN49" s="35"/>
+      <c r="AO49" s="35"/>
+      <c r="AP49" s="36"/>
+      <c r="AQ49" s="34"/>
+      <c r="AR49" s="35"/>
+      <c r="AS49" s="35"/>
+      <c r="AT49" s="35"/>
+      <c r="AU49" s="35"/>
+      <c r="AV49" s="35"/>
+      <c r="AW49" s="35"/>
+      <c r="AX49" s="35"/>
+      <c r="AY49" s="35"/>
+      <c r="AZ49" s="36"/>
     </row>
     <row r="50" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="56"/>
-      <c r="Q50" s="56"/>
-      <c r="R50" s="56"/>
-      <c r="S50" s="56"/>
-      <c r="T50" s="56"/>
-      <c r="U50" s="56"/>
-      <c r="V50" s="56"/>
-      <c r="W50" s="56"/>
-      <c r="X50" s="56"/>
-      <c r="Y50" s="56"/>
-      <c r="Z50" s="56"/>
-      <c r="AA50" s="56"/>
-      <c r="AB50" s="56"/>
-      <c r="AC50" s="56"/>
-      <c r="AD50" s="56"/>
-      <c r="AE50" s="56"/>
-      <c r="AF50" s="56"/>
-      <c r="AG50" s="56"/>
-      <c r="AH50" s="56"/>
-      <c r="AI50" s="56"/>
-      <c r="AJ50" s="56"/>
-      <c r="AK50" s="56"/>
-      <c r="AL50" s="56"/>
-      <c r="AM50" s="56"/>
-      <c r="AN50" s="56"/>
-      <c r="AO50" s="56"/>
-      <c r="AP50" s="57"/>
-      <c r="AQ50" s="55"/>
-      <c r="AR50" s="56"/>
-      <c r="AS50" s="56"/>
-      <c r="AT50" s="56"/>
-      <c r="AU50" s="56"/>
-      <c r="AV50" s="56"/>
-      <c r="AW50" s="56"/>
-      <c r="AX50" s="56"/>
-      <c r="AY50" s="56"/>
-      <c r="AZ50" s="57"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="35"/>
+      <c r="AA50" s="35"/>
+      <c r="AB50" s="35"/>
+      <c r="AC50" s="35"/>
+      <c r="AD50" s="35"/>
+      <c r="AE50" s="35"/>
+      <c r="AF50" s="35"/>
+      <c r="AG50" s="35"/>
+      <c r="AH50" s="35"/>
+      <c r="AI50" s="35"/>
+      <c r="AJ50" s="35"/>
+      <c r="AK50" s="35"/>
+      <c r="AL50" s="35"/>
+      <c r="AM50" s="35"/>
+      <c r="AN50" s="35"/>
+      <c r="AO50" s="35"/>
+      <c r="AP50" s="36"/>
+      <c r="AQ50" s="34"/>
+      <c r="AR50" s="35"/>
+      <c r="AS50" s="35"/>
+      <c r="AT50" s="35"/>
+      <c r="AU50" s="35"/>
+      <c r="AV50" s="35"/>
+      <c r="AW50" s="35"/>
+      <c r="AX50" s="35"/>
+      <c r="AY50" s="35"/>
+      <c r="AZ50" s="36"/>
     </row>
     <row r="51" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="56"/>
-      <c r="Q51" s="56"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="56"/>
-      <c r="T51" s="56"/>
-      <c r="U51" s="56"/>
-      <c r="V51" s="56"/>
-      <c r="W51" s="56"/>
-      <c r="X51" s="56"/>
-      <c r="Y51" s="56"/>
-      <c r="Z51" s="56"/>
-      <c r="AA51" s="56"/>
-      <c r="AB51" s="56"/>
-      <c r="AC51" s="56"/>
-      <c r="AD51" s="56"/>
-      <c r="AE51" s="56"/>
-      <c r="AF51" s="56"/>
-      <c r="AG51" s="56"/>
-      <c r="AH51" s="56"/>
-      <c r="AI51" s="56"/>
-      <c r="AJ51" s="56"/>
-      <c r="AK51" s="56"/>
-      <c r="AL51" s="56"/>
-      <c r="AM51" s="56"/>
-      <c r="AN51" s="56"/>
-      <c r="AO51" s="56"/>
-      <c r="AP51" s="57"/>
-      <c r="AQ51" s="55"/>
-      <c r="AR51" s="56"/>
-      <c r="AS51" s="56"/>
-      <c r="AT51" s="56"/>
-      <c r="AU51" s="56"/>
-      <c r="AV51" s="56"/>
-      <c r="AW51" s="56"/>
-      <c r="AX51" s="56"/>
-      <c r="AY51" s="56"/>
-      <c r="AZ51" s="57"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="35"/>
+      <c r="Y51" s="35"/>
+      <c r="Z51" s="35"/>
+      <c r="AA51" s="35"/>
+      <c r="AB51" s="35"/>
+      <c r="AC51" s="35"/>
+      <c r="AD51" s="35"/>
+      <c r="AE51" s="35"/>
+      <c r="AF51" s="35"/>
+      <c r="AG51" s="35"/>
+      <c r="AH51" s="35"/>
+      <c r="AI51" s="35"/>
+      <c r="AJ51" s="35"/>
+      <c r="AK51" s="35"/>
+      <c r="AL51" s="35"/>
+      <c r="AM51" s="35"/>
+      <c r="AN51" s="35"/>
+      <c r="AO51" s="35"/>
+      <c r="AP51" s="36"/>
+      <c r="AQ51" s="34"/>
+      <c r="AR51" s="35"/>
+      <c r="AS51" s="35"/>
+      <c r="AT51" s="35"/>
+      <c r="AU51" s="35"/>
+      <c r="AV51" s="35"/>
+      <c r="AW51" s="35"/>
+      <c r="AX51" s="35"/>
+      <c r="AY51" s="35"/>
+      <c r="AZ51" s="36"/>
     </row>
     <row r="52" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="56"/>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="56"/>
-      <c r="S52" s="56"/>
-      <c r="T52" s="56"/>
-      <c r="U52" s="56"/>
-      <c r="V52" s="56"/>
-      <c r="W52" s="56"/>
-      <c r="X52" s="56"/>
-      <c r="Y52" s="56"/>
-      <c r="Z52" s="56"/>
-      <c r="AA52" s="56"/>
-      <c r="AB52" s="56"/>
-      <c r="AC52" s="56"/>
-      <c r="AD52" s="56"/>
-      <c r="AE52" s="56"/>
-      <c r="AF52" s="56"/>
-      <c r="AG52" s="56"/>
-      <c r="AH52" s="56"/>
-      <c r="AI52" s="56"/>
-      <c r="AJ52" s="56"/>
-      <c r="AK52" s="56"/>
-      <c r="AL52" s="56"/>
-      <c r="AM52" s="56"/>
-      <c r="AN52" s="56"/>
-      <c r="AO52" s="56"/>
-      <c r="AP52" s="57"/>
-      <c r="AQ52" s="55"/>
-      <c r="AR52" s="56"/>
-      <c r="AS52" s="56"/>
-      <c r="AT52" s="56"/>
-      <c r="AU52" s="56"/>
-      <c r="AV52" s="56"/>
-      <c r="AW52" s="56"/>
-      <c r="AX52" s="56"/>
-      <c r="AY52" s="56"/>
-      <c r="AZ52" s="57"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="35"/>
+      <c r="V52" s="35"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="35"/>
+      <c r="Y52" s="35"/>
+      <c r="Z52" s="35"/>
+      <c r="AA52" s="35"/>
+      <c r="AB52" s="35"/>
+      <c r="AC52" s="35"/>
+      <c r="AD52" s="35"/>
+      <c r="AE52" s="35"/>
+      <c r="AF52" s="35"/>
+      <c r="AG52" s="35"/>
+      <c r="AH52" s="35"/>
+      <c r="AI52" s="35"/>
+      <c r="AJ52" s="35"/>
+      <c r="AK52" s="35"/>
+      <c r="AL52" s="35"/>
+      <c r="AM52" s="35"/>
+      <c r="AN52" s="35"/>
+      <c r="AO52" s="35"/>
+      <c r="AP52" s="36"/>
+      <c r="AQ52" s="34"/>
+      <c r="AR52" s="35"/>
+      <c r="AS52" s="35"/>
+      <c r="AT52" s="35"/>
+      <c r="AU52" s="35"/>
+      <c r="AV52" s="35"/>
+      <c r="AW52" s="35"/>
+      <c r="AX52" s="35"/>
+      <c r="AY52" s="35"/>
+      <c r="AZ52" s="36"/>
     </row>
     <row r="53" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="56"/>
-      <c r="Q53" s="56"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="56"/>
-      <c r="T53" s="56"/>
-      <c r="U53" s="56"/>
-      <c r="V53" s="56"/>
-      <c r="W53" s="56"/>
-      <c r="X53" s="56"/>
-      <c r="Y53" s="56"/>
-      <c r="Z53" s="56"/>
-      <c r="AA53" s="56"/>
-      <c r="AB53" s="56"/>
-      <c r="AC53" s="56"/>
-      <c r="AD53" s="56"/>
-      <c r="AE53" s="56"/>
-      <c r="AF53" s="56"/>
-      <c r="AG53" s="56"/>
-      <c r="AH53" s="56"/>
-      <c r="AI53" s="56"/>
-      <c r="AJ53" s="56"/>
-      <c r="AK53" s="56"/>
-      <c r="AL53" s="56"/>
-      <c r="AM53" s="56"/>
-      <c r="AN53" s="56"/>
-      <c r="AO53" s="56"/>
-      <c r="AP53" s="57"/>
-      <c r="AQ53" s="55"/>
-      <c r="AR53" s="56"/>
-      <c r="AS53" s="56"/>
-      <c r="AT53" s="56"/>
-      <c r="AU53" s="56"/>
-      <c r="AV53" s="56"/>
-      <c r="AW53" s="56"/>
-      <c r="AX53" s="56"/>
-      <c r="AY53" s="56"/>
-      <c r="AZ53" s="57"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="35"/>
+      <c r="AD53" s="35"/>
+      <c r="AE53" s="35"/>
+      <c r="AF53" s="35"/>
+      <c r="AG53" s="35"/>
+      <c r="AH53" s="35"/>
+      <c r="AI53" s="35"/>
+      <c r="AJ53" s="35"/>
+      <c r="AK53" s="35"/>
+      <c r="AL53" s="35"/>
+      <c r="AM53" s="35"/>
+      <c r="AN53" s="35"/>
+      <c r="AO53" s="35"/>
+      <c r="AP53" s="36"/>
+      <c r="AQ53" s="34"/>
+      <c r="AR53" s="35"/>
+      <c r="AS53" s="35"/>
+      <c r="AT53" s="35"/>
+      <c r="AU53" s="35"/>
+      <c r="AV53" s="35"/>
+      <c r="AW53" s="35"/>
+      <c r="AX53" s="35"/>
+      <c r="AY53" s="35"/>
+      <c r="AZ53" s="36"/>
     </row>
     <row r="54" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="56"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="56"/>
-      <c r="S54" s="56"/>
-      <c r="T54" s="56"/>
-      <c r="U54" s="56"/>
-      <c r="V54" s="56"/>
-      <c r="W54" s="56"/>
-      <c r="X54" s="56"/>
-      <c r="Y54" s="56"/>
-      <c r="Z54" s="56"/>
-      <c r="AA54" s="56"/>
-      <c r="AB54" s="56"/>
-      <c r="AC54" s="56"/>
-      <c r="AD54" s="56"/>
-      <c r="AE54" s="56"/>
-      <c r="AF54" s="56"/>
-      <c r="AG54" s="56"/>
-      <c r="AH54" s="56"/>
-      <c r="AI54" s="56"/>
-      <c r="AJ54" s="56"/>
-      <c r="AK54" s="56"/>
-      <c r="AL54" s="56"/>
-      <c r="AM54" s="56"/>
-      <c r="AN54" s="56"/>
-      <c r="AO54" s="56"/>
-      <c r="AP54" s="57"/>
-      <c r="AQ54" s="55"/>
-      <c r="AR54" s="56"/>
-      <c r="AS54" s="56"/>
-      <c r="AT54" s="56"/>
-      <c r="AU54" s="56"/>
-      <c r="AV54" s="56"/>
-      <c r="AW54" s="56"/>
-      <c r="AX54" s="56"/>
-      <c r="AY54" s="56"/>
-      <c r="AZ54" s="57"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="35"/>
+      <c r="Y54" s="35"/>
+      <c r="Z54" s="35"/>
+      <c r="AA54" s="35"/>
+      <c r="AB54" s="35"/>
+      <c r="AC54" s="35"/>
+      <c r="AD54" s="35"/>
+      <c r="AE54" s="35"/>
+      <c r="AF54" s="35"/>
+      <c r="AG54" s="35"/>
+      <c r="AH54" s="35"/>
+      <c r="AI54" s="35"/>
+      <c r="AJ54" s="35"/>
+      <c r="AK54" s="35"/>
+      <c r="AL54" s="35"/>
+      <c r="AM54" s="35"/>
+      <c r="AN54" s="35"/>
+      <c r="AO54" s="35"/>
+      <c r="AP54" s="36"/>
+      <c r="AQ54" s="34"/>
+      <c r="AR54" s="35"/>
+      <c r="AS54" s="35"/>
+      <c r="AT54" s="35"/>
+      <c r="AU54" s="35"/>
+      <c r="AV54" s="35"/>
+      <c r="AW54" s="35"/>
+      <c r="AX54" s="35"/>
+      <c r="AY54" s="35"/>
+      <c r="AZ54" s="36"/>
     </row>
     <row r="55" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="56"/>
-      <c r="Q55" s="56"/>
-      <c r="R55" s="56"/>
-      <c r="S55" s="56"/>
-      <c r="T55" s="56"/>
-      <c r="U55" s="56"/>
-      <c r="V55" s="56"/>
-      <c r="W55" s="56"/>
-      <c r="X55" s="56"/>
-      <c r="Y55" s="56"/>
-      <c r="Z55" s="56"/>
-      <c r="AA55" s="56"/>
-      <c r="AB55" s="56"/>
-      <c r="AC55" s="56"/>
-      <c r="AD55" s="56"/>
-      <c r="AE55" s="56"/>
-      <c r="AF55" s="56"/>
-      <c r="AG55" s="56"/>
-      <c r="AH55" s="56"/>
-      <c r="AI55" s="56"/>
-      <c r="AJ55" s="56"/>
-      <c r="AK55" s="56"/>
-      <c r="AL55" s="56"/>
-      <c r="AM55" s="56"/>
-      <c r="AN55" s="56"/>
-      <c r="AO55" s="56"/>
-      <c r="AP55" s="57"/>
-      <c r="AQ55" s="55"/>
-      <c r="AR55" s="56"/>
-      <c r="AS55" s="56"/>
-      <c r="AT55" s="56"/>
-      <c r="AU55" s="56"/>
-      <c r="AV55" s="56"/>
-      <c r="AW55" s="56"/>
-      <c r="AX55" s="56"/>
-      <c r="AY55" s="56"/>
-      <c r="AZ55" s="57"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="35"/>
+      <c r="AB55" s="35"/>
+      <c r="AC55" s="35"/>
+      <c r="AD55" s="35"/>
+      <c r="AE55" s="35"/>
+      <c r="AF55" s="35"/>
+      <c r="AG55" s="35"/>
+      <c r="AH55" s="35"/>
+      <c r="AI55" s="35"/>
+      <c r="AJ55" s="35"/>
+      <c r="AK55" s="35"/>
+      <c r="AL55" s="35"/>
+      <c r="AM55" s="35"/>
+      <c r="AN55" s="35"/>
+      <c r="AO55" s="35"/>
+      <c r="AP55" s="36"/>
+      <c r="AQ55" s="34"/>
+      <c r="AR55" s="35"/>
+      <c r="AS55" s="35"/>
+      <c r="AT55" s="35"/>
+      <c r="AU55" s="35"/>
+      <c r="AV55" s="35"/>
+      <c r="AW55" s="35"/>
+      <c r="AX55" s="35"/>
+      <c r="AY55" s="35"/>
+      <c r="AZ55" s="36"/>
     </row>
     <row r="56" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="36"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="59"/>
-      <c r="O56" s="59"/>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="59"/>
-      <c r="S56" s="59"/>
-      <c r="T56" s="59"/>
-      <c r="U56" s="59"/>
-      <c r="V56" s="59"/>
-      <c r="W56" s="59"/>
-      <c r="X56" s="59"/>
-      <c r="Y56" s="59"/>
-      <c r="Z56" s="59"/>
-      <c r="AA56" s="59"/>
-      <c r="AB56" s="59"/>
-      <c r="AC56" s="59"/>
-      <c r="AD56" s="59"/>
-      <c r="AE56" s="59"/>
-      <c r="AF56" s="59"/>
-      <c r="AG56" s="59"/>
-      <c r="AH56" s="59"/>
-      <c r="AI56" s="59"/>
-      <c r="AJ56" s="59"/>
-      <c r="AK56" s="59"/>
-      <c r="AL56" s="59"/>
-      <c r="AM56" s="59"/>
-      <c r="AN56" s="59"/>
-      <c r="AO56" s="59"/>
-      <c r="AP56" s="60"/>
-      <c r="AQ56" s="58"/>
-      <c r="AR56" s="59"/>
-      <c r="AS56" s="59"/>
-      <c r="AT56" s="59"/>
-      <c r="AU56" s="59"/>
-      <c r="AV56" s="59"/>
-      <c r="AW56" s="59"/>
-      <c r="AX56" s="59"/>
-      <c r="AY56" s="59"/>
-      <c r="AZ56" s="60"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="38"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="38"/>
+      <c r="V56" s="38"/>
+      <c r="W56" s="38"/>
+      <c r="X56" s="38"/>
+      <c r="Y56" s="38"/>
+      <c r="Z56" s="38"/>
+      <c r="AA56" s="38"/>
+      <c r="AB56" s="38"/>
+      <c r="AC56" s="38"/>
+      <c r="AD56" s="38"/>
+      <c r="AE56" s="38"/>
+      <c r="AF56" s="38"/>
+      <c r="AG56" s="38"/>
+      <c r="AH56" s="38"/>
+      <c r="AI56" s="38"/>
+      <c r="AJ56" s="38"/>
+      <c r="AK56" s="38"/>
+      <c r="AL56" s="38"/>
+      <c r="AM56" s="38"/>
+      <c r="AN56" s="38"/>
+      <c r="AO56" s="38"/>
+      <c r="AP56" s="39"/>
+      <c r="AQ56" s="37"/>
+      <c r="AR56" s="38"/>
+      <c r="AS56" s="38"/>
+      <c r="AT56" s="38"/>
+      <c r="AU56" s="38"/>
+      <c r="AV56" s="38"/>
+      <c r="AW56" s="38"/>
+      <c r="AX56" s="38"/>
+      <c r="AY56" s="38"/>
+      <c r="AZ56" s="39"/>
     </row>
     <row r="57" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="27"/>
+      <c r="C57" s="60"/>
       <c r="D57" s="12"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="13"/>
-      <c r="Z57" s="12"/>
-      <c r="AA57" s="1"/>
-      <c r="AB57" s="1"/>
-      <c r="AC57" s="1"/>
-      <c r="AD57" s="1"/>
-      <c r="AE57" s="1"/>
-      <c r="AF57" s="12"/>
-      <c r="AG57" s="1"/>
-      <c r="AH57" s="1"/>
-      <c r="AI57" s="1"/>
-      <c r="AJ57" s="1"/>
-      <c r="AK57" s="2"/>
-      <c r="AL57" s="1"/>
-      <c r="AM57" s="1"/>
-      <c r="AN57" s="1"/>
-      <c r="AO57" s="1"/>
-      <c r="AP57" s="1"/>
-      <c r="AQ57" s="1"/>
-      <c r="AR57" s="12"/>
-      <c r="AS57" s="1"/>
-      <c r="AT57" s="1"/>
-      <c r="AU57" s="1"/>
-      <c r="AV57" s="1"/>
-      <c r="AW57" s="2"/>
-      <c r="AX57" s="1"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="17"/>
+      <c r="X57" s="17"/>
+      <c r="Y57" s="17"/>
+      <c r="Z57" s="17"/>
+      <c r="AA57" s="17"/>
+      <c r="AB57" s="17"/>
+      <c r="AC57" s="17"/>
+      <c r="AD57" s="17"/>
+      <c r="AE57" s="17"/>
+      <c r="AF57" s="17"/>
+      <c r="AG57" s="17"/>
+      <c r="AH57" s="17"/>
+      <c r="AI57" s="17"/>
+      <c r="AJ57" s="17"/>
+      <c r="AK57" s="17"/>
+      <c r="AL57" s="17"/>
+      <c r="AM57" s="17"/>
+      <c r="AN57" s="17"/>
+      <c r="AO57" s="17"/>
+      <c r="AP57" s="17"/>
+      <c r="AQ57" s="17"/>
+      <c r="AR57" s="17"/>
+      <c r="AS57" s="17"/>
+      <c r="AT57" s="17"/>
+      <c r="AU57" s="17"/>
+      <c r="AV57" s="17"/>
+      <c r="AW57" s="17"/>
+      <c r="AX57" s="17"/>
       <c r="AY57" s="1"/>
       <c r="AZ57" s="2"/>
     </row>
     <row r="58" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="28"/>
-      <c r="C58" s="29"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="62"/>
       <c r="D58" s="15"/>
       <c r="AZ58" s="3"/>
     </row>
     <row r="59" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="28"/>
-      <c r="C59" s="29"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="62"/>
       <c r="D59" s="15"/>
       <c r="AZ59" s="3"/>
     </row>
     <row r="60" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="31"/>
+      <c r="C60" s="67"/>
       <c r="D60" s="16"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -7180,14 +8768,14 @@
       <c r="AZ60" s="18"/>
     </row>
     <row r="61" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="28"/>
-      <c r="C61" s="29"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="62"/>
       <c r="D61" s="15"/>
       <c r="AZ61" s="3"/>
     </row>
     <row r="62" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="32"/>
-      <c r="C62" s="33"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="69"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="6"/>
@@ -7239,544 +8827,544 @@
       <c r="AZ62" s="6"/>
     </row>
     <row r="63" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="23"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="53"/>
-      <c r="O63" s="53"/>
-      <c r="P63" s="53"/>
-      <c r="Q63" s="53"/>
-      <c r="R63" s="53"/>
-      <c r="S63" s="53"/>
-      <c r="T63" s="53"/>
-      <c r="U63" s="53"/>
-      <c r="V63" s="53"/>
-      <c r="W63" s="53"/>
-      <c r="X63" s="53"/>
-      <c r="Y63" s="53"/>
-      <c r="Z63" s="53"/>
-      <c r="AA63" s="53"/>
-      <c r="AB63" s="53"/>
-      <c r="AC63" s="53"/>
-      <c r="AD63" s="53"/>
-      <c r="AE63" s="53"/>
-      <c r="AF63" s="53"/>
-      <c r="AG63" s="53"/>
-      <c r="AH63" s="53"/>
-      <c r="AI63" s="53"/>
-      <c r="AJ63" s="53"/>
-      <c r="AK63" s="53"/>
-      <c r="AL63" s="53"/>
-      <c r="AM63" s="53"/>
-      <c r="AN63" s="53"/>
-      <c r="AO63" s="53"/>
-      <c r="AP63" s="54"/>
-      <c r="AQ63" s="52"/>
-      <c r="AR63" s="53"/>
-      <c r="AS63" s="53"/>
-      <c r="AT63" s="53"/>
-      <c r="AU63" s="53"/>
-      <c r="AV63" s="53"/>
-      <c r="AW63" s="53"/>
-      <c r="AX63" s="53"/>
-      <c r="AY63" s="53"/>
-      <c r="AZ63" s="54"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="32"/>
+      <c r="U63" s="32"/>
+      <c r="V63" s="32"/>
+      <c r="W63" s="32"/>
+      <c r="X63" s="32"/>
+      <c r="Y63" s="32"/>
+      <c r="Z63" s="32"/>
+      <c r="AA63" s="32"/>
+      <c r="AB63" s="32"/>
+      <c r="AC63" s="32"/>
+      <c r="AD63" s="32"/>
+      <c r="AE63" s="32"/>
+      <c r="AF63" s="32"/>
+      <c r="AG63" s="32"/>
+      <c r="AH63" s="32"/>
+      <c r="AI63" s="32"/>
+      <c r="AJ63" s="32"/>
+      <c r="AK63" s="32"/>
+      <c r="AL63" s="32"/>
+      <c r="AM63" s="32"/>
+      <c r="AN63" s="32"/>
+      <c r="AO63" s="32"/>
+      <c r="AP63" s="33"/>
+      <c r="AQ63" s="31"/>
+      <c r="AR63" s="32"/>
+      <c r="AS63" s="32"/>
+      <c r="AT63" s="32"/>
+      <c r="AU63" s="32"/>
+      <c r="AV63" s="32"/>
+      <c r="AW63" s="32"/>
+      <c r="AX63" s="32"/>
+      <c r="AY63" s="32"/>
+      <c r="AZ63" s="33"/>
     </row>
     <row r="64" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="24"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="56"/>
-      <c r="K64" s="56"/>
-      <c r="L64" s="56"/>
-      <c r="M64" s="56"/>
-      <c r="N64" s="56"/>
-      <c r="O64" s="56"/>
-      <c r="P64" s="56"/>
-      <c r="Q64" s="56"/>
-      <c r="R64" s="56"/>
-      <c r="S64" s="56"/>
-      <c r="T64" s="56"/>
-      <c r="U64" s="56"/>
-      <c r="V64" s="56"/>
-      <c r="W64" s="56"/>
-      <c r="X64" s="56"/>
-      <c r="Y64" s="56"/>
-      <c r="Z64" s="56"/>
-      <c r="AA64" s="56"/>
-      <c r="AB64" s="56"/>
-      <c r="AC64" s="56"/>
-      <c r="AD64" s="56"/>
-      <c r="AE64" s="56"/>
-      <c r="AF64" s="56"/>
-      <c r="AG64" s="56"/>
-      <c r="AH64" s="56"/>
-      <c r="AI64" s="56"/>
-      <c r="AJ64" s="56"/>
-      <c r="AK64" s="56"/>
-      <c r="AL64" s="56"/>
-      <c r="AM64" s="56"/>
-      <c r="AN64" s="56"/>
-      <c r="AO64" s="56"/>
-      <c r="AP64" s="57"/>
-      <c r="AQ64" s="55"/>
-      <c r="AR64" s="56"/>
-      <c r="AS64" s="56"/>
-      <c r="AT64" s="56"/>
-      <c r="AU64" s="56"/>
-      <c r="AV64" s="56"/>
-      <c r="AW64" s="56"/>
-      <c r="AX64" s="56"/>
-      <c r="AY64" s="56"/>
-      <c r="AZ64" s="57"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="35"/>
+      <c r="S64" s="35"/>
+      <c r="T64" s="35"/>
+      <c r="U64" s="35"/>
+      <c r="V64" s="35"/>
+      <c r="W64" s="35"/>
+      <c r="X64" s="35"/>
+      <c r="Y64" s="35"/>
+      <c r="Z64" s="35"/>
+      <c r="AA64" s="35"/>
+      <c r="AB64" s="35"/>
+      <c r="AC64" s="35"/>
+      <c r="AD64" s="35"/>
+      <c r="AE64" s="35"/>
+      <c r="AF64" s="35"/>
+      <c r="AG64" s="35"/>
+      <c r="AH64" s="35"/>
+      <c r="AI64" s="35"/>
+      <c r="AJ64" s="35"/>
+      <c r="AK64" s="35"/>
+      <c r="AL64" s="35"/>
+      <c r="AM64" s="35"/>
+      <c r="AN64" s="35"/>
+      <c r="AO64" s="35"/>
+      <c r="AP64" s="36"/>
+      <c r="AQ64" s="34"/>
+      <c r="AR64" s="35"/>
+      <c r="AS64" s="35"/>
+      <c r="AT64" s="35"/>
+      <c r="AU64" s="35"/>
+      <c r="AV64" s="35"/>
+      <c r="AW64" s="35"/>
+      <c r="AX64" s="35"/>
+      <c r="AY64" s="35"/>
+      <c r="AZ64" s="36"/>
     </row>
     <row r="65" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="56"/>
-      <c r="K65" s="56"/>
-      <c r="L65" s="56"/>
-      <c r="M65" s="56"/>
-      <c r="N65" s="56"/>
-      <c r="O65" s="56"/>
-      <c r="P65" s="56"/>
-      <c r="Q65" s="56"/>
-      <c r="R65" s="56"/>
-      <c r="S65" s="56"/>
-      <c r="T65" s="56"/>
-      <c r="U65" s="56"/>
-      <c r="V65" s="56"/>
-      <c r="W65" s="56"/>
-      <c r="X65" s="56"/>
-      <c r="Y65" s="56"/>
-      <c r="Z65" s="56"/>
-      <c r="AA65" s="56"/>
-      <c r="AB65" s="56"/>
-      <c r="AC65" s="56"/>
-      <c r="AD65" s="56"/>
-      <c r="AE65" s="56"/>
-      <c r="AF65" s="56"/>
-      <c r="AG65" s="56"/>
-      <c r="AH65" s="56"/>
-      <c r="AI65" s="56"/>
-      <c r="AJ65" s="56"/>
-      <c r="AK65" s="56"/>
-      <c r="AL65" s="56"/>
-      <c r="AM65" s="56"/>
-      <c r="AN65" s="56"/>
-      <c r="AO65" s="56"/>
-      <c r="AP65" s="57"/>
-      <c r="AQ65" s="55"/>
-      <c r="AR65" s="56"/>
-      <c r="AS65" s="56"/>
-      <c r="AT65" s="56"/>
-      <c r="AU65" s="56"/>
-      <c r="AV65" s="56"/>
-      <c r="AW65" s="56"/>
-      <c r="AX65" s="56"/>
-      <c r="AY65" s="56"/>
-      <c r="AZ65" s="57"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="35"/>
+      <c r="V65" s="35"/>
+      <c r="W65" s="35"/>
+      <c r="X65" s="35"/>
+      <c r="Y65" s="35"/>
+      <c r="Z65" s="35"/>
+      <c r="AA65" s="35"/>
+      <c r="AB65" s="35"/>
+      <c r="AC65" s="35"/>
+      <c r="AD65" s="35"/>
+      <c r="AE65" s="35"/>
+      <c r="AF65" s="35"/>
+      <c r="AG65" s="35"/>
+      <c r="AH65" s="35"/>
+      <c r="AI65" s="35"/>
+      <c r="AJ65" s="35"/>
+      <c r="AK65" s="35"/>
+      <c r="AL65" s="35"/>
+      <c r="AM65" s="35"/>
+      <c r="AN65" s="35"/>
+      <c r="AO65" s="35"/>
+      <c r="AP65" s="36"/>
+      <c r="AQ65" s="34"/>
+      <c r="AR65" s="35"/>
+      <c r="AS65" s="35"/>
+      <c r="AT65" s="35"/>
+      <c r="AU65" s="35"/>
+      <c r="AV65" s="35"/>
+      <c r="AW65" s="35"/>
+      <c r="AX65" s="35"/>
+      <c r="AY65" s="35"/>
+      <c r="AZ65" s="36"/>
     </row>
     <row r="66" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="56"/>
-      <c r="K66" s="56"/>
-      <c r="L66" s="56"/>
-      <c r="M66" s="56"/>
-      <c r="N66" s="56"/>
-      <c r="O66" s="56"/>
-      <c r="P66" s="56"/>
-      <c r="Q66" s="56"/>
-      <c r="R66" s="56"/>
-      <c r="S66" s="56"/>
-      <c r="T66" s="56"/>
-      <c r="U66" s="56"/>
-      <c r="V66" s="56"/>
-      <c r="W66" s="56"/>
-      <c r="X66" s="56"/>
-      <c r="Y66" s="56"/>
-      <c r="Z66" s="56"/>
-      <c r="AA66" s="56"/>
-      <c r="AB66" s="56"/>
-      <c r="AC66" s="56"/>
-      <c r="AD66" s="56"/>
-      <c r="AE66" s="56"/>
-      <c r="AF66" s="56"/>
-      <c r="AG66" s="56"/>
-      <c r="AH66" s="56"/>
-      <c r="AI66" s="56"/>
-      <c r="AJ66" s="56"/>
-      <c r="AK66" s="56"/>
-      <c r="AL66" s="56"/>
-      <c r="AM66" s="56"/>
-      <c r="AN66" s="56"/>
-      <c r="AO66" s="56"/>
-      <c r="AP66" s="57"/>
-      <c r="AQ66" s="55"/>
-      <c r="AR66" s="56"/>
-      <c r="AS66" s="56"/>
-      <c r="AT66" s="56"/>
-      <c r="AU66" s="56"/>
-      <c r="AV66" s="56"/>
-      <c r="AW66" s="56"/>
-      <c r="AX66" s="56"/>
-      <c r="AY66" s="56"/>
-      <c r="AZ66" s="57"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="35"/>
+      <c r="V66" s="35"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="35"/>
+      <c r="Y66" s="35"/>
+      <c r="Z66" s="35"/>
+      <c r="AA66" s="35"/>
+      <c r="AB66" s="35"/>
+      <c r="AC66" s="35"/>
+      <c r="AD66" s="35"/>
+      <c r="AE66" s="35"/>
+      <c r="AF66" s="35"/>
+      <c r="AG66" s="35"/>
+      <c r="AH66" s="35"/>
+      <c r="AI66" s="35"/>
+      <c r="AJ66" s="35"/>
+      <c r="AK66" s="35"/>
+      <c r="AL66" s="35"/>
+      <c r="AM66" s="35"/>
+      <c r="AN66" s="35"/>
+      <c r="AO66" s="35"/>
+      <c r="AP66" s="36"/>
+      <c r="AQ66" s="34"/>
+      <c r="AR66" s="35"/>
+      <c r="AS66" s="35"/>
+      <c r="AT66" s="35"/>
+      <c r="AU66" s="35"/>
+      <c r="AV66" s="35"/>
+      <c r="AW66" s="35"/>
+      <c r="AX66" s="35"/>
+      <c r="AY66" s="35"/>
+      <c r="AZ66" s="36"/>
     </row>
     <row r="67" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="56"/>
-      <c r="K67" s="56"/>
-      <c r="L67" s="56"/>
-      <c r="M67" s="56"/>
-      <c r="N67" s="56"/>
-      <c r="O67" s="56"/>
-      <c r="P67" s="56"/>
-      <c r="Q67" s="56"/>
-      <c r="R67" s="56"/>
-      <c r="S67" s="56"/>
-      <c r="T67" s="56"/>
-      <c r="U67" s="56"/>
-      <c r="V67" s="56"/>
-      <c r="W67" s="56"/>
-      <c r="X67" s="56"/>
-      <c r="Y67" s="56"/>
-      <c r="Z67" s="56"/>
-      <c r="AA67" s="56"/>
-      <c r="AB67" s="56"/>
-      <c r="AC67" s="56"/>
-      <c r="AD67" s="56"/>
-      <c r="AE67" s="56"/>
-      <c r="AF67" s="56"/>
-      <c r="AG67" s="56"/>
-      <c r="AH67" s="56"/>
-      <c r="AI67" s="56"/>
-      <c r="AJ67" s="56"/>
-      <c r="AK67" s="56"/>
-      <c r="AL67" s="56"/>
-      <c r="AM67" s="56"/>
-      <c r="AN67" s="56"/>
-      <c r="AO67" s="56"/>
-      <c r="AP67" s="57"/>
-      <c r="AQ67" s="55"/>
-      <c r="AR67" s="56"/>
-      <c r="AS67" s="56"/>
-      <c r="AT67" s="56"/>
-      <c r="AU67" s="56"/>
-      <c r="AV67" s="56"/>
-      <c r="AW67" s="56"/>
-      <c r="AX67" s="56"/>
-      <c r="AY67" s="56"/>
-      <c r="AZ67" s="57"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35"/>
+      <c r="V67" s="35"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="35"/>
+      <c r="Y67" s="35"/>
+      <c r="Z67" s="35"/>
+      <c r="AA67" s="35"/>
+      <c r="AB67" s="35"/>
+      <c r="AC67" s="35"/>
+      <c r="AD67" s="35"/>
+      <c r="AE67" s="35"/>
+      <c r="AF67" s="35"/>
+      <c r="AG67" s="35"/>
+      <c r="AH67" s="35"/>
+      <c r="AI67" s="35"/>
+      <c r="AJ67" s="35"/>
+      <c r="AK67" s="35"/>
+      <c r="AL67" s="35"/>
+      <c r="AM67" s="35"/>
+      <c r="AN67" s="35"/>
+      <c r="AO67" s="35"/>
+      <c r="AP67" s="36"/>
+      <c r="AQ67" s="34"/>
+      <c r="AR67" s="35"/>
+      <c r="AS67" s="35"/>
+      <c r="AT67" s="35"/>
+      <c r="AU67" s="35"/>
+      <c r="AV67" s="35"/>
+      <c r="AW67" s="35"/>
+      <c r="AX67" s="35"/>
+      <c r="AY67" s="35"/>
+      <c r="AZ67" s="36"/>
     </row>
     <row r="68" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="56"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="56"/>
-      <c r="N68" s="56"/>
-      <c r="O68" s="56"/>
-      <c r="P68" s="56"/>
-      <c r="Q68" s="56"/>
-      <c r="R68" s="56"/>
-      <c r="S68" s="56"/>
-      <c r="T68" s="56"/>
-      <c r="U68" s="56"/>
-      <c r="V68" s="56"/>
-      <c r="W68" s="56"/>
-      <c r="X68" s="56"/>
-      <c r="Y68" s="56"/>
-      <c r="Z68" s="56"/>
-      <c r="AA68" s="56"/>
-      <c r="AB68" s="56"/>
-      <c r="AC68" s="56"/>
-      <c r="AD68" s="56"/>
-      <c r="AE68" s="56"/>
-      <c r="AF68" s="56"/>
-      <c r="AG68" s="56"/>
-      <c r="AH68" s="56"/>
-      <c r="AI68" s="56"/>
-      <c r="AJ68" s="56"/>
-      <c r="AK68" s="56"/>
-      <c r="AL68" s="56"/>
-      <c r="AM68" s="56"/>
-      <c r="AN68" s="56"/>
-      <c r="AO68" s="56"/>
-      <c r="AP68" s="57"/>
-      <c r="AQ68" s="55"/>
-      <c r="AR68" s="56"/>
-      <c r="AS68" s="56"/>
-      <c r="AT68" s="56"/>
-      <c r="AU68" s="56"/>
-      <c r="AV68" s="56"/>
-      <c r="AW68" s="56"/>
-      <c r="AX68" s="56"/>
-      <c r="AY68" s="56"/>
-      <c r="AZ68" s="57"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="35"/>
+      <c r="U68" s="35"/>
+      <c r="V68" s="35"/>
+      <c r="W68" s="35"/>
+      <c r="X68" s="35"/>
+      <c r="Y68" s="35"/>
+      <c r="Z68" s="35"/>
+      <c r="AA68" s="35"/>
+      <c r="AB68" s="35"/>
+      <c r="AC68" s="35"/>
+      <c r="AD68" s="35"/>
+      <c r="AE68" s="35"/>
+      <c r="AF68" s="35"/>
+      <c r="AG68" s="35"/>
+      <c r="AH68" s="35"/>
+      <c r="AI68" s="35"/>
+      <c r="AJ68" s="35"/>
+      <c r="AK68" s="35"/>
+      <c r="AL68" s="35"/>
+      <c r="AM68" s="35"/>
+      <c r="AN68" s="35"/>
+      <c r="AO68" s="35"/>
+      <c r="AP68" s="36"/>
+      <c r="AQ68" s="34"/>
+      <c r="AR68" s="35"/>
+      <c r="AS68" s="35"/>
+      <c r="AT68" s="35"/>
+      <c r="AU68" s="35"/>
+      <c r="AV68" s="35"/>
+      <c r="AW68" s="35"/>
+      <c r="AX68" s="35"/>
+      <c r="AY68" s="35"/>
+      <c r="AZ68" s="36"/>
     </row>
     <row r="69" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="24"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="56"/>
-      <c r="K69" s="56"/>
-      <c r="L69" s="56"/>
-      <c r="M69" s="56"/>
-      <c r="N69" s="56"/>
-      <c r="O69" s="56"/>
-      <c r="P69" s="56"/>
-      <c r="Q69" s="56"/>
-      <c r="R69" s="56"/>
-      <c r="S69" s="56"/>
-      <c r="T69" s="56"/>
-      <c r="U69" s="56"/>
-      <c r="V69" s="56"/>
-      <c r="W69" s="56"/>
-      <c r="X69" s="56"/>
-      <c r="Y69" s="56"/>
-      <c r="Z69" s="56"/>
-      <c r="AA69" s="56"/>
-      <c r="AB69" s="56"/>
-      <c r="AC69" s="56"/>
-      <c r="AD69" s="56"/>
-      <c r="AE69" s="56"/>
-      <c r="AF69" s="56"/>
-      <c r="AG69" s="56"/>
-      <c r="AH69" s="56"/>
-      <c r="AI69" s="56"/>
-      <c r="AJ69" s="56"/>
-      <c r="AK69" s="56"/>
-      <c r="AL69" s="56"/>
-      <c r="AM69" s="56"/>
-      <c r="AN69" s="56"/>
-      <c r="AO69" s="56"/>
-      <c r="AP69" s="57"/>
-      <c r="AQ69" s="55"/>
-      <c r="AR69" s="56"/>
-      <c r="AS69" s="56"/>
-      <c r="AT69" s="56"/>
-      <c r="AU69" s="56"/>
-      <c r="AV69" s="56"/>
-      <c r="AW69" s="56"/>
-      <c r="AX69" s="56"/>
-      <c r="AY69" s="56"/>
-      <c r="AZ69" s="57"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="35"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35"/>
+      <c r="Y69" s="35"/>
+      <c r="Z69" s="35"/>
+      <c r="AA69" s="35"/>
+      <c r="AB69" s="35"/>
+      <c r="AC69" s="35"/>
+      <c r="AD69" s="35"/>
+      <c r="AE69" s="35"/>
+      <c r="AF69" s="35"/>
+      <c r="AG69" s="35"/>
+      <c r="AH69" s="35"/>
+      <c r="AI69" s="35"/>
+      <c r="AJ69" s="35"/>
+      <c r="AK69" s="35"/>
+      <c r="AL69" s="35"/>
+      <c r="AM69" s="35"/>
+      <c r="AN69" s="35"/>
+      <c r="AO69" s="35"/>
+      <c r="AP69" s="36"/>
+      <c r="AQ69" s="34"/>
+      <c r="AR69" s="35"/>
+      <c r="AS69" s="35"/>
+      <c r="AT69" s="35"/>
+      <c r="AU69" s="35"/>
+      <c r="AV69" s="35"/>
+      <c r="AW69" s="35"/>
+      <c r="AX69" s="35"/>
+      <c r="AY69" s="35"/>
+      <c r="AZ69" s="36"/>
     </row>
     <row r="70" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="56"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="56"/>
-      <c r="J70" s="56"/>
-      <c r="K70" s="56"/>
-      <c r="L70" s="56"/>
-      <c r="M70" s="56"/>
-      <c r="N70" s="56"/>
-      <c r="O70" s="56"/>
-      <c r="P70" s="56"/>
-      <c r="Q70" s="56"/>
-      <c r="R70" s="56"/>
-      <c r="S70" s="56"/>
-      <c r="T70" s="56"/>
-      <c r="U70" s="56"/>
-      <c r="V70" s="56"/>
-      <c r="W70" s="56"/>
-      <c r="X70" s="56"/>
-      <c r="Y70" s="56"/>
-      <c r="Z70" s="56"/>
-      <c r="AA70" s="56"/>
-      <c r="AB70" s="56"/>
-      <c r="AC70" s="56"/>
-      <c r="AD70" s="56"/>
-      <c r="AE70" s="56"/>
-      <c r="AF70" s="56"/>
-      <c r="AG70" s="56"/>
-      <c r="AH70" s="56"/>
-      <c r="AI70" s="56"/>
-      <c r="AJ70" s="56"/>
-      <c r="AK70" s="56"/>
-      <c r="AL70" s="56"/>
-      <c r="AM70" s="56"/>
-      <c r="AN70" s="56"/>
-      <c r="AO70" s="56"/>
-      <c r="AP70" s="57"/>
-      <c r="AQ70" s="55"/>
-      <c r="AR70" s="56"/>
-      <c r="AS70" s="56"/>
-      <c r="AT70" s="56"/>
-      <c r="AU70" s="56"/>
-      <c r="AV70" s="56"/>
-      <c r="AW70" s="56"/>
-      <c r="AX70" s="56"/>
-      <c r="AY70" s="56"/>
-      <c r="AZ70" s="57"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="35"/>
+      <c r="T70" s="35"/>
+      <c r="U70" s="35"/>
+      <c r="V70" s="35"/>
+      <c r="W70" s="35"/>
+      <c r="X70" s="35"/>
+      <c r="Y70" s="35"/>
+      <c r="Z70" s="35"/>
+      <c r="AA70" s="35"/>
+      <c r="AB70" s="35"/>
+      <c r="AC70" s="35"/>
+      <c r="AD70" s="35"/>
+      <c r="AE70" s="35"/>
+      <c r="AF70" s="35"/>
+      <c r="AG70" s="35"/>
+      <c r="AH70" s="35"/>
+      <c r="AI70" s="35"/>
+      <c r="AJ70" s="35"/>
+      <c r="AK70" s="35"/>
+      <c r="AL70" s="35"/>
+      <c r="AM70" s="35"/>
+      <c r="AN70" s="35"/>
+      <c r="AO70" s="35"/>
+      <c r="AP70" s="36"/>
+      <c r="AQ70" s="34"/>
+      <c r="AR70" s="35"/>
+      <c r="AS70" s="35"/>
+      <c r="AT70" s="35"/>
+      <c r="AU70" s="35"/>
+      <c r="AV70" s="35"/>
+      <c r="AW70" s="35"/>
+      <c r="AX70" s="35"/>
+      <c r="AY70" s="35"/>
+      <c r="AZ70" s="36"/>
     </row>
     <row r="71" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="35"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="56"/>
-      <c r="K71" s="56"/>
-      <c r="L71" s="56"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="56"/>
-      <c r="O71" s="56"/>
-      <c r="P71" s="56"/>
-      <c r="Q71" s="56"/>
-      <c r="R71" s="56"/>
-      <c r="S71" s="56"/>
-      <c r="T71" s="56"/>
-      <c r="U71" s="56"/>
-      <c r="V71" s="56"/>
-      <c r="W71" s="56"/>
-      <c r="X71" s="56"/>
-      <c r="Y71" s="56"/>
-      <c r="Z71" s="56"/>
-      <c r="AA71" s="56"/>
-      <c r="AB71" s="56"/>
-      <c r="AC71" s="56"/>
-      <c r="AD71" s="56"/>
-      <c r="AE71" s="56"/>
-      <c r="AF71" s="56"/>
-      <c r="AG71" s="56"/>
-      <c r="AH71" s="56"/>
-      <c r="AI71" s="56"/>
-      <c r="AJ71" s="56"/>
-      <c r="AK71" s="56"/>
-      <c r="AL71" s="56"/>
-      <c r="AM71" s="56"/>
-      <c r="AN71" s="56"/>
-      <c r="AO71" s="56"/>
-      <c r="AP71" s="57"/>
-      <c r="AQ71" s="55"/>
-      <c r="AR71" s="56"/>
-      <c r="AS71" s="56"/>
-      <c r="AT71" s="56"/>
-      <c r="AU71" s="56"/>
-      <c r="AV71" s="56"/>
-      <c r="AW71" s="56"/>
-      <c r="AX71" s="56"/>
-      <c r="AY71" s="56"/>
-      <c r="AZ71" s="57"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="35"/>
+      <c r="S71" s="35"/>
+      <c r="T71" s="35"/>
+      <c r="U71" s="35"/>
+      <c r="V71" s="35"/>
+      <c r="W71" s="35"/>
+      <c r="X71" s="35"/>
+      <c r="Y71" s="35"/>
+      <c r="Z71" s="35"/>
+      <c r="AA71" s="35"/>
+      <c r="AB71" s="35"/>
+      <c r="AC71" s="35"/>
+      <c r="AD71" s="35"/>
+      <c r="AE71" s="35"/>
+      <c r="AF71" s="35"/>
+      <c r="AG71" s="35"/>
+      <c r="AH71" s="35"/>
+      <c r="AI71" s="35"/>
+      <c r="AJ71" s="35"/>
+      <c r="AK71" s="35"/>
+      <c r="AL71" s="35"/>
+      <c r="AM71" s="35"/>
+      <c r="AN71" s="35"/>
+      <c r="AO71" s="35"/>
+      <c r="AP71" s="36"/>
+      <c r="AQ71" s="34"/>
+      <c r="AR71" s="35"/>
+      <c r="AS71" s="35"/>
+      <c r="AT71" s="35"/>
+      <c r="AU71" s="35"/>
+      <c r="AV71" s="35"/>
+      <c r="AW71" s="35"/>
+      <c r="AX71" s="35"/>
+      <c r="AY71" s="35"/>
+      <c r="AZ71" s="36"/>
     </row>
     <row r="72" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="36"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
-      <c r="L72" s="59"/>
-      <c r="M72" s="59"/>
-      <c r="N72" s="59"/>
-      <c r="O72" s="59"/>
-      <c r="P72" s="59"/>
-      <c r="Q72" s="59"/>
-      <c r="R72" s="59"/>
-      <c r="S72" s="59"/>
-      <c r="T72" s="59"/>
-      <c r="U72" s="59"/>
-      <c r="V72" s="59"/>
-      <c r="W72" s="59"/>
-      <c r="X72" s="59"/>
-      <c r="Y72" s="59"/>
-      <c r="Z72" s="59"/>
-      <c r="AA72" s="59"/>
-      <c r="AB72" s="59"/>
-      <c r="AC72" s="59"/>
-      <c r="AD72" s="59"/>
-      <c r="AE72" s="59"/>
-      <c r="AF72" s="59"/>
-      <c r="AG72" s="59"/>
-      <c r="AH72" s="59"/>
-      <c r="AI72" s="59"/>
-      <c r="AJ72" s="59"/>
-      <c r="AK72" s="59"/>
-      <c r="AL72" s="59"/>
-      <c r="AM72" s="59"/>
-      <c r="AN72" s="59"/>
-      <c r="AO72" s="59"/>
-      <c r="AP72" s="60"/>
-      <c r="AQ72" s="58"/>
-      <c r="AR72" s="59"/>
-      <c r="AS72" s="59"/>
-      <c r="AT72" s="59"/>
-      <c r="AU72" s="59"/>
-      <c r="AV72" s="59"/>
-      <c r="AW72" s="59"/>
-      <c r="AX72" s="59"/>
-      <c r="AY72" s="59"/>
-      <c r="AZ72" s="60"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="38"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
+      <c r="Q72" s="38"/>
+      <c r="R72" s="38"/>
+      <c r="S72" s="38"/>
+      <c r="T72" s="38"/>
+      <c r="U72" s="38"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="38"/>
+      <c r="X72" s="38"/>
+      <c r="Y72" s="38"/>
+      <c r="Z72" s="38"/>
+      <c r="AA72" s="38"/>
+      <c r="AB72" s="38"/>
+      <c r="AC72" s="38"/>
+      <c r="AD72" s="38"/>
+      <c r="AE72" s="38"/>
+      <c r="AF72" s="38"/>
+      <c r="AG72" s="38"/>
+      <c r="AH72" s="38"/>
+      <c r="AI72" s="38"/>
+      <c r="AJ72" s="38"/>
+      <c r="AK72" s="38"/>
+      <c r="AL72" s="38"/>
+      <c r="AM72" s="38"/>
+      <c r="AN72" s="38"/>
+      <c r="AO72" s="38"/>
+      <c r="AP72" s="39"/>
+      <c r="AQ72" s="37"/>
+      <c r="AR72" s="38"/>
+      <c r="AS72" s="38"/>
+      <c r="AT72" s="38"/>
+      <c r="AU72" s="38"/>
+      <c r="AV72" s="38"/>
+      <c r="AW72" s="38"/>
+      <c r="AX72" s="38"/>
+      <c r="AY72" s="38"/>
+      <c r="AZ72" s="39"/>
     </row>
     <row r="73" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="27"/>
+      <c r="C73" s="60"/>
       <c r="D73" s="12"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -7828,22 +9416,22 @@
       <c r="AZ73" s="2"/>
     </row>
     <row r="74" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="28"/>
-      <c r="C74" s="29"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="62"/>
       <c r="D74" s="15"/>
       <c r="AZ74" s="3"/>
     </row>
     <row r="75" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="28"/>
-      <c r="C75" s="29"/>
+      <c r="B75" s="61"/>
+      <c r="C75" s="62"/>
       <c r="D75" s="15"/>
       <c r="AZ75" s="3"/>
     </row>
     <row r="76" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="31"/>
+      <c r="C76" s="67"/>
       <c r="D76" s="16"/>
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
@@ -7895,14 +9483,14 @@
       <c r="AZ76" s="18"/>
     </row>
     <row r="77" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="28"/>
-      <c r="C77" s="29"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="62"/>
       <c r="D77" s="15"/>
       <c r="AZ77" s="3"/>
     </row>
     <row r="78" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="32"/>
-      <c r="C78" s="33"/>
+      <c r="B78" s="68"/>
+      <c r="C78" s="69"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="6"/>
@@ -7954,552 +9542,552 @@
       <c r="AZ78" s="6"/>
     </row>
     <row r="79" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="23"/>
-      <c r="D79" s="52"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="53"/>
-      <c r="H79" s="53"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="53"/>
-      <c r="K79" s="53"/>
-      <c r="L79" s="53"/>
-      <c r="M79" s="53"/>
-      <c r="N79" s="53"/>
-      <c r="O79" s="53"/>
-      <c r="P79" s="53"/>
-      <c r="Q79" s="53"/>
-      <c r="R79" s="53"/>
-      <c r="S79" s="53"/>
-      <c r="T79" s="53"/>
-      <c r="U79" s="53"/>
-      <c r="V79" s="53"/>
-      <c r="W79" s="53"/>
-      <c r="X79" s="53"/>
-      <c r="Y79" s="53"/>
-      <c r="Z79" s="53"/>
-      <c r="AA79" s="53"/>
-      <c r="AB79" s="53"/>
-      <c r="AC79" s="53"/>
-      <c r="AD79" s="53"/>
-      <c r="AE79" s="53"/>
-      <c r="AF79" s="53"/>
-      <c r="AG79" s="53"/>
-      <c r="AH79" s="53"/>
-      <c r="AI79" s="53"/>
-      <c r="AJ79" s="53"/>
-      <c r="AK79" s="53"/>
-      <c r="AL79" s="53"/>
-      <c r="AM79" s="53"/>
-      <c r="AN79" s="53"/>
-      <c r="AO79" s="53"/>
-      <c r="AP79" s="54"/>
-      <c r="AQ79" s="52"/>
-      <c r="AR79" s="53"/>
-      <c r="AS79" s="53"/>
-      <c r="AT79" s="53"/>
-      <c r="AU79" s="53"/>
-      <c r="AV79" s="53"/>
-      <c r="AW79" s="53"/>
-      <c r="AX79" s="53"/>
-      <c r="AY79" s="53"/>
-      <c r="AZ79" s="54"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="32"/>
+      <c r="L79" s="32"/>
+      <c r="M79" s="32"/>
+      <c r="N79" s="32"/>
+      <c r="O79" s="32"/>
+      <c r="P79" s="32"/>
+      <c r="Q79" s="32"/>
+      <c r="R79" s="32"/>
+      <c r="S79" s="32"/>
+      <c r="T79" s="32"/>
+      <c r="U79" s="32"/>
+      <c r="V79" s="32"/>
+      <c r="W79" s="32"/>
+      <c r="X79" s="32"/>
+      <c r="Y79" s="32"/>
+      <c r="Z79" s="32"/>
+      <c r="AA79" s="32"/>
+      <c r="AB79" s="32"/>
+      <c r="AC79" s="32"/>
+      <c r="AD79" s="32"/>
+      <c r="AE79" s="32"/>
+      <c r="AF79" s="32"/>
+      <c r="AG79" s="32"/>
+      <c r="AH79" s="32"/>
+      <c r="AI79" s="32"/>
+      <c r="AJ79" s="32"/>
+      <c r="AK79" s="32"/>
+      <c r="AL79" s="32"/>
+      <c r="AM79" s="32"/>
+      <c r="AN79" s="32"/>
+      <c r="AO79" s="32"/>
+      <c r="AP79" s="33"/>
+      <c r="AQ79" s="31"/>
+      <c r="AR79" s="32"/>
+      <c r="AS79" s="32"/>
+      <c r="AT79" s="32"/>
+      <c r="AU79" s="32"/>
+      <c r="AV79" s="32"/>
+      <c r="AW79" s="32"/>
+      <c r="AX79" s="32"/>
+      <c r="AY79" s="32"/>
+      <c r="AZ79" s="33"/>
     </row>
     <row r="80" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="56"/>
-      <c r="K80" s="56"/>
-      <c r="L80" s="56"/>
-      <c r="M80" s="56"/>
-      <c r="N80" s="56"/>
-      <c r="O80" s="56"/>
-      <c r="P80" s="56"/>
-      <c r="Q80" s="56"/>
-      <c r="R80" s="56"/>
-      <c r="S80" s="56"/>
-      <c r="T80" s="56"/>
-      <c r="U80" s="56"/>
-      <c r="V80" s="56"/>
-      <c r="W80" s="56"/>
-      <c r="X80" s="56"/>
-      <c r="Y80" s="56"/>
-      <c r="Z80" s="56"/>
-      <c r="AA80" s="56"/>
-      <c r="AB80" s="56"/>
-      <c r="AC80" s="56"/>
-      <c r="AD80" s="56"/>
-      <c r="AE80" s="56"/>
-      <c r="AF80" s="56"/>
-      <c r="AG80" s="56"/>
-      <c r="AH80" s="56"/>
-      <c r="AI80" s="56"/>
-      <c r="AJ80" s="56"/>
-      <c r="AK80" s="56"/>
-      <c r="AL80" s="56"/>
-      <c r="AM80" s="56"/>
-      <c r="AN80" s="56"/>
-      <c r="AO80" s="56"/>
-      <c r="AP80" s="57"/>
-      <c r="AQ80" s="55"/>
-      <c r="AR80" s="56"/>
-      <c r="AS80" s="56"/>
-      <c r="AT80" s="56"/>
-      <c r="AU80" s="56"/>
-      <c r="AV80" s="56"/>
-      <c r="AW80" s="56"/>
-      <c r="AX80" s="56"/>
-      <c r="AY80" s="56"/>
-      <c r="AZ80" s="57"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35"/>
+      <c r="T80" s="35"/>
+      <c r="U80" s="35"/>
+      <c r="V80" s="35"/>
+      <c r="W80" s="35"/>
+      <c r="X80" s="35"/>
+      <c r="Y80" s="35"/>
+      <c r="Z80" s="35"/>
+      <c r="AA80" s="35"/>
+      <c r="AB80" s="35"/>
+      <c r="AC80" s="35"/>
+      <c r="AD80" s="35"/>
+      <c r="AE80" s="35"/>
+      <c r="AF80" s="35"/>
+      <c r="AG80" s="35"/>
+      <c r="AH80" s="35"/>
+      <c r="AI80" s="35"/>
+      <c r="AJ80" s="35"/>
+      <c r="AK80" s="35"/>
+      <c r="AL80" s="35"/>
+      <c r="AM80" s="35"/>
+      <c r="AN80" s="35"/>
+      <c r="AO80" s="35"/>
+      <c r="AP80" s="36"/>
+      <c r="AQ80" s="34"/>
+      <c r="AR80" s="35"/>
+      <c r="AS80" s="35"/>
+      <c r="AT80" s="35"/>
+      <c r="AU80" s="35"/>
+      <c r="AV80" s="35"/>
+      <c r="AW80" s="35"/>
+      <c r="AX80" s="35"/>
+      <c r="AY80" s="35"/>
+      <c r="AZ80" s="36"/>
     </row>
     <row r="81" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="24"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="56"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="56"/>
-      <c r="K81" s="56"/>
-      <c r="L81" s="56"/>
-      <c r="M81" s="56"/>
-      <c r="N81" s="56"/>
-      <c r="O81" s="56"/>
-      <c r="P81" s="56"/>
-      <c r="Q81" s="56"/>
-      <c r="R81" s="56"/>
-      <c r="S81" s="56"/>
-      <c r="T81" s="56"/>
-      <c r="U81" s="56"/>
-      <c r="V81" s="56"/>
-      <c r="W81" s="56"/>
-      <c r="X81" s="56"/>
-      <c r="Y81" s="56"/>
-      <c r="Z81" s="56"/>
-      <c r="AA81" s="56"/>
-      <c r="AB81" s="56"/>
-      <c r="AC81" s="56"/>
-      <c r="AD81" s="56"/>
-      <c r="AE81" s="56"/>
-      <c r="AF81" s="56"/>
-      <c r="AG81" s="56"/>
-      <c r="AH81" s="56"/>
-      <c r="AI81" s="56"/>
-      <c r="AJ81" s="56"/>
-      <c r="AK81" s="56"/>
-      <c r="AL81" s="56"/>
-      <c r="AM81" s="56"/>
-      <c r="AN81" s="56"/>
-      <c r="AO81" s="56"/>
-      <c r="AP81" s="57"/>
-      <c r="AQ81" s="55"/>
-      <c r="AR81" s="56"/>
-      <c r="AS81" s="56"/>
-      <c r="AT81" s="56"/>
-      <c r="AU81" s="56"/>
-      <c r="AV81" s="56"/>
-      <c r="AW81" s="56"/>
-      <c r="AX81" s="56"/>
-      <c r="AY81" s="56"/>
-      <c r="AZ81" s="57"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="35"/>
+      <c r="R81" s="35"/>
+      <c r="S81" s="35"/>
+      <c r="T81" s="35"/>
+      <c r="U81" s="35"/>
+      <c r="V81" s="35"/>
+      <c r="W81" s="35"/>
+      <c r="X81" s="35"/>
+      <c r="Y81" s="35"/>
+      <c r="Z81" s="35"/>
+      <c r="AA81" s="35"/>
+      <c r="AB81" s="35"/>
+      <c r="AC81" s="35"/>
+      <c r="AD81" s="35"/>
+      <c r="AE81" s="35"/>
+      <c r="AF81" s="35"/>
+      <c r="AG81" s="35"/>
+      <c r="AH81" s="35"/>
+      <c r="AI81" s="35"/>
+      <c r="AJ81" s="35"/>
+      <c r="AK81" s="35"/>
+      <c r="AL81" s="35"/>
+      <c r="AM81" s="35"/>
+      <c r="AN81" s="35"/>
+      <c r="AO81" s="35"/>
+      <c r="AP81" s="36"/>
+      <c r="AQ81" s="34"/>
+      <c r="AR81" s="35"/>
+      <c r="AS81" s="35"/>
+      <c r="AT81" s="35"/>
+      <c r="AU81" s="35"/>
+      <c r="AV81" s="35"/>
+      <c r="AW81" s="35"/>
+      <c r="AX81" s="35"/>
+      <c r="AY81" s="35"/>
+      <c r="AZ81" s="36"/>
     </row>
     <row r="82" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="56"/>
-      <c r="K82" s="56"/>
-      <c r="L82" s="56"/>
-      <c r="M82" s="56"/>
-      <c r="N82" s="56"/>
-      <c r="O82" s="56"/>
-      <c r="P82" s="56"/>
-      <c r="Q82" s="56"/>
-      <c r="R82" s="56"/>
-      <c r="S82" s="56"/>
-      <c r="T82" s="56"/>
-      <c r="U82" s="56"/>
-      <c r="V82" s="56"/>
-      <c r="W82" s="56"/>
-      <c r="X82" s="56"/>
-      <c r="Y82" s="56"/>
-      <c r="Z82" s="56"/>
-      <c r="AA82" s="56"/>
-      <c r="AB82" s="56"/>
-      <c r="AC82" s="56"/>
-      <c r="AD82" s="56"/>
-      <c r="AE82" s="56"/>
-      <c r="AF82" s="56"/>
-      <c r="AG82" s="56"/>
-      <c r="AH82" s="56"/>
-      <c r="AI82" s="56"/>
-      <c r="AJ82" s="56"/>
-      <c r="AK82" s="56"/>
-      <c r="AL82" s="56"/>
-      <c r="AM82" s="56"/>
-      <c r="AN82" s="56"/>
-      <c r="AO82" s="56"/>
-      <c r="AP82" s="57"/>
-      <c r="AQ82" s="55"/>
-      <c r="AR82" s="56"/>
-      <c r="AS82" s="56"/>
-      <c r="AT82" s="56"/>
-      <c r="AU82" s="56"/>
-      <c r="AV82" s="56"/>
-      <c r="AW82" s="56"/>
-      <c r="AX82" s="56"/>
-      <c r="AY82" s="56"/>
-      <c r="AZ82" s="57"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="35"/>
+      <c r="T82" s="35"/>
+      <c r="U82" s="35"/>
+      <c r="V82" s="35"/>
+      <c r="W82" s="35"/>
+      <c r="X82" s="35"/>
+      <c r="Y82" s="35"/>
+      <c r="Z82" s="35"/>
+      <c r="AA82" s="35"/>
+      <c r="AB82" s="35"/>
+      <c r="AC82" s="35"/>
+      <c r="AD82" s="35"/>
+      <c r="AE82" s="35"/>
+      <c r="AF82" s="35"/>
+      <c r="AG82" s="35"/>
+      <c r="AH82" s="35"/>
+      <c r="AI82" s="35"/>
+      <c r="AJ82" s="35"/>
+      <c r="AK82" s="35"/>
+      <c r="AL82" s="35"/>
+      <c r="AM82" s="35"/>
+      <c r="AN82" s="35"/>
+      <c r="AO82" s="35"/>
+      <c r="AP82" s="36"/>
+      <c r="AQ82" s="34"/>
+      <c r="AR82" s="35"/>
+      <c r="AS82" s="35"/>
+      <c r="AT82" s="35"/>
+      <c r="AU82" s="35"/>
+      <c r="AV82" s="35"/>
+      <c r="AW82" s="35"/>
+      <c r="AX82" s="35"/>
+      <c r="AY82" s="35"/>
+      <c r="AZ82" s="36"/>
     </row>
     <row r="83" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="24"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="56"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="56"/>
-      <c r="K83" s="56"/>
-      <c r="L83" s="56"/>
-      <c r="M83" s="56"/>
-      <c r="N83" s="56"/>
-      <c r="O83" s="56"/>
-      <c r="P83" s="56"/>
-      <c r="Q83" s="56"/>
-      <c r="R83" s="56"/>
-      <c r="S83" s="56"/>
-      <c r="T83" s="56"/>
-      <c r="U83" s="56"/>
-      <c r="V83" s="56"/>
-      <c r="W83" s="56"/>
-      <c r="X83" s="56"/>
-      <c r="Y83" s="56"/>
-      <c r="Z83" s="56"/>
-      <c r="AA83" s="56"/>
-      <c r="AB83" s="56"/>
-      <c r="AC83" s="56"/>
-      <c r="AD83" s="56"/>
-      <c r="AE83" s="56"/>
-      <c r="AF83" s="56"/>
-      <c r="AG83" s="56"/>
-      <c r="AH83" s="56"/>
-      <c r="AI83" s="56"/>
-      <c r="AJ83" s="56"/>
-      <c r="AK83" s="56"/>
-      <c r="AL83" s="56"/>
-      <c r="AM83" s="56"/>
-      <c r="AN83" s="56"/>
-      <c r="AO83" s="56"/>
-      <c r="AP83" s="57"/>
-      <c r="AQ83" s="55"/>
-      <c r="AR83" s="56"/>
-      <c r="AS83" s="56"/>
-      <c r="AT83" s="56"/>
-      <c r="AU83" s="56"/>
-      <c r="AV83" s="56"/>
-      <c r="AW83" s="56"/>
-      <c r="AX83" s="56"/>
-      <c r="AY83" s="56"/>
-      <c r="AZ83" s="57"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="35"/>
+      <c r="T83" s="35"/>
+      <c r="U83" s="35"/>
+      <c r="V83" s="35"/>
+      <c r="W83" s="35"/>
+      <c r="X83" s="35"/>
+      <c r="Y83" s="35"/>
+      <c r="Z83" s="35"/>
+      <c r="AA83" s="35"/>
+      <c r="AB83" s="35"/>
+      <c r="AC83" s="35"/>
+      <c r="AD83" s="35"/>
+      <c r="AE83" s="35"/>
+      <c r="AF83" s="35"/>
+      <c r="AG83" s="35"/>
+      <c r="AH83" s="35"/>
+      <c r="AI83" s="35"/>
+      <c r="AJ83" s="35"/>
+      <c r="AK83" s="35"/>
+      <c r="AL83" s="35"/>
+      <c r="AM83" s="35"/>
+      <c r="AN83" s="35"/>
+      <c r="AO83" s="35"/>
+      <c r="AP83" s="36"/>
+      <c r="AQ83" s="34"/>
+      <c r="AR83" s="35"/>
+      <c r="AS83" s="35"/>
+      <c r="AT83" s="35"/>
+      <c r="AU83" s="35"/>
+      <c r="AV83" s="35"/>
+      <c r="AW83" s="35"/>
+      <c r="AX83" s="35"/>
+      <c r="AY83" s="35"/>
+      <c r="AZ83" s="36"/>
     </row>
     <row r="84" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="24"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="56"/>
-      <c r="J84" s="56"/>
-      <c r="K84" s="56"/>
-      <c r="L84" s="56"/>
-      <c r="M84" s="56"/>
-      <c r="N84" s="56"/>
-      <c r="O84" s="56"/>
-      <c r="P84" s="56"/>
-      <c r="Q84" s="56"/>
-      <c r="R84" s="56"/>
-      <c r="S84" s="56"/>
-      <c r="T84" s="56"/>
-      <c r="U84" s="56"/>
-      <c r="V84" s="56"/>
-      <c r="W84" s="56"/>
-      <c r="X84" s="56"/>
-      <c r="Y84" s="56"/>
-      <c r="Z84" s="56"/>
-      <c r="AA84" s="56"/>
-      <c r="AB84" s="56"/>
-      <c r="AC84" s="56"/>
-      <c r="AD84" s="56"/>
-      <c r="AE84" s="56"/>
-      <c r="AF84" s="56"/>
-      <c r="AG84" s="56"/>
-      <c r="AH84" s="56"/>
-      <c r="AI84" s="56"/>
-      <c r="AJ84" s="56"/>
-      <c r="AK84" s="56"/>
-      <c r="AL84" s="56"/>
-      <c r="AM84" s="56"/>
-      <c r="AN84" s="56"/>
-      <c r="AO84" s="56"/>
-      <c r="AP84" s="57"/>
-      <c r="AQ84" s="55"/>
-      <c r="AR84" s="56"/>
-      <c r="AS84" s="56"/>
-      <c r="AT84" s="56"/>
-      <c r="AU84" s="56"/>
-      <c r="AV84" s="56"/>
-      <c r="AW84" s="56"/>
-      <c r="AX84" s="56"/>
-      <c r="AY84" s="56"/>
-      <c r="AZ84" s="57"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="35"/>
+      <c r="R84" s="35"/>
+      <c r="S84" s="35"/>
+      <c r="T84" s="35"/>
+      <c r="U84" s="35"/>
+      <c r="V84" s="35"/>
+      <c r="W84" s="35"/>
+      <c r="X84" s="35"/>
+      <c r="Y84" s="35"/>
+      <c r="Z84" s="35"/>
+      <c r="AA84" s="35"/>
+      <c r="AB84" s="35"/>
+      <c r="AC84" s="35"/>
+      <c r="AD84" s="35"/>
+      <c r="AE84" s="35"/>
+      <c r="AF84" s="35"/>
+      <c r="AG84" s="35"/>
+      <c r="AH84" s="35"/>
+      <c r="AI84" s="35"/>
+      <c r="AJ84" s="35"/>
+      <c r="AK84" s="35"/>
+      <c r="AL84" s="35"/>
+      <c r="AM84" s="35"/>
+      <c r="AN84" s="35"/>
+      <c r="AO84" s="35"/>
+      <c r="AP84" s="36"/>
+      <c r="AQ84" s="34"/>
+      <c r="AR84" s="35"/>
+      <c r="AS84" s="35"/>
+      <c r="AT84" s="35"/>
+      <c r="AU84" s="35"/>
+      <c r="AV84" s="35"/>
+      <c r="AW84" s="35"/>
+      <c r="AX84" s="35"/>
+      <c r="AY84" s="35"/>
+      <c r="AZ84" s="36"/>
     </row>
     <row r="85" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="24"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="56"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="56"/>
-      <c r="K85" s="56"/>
-      <c r="L85" s="56"/>
-      <c r="M85" s="56"/>
-      <c r="N85" s="56"/>
-      <c r="O85" s="56"/>
-      <c r="P85" s="56"/>
-      <c r="Q85" s="56"/>
-      <c r="R85" s="56"/>
-      <c r="S85" s="56"/>
-      <c r="T85" s="56"/>
-      <c r="U85" s="56"/>
-      <c r="V85" s="56"/>
-      <c r="W85" s="56"/>
-      <c r="X85" s="56"/>
-      <c r="Y85" s="56"/>
-      <c r="Z85" s="56"/>
-      <c r="AA85" s="56"/>
-      <c r="AB85" s="56"/>
-      <c r="AC85" s="56"/>
-      <c r="AD85" s="56"/>
-      <c r="AE85" s="56"/>
-      <c r="AF85" s="56"/>
-      <c r="AG85" s="56"/>
-      <c r="AH85" s="56"/>
-      <c r="AI85" s="56"/>
-      <c r="AJ85" s="56"/>
-      <c r="AK85" s="56"/>
-      <c r="AL85" s="56"/>
-      <c r="AM85" s="56"/>
-      <c r="AN85" s="56"/>
-      <c r="AO85" s="56"/>
-      <c r="AP85" s="57"/>
-      <c r="AQ85" s="55"/>
-      <c r="AR85" s="56"/>
-      <c r="AS85" s="56"/>
-      <c r="AT85" s="56"/>
-      <c r="AU85" s="56"/>
-      <c r="AV85" s="56"/>
-      <c r="AW85" s="56"/>
-      <c r="AX85" s="56"/>
-      <c r="AY85" s="56"/>
-      <c r="AZ85" s="57"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
+      <c r="Q85" s="35"/>
+      <c r="R85" s="35"/>
+      <c r="S85" s="35"/>
+      <c r="T85" s="35"/>
+      <c r="U85" s="35"/>
+      <c r="V85" s="35"/>
+      <c r="W85" s="35"/>
+      <c r="X85" s="35"/>
+      <c r="Y85" s="35"/>
+      <c r="Z85" s="35"/>
+      <c r="AA85" s="35"/>
+      <c r="AB85" s="35"/>
+      <c r="AC85" s="35"/>
+      <c r="AD85" s="35"/>
+      <c r="AE85" s="35"/>
+      <c r="AF85" s="35"/>
+      <c r="AG85" s="35"/>
+      <c r="AH85" s="35"/>
+      <c r="AI85" s="35"/>
+      <c r="AJ85" s="35"/>
+      <c r="AK85" s="35"/>
+      <c r="AL85" s="35"/>
+      <c r="AM85" s="35"/>
+      <c r="AN85" s="35"/>
+      <c r="AO85" s="35"/>
+      <c r="AP85" s="36"/>
+      <c r="AQ85" s="34"/>
+      <c r="AR85" s="35"/>
+      <c r="AS85" s="35"/>
+      <c r="AT85" s="35"/>
+      <c r="AU85" s="35"/>
+      <c r="AV85" s="35"/>
+      <c r="AW85" s="35"/>
+      <c r="AX85" s="35"/>
+      <c r="AY85" s="35"/>
+      <c r="AZ85" s="36"/>
     </row>
     <row r="86" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="24"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="56"/>
-      <c r="I86" s="56"/>
-      <c r="J86" s="56"/>
-      <c r="K86" s="56"/>
-      <c r="L86" s="56"/>
-      <c r="M86" s="56"/>
-      <c r="N86" s="56"/>
-      <c r="O86" s="56"/>
-      <c r="P86" s="56"/>
-      <c r="Q86" s="56"/>
-      <c r="R86" s="56"/>
-      <c r="S86" s="56"/>
-      <c r="T86" s="56"/>
-      <c r="U86" s="56"/>
-      <c r="V86" s="56"/>
-      <c r="W86" s="56"/>
-      <c r="X86" s="56"/>
-      <c r="Y86" s="56"/>
-      <c r="Z86" s="56"/>
-      <c r="AA86" s="56"/>
-      <c r="AB86" s="56"/>
-      <c r="AC86" s="56"/>
-      <c r="AD86" s="56"/>
-      <c r="AE86" s="56"/>
-      <c r="AF86" s="56"/>
-      <c r="AG86" s="56"/>
-      <c r="AH86" s="56"/>
-      <c r="AI86" s="56"/>
-      <c r="AJ86" s="56"/>
-      <c r="AK86" s="56"/>
-      <c r="AL86" s="56"/>
-      <c r="AM86" s="56"/>
-      <c r="AN86" s="56"/>
-      <c r="AO86" s="56"/>
-      <c r="AP86" s="57"/>
-      <c r="AQ86" s="55"/>
-      <c r="AR86" s="56"/>
-      <c r="AS86" s="56"/>
-      <c r="AT86" s="56"/>
-      <c r="AU86" s="56"/>
-      <c r="AV86" s="56"/>
-      <c r="AW86" s="56"/>
-      <c r="AX86" s="56"/>
-      <c r="AY86" s="56"/>
-      <c r="AZ86" s="57"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="35"/>
+      <c r="T86" s="35"/>
+      <c r="U86" s="35"/>
+      <c r="V86" s="35"/>
+      <c r="W86" s="35"/>
+      <c r="X86" s="35"/>
+      <c r="Y86" s="35"/>
+      <c r="Z86" s="35"/>
+      <c r="AA86" s="35"/>
+      <c r="AB86" s="35"/>
+      <c r="AC86" s="35"/>
+      <c r="AD86" s="35"/>
+      <c r="AE86" s="35"/>
+      <c r="AF86" s="35"/>
+      <c r="AG86" s="35"/>
+      <c r="AH86" s="35"/>
+      <c r="AI86" s="35"/>
+      <c r="AJ86" s="35"/>
+      <c r="AK86" s="35"/>
+      <c r="AL86" s="35"/>
+      <c r="AM86" s="35"/>
+      <c r="AN86" s="35"/>
+      <c r="AO86" s="35"/>
+      <c r="AP86" s="36"/>
+      <c r="AQ86" s="34"/>
+      <c r="AR86" s="35"/>
+      <c r="AS86" s="35"/>
+      <c r="AT86" s="35"/>
+      <c r="AU86" s="35"/>
+      <c r="AV86" s="35"/>
+      <c r="AW86" s="35"/>
+      <c r="AX86" s="35"/>
+      <c r="AY86" s="35"/>
+      <c r="AZ86" s="36"/>
     </row>
     <row r="87" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C87" s="35"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="56"/>
-      <c r="K87" s="56"/>
-      <c r="L87" s="56"/>
-      <c r="M87" s="56"/>
-      <c r="N87" s="56"/>
-      <c r="O87" s="56"/>
-      <c r="P87" s="56"/>
-      <c r="Q87" s="56"/>
-      <c r="R87" s="56"/>
-      <c r="S87" s="56"/>
-      <c r="T87" s="56"/>
-      <c r="U87" s="56"/>
-      <c r="V87" s="56"/>
-      <c r="W87" s="56"/>
-      <c r="X87" s="56"/>
-      <c r="Y87" s="56"/>
-      <c r="Z87" s="56"/>
-      <c r="AA87" s="56"/>
-      <c r="AB87" s="56"/>
-      <c r="AC87" s="56"/>
-      <c r="AD87" s="56"/>
-      <c r="AE87" s="56"/>
-      <c r="AF87" s="56"/>
-      <c r="AG87" s="56"/>
-      <c r="AH87" s="56"/>
-      <c r="AI87" s="56"/>
-      <c r="AJ87" s="56"/>
-      <c r="AK87" s="56"/>
-      <c r="AL87" s="56"/>
-      <c r="AM87" s="56"/>
-      <c r="AN87" s="56"/>
-      <c r="AO87" s="56"/>
-      <c r="AP87" s="57"/>
-      <c r="AQ87" s="55"/>
-      <c r="AR87" s="56"/>
-      <c r="AS87" s="56"/>
-      <c r="AT87" s="56"/>
-      <c r="AU87" s="56"/>
-      <c r="AV87" s="56"/>
-      <c r="AW87" s="56"/>
-      <c r="AX87" s="56"/>
-      <c r="AY87" s="56"/>
-      <c r="AZ87" s="57"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
+      <c r="Q87" s="35"/>
+      <c r="R87" s="35"/>
+      <c r="S87" s="35"/>
+      <c r="T87" s="35"/>
+      <c r="U87" s="35"/>
+      <c r="V87" s="35"/>
+      <c r="W87" s="35"/>
+      <c r="X87" s="35"/>
+      <c r="Y87" s="35"/>
+      <c r="Z87" s="35"/>
+      <c r="AA87" s="35"/>
+      <c r="AB87" s="35"/>
+      <c r="AC87" s="35"/>
+      <c r="AD87" s="35"/>
+      <c r="AE87" s="35"/>
+      <c r="AF87" s="35"/>
+      <c r="AG87" s="35"/>
+      <c r="AH87" s="35"/>
+      <c r="AI87" s="35"/>
+      <c r="AJ87" s="35"/>
+      <c r="AK87" s="35"/>
+      <c r="AL87" s="35"/>
+      <c r="AM87" s="35"/>
+      <c r="AN87" s="35"/>
+      <c r="AO87" s="35"/>
+      <c r="AP87" s="36"/>
+      <c r="AQ87" s="34"/>
+      <c r="AR87" s="35"/>
+      <c r="AS87" s="35"/>
+      <c r="AT87" s="35"/>
+      <c r="AU87" s="35"/>
+      <c r="AV87" s="35"/>
+      <c r="AW87" s="35"/>
+      <c r="AX87" s="35"/>
+      <c r="AY87" s="35"/>
+      <c r="AZ87" s="36"/>
     </row>
     <row r="88" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="36"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="59"/>
-      <c r="G88" s="59"/>
-      <c r="H88" s="59"/>
-      <c r="I88" s="59"/>
-      <c r="J88" s="59"/>
-      <c r="K88" s="59"/>
-      <c r="L88" s="59"/>
-      <c r="M88" s="59"/>
-      <c r="N88" s="59"/>
-      <c r="O88" s="59"/>
-      <c r="P88" s="59"/>
-      <c r="Q88" s="59"/>
-      <c r="R88" s="59"/>
-      <c r="S88" s="59"/>
-      <c r="T88" s="59"/>
-      <c r="U88" s="59"/>
-      <c r="V88" s="59"/>
-      <c r="W88" s="59"/>
-      <c r="X88" s="59"/>
-      <c r="Y88" s="59"/>
-      <c r="Z88" s="59"/>
-      <c r="AA88" s="59"/>
-      <c r="AB88" s="59"/>
-      <c r="AC88" s="59"/>
-      <c r="AD88" s="59"/>
-      <c r="AE88" s="59"/>
-      <c r="AF88" s="59"/>
-      <c r="AG88" s="59"/>
-      <c r="AH88" s="59"/>
-      <c r="AI88" s="59"/>
-      <c r="AJ88" s="59"/>
-      <c r="AK88" s="59"/>
-      <c r="AL88" s="59"/>
-      <c r="AM88" s="59"/>
-      <c r="AN88" s="59"/>
-      <c r="AO88" s="59"/>
-      <c r="AP88" s="60"/>
-      <c r="AQ88" s="58"/>
-      <c r="AR88" s="59"/>
-      <c r="AS88" s="59"/>
-      <c r="AT88" s="59"/>
-      <c r="AU88" s="59"/>
-      <c r="AV88" s="59"/>
-      <c r="AW88" s="59"/>
-      <c r="AX88" s="59"/>
-      <c r="AY88" s="59"/>
-      <c r="AZ88" s="60"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="38"/>
+      <c r="M88" s="38"/>
+      <c r="N88" s="38"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
+      <c r="Q88" s="38"/>
+      <c r="R88" s="38"/>
+      <c r="S88" s="38"/>
+      <c r="T88" s="38"/>
+      <c r="U88" s="38"/>
+      <c r="V88" s="38"/>
+      <c r="W88" s="38"/>
+      <c r="X88" s="38"/>
+      <c r="Y88" s="38"/>
+      <c r="Z88" s="38"/>
+      <c r="AA88" s="38"/>
+      <c r="AB88" s="38"/>
+      <c r="AC88" s="38"/>
+      <c r="AD88" s="38"/>
+      <c r="AE88" s="38"/>
+      <c r="AF88" s="38"/>
+      <c r="AG88" s="38"/>
+      <c r="AH88" s="38"/>
+      <c r="AI88" s="38"/>
+      <c r="AJ88" s="38"/>
+      <c r="AK88" s="38"/>
+      <c r="AL88" s="38"/>
+      <c r="AM88" s="38"/>
+      <c r="AN88" s="38"/>
+      <c r="AO88" s="38"/>
+      <c r="AP88" s="39"/>
+      <c r="AQ88" s="37"/>
+      <c r="AR88" s="38"/>
+      <c r="AS88" s="38"/>
+      <c r="AT88" s="38"/>
+      <c r="AU88" s="38"/>
+      <c r="AV88" s="38"/>
+      <c r="AW88" s="38"/>
+      <c r="AX88" s="38"/>
+      <c r="AY88" s="38"/>
+      <c r="AZ88" s="39"/>
     </row>
     <row r="89" spans="2:52" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="70" t="s">
+      <c r="B89" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="70"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="70"/>
-      <c r="F89" s="70"/>
-      <c r="G89" s="70"/>
-      <c r="H89" s="70"/>
-      <c r="I89" s="70"/>
-      <c r="J89" s="70"/>
-      <c r="K89" s="70"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="49"/>
+      <c r="J89" s="49"/>
+      <c r="K89" s="49"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
@@ -8508,16 +10096,16 @@
       <c r="AL89" s="7"/>
     </row>
     <row r="90" spans="2:52" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="40"/>
-      <c r="G90" s="40"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="40"/>
-      <c r="K90" s="40"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="50"/>
+      <c r="H90" s="50"/>
+      <c r="I90" s="50"/>
+      <c r="J90" s="50"/>
+      <c r="K90" s="50"/>
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
@@ -8526,216 +10114,216 @@
       <c r="AL90" s="8"/>
     </row>
     <row r="91" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="43"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="44"/>
-      <c r="K91" s="44"/>
-      <c r="L91" s="44"/>
-      <c r="M91" s="44"/>
-      <c r="N91" s="44"/>
-      <c r="O91" s="44"/>
-      <c r="P91" s="44"/>
-      <c r="Q91" s="44"/>
-      <c r="R91" s="44"/>
-      <c r="S91" s="44"/>
-      <c r="T91" s="44"/>
-      <c r="U91" s="44"/>
-      <c r="V91" s="44"/>
-      <c r="W91" s="44"/>
-      <c r="X91" s="44"/>
-      <c r="Y91" s="44"/>
-      <c r="Z91" s="44"/>
-      <c r="AA91" s="44"/>
-      <c r="AB91" s="44"/>
-      <c r="AC91" s="44"/>
-      <c r="AD91" s="44"/>
-      <c r="AE91" s="44"/>
-      <c r="AF91" s="44"/>
-      <c r="AG91" s="44"/>
-      <c r="AH91" s="44"/>
-      <c r="AI91" s="44"/>
-      <c r="AJ91" s="44"/>
-      <c r="AK91" s="44"/>
-      <c r="AL91" s="44"/>
-      <c r="AM91" s="44"/>
-      <c r="AN91" s="44"/>
-      <c r="AO91" s="44"/>
-      <c r="AP91" s="44"/>
-      <c r="AQ91" s="44"/>
-      <c r="AR91" s="44"/>
-      <c r="AS91" s="44"/>
-      <c r="AT91" s="44"/>
-      <c r="AU91" s="44"/>
-      <c r="AV91" s="44"/>
-      <c r="AW91" s="44"/>
-      <c r="AX91" s="44"/>
-      <c r="AY91" s="44"/>
-      <c r="AZ91" s="45"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="23"/>
+      <c r="P91" s="23"/>
+      <c r="Q91" s="23"/>
+      <c r="R91" s="23"/>
+      <c r="S91" s="23"/>
+      <c r="T91" s="23"/>
+      <c r="U91" s="23"/>
+      <c r="V91" s="23"/>
+      <c r="W91" s="23"/>
+      <c r="X91" s="23"/>
+      <c r="Y91" s="23"/>
+      <c r="Z91" s="23"/>
+      <c r="AA91" s="23"/>
+      <c r="AB91" s="23"/>
+      <c r="AC91" s="23"/>
+      <c r="AD91" s="23"/>
+      <c r="AE91" s="23"/>
+      <c r="AF91" s="23"/>
+      <c r="AG91" s="23"/>
+      <c r="AH91" s="23"/>
+      <c r="AI91" s="23"/>
+      <c r="AJ91" s="23"/>
+      <c r="AK91" s="23"/>
+      <c r="AL91" s="23"/>
+      <c r="AM91" s="23"/>
+      <c r="AN91" s="23"/>
+      <c r="AO91" s="23"/>
+      <c r="AP91" s="23"/>
+      <c r="AQ91" s="23"/>
+      <c r="AR91" s="23"/>
+      <c r="AS91" s="23"/>
+      <c r="AT91" s="23"/>
+      <c r="AU91" s="23"/>
+      <c r="AV91" s="23"/>
+      <c r="AW91" s="23"/>
+      <c r="AX91" s="23"/>
+      <c r="AY91" s="23"/>
+      <c r="AZ91" s="24"/>
     </row>
     <row r="92" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="46"/>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="47"/>
-      <c r="N92" s="47"/>
-      <c r="O92" s="47"/>
-      <c r="P92" s="47"/>
-      <c r="Q92" s="47"/>
-      <c r="R92" s="47"/>
-      <c r="S92" s="47"/>
-      <c r="T92" s="47"/>
-      <c r="U92" s="47"/>
-      <c r="V92" s="47"/>
-      <c r="W92" s="47"/>
-      <c r="X92" s="47"/>
-      <c r="Y92" s="47"/>
-      <c r="Z92" s="47"/>
-      <c r="AA92" s="47"/>
-      <c r="AB92" s="47"/>
-      <c r="AC92" s="47"/>
-      <c r="AD92" s="47"/>
-      <c r="AE92" s="47"/>
-      <c r="AF92" s="47"/>
-      <c r="AG92" s="47"/>
-      <c r="AH92" s="47"/>
-      <c r="AI92" s="47"/>
-      <c r="AJ92" s="47"/>
-      <c r="AK92" s="47"/>
-      <c r="AL92" s="47"/>
-      <c r="AM92" s="47"/>
-      <c r="AN92" s="47"/>
-      <c r="AO92" s="47"/>
-      <c r="AP92" s="47"/>
-      <c r="AQ92" s="47"/>
-      <c r="AR92" s="47"/>
-      <c r="AS92" s="47"/>
-      <c r="AT92" s="47"/>
-      <c r="AU92" s="47"/>
-      <c r="AV92" s="47"/>
-      <c r="AW92" s="47"/>
-      <c r="AX92" s="47"/>
-      <c r="AY92" s="47"/>
-      <c r="AZ92" s="48"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="26"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="26"/>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="26"/>
+      <c r="R92" s="26"/>
+      <c r="S92" s="26"/>
+      <c r="T92" s="26"/>
+      <c r="U92" s="26"/>
+      <c r="V92" s="26"/>
+      <c r="W92" s="26"/>
+      <c r="X92" s="26"/>
+      <c r="Y92" s="26"/>
+      <c r="Z92" s="26"/>
+      <c r="AA92" s="26"/>
+      <c r="AB92" s="26"/>
+      <c r="AC92" s="26"/>
+      <c r="AD92" s="26"/>
+      <c r="AE92" s="26"/>
+      <c r="AF92" s="26"/>
+      <c r="AG92" s="26"/>
+      <c r="AH92" s="26"/>
+      <c r="AI92" s="26"/>
+      <c r="AJ92" s="26"/>
+      <c r="AK92" s="26"/>
+      <c r="AL92" s="26"/>
+      <c r="AM92" s="26"/>
+      <c r="AN92" s="26"/>
+      <c r="AO92" s="26"/>
+      <c r="AP92" s="26"/>
+      <c r="AQ92" s="26"/>
+      <c r="AR92" s="26"/>
+      <c r="AS92" s="26"/>
+      <c r="AT92" s="26"/>
+      <c r="AU92" s="26"/>
+      <c r="AV92" s="26"/>
+      <c r="AW92" s="26"/>
+      <c r="AX92" s="26"/>
+      <c r="AY92" s="26"/>
+      <c r="AZ92" s="27"/>
     </row>
     <row r="93" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="46"/>
-      <c r="C93" s="47"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47"/>
-      <c r="J93" s="47"/>
-      <c r="K93" s="47"/>
-      <c r="L93" s="47"/>
-      <c r="M93" s="47"/>
-      <c r="N93" s="47"/>
-      <c r="O93" s="47"/>
-      <c r="P93" s="47"/>
-      <c r="Q93" s="47"/>
-      <c r="R93" s="47"/>
-      <c r="S93" s="47"/>
-      <c r="T93" s="47"/>
-      <c r="U93" s="47"/>
-      <c r="V93" s="47"/>
-      <c r="W93" s="47"/>
-      <c r="X93" s="47"/>
-      <c r="Y93" s="47"/>
-      <c r="Z93" s="47"/>
-      <c r="AA93" s="47"/>
-      <c r="AB93" s="47"/>
-      <c r="AC93" s="47"/>
-      <c r="AD93" s="47"/>
-      <c r="AE93" s="47"/>
-      <c r="AF93" s="47"/>
-      <c r="AG93" s="47"/>
-      <c r="AH93" s="47"/>
-      <c r="AI93" s="47"/>
-      <c r="AJ93" s="47"/>
-      <c r="AK93" s="47"/>
-      <c r="AL93" s="47"/>
-      <c r="AM93" s="47"/>
-      <c r="AN93" s="47"/>
-      <c r="AO93" s="47"/>
-      <c r="AP93" s="47"/>
-      <c r="AQ93" s="47"/>
-      <c r="AR93" s="47"/>
-      <c r="AS93" s="47"/>
-      <c r="AT93" s="47"/>
-      <c r="AU93" s="47"/>
-      <c r="AV93" s="47"/>
-      <c r="AW93" s="47"/>
-      <c r="AX93" s="47"/>
-      <c r="AY93" s="47"/>
-      <c r="AZ93" s="48"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="26"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="26"/>
+      <c r="P93" s="26"/>
+      <c r="Q93" s="26"/>
+      <c r="R93" s="26"/>
+      <c r="S93" s="26"/>
+      <c r="T93" s="26"/>
+      <c r="U93" s="26"/>
+      <c r="V93" s="26"/>
+      <c r="W93" s="26"/>
+      <c r="X93" s="26"/>
+      <c r="Y93" s="26"/>
+      <c r="Z93" s="26"/>
+      <c r="AA93" s="26"/>
+      <c r="AB93" s="26"/>
+      <c r="AC93" s="26"/>
+      <c r="AD93" s="26"/>
+      <c r="AE93" s="26"/>
+      <c r="AF93" s="26"/>
+      <c r="AG93" s="26"/>
+      <c r="AH93" s="26"/>
+      <c r="AI93" s="26"/>
+      <c r="AJ93" s="26"/>
+      <c r="AK93" s="26"/>
+      <c r="AL93" s="26"/>
+      <c r="AM93" s="26"/>
+      <c r="AN93" s="26"/>
+      <c r="AO93" s="26"/>
+      <c r="AP93" s="26"/>
+      <c r="AQ93" s="26"/>
+      <c r="AR93" s="26"/>
+      <c r="AS93" s="26"/>
+      <c r="AT93" s="26"/>
+      <c r="AU93" s="26"/>
+      <c r="AV93" s="26"/>
+      <c r="AW93" s="26"/>
+      <c r="AX93" s="26"/>
+      <c r="AY93" s="26"/>
+      <c r="AZ93" s="27"/>
     </row>
     <row r="94" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="49"/>
-      <c r="C94" s="50"/>
-      <c r="D94" s="50"/>
-      <c r="E94" s="50"/>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50"/>
-      <c r="H94" s="50"/>
-      <c r="I94" s="50"/>
-      <c r="J94" s="50"/>
-      <c r="K94" s="50"/>
-      <c r="L94" s="50"/>
-      <c r="M94" s="50"/>
-      <c r="N94" s="50"/>
-      <c r="O94" s="50"/>
-      <c r="P94" s="50"/>
-      <c r="Q94" s="50"/>
-      <c r="R94" s="50"/>
-      <c r="S94" s="50"/>
-      <c r="T94" s="50"/>
-      <c r="U94" s="50"/>
-      <c r="V94" s="50"/>
-      <c r="W94" s="50"/>
-      <c r="X94" s="50"/>
-      <c r="Y94" s="50"/>
-      <c r="Z94" s="50"/>
-      <c r="AA94" s="50"/>
-      <c r="AB94" s="50"/>
-      <c r="AC94" s="50"/>
-      <c r="AD94" s="50"/>
-      <c r="AE94" s="50"/>
-      <c r="AF94" s="50"/>
-      <c r="AG94" s="50"/>
-      <c r="AH94" s="50"/>
-      <c r="AI94" s="50"/>
-      <c r="AJ94" s="50"/>
-      <c r="AK94" s="50"/>
-      <c r="AL94" s="50"/>
-      <c r="AM94" s="50"/>
-      <c r="AN94" s="50"/>
-      <c r="AO94" s="50"/>
-      <c r="AP94" s="50"/>
-      <c r="AQ94" s="50"/>
-      <c r="AR94" s="50"/>
-      <c r="AS94" s="50"/>
-      <c r="AT94" s="50"/>
-      <c r="AU94" s="50"/>
-      <c r="AV94" s="50"/>
-      <c r="AW94" s="50"/>
-      <c r="AX94" s="50"/>
-      <c r="AY94" s="50"/>
-      <c r="AZ94" s="51"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="29"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="29"/>
+      <c r="M94" s="29"/>
+      <c r="N94" s="29"/>
+      <c r="O94" s="29"/>
+      <c r="P94" s="29"/>
+      <c r="Q94" s="29"/>
+      <c r="R94" s="29"/>
+      <c r="S94" s="29"/>
+      <c r="T94" s="29"/>
+      <c r="U94" s="29"/>
+      <c r="V94" s="29"/>
+      <c r="W94" s="29"/>
+      <c r="X94" s="29"/>
+      <c r="Y94" s="29"/>
+      <c r="Z94" s="29"/>
+      <c r="AA94" s="29"/>
+      <c r="AB94" s="29"/>
+      <c r="AC94" s="29"/>
+      <c r="AD94" s="29"/>
+      <c r="AE94" s="29"/>
+      <c r="AF94" s="29"/>
+      <c r="AG94" s="29"/>
+      <c r="AH94" s="29"/>
+      <c r="AI94" s="29"/>
+      <c r="AJ94" s="29"/>
+      <c r="AK94" s="29"/>
+      <c r="AL94" s="29"/>
+      <c r="AM94" s="29"/>
+      <c r="AN94" s="29"/>
+      <c r="AO94" s="29"/>
+      <c r="AP94" s="29"/>
+      <c r="AQ94" s="29"/>
+      <c r="AR94" s="29"/>
+      <c r="AS94" s="29"/>
+      <c r="AT94" s="29"/>
+      <c r="AU94" s="29"/>
+      <c r="AV94" s="29"/>
+      <c r="AW94" s="29"/>
+      <c r="AX94" s="29"/>
+      <c r="AY94" s="29"/>
+      <c r="AZ94" s="30"/>
     </row>
     <row r="95" spans="2:52" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="2:52" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8748,6 +10336,28 @@
     <row r="103" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B63:C70"/>
+    <mergeCell ref="B73:C75"/>
+    <mergeCell ref="B76:C78"/>
+    <mergeCell ref="B44:C46"/>
+    <mergeCell ref="B57:C59"/>
+    <mergeCell ref="B60:C62"/>
+    <mergeCell ref="B47:C54"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="B41:C43"/>
+    <mergeCell ref="AG1:AZ2"/>
+    <mergeCell ref="T1:AF2"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="AB8:AK8"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B28:C30"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B15:C22"/>
+    <mergeCell ref="B31:C38"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="B25:C27"/>
     <mergeCell ref="B91:AZ94"/>
     <mergeCell ref="B4:AZ7"/>
     <mergeCell ref="D15:AP24"/>
@@ -8764,28 +10374,6 @@
     <mergeCell ref="B87:C88"/>
     <mergeCell ref="D79:AP88"/>
     <mergeCell ref="AQ79:AZ88"/>
-    <mergeCell ref="B41:C43"/>
-    <mergeCell ref="AG1:AZ2"/>
-    <mergeCell ref="T1:AF2"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="AB8:AK8"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="B28:C30"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B15:C22"/>
-    <mergeCell ref="B31:C38"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="B25:C27"/>
-    <mergeCell ref="B63:C70"/>
-    <mergeCell ref="B73:C75"/>
-    <mergeCell ref="B76:C78"/>
-    <mergeCell ref="B44:C46"/>
-    <mergeCell ref="B57:C59"/>
-    <mergeCell ref="B60:C62"/>
-    <mergeCell ref="B47:C54"/>
-    <mergeCell ref="B55:C56"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions verticalCentered="1"/>
@@ -8797,6 +10385,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D5379252AF64A748BDD859550927C367" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2116e7e1946d68e35c0eaf3b6cc07ccd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67bb9ec5-9b1b-486c-a632-e2dd655875ec" xmlns:ns3="3fd75491-3ac1-4e58-b8d5-9038dca3fcdc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bef8a7803ea145e855fe7a4317e18dd6" ns2:_="" ns3:_="">
     <xsd:import namespace="67bb9ec5-9b1b-486c-a632-e2dd655875ec"/>
@@ -9013,22 +10616,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57598A84-87D5-4E37-AB32-A40732200DBA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="67bb9ec5-9b1b-486c-a632-e2dd655875ec"/>
+    <ds:schemaRef ds:uri="3fd75491-3ac1-4e58-b8d5-9038dca3fcdc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA46E2CD-519D-47DE-B196-0DD50840862B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{847108D8-BB9B-483A-861E-97C086A0D0E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9045,29 +10658,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA46E2CD-519D-47DE-B196-0DD50840862B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57598A84-87D5-4E37-AB32-A40732200DBA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="67bb9ec5-9b1b-486c-a632-e2dd655875ec"/>
-    <ds:schemaRef ds:uri="3fd75491-3ac1-4e58-b8d5-9038dca3fcdc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/【研修中】_日次報告書研修日誌林康輝.xlsx
+++ b/【研修中】_日次報告書研修日誌林康輝.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensyu004\Desktop\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.utsunomiya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975A50EF-1BB5-4AF3-8646-845ADF35F255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C806645-2347-4CA7-A5DA-F472FF0D9534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="20250" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="研修日誌" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t xml:space="preserve"> 研　修　日　誌 </t>
     <rPh sb="1" eb="2">
@@ -443,12 +443,58 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>最後に誤字がありますね。きちんと見直しをしてから提出するようにしてください。声掛けは連携に基本ですね。行動の宣言、完了連絡、確認依頼などなど。スポーツやオンラインゲームと一緒ですね。</t>
+    <rPh sb="0" eb="2">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コエカ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>イッショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -496,6 +542,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -647,7 +699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -701,6 +753,69 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -786,68 +901,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6099,7 +6178,7 @@
   <dimension ref="A1:BS103"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AQ47" sqref="AQ47:AZ56"/>
+      <selection activeCell="AQ57" sqref="AQ57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="9.9499999999999993" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -6126,59 +6205,59 @@
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
       <c r="S1" s="20"/>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="63" t="s">
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="63"/>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="63"/>
-      <c r="AY1" s="63"/>
-      <c r="AZ1" s="63"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38"/>
       <c r="BA1" s="14"/>
     </row>
     <row r="2" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
@@ -6187,51 +6266,51 @@
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="63"/>
-      <c r="AQ2" s="63"/>
-      <c r="AR2" s="63"/>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="63"/>
-      <c r="AU2" s="63"/>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="63"/>
-      <c r="AZ2" s="63"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
     </row>
     <row r="3" spans="1:53" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -6249,252 +6328,252 @@
       <c r="AL3" s="11"/>
     </row>
     <row r="4" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="23"/>
-      <c r="AO4" s="23"/>
-      <c r="AP4" s="23"/>
-      <c r="AQ4" s="23"/>
-      <c r="AR4" s="23"/>
-      <c r="AS4" s="23"/>
-      <c r="AT4" s="23"/>
-      <c r="AU4" s="23"/>
-      <c r="AV4" s="23"/>
-      <c r="AW4" s="23"/>
-      <c r="AX4" s="23"/>
-      <c r="AY4" s="23"/>
-      <c r="AZ4" s="24"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44"/>
+      <c r="AU4" s="44"/>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="44"/>
+      <c r="AX4" s="44"/>
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="45"/>
     </row>
     <row r="5" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="26"/>
-      <c r="AJ5" s="26"/>
-      <c r="AK5" s="26"/>
-      <c r="AL5" s="26"/>
-      <c r="AM5" s="26"/>
-      <c r="AN5" s="26"/>
-      <c r="AO5" s="26"/>
-      <c r="AP5" s="26"/>
-      <c r="AQ5" s="26"/>
-      <c r="AR5" s="26"/>
-      <c r="AS5" s="26"/>
-      <c r="AT5" s="26"/>
-      <c r="AU5" s="26"/>
-      <c r="AV5" s="26"/>
-      <c r="AW5" s="26"/>
-      <c r="AX5" s="26"/>
-      <c r="AY5" s="26"/>
-      <c r="AZ5" s="27"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="47"/>
+      <c r="AS5" s="47"/>
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="47"/>
+      <c r="AV5" s="47"/>
+      <c r="AW5" s="47"/>
+      <c r="AX5" s="47"/>
+      <c r="AY5" s="47"/>
+      <c r="AZ5" s="48"/>
     </row>
     <row r="6" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="26"/>
-      <c r="AJ6" s="26"/>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="26"/>
-      <c r="AM6" s="26"/>
-      <c r="AN6" s="26"/>
-      <c r="AO6" s="26"/>
-      <c r="AP6" s="26"/>
-      <c r="AQ6" s="26"/>
-      <c r="AR6" s="26"/>
-      <c r="AS6" s="26"/>
-      <c r="AT6" s="26"/>
-      <c r="AU6" s="26"/>
-      <c r="AV6" s="26"/>
-      <c r="AW6" s="26"/>
-      <c r="AX6" s="26"/>
-      <c r="AY6" s="26"/>
-      <c r="AZ6" s="27"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="47"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="47"/>
+      <c r="AP6" s="47"/>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="47"/>
+      <c r="AS6" s="47"/>
+      <c r="AT6" s="47"/>
+      <c r="AU6" s="47"/>
+      <c r="AV6" s="47"/>
+      <c r="AW6" s="47"/>
+      <c r="AX6" s="47"/>
+      <c r="AY6" s="47"/>
+      <c r="AZ6" s="48"/>
     </row>
     <row r="7" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="29"/>
-      <c r="AT7" s="29"/>
-      <c r="AU7" s="29"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="29"/>
-      <c r="AX7" s="29"/>
-      <c r="AY7" s="29"/>
-      <c r="AZ7" s="30"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="50"/>
+      <c r="AK7" s="50"/>
+      <c r="AL7" s="50"/>
+      <c r="AM7" s="50"/>
+      <c r="AN7" s="50"/>
+      <c r="AO7" s="50"/>
+      <c r="AP7" s="50"/>
+      <c r="AQ7" s="50"/>
+      <c r="AR7" s="50"/>
+      <c r="AS7" s="50"/>
+      <c r="AT7" s="50"/>
+      <c r="AU7" s="50"/>
+      <c r="AV7" s="50"/>
+      <c r="AW7" s="50"/>
+      <c r="AX7" s="50"/>
+      <c r="AY7" s="50"/>
+      <c r="AZ7" s="51"/>
     </row>
     <row r="8" spans="1:53" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="AA8" s="11"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
-      <c r="AH8" s="50"/>
-      <c r="AI8" s="50"/>
-      <c r="AJ8" s="50"/>
-      <c r="AK8" s="50"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="40"/>
+      <c r="AI8" s="40"/>
+      <c r="AJ8" s="40"/>
+      <c r="AK8" s="40"/>
       <c r="AL8" s="8"/>
     </row>
     <row r="9" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="60"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="12"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -6546,22 +6625,22 @@
       <c r="AZ9" s="2"/>
     </row>
     <row r="10" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="21"/>
       <c r="AZ10" s="3"/>
     </row>
     <row r="11" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="61"/>
-      <c r="C11" s="62"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="15"/>
       <c r="AZ11" s="3"/>
     </row>
     <row r="12" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="67"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -6613,14 +6692,14 @@
       <c r="AZ12" s="18"/>
     </row>
     <row r="13" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="15"/>
       <c r="AZ13" s="3"/>
     </row>
     <row r="14" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="68"/>
-      <c r="C14" s="69"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
@@ -6672,548 +6751,548 @@
       <c r="AZ14" s="6"/>
     </row>
     <row r="15" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="70">
+      <c r="B15" s="42">
         <v>44060</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="32"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="33"/>
-      <c r="AQ15" s="40" t="s">
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="53"/>
+      <c r="AJ15" s="53"/>
+      <c r="AK15" s="53"/>
+      <c r="AL15" s="53"/>
+      <c r="AM15" s="53"/>
+      <c r="AN15" s="53"/>
+      <c r="AO15" s="53"/>
+      <c r="AP15" s="54"/>
+      <c r="AQ15" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="AR15" s="41"/>
-      <c r="AS15" s="41"/>
-      <c r="AT15" s="41"/>
-      <c r="AU15" s="41"/>
-      <c r="AV15" s="41"/>
-      <c r="AW15" s="41"/>
-      <c r="AX15" s="41"/>
-      <c r="AY15" s="41"/>
-      <c r="AZ15" s="42"/>
+      <c r="AR15" s="62"/>
+      <c r="AS15" s="62"/>
+      <c r="AT15" s="62"/>
+      <c r="AU15" s="62"/>
+      <c r="AV15" s="62"/>
+      <c r="AW15" s="62"/>
+      <c r="AX15" s="62"/>
+      <c r="AY15" s="62"/>
+      <c r="AZ15" s="63"/>
     </row>
     <row r="16" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="35"/>
-      <c r="AI16" s="35"/>
-      <c r="AJ16" s="35"/>
-      <c r="AK16" s="35"/>
-      <c r="AL16" s="35"/>
-      <c r="AM16" s="35"/>
-      <c r="AN16" s="35"/>
-      <c r="AO16" s="35"/>
-      <c r="AP16" s="36"/>
-      <c r="AQ16" s="43"/>
-      <c r="AR16" s="44"/>
-      <c r="AS16" s="44"/>
-      <c r="AT16" s="44"/>
-      <c r="AU16" s="44"/>
-      <c r="AV16" s="44"/>
-      <c r="AW16" s="44"/>
-      <c r="AX16" s="44"/>
-      <c r="AY16" s="44"/>
-      <c r="AZ16" s="45"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="57"/>
+      <c r="AQ16" s="64"/>
+      <c r="AR16" s="65"/>
+      <c r="AS16" s="65"/>
+      <c r="AT16" s="65"/>
+      <c r="AU16" s="65"/>
+      <c r="AV16" s="65"/>
+      <c r="AW16" s="65"/>
+      <c r="AX16" s="65"/>
+      <c r="AY16" s="65"/>
+      <c r="AZ16" s="66"/>
     </row>
     <row r="17" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="35"/>
-      <c r="AH17" s="35"/>
-      <c r="AI17" s="35"/>
-      <c r="AJ17" s="35"/>
-      <c r="AK17" s="35"/>
-      <c r="AL17" s="35"/>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="35"/>
-      <c r="AO17" s="35"/>
-      <c r="AP17" s="36"/>
-      <c r="AQ17" s="43"/>
-      <c r="AR17" s="44"/>
-      <c r="AS17" s="44"/>
-      <c r="AT17" s="44"/>
-      <c r="AU17" s="44"/>
-      <c r="AV17" s="44"/>
-      <c r="AW17" s="44"/>
-      <c r="AX17" s="44"/>
-      <c r="AY17" s="44"/>
-      <c r="AZ17" s="45"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="56"/>
+      <c r="AM17" s="56"/>
+      <c r="AN17" s="56"/>
+      <c r="AO17" s="56"/>
+      <c r="AP17" s="57"/>
+      <c r="AQ17" s="64"/>
+      <c r="AR17" s="65"/>
+      <c r="AS17" s="65"/>
+      <c r="AT17" s="65"/>
+      <c r="AU17" s="65"/>
+      <c r="AV17" s="65"/>
+      <c r="AW17" s="65"/>
+      <c r="AX17" s="65"/>
+      <c r="AY17" s="65"/>
+      <c r="AZ17" s="66"/>
     </row>
     <row r="18" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="35"/>
-      <c r="AI18" s="35"/>
-      <c r="AJ18" s="35"/>
-      <c r="AK18" s="35"/>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="35"/>
-      <c r="AO18" s="35"/>
-      <c r="AP18" s="36"/>
-      <c r="AQ18" s="43"/>
-      <c r="AR18" s="44"/>
-      <c r="AS18" s="44"/>
-      <c r="AT18" s="44"/>
-      <c r="AU18" s="44"/>
-      <c r="AV18" s="44"/>
-      <c r="AW18" s="44"/>
-      <c r="AX18" s="44"/>
-      <c r="AY18" s="44"/>
-      <c r="AZ18" s="45"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="56"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="56"/>
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="56"/>
+      <c r="AN18" s="56"/>
+      <c r="AO18" s="56"/>
+      <c r="AP18" s="57"/>
+      <c r="AQ18" s="64"/>
+      <c r="AR18" s="65"/>
+      <c r="AS18" s="65"/>
+      <c r="AT18" s="65"/>
+      <c r="AU18" s="65"/>
+      <c r="AV18" s="65"/>
+      <c r="AW18" s="65"/>
+      <c r="AX18" s="65"/>
+      <c r="AY18" s="65"/>
+      <c r="AZ18" s="66"/>
     </row>
     <row r="19" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="35"/>
-      <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="35"/>
-      <c r="AH19" s="35"/>
-      <c r="AI19" s="35"/>
-      <c r="AJ19" s="35"/>
-      <c r="AK19" s="35"/>
-      <c r="AL19" s="35"/>
-      <c r="AM19" s="35"/>
-      <c r="AN19" s="35"/>
-      <c r="AO19" s="35"/>
-      <c r="AP19" s="36"/>
-      <c r="AQ19" s="43"/>
-      <c r="AR19" s="44"/>
-      <c r="AS19" s="44"/>
-      <c r="AT19" s="44"/>
-      <c r="AU19" s="44"/>
-      <c r="AV19" s="44"/>
-      <c r="AW19" s="44"/>
-      <c r="AX19" s="44"/>
-      <c r="AY19" s="44"/>
-      <c r="AZ19" s="45"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="56"/>
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="56"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="56"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="56"/>
+      <c r="AP19" s="57"/>
+      <c r="AQ19" s="64"/>
+      <c r="AR19" s="65"/>
+      <c r="AS19" s="65"/>
+      <c r="AT19" s="65"/>
+      <c r="AU19" s="65"/>
+      <c r="AV19" s="65"/>
+      <c r="AW19" s="65"/>
+      <c r="AX19" s="65"/>
+      <c r="AY19" s="65"/>
+      <c r="AZ19" s="66"/>
     </row>
     <row r="20" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="35"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="35"/>
-      <c r="AH20" s="35"/>
-      <c r="AI20" s="35"/>
-      <c r="AJ20" s="35"/>
-      <c r="AK20" s="35"/>
-      <c r="AL20" s="35"/>
-      <c r="AM20" s="35"/>
-      <c r="AN20" s="35"/>
-      <c r="AO20" s="35"/>
-      <c r="AP20" s="36"/>
-      <c r="AQ20" s="43"/>
-      <c r="AR20" s="44"/>
-      <c r="AS20" s="44"/>
-      <c r="AT20" s="44"/>
-      <c r="AU20" s="44"/>
-      <c r="AV20" s="44"/>
-      <c r="AW20" s="44"/>
-      <c r="AX20" s="44"/>
-      <c r="AY20" s="44"/>
-      <c r="AZ20" s="45"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="56"/>
+      <c r="AN20" s="56"/>
+      <c r="AO20" s="56"/>
+      <c r="AP20" s="57"/>
+      <c r="AQ20" s="64"/>
+      <c r="AR20" s="65"/>
+      <c r="AS20" s="65"/>
+      <c r="AT20" s="65"/>
+      <c r="AU20" s="65"/>
+      <c r="AV20" s="65"/>
+      <c r="AW20" s="65"/>
+      <c r="AX20" s="65"/>
+      <c r="AY20" s="65"/>
+      <c r="AZ20" s="66"/>
     </row>
     <row r="21" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="35"/>
-      <c r="AI21" s="35"/>
-      <c r="AJ21" s="35"/>
-      <c r="AK21" s="35"/>
-      <c r="AL21" s="35"/>
-      <c r="AM21" s="35"/>
-      <c r="AN21" s="35"/>
-      <c r="AO21" s="35"/>
-      <c r="AP21" s="36"/>
-      <c r="AQ21" s="43"/>
-      <c r="AR21" s="44"/>
-      <c r="AS21" s="44"/>
-      <c r="AT21" s="44"/>
-      <c r="AU21" s="44"/>
-      <c r="AV21" s="44"/>
-      <c r="AW21" s="44"/>
-      <c r="AX21" s="44"/>
-      <c r="AY21" s="44"/>
-      <c r="AZ21" s="45"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="56"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="56"/>
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="56"/>
+      <c r="AH21" s="56"/>
+      <c r="AI21" s="56"/>
+      <c r="AJ21" s="56"/>
+      <c r="AK21" s="56"/>
+      <c r="AL21" s="56"/>
+      <c r="AM21" s="56"/>
+      <c r="AN21" s="56"/>
+      <c r="AO21" s="56"/>
+      <c r="AP21" s="57"/>
+      <c r="AQ21" s="64"/>
+      <c r="AR21" s="65"/>
+      <c r="AS21" s="65"/>
+      <c r="AT21" s="65"/>
+      <c r="AU21" s="65"/>
+      <c r="AV21" s="65"/>
+      <c r="AW21" s="65"/>
+      <c r="AX21" s="65"/>
+      <c r="AY21" s="65"/>
+      <c r="AZ21" s="66"/>
     </row>
     <row r="22" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="35"/>
-      <c r="AI22" s="35"/>
-      <c r="AJ22" s="35"/>
-      <c r="AK22" s="35"/>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="35"/>
-      <c r="AN22" s="35"/>
-      <c r="AO22" s="35"/>
-      <c r="AP22" s="36"/>
-      <c r="AQ22" s="43"/>
-      <c r="AR22" s="44"/>
-      <c r="AS22" s="44"/>
-      <c r="AT22" s="44"/>
-      <c r="AU22" s="44"/>
-      <c r="AV22" s="44"/>
-      <c r="AW22" s="44"/>
-      <c r="AX22" s="44"/>
-      <c r="AY22" s="44"/>
-      <c r="AZ22" s="45"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="56"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="56"/>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="56"/>
+      <c r="AL22" s="56"/>
+      <c r="AM22" s="56"/>
+      <c r="AN22" s="56"/>
+      <c r="AO22" s="56"/>
+      <c r="AP22" s="57"/>
+      <c r="AQ22" s="64"/>
+      <c r="AR22" s="65"/>
+      <c r="AS22" s="65"/>
+      <c r="AT22" s="65"/>
+      <c r="AU22" s="65"/>
+      <c r="AV22" s="65"/>
+      <c r="AW22" s="65"/>
+      <c r="AX22" s="65"/>
+      <c r="AY22" s="65"/>
+      <c r="AZ22" s="66"/>
     </row>
     <row r="23" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="35"/>
-      <c r="AI23" s="35"/>
-      <c r="AJ23" s="35"/>
-      <c r="AK23" s="35"/>
-      <c r="AL23" s="35"/>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="35"/>
-      <c r="AO23" s="35"/>
-      <c r="AP23" s="36"/>
-      <c r="AQ23" s="43"/>
-      <c r="AR23" s="44"/>
-      <c r="AS23" s="44"/>
-      <c r="AT23" s="44"/>
-      <c r="AU23" s="44"/>
-      <c r="AV23" s="44"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="45"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="56"/>
+      <c r="AF23" s="56"/>
+      <c r="AG23" s="56"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="56"/>
+      <c r="AJ23" s="56"/>
+      <c r="AK23" s="56"/>
+      <c r="AL23" s="56"/>
+      <c r="AM23" s="56"/>
+      <c r="AN23" s="56"/>
+      <c r="AO23" s="56"/>
+      <c r="AP23" s="57"/>
+      <c r="AQ23" s="64"/>
+      <c r="AR23" s="65"/>
+      <c r="AS23" s="65"/>
+      <c r="AT23" s="65"/>
+      <c r="AU23" s="65"/>
+      <c r="AV23" s="65"/>
+      <c r="AW23" s="65"/>
+      <c r="AX23" s="65"/>
+      <c r="AY23" s="65"/>
+      <c r="AZ23" s="66"/>
     </row>
     <row r="24" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="53"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="38"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="38"/>
-      <c r="AI24" s="38"/>
-      <c r="AJ24" s="38"/>
-      <c r="AK24" s="38"/>
-      <c r="AL24" s="38"/>
-      <c r="AM24" s="38"/>
-      <c r="AN24" s="38"/>
-      <c r="AO24" s="38"/>
-      <c r="AP24" s="39"/>
-      <c r="AQ24" s="46"/>
-      <c r="AR24" s="47"/>
-      <c r="AS24" s="47"/>
-      <c r="AT24" s="47"/>
-      <c r="AU24" s="47"/>
-      <c r="AV24" s="47"/>
-      <c r="AW24" s="47"/>
-      <c r="AX24" s="47"/>
-      <c r="AY24" s="47"/>
-      <c r="AZ24" s="48"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="59"/>
+      <c r="AH24" s="59"/>
+      <c r="AI24" s="59"/>
+      <c r="AJ24" s="59"/>
+      <c r="AK24" s="59"/>
+      <c r="AL24" s="59"/>
+      <c r="AM24" s="59"/>
+      <c r="AN24" s="59"/>
+      <c r="AO24" s="59"/>
+      <c r="AP24" s="60"/>
+      <c r="AQ24" s="67"/>
+      <c r="AR24" s="68"/>
+      <c r="AS24" s="68"/>
+      <c r="AT24" s="68"/>
+      <c r="AU24" s="68"/>
+      <c r="AV24" s="68"/>
+      <c r="AW24" s="68"/>
+      <c r="AX24" s="68"/>
+      <c r="AY24" s="68"/>
+      <c r="AZ24" s="69"/>
     </row>
     <row r="25" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="60"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="12"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -7265,22 +7344,22 @@
       <c r="AZ25" s="2"/>
     </row>
     <row r="26" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="61"/>
-      <c r="C26" s="62"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="15"/>
       <c r="AZ26" s="3"/>
     </row>
     <row r="27" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="61"/>
-      <c r="C27" s="62"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="15"/>
       <c r="AZ27" s="3"/>
     </row>
     <row r="28" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="67"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -7332,14 +7411,14 @@
       <c r="AZ28" s="18"/>
     </row>
     <row r="29" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="15"/>
       <c r="AZ29" s="3"/>
     </row>
     <row r="30" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="68"/>
-      <c r="C30" s="69"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
@@ -7391,548 +7470,548 @@
       <c r="AZ30" s="6"/>
     </row>
     <row r="31" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="31" t="s">
+      <c r="C31" s="23"/>
+      <c r="D31" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="32"/>
-      <c r="AG31" s="32"/>
-      <c r="AH31" s="32"/>
-      <c r="AI31" s="32"/>
-      <c r="AJ31" s="32"/>
-      <c r="AK31" s="32"/>
-      <c r="AL31" s="32"/>
-      <c r="AM31" s="32"/>
-      <c r="AN31" s="32"/>
-      <c r="AO31" s="32"/>
-      <c r="AP31" s="33"/>
-      <c r="AQ31" s="40" t="s">
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="53"/>
+      <c r="AJ31" s="53"/>
+      <c r="AK31" s="53"/>
+      <c r="AL31" s="53"/>
+      <c r="AM31" s="53"/>
+      <c r="AN31" s="53"/>
+      <c r="AO31" s="53"/>
+      <c r="AP31" s="54"/>
+      <c r="AQ31" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="AR31" s="41"/>
-      <c r="AS31" s="41"/>
-      <c r="AT31" s="41"/>
-      <c r="AU31" s="41"/>
-      <c r="AV31" s="41"/>
-      <c r="AW31" s="41"/>
-      <c r="AX31" s="41"/>
-      <c r="AY31" s="41"/>
-      <c r="AZ31" s="42"/>
+      <c r="AR31" s="62"/>
+      <c r="AS31" s="62"/>
+      <c r="AT31" s="62"/>
+      <c r="AU31" s="62"/>
+      <c r="AV31" s="62"/>
+      <c r="AW31" s="62"/>
+      <c r="AX31" s="62"/>
+      <c r="AY31" s="62"/>
+      <c r="AZ31" s="63"/>
     </row>
     <row r="32" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="57"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="35"/>
-      <c r="AA32" s="35"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="35"/>
-      <c r="AD32" s="35"/>
-      <c r="AE32" s="35"/>
-      <c r="AF32" s="35"/>
-      <c r="AG32" s="35"/>
-      <c r="AH32" s="35"/>
-      <c r="AI32" s="35"/>
-      <c r="AJ32" s="35"/>
-      <c r="AK32" s="35"/>
-      <c r="AL32" s="35"/>
-      <c r="AM32" s="35"/>
-      <c r="AN32" s="35"/>
-      <c r="AO32" s="35"/>
-      <c r="AP32" s="36"/>
-      <c r="AQ32" s="43"/>
-      <c r="AR32" s="44"/>
-      <c r="AS32" s="44"/>
-      <c r="AT32" s="44"/>
-      <c r="AU32" s="44"/>
-      <c r="AV32" s="44"/>
-      <c r="AW32" s="44"/>
-      <c r="AX32" s="44"/>
-      <c r="AY32" s="44"/>
-      <c r="AZ32" s="45"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="56"/>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="56"/>
+      <c r="AE32" s="56"/>
+      <c r="AF32" s="56"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="56"/>
+      <c r="AI32" s="56"/>
+      <c r="AJ32" s="56"/>
+      <c r="AK32" s="56"/>
+      <c r="AL32" s="56"/>
+      <c r="AM32" s="56"/>
+      <c r="AN32" s="56"/>
+      <c r="AO32" s="56"/>
+      <c r="AP32" s="57"/>
+      <c r="AQ32" s="64"/>
+      <c r="AR32" s="65"/>
+      <c r="AS32" s="65"/>
+      <c r="AT32" s="65"/>
+      <c r="AU32" s="65"/>
+      <c r="AV32" s="65"/>
+      <c r="AW32" s="65"/>
+      <c r="AX32" s="65"/>
+      <c r="AY32" s="65"/>
+      <c r="AZ32" s="66"/>
     </row>
     <row r="33" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="57"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="35"/>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="35"/>
-      <c r="AD33" s="35"/>
-      <c r="AE33" s="35"/>
-      <c r="AF33" s="35"/>
-      <c r="AG33" s="35"/>
-      <c r="AH33" s="35"/>
-      <c r="AI33" s="35"/>
-      <c r="AJ33" s="35"/>
-      <c r="AK33" s="35"/>
-      <c r="AL33" s="35"/>
-      <c r="AM33" s="35"/>
-      <c r="AN33" s="35"/>
-      <c r="AO33" s="35"/>
-      <c r="AP33" s="36"/>
-      <c r="AQ33" s="43"/>
-      <c r="AR33" s="44"/>
-      <c r="AS33" s="44"/>
-      <c r="AT33" s="44"/>
-      <c r="AU33" s="44"/>
-      <c r="AV33" s="44"/>
-      <c r="AW33" s="44"/>
-      <c r="AX33" s="44"/>
-      <c r="AY33" s="44"/>
-      <c r="AZ33" s="45"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="56"/>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="56"/>
+      <c r="AF33" s="56"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="56"/>
+      <c r="AJ33" s="56"/>
+      <c r="AK33" s="56"/>
+      <c r="AL33" s="56"/>
+      <c r="AM33" s="56"/>
+      <c r="AN33" s="56"/>
+      <c r="AO33" s="56"/>
+      <c r="AP33" s="57"/>
+      <c r="AQ33" s="64"/>
+      <c r="AR33" s="65"/>
+      <c r="AS33" s="65"/>
+      <c r="AT33" s="65"/>
+      <c r="AU33" s="65"/>
+      <c r="AV33" s="65"/>
+      <c r="AW33" s="65"/>
+      <c r="AX33" s="65"/>
+      <c r="AY33" s="65"/>
+      <c r="AZ33" s="66"/>
     </row>
     <row r="34" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="57"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="35"/>
-      <c r="AA34" s="35"/>
-      <c r="AB34" s="35"/>
-      <c r="AC34" s="35"/>
-      <c r="AD34" s="35"/>
-      <c r="AE34" s="35"/>
-      <c r="AF34" s="35"/>
-      <c r="AG34" s="35"/>
-      <c r="AH34" s="35"/>
-      <c r="AI34" s="35"/>
-      <c r="AJ34" s="35"/>
-      <c r="AK34" s="35"/>
-      <c r="AL34" s="35"/>
-      <c r="AM34" s="35"/>
-      <c r="AN34" s="35"/>
-      <c r="AO34" s="35"/>
-      <c r="AP34" s="36"/>
-      <c r="AQ34" s="43"/>
-      <c r="AR34" s="44"/>
-      <c r="AS34" s="44"/>
-      <c r="AT34" s="44"/>
-      <c r="AU34" s="44"/>
-      <c r="AV34" s="44"/>
-      <c r="AW34" s="44"/>
-      <c r="AX34" s="44"/>
-      <c r="AY34" s="44"/>
-      <c r="AZ34" s="45"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="56"/>
+      <c r="Z34" s="56"/>
+      <c r="AA34" s="56"/>
+      <c r="AB34" s="56"/>
+      <c r="AC34" s="56"/>
+      <c r="AD34" s="56"/>
+      <c r="AE34" s="56"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="56"/>
+      <c r="AJ34" s="56"/>
+      <c r="AK34" s="56"/>
+      <c r="AL34" s="56"/>
+      <c r="AM34" s="56"/>
+      <c r="AN34" s="56"/>
+      <c r="AO34" s="56"/>
+      <c r="AP34" s="57"/>
+      <c r="AQ34" s="64"/>
+      <c r="AR34" s="65"/>
+      <c r="AS34" s="65"/>
+      <c r="AT34" s="65"/>
+      <c r="AU34" s="65"/>
+      <c r="AV34" s="65"/>
+      <c r="AW34" s="65"/>
+      <c r="AX34" s="65"/>
+      <c r="AY34" s="65"/>
+      <c r="AZ34" s="66"/>
     </row>
     <row r="35" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="57"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="35"/>
-      <c r="Y35" s="35"/>
-      <c r="Z35" s="35"/>
-      <c r="AA35" s="35"/>
-      <c r="AB35" s="35"/>
-      <c r="AC35" s="35"/>
-      <c r="AD35" s="35"/>
-      <c r="AE35" s="35"/>
-      <c r="AF35" s="35"/>
-      <c r="AG35" s="35"/>
-      <c r="AH35" s="35"/>
-      <c r="AI35" s="35"/>
-      <c r="AJ35" s="35"/>
-      <c r="AK35" s="35"/>
-      <c r="AL35" s="35"/>
-      <c r="AM35" s="35"/>
-      <c r="AN35" s="35"/>
-      <c r="AO35" s="35"/>
-      <c r="AP35" s="36"/>
-      <c r="AQ35" s="43"/>
-      <c r="AR35" s="44"/>
-      <c r="AS35" s="44"/>
-      <c r="AT35" s="44"/>
-      <c r="AU35" s="44"/>
-      <c r="AV35" s="44"/>
-      <c r="AW35" s="44"/>
-      <c r="AX35" s="44"/>
-      <c r="AY35" s="44"/>
-      <c r="AZ35" s="45"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="56"/>
+      <c r="AC35" s="56"/>
+      <c r="AD35" s="56"/>
+      <c r="AE35" s="56"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="56"/>
+      <c r="AJ35" s="56"/>
+      <c r="AK35" s="56"/>
+      <c r="AL35" s="56"/>
+      <c r="AM35" s="56"/>
+      <c r="AN35" s="56"/>
+      <c r="AO35" s="56"/>
+      <c r="AP35" s="57"/>
+      <c r="AQ35" s="64"/>
+      <c r="AR35" s="65"/>
+      <c r="AS35" s="65"/>
+      <c r="AT35" s="65"/>
+      <c r="AU35" s="65"/>
+      <c r="AV35" s="65"/>
+      <c r="AW35" s="65"/>
+      <c r="AX35" s="65"/>
+      <c r="AY35" s="65"/>
+      <c r="AZ35" s="66"/>
     </row>
     <row r="36" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="57"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="35"/>
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="35"/>
-      <c r="AD36" s="35"/>
-      <c r="AE36" s="35"/>
-      <c r="AF36" s="35"/>
-      <c r="AG36" s="35"/>
-      <c r="AH36" s="35"/>
-      <c r="AI36" s="35"/>
-      <c r="AJ36" s="35"/>
-      <c r="AK36" s="35"/>
-      <c r="AL36" s="35"/>
-      <c r="AM36" s="35"/>
-      <c r="AN36" s="35"/>
-      <c r="AO36" s="35"/>
-      <c r="AP36" s="36"/>
-      <c r="AQ36" s="43"/>
-      <c r="AR36" s="44"/>
-      <c r="AS36" s="44"/>
-      <c r="AT36" s="44"/>
-      <c r="AU36" s="44"/>
-      <c r="AV36" s="44"/>
-      <c r="AW36" s="44"/>
-      <c r="AX36" s="44"/>
-      <c r="AY36" s="44"/>
-      <c r="AZ36" s="45"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56"/>
+      <c r="AB36" s="56"/>
+      <c r="AC36" s="56"/>
+      <c r="AD36" s="56"/>
+      <c r="AE36" s="56"/>
+      <c r="AF36" s="56"/>
+      <c r="AG36" s="56"/>
+      <c r="AH36" s="56"/>
+      <c r="AI36" s="56"/>
+      <c r="AJ36" s="56"/>
+      <c r="AK36" s="56"/>
+      <c r="AL36" s="56"/>
+      <c r="AM36" s="56"/>
+      <c r="AN36" s="56"/>
+      <c r="AO36" s="56"/>
+      <c r="AP36" s="57"/>
+      <c r="AQ36" s="64"/>
+      <c r="AR36" s="65"/>
+      <c r="AS36" s="65"/>
+      <c r="AT36" s="65"/>
+      <c r="AU36" s="65"/>
+      <c r="AV36" s="65"/>
+      <c r="AW36" s="65"/>
+      <c r="AX36" s="65"/>
+      <c r="AY36" s="65"/>
+      <c r="AZ36" s="66"/>
     </row>
     <row r="37" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="57"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="35"/>
-      <c r="Z37" s="35"/>
-      <c r="AA37" s="35"/>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="35"/>
-      <c r="AD37" s="35"/>
-      <c r="AE37" s="35"/>
-      <c r="AF37" s="35"/>
-      <c r="AG37" s="35"/>
-      <c r="AH37" s="35"/>
-      <c r="AI37" s="35"/>
-      <c r="AJ37" s="35"/>
-      <c r="AK37" s="35"/>
-      <c r="AL37" s="35"/>
-      <c r="AM37" s="35"/>
-      <c r="AN37" s="35"/>
-      <c r="AO37" s="35"/>
-      <c r="AP37" s="36"/>
-      <c r="AQ37" s="43"/>
-      <c r="AR37" s="44"/>
-      <c r="AS37" s="44"/>
-      <c r="AT37" s="44"/>
-      <c r="AU37" s="44"/>
-      <c r="AV37" s="44"/>
-      <c r="AW37" s="44"/>
-      <c r="AX37" s="44"/>
-      <c r="AY37" s="44"/>
-      <c r="AZ37" s="45"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
+      <c r="AB37" s="56"/>
+      <c r="AC37" s="56"/>
+      <c r="AD37" s="56"/>
+      <c r="AE37" s="56"/>
+      <c r="AF37" s="56"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="56"/>
+      <c r="AI37" s="56"/>
+      <c r="AJ37" s="56"/>
+      <c r="AK37" s="56"/>
+      <c r="AL37" s="56"/>
+      <c r="AM37" s="56"/>
+      <c r="AN37" s="56"/>
+      <c r="AO37" s="56"/>
+      <c r="AP37" s="57"/>
+      <c r="AQ37" s="64"/>
+      <c r="AR37" s="65"/>
+      <c r="AS37" s="65"/>
+      <c r="AT37" s="65"/>
+      <c r="AU37" s="65"/>
+      <c r="AV37" s="65"/>
+      <c r="AW37" s="65"/>
+      <c r="AX37" s="65"/>
+      <c r="AY37" s="65"/>
+      <c r="AZ37" s="66"/>
     </row>
     <row r="38" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="57"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="35"/>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="35"/>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="35"/>
-      <c r="AC38" s="35"/>
-      <c r="AD38" s="35"/>
-      <c r="AE38" s="35"/>
-      <c r="AF38" s="35"/>
-      <c r="AG38" s="35"/>
-      <c r="AH38" s="35"/>
-      <c r="AI38" s="35"/>
-      <c r="AJ38" s="35"/>
-      <c r="AK38" s="35"/>
-      <c r="AL38" s="35"/>
-      <c r="AM38" s="35"/>
-      <c r="AN38" s="35"/>
-      <c r="AO38" s="35"/>
-      <c r="AP38" s="36"/>
-      <c r="AQ38" s="43"/>
-      <c r="AR38" s="44"/>
-      <c r="AS38" s="44"/>
-      <c r="AT38" s="44"/>
-      <c r="AU38" s="44"/>
-      <c r="AV38" s="44"/>
-      <c r="AW38" s="44"/>
-      <c r="AX38" s="44"/>
-      <c r="AY38" s="44"/>
-      <c r="AZ38" s="45"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="56"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="56"/>
+      <c r="AB38" s="56"/>
+      <c r="AC38" s="56"/>
+      <c r="AD38" s="56"/>
+      <c r="AE38" s="56"/>
+      <c r="AF38" s="56"/>
+      <c r="AG38" s="56"/>
+      <c r="AH38" s="56"/>
+      <c r="AI38" s="56"/>
+      <c r="AJ38" s="56"/>
+      <c r="AK38" s="56"/>
+      <c r="AL38" s="56"/>
+      <c r="AM38" s="56"/>
+      <c r="AN38" s="56"/>
+      <c r="AO38" s="56"/>
+      <c r="AP38" s="57"/>
+      <c r="AQ38" s="64"/>
+      <c r="AR38" s="65"/>
+      <c r="AS38" s="65"/>
+      <c r="AT38" s="65"/>
+      <c r="AU38" s="65"/>
+      <c r="AV38" s="65"/>
+      <c r="AW38" s="65"/>
+      <c r="AX38" s="65"/>
+      <c r="AY38" s="65"/>
+      <c r="AZ38" s="66"/>
     </row>
     <row r="39" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="35"/>
-      <c r="Z39" s="35"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="35"/>
-      <c r="AD39" s="35"/>
-      <c r="AE39" s="35"/>
-      <c r="AF39" s="35"/>
-      <c r="AG39" s="35"/>
-      <c r="AH39" s="35"/>
-      <c r="AI39" s="35"/>
-      <c r="AJ39" s="35"/>
-      <c r="AK39" s="35"/>
-      <c r="AL39" s="35"/>
-      <c r="AM39" s="35"/>
-      <c r="AN39" s="35"/>
-      <c r="AO39" s="35"/>
-      <c r="AP39" s="36"/>
-      <c r="AQ39" s="43"/>
-      <c r="AR39" s="44"/>
-      <c r="AS39" s="44"/>
-      <c r="AT39" s="44"/>
-      <c r="AU39" s="44"/>
-      <c r="AV39" s="44"/>
-      <c r="AW39" s="44"/>
-      <c r="AX39" s="44"/>
-      <c r="AY39" s="44"/>
-      <c r="AZ39" s="45"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="56"/>
+      <c r="AC39" s="56"/>
+      <c r="AD39" s="56"/>
+      <c r="AE39" s="56"/>
+      <c r="AF39" s="56"/>
+      <c r="AG39" s="56"/>
+      <c r="AH39" s="56"/>
+      <c r="AI39" s="56"/>
+      <c r="AJ39" s="56"/>
+      <c r="AK39" s="56"/>
+      <c r="AL39" s="56"/>
+      <c r="AM39" s="56"/>
+      <c r="AN39" s="56"/>
+      <c r="AO39" s="56"/>
+      <c r="AP39" s="57"/>
+      <c r="AQ39" s="64"/>
+      <c r="AR39" s="65"/>
+      <c r="AS39" s="65"/>
+      <c r="AT39" s="65"/>
+      <c r="AU39" s="65"/>
+      <c r="AV39" s="65"/>
+      <c r="AW39" s="65"/>
+      <c r="AX39" s="65"/>
+      <c r="AY39" s="65"/>
+      <c r="AZ39" s="66"/>
     </row>
     <row r="40" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="53"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
-      <c r="AA40" s="38"/>
-      <c r="AB40" s="38"/>
-      <c r="AC40" s="38"/>
-      <c r="AD40" s="38"/>
-      <c r="AE40" s="38"/>
-      <c r="AF40" s="38"/>
-      <c r="AG40" s="38"/>
-      <c r="AH40" s="38"/>
-      <c r="AI40" s="38"/>
-      <c r="AJ40" s="38"/>
-      <c r="AK40" s="38"/>
-      <c r="AL40" s="38"/>
-      <c r="AM40" s="38"/>
-      <c r="AN40" s="38"/>
-      <c r="AO40" s="38"/>
-      <c r="AP40" s="39"/>
-      <c r="AQ40" s="46"/>
-      <c r="AR40" s="47"/>
-      <c r="AS40" s="47"/>
-      <c r="AT40" s="47"/>
-      <c r="AU40" s="47"/>
-      <c r="AV40" s="47"/>
-      <c r="AW40" s="47"/>
-      <c r="AX40" s="47"/>
-      <c r="AY40" s="47"/>
-      <c r="AZ40" s="48"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="59"/>
+      <c r="AF40" s="59"/>
+      <c r="AG40" s="59"/>
+      <c r="AH40" s="59"/>
+      <c r="AI40" s="59"/>
+      <c r="AJ40" s="59"/>
+      <c r="AK40" s="59"/>
+      <c r="AL40" s="59"/>
+      <c r="AM40" s="59"/>
+      <c r="AN40" s="59"/>
+      <c r="AO40" s="59"/>
+      <c r="AP40" s="60"/>
+      <c r="AQ40" s="67"/>
+      <c r="AR40" s="68"/>
+      <c r="AS40" s="68"/>
+      <c r="AT40" s="68"/>
+      <c r="AU40" s="68"/>
+      <c r="AV40" s="68"/>
+      <c r="AW40" s="68"/>
+      <c r="AX40" s="68"/>
+      <c r="AY40" s="68"/>
+      <c r="AZ40" s="69"/>
     </row>
     <row r="41" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="60"/>
+      <c r="C41" s="27"/>
       <c r="D41" s="12"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -7984,22 +8063,22 @@
       <c r="AZ41" s="2"/>
     </row>
     <row r="42" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="61"/>
-      <c r="C42" s="62"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="29"/>
       <c r="D42" s="15"/>
       <c r="AZ42" s="3"/>
     </row>
     <row r="43" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="61"/>
-      <c r="C43" s="62"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="29"/>
       <c r="D43" s="15"/>
       <c r="AZ43" s="3"/>
     </row>
     <row r="44" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="67"/>
+      <c r="C44" s="31"/>
       <c r="D44" s="16"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
@@ -8051,14 +8130,14 @@
       <c r="AZ44" s="18"/>
     </row>
     <row r="45" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="61"/>
-      <c r="C45" s="62"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="29"/>
       <c r="D45" s="15"/>
       <c r="AZ45" s="3"/>
     </row>
     <row r="46" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="68"/>
-      <c r="C46" s="69"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="6"/>
@@ -8110,546 +8189,548 @@
       <c r="AZ46" s="6"/>
     </row>
     <row r="47" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="56"/>
-      <c r="D47" s="40" t="s">
+      <c r="C47" s="23"/>
+      <c r="D47" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="32"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="32"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="32"/>
-      <c r="W47" s="32"/>
-      <c r="X47" s="32"/>
-      <c r="Y47" s="32"/>
-      <c r="Z47" s="32"/>
-      <c r="AA47" s="32"/>
-      <c r="AB47" s="32"/>
-      <c r="AC47" s="32"/>
-      <c r="AD47" s="32"/>
-      <c r="AE47" s="32"/>
-      <c r="AF47" s="32"/>
-      <c r="AG47" s="32"/>
-      <c r="AH47" s="32"/>
-      <c r="AI47" s="32"/>
-      <c r="AJ47" s="32"/>
-      <c r="AK47" s="32"/>
-      <c r="AL47" s="32"/>
-      <c r="AM47" s="32"/>
-      <c r="AN47" s="32"/>
-      <c r="AO47" s="32"/>
-      <c r="AP47" s="33"/>
-      <c r="AQ47" s="31"/>
-      <c r="AR47" s="32"/>
-      <c r="AS47" s="32"/>
-      <c r="AT47" s="32"/>
-      <c r="AU47" s="32"/>
-      <c r="AV47" s="32"/>
-      <c r="AW47" s="32"/>
-      <c r="AX47" s="32"/>
-      <c r="AY47" s="32"/>
-      <c r="AZ47" s="33"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="53"/>
+      <c r="T47" s="53"/>
+      <c r="U47" s="53"/>
+      <c r="V47" s="53"/>
+      <c r="W47" s="53"/>
+      <c r="X47" s="53"/>
+      <c r="Y47" s="53"/>
+      <c r="Z47" s="53"/>
+      <c r="AA47" s="53"/>
+      <c r="AB47" s="53"/>
+      <c r="AC47" s="53"/>
+      <c r="AD47" s="53"/>
+      <c r="AE47" s="53"/>
+      <c r="AF47" s="53"/>
+      <c r="AG47" s="53"/>
+      <c r="AH47" s="53"/>
+      <c r="AI47" s="53"/>
+      <c r="AJ47" s="53"/>
+      <c r="AK47" s="53"/>
+      <c r="AL47" s="53"/>
+      <c r="AM47" s="53"/>
+      <c r="AN47" s="53"/>
+      <c r="AO47" s="53"/>
+      <c r="AP47" s="54"/>
+      <c r="AQ47" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR47" s="72"/>
+      <c r="AS47" s="72"/>
+      <c r="AT47" s="72"/>
+      <c r="AU47" s="72"/>
+      <c r="AV47" s="72"/>
+      <c r="AW47" s="72"/>
+      <c r="AX47" s="72"/>
+      <c r="AY47" s="72"/>
+      <c r="AZ47" s="73"/>
     </row>
     <row r="48" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="57"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="35"/>
-      <c r="Y48" s="35"/>
-      <c r="Z48" s="35"/>
-      <c r="AA48" s="35"/>
-      <c r="AB48" s="35"/>
-      <c r="AC48" s="35"/>
-      <c r="AD48" s="35"/>
-      <c r="AE48" s="35"/>
-      <c r="AF48" s="35"/>
-      <c r="AG48" s="35"/>
-      <c r="AH48" s="35"/>
-      <c r="AI48" s="35"/>
-      <c r="AJ48" s="35"/>
-      <c r="AK48" s="35"/>
-      <c r="AL48" s="35"/>
-      <c r="AM48" s="35"/>
-      <c r="AN48" s="35"/>
-      <c r="AO48" s="35"/>
-      <c r="AP48" s="36"/>
-      <c r="AQ48" s="34"/>
-      <c r="AR48" s="35"/>
-      <c r="AS48" s="35"/>
-      <c r="AT48" s="35"/>
-      <c r="AU48" s="35"/>
-      <c r="AV48" s="35"/>
-      <c r="AW48" s="35"/>
-      <c r="AX48" s="35"/>
-      <c r="AY48" s="35"/>
-      <c r="AZ48" s="36"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="56"/>
+      <c r="T48" s="56"/>
+      <c r="U48" s="56"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="56"/>
+      <c r="X48" s="56"/>
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="56"/>
+      <c r="AC48" s="56"/>
+      <c r="AD48" s="56"/>
+      <c r="AE48" s="56"/>
+      <c r="AF48" s="56"/>
+      <c r="AG48" s="56"/>
+      <c r="AH48" s="56"/>
+      <c r="AI48" s="56"/>
+      <c r="AJ48" s="56"/>
+      <c r="AK48" s="56"/>
+      <c r="AL48" s="56"/>
+      <c r="AM48" s="56"/>
+      <c r="AN48" s="56"/>
+      <c r="AO48" s="56"/>
+      <c r="AP48" s="57"/>
+      <c r="AQ48" s="74"/>
+      <c r="AR48" s="75"/>
+      <c r="AS48" s="75"/>
+      <c r="AT48" s="75"/>
+      <c r="AU48" s="75"/>
+      <c r="AV48" s="75"/>
+      <c r="AW48" s="75"/>
+      <c r="AX48" s="75"/>
+      <c r="AY48" s="75"/>
+      <c r="AZ48" s="76"/>
     </row>
     <row r="49" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="57"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="35"/>
-      <c r="X49" s="35"/>
-      <c r="Y49" s="35"/>
-      <c r="Z49" s="35"/>
-      <c r="AA49" s="35"/>
-      <c r="AB49" s="35"/>
-      <c r="AC49" s="35"/>
-      <c r="AD49" s="35"/>
-      <c r="AE49" s="35"/>
-      <c r="AF49" s="35"/>
-      <c r="AG49" s="35"/>
-      <c r="AH49" s="35"/>
-      <c r="AI49" s="35"/>
-      <c r="AJ49" s="35"/>
-      <c r="AK49" s="35"/>
-      <c r="AL49" s="35"/>
-      <c r="AM49" s="35"/>
-      <c r="AN49" s="35"/>
-      <c r="AO49" s="35"/>
-      <c r="AP49" s="36"/>
-      <c r="AQ49" s="34"/>
-      <c r="AR49" s="35"/>
-      <c r="AS49" s="35"/>
-      <c r="AT49" s="35"/>
-      <c r="AU49" s="35"/>
-      <c r="AV49" s="35"/>
-      <c r="AW49" s="35"/>
-      <c r="AX49" s="35"/>
-      <c r="AY49" s="35"/>
-      <c r="AZ49" s="36"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="56"/>
+      <c r="T49" s="56"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="56"/>
+      <c r="Z49" s="56"/>
+      <c r="AA49" s="56"/>
+      <c r="AB49" s="56"/>
+      <c r="AC49" s="56"/>
+      <c r="AD49" s="56"/>
+      <c r="AE49" s="56"/>
+      <c r="AF49" s="56"/>
+      <c r="AG49" s="56"/>
+      <c r="AH49" s="56"/>
+      <c r="AI49" s="56"/>
+      <c r="AJ49" s="56"/>
+      <c r="AK49" s="56"/>
+      <c r="AL49" s="56"/>
+      <c r="AM49" s="56"/>
+      <c r="AN49" s="56"/>
+      <c r="AO49" s="56"/>
+      <c r="AP49" s="57"/>
+      <c r="AQ49" s="74"/>
+      <c r="AR49" s="75"/>
+      <c r="AS49" s="75"/>
+      <c r="AT49" s="75"/>
+      <c r="AU49" s="75"/>
+      <c r="AV49" s="75"/>
+      <c r="AW49" s="75"/>
+      <c r="AX49" s="75"/>
+      <c r="AY49" s="75"/>
+      <c r="AZ49" s="76"/>
     </row>
     <row r="50" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="57"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="35"/>
-      <c r="W50" s="35"/>
-      <c r="X50" s="35"/>
-      <c r="Y50" s="35"/>
-      <c r="Z50" s="35"/>
-      <c r="AA50" s="35"/>
-      <c r="AB50" s="35"/>
-      <c r="AC50" s="35"/>
-      <c r="AD50" s="35"/>
-      <c r="AE50" s="35"/>
-      <c r="AF50" s="35"/>
-      <c r="AG50" s="35"/>
-      <c r="AH50" s="35"/>
-      <c r="AI50" s="35"/>
-      <c r="AJ50" s="35"/>
-      <c r="AK50" s="35"/>
-      <c r="AL50" s="35"/>
-      <c r="AM50" s="35"/>
-      <c r="AN50" s="35"/>
-      <c r="AO50" s="35"/>
-      <c r="AP50" s="36"/>
-      <c r="AQ50" s="34"/>
-      <c r="AR50" s="35"/>
-      <c r="AS50" s="35"/>
-      <c r="AT50" s="35"/>
-      <c r="AU50" s="35"/>
-      <c r="AV50" s="35"/>
-      <c r="AW50" s="35"/>
-      <c r="AX50" s="35"/>
-      <c r="AY50" s="35"/>
-      <c r="AZ50" s="36"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="56"/>
+      <c r="T50" s="56"/>
+      <c r="U50" s="56"/>
+      <c r="V50" s="56"/>
+      <c r="W50" s="56"/>
+      <c r="X50" s="56"/>
+      <c r="Y50" s="56"/>
+      <c r="Z50" s="56"/>
+      <c r="AA50" s="56"/>
+      <c r="AB50" s="56"/>
+      <c r="AC50" s="56"/>
+      <c r="AD50" s="56"/>
+      <c r="AE50" s="56"/>
+      <c r="AF50" s="56"/>
+      <c r="AG50" s="56"/>
+      <c r="AH50" s="56"/>
+      <c r="AI50" s="56"/>
+      <c r="AJ50" s="56"/>
+      <c r="AK50" s="56"/>
+      <c r="AL50" s="56"/>
+      <c r="AM50" s="56"/>
+      <c r="AN50" s="56"/>
+      <c r="AO50" s="56"/>
+      <c r="AP50" s="57"/>
+      <c r="AQ50" s="74"/>
+      <c r="AR50" s="75"/>
+      <c r="AS50" s="75"/>
+      <c r="AT50" s="75"/>
+      <c r="AU50" s="75"/>
+      <c r="AV50" s="75"/>
+      <c r="AW50" s="75"/>
+      <c r="AX50" s="75"/>
+      <c r="AY50" s="75"/>
+      <c r="AZ50" s="76"/>
     </row>
     <row r="51" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="57"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="35"/>
-      <c r="Y51" s="35"/>
-      <c r="Z51" s="35"/>
-      <c r="AA51" s="35"/>
-      <c r="AB51" s="35"/>
-      <c r="AC51" s="35"/>
-      <c r="AD51" s="35"/>
-      <c r="AE51" s="35"/>
-      <c r="AF51" s="35"/>
-      <c r="AG51" s="35"/>
-      <c r="AH51" s="35"/>
-      <c r="AI51" s="35"/>
-      <c r="AJ51" s="35"/>
-      <c r="AK51" s="35"/>
-      <c r="AL51" s="35"/>
-      <c r="AM51" s="35"/>
-      <c r="AN51" s="35"/>
-      <c r="AO51" s="35"/>
-      <c r="AP51" s="36"/>
-      <c r="AQ51" s="34"/>
-      <c r="AR51" s="35"/>
-      <c r="AS51" s="35"/>
-      <c r="AT51" s="35"/>
-      <c r="AU51" s="35"/>
-      <c r="AV51" s="35"/>
-      <c r="AW51" s="35"/>
-      <c r="AX51" s="35"/>
-      <c r="AY51" s="35"/>
-      <c r="AZ51" s="36"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="56"/>
+      <c r="T51" s="56"/>
+      <c r="U51" s="56"/>
+      <c r="V51" s="56"/>
+      <c r="W51" s="56"/>
+      <c r="X51" s="56"/>
+      <c r="Y51" s="56"/>
+      <c r="Z51" s="56"/>
+      <c r="AA51" s="56"/>
+      <c r="AB51" s="56"/>
+      <c r="AC51" s="56"/>
+      <c r="AD51" s="56"/>
+      <c r="AE51" s="56"/>
+      <c r="AF51" s="56"/>
+      <c r="AG51" s="56"/>
+      <c r="AH51" s="56"/>
+      <c r="AI51" s="56"/>
+      <c r="AJ51" s="56"/>
+      <c r="AK51" s="56"/>
+      <c r="AL51" s="56"/>
+      <c r="AM51" s="56"/>
+      <c r="AN51" s="56"/>
+      <c r="AO51" s="56"/>
+      <c r="AP51" s="57"/>
+      <c r="AQ51" s="74"/>
+      <c r="AR51" s="75"/>
+      <c r="AS51" s="75"/>
+      <c r="AT51" s="75"/>
+      <c r="AU51" s="75"/>
+      <c r="AV51" s="75"/>
+      <c r="AW51" s="75"/>
+      <c r="AX51" s="75"/>
+      <c r="AY51" s="75"/>
+      <c r="AZ51" s="76"/>
     </row>
     <row r="52" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="57"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
-      <c r="S52" s="35"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="35"/>
-      <c r="V52" s="35"/>
-      <c r="W52" s="35"/>
-      <c r="X52" s="35"/>
-      <c r="Y52" s="35"/>
-      <c r="Z52" s="35"/>
-      <c r="AA52" s="35"/>
-      <c r="AB52" s="35"/>
-      <c r="AC52" s="35"/>
-      <c r="AD52" s="35"/>
-      <c r="AE52" s="35"/>
-      <c r="AF52" s="35"/>
-      <c r="AG52" s="35"/>
-      <c r="AH52" s="35"/>
-      <c r="AI52" s="35"/>
-      <c r="AJ52" s="35"/>
-      <c r="AK52" s="35"/>
-      <c r="AL52" s="35"/>
-      <c r="AM52" s="35"/>
-      <c r="AN52" s="35"/>
-      <c r="AO52" s="35"/>
-      <c r="AP52" s="36"/>
-      <c r="AQ52" s="34"/>
-      <c r="AR52" s="35"/>
-      <c r="AS52" s="35"/>
-      <c r="AT52" s="35"/>
-      <c r="AU52" s="35"/>
-      <c r="AV52" s="35"/>
-      <c r="AW52" s="35"/>
-      <c r="AX52" s="35"/>
-      <c r="AY52" s="35"/>
-      <c r="AZ52" s="36"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="56"/>
+      <c r="T52" s="56"/>
+      <c r="U52" s="56"/>
+      <c r="V52" s="56"/>
+      <c r="W52" s="56"/>
+      <c r="X52" s="56"/>
+      <c r="Y52" s="56"/>
+      <c r="Z52" s="56"/>
+      <c r="AA52" s="56"/>
+      <c r="AB52" s="56"/>
+      <c r="AC52" s="56"/>
+      <c r="AD52" s="56"/>
+      <c r="AE52" s="56"/>
+      <c r="AF52" s="56"/>
+      <c r="AG52" s="56"/>
+      <c r="AH52" s="56"/>
+      <c r="AI52" s="56"/>
+      <c r="AJ52" s="56"/>
+      <c r="AK52" s="56"/>
+      <c r="AL52" s="56"/>
+      <c r="AM52" s="56"/>
+      <c r="AN52" s="56"/>
+      <c r="AO52" s="56"/>
+      <c r="AP52" s="57"/>
+      <c r="AQ52" s="74"/>
+      <c r="AR52" s="75"/>
+      <c r="AS52" s="75"/>
+      <c r="AT52" s="75"/>
+      <c r="AU52" s="75"/>
+      <c r="AV52" s="75"/>
+      <c r="AW52" s="75"/>
+      <c r="AX52" s="75"/>
+      <c r="AY52" s="75"/>
+      <c r="AZ52" s="76"/>
     </row>
     <row r="53" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="57"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
-      <c r="S53" s="35"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="35"/>
-      <c r="V53" s="35"/>
-      <c r="W53" s="35"/>
-      <c r="X53" s="35"/>
-      <c r="Y53" s="35"/>
-      <c r="Z53" s="35"/>
-      <c r="AA53" s="35"/>
-      <c r="AB53" s="35"/>
-      <c r="AC53" s="35"/>
-      <c r="AD53" s="35"/>
-      <c r="AE53" s="35"/>
-      <c r="AF53" s="35"/>
-      <c r="AG53" s="35"/>
-      <c r="AH53" s="35"/>
-      <c r="AI53" s="35"/>
-      <c r="AJ53" s="35"/>
-      <c r="AK53" s="35"/>
-      <c r="AL53" s="35"/>
-      <c r="AM53" s="35"/>
-      <c r="AN53" s="35"/>
-      <c r="AO53" s="35"/>
-      <c r="AP53" s="36"/>
-      <c r="AQ53" s="34"/>
-      <c r="AR53" s="35"/>
-      <c r="AS53" s="35"/>
-      <c r="AT53" s="35"/>
-      <c r="AU53" s="35"/>
-      <c r="AV53" s="35"/>
-      <c r="AW53" s="35"/>
-      <c r="AX53" s="35"/>
-      <c r="AY53" s="35"/>
-      <c r="AZ53" s="36"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="56"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56"/>
+      <c r="V53" s="56"/>
+      <c r="W53" s="56"/>
+      <c r="X53" s="56"/>
+      <c r="Y53" s="56"/>
+      <c r="Z53" s="56"/>
+      <c r="AA53" s="56"/>
+      <c r="AB53" s="56"/>
+      <c r="AC53" s="56"/>
+      <c r="AD53" s="56"/>
+      <c r="AE53" s="56"/>
+      <c r="AF53" s="56"/>
+      <c r="AG53" s="56"/>
+      <c r="AH53" s="56"/>
+      <c r="AI53" s="56"/>
+      <c r="AJ53" s="56"/>
+      <c r="AK53" s="56"/>
+      <c r="AL53" s="56"/>
+      <c r="AM53" s="56"/>
+      <c r="AN53" s="56"/>
+      <c r="AO53" s="56"/>
+      <c r="AP53" s="57"/>
+      <c r="AQ53" s="74"/>
+      <c r="AR53" s="75"/>
+      <c r="AS53" s="75"/>
+      <c r="AT53" s="75"/>
+      <c r="AU53" s="75"/>
+      <c r="AV53" s="75"/>
+      <c r="AW53" s="75"/>
+      <c r="AX53" s="75"/>
+      <c r="AY53" s="75"/>
+      <c r="AZ53" s="76"/>
     </row>
     <row r="54" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="57"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
-      <c r="S54" s="35"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="35"/>
-      <c r="V54" s="35"/>
-      <c r="W54" s="35"/>
-      <c r="X54" s="35"/>
-      <c r="Y54" s="35"/>
-      <c r="Z54" s="35"/>
-      <c r="AA54" s="35"/>
-      <c r="AB54" s="35"/>
-      <c r="AC54" s="35"/>
-      <c r="AD54" s="35"/>
-      <c r="AE54" s="35"/>
-      <c r="AF54" s="35"/>
-      <c r="AG54" s="35"/>
-      <c r="AH54" s="35"/>
-      <c r="AI54" s="35"/>
-      <c r="AJ54" s="35"/>
-      <c r="AK54" s="35"/>
-      <c r="AL54" s="35"/>
-      <c r="AM54" s="35"/>
-      <c r="AN54" s="35"/>
-      <c r="AO54" s="35"/>
-      <c r="AP54" s="36"/>
-      <c r="AQ54" s="34"/>
-      <c r="AR54" s="35"/>
-      <c r="AS54" s="35"/>
-      <c r="AT54" s="35"/>
-      <c r="AU54" s="35"/>
-      <c r="AV54" s="35"/>
-      <c r="AW54" s="35"/>
-      <c r="AX54" s="35"/>
-      <c r="AY54" s="35"/>
-      <c r="AZ54" s="36"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="56"/>
+      <c r="S54" s="56"/>
+      <c r="T54" s="56"/>
+      <c r="U54" s="56"/>
+      <c r="V54" s="56"/>
+      <c r="W54" s="56"/>
+      <c r="X54" s="56"/>
+      <c r="Y54" s="56"/>
+      <c r="Z54" s="56"/>
+      <c r="AA54" s="56"/>
+      <c r="AB54" s="56"/>
+      <c r="AC54" s="56"/>
+      <c r="AD54" s="56"/>
+      <c r="AE54" s="56"/>
+      <c r="AF54" s="56"/>
+      <c r="AG54" s="56"/>
+      <c r="AH54" s="56"/>
+      <c r="AI54" s="56"/>
+      <c r="AJ54" s="56"/>
+      <c r="AK54" s="56"/>
+      <c r="AL54" s="56"/>
+      <c r="AM54" s="56"/>
+      <c r="AN54" s="56"/>
+      <c r="AO54" s="56"/>
+      <c r="AP54" s="57"/>
+      <c r="AQ54" s="74"/>
+      <c r="AR54" s="75"/>
+      <c r="AS54" s="75"/>
+      <c r="AT54" s="75"/>
+      <c r="AU54" s="75"/>
+      <c r="AV54" s="75"/>
+      <c r="AW54" s="75"/>
+      <c r="AX54" s="75"/>
+      <c r="AY54" s="75"/>
+      <c r="AZ54" s="76"/>
     </row>
     <row r="55" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="52"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="35"/>
-      <c r="Y55" s="35"/>
-      <c r="Z55" s="35"/>
-      <c r="AA55" s="35"/>
-      <c r="AB55" s="35"/>
-      <c r="AC55" s="35"/>
-      <c r="AD55" s="35"/>
-      <c r="AE55" s="35"/>
-      <c r="AF55" s="35"/>
-      <c r="AG55" s="35"/>
-      <c r="AH55" s="35"/>
-      <c r="AI55" s="35"/>
-      <c r="AJ55" s="35"/>
-      <c r="AK55" s="35"/>
-      <c r="AL55" s="35"/>
-      <c r="AM55" s="35"/>
-      <c r="AN55" s="35"/>
-      <c r="AO55" s="35"/>
-      <c r="AP55" s="36"/>
-      <c r="AQ55" s="34"/>
-      <c r="AR55" s="35"/>
-      <c r="AS55" s="35"/>
-      <c r="AT55" s="35"/>
-      <c r="AU55" s="35"/>
-      <c r="AV55" s="35"/>
-      <c r="AW55" s="35"/>
-      <c r="AX55" s="35"/>
-      <c r="AY55" s="35"/>
-      <c r="AZ55" s="36"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="56"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="56"/>
+      <c r="T55" s="56"/>
+      <c r="U55" s="56"/>
+      <c r="V55" s="56"/>
+      <c r="W55" s="56"/>
+      <c r="X55" s="56"/>
+      <c r="Y55" s="56"/>
+      <c r="Z55" s="56"/>
+      <c r="AA55" s="56"/>
+      <c r="AB55" s="56"/>
+      <c r="AC55" s="56"/>
+      <c r="AD55" s="56"/>
+      <c r="AE55" s="56"/>
+      <c r="AF55" s="56"/>
+      <c r="AG55" s="56"/>
+      <c r="AH55" s="56"/>
+      <c r="AI55" s="56"/>
+      <c r="AJ55" s="56"/>
+      <c r="AK55" s="56"/>
+      <c r="AL55" s="56"/>
+      <c r="AM55" s="56"/>
+      <c r="AN55" s="56"/>
+      <c r="AO55" s="56"/>
+      <c r="AP55" s="57"/>
+      <c r="AQ55" s="74"/>
+      <c r="AR55" s="75"/>
+      <c r="AS55" s="75"/>
+      <c r="AT55" s="75"/>
+      <c r="AU55" s="75"/>
+      <c r="AV55" s="75"/>
+      <c r="AW55" s="75"/>
+      <c r="AX55" s="75"/>
+      <c r="AY55" s="75"/>
+      <c r="AZ55" s="76"/>
     </row>
     <row r="56" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="53"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="38"/>
-      <c r="P56" s="38"/>
-      <c r="Q56" s="38"/>
-      <c r="R56" s="38"/>
-      <c r="S56" s="38"/>
-      <c r="T56" s="38"/>
-      <c r="U56" s="38"/>
-      <c r="V56" s="38"/>
-      <c r="W56" s="38"/>
-      <c r="X56" s="38"/>
-      <c r="Y56" s="38"/>
-      <c r="Z56" s="38"/>
-      <c r="AA56" s="38"/>
-      <c r="AB56" s="38"/>
-      <c r="AC56" s="38"/>
-      <c r="AD56" s="38"/>
-      <c r="AE56" s="38"/>
-      <c r="AF56" s="38"/>
-      <c r="AG56" s="38"/>
-      <c r="AH56" s="38"/>
-      <c r="AI56" s="38"/>
-      <c r="AJ56" s="38"/>
-      <c r="AK56" s="38"/>
-      <c r="AL56" s="38"/>
-      <c r="AM56" s="38"/>
-      <c r="AN56" s="38"/>
-      <c r="AO56" s="38"/>
-      <c r="AP56" s="39"/>
-      <c r="AQ56" s="37"/>
-      <c r="AR56" s="38"/>
-      <c r="AS56" s="38"/>
-      <c r="AT56" s="38"/>
-      <c r="AU56" s="38"/>
-      <c r="AV56" s="38"/>
-      <c r="AW56" s="38"/>
-      <c r="AX56" s="38"/>
-      <c r="AY56" s="38"/>
-      <c r="AZ56" s="39"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="59"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="59"/>
+      <c r="Q56" s="59"/>
+      <c r="R56" s="59"/>
+      <c r="S56" s="59"/>
+      <c r="T56" s="59"/>
+      <c r="U56" s="59"/>
+      <c r="V56" s="59"/>
+      <c r="W56" s="59"/>
+      <c r="X56" s="59"/>
+      <c r="Y56" s="59"/>
+      <c r="Z56" s="59"/>
+      <c r="AA56" s="59"/>
+      <c r="AB56" s="59"/>
+      <c r="AC56" s="59"/>
+      <c r="AD56" s="59"/>
+      <c r="AE56" s="59"/>
+      <c r="AF56" s="59"/>
+      <c r="AG56" s="59"/>
+      <c r="AH56" s="59"/>
+      <c r="AI56" s="59"/>
+      <c r="AJ56" s="59"/>
+      <c r="AK56" s="59"/>
+      <c r="AL56" s="59"/>
+      <c r="AM56" s="59"/>
+      <c r="AN56" s="59"/>
+      <c r="AO56" s="59"/>
+      <c r="AP56" s="60"/>
+      <c r="AQ56" s="77"/>
+      <c r="AR56" s="78"/>
+      <c r="AS56" s="78"/>
+      <c r="AT56" s="78"/>
+      <c r="AU56" s="78"/>
+      <c r="AV56" s="78"/>
+      <c r="AW56" s="78"/>
+      <c r="AX56" s="78"/>
+      <c r="AY56" s="78"/>
+      <c r="AZ56" s="79"/>
     </row>
     <row r="57" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="59" t="s">
+      <c r="B57" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="60"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="12"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -8701,22 +8782,22 @@
       <c r="AZ57" s="2"/>
     </row>
     <row r="58" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="61"/>
-      <c r="C58" s="62"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="29"/>
       <c r="D58" s="15"/>
       <c r="AZ58" s="3"/>
     </row>
     <row r="59" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="61"/>
-      <c r="C59" s="62"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="29"/>
       <c r="D59" s="15"/>
       <c r="AZ59" s="3"/>
     </row>
     <row r="60" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="66" t="s">
+      <c r="B60" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="67"/>
+      <c r="C60" s="31"/>
       <c r="D60" s="16"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -8768,14 +8849,14 @@
       <c r="AZ60" s="18"/>
     </row>
     <row r="61" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="61"/>
-      <c r="C61" s="62"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="29"/>
       <c r="D61" s="15"/>
       <c r="AZ61" s="3"/>
     </row>
     <row r="62" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="68"/>
-      <c r="C62" s="69"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="33"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="6"/>
@@ -8827,544 +8908,544 @@
       <c r="AZ62" s="6"/>
     </row>
     <row r="63" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="55" t="s">
+      <c r="B63" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="56"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="32"/>
-      <c r="S63" s="32"/>
-      <c r="T63" s="32"/>
-      <c r="U63" s="32"/>
-      <c r="V63" s="32"/>
-      <c r="W63" s="32"/>
-      <c r="X63" s="32"/>
-      <c r="Y63" s="32"/>
-      <c r="Z63" s="32"/>
-      <c r="AA63" s="32"/>
-      <c r="AB63" s="32"/>
-      <c r="AC63" s="32"/>
-      <c r="AD63" s="32"/>
-      <c r="AE63" s="32"/>
-      <c r="AF63" s="32"/>
-      <c r="AG63" s="32"/>
-      <c r="AH63" s="32"/>
-      <c r="AI63" s="32"/>
-      <c r="AJ63" s="32"/>
-      <c r="AK63" s="32"/>
-      <c r="AL63" s="32"/>
-      <c r="AM63" s="32"/>
-      <c r="AN63" s="32"/>
-      <c r="AO63" s="32"/>
-      <c r="AP63" s="33"/>
-      <c r="AQ63" s="31"/>
-      <c r="AR63" s="32"/>
-      <c r="AS63" s="32"/>
-      <c r="AT63" s="32"/>
-      <c r="AU63" s="32"/>
-      <c r="AV63" s="32"/>
-      <c r="AW63" s="32"/>
-      <c r="AX63" s="32"/>
-      <c r="AY63" s="32"/>
-      <c r="AZ63" s="33"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="53"/>
+      <c r="M63" s="53"/>
+      <c r="N63" s="53"/>
+      <c r="O63" s="53"/>
+      <c r="P63" s="53"/>
+      <c r="Q63" s="53"/>
+      <c r="R63" s="53"/>
+      <c r="S63" s="53"/>
+      <c r="T63" s="53"/>
+      <c r="U63" s="53"/>
+      <c r="V63" s="53"/>
+      <c r="W63" s="53"/>
+      <c r="X63" s="53"/>
+      <c r="Y63" s="53"/>
+      <c r="Z63" s="53"/>
+      <c r="AA63" s="53"/>
+      <c r="AB63" s="53"/>
+      <c r="AC63" s="53"/>
+      <c r="AD63" s="53"/>
+      <c r="AE63" s="53"/>
+      <c r="AF63" s="53"/>
+      <c r="AG63" s="53"/>
+      <c r="AH63" s="53"/>
+      <c r="AI63" s="53"/>
+      <c r="AJ63" s="53"/>
+      <c r="AK63" s="53"/>
+      <c r="AL63" s="53"/>
+      <c r="AM63" s="53"/>
+      <c r="AN63" s="53"/>
+      <c r="AO63" s="53"/>
+      <c r="AP63" s="54"/>
+      <c r="AQ63" s="52"/>
+      <c r="AR63" s="53"/>
+      <c r="AS63" s="53"/>
+      <c r="AT63" s="53"/>
+      <c r="AU63" s="53"/>
+      <c r="AV63" s="53"/>
+      <c r="AW63" s="53"/>
+      <c r="AX63" s="53"/>
+      <c r="AY63" s="53"/>
+      <c r="AZ63" s="54"/>
     </row>
     <row r="64" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="57"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="35"/>
-      <c r="V64" s="35"/>
-      <c r="W64" s="35"/>
-      <c r="X64" s="35"/>
-      <c r="Y64" s="35"/>
-      <c r="Z64" s="35"/>
-      <c r="AA64" s="35"/>
-      <c r="AB64" s="35"/>
-      <c r="AC64" s="35"/>
-      <c r="AD64" s="35"/>
-      <c r="AE64" s="35"/>
-      <c r="AF64" s="35"/>
-      <c r="AG64" s="35"/>
-      <c r="AH64" s="35"/>
-      <c r="AI64" s="35"/>
-      <c r="AJ64" s="35"/>
-      <c r="AK64" s="35"/>
-      <c r="AL64" s="35"/>
-      <c r="AM64" s="35"/>
-      <c r="AN64" s="35"/>
-      <c r="AO64" s="35"/>
-      <c r="AP64" s="36"/>
-      <c r="AQ64" s="34"/>
-      <c r="AR64" s="35"/>
-      <c r="AS64" s="35"/>
-      <c r="AT64" s="35"/>
-      <c r="AU64" s="35"/>
-      <c r="AV64" s="35"/>
-      <c r="AW64" s="35"/>
-      <c r="AX64" s="35"/>
-      <c r="AY64" s="35"/>
-      <c r="AZ64" s="36"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="56"/>
+      <c r="O64" s="56"/>
+      <c r="P64" s="56"/>
+      <c r="Q64" s="56"/>
+      <c r="R64" s="56"/>
+      <c r="S64" s="56"/>
+      <c r="T64" s="56"/>
+      <c r="U64" s="56"/>
+      <c r="V64" s="56"/>
+      <c r="W64" s="56"/>
+      <c r="X64" s="56"/>
+      <c r="Y64" s="56"/>
+      <c r="Z64" s="56"/>
+      <c r="AA64" s="56"/>
+      <c r="AB64" s="56"/>
+      <c r="AC64" s="56"/>
+      <c r="AD64" s="56"/>
+      <c r="AE64" s="56"/>
+      <c r="AF64" s="56"/>
+      <c r="AG64" s="56"/>
+      <c r="AH64" s="56"/>
+      <c r="AI64" s="56"/>
+      <c r="AJ64" s="56"/>
+      <c r="AK64" s="56"/>
+      <c r="AL64" s="56"/>
+      <c r="AM64" s="56"/>
+      <c r="AN64" s="56"/>
+      <c r="AO64" s="56"/>
+      <c r="AP64" s="57"/>
+      <c r="AQ64" s="55"/>
+      <c r="AR64" s="56"/>
+      <c r="AS64" s="56"/>
+      <c r="AT64" s="56"/>
+      <c r="AU64" s="56"/>
+      <c r="AV64" s="56"/>
+      <c r="AW64" s="56"/>
+      <c r="AX64" s="56"/>
+      <c r="AY64" s="56"/>
+      <c r="AZ64" s="57"/>
     </row>
     <row r="65" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="57"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
-      <c r="S65" s="35"/>
-      <c r="T65" s="35"/>
-      <c r="U65" s="35"/>
-      <c r="V65" s="35"/>
-      <c r="W65" s="35"/>
-      <c r="X65" s="35"/>
-      <c r="Y65" s="35"/>
-      <c r="Z65" s="35"/>
-      <c r="AA65" s="35"/>
-      <c r="AB65" s="35"/>
-      <c r="AC65" s="35"/>
-      <c r="AD65" s="35"/>
-      <c r="AE65" s="35"/>
-      <c r="AF65" s="35"/>
-      <c r="AG65" s="35"/>
-      <c r="AH65" s="35"/>
-      <c r="AI65" s="35"/>
-      <c r="AJ65" s="35"/>
-      <c r="AK65" s="35"/>
-      <c r="AL65" s="35"/>
-      <c r="AM65" s="35"/>
-      <c r="AN65" s="35"/>
-      <c r="AO65" s="35"/>
-      <c r="AP65" s="36"/>
-      <c r="AQ65" s="34"/>
-      <c r="AR65" s="35"/>
-      <c r="AS65" s="35"/>
-      <c r="AT65" s="35"/>
-      <c r="AU65" s="35"/>
-      <c r="AV65" s="35"/>
-      <c r="AW65" s="35"/>
-      <c r="AX65" s="35"/>
-      <c r="AY65" s="35"/>
-      <c r="AZ65" s="36"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="56"/>
+      <c r="K65" s="56"/>
+      <c r="L65" s="56"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="56"/>
+      <c r="O65" s="56"/>
+      <c r="P65" s="56"/>
+      <c r="Q65" s="56"/>
+      <c r="R65" s="56"/>
+      <c r="S65" s="56"/>
+      <c r="T65" s="56"/>
+      <c r="U65" s="56"/>
+      <c r="V65" s="56"/>
+      <c r="W65" s="56"/>
+      <c r="X65" s="56"/>
+      <c r="Y65" s="56"/>
+      <c r="Z65" s="56"/>
+      <c r="AA65" s="56"/>
+      <c r="AB65" s="56"/>
+      <c r="AC65" s="56"/>
+      <c r="AD65" s="56"/>
+      <c r="AE65" s="56"/>
+      <c r="AF65" s="56"/>
+      <c r="AG65" s="56"/>
+      <c r="AH65" s="56"/>
+      <c r="AI65" s="56"/>
+      <c r="AJ65" s="56"/>
+      <c r="AK65" s="56"/>
+      <c r="AL65" s="56"/>
+      <c r="AM65" s="56"/>
+      <c r="AN65" s="56"/>
+      <c r="AO65" s="56"/>
+      <c r="AP65" s="57"/>
+      <c r="AQ65" s="55"/>
+      <c r="AR65" s="56"/>
+      <c r="AS65" s="56"/>
+      <c r="AT65" s="56"/>
+      <c r="AU65" s="56"/>
+      <c r="AV65" s="56"/>
+      <c r="AW65" s="56"/>
+      <c r="AX65" s="56"/>
+      <c r="AY65" s="56"/>
+      <c r="AZ65" s="57"/>
     </row>
     <row r="66" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="57"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
-      <c r="S66" s="35"/>
-      <c r="T66" s="35"/>
-      <c r="U66" s="35"/>
-      <c r="V66" s="35"/>
-      <c r="W66" s="35"/>
-      <c r="X66" s="35"/>
-      <c r="Y66" s="35"/>
-      <c r="Z66" s="35"/>
-      <c r="AA66" s="35"/>
-      <c r="AB66" s="35"/>
-      <c r="AC66" s="35"/>
-      <c r="AD66" s="35"/>
-      <c r="AE66" s="35"/>
-      <c r="AF66" s="35"/>
-      <c r="AG66" s="35"/>
-      <c r="AH66" s="35"/>
-      <c r="AI66" s="35"/>
-      <c r="AJ66" s="35"/>
-      <c r="AK66" s="35"/>
-      <c r="AL66" s="35"/>
-      <c r="AM66" s="35"/>
-      <c r="AN66" s="35"/>
-      <c r="AO66" s="35"/>
-      <c r="AP66" s="36"/>
-      <c r="AQ66" s="34"/>
-      <c r="AR66" s="35"/>
-      <c r="AS66" s="35"/>
-      <c r="AT66" s="35"/>
-      <c r="AU66" s="35"/>
-      <c r="AV66" s="35"/>
-      <c r="AW66" s="35"/>
-      <c r="AX66" s="35"/>
-      <c r="AY66" s="35"/>
-      <c r="AZ66" s="36"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="56"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="56"/>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="56"/>
+      <c r="S66" s="56"/>
+      <c r="T66" s="56"/>
+      <c r="U66" s="56"/>
+      <c r="V66" s="56"/>
+      <c r="W66" s="56"/>
+      <c r="X66" s="56"/>
+      <c r="Y66" s="56"/>
+      <c r="Z66" s="56"/>
+      <c r="AA66" s="56"/>
+      <c r="AB66" s="56"/>
+      <c r="AC66" s="56"/>
+      <c r="AD66" s="56"/>
+      <c r="AE66" s="56"/>
+      <c r="AF66" s="56"/>
+      <c r="AG66" s="56"/>
+      <c r="AH66" s="56"/>
+      <c r="AI66" s="56"/>
+      <c r="AJ66" s="56"/>
+      <c r="AK66" s="56"/>
+      <c r="AL66" s="56"/>
+      <c r="AM66" s="56"/>
+      <c r="AN66" s="56"/>
+      <c r="AO66" s="56"/>
+      <c r="AP66" s="57"/>
+      <c r="AQ66" s="55"/>
+      <c r="AR66" s="56"/>
+      <c r="AS66" s="56"/>
+      <c r="AT66" s="56"/>
+      <c r="AU66" s="56"/>
+      <c r="AV66" s="56"/>
+      <c r="AW66" s="56"/>
+      <c r="AX66" s="56"/>
+      <c r="AY66" s="56"/>
+      <c r="AZ66" s="57"/>
     </row>
     <row r="67" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="57"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35"/>
-      <c r="S67" s="35"/>
-      <c r="T67" s="35"/>
-      <c r="U67" s="35"/>
-      <c r="V67" s="35"/>
-      <c r="W67" s="35"/>
-      <c r="X67" s="35"/>
-      <c r="Y67" s="35"/>
-      <c r="Z67" s="35"/>
-      <c r="AA67" s="35"/>
-      <c r="AB67" s="35"/>
-      <c r="AC67" s="35"/>
-      <c r="AD67" s="35"/>
-      <c r="AE67" s="35"/>
-      <c r="AF67" s="35"/>
-      <c r="AG67" s="35"/>
-      <c r="AH67" s="35"/>
-      <c r="AI67" s="35"/>
-      <c r="AJ67" s="35"/>
-      <c r="AK67" s="35"/>
-      <c r="AL67" s="35"/>
-      <c r="AM67" s="35"/>
-      <c r="AN67" s="35"/>
-      <c r="AO67" s="35"/>
-      <c r="AP67" s="36"/>
-      <c r="AQ67" s="34"/>
-      <c r="AR67" s="35"/>
-      <c r="AS67" s="35"/>
-      <c r="AT67" s="35"/>
-      <c r="AU67" s="35"/>
-      <c r="AV67" s="35"/>
-      <c r="AW67" s="35"/>
-      <c r="AX67" s="35"/>
-      <c r="AY67" s="35"/>
-      <c r="AZ67" s="36"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="56"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="56"/>
+      <c r="P67" s="56"/>
+      <c r="Q67" s="56"/>
+      <c r="R67" s="56"/>
+      <c r="S67" s="56"/>
+      <c r="T67" s="56"/>
+      <c r="U67" s="56"/>
+      <c r="V67" s="56"/>
+      <c r="W67" s="56"/>
+      <c r="X67" s="56"/>
+      <c r="Y67" s="56"/>
+      <c r="Z67" s="56"/>
+      <c r="AA67" s="56"/>
+      <c r="AB67" s="56"/>
+      <c r="AC67" s="56"/>
+      <c r="AD67" s="56"/>
+      <c r="AE67" s="56"/>
+      <c r="AF67" s="56"/>
+      <c r="AG67" s="56"/>
+      <c r="AH67" s="56"/>
+      <c r="AI67" s="56"/>
+      <c r="AJ67" s="56"/>
+      <c r="AK67" s="56"/>
+      <c r="AL67" s="56"/>
+      <c r="AM67" s="56"/>
+      <c r="AN67" s="56"/>
+      <c r="AO67" s="56"/>
+      <c r="AP67" s="57"/>
+      <c r="AQ67" s="55"/>
+      <c r="AR67" s="56"/>
+      <c r="AS67" s="56"/>
+      <c r="AT67" s="56"/>
+      <c r="AU67" s="56"/>
+      <c r="AV67" s="56"/>
+      <c r="AW67" s="56"/>
+      <c r="AX67" s="56"/>
+      <c r="AY67" s="56"/>
+      <c r="AZ67" s="57"/>
     </row>
     <row r="68" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="57"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="35"/>
-      <c r="O68" s="35"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
-      <c r="R68" s="35"/>
-      <c r="S68" s="35"/>
-      <c r="T68" s="35"/>
-      <c r="U68" s="35"/>
-      <c r="V68" s="35"/>
-      <c r="W68" s="35"/>
-      <c r="X68" s="35"/>
-      <c r="Y68" s="35"/>
-      <c r="Z68" s="35"/>
-      <c r="AA68" s="35"/>
-      <c r="AB68" s="35"/>
-      <c r="AC68" s="35"/>
-      <c r="AD68" s="35"/>
-      <c r="AE68" s="35"/>
-      <c r="AF68" s="35"/>
-      <c r="AG68" s="35"/>
-      <c r="AH68" s="35"/>
-      <c r="AI68" s="35"/>
-      <c r="AJ68" s="35"/>
-      <c r="AK68" s="35"/>
-      <c r="AL68" s="35"/>
-      <c r="AM68" s="35"/>
-      <c r="AN68" s="35"/>
-      <c r="AO68" s="35"/>
-      <c r="AP68" s="36"/>
-      <c r="AQ68" s="34"/>
-      <c r="AR68" s="35"/>
-      <c r="AS68" s="35"/>
-      <c r="AT68" s="35"/>
-      <c r="AU68" s="35"/>
-      <c r="AV68" s="35"/>
-      <c r="AW68" s="35"/>
-      <c r="AX68" s="35"/>
-      <c r="AY68" s="35"/>
-      <c r="AZ68" s="36"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="56"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="56"/>
+      <c r="O68" s="56"/>
+      <c r="P68" s="56"/>
+      <c r="Q68" s="56"/>
+      <c r="R68" s="56"/>
+      <c r="S68" s="56"/>
+      <c r="T68" s="56"/>
+      <c r="U68" s="56"/>
+      <c r="V68" s="56"/>
+      <c r="W68" s="56"/>
+      <c r="X68" s="56"/>
+      <c r="Y68" s="56"/>
+      <c r="Z68" s="56"/>
+      <c r="AA68" s="56"/>
+      <c r="AB68" s="56"/>
+      <c r="AC68" s="56"/>
+      <c r="AD68" s="56"/>
+      <c r="AE68" s="56"/>
+      <c r="AF68" s="56"/>
+      <c r="AG68" s="56"/>
+      <c r="AH68" s="56"/>
+      <c r="AI68" s="56"/>
+      <c r="AJ68" s="56"/>
+      <c r="AK68" s="56"/>
+      <c r="AL68" s="56"/>
+      <c r="AM68" s="56"/>
+      <c r="AN68" s="56"/>
+      <c r="AO68" s="56"/>
+      <c r="AP68" s="57"/>
+      <c r="AQ68" s="55"/>
+      <c r="AR68" s="56"/>
+      <c r="AS68" s="56"/>
+      <c r="AT68" s="56"/>
+      <c r="AU68" s="56"/>
+      <c r="AV68" s="56"/>
+      <c r="AW68" s="56"/>
+      <c r="AX68" s="56"/>
+      <c r="AY68" s="56"/>
+      <c r="AZ68" s="57"/>
     </row>
     <row r="69" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="57"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
-      <c r="S69" s="35"/>
-      <c r="T69" s="35"/>
-      <c r="U69" s="35"/>
-      <c r="V69" s="35"/>
-      <c r="W69" s="35"/>
-      <c r="X69" s="35"/>
-      <c r="Y69" s="35"/>
-      <c r="Z69" s="35"/>
-      <c r="AA69" s="35"/>
-      <c r="AB69" s="35"/>
-      <c r="AC69" s="35"/>
-      <c r="AD69" s="35"/>
-      <c r="AE69" s="35"/>
-      <c r="AF69" s="35"/>
-      <c r="AG69" s="35"/>
-      <c r="AH69" s="35"/>
-      <c r="AI69" s="35"/>
-      <c r="AJ69" s="35"/>
-      <c r="AK69" s="35"/>
-      <c r="AL69" s="35"/>
-      <c r="AM69" s="35"/>
-      <c r="AN69" s="35"/>
-      <c r="AO69" s="35"/>
-      <c r="AP69" s="36"/>
-      <c r="AQ69" s="34"/>
-      <c r="AR69" s="35"/>
-      <c r="AS69" s="35"/>
-      <c r="AT69" s="35"/>
-      <c r="AU69" s="35"/>
-      <c r="AV69" s="35"/>
-      <c r="AW69" s="35"/>
-      <c r="AX69" s="35"/>
-      <c r="AY69" s="35"/>
-      <c r="AZ69" s="36"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
+      <c r="L69" s="56"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="56"/>
+      <c r="O69" s="56"/>
+      <c r="P69" s="56"/>
+      <c r="Q69" s="56"/>
+      <c r="R69" s="56"/>
+      <c r="S69" s="56"/>
+      <c r="T69" s="56"/>
+      <c r="U69" s="56"/>
+      <c r="V69" s="56"/>
+      <c r="W69" s="56"/>
+      <c r="X69" s="56"/>
+      <c r="Y69" s="56"/>
+      <c r="Z69" s="56"/>
+      <c r="AA69" s="56"/>
+      <c r="AB69" s="56"/>
+      <c r="AC69" s="56"/>
+      <c r="AD69" s="56"/>
+      <c r="AE69" s="56"/>
+      <c r="AF69" s="56"/>
+      <c r="AG69" s="56"/>
+      <c r="AH69" s="56"/>
+      <c r="AI69" s="56"/>
+      <c r="AJ69" s="56"/>
+      <c r="AK69" s="56"/>
+      <c r="AL69" s="56"/>
+      <c r="AM69" s="56"/>
+      <c r="AN69" s="56"/>
+      <c r="AO69" s="56"/>
+      <c r="AP69" s="57"/>
+      <c r="AQ69" s="55"/>
+      <c r="AR69" s="56"/>
+      <c r="AS69" s="56"/>
+      <c r="AT69" s="56"/>
+      <c r="AU69" s="56"/>
+      <c r="AV69" s="56"/>
+      <c r="AW69" s="56"/>
+      <c r="AX69" s="56"/>
+      <c r="AY69" s="56"/>
+      <c r="AZ69" s="57"/>
     </row>
     <row r="70" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="57"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
-      <c r="U70" s="35"/>
-      <c r="V70" s="35"/>
-      <c r="W70" s="35"/>
-      <c r="X70" s="35"/>
-      <c r="Y70" s="35"/>
-      <c r="Z70" s="35"/>
-      <c r="AA70" s="35"/>
-      <c r="AB70" s="35"/>
-      <c r="AC70" s="35"/>
-      <c r="AD70" s="35"/>
-      <c r="AE70" s="35"/>
-      <c r="AF70" s="35"/>
-      <c r="AG70" s="35"/>
-      <c r="AH70" s="35"/>
-      <c r="AI70" s="35"/>
-      <c r="AJ70" s="35"/>
-      <c r="AK70" s="35"/>
-      <c r="AL70" s="35"/>
-      <c r="AM70" s="35"/>
-      <c r="AN70" s="35"/>
-      <c r="AO70" s="35"/>
-      <c r="AP70" s="36"/>
-      <c r="AQ70" s="34"/>
-      <c r="AR70" s="35"/>
-      <c r="AS70" s="35"/>
-      <c r="AT70" s="35"/>
-      <c r="AU70" s="35"/>
-      <c r="AV70" s="35"/>
-      <c r="AW70" s="35"/>
-      <c r="AX70" s="35"/>
-      <c r="AY70" s="35"/>
-      <c r="AZ70" s="36"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="56"/>
+      <c r="O70" s="56"/>
+      <c r="P70" s="56"/>
+      <c r="Q70" s="56"/>
+      <c r="R70" s="56"/>
+      <c r="S70" s="56"/>
+      <c r="T70" s="56"/>
+      <c r="U70" s="56"/>
+      <c r="V70" s="56"/>
+      <c r="W70" s="56"/>
+      <c r="X70" s="56"/>
+      <c r="Y70" s="56"/>
+      <c r="Z70" s="56"/>
+      <c r="AA70" s="56"/>
+      <c r="AB70" s="56"/>
+      <c r="AC70" s="56"/>
+      <c r="AD70" s="56"/>
+      <c r="AE70" s="56"/>
+      <c r="AF70" s="56"/>
+      <c r="AG70" s="56"/>
+      <c r="AH70" s="56"/>
+      <c r="AI70" s="56"/>
+      <c r="AJ70" s="56"/>
+      <c r="AK70" s="56"/>
+      <c r="AL70" s="56"/>
+      <c r="AM70" s="56"/>
+      <c r="AN70" s="56"/>
+      <c r="AO70" s="56"/>
+      <c r="AP70" s="57"/>
+      <c r="AQ70" s="55"/>
+      <c r="AR70" s="56"/>
+      <c r="AS70" s="56"/>
+      <c r="AT70" s="56"/>
+      <c r="AU70" s="56"/>
+      <c r="AV70" s="56"/>
+      <c r="AW70" s="56"/>
+      <c r="AX70" s="56"/>
+      <c r="AY70" s="56"/>
+      <c r="AZ70" s="57"/>
     </row>
     <row r="71" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="52"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="35"/>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35"/>
-      <c r="R71" s="35"/>
-      <c r="S71" s="35"/>
-      <c r="T71" s="35"/>
-      <c r="U71" s="35"/>
-      <c r="V71" s="35"/>
-      <c r="W71" s="35"/>
-      <c r="X71" s="35"/>
-      <c r="Y71" s="35"/>
-      <c r="Z71" s="35"/>
-      <c r="AA71" s="35"/>
-      <c r="AB71" s="35"/>
-      <c r="AC71" s="35"/>
-      <c r="AD71" s="35"/>
-      <c r="AE71" s="35"/>
-      <c r="AF71" s="35"/>
-      <c r="AG71" s="35"/>
-      <c r="AH71" s="35"/>
-      <c r="AI71" s="35"/>
-      <c r="AJ71" s="35"/>
-      <c r="AK71" s="35"/>
-      <c r="AL71" s="35"/>
-      <c r="AM71" s="35"/>
-      <c r="AN71" s="35"/>
-      <c r="AO71" s="35"/>
-      <c r="AP71" s="36"/>
-      <c r="AQ71" s="34"/>
-      <c r="AR71" s="35"/>
-      <c r="AS71" s="35"/>
-      <c r="AT71" s="35"/>
-      <c r="AU71" s="35"/>
-      <c r="AV71" s="35"/>
-      <c r="AW71" s="35"/>
-      <c r="AX71" s="35"/>
-      <c r="AY71" s="35"/>
-      <c r="AZ71" s="36"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="56"/>
+      <c r="L71" s="56"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56"/>
+      <c r="O71" s="56"/>
+      <c r="P71" s="56"/>
+      <c r="Q71" s="56"/>
+      <c r="R71" s="56"/>
+      <c r="S71" s="56"/>
+      <c r="T71" s="56"/>
+      <c r="U71" s="56"/>
+      <c r="V71" s="56"/>
+      <c r="W71" s="56"/>
+      <c r="X71" s="56"/>
+      <c r="Y71" s="56"/>
+      <c r="Z71" s="56"/>
+      <c r="AA71" s="56"/>
+      <c r="AB71" s="56"/>
+      <c r="AC71" s="56"/>
+      <c r="AD71" s="56"/>
+      <c r="AE71" s="56"/>
+      <c r="AF71" s="56"/>
+      <c r="AG71" s="56"/>
+      <c r="AH71" s="56"/>
+      <c r="AI71" s="56"/>
+      <c r="AJ71" s="56"/>
+      <c r="AK71" s="56"/>
+      <c r="AL71" s="56"/>
+      <c r="AM71" s="56"/>
+      <c r="AN71" s="56"/>
+      <c r="AO71" s="56"/>
+      <c r="AP71" s="57"/>
+      <c r="AQ71" s="55"/>
+      <c r="AR71" s="56"/>
+      <c r="AS71" s="56"/>
+      <c r="AT71" s="56"/>
+      <c r="AU71" s="56"/>
+      <c r="AV71" s="56"/>
+      <c r="AW71" s="56"/>
+      <c r="AX71" s="56"/>
+      <c r="AY71" s="56"/>
+      <c r="AZ71" s="57"/>
     </row>
     <row r="72" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="53"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="38"/>
-      <c r="O72" s="38"/>
-      <c r="P72" s="38"/>
-      <c r="Q72" s="38"/>
-      <c r="R72" s="38"/>
-      <c r="S72" s="38"/>
-      <c r="T72" s="38"/>
-      <c r="U72" s="38"/>
-      <c r="V72" s="38"/>
-      <c r="W72" s="38"/>
-      <c r="X72" s="38"/>
-      <c r="Y72" s="38"/>
-      <c r="Z72" s="38"/>
-      <c r="AA72" s="38"/>
-      <c r="AB72" s="38"/>
-      <c r="AC72" s="38"/>
-      <c r="AD72" s="38"/>
-      <c r="AE72" s="38"/>
-      <c r="AF72" s="38"/>
-      <c r="AG72" s="38"/>
-      <c r="AH72" s="38"/>
-      <c r="AI72" s="38"/>
-      <c r="AJ72" s="38"/>
-      <c r="AK72" s="38"/>
-      <c r="AL72" s="38"/>
-      <c r="AM72" s="38"/>
-      <c r="AN72" s="38"/>
-      <c r="AO72" s="38"/>
-      <c r="AP72" s="39"/>
-      <c r="AQ72" s="37"/>
-      <c r="AR72" s="38"/>
-      <c r="AS72" s="38"/>
-      <c r="AT72" s="38"/>
-      <c r="AU72" s="38"/>
-      <c r="AV72" s="38"/>
-      <c r="AW72" s="38"/>
-      <c r="AX72" s="38"/>
-      <c r="AY72" s="38"/>
-      <c r="AZ72" s="39"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="59"/>
+      <c r="M72" s="59"/>
+      <c r="N72" s="59"/>
+      <c r="O72" s="59"/>
+      <c r="P72" s="59"/>
+      <c r="Q72" s="59"/>
+      <c r="R72" s="59"/>
+      <c r="S72" s="59"/>
+      <c r="T72" s="59"/>
+      <c r="U72" s="59"/>
+      <c r="V72" s="59"/>
+      <c r="W72" s="59"/>
+      <c r="X72" s="59"/>
+      <c r="Y72" s="59"/>
+      <c r="Z72" s="59"/>
+      <c r="AA72" s="59"/>
+      <c r="AB72" s="59"/>
+      <c r="AC72" s="59"/>
+      <c r="AD72" s="59"/>
+      <c r="AE72" s="59"/>
+      <c r="AF72" s="59"/>
+      <c r="AG72" s="59"/>
+      <c r="AH72" s="59"/>
+      <c r="AI72" s="59"/>
+      <c r="AJ72" s="59"/>
+      <c r="AK72" s="59"/>
+      <c r="AL72" s="59"/>
+      <c r="AM72" s="59"/>
+      <c r="AN72" s="59"/>
+      <c r="AO72" s="59"/>
+      <c r="AP72" s="60"/>
+      <c r="AQ72" s="58"/>
+      <c r="AR72" s="59"/>
+      <c r="AS72" s="59"/>
+      <c r="AT72" s="59"/>
+      <c r="AU72" s="59"/>
+      <c r="AV72" s="59"/>
+      <c r="AW72" s="59"/>
+      <c r="AX72" s="59"/>
+      <c r="AY72" s="59"/>
+      <c r="AZ72" s="60"/>
     </row>
     <row r="73" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="59" t="s">
+      <c r="B73" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="60"/>
+      <c r="C73" s="27"/>
       <c r="D73" s="12"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -9416,22 +9497,22 @@
       <c r="AZ73" s="2"/>
     </row>
     <row r="74" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="61"/>
-      <c r="C74" s="62"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="29"/>
       <c r="D74" s="15"/>
       <c r="AZ74" s="3"/>
     </row>
     <row r="75" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="61"/>
-      <c r="C75" s="62"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="29"/>
       <c r="D75" s="15"/>
       <c r="AZ75" s="3"/>
     </row>
     <row r="76" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="66" t="s">
+      <c r="B76" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="67"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="16"/>
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
@@ -9483,14 +9564,14 @@
       <c r="AZ76" s="18"/>
     </row>
     <row r="77" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="61"/>
-      <c r="C77" s="62"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="29"/>
       <c r="D77" s="15"/>
       <c r="AZ77" s="3"/>
     </row>
     <row r="78" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="68"/>
-      <c r="C78" s="69"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="33"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="6"/>
@@ -9542,552 +9623,552 @@
       <c r="AZ78" s="6"/>
     </row>
     <row r="79" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="55" t="s">
+      <c r="B79" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="56"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="32"/>
-      <c r="L79" s="32"/>
-      <c r="M79" s="32"/>
-      <c r="N79" s="32"/>
-      <c r="O79" s="32"/>
-      <c r="P79" s="32"/>
-      <c r="Q79" s="32"/>
-      <c r="R79" s="32"/>
-      <c r="S79" s="32"/>
-      <c r="T79" s="32"/>
-      <c r="U79" s="32"/>
-      <c r="V79" s="32"/>
-      <c r="W79" s="32"/>
-      <c r="X79" s="32"/>
-      <c r="Y79" s="32"/>
-      <c r="Z79" s="32"/>
-      <c r="AA79" s="32"/>
-      <c r="AB79" s="32"/>
-      <c r="AC79" s="32"/>
-      <c r="AD79" s="32"/>
-      <c r="AE79" s="32"/>
-      <c r="AF79" s="32"/>
-      <c r="AG79" s="32"/>
-      <c r="AH79" s="32"/>
-      <c r="AI79" s="32"/>
-      <c r="AJ79" s="32"/>
-      <c r="AK79" s="32"/>
-      <c r="AL79" s="32"/>
-      <c r="AM79" s="32"/>
-      <c r="AN79" s="32"/>
-      <c r="AO79" s="32"/>
-      <c r="AP79" s="33"/>
-      <c r="AQ79" s="31"/>
-      <c r="AR79" s="32"/>
-      <c r="AS79" s="32"/>
-      <c r="AT79" s="32"/>
-      <c r="AU79" s="32"/>
-      <c r="AV79" s="32"/>
-      <c r="AW79" s="32"/>
-      <c r="AX79" s="32"/>
-      <c r="AY79" s="32"/>
-      <c r="AZ79" s="33"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="52"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="53"/>
+      <c r="H79" s="53"/>
+      <c r="I79" s="53"/>
+      <c r="J79" s="53"/>
+      <c r="K79" s="53"/>
+      <c r="L79" s="53"/>
+      <c r="M79" s="53"/>
+      <c r="N79" s="53"/>
+      <c r="O79" s="53"/>
+      <c r="P79" s="53"/>
+      <c r="Q79" s="53"/>
+      <c r="R79" s="53"/>
+      <c r="S79" s="53"/>
+      <c r="T79" s="53"/>
+      <c r="U79" s="53"/>
+      <c r="V79" s="53"/>
+      <c r="W79" s="53"/>
+      <c r="X79" s="53"/>
+      <c r="Y79" s="53"/>
+      <c r="Z79" s="53"/>
+      <c r="AA79" s="53"/>
+      <c r="AB79" s="53"/>
+      <c r="AC79" s="53"/>
+      <c r="AD79" s="53"/>
+      <c r="AE79" s="53"/>
+      <c r="AF79" s="53"/>
+      <c r="AG79" s="53"/>
+      <c r="AH79" s="53"/>
+      <c r="AI79" s="53"/>
+      <c r="AJ79" s="53"/>
+      <c r="AK79" s="53"/>
+      <c r="AL79" s="53"/>
+      <c r="AM79" s="53"/>
+      <c r="AN79" s="53"/>
+      <c r="AO79" s="53"/>
+      <c r="AP79" s="54"/>
+      <c r="AQ79" s="52"/>
+      <c r="AR79" s="53"/>
+      <c r="AS79" s="53"/>
+      <c r="AT79" s="53"/>
+      <c r="AU79" s="53"/>
+      <c r="AV79" s="53"/>
+      <c r="AW79" s="53"/>
+      <c r="AX79" s="53"/>
+      <c r="AY79" s="53"/>
+      <c r="AZ79" s="54"/>
     </row>
     <row r="80" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="57"/>
-      <c r="C80" s="58"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="35"/>
-      <c r="K80" s="35"/>
-      <c r="L80" s="35"/>
-      <c r="M80" s="35"/>
-      <c r="N80" s="35"/>
-      <c r="O80" s="35"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="35"/>
-      <c r="R80" s="35"/>
-      <c r="S80" s="35"/>
-      <c r="T80" s="35"/>
-      <c r="U80" s="35"/>
-      <c r="V80" s="35"/>
-      <c r="W80" s="35"/>
-      <c r="X80" s="35"/>
-      <c r="Y80" s="35"/>
-      <c r="Z80" s="35"/>
-      <c r="AA80" s="35"/>
-      <c r="AB80" s="35"/>
-      <c r="AC80" s="35"/>
-      <c r="AD80" s="35"/>
-      <c r="AE80" s="35"/>
-      <c r="AF80" s="35"/>
-      <c r="AG80" s="35"/>
-      <c r="AH80" s="35"/>
-      <c r="AI80" s="35"/>
-      <c r="AJ80" s="35"/>
-      <c r="AK80" s="35"/>
-      <c r="AL80" s="35"/>
-      <c r="AM80" s="35"/>
-      <c r="AN80" s="35"/>
-      <c r="AO80" s="35"/>
-      <c r="AP80" s="36"/>
-      <c r="AQ80" s="34"/>
-      <c r="AR80" s="35"/>
-      <c r="AS80" s="35"/>
-      <c r="AT80" s="35"/>
-      <c r="AU80" s="35"/>
-      <c r="AV80" s="35"/>
-      <c r="AW80" s="35"/>
-      <c r="AX80" s="35"/>
-      <c r="AY80" s="35"/>
-      <c r="AZ80" s="36"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="56"/>
+      <c r="M80" s="56"/>
+      <c r="N80" s="56"/>
+      <c r="O80" s="56"/>
+      <c r="P80" s="56"/>
+      <c r="Q80" s="56"/>
+      <c r="R80" s="56"/>
+      <c r="S80" s="56"/>
+      <c r="T80" s="56"/>
+      <c r="U80" s="56"/>
+      <c r="V80" s="56"/>
+      <c r="W80" s="56"/>
+      <c r="X80" s="56"/>
+      <c r="Y80" s="56"/>
+      <c r="Z80" s="56"/>
+      <c r="AA80" s="56"/>
+      <c r="AB80" s="56"/>
+      <c r="AC80" s="56"/>
+      <c r="AD80" s="56"/>
+      <c r="AE80" s="56"/>
+      <c r="AF80" s="56"/>
+      <c r="AG80" s="56"/>
+      <c r="AH80" s="56"/>
+      <c r="AI80" s="56"/>
+      <c r="AJ80" s="56"/>
+      <c r="AK80" s="56"/>
+      <c r="AL80" s="56"/>
+      <c r="AM80" s="56"/>
+      <c r="AN80" s="56"/>
+      <c r="AO80" s="56"/>
+      <c r="AP80" s="57"/>
+      <c r="AQ80" s="55"/>
+      <c r="AR80" s="56"/>
+      <c r="AS80" s="56"/>
+      <c r="AT80" s="56"/>
+      <c r="AU80" s="56"/>
+      <c r="AV80" s="56"/>
+      <c r="AW80" s="56"/>
+      <c r="AX80" s="56"/>
+      <c r="AY80" s="56"/>
+      <c r="AZ80" s="57"/>
     </row>
     <row r="81" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="57"/>
-      <c r="C81" s="58"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="35"/>
-      <c r="K81" s="35"/>
-      <c r="L81" s="35"/>
-      <c r="M81" s="35"/>
-      <c r="N81" s="35"/>
-      <c r="O81" s="35"/>
-      <c r="P81" s="35"/>
-      <c r="Q81" s="35"/>
-      <c r="R81" s="35"/>
-      <c r="S81" s="35"/>
-      <c r="T81" s="35"/>
-      <c r="U81" s="35"/>
-      <c r="V81" s="35"/>
-      <c r="W81" s="35"/>
-      <c r="X81" s="35"/>
-      <c r="Y81" s="35"/>
-      <c r="Z81" s="35"/>
-      <c r="AA81" s="35"/>
-      <c r="AB81" s="35"/>
-      <c r="AC81" s="35"/>
-      <c r="AD81" s="35"/>
-      <c r="AE81" s="35"/>
-      <c r="AF81" s="35"/>
-      <c r="AG81" s="35"/>
-      <c r="AH81" s="35"/>
-      <c r="AI81" s="35"/>
-      <c r="AJ81" s="35"/>
-      <c r="AK81" s="35"/>
-      <c r="AL81" s="35"/>
-      <c r="AM81" s="35"/>
-      <c r="AN81" s="35"/>
-      <c r="AO81" s="35"/>
-      <c r="AP81" s="36"/>
-      <c r="AQ81" s="34"/>
-      <c r="AR81" s="35"/>
-      <c r="AS81" s="35"/>
-      <c r="AT81" s="35"/>
-      <c r="AU81" s="35"/>
-      <c r="AV81" s="35"/>
-      <c r="AW81" s="35"/>
-      <c r="AX81" s="35"/>
-      <c r="AY81" s="35"/>
-      <c r="AZ81" s="36"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="56"/>
+      <c r="K81" s="56"/>
+      <c r="L81" s="56"/>
+      <c r="M81" s="56"/>
+      <c r="N81" s="56"/>
+      <c r="O81" s="56"/>
+      <c r="P81" s="56"/>
+      <c r="Q81" s="56"/>
+      <c r="R81" s="56"/>
+      <c r="S81" s="56"/>
+      <c r="T81" s="56"/>
+      <c r="U81" s="56"/>
+      <c r="V81" s="56"/>
+      <c r="W81" s="56"/>
+      <c r="X81" s="56"/>
+      <c r="Y81" s="56"/>
+      <c r="Z81" s="56"/>
+      <c r="AA81" s="56"/>
+      <c r="AB81" s="56"/>
+      <c r="AC81" s="56"/>
+      <c r="AD81" s="56"/>
+      <c r="AE81" s="56"/>
+      <c r="AF81" s="56"/>
+      <c r="AG81" s="56"/>
+      <c r="AH81" s="56"/>
+      <c r="AI81" s="56"/>
+      <c r="AJ81" s="56"/>
+      <c r="AK81" s="56"/>
+      <c r="AL81" s="56"/>
+      <c r="AM81" s="56"/>
+      <c r="AN81" s="56"/>
+      <c r="AO81" s="56"/>
+      <c r="AP81" s="57"/>
+      <c r="AQ81" s="55"/>
+      <c r="AR81" s="56"/>
+      <c r="AS81" s="56"/>
+      <c r="AT81" s="56"/>
+      <c r="AU81" s="56"/>
+      <c r="AV81" s="56"/>
+      <c r="AW81" s="56"/>
+      <c r="AX81" s="56"/>
+      <c r="AY81" s="56"/>
+      <c r="AZ81" s="57"/>
     </row>
     <row r="82" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="57"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="35"/>
-      <c r="N82" s="35"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="35"/>
-      <c r="Q82" s="35"/>
-      <c r="R82" s="35"/>
-      <c r="S82" s="35"/>
-      <c r="T82" s="35"/>
-      <c r="U82" s="35"/>
-      <c r="V82" s="35"/>
-      <c r="W82" s="35"/>
-      <c r="X82" s="35"/>
-      <c r="Y82" s="35"/>
-      <c r="Z82" s="35"/>
-      <c r="AA82" s="35"/>
-      <c r="AB82" s="35"/>
-      <c r="AC82" s="35"/>
-      <c r="AD82" s="35"/>
-      <c r="AE82" s="35"/>
-      <c r="AF82" s="35"/>
-      <c r="AG82" s="35"/>
-      <c r="AH82" s="35"/>
-      <c r="AI82" s="35"/>
-      <c r="AJ82" s="35"/>
-      <c r="AK82" s="35"/>
-      <c r="AL82" s="35"/>
-      <c r="AM82" s="35"/>
-      <c r="AN82" s="35"/>
-      <c r="AO82" s="35"/>
-      <c r="AP82" s="36"/>
-      <c r="AQ82" s="34"/>
-      <c r="AR82" s="35"/>
-      <c r="AS82" s="35"/>
-      <c r="AT82" s="35"/>
-      <c r="AU82" s="35"/>
-      <c r="AV82" s="35"/>
-      <c r="AW82" s="35"/>
-      <c r="AX82" s="35"/>
-      <c r="AY82" s="35"/>
-      <c r="AZ82" s="36"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="56"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="56"/>
+      <c r="L82" s="56"/>
+      <c r="M82" s="56"/>
+      <c r="N82" s="56"/>
+      <c r="O82" s="56"/>
+      <c r="P82" s="56"/>
+      <c r="Q82" s="56"/>
+      <c r="R82" s="56"/>
+      <c r="S82" s="56"/>
+      <c r="T82" s="56"/>
+      <c r="U82" s="56"/>
+      <c r="V82" s="56"/>
+      <c r="W82" s="56"/>
+      <c r="X82" s="56"/>
+      <c r="Y82" s="56"/>
+      <c r="Z82" s="56"/>
+      <c r="AA82" s="56"/>
+      <c r="AB82" s="56"/>
+      <c r="AC82" s="56"/>
+      <c r="AD82" s="56"/>
+      <c r="AE82" s="56"/>
+      <c r="AF82" s="56"/>
+      <c r="AG82" s="56"/>
+      <c r="AH82" s="56"/>
+      <c r="AI82" s="56"/>
+      <c r="AJ82" s="56"/>
+      <c r="AK82" s="56"/>
+      <c r="AL82" s="56"/>
+      <c r="AM82" s="56"/>
+      <c r="AN82" s="56"/>
+      <c r="AO82" s="56"/>
+      <c r="AP82" s="57"/>
+      <c r="AQ82" s="55"/>
+      <c r="AR82" s="56"/>
+      <c r="AS82" s="56"/>
+      <c r="AT82" s="56"/>
+      <c r="AU82" s="56"/>
+      <c r="AV82" s="56"/>
+      <c r="AW82" s="56"/>
+      <c r="AX82" s="56"/>
+      <c r="AY82" s="56"/>
+      <c r="AZ82" s="57"/>
     </row>
     <row r="83" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="57"/>
-      <c r="C83" s="58"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="35"/>
-      <c r="K83" s="35"/>
-      <c r="L83" s="35"/>
-      <c r="M83" s="35"/>
-      <c r="N83" s="35"/>
-      <c r="O83" s="35"/>
-      <c r="P83" s="35"/>
-      <c r="Q83" s="35"/>
-      <c r="R83" s="35"/>
-      <c r="S83" s="35"/>
-      <c r="T83" s="35"/>
-      <c r="U83" s="35"/>
-      <c r="V83" s="35"/>
-      <c r="W83" s="35"/>
-      <c r="X83" s="35"/>
-      <c r="Y83" s="35"/>
-      <c r="Z83" s="35"/>
-      <c r="AA83" s="35"/>
-      <c r="AB83" s="35"/>
-      <c r="AC83" s="35"/>
-      <c r="AD83" s="35"/>
-      <c r="AE83" s="35"/>
-      <c r="AF83" s="35"/>
-      <c r="AG83" s="35"/>
-      <c r="AH83" s="35"/>
-      <c r="AI83" s="35"/>
-      <c r="AJ83" s="35"/>
-      <c r="AK83" s="35"/>
-      <c r="AL83" s="35"/>
-      <c r="AM83" s="35"/>
-      <c r="AN83" s="35"/>
-      <c r="AO83" s="35"/>
-      <c r="AP83" s="36"/>
-      <c r="AQ83" s="34"/>
-      <c r="AR83" s="35"/>
-      <c r="AS83" s="35"/>
-      <c r="AT83" s="35"/>
-      <c r="AU83" s="35"/>
-      <c r="AV83" s="35"/>
-      <c r="AW83" s="35"/>
-      <c r="AX83" s="35"/>
-      <c r="AY83" s="35"/>
-      <c r="AZ83" s="36"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="56"/>
+      <c r="K83" s="56"/>
+      <c r="L83" s="56"/>
+      <c r="M83" s="56"/>
+      <c r="N83" s="56"/>
+      <c r="O83" s="56"/>
+      <c r="P83" s="56"/>
+      <c r="Q83" s="56"/>
+      <c r="R83" s="56"/>
+      <c r="S83" s="56"/>
+      <c r="T83" s="56"/>
+      <c r="U83" s="56"/>
+      <c r="V83" s="56"/>
+      <c r="W83" s="56"/>
+      <c r="X83" s="56"/>
+      <c r="Y83" s="56"/>
+      <c r="Z83" s="56"/>
+      <c r="AA83" s="56"/>
+      <c r="AB83" s="56"/>
+      <c r="AC83" s="56"/>
+      <c r="AD83" s="56"/>
+      <c r="AE83" s="56"/>
+      <c r="AF83" s="56"/>
+      <c r="AG83" s="56"/>
+      <c r="AH83" s="56"/>
+      <c r="AI83" s="56"/>
+      <c r="AJ83" s="56"/>
+      <c r="AK83" s="56"/>
+      <c r="AL83" s="56"/>
+      <c r="AM83" s="56"/>
+      <c r="AN83" s="56"/>
+      <c r="AO83" s="56"/>
+      <c r="AP83" s="57"/>
+      <c r="AQ83" s="55"/>
+      <c r="AR83" s="56"/>
+      <c r="AS83" s="56"/>
+      <c r="AT83" s="56"/>
+      <c r="AU83" s="56"/>
+      <c r="AV83" s="56"/>
+      <c r="AW83" s="56"/>
+      <c r="AX83" s="56"/>
+      <c r="AY83" s="56"/>
+      <c r="AZ83" s="57"/>
     </row>
     <row r="84" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="57"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="35"/>
-      <c r="K84" s="35"/>
-      <c r="L84" s="35"/>
-      <c r="M84" s="35"/>
-      <c r="N84" s="35"/>
-      <c r="O84" s="35"/>
-      <c r="P84" s="35"/>
-      <c r="Q84" s="35"/>
-      <c r="R84" s="35"/>
-      <c r="S84" s="35"/>
-      <c r="T84" s="35"/>
-      <c r="U84" s="35"/>
-      <c r="V84" s="35"/>
-      <c r="W84" s="35"/>
-      <c r="X84" s="35"/>
-      <c r="Y84" s="35"/>
-      <c r="Z84" s="35"/>
-      <c r="AA84" s="35"/>
-      <c r="AB84" s="35"/>
-      <c r="AC84" s="35"/>
-      <c r="AD84" s="35"/>
-      <c r="AE84" s="35"/>
-      <c r="AF84" s="35"/>
-      <c r="AG84" s="35"/>
-      <c r="AH84" s="35"/>
-      <c r="AI84" s="35"/>
-      <c r="AJ84" s="35"/>
-      <c r="AK84" s="35"/>
-      <c r="AL84" s="35"/>
-      <c r="AM84" s="35"/>
-      <c r="AN84" s="35"/>
-      <c r="AO84" s="35"/>
-      <c r="AP84" s="36"/>
-      <c r="AQ84" s="34"/>
-      <c r="AR84" s="35"/>
-      <c r="AS84" s="35"/>
-      <c r="AT84" s="35"/>
-      <c r="AU84" s="35"/>
-      <c r="AV84" s="35"/>
-      <c r="AW84" s="35"/>
-      <c r="AX84" s="35"/>
-      <c r="AY84" s="35"/>
-      <c r="AZ84" s="36"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="56"/>
+      <c r="I84" s="56"/>
+      <c r="J84" s="56"/>
+      <c r="K84" s="56"/>
+      <c r="L84" s="56"/>
+      <c r="M84" s="56"/>
+      <c r="N84" s="56"/>
+      <c r="O84" s="56"/>
+      <c r="P84" s="56"/>
+      <c r="Q84" s="56"/>
+      <c r="R84" s="56"/>
+      <c r="S84" s="56"/>
+      <c r="T84" s="56"/>
+      <c r="U84" s="56"/>
+      <c r="V84" s="56"/>
+      <c r="W84" s="56"/>
+      <c r="X84" s="56"/>
+      <c r="Y84" s="56"/>
+      <c r="Z84" s="56"/>
+      <c r="AA84" s="56"/>
+      <c r="AB84" s="56"/>
+      <c r="AC84" s="56"/>
+      <c r="AD84" s="56"/>
+      <c r="AE84" s="56"/>
+      <c r="AF84" s="56"/>
+      <c r="AG84" s="56"/>
+      <c r="AH84" s="56"/>
+      <c r="AI84" s="56"/>
+      <c r="AJ84" s="56"/>
+      <c r="AK84" s="56"/>
+      <c r="AL84" s="56"/>
+      <c r="AM84" s="56"/>
+      <c r="AN84" s="56"/>
+      <c r="AO84" s="56"/>
+      <c r="AP84" s="57"/>
+      <c r="AQ84" s="55"/>
+      <c r="AR84" s="56"/>
+      <c r="AS84" s="56"/>
+      <c r="AT84" s="56"/>
+      <c r="AU84" s="56"/>
+      <c r="AV84" s="56"/>
+      <c r="AW84" s="56"/>
+      <c r="AX84" s="56"/>
+      <c r="AY84" s="56"/>
+      <c r="AZ84" s="57"/>
     </row>
     <row r="85" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="57"/>
-      <c r="C85" s="58"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="35"/>
-      <c r="N85" s="35"/>
-      <c r="O85" s="35"/>
-      <c r="P85" s="35"/>
-      <c r="Q85" s="35"/>
-      <c r="R85" s="35"/>
-      <c r="S85" s="35"/>
-      <c r="T85" s="35"/>
-      <c r="U85" s="35"/>
-      <c r="V85" s="35"/>
-      <c r="W85" s="35"/>
-      <c r="X85" s="35"/>
-      <c r="Y85" s="35"/>
-      <c r="Z85" s="35"/>
-      <c r="AA85" s="35"/>
-      <c r="AB85" s="35"/>
-      <c r="AC85" s="35"/>
-      <c r="AD85" s="35"/>
-      <c r="AE85" s="35"/>
-      <c r="AF85" s="35"/>
-      <c r="AG85" s="35"/>
-      <c r="AH85" s="35"/>
-      <c r="AI85" s="35"/>
-      <c r="AJ85" s="35"/>
-      <c r="AK85" s="35"/>
-      <c r="AL85" s="35"/>
-      <c r="AM85" s="35"/>
-      <c r="AN85" s="35"/>
-      <c r="AO85" s="35"/>
-      <c r="AP85" s="36"/>
-      <c r="AQ85" s="34"/>
-      <c r="AR85" s="35"/>
-      <c r="AS85" s="35"/>
-      <c r="AT85" s="35"/>
-      <c r="AU85" s="35"/>
-      <c r="AV85" s="35"/>
-      <c r="AW85" s="35"/>
-      <c r="AX85" s="35"/>
-      <c r="AY85" s="35"/>
-      <c r="AZ85" s="36"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="56"/>
+      <c r="K85" s="56"/>
+      <c r="L85" s="56"/>
+      <c r="M85" s="56"/>
+      <c r="N85" s="56"/>
+      <c r="O85" s="56"/>
+      <c r="P85" s="56"/>
+      <c r="Q85" s="56"/>
+      <c r="R85" s="56"/>
+      <c r="S85" s="56"/>
+      <c r="T85" s="56"/>
+      <c r="U85" s="56"/>
+      <c r="V85" s="56"/>
+      <c r="W85" s="56"/>
+      <c r="X85" s="56"/>
+      <c r="Y85" s="56"/>
+      <c r="Z85" s="56"/>
+      <c r="AA85" s="56"/>
+      <c r="AB85" s="56"/>
+      <c r="AC85" s="56"/>
+      <c r="AD85" s="56"/>
+      <c r="AE85" s="56"/>
+      <c r="AF85" s="56"/>
+      <c r="AG85" s="56"/>
+      <c r="AH85" s="56"/>
+      <c r="AI85" s="56"/>
+      <c r="AJ85" s="56"/>
+      <c r="AK85" s="56"/>
+      <c r="AL85" s="56"/>
+      <c r="AM85" s="56"/>
+      <c r="AN85" s="56"/>
+      <c r="AO85" s="56"/>
+      <c r="AP85" s="57"/>
+      <c r="AQ85" s="55"/>
+      <c r="AR85" s="56"/>
+      <c r="AS85" s="56"/>
+      <c r="AT85" s="56"/>
+      <c r="AU85" s="56"/>
+      <c r="AV85" s="56"/>
+      <c r="AW85" s="56"/>
+      <c r="AX85" s="56"/>
+      <c r="AY85" s="56"/>
+      <c r="AZ85" s="57"/>
     </row>
     <row r="86" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="57"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="35"/>
-      <c r="N86" s="35"/>
-      <c r="O86" s="35"/>
-      <c r="P86" s="35"/>
-      <c r="Q86" s="35"/>
-      <c r="R86" s="35"/>
-      <c r="S86" s="35"/>
-      <c r="T86" s="35"/>
-      <c r="U86" s="35"/>
-      <c r="V86" s="35"/>
-      <c r="W86" s="35"/>
-      <c r="X86" s="35"/>
-      <c r="Y86" s="35"/>
-      <c r="Z86" s="35"/>
-      <c r="AA86" s="35"/>
-      <c r="AB86" s="35"/>
-      <c r="AC86" s="35"/>
-      <c r="AD86" s="35"/>
-      <c r="AE86" s="35"/>
-      <c r="AF86" s="35"/>
-      <c r="AG86" s="35"/>
-      <c r="AH86" s="35"/>
-      <c r="AI86" s="35"/>
-      <c r="AJ86" s="35"/>
-      <c r="AK86" s="35"/>
-      <c r="AL86" s="35"/>
-      <c r="AM86" s="35"/>
-      <c r="AN86" s="35"/>
-      <c r="AO86" s="35"/>
-      <c r="AP86" s="36"/>
-      <c r="AQ86" s="34"/>
-      <c r="AR86" s="35"/>
-      <c r="AS86" s="35"/>
-      <c r="AT86" s="35"/>
-      <c r="AU86" s="35"/>
-      <c r="AV86" s="35"/>
-      <c r="AW86" s="35"/>
-      <c r="AX86" s="35"/>
-      <c r="AY86" s="35"/>
-      <c r="AZ86" s="36"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="56"/>
+      <c r="K86" s="56"/>
+      <c r="L86" s="56"/>
+      <c r="M86" s="56"/>
+      <c r="N86" s="56"/>
+      <c r="O86" s="56"/>
+      <c r="P86" s="56"/>
+      <c r="Q86" s="56"/>
+      <c r="R86" s="56"/>
+      <c r="S86" s="56"/>
+      <c r="T86" s="56"/>
+      <c r="U86" s="56"/>
+      <c r="V86" s="56"/>
+      <c r="W86" s="56"/>
+      <c r="X86" s="56"/>
+      <c r="Y86" s="56"/>
+      <c r="Z86" s="56"/>
+      <c r="AA86" s="56"/>
+      <c r="AB86" s="56"/>
+      <c r="AC86" s="56"/>
+      <c r="AD86" s="56"/>
+      <c r="AE86" s="56"/>
+      <c r="AF86" s="56"/>
+      <c r="AG86" s="56"/>
+      <c r="AH86" s="56"/>
+      <c r="AI86" s="56"/>
+      <c r="AJ86" s="56"/>
+      <c r="AK86" s="56"/>
+      <c r="AL86" s="56"/>
+      <c r="AM86" s="56"/>
+      <c r="AN86" s="56"/>
+      <c r="AO86" s="56"/>
+      <c r="AP86" s="57"/>
+      <c r="AQ86" s="55"/>
+      <c r="AR86" s="56"/>
+      <c r="AS86" s="56"/>
+      <c r="AT86" s="56"/>
+      <c r="AU86" s="56"/>
+      <c r="AV86" s="56"/>
+      <c r="AW86" s="56"/>
+      <c r="AX86" s="56"/>
+      <c r="AY86" s="56"/>
+      <c r="AZ86" s="57"/>
     </row>
     <row r="87" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="51" t="s">
+      <c r="B87" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C87" s="52"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="35"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="35"/>
-      <c r="N87" s="35"/>
-      <c r="O87" s="35"/>
-      <c r="P87" s="35"/>
-      <c r="Q87" s="35"/>
-      <c r="R87" s="35"/>
-      <c r="S87" s="35"/>
-      <c r="T87" s="35"/>
-      <c r="U87" s="35"/>
-      <c r="V87" s="35"/>
-      <c r="W87" s="35"/>
-      <c r="X87" s="35"/>
-      <c r="Y87" s="35"/>
-      <c r="Z87" s="35"/>
-      <c r="AA87" s="35"/>
-      <c r="AB87" s="35"/>
-      <c r="AC87" s="35"/>
-      <c r="AD87" s="35"/>
-      <c r="AE87" s="35"/>
-      <c r="AF87" s="35"/>
-      <c r="AG87" s="35"/>
-      <c r="AH87" s="35"/>
-      <c r="AI87" s="35"/>
-      <c r="AJ87" s="35"/>
-      <c r="AK87" s="35"/>
-      <c r="AL87" s="35"/>
-      <c r="AM87" s="35"/>
-      <c r="AN87" s="35"/>
-      <c r="AO87" s="35"/>
-      <c r="AP87" s="36"/>
-      <c r="AQ87" s="34"/>
-      <c r="AR87" s="35"/>
-      <c r="AS87" s="35"/>
-      <c r="AT87" s="35"/>
-      <c r="AU87" s="35"/>
-      <c r="AV87" s="35"/>
-      <c r="AW87" s="35"/>
-      <c r="AX87" s="35"/>
-      <c r="AY87" s="35"/>
-      <c r="AZ87" s="36"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="56"/>
+      <c r="K87" s="56"/>
+      <c r="L87" s="56"/>
+      <c r="M87" s="56"/>
+      <c r="N87" s="56"/>
+      <c r="O87" s="56"/>
+      <c r="P87" s="56"/>
+      <c r="Q87" s="56"/>
+      <c r="R87" s="56"/>
+      <c r="S87" s="56"/>
+      <c r="T87" s="56"/>
+      <c r="U87" s="56"/>
+      <c r="V87" s="56"/>
+      <c r="W87" s="56"/>
+      <c r="X87" s="56"/>
+      <c r="Y87" s="56"/>
+      <c r="Z87" s="56"/>
+      <c r="AA87" s="56"/>
+      <c r="AB87" s="56"/>
+      <c r="AC87" s="56"/>
+      <c r="AD87" s="56"/>
+      <c r="AE87" s="56"/>
+      <c r="AF87" s="56"/>
+      <c r="AG87" s="56"/>
+      <c r="AH87" s="56"/>
+      <c r="AI87" s="56"/>
+      <c r="AJ87" s="56"/>
+      <c r="AK87" s="56"/>
+      <c r="AL87" s="56"/>
+      <c r="AM87" s="56"/>
+      <c r="AN87" s="56"/>
+      <c r="AO87" s="56"/>
+      <c r="AP87" s="57"/>
+      <c r="AQ87" s="55"/>
+      <c r="AR87" s="56"/>
+      <c r="AS87" s="56"/>
+      <c r="AT87" s="56"/>
+      <c r="AU87" s="56"/>
+      <c r="AV87" s="56"/>
+      <c r="AW87" s="56"/>
+      <c r="AX87" s="56"/>
+      <c r="AY87" s="56"/>
+      <c r="AZ87" s="57"/>
     </row>
     <row r="88" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="53"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="38"/>
-      <c r="J88" s="38"/>
-      <c r="K88" s="38"/>
-      <c r="L88" s="38"/>
-      <c r="M88" s="38"/>
-      <c r="N88" s="38"/>
-      <c r="O88" s="38"/>
-      <c r="P88" s="38"/>
-      <c r="Q88" s="38"/>
-      <c r="R88" s="38"/>
-      <c r="S88" s="38"/>
-      <c r="T88" s="38"/>
-      <c r="U88" s="38"/>
-      <c r="V88" s="38"/>
-      <c r="W88" s="38"/>
-      <c r="X88" s="38"/>
-      <c r="Y88" s="38"/>
-      <c r="Z88" s="38"/>
-      <c r="AA88" s="38"/>
-      <c r="AB88" s="38"/>
-      <c r="AC88" s="38"/>
-      <c r="AD88" s="38"/>
-      <c r="AE88" s="38"/>
-      <c r="AF88" s="38"/>
-      <c r="AG88" s="38"/>
-      <c r="AH88" s="38"/>
-      <c r="AI88" s="38"/>
-      <c r="AJ88" s="38"/>
-      <c r="AK88" s="38"/>
-      <c r="AL88" s="38"/>
-      <c r="AM88" s="38"/>
-      <c r="AN88" s="38"/>
-      <c r="AO88" s="38"/>
-      <c r="AP88" s="39"/>
-      <c r="AQ88" s="37"/>
-      <c r="AR88" s="38"/>
-      <c r="AS88" s="38"/>
-      <c r="AT88" s="38"/>
-      <c r="AU88" s="38"/>
-      <c r="AV88" s="38"/>
-      <c r="AW88" s="38"/>
-      <c r="AX88" s="38"/>
-      <c r="AY88" s="38"/>
-      <c r="AZ88" s="39"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="59"/>
+      <c r="J88" s="59"/>
+      <c r="K88" s="59"/>
+      <c r="L88" s="59"/>
+      <c r="M88" s="59"/>
+      <c r="N88" s="59"/>
+      <c r="O88" s="59"/>
+      <c r="P88" s="59"/>
+      <c r="Q88" s="59"/>
+      <c r="R88" s="59"/>
+      <c r="S88" s="59"/>
+      <c r="T88" s="59"/>
+      <c r="U88" s="59"/>
+      <c r="V88" s="59"/>
+      <c r="W88" s="59"/>
+      <c r="X88" s="59"/>
+      <c r="Y88" s="59"/>
+      <c r="Z88" s="59"/>
+      <c r="AA88" s="59"/>
+      <c r="AB88" s="59"/>
+      <c r="AC88" s="59"/>
+      <c r="AD88" s="59"/>
+      <c r="AE88" s="59"/>
+      <c r="AF88" s="59"/>
+      <c r="AG88" s="59"/>
+      <c r="AH88" s="59"/>
+      <c r="AI88" s="59"/>
+      <c r="AJ88" s="59"/>
+      <c r="AK88" s="59"/>
+      <c r="AL88" s="59"/>
+      <c r="AM88" s="59"/>
+      <c r="AN88" s="59"/>
+      <c r="AO88" s="59"/>
+      <c r="AP88" s="60"/>
+      <c r="AQ88" s="58"/>
+      <c r="AR88" s="59"/>
+      <c r="AS88" s="59"/>
+      <c r="AT88" s="59"/>
+      <c r="AU88" s="59"/>
+      <c r="AV88" s="59"/>
+      <c r="AW88" s="59"/>
+      <c r="AX88" s="59"/>
+      <c r="AY88" s="59"/>
+      <c r="AZ88" s="60"/>
     </row>
     <row r="89" spans="2:52" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="49" t="s">
+      <c r="B89" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="49"/>
-      <c r="D89" s="49"/>
-      <c r="E89" s="49"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="49"/>
-      <c r="H89" s="49"/>
-      <c r="I89" s="49"/>
-      <c r="J89" s="49"/>
-      <c r="K89" s="49"/>
+      <c r="C89" s="70"/>
+      <c r="D89" s="70"/>
+      <c r="E89" s="70"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="70"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="70"/>
+      <c r="J89" s="70"/>
+      <c r="K89" s="70"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
@@ -10096,16 +10177,16 @@
       <c r="AL89" s="7"/>
     </row>
     <row r="90" spans="2:52" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="50"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="50"/>
-      <c r="H90" s="50"/>
-      <c r="I90" s="50"/>
-      <c r="J90" s="50"/>
-      <c r="K90" s="50"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="40"/>
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
@@ -10114,216 +10195,216 @@
       <c r="AL90" s="8"/>
     </row>
     <row r="91" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="22"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="23"/>
-      <c r="M91" s="23"/>
-      <c r="N91" s="23"/>
-      <c r="O91" s="23"/>
-      <c r="P91" s="23"/>
-      <c r="Q91" s="23"/>
-      <c r="R91" s="23"/>
-      <c r="S91" s="23"/>
-      <c r="T91" s="23"/>
-      <c r="U91" s="23"/>
-      <c r="V91" s="23"/>
-      <c r="W91" s="23"/>
-      <c r="X91" s="23"/>
-      <c r="Y91" s="23"/>
-      <c r="Z91" s="23"/>
-      <c r="AA91" s="23"/>
-      <c r="AB91" s="23"/>
-      <c r="AC91" s="23"/>
-      <c r="AD91" s="23"/>
-      <c r="AE91" s="23"/>
-      <c r="AF91" s="23"/>
-      <c r="AG91" s="23"/>
-      <c r="AH91" s="23"/>
-      <c r="AI91" s="23"/>
-      <c r="AJ91" s="23"/>
-      <c r="AK91" s="23"/>
-      <c r="AL91" s="23"/>
-      <c r="AM91" s="23"/>
-      <c r="AN91" s="23"/>
-      <c r="AO91" s="23"/>
-      <c r="AP91" s="23"/>
-      <c r="AQ91" s="23"/>
-      <c r="AR91" s="23"/>
-      <c r="AS91" s="23"/>
-      <c r="AT91" s="23"/>
-      <c r="AU91" s="23"/>
-      <c r="AV91" s="23"/>
-      <c r="AW91" s="23"/>
-      <c r="AX91" s="23"/>
-      <c r="AY91" s="23"/>
-      <c r="AZ91" s="24"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="44"/>
+      <c r="M91" s="44"/>
+      <c r="N91" s="44"/>
+      <c r="O91" s="44"/>
+      <c r="P91" s="44"/>
+      <c r="Q91" s="44"/>
+      <c r="R91" s="44"/>
+      <c r="S91" s="44"/>
+      <c r="T91" s="44"/>
+      <c r="U91" s="44"/>
+      <c r="V91" s="44"/>
+      <c r="W91" s="44"/>
+      <c r="X91" s="44"/>
+      <c r="Y91" s="44"/>
+      <c r="Z91" s="44"/>
+      <c r="AA91" s="44"/>
+      <c r="AB91" s="44"/>
+      <c r="AC91" s="44"/>
+      <c r="AD91" s="44"/>
+      <c r="AE91" s="44"/>
+      <c r="AF91" s="44"/>
+      <c r="AG91" s="44"/>
+      <c r="AH91" s="44"/>
+      <c r="AI91" s="44"/>
+      <c r="AJ91" s="44"/>
+      <c r="AK91" s="44"/>
+      <c r="AL91" s="44"/>
+      <c r="AM91" s="44"/>
+      <c r="AN91" s="44"/>
+      <c r="AO91" s="44"/>
+      <c r="AP91" s="44"/>
+      <c r="AQ91" s="44"/>
+      <c r="AR91" s="44"/>
+      <c r="AS91" s="44"/>
+      <c r="AT91" s="44"/>
+      <c r="AU91" s="44"/>
+      <c r="AV91" s="44"/>
+      <c r="AW91" s="44"/>
+      <c r="AX91" s="44"/>
+      <c r="AY91" s="44"/>
+      <c r="AZ91" s="45"/>
     </row>
     <row r="92" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="25"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="26"/>
-      <c r="J92" s="26"/>
-      <c r="K92" s="26"/>
-      <c r="L92" s="26"/>
-      <c r="M92" s="26"/>
-      <c r="N92" s="26"/>
-      <c r="O92" s="26"/>
-      <c r="P92" s="26"/>
-      <c r="Q92" s="26"/>
-      <c r="R92" s="26"/>
-      <c r="S92" s="26"/>
-      <c r="T92" s="26"/>
-      <c r="U92" s="26"/>
-      <c r="V92" s="26"/>
-      <c r="W92" s="26"/>
-      <c r="X92" s="26"/>
-      <c r="Y92" s="26"/>
-      <c r="Z92" s="26"/>
-      <c r="AA92" s="26"/>
-      <c r="AB92" s="26"/>
-      <c r="AC92" s="26"/>
-      <c r="AD92" s="26"/>
-      <c r="AE92" s="26"/>
-      <c r="AF92" s="26"/>
-      <c r="AG92" s="26"/>
-      <c r="AH92" s="26"/>
-      <c r="AI92" s="26"/>
-      <c r="AJ92" s="26"/>
-      <c r="AK92" s="26"/>
-      <c r="AL92" s="26"/>
-      <c r="AM92" s="26"/>
-      <c r="AN92" s="26"/>
-      <c r="AO92" s="26"/>
-      <c r="AP92" s="26"/>
-      <c r="AQ92" s="26"/>
-      <c r="AR92" s="26"/>
-      <c r="AS92" s="26"/>
-      <c r="AT92" s="26"/>
-      <c r="AU92" s="26"/>
-      <c r="AV92" s="26"/>
-      <c r="AW92" s="26"/>
-      <c r="AX92" s="26"/>
-      <c r="AY92" s="26"/>
-      <c r="AZ92" s="27"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="47"/>
+      <c r="N92" s="47"/>
+      <c r="O92" s="47"/>
+      <c r="P92" s="47"/>
+      <c r="Q92" s="47"/>
+      <c r="R92" s="47"/>
+      <c r="S92" s="47"/>
+      <c r="T92" s="47"/>
+      <c r="U92" s="47"/>
+      <c r="V92" s="47"/>
+      <c r="W92" s="47"/>
+      <c r="X92" s="47"/>
+      <c r="Y92" s="47"/>
+      <c r="Z92" s="47"/>
+      <c r="AA92" s="47"/>
+      <c r="AB92" s="47"/>
+      <c r="AC92" s="47"/>
+      <c r="AD92" s="47"/>
+      <c r="AE92" s="47"/>
+      <c r="AF92" s="47"/>
+      <c r="AG92" s="47"/>
+      <c r="AH92" s="47"/>
+      <c r="AI92" s="47"/>
+      <c r="AJ92" s="47"/>
+      <c r="AK92" s="47"/>
+      <c r="AL92" s="47"/>
+      <c r="AM92" s="47"/>
+      <c r="AN92" s="47"/>
+      <c r="AO92" s="47"/>
+      <c r="AP92" s="47"/>
+      <c r="AQ92" s="47"/>
+      <c r="AR92" s="47"/>
+      <c r="AS92" s="47"/>
+      <c r="AT92" s="47"/>
+      <c r="AU92" s="47"/>
+      <c r="AV92" s="47"/>
+      <c r="AW92" s="47"/>
+      <c r="AX92" s="47"/>
+      <c r="AY92" s="47"/>
+      <c r="AZ92" s="48"/>
     </row>
     <row r="93" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="25"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="26"/>
-      <c r="L93" s="26"/>
-      <c r="M93" s="26"/>
-      <c r="N93" s="26"/>
-      <c r="O93" s="26"/>
-      <c r="P93" s="26"/>
-      <c r="Q93" s="26"/>
-      <c r="R93" s="26"/>
-      <c r="S93" s="26"/>
-      <c r="T93" s="26"/>
-      <c r="U93" s="26"/>
-      <c r="V93" s="26"/>
-      <c r="W93" s="26"/>
-      <c r="X93" s="26"/>
-      <c r="Y93" s="26"/>
-      <c r="Z93" s="26"/>
-      <c r="AA93" s="26"/>
-      <c r="AB93" s="26"/>
-      <c r="AC93" s="26"/>
-      <c r="AD93" s="26"/>
-      <c r="AE93" s="26"/>
-      <c r="AF93" s="26"/>
-      <c r="AG93" s="26"/>
-      <c r="AH93" s="26"/>
-      <c r="AI93" s="26"/>
-      <c r="AJ93" s="26"/>
-      <c r="AK93" s="26"/>
-      <c r="AL93" s="26"/>
-      <c r="AM93" s="26"/>
-      <c r="AN93" s="26"/>
-      <c r="AO93" s="26"/>
-      <c r="AP93" s="26"/>
-      <c r="AQ93" s="26"/>
-      <c r="AR93" s="26"/>
-      <c r="AS93" s="26"/>
-      <c r="AT93" s="26"/>
-      <c r="AU93" s="26"/>
-      <c r="AV93" s="26"/>
-      <c r="AW93" s="26"/>
-      <c r="AX93" s="26"/>
-      <c r="AY93" s="26"/>
-      <c r="AZ93" s="27"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="47"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="47"/>
+      <c r="I93" s="47"/>
+      <c r="J93" s="47"/>
+      <c r="K93" s="47"/>
+      <c r="L93" s="47"/>
+      <c r="M93" s="47"/>
+      <c r="N93" s="47"/>
+      <c r="O93" s="47"/>
+      <c r="P93" s="47"/>
+      <c r="Q93" s="47"/>
+      <c r="R93" s="47"/>
+      <c r="S93" s="47"/>
+      <c r="T93" s="47"/>
+      <c r="U93" s="47"/>
+      <c r="V93" s="47"/>
+      <c r="W93" s="47"/>
+      <c r="X93" s="47"/>
+      <c r="Y93" s="47"/>
+      <c r="Z93" s="47"/>
+      <c r="AA93" s="47"/>
+      <c r="AB93" s="47"/>
+      <c r="AC93" s="47"/>
+      <c r="AD93" s="47"/>
+      <c r="AE93" s="47"/>
+      <c r="AF93" s="47"/>
+      <c r="AG93" s="47"/>
+      <c r="AH93" s="47"/>
+      <c r="AI93" s="47"/>
+      <c r="AJ93" s="47"/>
+      <c r="AK93" s="47"/>
+      <c r="AL93" s="47"/>
+      <c r="AM93" s="47"/>
+      <c r="AN93" s="47"/>
+      <c r="AO93" s="47"/>
+      <c r="AP93" s="47"/>
+      <c r="AQ93" s="47"/>
+      <c r="AR93" s="47"/>
+      <c r="AS93" s="47"/>
+      <c r="AT93" s="47"/>
+      <c r="AU93" s="47"/>
+      <c r="AV93" s="47"/>
+      <c r="AW93" s="47"/>
+      <c r="AX93" s="47"/>
+      <c r="AY93" s="47"/>
+      <c r="AZ93" s="48"/>
     </row>
     <row r="94" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="28"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="29"/>
-      <c r="J94" s="29"/>
-      <c r="K94" s="29"/>
-      <c r="L94" s="29"/>
-      <c r="M94" s="29"/>
-      <c r="N94" s="29"/>
-      <c r="O94" s="29"/>
-      <c r="P94" s="29"/>
-      <c r="Q94" s="29"/>
-      <c r="R94" s="29"/>
-      <c r="S94" s="29"/>
-      <c r="T94" s="29"/>
-      <c r="U94" s="29"/>
-      <c r="V94" s="29"/>
-      <c r="W94" s="29"/>
-      <c r="X94" s="29"/>
-      <c r="Y94" s="29"/>
-      <c r="Z94" s="29"/>
-      <c r="AA94" s="29"/>
-      <c r="AB94" s="29"/>
-      <c r="AC94" s="29"/>
-      <c r="AD94" s="29"/>
-      <c r="AE94" s="29"/>
-      <c r="AF94" s="29"/>
-      <c r="AG94" s="29"/>
-      <c r="AH94" s="29"/>
-      <c r="AI94" s="29"/>
-      <c r="AJ94" s="29"/>
-      <c r="AK94" s="29"/>
-      <c r="AL94" s="29"/>
-      <c r="AM94" s="29"/>
-      <c r="AN94" s="29"/>
-      <c r="AO94" s="29"/>
-      <c r="AP94" s="29"/>
-      <c r="AQ94" s="29"/>
-      <c r="AR94" s="29"/>
-      <c r="AS94" s="29"/>
-      <c r="AT94" s="29"/>
-      <c r="AU94" s="29"/>
-      <c r="AV94" s="29"/>
-      <c r="AW94" s="29"/>
-      <c r="AX94" s="29"/>
-      <c r="AY94" s="29"/>
-      <c r="AZ94" s="30"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="50"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="50"/>
+      <c r="I94" s="50"/>
+      <c r="J94" s="50"/>
+      <c r="K94" s="50"/>
+      <c r="L94" s="50"/>
+      <c r="M94" s="50"/>
+      <c r="N94" s="50"/>
+      <c r="O94" s="50"/>
+      <c r="P94" s="50"/>
+      <c r="Q94" s="50"/>
+      <c r="R94" s="50"/>
+      <c r="S94" s="50"/>
+      <c r="T94" s="50"/>
+      <c r="U94" s="50"/>
+      <c r="V94" s="50"/>
+      <c r="W94" s="50"/>
+      <c r="X94" s="50"/>
+      <c r="Y94" s="50"/>
+      <c r="Z94" s="50"/>
+      <c r="AA94" s="50"/>
+      <c r="AB94" s="50"/>
+      <c r="AC94" s="50"/>
+      <c r="AD94" s="50"/>
+      <c r="AE94" s="50"/>
+      <c r="AF94" s="50"/>
+      <c r="AG94" s="50"/>
+      <c r="AH94" s="50"/>
+      <c r="AI94" s="50"/>
+      <c r="AJ94" s="50"/>
+      <c r="AK94" s="50"/>
+      <c r="AL94" s="50"/>
+      <c r="AM94" s="50"/>
+      <c r="AN94" s="50"/>
+      <c r="AO94" s="50"/>
+      <c r="AP94" s="50"/>
+      <c r="AQ94" s="50"/>
+      <c r="AR94" s="50"/>
+      <c r="AS94" s="50"/>
+      <c r="AT94" s="50"/>
+      <c r="AU94" s="50"/>
+      <c r="AV94" s="50"/>
+      <c r="AW94" s="50"/>
+      <c r="AX94" s="50"/>
+      <c r="AY94" s="50"/>
+      <c r="AZ94" s="51"/>
     </row>
     <row r="95" spans="2:52" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="2:52" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10336,28 +10417,6 @@
     <row r="103" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B63:C70"/>
-    <mergeCell ref="B73:C75"/>
-    <mergeCell ref="B76:C78"/>
-    <mergeCell ref="B44:C46"/>
-    <mergeCell ref="B57:C59"/>
-    <mergeCell ref="B60:C62"/>
-    <mergeCell ref="B47:C54"/>
-    <mergeCell ref="B55:C56"/>
-    <mergeCell ref="B41:C43"/>
-    <mergeCell ref="AG1:AZ2"/>
-    <mergeCell ref="T1:AF2"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="AB8:AK8"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="B28:C30"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B15:C22"/>
-    <mergeCell ref="B31:C38"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="B25:C27"/>
     <mergeCell ref="B91:AZ94"/>
     <mergeCell ref="B4:AZ7"/>
     <mergeCell ref="D15:AP24"/>
@@ -10374,6 +10433,28 @@
     <mergeCell ref="B87:C88"/>
     <mergeCell ref="D79:AP88"/>
     <mergeCell ref="AQ79:AZ88"/>
+    <mergeCell ref="B41:C43"/>
+    <mergeCell ref="AG1:AZ2"/>
+    <mergeCell ref="T1:AF2"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="AB8:AK8"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B28:C30"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B15:C22"/>
+    <mergeCell ref="B31:C38"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="B25:C27"/>
+    <mergeCell ref="B63:C70"/>
+    <mergeCell ref="B73:C75"/>
+    <mergeCell ref="B76:C78"/>
+    <mergeCell ref="B44:C46"/>
+    <mergeCell ref="B57:C59"/>
+    <mergeCell ref="B60:C62"/>
+    <mergeCell ref="B47:C54"/>
+    <mergeCell ref="B55:C56"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions verticalCentered="1"/>
@@ -10385,18 +10466,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10617,6 +10698,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA46E2CD-519D-47DE-B196-0DD50840862B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57598A84-87D5-4E37-AB32-A40732200DBA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -10629,14 +10718,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA46E2CD-519D-47DE-B196-0DD50840862B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/【研修中】_日次報告書研修日誌林康輝.xlsx
+++ b/【研修中】_日次報告書研修日誌林康輝.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.utsunomiya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81805\Desktop\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C806645-2347-4CA7-A5DA-F472FF0D9534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B872370-E284-4479-BE38-CEF9C007692D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="1920" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="研修日誌" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t xml:space="preserve"> 研　修　日　誌 </t>
     <rPh sb="1" eb="2">
@@ -305,187 +305,282 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>初日は自分の作業で頭がいっぱいだったのですが、作業にも慣れてきて、宮崎さんとだけはでなくインターンの仲間とも情報共有しながら進めることができました。私の作業内容を参照しながら大倉君が作業するところもあり、「更新したよ」など声を掛け合いながら作業を進めることができたので良かったです。京セラでは、利益をあげるためには人間として正しいことをするという内容を学びました。これは利益を上げるという点だけではなく、周りの人間関係など、人生においても大切なことだと思うので正しい判断ができる人間になれるように、努力して言うと思いました。</t>
+    <t>最後に誤字がありますね。きちんと見直しをしてから提出するようにしてください。声掛けは連携に基本ですね。行動の宣言、完了連絡、確認依頼などなど。スポーツやオンラインゲームと一緒ですね。</t>
     <rPh sb="0" eb="2">
-      <t>ショニチ</t>
+      <t>サイゴ</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アタマ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ミヤザキ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ナカマ</t>
+      <t>ゴジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コエカ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>コウドウ</t>
     </rPh>
     <rPh sb="54" eb="56">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>キョウユウ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="87" eb="90">
-      <t>オオクラクン</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>コエ</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="123" eb="124">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="141" eb="142">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>リエキ</t>
-    </rPh>
-    <rPh sb="157" eb="159">
-      <t>ニンゲン</t>
-    </rPh>
-    <rPh sb="162" eb="163">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="173" eb="175">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="176" eb="177">
-      <t>マナ</t>
-    </rPh>
-    <rPh sb="185" eb="187">
-      <t>リエキ</t>
-    </rPh>
-    <rPh sb="188" eb="189">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="194" eb="195">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="202" eb="203">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="205" eb="207">
-      <t>ニンゲン</t>
-    </rPh>
-    <rPh sb="207" eb="209">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="212" eb="214">
-      <t>ジンセイ</t>
-    </rPh>
-    <rPh sb="219" eb="221">
-      <t>タイセツ</t>
-    </rPh>
-    <rPh sb="226" eb="227">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="230" eb="231">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t>ハンダン</t>
-    </rPh>
-    <rPh sb="239" eb="241">
-      <t>ニンゲン</t>
-    </rPh>
-    <rPh sb="249" eb="251">
-      <t>ドリョク</t>
-    </rPh>
-    <rPh sb="253" eb="254">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="256" eb="257">
-      <t>オモ</t>
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>イッショ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>最後に誤字がありますね。きちんと見直しをしてから提出するようにしてください。声掛けは連携に基本ですね。行動の宣言、完了連絡、確認依頼などなど。スポーツやオンラインゲームと一緒ですね。</t>
+    <t>初日は自分の作業で頭がいっぱいだったのですが、作業にも慣れてきて、宮崎さんとだけはでなくインターンの仲間とも情報共有しながら進めることができました。私の作業内容を参照しながら大倉君が作業するところもあり、「更新したよ」など声を掛け合いながら作業を進めることができたので良かったです。京セラでは、利益をあげるためには人間として正しいことをするという内容を学びました。これは利益を上げるという点だけではなく、周りの人間関係など、人生においても大切なことだと思うので正しい判断ができる人間になれるように、努力していこうと思いました。</t>
     <rPh sb="0" eb="2">
-      <t>サイゴ</t>
+      <t>ショニチ</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>ゴジ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ミナオ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>コエカ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>キホン</t>
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ミヤザキ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ナカマ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="87" eb="90">
+      <t>オオクラクン</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>コエ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="194" eb="195">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="202" eb="203">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="205" eb="207">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="207" eb="209">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>ジンセイ</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>タイセツ</t>
+    </rPh>
+    <rPh sb="226" eb="227">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="230" eb="231">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="239" eb="241">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="249" eb="251">
+      <t>ドリョク</t>
+    </rPh>
+    <rPh sb="257" eb="258">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8月 20日　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今日はhtmlの勉強からはじまり、レイアウトを見ながら大まかに表示をさせていく、という作業をしました。学校で習うプログラミングで出る課題などは、授業で習ったことの中に答えがあるのに対して、どう書けば思った通りに反映されるのかがわからないことのほうが多かったので、書き方をネットで調べることも多く、調べたいことを的確に検索する能力も必要だと感じました。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>サギョウ</t>
     </rPh>
     <rPh sb="51" eb="53">
-      <t>コウドウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>センゲン</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>レンラク</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>イライ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>イッショ</t>
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>テキカク</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>カン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -494,7 +589,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -548,6 +643,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -699,7 +800,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -753,69 +854,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -898,9 +936,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -928,6 +963,75 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -947,6 +1051,714 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="正方形/長方形 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEEA39F2-BCD3-4ED7-8D82-19B7D87CD959}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="8601075"/>
+          <a:ext cx="1724025" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="正方形/長方形 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBEF297A-9AD3-494F-A1D6-5ACEB678FAB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="8601075"/>
+          <a:ext cx="428625" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="正方形/長方形 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E61F8EB-AB22-4FE6-8940-FB5E3E3CDAE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581400" y="8601075"/>
+          <a:ext cx="2552699" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="正方形/長方形 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322A6904-6E68-4A1A-AF2F-A5ECA5AA4C41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572250" y="8601075"/>
+          <a:ext cx="438149" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="正方形/長方形 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A889FF-EC44-4B37-9B91-ADA4C4BE78D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="8601075"/>
+          <a:ext cx="438149" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="正方形/長方形 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{452370E7-D729-4C7E-BA5F-C35E28CAEC0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438525" y="8601075"/>
+          <a:ext cx="133349" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="正方形/長方形 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C53ACB3-6F58-4D37-8C39-5FCD5FAC6B29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457325" y="6972300"/>
+          <a:ext cx="1971675" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="正方形/長方形 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB8414C-62EB-437B-8D3C-A677C0315005}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285876" y="6972300"/>
+          <a:ext cx="171450" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="正方形/長方形 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D371D7-147C-4563-86CD-6ECB949F8C8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3419476" y="6972300"/>
+          <a:ext cx="171450" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="正方形/長方形 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4D8C25-E28D-4B6C-B006-2E0146E9ADA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="6972300"/>
+          <a:ext cx="2552699" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="正方形/長方形 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6800D342-984A-4E90-9D4D-A0146E4C1FD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="6972300"/>
+          <a:ext cx="438149" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="正方形/長方形 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E58169D-E3EF-4892-976E-68B537C1A0E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6581775" y="6972300"/>
+          <a:ext cx="438149" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -5812,6 +6624,741 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3355444" y="6667499"/>
+          <a:ext cx="330732" cy="649997"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>休憩</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586058" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="テキスト ボックス 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8037319-C87D-4C03-AF50-48858796DFF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="7000875"/>
+          <a:ext cx="586058" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>開発</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586058" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="テキスト ボックス 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B75AF80-A812-4055-A3FF-CD05FE4AA3AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="6991350"/>
+          <a:ext cx="586058" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>開発</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="389850" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="テキスト ボックス 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4F16AD-B972-40EB-A1DA-91457899CD56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619875" y="7010400"/>
+          <a:ext cx="389850" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>日誌</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="464038" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="テキスト ボックス 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277A864F-C846-4184-A506-F4E1BD59CC0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="7000875"/>
+          <a:ext cx="464038" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>京セラ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="442814" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="テキスト ボックス 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FA068FA-E10E-494D-93DC-594F26E97F06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="6943725"/>
+          <a:ext cx="442814" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ミーテ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ィング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>69319</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="330732" cy="649997"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="テキスト ボックス 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E5B35B-3670-4BF3-9551-88EA1BBF7746}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3355444" y="6953249"/>
+          <a:ext cx="330732" cy="649997"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>休憩</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586058" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="テキスト ボックス 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F92D701-19C3-4387-843F-BE21872EAD9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2314575" y="8620125"/>
+          <a:ext cx="586058" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>開発</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586058" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="テキスト ボックス 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABF99FCB-DB74-4088-AE5C-5303A5C71B2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="8620125"/>
+          <a:ext cx="586058" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>開発</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="389850" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="テキスト ボックス 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1389485C-2843-4BF1-8182-163ECCCDC567}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619875" y="8639175"/>
+          <a:ext cx="389850" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>日誌</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="テキスト ボックス 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C6439A8-D02A-4859-99C9-0A1516386B5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="8572500"/>
+          <a:ext cx="492443" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>社会人</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>研修</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="442814" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="テキスト ボックス 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E82D5FEE-5118-42F4-9827-A3FF9170422A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="8562975"/>
+          <a:ext cx="442814" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ミーテ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ィング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>69319</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="330732" cy="649997"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="テキスト ボックス 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB8D273-0894-4B87-A73A-D72DE4741D55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3355444" y="8582024"/>
           <a:ext cx="330732" cy="649997"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6178,7 +7725,7 @@
   <dimension ref="A1:BS103"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AQ57" sqref="AQ57"/>
+      <selection activeCell="AQ63" sqref="AQ63:AZ72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="9.9499999999999993" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -6205,59 +7752,59 @@
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
       <c r="S1" s="20"/>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="38" t="s">
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
       <c r="BA1" s="14"/>
     </row>
     <row r="2" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
@@ -6266,51 +7813,51 @@
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="38"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="72"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="72"/>
+      <c r="AY2" s="72"/>
+      <c r="AZ2" s="72"/>
     </row>
     <row r="3" spans="1:53" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -6328,252 +7875,252 @@
       <c r="AL3" s="11"/>
     </row>
     <row r="4" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="44"/>
-      <c r="AU4" s="44"/>
-      <c r="AV4" s="44"/>
-      <c r="AW4" s="44"/>
-      <c r="AX4" s="44"/>
-      <c r="AY4" s="44"/>
-      <c r="AZ4" s="45"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
+      <c r="AT4" s="23"/>
+      <c r="AU4" s="23"/>
+      <c r="AV4" s="23"/>
+      <c r="AW4" s="23"/>
+      <c r="AX4" s="23"/>
+      <c r="AY4" s="23"/>
+      <c r="AZ4" s="24"/>
     </row>
     <row r="5" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="48"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="26"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26"/>
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="26"/>
+      <c r="AP5" s="26"/>
+      <c r="AQ5" s="26"/>
+      <c r="AR5" s="26"/>
+      <c r="AS5" s="26"/>
+      <c r="AT5" s="26"/>
+      <c r="AU5" s="26"/>
+      <c r="AV5" s="26"/>
+      <c r="AW5" s="26"/>
+      <c r="AX5" s="26"/>
+      <c r="AY5" s="26"/>
+      <c r="AZ5" s="27"/>
     </row>
     <row r="6" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="47"/>
-      <c r="AP6" s="47"/>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="47"/>
-      <c r="AS6" s="47"/>
-      <c r="AT6" s="47"/>
-      <c r="AU6" s="47"/>
-      <c r="AV6" s="47"/>
-      <c r="AW6" s="47"/>
-      <c r="AX6" s="47"/>
-      <c r="AY6" s="47"/>
-      <c r="AZ6" s="48"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="26"/>
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="26"/>
+      <c r="AS6" s="26"/>
+      <c r="AT6" s="26"/>
+      <c r="AU6" s="26"/>
+      <c r="AV6" s="26"/>
+      <c r="AW6" s="26"/>
+      <c r="AX6" s="26"/>
+      <c r="AY6" s="26"/>
+      <c r="AZ6" s="27"/>
     </row>
     <row r="7" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="50"/>
-      <c r="AJ7" s="50"/>
-      <c r="AK7" s="50"/>
-      <c r="AL7" s="50"/>
-      <c r="AM7" s="50"/>
-      <c r="AN7" s="50"/>
-      <c r="AO7" s="50"/>
-      <c r="AP7" s="50"/>
-      <c r="AQ7" s="50"/>
-      <c r="AR7" s="50"/>
-      <c r="AS7" s="50"/>
-      <c r="AT7" s="50"/>
-      <c r="AU7" s="50"/>
-      <c r="AV7" s="50"/>
-      <c r="AW7" s="50"/>
-      <c r="AX7" s="50"/>
-      <c r="AY7" s="50"/>
-      <c r="AZ7" s="51"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="30"/>
     </row>
     <row r="8" spans="1:53" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="AA8" s="11"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="40"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="40"/>
-      <c r="AK8" s="40"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="59"/>
+      <c r="AJ8" s="59"/>
+      <c r="AK8" s="59"/>
       <c r="AL8" s="8"/>
     </row>
     <row r="9" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="12"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -6625,22 +8172,22 @@
       <c r="AZ9" s="2"/>
     </row>
     <row r="10" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="21"/>
       <c r="AZ10" s="3"/>
     </row>
     <row r="11" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="15"/>
       <c r="AZ11" s="3"/>
     </row>
     <row r="12" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -6692,14 +8239,14 @@
       <c r="AZ12" s="18"/>
     </row>
     <row r="13" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="15"/>
       <c r="AZ13" s="3"/>
     </row>
     <row r="14" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
@@ -6751,548 +8298,548 @@
       <c r="AZ14" s="6"/>
     </row>
     <row r="15" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="42">
+      <c r="B15" s="79">
         <v>44060</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="52" t="s">
+      <c r="C15" s="65"/>
+      <c r="D15" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
-      <c r="AD15" s="53"/>
-      <c r="AE15" s="53"/>
-      <c r="AF15" s="53"/>
-      <c r="AG15" s="53"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="53"/>
-      <c r="AJ15" s="53"/>
-      <c r="AK15" s="53"/>
-      <c r="AL15" s="53"/>
-      <c r="AM15" s="53"/>
-      <c r="AN15" s="53"/>
-      <c r="AO15" s="53"/>
-      <c r="AP15" s="54"/>
-      <c r="AQ15" s="61" t="s">
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="33"/>
+      <c r="AQ15" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AR15" s="62"/>
-      <c r="AS15" s="62"/>
-      <c r="AT15" s="62"/>
-      <c r="AU15" s="62"/>
-      <c r="AV15" s="62"/>
-      <c r="AW15" s="62"/>
-      <c r="AX15" s="62"/>
-      <c r="AY15" s="62"/>
-      <c r="AZ15" s="63"/>
+      <c r="AR15" s="41"/>
+      <c r="AS15" s="41"/>
+      <c r="AT15" s="41"/>
+      <c r="AU15" s="41"/>
+      <c r="AV15" s="41"/>
+      <c r="AW15" s="41"/>
+      <c r="AX15" s="41"/>
+      <c r="AY15" s="41"/>
+      <c r="AZ15" s="42"/>
     </row>
     <row r="16" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="56"/>
-      <c r="AK16" s="56"/>
-      <c r="AL16" s="56"/>
-      <c r="AM16" s="56"/>
-      <c r="AN16" s="56"/>
-      <c r="AO16" s="56"/>
-      <c r="AP16" s="57"/>
-      <c r="AQ16" s="64"/>
-      <c r="AR16" s="65"/>
-      <c r="AS16" s="65"/>
-      <c r="AT16" s="65"/>
-      <c r="AU16" s="65"/>
-      <c r="AV16" s="65"/>
-      <c r="AW16" s="65"/>
-      <c r="AX16" s="65"/>
-      <c r="AY16" s="65"/>
-      <c r="AZ16" s="66"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="35"/>
+      <c r="AO16" s="35"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="43"/>
+      <c r="AR16" s="44"/>
+      <c r="AS16" s="44"/>
+      <c r="AT16" s="44"/>
+      <c r="AU16" s="44"/>
+      <c r="AV16" s="44"/>
+      <c r="AW16" s="44"/>
+      <c r="AX16" s="44"/>
+      <c r="AY16" s="44"/>
+      <c r="AZ16" s="45"/>
     </row>
     <row r="17" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="56"/>
-      <c r="AF17" s="56"/>
-      <c r="AG17" s="56"/>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="56"/>
-      <c r="AJ17" s="56"/>
-      <c r="AK17" s="56"/>
-      <c r="AL17" s="56"/>
-      <c r="AM17" s="56"/>
-      <c r="AN17" s="56"/>
-      <c r="AO17" s="56"/>
-      <c r="AP17" s="57"/>
-      <c r="AQ17" s="64"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="65"/>
-      <c r="AU17" s="65"/>
-      <c r="AV17" s="65"/>
-      <c r="AW17" s="65"/>
-      <c r="AX17" s="65"/>
-      <c r="AY17" s="65"/>
-      <c r="AZ17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="35"/>
+      <c r="AK17" s="35"/>
+      <c r="AL17" s="35"/>
+      <c r="AM17" s="35"/>
+      <c r="AN17" s="35"/>
+      <c r="AO17" s="35"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="43"/>
+      <c r="AR17" s="44"/>
+      <c r="AS17" s="44"/>
+      <c r="AT17" s="44"/>
+      <c r="AU17" s="44"/>
+      <c r="AV17" s="44"/>
+      <c r="AW17" s="44"/>
+      <c r="AX17" s="44"/>
+      <c r="AY17" s="44"/>
+      <c r="AZ17" s="45"/>
     </row>
     <row r="18" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="56"/>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="56"/>
-      <c r="AJ18" s="56"/>
-      <c r="AK18" s="56"/>
-      <c r="AL18" s="56"/>
-      <c r="AM18" s="56"/>
-      <c r="AN18" s="56"/>
-      <c r="AO18" s="56"/>
-      <c r="AP18" s="57"/>
-      <c r="AQ18" s="64"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="65"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="65"/>
-      <c r="AV18" s="65"/>
-      <c r="AW18" s="65"/>
-      <c r="AX18" s="65"/>
-      <c r="AY18" s="65"/>
-      <c r="AZ18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="35"/>
+      <c r="AO18" s="35"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="43"/>
+      <c r="AR18" s="44"/>
+      <c r="AS18" s="44"/>
+      <c r="AT18" s="44"/>
+      <c r="AU18" s="44"/>
+      <c r="AV18" s="44"/>
+      <c r="AW18" s="44"/>
+      <c r="AX18" s="44"/>
+      <c r="AY18" s="44"/>
+      <c r="AZ18" s="45"/>
     </row>
     <row r="19" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="56"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="56"/>
-      <c r="AK19" s="56"/>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="56"/>
-      <c r="AN19" s="56"/>
-      <c r="AO19" s="56"/>
-      <c r="AP19" s="57"/>
-      <c r="AQ19" s="64"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="65"/>
-      <c r="AV19" s="65"/>
-      <c r="AW19" s="65"/>
-      <c r="AX19" s="65"/>
-      <c r="AY19" s="65"/>
-      <c r="AZ19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
+      <c r="AI19" s="35"/>
+      <c r="AJ19" s="35"/>
+      <c r="AK19" s="35"/>
+      <c r="AL19" s="35"/>
+      <c r="AM19" s="35"/>
+      <c r="AN19" s="35"/>
+      <c r="AO19" s="35"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="43"/>
+      <c r="AR19" s="44"/>
+      <c r="AS19" s="44"/>
+      <c r="AT19" s="44"/>
+      <c r="AU19" s="44"/>
+      <c r="AV19" s="44"/>
+      <c r="AW19" s="44"/>
+      <c r="AX19" s="44"/>
+      <c r="AY19" s="44"/>
+      <c r="AZ19" s="45"/>
     </row>
     <row r="20" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="56"/>
-      <c r="AL20" s="56"/>
-      <c r="AM20" s="56"/>
-      <c r="AN20" s="56"/>
-      <c r="AO20" s="56"/>
-      <c r="AP20" s="57"/>
-      <c r="AQ20" s="64"/>
-      <c r="AR20" s="65"/>
-      <c r="AS20" s="65"/>
-      <c r="AT20" s="65"/>
-      <c r="AU20" s="65"/>
-      <c r="AV20" s="65"/>
-      <c r="AW20" s="65"/>
-      <c r="AX20" s="65"/>
-      <c r="AY20" s="65"/>
-      <c r="AZ20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="35"/>
+      <c r="AJ20" s="35"/>
+      <c r="AK20" s="35"/>
+      <c r="AL20" s="35"/>
+      <c r="AM20" s="35"/>
+      <c r="AN20" s="35"/>
+      <c r="AO20" s="35"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="43"/>
+      <c r="AR20" s="44"/>
+      <c r="AS20" s="44"/>
+      <c r="AT20" s="44"/>
+      <c r="AU20" s="44"/>
+      <c r="AV20" s="44"/>
+      <c r="AW20" s="44"/>
+      <c r="AX20" s="44"/>
+      <c r="AY20" s="44"/>
+      <c r="AZ20" s="45"/>
     </row>
     <row r="21" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="56"/>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="56"/>
-      <c r="AJ21" s="56"/>
-      <c r="AK21" s="56"/>
-      <c r="AL21" s="56"/>
-      <c r="AM21" s="56"/>
-      <c r="AN21" s="56"/>
-      <c r="AO21" s="56"/>
-      <c r="AP21" s="57"/>
-      <c r="AQ21" s="64"/>
-      <c r="AR21" s="65"/>
-      <c r="AS21" s="65"/>
-      <c r="AT21" s="65"/>
-      <c r="AU21" s="65"/>
-      <c r="AV21" s="65"/>
-      <c r="AW21" s="65"/>
-      <c r="AX21" s="65"/>
-      <c r="AY21" s="65"/>
-      <c r="AZ21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="35"/>
+      <c r="AJ21" s="35"/>
+      <c r="AK21" s="35"/>
+      <c r="AL21" s="35"/>
+      <c r="AM21" s="35"/>
+      <c r="AN21" s="35"/>
+      <c r="AO21" s="35"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="43"/>
+      <c r="AR21" s="44"/>
+      <c r="AS21" s="44"/>
+      <c r="AT21" s="44"/>
+      <c r="AU21" s="44"/>
+      <c r="AV21" s="44"/>
+      <c r="AW21" s="44"/>
+      <c r="AX21" s="44"/>
+      <c r="AY21" s="44"/>
+      <c r="AZ21" s="45"/>
     </row>
     <row r="22" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="56"/>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="56"/>
-      <c r="AJ22" s="56"/>
-      <c r="AK22" s="56"/>
-      <c r="AL22" s="56"/>
-      <c r="AM22" s="56"/>
-      <c r="AN22" s="56"/>
-      <c r="AO22" s="56"/>
-      <c r="AP22" s="57"/>
-      <c r="AQ22" s="64"/>
-      <c r="AR22" s="65"/>
-      <c r="AS22" s="65"/>
-      <c r="AT22" s="65"/>
-      <c r="AU22" s="65"/>
-      <c r="AV22" s="65"/>
-      <c r="AW22" s="65"/>
-      <c r="AX22" s="65"/>
-      <c r="AY22" s="65"/>
-      <c r="AZ22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="35"/>
+      <c r="AK22" s="35"/>
+      <c r="AL22" s="35"/>
+      <c r="AM22" s="35"/>
+      <c r="AN22" s="35"/>
+      <c r="AO22" s="35"/>
+      <c r="AP22" s="36"/>
+      <c r="AQ22" s="43"/>
+      <c r="AR22" s="44"/>
+      <c r="AS22" s="44"/>
+      <c r="AT22" s="44"/>
+      <c r="AU22" s="44"/>
+      <c r="AV22" s="44"/>
+      <c r="AW22" s="44"/>
+      <c r="AX22" s="44"/>
+      <c r="AY22" s="44"/>
+      <c r="AZ22" s="45"/>
     </row>
     <row r="23" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="56"/>
-      <c r="AF23" s="56"/>
-      <c r="AG23" s="56"/>
-      <c r="AH23" s="56"/>
-      <c r="AI23" s="56"/>
-      <c r="AJ23" s="56"/>
-      <c r="AK23" s="56"/>
-      <c r="AL23" s="56"/>
-      <c r="AM23" s="56"/>
-      <c r="AN23" s="56"/>
-      <c r="AO23" s="56"/>
-      <c r="AP23" s="57"/>
-      <c r="AQ23" s="64"/>
-      <c r="AR23" s="65"/>
-      <c r="AS23" s="65"/>
-      <c r="AT23" s="65"/>
-      <c r="AU23" s="65"/>
-      <c r="AV23" s="65"/>
-      <c r="AW23" s="65"/>
-      <c r="AX23" s="65"/>
-      <c r="AY23" s="65"/>
-      <c r="AZ23" s="66"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="35"/>
+      <c r="AJ23" s="35"/>
+      <c r="AK23" s="35"/>
+      <c r="AL23" s="35"/>
+      <c r="AM23" s="35"/>
+      <c r="AN23" s="35"/>
+      <c r="AO23" s="35"/>
+      <c r="AP23" s="36"/>
+      <c r="AQ23" s="43"/>
+      <c r="AR23" s="44"/>
+      <c r="AS23" s="44"/>
+      <c r="AT23" s="44"/>
+      <c r="AU23" s="44"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="45"/>
     </row>
     <row r="24" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="59"/>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="59"/>
-      <c r="AJ24" s="59"/>
-      <c r="AK24" s="59"/>
-      <c r="AL24" s="59"/>
-      <c r="AM24" s="59"/>
-      <c r="AN24" s="59"/>
-      <c r="AO24" s="59"/>
-      <c r="AP24" s="60"/>
-      <c r="AQ24" s="67"/>
-      <c r="AR24" s="68"/>
-      <c r="AS24" s="68"/>
-      <c r="AT24" s="68"/>
-      <c r="AU24" s="68"/>
-      <c r="AV24" s="68"/>
-      <c r="AW24" s="68"/>
-      <c r="AX24" s="68"/>
-      <c r="AY24" s="68"/>
-      <c r="AZ24" s="69"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="38"/>
+      <c r="AM24" s="38"/>
+      <c r="AN24" s="38"/>
+      <c r="AO24" s="38"/>
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="46"/>
+      <c r="AR24" s="47"/>
+      <c r="AS24" s="47"/>
+      <c r="AT24" s="47"/>
+      <c r="AU24" s="47"/>
+      <c r="AV24" s="47"/>
+      <c r="AW24" s="47"/>
+      <c r="AX24" s="47"/>
+      <c r="AY24" s="47"/>
+      <c r="AZ24" s="48"/>
     </row>
     <row r="25" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="12"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -7344,22 +8891,22 @@
       <c r="AZ25" s="2"/>
     </row>
     <row r="26" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="15"/>
       <c r="AZ26" s="3"/>
     </row>
     <row r="27" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="15"/>
       <c r="AZ27" s="3"/>
     </row>
     <row r="28" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="31"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -7411,14 +8958,14 @@
       <c r="AZ28" s="18"/>
     </row>
     <row r="29" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="15"/>
       <c r="AZ29" s="3"/>
     </row>
     <row r="30" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
@@ -7470,548 +9017,548 @@
       <c r="AZ30" s="6"/>
     </row>
     <row r="31" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="52" t="s">
+      <c r="C31" s="65"/>
+      <c r="D31" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="53"/>
-      <c r="AC31" s="53"/>
-      <c r="AD31" s="53"/>
-      <c r="AE31" s="53"/>
-      <c r="AF31" s="53"/>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="53"/>
-      <c r="AJ31" s="53"/>
-      <c r="AK31" s="53"/>
-      <c r="AL31" s="53"/>
-      <c r="AM31" s="53"/>
-      <c r="AN31" s="53"/>
-      <c r="AO31" s="53"/>
-      <c r="AP31" s="54"/>
-      <c r="AQ31" s="61" t="s">
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="32"/>
+      <c r="AC31" s="32"/>
+      <c r="AD31" s="32"/>
+      <c r="AE31" s="32"/>
+      <c r="AF31" s="32"/>
+      <c r="AG31" s="32"/>
+      <c r="AH31" s="32"/>
+      <c r="AI31" s="32"/>
+      <c r="AJ31" s="32"/>
+      <c r="AK31" s="32"/>
+      <c r="AL31" s="32"/>
+      <c r="AM31" s="32"/>
+      <c r="AN31" s="32"/>
+      <c r="AO31" s="32"/>
+      <c r="AP31" s="33"/>
+      <c r="AQ31" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="AR31" s="62"/>
-      <c r="AS31" s="62"/>
-      <c r="AT31" s="62"/>
-      <c r="AU31" s="62"/>
-      <c r="AV31" s="62"/>
-      <c r="AW31" s="62"/>
-      <c r="AX31" s="62"/>
-      <c r="AY31" s="62"/>
-      <c r="AZ31" s="63"/>
+      <c r="AR31" s="41"/>
+      <c r="AS31" s="41"/>
+      <c r="AT31" s="41"/>
+      <c r="AU31" s="41"/>
+      <c r="AV31" s="41"/>
+      <c r="AW31" s="41"/>
+      <c r="AX31" s="41"/>
+      <c r="AY31" s="41"/>
+      <c r="AZ31" s="42"/>
     </row>
     <row r="32" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="56"/>
-      <c r="AC32" s="56"/>
-      <c r="AD32" s="56"/>
-      <c r="AE32" s="56"/>
-      <c r="AF32" s="56"/>
-      <c r="AG32" s="56"/>
-      <c r="AH32" s="56"/>
-      <c r="AI32" s="56"/>
-      <c r="AJ32" s="56"/>
-      <c r="AK32" s="56"/>
-      <c r="AL32" s="56"/>
-      <c r="AM32" s="56"/>
-      <c r="AN32" s="56"/>
-      <c r="AO32" s="56"/>
-      <c r="AP32" s="57"/>
-      <c r="AQ32" s="64"/>
-      <c r="AR32" s="65"/>
-      <c r="AS32" s="65"/>
-      <c r="AT32" s="65"/>
-      <c r="AU32" s="65"/>
-      <c r="AV32" s="65"/>
-      <c r="AW32" s="65"/>
-      <c r="AX32" s="65"/>
-      <c r="AY32" s="65"/>
-      <c r="AZ32" s="66"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="35"/>
+      <c r="AF32" s="35"/>
+      <c r="AG32" s="35"/>
+      <c r="AH32" s="35"/>
+      <c r="AI32" s="35"/>
+      <c r="AJ32" s="35"/>
+      <c r="AK32" s="35"/>
+      <c r="AL32" s="35"/>
+      <c r="AM32" s="35"/>
+      <c r="AN32" s="35"/>
+      <c r="AO32" s="35"/>
+      <c r="AP32" s="36"/>
+      <c r="AQ32" s="43"/>
+      <c r="AR32" s="44"/>
+      <c r="AS32" s="44"/>
+      <c r="AT32" s="44"/>
+      <c r="AU32" s="44"/>
+      <c r="AV32" s="44"/>
+      <c r="AW32" s="44"/>
+      <c r="AX32" s="44"/>
+      <c r="AY32" s="44"/>
+      <c r="AZ32" s="45"/>
     </row>
     <row r="33" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="56"/>
-      <c r="AB33" s="56"/>
-      <c r="AC33" s="56"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="56"/>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="56"/>
-      <c r="AH33" s="56"/>
-      <c r="AI33" s="56"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="56"/>
-      <c r="AL33" s="56"/>
-      <c r="AM33" s="56"/>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="56"/>
-      <c r="AP33" s="57"/>
-      <c r="AQ33" s="64"/>
-      <c r="AR33" s="65"/>
-      <c r="AS33" s="65"/>
-      <c r="AT33" s="65"/>
-      <c r="AU33" s="65"/>
-      <c r="AV33" s="65"/>
-      <c r="AW33" s="65"/>
-      <c r="AX33" s="65"/>
-      <c r="AY33" s="65"/>
-      <c r="AZ33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35"/>
+      <c r="AF33" s="35"/>
+      <c r="AG33" s="35"/>
+      <c r="AH33" s="35"/>
+      <c r="AI33" s="35"/>
+      <c r="AJ33" s="35"/>
+      <c r="AK33" s="35"/>
+      <c r="AL33" s="35"/>
+      <c r="AM33" s="35"/>
+      <c r="AN33" s="35"/>
+      <c r="AO33" s="35"/>
+      <c r="AP33" s="36"/>
+      <c r="AQ33" s="43"/>
+      <c r="AR33" s="44"/>
+      <c r="AS33" s="44"/>
+      <c r="AT33" s="44"/>
+      <c r="AU33" s="44"/>
+      <c r="AV33" s="44"/>
+      <c r="AW33" s="44"/>
+      <c r="AX33" s="44"/>
+      <c r="AY33" s="44"/>
+      <c r="AZ33" s="45"/>
     </row>
     <row r="34" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="56"/>
-      <c r="Y34" s="56"/>
-      <c r="Z34" s="56"/>
-      <c r="AA34" s="56"/>
-      <c r="AB34" s="56"/>
-      <c r="AC34" s="56"/>
-      <c r="AD34" s="56"/>
-      <c r="AE34" s="56"/>
-      <c r="AF34" s="56"/>
-      <c r="AG34" s="56"/>
-      <c r="AH34" s="56"/>
-      <c r="AI34" s="56"/>
-      <c r="AJ34" s="56"/>
-      <c r="AK34" s="56"/>
-      <c r="AL34" s="56"/>
-      <c r="AM34" s="56"/>
-      <c r="AN34" s="56"/>
-      <c r="AO34" s="56"/>
-      <c r="AP34" s="57"/>
-      <c r="AQ34" s="64"/>
-      <c r="AR34" s="65"/>
-      <c r="AS34" s="65"/>
-      <c r="AT34" s="65"/>
-      <c r="AU34" s="65"/>
-      <c r="AV34" s="65"/>
-      <c r="AW34" s="65"/>
-      <c r="AX34" s="65"/>
-      <c r="AY34" s="65"/>
-      <c r="AZ34" s="66"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="35"/>
+      <c r="AE34" s="35"/>
+      <c r="AF34" s="35"/>
+      <c r="AG34" s="35"/>
+      <c r="AH34" s="35"/>
+      <c r="AI34" s="35"/>
+      <c r="AJ34" s="35"/>
+      <c r="AK34" s="35"/>
+      <c r="AL34" s="35"/>
+      <c r="AM34" s="35"/>
+      <c r="AN34" s="35"/>
+      <c r="AO34" s="35"/>
+      <c r="AP34" s="36"/>
+      <c r="AQ34" s="43"/>
+      <c r="AR34" s="44"/>
+      <c r="AS34" s="44"/>
+      <c r="AT34" s="44"/>
+      <c r="AU34" s="44"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="44"/>
+      <c r="AX34" s="44"/>
+      <c r="AY34" s="44"/>
+      <c r="AZ34" s="45"/>
     </row>
     <row r="35" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56"/>
-      <c r="AA35" s="56"/>
-      <c r="AB35" s="56"/>
-      <c r="AC35" s="56"/>
-      <c r="AD35" s="56"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56"/>
-      <c r="AH35" s="56"/>
-      <c r="AI35" s="56"/>
-      <c r="AJ35" s="56"/>
-      <c r="AK35" s="56"/>
-      <c r="AL35" s="56"/>
-      <c r="AM35" s="56"/>
-      <c r="AN35" s="56"/>
-      <c r="AO35" s="56"/>
-      <c r="AP35" s="57"/>
-      <c r="AQ35" s="64"/>
-      <c r="AR35" s="65"/>
-      <c r="AS35" s="65"/>
-      <c r="AT35" s="65"/>
-      <c r="AU35" s="65"/>
-      <c r="AV35" s="65"/>
-      <c r="AW35" s="65"/>
-      <c r="AX35" s="65"/>
-      <c r="AY35" s="65"/>
-      <c r="AZ35" s="66"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
+      <c r="AF35" s="35"/>
+      <c r="AG35" s="35"/>
+      <c r="AH35" s="35"/>
+      <c r="AI35" s="35"/>
+      <c r="AJ35" s="35"/>
+      <c r="AK35" s="35"/>
+      <c r="AL35" s="35"/>
+      <c r="AM35" s="35"/>
+      <c r="AN35" s="35"/>
+      <c r="AO35" s="35"/>
+      <c r="AP35" s="36"/>
+      <c r="AQ35" s="43"/>
+      <c r="AR35" s="44"/>
+      <c r="AS35" s="44"/>
+      <c r="AT35" s="44"/>
+      <c r="AU35" s="44"/>
+      <c r="AV35" s="44"/>
+      <c r="AW35" s="44"/>
+      <c r="AX35" s="44"/>
+      <c r="AY35" s="44"/>
+      <c r="AZ35" s="45"/>
     </row>
     <row r="36" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="56"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="56"/>
-      <c r="Z36" s="56"/>
-      <c r="AA36" s="56"/>
-      <c r="AB36" s="56"/>
-      <c r="AC36" s="56"/>
-      <c r="AD36" s="56"/>
-      <c r="AE36" s="56"/>
-      <c r="AF36" s="56"/>
-      <c r="AG36" s="56"/>
-      <c r="AH36" s="56"/>
-      <c r="AI36" s="56"/>
-      <c r="AJ36" s="56"/>
-      <c r="AK36" s="56"/>
-      <c r="AL36" s="56"/>
-      <c r="AM36" s="56"/>
-      <c r="AN36" s="56"/>
-      <c r="AO36" s="56"/>
-      <c r="AP36" s="57"/>
-      <c r="AQ36" s="64"/>
-      <c r="AR36" s="65"/>
-      <c r="AS36" s="65"/>
-      <c r="AT36" s="65"/>
-      <c r="AU36" s="65"/>
-      <c r="AV36" s="65"/>
-      <c r="AW36" s="65"/>
-      <c r="AX36" s="65"/>
-      <c r="AY36" s="65"/>
-      <c r="AZ36" s="66"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="35"/>
+      <c r="AF36" s="35"/>
+      <c r="AG36" s="35"/>
+      <c r="AH36" s="35"/>
+      <c r="AI36" s="35"/>
+      <c r="AJ36" s="35"/>
+      <c r="AK36" s="35"/>
+      <c r="AL36" s="35"/>
+      <c r="AM36" s="35"/>
+      <c r="AN36" s="35"/>
+      <c r="AO36" s="35"/>
+      <c r="AP36" s="36"/>
+      <c r="AQ36" s="43"/>
+      <c r="AR36" s="44"/>
+      <c r="AS36" s="44"/>
+      <c r="AT36" s="44"/>
+      <c r="AU36" s="44"/>
+      <c r="AV36" s="44"/>
+      <c r="AW36" s="44"/>
+      <c r="AX36" s="44"/>
+      <c r="AY36" s="44"/>
+      <c r="AZ36" s="45"/>
     </row>
     <row r="37" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="56"/>
-      <c r="AC37" s="56"/>
-      <c r="AD37" s="56"/>
-      <c r="AE37" s="56"/>
-      <c r="AF37" s="56"/>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="56"/>
-      <c r="AJ37" s="56"/>
-      <c r="AK37" s="56"/>
-      <c r="AL37" s="56"/>
-      <c r="AM37" s="56"/>
-      <c r="AN37" s="56"/>
-      <c r="AO37" s="56"/>
-      <c r="AP37" s="57"/>
-      <c r="AQ37" s="64"/>
-      <c r="AR37" s="65"/>
-      <c r="AS37" s="65"/>
-      <c r="AT37" s="65"/>
-      <c r="AU37" s="65"/>
-      <c r="AV37" s="65"/>
-      <c r="AW37" s="65"/>
-      <c r="AX37" s="65"/>
-      <c r="AY37" s="65"/>
-      <c r="AZ37" s="66"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="35"/>
+      <c r="AD37" s="35"/>
+      <c r="AE37" s="35"/>
+      <c r="AF37" s="35"/>
+      <c r="AG37" s="35"/>
+      <c r="AH37" s="35"/>
+      <c r="AI37" s="35"/>
+      <c r="AJ37" s="35"/>
+      <c r="AK37" s="35"/>
+      <c r="AL37" s="35"/>
+      <c r="AM37" s="35"/>
+      <c r="AN37" s="35"/>
+      <c r="AO37" s="35"/>
+      <c r="AP37" s="36"/>
+      <c r="AQ37" s="43"/>
+      <c r="AR37" s="44"/>
+      <c r="AS37" s="44"/>
+      <c r="AT37" s="44"/>
+      <c r="AU37" s="44"/>
+      <c r="AV37" s="44"/>
+      <c r="AW37" s="44"/>
+      <c r="AX37" s="44"/>
+      <c r="AY37" s="44"/>
+      <c r="AZ37" s="45"/>
     </row>
     <row r="38" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="56"/>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="56"/>
-      <c r="T38" s="56"/>
-      <c r="U38" s="56"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="56"/>
-      <c r="Z38" s="56"/>
-      <c r="AA38" s="56"/>
-      <c r="AB38" s="56"/>
-      <c r="AC38" s="56"/>
-      <c r="AD38" s="56"/>
-      <c r="AE38" s="56"/>
-      <c r="AF38" s="56"/>
-      <c r="AG38" s="56"/>
-      <c r="AH38" s="56"/>
-      <c r="AI38" s="56"/>
-      <c r="AJ38" s="56"/>
-      <c r="AK38" s="56"/>
-      <c r="AL38" s="56"/>
-      <c r="AM38" s="56"/>
-      <c r="AN38" s="56"/>
-      <c r="AO38" s="56"/>
-      <c r="AP38" s="57"/>
-      <c r="AQ38" s="64"/>
-      <c r="AR38" s="65"/>
-      <c r="AS38" s="65"/>
-      <c r="AT38" s="65"/>
-      <c r="AU38" s="65"/>
-      <c r="AV38" s="65"/>
-      <c r="AW38" s="65"/>
-      <c r="AX38" s="65"/>
-      <c r="AY38" s="65"/>
-      <c r="AZ38" s="66"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35"/>
+      <c r="AD38" s="35"/>
+      <c r="AE38" s="35"/>
+      <c r="AF38" s="35"/>
+      <c r="AG38" s="35"/>
+      <c r="AH38" s="35"/>
+      <c r="AI38" s="35"/>
+      <c r="AJ38" s="35"/>
+      <c r="AK38" s="35"/>
+      <c r="AL38" s="35"/>
+      <c r="AM38" s="35"/>
+      <c r="AN38" s="35"/>
+      <c r="AO38" s="35"/>
+      <c r="AP38" s="36"/>
+      <c r="AQ38" s="43"/>
+      <c r="AR38" s="44"/>
+      <c r="AS38" s="44"/>
+      <c r="AT38" s="44"/>
+      <c r="AU38" s="44"/>
+      <c r="AV38" s="44"/>
+      <c r="AW38" s="44"/>
+      <c r="AX38" s="44"/>
+      <c r="AY38" s="44"/>
+      <c r="AZ38" s="45"/>
     </row>
     <row r="39" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="56"/>
-      <c r="AE39" s="56"/>
-      <c r="AF39" s="56"/>
-      <c r="AG39" s="56"/>
-      <c r="AH39" s="56"/>
-      <c r="AI39" s="56"/>
-      <c r="AJ39" s="56"/>
-      <c r="AK39" s="56"/>
-      <c r="AL39" s="56"/>
-      <c r="AM39" s="56"/>
-      <c r="AN39" s="56"/>
-      <c r="AO39" s="56"/>
-      <c r="AP39" s="57"/>
-      <c r="AQ39" s="64"/>
-      <c r="AR39" s="65"/>
-      <c r="AS39" s="65"/>
-      <c r="AT39" s="65"/>
-      <c r="AU39" s="65"/>
-      <c r="AV39" s="65"/>
-      <c r="AW39" s="65"/>
-      <c r="AX39" s="65"/>
-      <c r="AY39" s="65"/>
-      <c r="AZ39" s="66"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
+      <c r="AD39" s="35"/>
+      <c r="AE39" s="35"/>
+      <c r="AF39" s="35"/>
+      <c r="AG39" s="35"/>
+      <c r="AH39" s="35"/>
+      <c r="AI39" s="35"/>
+      <c r="AJ39" s="35"/>
+      <c r="AK39" s="35"/>
+      <c r="AL39" s="35"/>
+      <c r="AM39" s="35"/>
+      <c r="AN39" s="35"/>
+      <c r="AO39" s="35"/>
+      <c r="AP39" s="36"/>
+      <c r="AQ39" s="43"/>
+      <c r="AR39" s="44"/>
+      <c r="AS39" s="44"/>
+      <c r="AT39" s="44"/>
+      <c r="AU39" s="44"/>
+      <c r="AV39" s="44"/>
+      <c r="AW39" s="44"/>
+      <c r="AX39" s="44"/>
+      <c r="AY39" s="44"/>
+      <c r="AZ39" s="45"/>
     </row>
     <row r="40" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="59"/>
-      <c r="AF40" s="59"/>
-      <c r="AG40" s="59"/>
-      <c r="AH40" s="59"/>
-      <c r="AI40" s="59"/>
-      <c r="AJ40" s="59"/>
-      <c r="AK40" s="59"/>
-      <c r="AL40" s="59"/>
-      <c r="AM40" s="59"/>
-      <c r="AN40" s="59"/>
-      <c r="AO40" s="59"/>
-      <c r="AP40" s="60"/>
-      <c r="AQ40" s="67"/>
-      <c r="AR40" s="68"/>
-      <c r="AS40" s="68"/>
-      <c r="AT40" s="68"/>
-      <c r="AU40" s="68"/>
-      <c r="AV40" s="68"/>
-      <c r="AW40" s="68"/>
-      <c r="AX40" s="68"/>
-      <c r="AY40" s="68"/>
-      <c r="AZ40" s="69"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="38"/>
+      <c r="Z40" s="38"/>
+      <c r="AA40" s="38"/>
+      <c r="AB40" s="38"/>
+      <c r="AC40" s="38"/>
+      <c r="AD40" s="38"/>
+      <c r="AE40" s="38"/>
+      <c r="AF40" s="38"/>
+      <c r="AG40" s="38"/>
+      <c r="AH40" s="38"/>
+      <c r="AI40" s="38"/>
+      <c r="AJ40" s="38"/>
+      <c r="AK40" s="38"/>
+      <c r="AL40" s="38"/>
+      <c r="AM40" s="38"/>
+      <c r="AN40" s="38"/>
+      <c r="AO40" s="38"/>
+      <c r="AP40" s="39"/>
+      <c r="AQ40" s="46"/>
+      <c r="AR40" s="47"/>
+      <c r="AS40" s="47"/>
+      <c r="AT40" s="47"/>
+      <c r="AU40" s="47"/>
+      <c r="AV40" s="47"/>
+      <c r="AW40" s="47"/>
+      <c r="AX40" s="47"/>
+      <c r="AY40" s="47"/>
+      <c r="AZ40" s="48"/>
     </row>
     <row r="41" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="27"/>
+      <c r="C41" s="69"/>
       <c r="D41" s="12"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -8063,22 +9610,22 @@
       <c r="AZ41" s="2"/>
     </row>
     <row r="42" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="28"/>
-      <c r="C42" s="29"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="71"/>
       <c r="D42" s="15"/>
       <c r="AZ42" s="3"/>
     </row>
     <row r="43" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="71"/>
       <c r="D43" s="15"/>
       <c r="AZ43" s="3"/>
     </row>
     <row r="44" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="31"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="16"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
@@ -8130,14 +9677,14 @@
       <c r="AZ44" s="18"/>
     </row>
     <row r="45" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="28"/>
-      <c r="C45" s="29"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="71"/>
       <c r="D45" s="15"/>
       <c r="AZ45" s="3"/>
     </row>
     <row r="46" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="32"/>
-      <c r="C46" s="33"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="6"/>
@@ -8189,548 +9736,548 @@
       <c r="AZ46" s="6"/>
     </row>
     <row r="47" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="61" t="s">
+      <c r="C47" s="65"/>
+      <c r="D47" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="32"/>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="32"/>
+      <c r="AE47" s="32"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32"/>
+      <c r="AI47" s="32"/>
+      <c r="AJ47" s="32"/>
+      <c r="AK47" s="32"/>
+      <c r="AL47" s="32"/>
+      <c r="AM47" s="32"/>
+      <c r="AN47" s="32"/>
+      <c r="AO47" s="32"/>
+      <c r="AP47" s="33"/>
+      <c r="AQ47" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="53"/>
-      <c r="V47" s="53"/>
-      <c r="W47" s="53"/>
-      <c r="X47" s="53"/>
-      <c r="Y47" s="53"/>
-      <c r="Z47" s="53"/>
-      <c r="AA47" s="53"/>
-      <c r="AB47" s="53"/>
-      <c r="AC47" s="53"/>
-      <c r="AD47" s="53"/>
-      <c r="AE47" s="53"/>
-      <c r="AF47" s="53"/>
-      <c r="AG47" s="53"/>
-      <c r="AH47" s="53"/>
-      <c r="AI47" s="53"/>
-      <c r="AJ47" s="53"/>
-      <c r="AK47" s="53"/>
-      <c r="AL47" s="53"/>
-      <c r="AM47" s="53"/>
-      <c r="AN47" s="53"/>
-      <c r="AO47" s="53"/>
-      <c r="AP47" s="54"/>
-      <c r="AQ47" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="AR47" s="72"/>
-      <c r="AS47" s="72"/>
-      <c r="AT47" s="72"/>
-      <c r="AU47" s="72"/>
-      <c r="AV47" s="72"/>
-      <c r="AW47" s="72"/>
-      <c r="AX47" s="72"/>
-      <c r="AY47" s="72"/>
-      <c r="AZ47" s="73"/>
+      <c r="AR47" s="50"/>
+      <c r="AS47" s="50"/>
+      <c r="AT47" s="50"/>
+      <c r="AU47" s="50"/>
+      <c r="AV47" s="50"/>
+      <c r="AW47" s="50"/>
+      <c r="AX47" s="50"/>
+      <c r="AY47" s="50"/>
+      <c r="AZ47" s="51"/>
     </row>
     <row r="48" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="56"/>
-      <c r="T48" s="56"/>
-      <c r="U48" s="56"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="56"/>
-      <c r="X48" s="56"/>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="56"/>
-      <c r="AC48" s="56"/>
-      <c r="AD48" s="56"/>
-      <c r="AE48" s="56"/>
-      <c r="AF48" s="56"/>
-      <c r="AG48" s="56"/>
-      <c r="AH48" s="56"/>
-      <c r="AI48" s="56"/>
-      <c r="AJ48" s="56"/>
-      <c r="AK48" s="56"/>
-      <c r="AL48" s="56"/>
-      <c r="AM48" s="56"/>
-      <c r="AN48" s="56"/>
-      <c r="AO48" s="56"/>
-      <c r="AP48" s="57"/>
-      <c r="AQ48" s="74"/>
-      <c r="AR48" s="75"/>
-      <c r="AS48" s="75"/>
-      <c r="AT48" s="75"/>
-      <c r="AU48" s="75"/>
-      <c r="AV48" s="75"/>
-      <c r="AW48" s="75"/>
-      <c r="AX48" s="75"/>
-      <c r="AY48" s="75"/>
-      <c r="AZ48" s="76"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="35"/>
+      <c r="AD48" s="35"/>
+      <c r="AE48" s="35"/>
+      <c r="AF48" s="35"/>
+      <c r="AG48" s="35"/>
+      <c r="AH48" s="35"/>
+      <c r="AI48" s="35"/>
+      <c r="AJ48" s="35"/>
+      <c r="AK48" s="35"/>
+      <c r="AL48" s="35"/>
+      <c r="AM48" s="35"/>
+      <c r="AN48" s="35"/>
+      <c r="AO48" s="35"/>
+      <c r="AP48" s="36"/>
+      <c r="AQ48" s="52"/>
+      <c r="AR48" s="53"/>
+      <c r="AS48" s="53"/>
+      <c r="AT48" s="53"/>
+      <c r="AU48" s="53"/>
+      <c r="AV48" s="53"/>
+      <c r="AW48" s="53"/>
+      <c r="AX48" s="53"/>
+      <c r="AY48" s="53"/>
+      <c r="AZ48" s="54"/>
     </row>
     <row r="49" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="56"/>
-      <c r="P49" s="56"/>
-      <c r="Q49" s="56"/>
-      <c r="R49" s="56"/>
-      <c r="S49" s="56"/>
-      <c r="T49" s="56"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="56"/>
-      <c r="Z49" s="56"/>
-      <c r="AA49" s="56"/>
-      <c r="AB49" s="56"/>
-      <c r="AC49" s="56"/>
-      <c r="AD49" s="56"/>
-      <c r="AE49" s="56"/>
-      <c r="AF49" s="56"/>
-      <c r="AG49" s="56"/>
-      <c r="AH49" s="56"/>
-      <c r="AI49" s="56"/>
-      <c r="AJ49" s="56"/>
-      <c r="AK49" s="56"/>
-      <c r="AL49" s="56"/>
-      <c r="AM49" s="56"/>
-      <c r="AN49" s="56"/>
-      <c r="AO49" s="56"/>
-      <c r="AP49" s="57"/>
-      <c r="AQ49" s="74"/>
-      <c r="AR49" s="75"/>
-      <c r="AS49" s="75"/>
-      <c r="AT49" s="75"/>
-      <c r="AU49" s="75"/>
-      <c r="AV49" s="75"/>
-      <c r="AW49" s="75"/>
-      <c r="AX49" s="75"/>
-      <c r="AY49" s="75"/>
-      <c r="AZ49" s="76"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="35"/>
+      <c r="AD49" s="35"/>
+      <c r="AE49" s="35"/>
+      <c r="AF49" s="35"/>
+      <c r="AG49" s="35"/>
+      <c r="AH49" s="35"/>
+      <c r="AI49" s="35"/>
+      <c r="AJ49" s="35"/>
+      <c r="AK49" s="35"/>
+      <c r="AL49" s="35"/>
+      <c r="AM49" s="35"/>
+      <c r="AN49" s="35"/>
+      <c r="AO49" s="35"/>
+      <c r="AP49" s="36"/>
+      <c r="AQ49" s="52"/>
+      <c r="AR49" s="53"/>
+      <c r="AS49" s="53"/>
+      <c r="AT49" s="53"/>
+      <c r="AU49" s="53"/>
+      <c r="AV49" s="53"/>
+      <c r="AW49" s="53"/>
+      <c r="AX49" s="53"/>
+      <c r="AY49" s="53"/>
+      <c r="AZ49" s="54"/>
     </row>
     <row r="50" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="56"/>
-      <c r="Q50" s="56"/>
-      <c r="R50" s="56"/>
-      <c r="S50" s="56"/>
-      <c r="T50" s="56"/>
-      <c r="U50" s="56"/>
-      <c r="V50" s="56"/>
-      <c r="W50" s="56"/>
-      <c r="X50" s="56"/>
-      <c r="Y50" s="56"/>
-      <c r="Z50" s="56"/>
-      <c r="AA50" s="56"/>
-      <c r="AB50" s="56"/>
-      <c r="AC50" s="56"/>
-      <c r="AD50" s="56"/>
-      <c r="AE50" s="56"/>
-      <c r="AF50" s="56"/>
-      <c r="AG50" s="56"/>
-      <c r="AH50" s="56"/>
-      <c r="AI50" s="56"/>
-      <c r="AJ50" s="56"/>
-      <c r="AK50" s="56"/>
-      <c r="AL50" s="56"/>
-      <c r="AM50" s="56"/>
-      <c r="AN50" s="56"/>
-      <c r="AO50" s="56"/>
-      <c r="AP50" s="57"/>
-      <c r="AQ50" s="74"/>
-      <c r="AR50" s="75"/>
-      <c r="AS50" s="75"/>
-      <c r="AT50" s="75"/>
-      <c r="AU50" s="75"/>
-      <c r="AV50" s="75"/>
-      <c r="AW50" s="75"/>
-      <c r="AX50" s="75"/>
-      <c r="AY50" s="75"/>
-      <c r="AZ50" s="76"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="35"/>
+      <c r="AA50" s="35"/>
+      <c r="AB50" s="35"/>
+      <c r="AC50" s="35"/>
+      <c r="AD50" s="35"/>
+      <c r="AE50" s="35"/>
+      <c r="AF50" s="35"/>
+      <c r="AG50" s="35"/>
+      <c r="AH50" s="35"/>
+      <c r="AI50" s="35"/>
+      <c r="AJ50" s="35"/>
+      <c r="AK50" s="35"/>
+      <c r="AL50" s="35"/>
+      <c r="AM50" s="35"/>
+      <c r="AN50" s="35"/>
+      <c r="AO50" s="35"/>
+      <c r="AP50" s="36"/>
+      <c r="AQ50" s="52"/>
+      <c r="AR50" s="53"/>
+      <c r="AS50" s="53"/>
+      <c r="AT50" s="53"/>
+      <c r="AU50" s="53"/>
+      <c r="AV50" s="53"/>
+      <c r="AW50" s="53"/>
+      <c r="AX50" s="53"/>
+      <c r="AY50" s="53"/>
+      <c r="AZ50" s="54"/>
     </row>
     <row r="51" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="56"/>
-      <c r="Q51" s="56"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="56"/>
-      <c r="T51" s="56"/>
-      <c r="U51" s="56"/>
-      <c r="V51" s="56"/>
-      <c r="W51" s="56"/>
-      <c r="X51" s="56"/>
-      <c r="Y51" s="56"/>
-      <c r="Z51" s="56"/>
-      <c r="AA51" s="56"/>
-      <c r="AB51" s="56"/>
-      <c r="AC51" s="56"/>
-      <c r="AD51" s="56"/>
-      <c r="AE51" s="56"/>
-      <c r="AF51" s="56"/>
-      <c r="AG51" s="56"/>
-      <c r="AH51" s="56"/>
-      <c r="AI51" s="56"/>
-      <c r="AJ51" s="56"/>
-      <c r="AK51" s="56"/>
-      <c r="AL51" s="56"/>
-      <c r="AM51" s="56"/>
-      <c r="AN51" s="56"/>
-      <c r="AO51" s="56"/>
-      <c r="AP51" s="57"/>
-      <c r="AQ51" s="74"/>
-      <c r="AR51" s="75"/>
-      <c r="AS51" s="75"/>
-      <c r="AT51" s="75"/>
-      <c r="AU51" s="75"/>
-      <c r="AV51" s="75"/>
-      <c r="AW51" s="75"/>
-      <c r="AX51" s="75"/>
-      <c r="AY51" s="75"/>
-      <c r="AZ51" s="76"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="35"/>
+      <c r="Y51" s="35"/>
+      <c r="Z51" s="35"/>
+      <c r="AA51" s="35"/>
+      <c r="AB51" s="35"/>
+      <c r="AC51" s="35"/>
+      <c r="AD51" s="35"/>
+      <c r="AE51" s="35"/>
+      <c r="AF51" s="35"/>
+      <c r="AG51" s="35"/>
+      <c r="AH51" s="35"/>
+      <c r="AI51" s="35"/>
+      <c r="AJ51" s="35"/>
+      <c r="AK51" s="35"/>
+      <c r="AL51" s="35"/>
+      <c r="AM51" s="35"/>
+      <c r="AN51" s="35"/>
+      <c r="AO51" s="35"/>
+      <c r="AP51" s="36"/>
+      <c r="AQ51" s="52"/>
+      <c r="AR51" s="53"/>
+      <c r="AS51" s="53"/>
+      <c r="AT51" s="53"/>
+      <c r="AU51" s="53"/>
+      <c r="AV51" s="53"/>
+      <c r="AW51" s="53"/>
+      <c r="AX51" s="53"/>
+      <c r="AY51" s="53"/>
+      <c r="AZ51" s="54"/>
     </row>
     <row r="52" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="56"/>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="56"/>
-      <c r="S52" s="56"/>
-      <c r="T52" s="56"/>
-      <c r="U52" s="56"/>
-      <c r="V52" s="56"/>
-      <c r="W52" s="56"/>
-      <c r="X52" s="56"/>
-      <c r="Y52" s="56"/>
-      <c r="Z52" s="56"/>
-      <c r="AA52" s="56"/>
-      <c r="AB52" s="56"/>
-      <c r="AC52" s="56"/>
-      <c r="AD52" s="56"/>
-      <c r="AE52" s="56"/>
-      <c r="AF52" s="56"/>
-      <c r="AG52" s="56"/>
-      <c r="AH52" s="56"/>
-      <c r="AI52" s="56"/>
-      <c r="AJ52" s="56"/>
-      <c r="AK52" s="56"/>
-      <c r="AL52" s="56"/>
-      <c r="AM52" s="56"/>
-      <c r="AN52" s="56"/>
-      <c r="AO52" s="56"/>
-      <c r="AP52" s="57"/>
-      <c r="AQ52" s="74"/>
-      <c r="AR52" s="75"/>
-      <c r="AS52" s="75"/>
-      <c r="AT52" s="75"/>
-      <c r="AU52" s="75"/>
-      <c r="AV52" s="75"/>
-      <c r="AW52" s="75"/>
-      <c r="AX52" s="75"/>
-      <c r="AY52" s="75"/>
-      <c r="AZ52" s="76"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="35"/>
+      <c r="V52" s="35"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="35"/>
+      <c r="Y52" s="35"/>
+      <c r="Z52" s="35"/>
+      <c r="AA52" s="35"/>
+      <c r="AB52" s="35"/>
+      <c r="AC52" s="35"/>
+      <c r="AD52" s="35"/>
+      <c r="AE52" s="35"/>
+      <c r="AF52" s="35"/>
+      <c r="AG52" s="35"/>
+      <c r="AH52" s="35"/>
+      <c r="AI52" s="35"/>
+      <c r="AJ52" s="35"/>
+      <c r="AK52" s="35"/>
+      <c r="AL52" s="35"/>
+      <c r="AM52" s="35"/>
+      <c r="AN52" s="35"/>
+      <c r="AO52" s="35"/>
+      <c r="AP52" s="36"/>
+      <c r="AQ52" s="52"/>
+      <c r="AR52" s="53"/>
+      <c r="AS52" s="53"/>
+      <c r="AT52" s="53"/>
+      <c r="AU52" s="53"/>
+      <c r="AV52" s="53"/>
+      <c r="AW52" s="53"/>
+      <c r="AX52" s="53"/>
+      <c r="AY52" s="53"/>
+      <c r="AZ52" s="54"/>
     </row>
     <row r="53" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="56"/>
-      <c r="Q53" s="56"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="56"/>
-      <c r="T53" s="56"/>
-      <c r="U53" s="56"/>
-      <c r="V53" s="56"/>
-      <c r="W53" s="56"/>
-      <c r="X53" s="56"/>
-      <c r="Y53" s="56"/>
-      <c r="Z53" s="56"/>
-      <c r="AA53" s="56"/>
-      <c r="AB53" s="56"/>
-      <c r="AC53" s="56"/>
-      <c r="AD53" s="56"/>
-      <c r="AE53" s="56"/>
-      <c r="AF53" s="56"/>
-      <c r="AG53" s="56"/>
-      <c r="AH53" s="56"/>
-      <c r="AI53" s="56"/>
-      <c r="AJ53" s="56"/>
-      <c r="AK53" s="56"/>
-      <c r="AL53" s="56"/>
-      <c r="AM53" s="56"/>
-      <c r="AN53" s="56"/>
-      <c r="AO53" s="56"/>
-      <c r="AP53" s="57"/>
-      <c r="AQ53" s="74"/>
-      <c r="AR53" s="75"/>
-      <c r="AS53" s="75"/>
-      <c r="AT53" s="75"/>
-      <c r="AU53" s="75"/>
-      <c r="AV53" s="75"/>
-      <c r="AW53" s="75"/>
-      <c r="AX53" s="75"/>
-      <c r="AY53" s="75"/>
-      <c r="AZ53" s="76"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="35"/>
+      <c r="AD53" s="35"/>
+      <c r="AE53" s="35"/>
+      <c r="AF53" s="35"/>
+      <c r="AG53" s="35"/>
+      <c r="AH53" s="35"/>
+      <c r="AI53" s="35"/>
+      <c r="AJ53" s="35"/>
+      <c r="AK53" s="35"/>
+      <c r="AL53" s="35"/>
+      <c r="AM53" s="35"/>
+      <c r="AN53" s="35"/>
+      <c r="AO53" s="35"/>
+      <c r="AP53" s="36"/>
+      <c r="AQ53" s="52"/>
+      <c r="AR53" s="53"/>
+      <c r="AS53" s="53"/>
+      <c r="AT53" s="53"/>
+      <c r="AU53" s="53"/>
+      <c r="AV53" s="53"/>
+      <c r="AW53" s="53"/>
+      <c r="AX53" s="53"/>
+      <c r="AY53" s="53"/>
+      <c r="AZ53" s="54"/>
     </row>
     <row r="54" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="56"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="56"/>
-      <c r="S54" s="56"/>
-      <c r="T54" s="56"/>
-      <c r="U54" s="56"/>
-      <c r="V54" s="56"/>
-      <c r="W54" s="56"/>
-      <c r="X54" s="56"/>
-      <c r="Y54" s="56"/>
-      <c r="Z54" s="56"/>
-      <c r="AA54" s="56"/>
-      <c r="AB54" s="56"/>
-      <c r="AC54" s="56"/>
-      <c r="AD54" s="56"/>
-      <c r="AE54" s="56"/>
-      <c r="AF54" s="56"/>
-      <c r="AG54" s="56"/>
-      <c r="AH54" s="56"/>
-      <c r="AI54" s="56"/>
-      <c r="AJ54" s="56"/>
-      <c r="AK54" s="56"/>
-      <c r="AL54" s="56"/>
-      <c r="AM54" s="56"/>
-      <c r="AN54" s="56"/>
-      <c r="AO54" s="56"/>
-      <c r="AP54" s="57"/>
-      <c r="AQ54" s="74"/>
-      <c r="AR54" s="75"/>
-      <c r="AS54" s="75"/>
-      <c r="AT54" s="75"/>
-      <c r="AU54" s="75"/>
-      <c r="AV54" s="75"/>
-      <c r="AW54" s="75"/>
-      <c r="AX54" s="75"/>
-      <c r="AY54" s="75"/>
-      <c r="AZ54" s="76"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="35"/>
+      <c r="Y54" s="35"/>
+      <c r="Z54" s="35"/>
+      <c r="AA54" s="35"/>
+      <c r="AB54" s="35"/>
+      <c r="AC54" s="35"/>
+      <c r="AD54" s="35"/>
+      <c r="AE54" s="35"/>
+      <c r="AF54" s="35"/>
+      <c r="AG54" s="35"/>
+      <c r="AH54" s="35"/>
+      <c r="AI54" s="35"/>
+      <c r="AJ54" s="35"/>
+      <c r="AK54" s="35"/>
+      <c r="AL54" s="35"/>
+      <c r="AM54" s="35"/>
+      <c r="AN54" s="35"/>
+      <c r="AO54" s="35"/>
+      <c r="AP54" s="36"/>
+      <c r="AQ54" s="52"/>
+      <c r="AR54" s="53"/>
+      <c r="AS54" s="53"/>
+      <c r="AT54" s="53"/>
+      <c r="AU54" s="53"/>
+      <c r="AV54" s="53"/>
+      <c r="AW54" s="53"/>
+      <c r="AX54" s="53"/>
+      <c r="AY54" s="53"/>
+      <c r="AZ54" s="54"/>
     </row>
     <row r="55" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="56"/>
-      <c r="Q55" s="56"/>
-      <c r="R55" s="56"/>
-      <c r="S55" s="56"/>
-      <c r="T55" s="56"/>
-      <c r="U55" s="56"/>
-      <c r="V55" s="56"/>
-      <c r="W55" s="56"/>
-      <c r="X55" s="56"/>
-      <c r="Y55" s="56"/>
-      <c r="Z55" s="56"/>
-      <c r="AA55" s="56"/>
-      <c r="AB55" s="56"/>
-      <c r="AC55" s="56"/>
-      <c r="AD55" s="56"/>
-      <c r="AE55" s="56"/>
-      <c r="AF55" s="56"/>
-      <c r="AG55" s="56"/>
-      <c r="AH55" s="56"/>
-      <c r="AI55" s="56"/>
-      <c r="AJ55" s="56"/>
-      <c r="AK55" s="56"/>
-      <c r="AL55" s="56"/>
-      <c r="AM55" s="56"/>
-      <c r="AN55" s="56"/>
-      <c r="AO55" s="56"/>
-      <c r="AP55" s="57"/>
-      <c r="AQ55" s="74"/>
-      <c r="AR55" s="75"/>
-      <c r="AS55" s="75"/>
-      <c r="AT55" s="75"/>
-      <c r="AU55" s="75"/>
-      <c r="AV55" s="75"/>
-      <c r="AW55" s="75"/>
-      <c r="AX55" s="75"/>
-      <c r="AY55" s="75"/>
-      <c r="AZ55" s="76"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="35"/>
+      <c r="AB55" s="35"/>
+      <c r="AC55" s="35"/>
+      <c r="AD55" s="35"/>
+      <c r="AE55" s="35"/>
+      <c r="AF55" s="35"/>
+      <c r="AG55" s="35"/>
+      <c r="AH55" s="35"/>
+      <c r="AI55" s="35"/>
+      <c r="AJ55" s="35"/>
+      <c r="AK55" s="35"/>
+      <c r="AL55" s="35"/>
+      <c r="AM55" s="35"/>
+      <c r="AN55" s="35"/>
+      <c r="AO55" s="35"/>
+      <c r="AP55" s="36"/>
+      <c r="AQ55" s="52"/>
+      <c r="AR55" s="53"/>
+      <c r="AS55" s="53"/>
+      <c r="AT55" s="53"/>
+      <c r="AU55" s="53"/>
+      <c r="AV55" s="53"/>
+      <c r="AW55" s="53"/>
+      <c r="AX55" s="53"/>
+      <c r="AY55" s="53"/>
+      <c r="AZ55" s="54"/>
     </row>
     <row r="56" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="36"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="59"/>
-      <c r="O56" s="59"/>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="59"/>
-      <c r="S56" s="59"/>
-      <c r="T56" s="59"/>
-      <c r="U56" s="59"/>
-      <c r="V56" s="59"/>
-      <c r="W56" s="59"/>
-      <c r="X56" s="59"/>
-      <c r="Y56" s="59"/>
-      <c r="Z56" s="59"/>
-      <c r="AA56" s="59"/>
-      <c r="AB56" s="59"/>
-      <c r="AC56" s="59"/>
-      <c r="AD56" s="59"/>
-      <c r="AE56" s="59"/>
-      <c r="AF56" s="59"/>
-      <c r="AG56" s="59"/>
-      <c r="AH56" s="59"/>
-      <c r="AI56" s="59"/>
-      <c r="AJ56" s="59"/>
-      <c r="AK56" s="59"/>
-      <c r="AL56" s="59"/>
-      <c r="AM56" s="59"/>
-      <c r="AN56" s="59"/>
-      <c r="AO56" s="59"/>
-      <c r="AP56" s="60"/>
-      <c r="AQ56" s="77"/>
-      <c r="AR56" s="78"/>
-      <c r="AS56" s="78"/>
-      <c r="AT56" s="78"/>
-      <c r="AU56" s="78"/>
-      <c r="AV56" s="78"/>
-      <c r="AW56" s="78"/>
-      <c r="AX56" s="78"/>
-      <c r="AY56" s="78"/>
-      <c r="AZ56" s="79"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="38"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="38"/>
+      <c r="V56" s="38"/>
+      <c r="W56" s="38"/>
+      <c r="X56" s="38"/>
+      <c r="Y56" s="38"/>
+      <c r="Z56" s="38"/>
+      <c r="AA56" s="38"/>
+      <c r="AB56" s="38"/>
+      <c r="AC56" s="38"/>
+      <c r="AD56" s="38"/>
+      <c r="AE56" s="38"/>
+      <c r="AF56" s="38"/>
+      <c r="AG56" s="38"/>
+      <c r="AH56" s="38"/>
+      <c r="AI56" s="38"/>
+      <c r="AJ56" s="38"/>
+      <c r="AK56" s="38"/>
+      <c r="AL56" s="38"/>
+      <c r="AM56" s="38"/>
+      <c r="AN56" s="38"/>
+      <c r="AO56" s="38"/>
+      <c r="AP56" s="39"/>
+      <c r="AQ56" s="55"/>
+      <c r="AR56" s="56"/>
+      <c r="AS56" s="56"/>
+      <c r="AT56" s="56"/>
+      <c r="AU56" s="56"/>
+      <c r="AV56" s="56"/>
+      <c r="AW56" s="56"/>
+      <c r="AX56" s="56"/>
+      <c r="AY56" s="56"/>
+      <c r="AZ56" s="57"/>
     </row>
     <row r="57" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="27"/>
+      <c r="C57" s="69"/>
       <c r="D57" s="12"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -8782,22 +10329,22 @@
       <c r="AZ57" s="2"/>
     </row>
     <row r="58" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="28"/>
-      <c r="C58" s="29"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="71"/>
       <c r="D58" s="15"/>
       <c r="AZ58" s="3"/>
     </row>
     <row r="59" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="28"/>
-      <c r="C59" s="29"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="71"/>
       <c r="D59" s="15"/>
       <c r="AZ59" s="3"/>
     </row>
     <row r="60" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="31"/>
+      <c r="C60" s="76"/>
       <c r="D60" s="16"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -8849,14 +10396,14 @@
       <c r="AZ60" s="18"/>
     </row>
     <row r="61" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="28"/>
-      <c r="C61" s="29"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="71"/>
       <c r="D61" s="15"/>
       <c r="AZ61" s="3"/>
     </row>
     <row r="62" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="32"/>
-      <c r="C62" s="33"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="78"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="6"/>
@@ -8908,544 +10455,546 @@
       <c r="AZ62" s="6"/>
     </row>
     <row r="63" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="22" t="s">
-        <v>4</v>
+      <c r="B63" s="64" t="s">
+        <v>21</v>
       </c>
-      <c r="C63" s="23"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="53"/>
-      <c r="O63" s="53"/>
-      <c r="P63" s="53"/>
-      <c r="Q63" s="53"/>
-      <c r="R63" s="53"/>
-      <c r="S63" s="53"/>
-      <c r="T63" s="53"/>
-      <c r="U63" s="53"/>
-      <c r="V63" s="53"/>
-      <c r="W63" s="53"/>
-      <c r="X63" s="53"/>
-      <c r="Y63" s="53"/>
-      <c r="Z63" s="53"/>
-      <c r="AA63" s="53"/>
-      <c r="AB63" s="53"/>
-      <c r="AC63" s="53"/>
-      <c r="AD63" s="53"/>
-      <c r="AE63" s="53"/>
-      <c r="AF63" s="53"/>
-      <c r="AG63" s="53"/>
-      <c r="AH63" s="53"/>
-      <c r="AI63" s="53"/>
-      <c r="AJ63" s="53"/>
-      <c r="AK63" s="53"/>
-      <c r="AL63" s="53"/>
-      <c r="AM63" s="53"/>
-      <c r="AN63" s="53"/>
-      <c r="AO63" s="53"/>
-      <c r="AP63" s="54"/>
-      <c r="AQ63" s="52"/>
-      <c r="AR63" s="53"/>
-      <c r="AS63" s="53"/>
-      <c r="AT63" s="53"/>
-      <c r="AU63" s="53"/>
-      <c r="AV63" s="53"/>
-      <c r="AW63" s="53"/>
-      <c r="AX63" s="53"/>
-      <c r="AY63" s="53"/>
-      <c r="AZ63" s="54"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="32"/>
+      <c r="U63" s="32"/>
+      <c r="V63" s="32"/>
+      <c r="W63" s="32"/>
+      <c r="X63" s="32"/>
+      <c r="Y63" s="32"/>
+      <c r="Z63" s="32"/>
+      <c r="AA63" s="32"/>
+      <c r="AB63" s="32"/>
+      <c r="AC63" s="32"/>
+      <c r="AD63" s="32"/>
+      <c r="AE63" s="32"/>
+      <c r="AF63" s="32"/>
+      <c r="AG63" s="32"/>
+      <c r="AH63" s="32"/>
+      <c r="AI63" s="32"/>
+      <c r="AJ63" s="32"/>
+      <c r="AK63" s="32"/>
+      <c r="AL63" s="32"/>
+      <c r="AM63" s="32"/>
+      <c r="AN63" s="32"/>
+      <c r="AO63" s="32"/>
+      <c r="AP63" s="33"/>
+      <c r="AQ63" s="31"/>
+      <c r="AR63" s="32"/>
+      <c r="AS63" s="32"/>
+      <c r="AT63" s="32"/>
+      <c r="AU63" s="32"/>
+      <c r="AV63" s="32"/>
+      <c r="AW63" s="32"/>
+      <c r="AX63" s="32"/>
+      <c r="AY63" s="32"/>
+      <c r="AZ63" s="33"/>
     </row>
     <row r="64" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="24"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="56"/>
-      <c r="K64" s="56"/>
-      <c r="L64" s="56"/>
-      <c r="M64" s="56"/>
-      <c r="N64" s="56"/>
-      <c r="O64" s="56"/>
-      <c r="P64" s="56"/>
-      <c r="Q64" s="56"/>
-      <c r="R64" s="56"/>
-      <c r="S64" s="56"/>
-      <c r="T64" s="56"/>
-      <c r="U64" s="56"/>
-      <c r="V64" s="56"/>
-      <c r="W64" s="56"/>
-      <c r="X64" s="56"/>
-      <c r="Y64" s="56"/>
-      <c r="Z64" s="56"/>
-      <c r="AA64" s="56"/>
-      <c r="AB64" s="56"/>
-      <c r="AC64" s="56"/>
-      <c r="AD64" s="56"/>
-      <c r="AE64" s="56"/>
-      <c r="AF64" s="56"/>
-      <c r="AG64" s="56"/>
-      <c r="AH64" s="56"/>
-      <c r="AI64" s="56"/>
-      <c r="AJ64" s="56"/>
-      <c r="AK64" s="56"/>
-      <c r="AL64" s="56"/>
-      <c r="AM64" s="56"/>
-      <c r="AN64" s="56"/>
-      <c r="AO64" s="56"/>
-      <c r="AP64" s="57"/>
-      <c r="AQ64" s="55"/>
-      <c r="AR64" s="56"/>
-      <c r="AS64" s="56"/>
-      <c r="AT64" s="56"/>
-      <c r="AU64" s="56"/>
-      <c r="AV64" s="56"/>
-      <c r="AW64" s="56"/>
-      <c r="AX64" s="56"/>
-      <c r="AY64" s="56"/>
-      <c r="AZ64" s="57"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="35"/>
+      <c r="S64" s="35"/>
+      <c r="T64" s="35"/>
+      <c r="U64" s="35"/>
+      <c r="V64" s="35"/>
+      <c r="W64" s="35"/>
+      <c r="X64" s="35"/>
+      <c r="Y64" s="35"/>
+      <c r="Z64" s="35"/>
+      <c r="AA64" s="35"/>
+      <c r="AB64" s="35"/>
+      <c r="AC64" s="35"/>
+      <c r="AD64" s="35"/>
+      <c r="AE64" s="35"/>
+      <c r="AF64" s="35"/>
+      <c r="AG64" s="35"/>
+      <c r="AH64" s="35"/>
+      <c r="AI64" s="35"/>
+      <c r="AJ64" s="35"/>
+      <c r="AK64" s="35"/>
+      <c r="AL64" s="35"/>
+      <c r="AM64" s="35"/>
+      <c r="AN64" s="35"/>
+      <c r="AO64" s="35"/>
+      <c r="AP64" s="36"/>
+      <c r="AQ64" s="34"/>
+      <c r="AR64" s="35"/>
+      <c r="AS64" s="35"/>
+      <c r="AT64" s="35"/>
+      <c r="AU64" s="35"/>
+      <c r="AV64" s="35"/>
+      <c r="AW64" s="35"/>
+      <c r="AX64" s="35"/>
+      <c r="AY64" s="35"/>
+      <c r="AZ64" s="36"/>
     </row>
     <row r="65" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="56"/>
-      <c r="K65" s="56"/>
-      <c r="L65" s="56"/>
-      <c r="M65" s="56"/>
-      <c r="N65" s="56"/>
-      <c r="O65" s="56"/>
-      <c r="P65" s="56"/>
-      <c r="Q65" s="56"/>
-      <c r="R65" s="56"/>
-      <c r="S65" s="56"/>
-      <c r="T65" s="56"/>
-      <c r="U65" s="56"/>
-      <c r="V65" s="56"/>
-      <c r="W65" s="56"/>
-      <c r="X65" s="56"/>
-      <c r="Y65" s="56"/>
-      <c r="Z65" s="56"/>
-      <c r="AA65" s="56"/>
-      <c r="AB65" s="56"/>
-      <c r="AC65" s="56"/>
-      <c r="AD65" s="56"/>
-      <c r="AE65" s="56"/>
-      <c r="AF65" s="56"/>
-      <c r="AG65" s="56"/>
-      <c r="AH65" s="56"/>
-      <c r="AI65" s="56"/>
-      <c r="AJ65" s="56"/>
-      <c r="AK65" s="56"/>
-      <c r="AL65" s="56"/>
-      <c r="AM65" s="56"/>
-      <c r="AN65" s="56"/>
-      <c r="AO65" s="56"/>
-      <c r="AP65" s="57"/>
-      <c r="AQ65" s="55"/>
-      <c r="AR65" s="56"/>
-      <c r="AS65" s="56"/>
-      <c r="AT65" s="56"/>
-      <c r="AU65" s="56"/>
-      <c r="AV65" s="56"/>
-      <c r="AW65" s="56"/>
-      <c r="AX65" s="56"/>
-      <c r="AY65" s="56"/>
-      <c r="AZ65" s="57"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="35"/>
+      <c r="V65" s="35"/>
+      <c r="W65" s="35"/>
+      <c r="X65" s="35"/>
+      <c r="Y65" s="35"/>
+      <c r="Z65" s="35"/>
+      <c r="AA65" s="35"/>
+      <c r="AB65" s="35"/>
+      <c r="AC65" s="35"/>
+      <c r="AD65" s="35"/>
+      <c r="AE65" s="35"/>
+      <c r="AF65" s="35"/>
+      <c r="AG65" s="35"/>
+      <c r="AH65" s="35"/>
+      <c r="AI65" s="35"/>
+      <c r="AJ65" s="35"/>
+      <c r="AK65" s="35"/>
+      <c r="AL65" s="35"/>
+      <c r="AM65" s="35"/>
+      <c r="AN65" s="35"/>
+      <c r="AO65" s="35"/>
+      <c r="AP65" s="36"/>
+      <c r="AQ65" s="34"/>
+      <c r="AR65" s="35"/>
+      <c r="AS65" s="35"/>
+      <c r="AT65" s="35"/>
+      <c r="AU65" s="35"/>
+      <c r="AV65" s="35"/>
+      <c r="AW65" s="35"/>
+      <c r="AX65" s="35"/>
+      <c r="AY65" s="35"/>
+      <c r="AZ65" s="36"/>
     </row>
     <row r="66" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="56"/>
-      <c r="K66" s="56"/>
-      <c r="L66" s="56"/>
-      <c r="M66" s="56"/>
-      <c r="N66" s="56"/>
-      <c r="O66" s="56"/>
-      <c r="P66" s="56"/>
-      <c r="Q66" s="56"/>
-      <c r="R66" s="56"/>
-      <c r="S66" s="56"/>
-      <c r="T66" s="56"/>
-      <c r="U66" s="56"/>
-      <c r="V66" s="56"/>
-      <c r="W66" s="56"/>
-      <c r="X66" s="56"/>
-      <c r="Y66" s="56"/>
-      <c r="Z66" s="56"/>
-      <c r="AA66" s="56"/>
-      <c r="AB66" s="56"/>
-      <c r="AC66" s="56"/>
-      <c r="AD66" s="56"/>
-      <c r="AE66" s="56"/>
-      <c r="AF66" s="56"/>
-      <c r="AG66" s="56"/>
-      <c r="AH66" s="56"/>
-      <c r="AI66" s="56"/>
-      <c r="AJ66" s="56"/>
-      <c r="AK66" s="56"/>
-      <c r="AL66" s="56"/>
-      <c r="AM66" s="56"/>
-      <c r="AN66" s="56"/>
-      <c r="AO66" s="56"/>
-      <c r="AP66" s="57"/>
-      <c r="AQ66" s="55"/>
-      <c r="AR66" s="56"/>
-      <c r="AS66" s="56"/>
-      <c r="AT66" s="56"/>
-      <c r="AU66" s="56"/>
-      <c r="AV66" s="56"/>
-      <c r="AW66" s="56"/>
-      <c r="AX66" s="56"/>
-      <c r="AY66" s="56"/>
-      <c r="AZ66" s="57"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="35"/>
+      <c r="V66" s="35"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="35"/>
+      <c r="Y66" s="35"/>
+      <c r="Z66" s="35"/>
+      <c r="AA66" s="35"/>
+      <c r="AB66" s="35"/>
+      <c r="AC66" s="35"/>
+      <c r="AD66" s="35"/>
+      <c r="AE66" s="35"/>
+      <c r="AF66" s="35"/>
+      <c r="AG66" s="35"/>
+      <c r="AH66" s="35"/>
+      <c r="AI66" s="35"/>
+      <c r="AJ66" s="35"/>
+      <c r="AK66" s="35"/>
+      <c r="AL66" s="35"/>
+      <c r="AM66" s="35"/>
+      <c r="AN66" s="35"/>
+      <c r="AO66" s="35"/>
+      <c r="AP66" s="36"/>
+      <c r="AQ66" s="34"/>
+      <c r="AR66" s="35"/>
+      <c r="AS66" s="35"/>
+      <c r="AT66" s="35"/>
+      <c r="AU66" s="35"/>
+      <c r="AV66" s="35"/>
+      <c r="AW66" s="35"/>
+      <c r="AX66" s="35"/>
+      <c r="AY66" s="35"/>
+      <c r="AZ66" s="36"/>
     </row>
     <row r="67" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="56"/>
-      <c r="K67" s="56"/>
-      <c r="L67" s="56"/>
-      <c r="M67" s="56"/>
-      <c r="N67" s="56"/>
-      <c r="O67" s="56"/>
-      <c r="P67" s="56"/>
-      <c r="Q67" s="56"/>
-      <c r="R67" s="56"/>
-      <c r="S67" s="56"/>
-      <c r="T67" s="56"/>
-      <c r="U67" s="56"/>
-      <c r="V67" s="56"/>
-      <c r="W67" s="56"/>
-      <c r="X67" s="56"/>
-      <c r="Y67" s="56"/>
-      <c r="Z67" s="56"/>
-      <c r="AA67" s="56"/>
-      <c r="AB67" s="56"/>
-      <c r="AC67" s="56"/>
-      <c r="AD67" s="56"/>
-      <c r="AE67" s="56"/>
-      <c r="AF67" s="56"/>
-      <c r="AG67" s="56"/>
-      <c r="AH67" s="56"/>
-      <c r="AI67" s="56"/>
-      <c r="AJ67" s="56"/>
-      <c r="AK67" s="56"/>
-      <c r="AL67" s="56"/>
-      <c r="AM67" s="56"/>
-      <c r="AN67" s="56"/>
-      <c r="AO67" s="56"/>
-      <c r="AP67" s="57"/>
-      <c r="AQ67" s="55"/>
-      <c r="AR67" s="56"/>
-      <c r="AS67" s="56"/>
-      <c r="AT67" s="56"/>
-      <c r="AU67" s="56"/>
-      <c r="AV67" s="56"/>
-      <c r="AW67" s="56"/>
-      <c r="AX67" s="56"/>
-      <c r="AY67" s="56"/>
-      <c r="AZ67" s="57"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35"/>
+      <c r="V67" s="35"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="35"/>
+      <c r="Y67" s="35"/>
+      <c r="Z67" s="35"/>
+      <c r="AA67" s="35"/>
+      <c r="AB67" s="35"/>
+      <c r="AC67" s="35"/>
+      <c r="AD67" s="35"/>
+      <c r="AE67" s="35"/>
+      <c r="AF67" s="35"/>
+      <c r="AG67" s="35"/>
+      <c r="AH67" s="35"/>
+      <c r="AI67" s="35"/>
+      <c r="AJ67" s="35"/>
+      <c r="AK67" s="35"/>
+      <c r="AL67" s="35"/>
+      <c r="AM67" s="35"/>
+      <c r="AN67" s="35"/>
+      <c r="AO67" s="35"/>
+      <c r="AP67" s="36"/>
+      <c r="AQ67" s="34"/>
+      <c r="AR67" s="35"/>
+      <c r="AS67" s="35"/>
+      <c r="AT67" s="35"/>
+      <c r="AU67" s="35"/>
+      <c r="AV67" s="35"/>
+      <c r="AW67" s="35"/>
+      <c r="AX67" s="35"/>
+      <c r="AY67" s="35"/>
+      <c r="AZ67" s="36"/>
     </row>
     <row r="68" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="56"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="56"/>
-      <c r="N68" s="56"/>
-      <c r="O68" s="56"/>
-      <c r="P68" s="56"/>
-      <c r="Q68" s="56"/>
-      <c r="R68" s="56"/>
-      <c r="S68" s="56"/>
-      <c r="T68" s="56"/>
-      <c r="U68" s="56"/>
-      <c r="V68" s="56"/>
-      <c r="W68" s="56"/>
-      <c r="X68" s="56"/>
-      <c r="Y68" s="56"/>
-      <c r="Z68" s="56"/>
-      <c r="AA68" s="56"/>
-      <c r="AB68" s="56"/>
-      <c r="AC68" s="56"/>
-      <c r="AD68" s="56"/>
-      <c r="AE68" s="56"/>
-      <c r="AF68" s="56"/>
-      <c r="AG68" s="56"/>
-      <c r="AH68" s="56"/>
-      <c r="AI68" s="56"/>
-      <c r="AJ68" s="56"/>
-      <c r="AK68" s="56"/>
-      <c r="AL68" s="56"/>
-      <c r="AM68" s="56"/>
-      <c r="AN68" s="56"/>
-      <c r="AO68" s="56"/>
-      <c r="AP68" s="57"/>
-      <c r="AQ68" s="55"/>
-      <c r="AR68" s="56"/>
-      <c r="AS68" s="56"/>
-      <c r="AT68" s="56"/>
-      <c r="AU68" s="56"/>
-      <c r="AV68" s="56"/>
-      <c r="AW68" s="56"/>
-      <c r="AX68" s="56"/>
-      <c r="AY68" s="56"/>
-      <c r="AZ68" s="57"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="35"/>
+      <c r="U68" s="35"/>
+      <c r="V68" s="35"/>
+      <c r="W68" s="35"/>
+      <c r="X68" s="35"/>
+      <c r="Y68" s="35"/>
+      <c r="Z68" s="35"/>
+      <c r="AA68" s="35"/>
+      <c r="AB68" s="35"/>
+      <c r="AC68" s="35"/>
+      <c r="AD68" s="35"/>
+      <c r="AE68" s="35"/>
+      <c r="AF68" s="35"/>
+      <c r="AG68" s="35"/>
+      <c r="AH68" s="35"/>
+      <c r="AI68" s="35"/>
+      <c r="AJ68" s="35"/>
+      <c r="AK68" s="35"/>
+      <c r="AL68" s="35"/>
+      <c r="AM68" s="35"/>
+      <c r="AN68" s="35"/>
+      <c r="AO68" s="35"/>
+      <c r="AP68" s="36"/>
+      <c r="AQ68" s="34"/>
+      <c r="AR68" s="35"/>
+      <c r="AS68" s="35"/>
+      <c r="AT68" s="35"/>
+      <c r="AU68" s="35"/>
+      <c r="AV68" s="35"/>
+      <c r="AW68" s="35"/>
+      <c r="AX68" s="35"/>
+      <c r="AY68" s="35"/>
+      <c r="AZ68" s="36"/>
     </row>
     <row r="69" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="24"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="56"/>
-      <c r="K69" s="56"/>
-      <c r="L69" s="56"/>
-      <c r="M69" s="56"/>
-      <c r="N69" s="56"/>
-      <c r="O69" s="56"/>
-      <c r="P69" s="56"/>
-      <c r="Q69" s="56"/>
-      <c r="R69" s="56"/>
-      <c r="S69" s="56"/>
-      <c r="T69" s="56"/>
-      <c r="U69" s="56"/>
-      <c r="V69" s="56"/>
-      <c r="W69" s="56"/>
-      <c r="X69" s="56"/>
-      <c r="Y69" s="56"/>
-      <c r="Z69" s="56"/>
-      <c r="AA69" s="56"/>
-      <c r="AB69" s="56"/>
-      <c r="AC69" s="56"/>
-      <c r="AD69" s="56"/>
-      <c r="AE69" s="56"/>
-      <c r="AF69" s="56"/>
-      <c r="AG69" s="56"/>
-      <c r="AH69" s="56"/>
-      <c r="AI69" s="56"/>
-      <c r="AJ69" s="56"/>
-      <c r="AK69" s="56"/>
-      <c r="AL69" s="56"/>
-      <c r="AM69" s="56"/>
-      <c r="AN69" s="56"/>
-      <c r="AO69" s="56"/>
-      <c r="AP69" s="57"/>
-      <c r="AQ69" s="55"/>
-      <c r="AR69" s="56"/>
-      <c r="AS69" s="56"/>
-      <c r="AT69" s="56"/>
-      <c r="AU69" s="56"/>
-      <c r="AV69" s="56"/>
-      <c r="AW69" s="56"/>
-      <c r="AX69" s="56"/>
-      <c r="AY69" s="56"/>
-      <c r="AZ69" s="57"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="35"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35"/>
+      <c r="Y69" s="35"/>
+      <c r="Z69" s="35"/>
+      <c r="AA69" s="35"/>
+      <c r="AB69" s="35"/>
+      <c r="AC69" s="35"/>
+      <c r="AD69" s="35"/>
+      <c r="AE69" s="35"/>
+      <c r="AF69" s="35"/>
+      <c r="AG69" s="35"/>
+      <c r="AH69" s="35"/>
+      <c r="AI69" s="35"/>
+      <c r="AJ69" s="35"/>
+      <c r="AK69" s="35"/>
+      <c r="AL69" s="35"/>
+      <c r="AM69" s="35"/>
+      <c r="AN69" s="35"/>
+      <c r="AO69" s="35"/>
+      <c r="AP69" s="36"/>
+      <c r="AQ69" s="34"/>
+      <c r="AR69" s="35"/>
+      <c r="AS69" s="35"/>
+      <c r="AT69" s="35"/>
+      <c r="AU69" s="35"/>
+      <c r="AV69" s="35"/>
+      <c r="AW69" s="35"/>
+      <c r="AX69" s="35"/>
+      <c r="AY69" s="35"/>
+      <c r="AZ69" s="36"/>
     </row>
     <row r="70" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="56"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="56"/>
-      <c r="J70" s="56"/>
-      <c r="K70" s="56"/>
-      <c r="L70" s="56"/>
-      <c r="M70" s="56"/>
-      <c r="N70" s="56"/>
-      <c r="O70" s="56"/>
-      <c r="P70" s="56"/>
-      <c r="Q70" s="56"/>
-      <c r="R70" s="56"/>
-      <c r="S70" s="56"/>
-      <c r="T70" s="56"/>
-      <c r="U70" s="56"/>
-      <c r="V70" s="56"/>
-      <c r="W70" s="56"/>
-      <c r="X70" s="56"/>
-      <c r="Y70" s="56"/>
-      <c r="Z70" s="56"/>
-      <c r="AA70" s="56"/>
-      <c r="AB70" s="56"/>
-      <c r="AC70" s="56"/>
-      <c r="AD70" s="56"/>
-      <c r="AE70" s="56"/>
-      <c r="AF70" s="56"/>
-      <c r="AG70" s="56"/>
-      <c r="AH70" s="56"/>
-      <c r="AI70" s="56"/>
-      <c r="AJ70" s="56"/>
-      <c r="AK70" s="56"/>
-      <c r="AL70" s="56"/>
-      <c r="AM70" s="56"/>
-      <c r="AN70" s="56"/>
-      <c r="AO70" s="56"/>
-      <c r="AP70" s="57"/>
-      <c r="AQ70" s="55"/>
-      <c r="AR70" s="56"/>
-      <c r="AS70" s="56"/>
-      <c r="AT70" s="56"/>
-      <c r="AU70" s="56"/>
-      <c r="AV70" s="56"/>
-      <c r="AW70" s="56"/>
-      <c r="AX70" s="56"/>
-      <c r="AY70" s="56"/>
-      <c r="AZ70" s="57"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="35"/>
+      <c r="T70" s="35"/>
+      <c r="U70" s="35"/>
+      <c r="V70" s="35"/>
+      <c r="W70" s="35"/>
+      <c r="X70" s="35"/>
+      <c r="Y70" s="35"/>
+      <c r="Z70" s="35"/>
+      <c r="AA70" s="35"/>
+      <c r="AB70" s="35"/>
+      <c r="AC70" s="35"/>
+      <c r="AD70" s="35"/>
+      <c r="AE70" s="35"/>
+      <c r="AF70" s="35"/>
+      <c r="AG70" s="35"/>
+      <c r="AH70" s="35"/>
+      <c r="AI70" s="35"/>
+      <c r="AJ70" s="35"/>
+      <c r="AK70" s="35"/>
+      <c r="AL70" s="35"/>
+      <c r="AM70" s="35"/>
+      <c r="AN70" s="35"/>
+      <c r="AO70" s="35"/>
+      <c r="AP70" s="36"/>
+      <c r="AQ70" s="34"/>
+      <c r="AR70" s="35"/>
+      <c r="AS70" s="35"/>
+      <c r="AT70" s="35"/>
+      <c r="AU70" s="35"/>
+      <c r="AV70" s="35"/>
+      <c r="AW70" s="35"/>
+      <c r="AX70" s="35"/>
+      <c r="AY70" s="35"/>
+      <c r="AZ70" s="36"/>
     </row>
     <row r="71" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="35"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="56"/>
-      <c r="K71" s="56"/>
-      <c r="L71" s="56"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="56"/>
-      <c r="O71" s="56"/>
-      <c r="P71" s="56"/>
-      <c r="Q71" s="56"/>
-      <c r="R71" s="56"/>
-      <c r="S71" s="56"/>
-      <c r="T71" s="56"/>
-      <c r="U71" s="56"/>
-      <c r="V71" s="56"/>
-      <c r="W71" s="56"/>
-      <c r="X71" s="56"/>
-      <c r="Y71" s="56"/>
-      <c r="Z71" s="56"/>
-      <c r="AA71" s="56"/>
-      <c r="AB71" s="56"/>
-      <c r="AC71" s="56"/>
-      <c r="AD71" s="56"/>
-      <c r="AE71" s="56"/>
-      <c r="AF71" s="56"/>
-      <c r="AG71" s="56"/>
-      <c r="AH71" s="56"/>
-      <c r="AI71" s="56"/>
-      <c r="AJ71" s="56"/>
-      <c r="AK71" s="56"/>
-      <c r="AL71" s="56"/>
-      <c r="AM71" s="56"/>
-      <c r="AN71" s="56"/>
-      <c r="AO71" s="56"/>
-      <c r="AP71" s="57"/>
-      <c r="AQ71" s="55"/>
-      <c r="AR71" s="56"/>
-      <c r="AS71" s="56"/>
-      <c r="AT71" s="56"/>
-      <c r="AU71" s="56"/>
-      <c r="AV71" s="56"/>
-      <c r="AW71" s="56"/>
-      <c r="AX71" s="56"/>
-      <c r="AY71" s="56"/>
-      <c r="AZ71" s="57"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="35"/>
+      <c r="S71" s="35"/>
+      <c r="T71" s="35"/>
+      <c r="U71" s="35"/>
+      <c r="V71" s="35"/>
+      <c r="W71" s="35"/>
+      <c r="X71" s="35"/>
+      <c r="Y71" s="35"/>
+      <c r="Z71" s="35"/>
+      <c r="AA71" s="35"/>
+      <c r="AB71" s="35"/>
+      <c r="AC71" s="35"/>
+      <c r="AD71" s="35"/>
+      <c r="AE71" s="35"/>
+      <c r="AF71" s="35"/>
+      <c r="AG71" s="35"/>
+      <c r="AH71" s="35"/>
+      <c r="AI71" s="35"/>
+      <c r="AJ71" s="35"/>
+      <c r="AK71" s="35"/>
+      <c r="AL71" s="35"/>
+      <c r="AM71" s="35"/>
+      <c r="AN71" s="35"/>
+      <c r="AO71" s="35"/>
+      <c r="AP71" s="36"/>
+      <c r="AQ71" s="34"/>
+      <c r="AR71" s="35"/>
+      <c r="AS71" s="35"/>
+      <c r="AT71" s="35"/>
+      <c r="AU71" s="35"/>
+      <c r="AV71" s="35"/>
+      <c r="AW71" s="35"/>
+      <c r="AX71" s="35"/>
+      <c r="AY71" s="35"/>
+      <c r="AZ71" s="36"/>
     </row>
     <row r="72" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="36"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
-      <c r="L72" s="59"/>
-      <c r="M72" s="59"/>
-      <c r="N72" s="59"/>
-      <c r="O72" s="59"/>
-      <c r="P72" s="59"/>
-      <c r="Q72" s="59"/>
-      <c r="R72" s="59"/>
-      <c r="S72" s="59"/>
-      <c r="T72" s="59"/>
-      <c r="U72" s="59"/>
-      <c r="V72" s="59"/>
-      <c r="W72" s="59"/>
-      <c r="X72" s="59"/>
-      <c r="Y72" s="59"/>
-      <c r="Z72" s="59"/>
-      <c r="AA72" s="59"/>
-      <c r="AB72" s="59"/>
-      <c r="AC72" s="59"/>
-      <c r="AD72" s="59"/>
-      <c r="AE72" s="59"/>
-      <c r="AF72" s="59"/>
-      <c r="AG72" s="59"/>
-      <c r="AH72" s="59"/>
-      <c r="AI72" s="59"/>
-      <c r="AJ72" s="59"/>
-      <c r="AK72" s="59"/>
-      <c r="AL72" s="59"/>
-      <c r="AM72" s="59"/>
-      <c r="AN72" s="59"/>
-      <c r="AO72" s="59"/>
-      <c r="AP72" s="60"/>
-      <c r="AQ72" s="58"/>
-      <c r="AR72" s="59"/>
-      <c r="AS72" s="59"/>
-      <c r="AT72" s="59"/>
-      <c r="AU72" s="59"/>
-      <c r="AV72" s="59"/>
-      <c r="AW72" s="59"/>
-      <c r="AX72" s="59"/>
-      <c r="AY72" s="59"/>
-      <c r="AZ72" s="60"/>
+      <c r="B72" s="62"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="38"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
+      <c r="Q72" s="38"/>
+      <c r="R72" s="38"/>
+      <c r="S72" s="38"/>
+      <c r="T72" s="38"/>
+      <c r="U72" s="38"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="38"/>
+      <c r="X72" s="38"/>
+      <c r="Y72" s="38"/>
+      <c r="Z72" s="38"/>
+      <c r="AA72" s="38"/>
+      <c r="AB72" s="38"/>
+      <c r="AC72" s="38"/>
+      <c r="AD72" s="38"/>
+      <c r="AE72" s="38"/>
+      <c r="AF72" s="38"/>
+      <c r="AG72" s="38"/>
+      <c r="AH72" s="38"/>
+      <c r="AI72" s="38"/>
+      <c r="AJ72" s="38"/>
+      <c r="AK72" s="38"/>
+      <c r="AL72" s="38"/>
+      <c r="AM72" s="38"/>
+      <c r="AN72" s="38"/>
+      <c r="AO72" s="38"/>
+      <c r="AP72" s="39"/>
+      <c r="AQ72" s="37"/>
+      <c r="AR72" s="38"/>
+      <c r="AS72" s="38"/>
+      <c r="AT72" s="38"/>
+      <c r="AU72" s="38"/>
+      <c r="AV72" s="38"/>
+      <c r="AW72" s="38"/>
+      <c r="AX72" s="38"/>
+      <c r="AY72" s="38"/>
+      <c r="AZ72" s="39"/>
     </row>
     <row r="73" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="27"/>
+      <c r="C73" s="69"/>
       <c r="D73" s="12"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -9497,22 +11046,22 @@
       <c r="AZ73" s="2"/>
     </row>
     <row r="74" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="28"/>
-      <c r="C74" s="29"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="71"/>
       <c r="D74" s="15"/>
       <c r="AZ74" s="3"/>
     </row>
     <row r="75" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="28"/>
-      <c r="C75" s="29"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="71"/>
       <c r="D75" s="15"/>
       <c r="AZ75" s="3"/>
     </row>
     <row r="76" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="31"/>
+      <c r="C76" s="76"/>
       <c r="D76" s="16"/>
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
@@ -9564,14 +11113,14 @@
       <c r="AZ76" s="18"/>
     </row>
     <row r="77" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="28"/>
-      <c r="C77" s="29"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="71"/>
       <c r="D77" s="15"/>
       <c r="AZ77" s="3"/>
     </row>
     <row r="78" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="32"/>
-      <c r="C78" s="33"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="78"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="6"/>
@@ -9623,552 +11172,552 @@
       <c r="AZ78" s="6"/>
     </row>
     <row r="79" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="23"/>
-      <c r="D79" s="52"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="53"/>
-      <c r="H79" s="53"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="53"/>
-      <c r="K79" s="53"/>
-      <c r="L79" s="53"/>
-      <c r="M79" s="53"/>
-      <c r="N79" s="53"/>
-      <c r="O79" s="53"/>
-      <c r="P79" s="53"/>
-      <c r="Q79" s="53"/>
-      <c r="R79" s="53"/>
-      <c r="S79" s="53"/>
-      <c r="T79" s="53"/>
-      <c r="U79" s="53"/>
-      <c r="V79" s="53"/>
-      <c r="W79" s="53"/>
-      <c r="X79" s="53"/>
-      <c r="Y79" s="53"/>
-      <c r="Z79" s="53"/>
-      <c r="AA79" s="53"/>
-      <c r="AB79" s="53"/>
-      <c r="AC79" s="53"/>
-      <c r="AD79" s="53"/>
-      <c r="AE79" s="53"/>
-      <c r="AF79" s="53"/>
-      <c r="AG79" s="53"/>
-      <c r="AH79" s="53"/>
-      <c r="AI79" s="53"/>
-      <c r="AJ79" s="53"/>
-      <c r="AK79" s="53"/>
-      <c r="AL79" s="53"/>
-      <c r="AM79" s="53"/>
-      <c r="AN79" s="53"/>
-      <c r="AO79" s="53"/>
-      <c r="AP79" s="54"/>
-      <c r="AQ79" s="52"/>
-      <c r="AR79" s="53"/>
-      <c r="AS79" s="53"/>
-      <c r="AT79" s="53"/>
-      <c r="AU79" s="53"/>
-      <c r="AV79" s="53"/>
-      <c r="AW79" s="53"/>
-      <c r="AX79" s="53"/>
-      <c r="AY79" s="53"/>
-      <c r="AZ79" s="54"/>
+      <c r="C79" s="65"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="32"/>
+      <c r="L79" s="32"/>
+      <c r="M79" s="32"/>
+      <c r="N79" s="32"/>
+      <c r="O79" s="32"/>
+      <c r="P79" s="32"/>
+      <c r="Q79" s="32"/>
+      <c r="R79" s="32"/>
+      <c r="S79" s="32"/>
+      <c r="T79" s="32"/>
+      <c r="U79" s="32"/>
+      <c r="V79" s="32"/>
+      <c r="W79" s="32"/>
+      <c r="X79" s="32"/>
+      <c r="Y79" s="32"/>
+      <c r="Z79" s="32"/>
+      <c r="AA79" s="32"/>
+      <c r="AB79" s="32"/>
+      <c r="AC79" s="32"/>
+      <c r="AD79" s="32"/>
+      <c r="AE79" s="32"/>
+      <c r="AF79" s="32"/>
+      <c r="AG79" s="32"/>
+      <c r="AH79" s="32"/>
+      <c r="AI79" s="32"/>
+      <c r="AJ79" s="32"/>
+      <c r="AK79" s="32"/>
+      <c r="AL79" s="32"/>
+      <c r="AM79" s="32"/>
+      <c r="AN79" s="32"/>
+      <c r="AO79" s="32"/>
+      <c r="AP79" s="33"/>
+      <c r="AQ79" s="31"/>
+      <c r="AR79" s="32"/>
+      <c r="AS79" s="32"/>
+      <c r="AT79" s="32"/>
+      <c r="AU79" s="32"/>
+      <c r="AV79" s="32"/>
+      <c r="AW79" s="32"/>
+      <c r="AX79" s="32"/>
+      <c r="AY79" s="32"/>
+      <c r="AZ79" s="33"/>
     </row>
     <row r="80" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="56"/>
-      <c r="K80" s="56"/>
-      <c r="L80" s="56"/>
-      <c r="M80" s="56"/>
-      <c r="N80" s="56"/>
-      <c r="O80" s="56"/>
-      <c r="P80" s="56"/>
-      <c r="Q80" s="56"/>
-      <c r="R80" s="56"/>
-      <c r="S80" s="56"/>
-      <c r="T80" s="56"/>
-      <c r="U80" s="56"/>
-      <c r="V80" s="56"/>
-      <c r="W80" s="56"/>
-      <c r="X80" s="56"/>
-      <c r="Y80" s="56"/>
-      <c r="Z80" s="56"/>
-      <c r="AA80" s="56"/>
-      <c r="AB80" s="56"/>
-      <c r="AC80" s="56"/>
-      <c r="AD80" s="56"/>
-      <c r="AE80" s="56"/>
-      <c r="AF80" s="56"/>
-      <c r="AG80" s="56"/>
-      <c r="AH80" s="56"/>
-      <c r="AI80" s="56"/>
-      <c r="AJ80" s="56"/>
-      <c r="AK80" s="56"/>
-      <c r="AL80" s="56"/>
-      <c r="AM80" s="56"/>
-      <c r="AN80" s="56"/>
-      <c r="AO80" s="56"/>
-      <c r="AP80" s="57"/>
-      <c r="AQ80" s="55"/>
-      <c r="AR80" s="56"/>
-      <c r="AS80" s="56"/>
-      <c r="AT80" s="56"/>
-      <c r="AU80" s="56"/>
-      <c r="AV80" s="56"/>
-      <c r="AW80" s="56"/>
-      <c r="AX80" s="56"/>
-      <c r="AY80" s="56"/>
-      <c r="AZ80" s="57"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35"/>
+      <c r="T80" s="35"/>
+      <c r="U80" s="35"/>
+      <c r="V80" s="35"/>
+      <c r="W80" s="35"/>
+      <c r="X80" s="35"/>
+      <c r="Y80" s="35"/>
+      <c r="Z80" s="35"/>
+      <c r="AA80" s="35"/>
+      <c r="AB80" s="35"/>
+      <c r="AC80" s="35"/>
+      <c r="AD80" s="35"/>
+      <c r="AE80" s="35"/>
+      <c r="AF80" s="35"/>
+      <c r="AG80" s="35"/>
+      <c r="AH80" s="35"/>
+      <c r="AI80" s="35"/>
+      <c r="AJ80" s="35"/>
+      <c r="AK80" s="35"/>
+      <c r="AL80" s="35"/>
+      <c r="AM80" s="35"/>
+      <c r="AN80" s="35"/>
+      <c r="AO80" s="35"/>
+      <c r="AP80" s="36"/>
+      <c r="AQ80" s="34"/>
+      <c r="AR80" s="35"/>
+      <c r="AS80" s="35"/>
+      <c r="AT80" s="35"/>
+      <c r="AU80" s="35"/>
+      <c r="AV80" s="35"/>
+      <c r="AW80" s="35"/>
+      <c r="AX80" s="35"/>
+      <c r="AY80" s="35"/>
+      <c r="AZ80" s="36"/>
     </row>
     <row r="81" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="24"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="56"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="56"/>
-      <c r="K81" s="56"/>
-      <c r="L81" s="56"/>
-      <c r="M81" s="56"/>
-      <c r="N81" s="56"/>
-      <c r="O81" s="56"/>
-      <c r="P81" s="56"/>
-      <c r="Q81" s="56"/>
-      <c r="R81" s="56"/>
-      <c r="S81" s="56"/>
-      <c r="T81" s="56"/>
-      <c r="U81" s="56"/>
-      <c r="V81" s="56"/>
-      <c r="W81" s="56"/>
-      <c r="X81" s="56"/>
-      <c r="Y81" s="56"/>
-      <c r="Z81" s="56"/>
-      <c r="AA81" s="56"/>
-      <c r="AB81" s="56"/>
-      <c r="AC81" s="56"/>
-      <c r="AD81" s="56"/>
-      <c r="AE81" s="56"/>
-      <c r="AF81" s="56"/>
-      <c r="AG81" s="56"/>
-      <c r="AH81" s="56"/>
-      <c r="AI81" s="56"/>
-      <c r="AJ81" s="56"/>
-      <c r="AK81" s="56"/>
-      <c r="AL81" s="56"/>
-      <c r="AM81" s="56"/>
-      <c r="AN81" s="56"/>
-      <c r="AO81" s="56"/>
-      <c r="AP81" s="57"/>
-      <c r="AQ81" s="55"/>
-      <c r="AR81" s="56"/>
-      <c r="AS81" s="56"/>
-      <c r="AT81" s="56"/>
-      <c r="AU81" s="56"/>
-      <c r="AV81" s="56"/>
-      <c r="AW81" s="56"/>
-      <c r="AX81" s="56"/>
-      <c r="AY81" s="56"/>
-      <c r="AZ81" s="57"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="35"/>
+      <c r="R81" s="35"/>
+      <c r="S81" s="35"/>
+      <c r="T81" s="35"/>
+      <c r="U81" s="35"/>
+      <c r="V81" s="35"/>
+      <c r="W81" s="35"/>
+      <c r="X81" s="35"/>
+      <c r="Y81" s="35"/>
+      <c r="Z81" s="35"/>
+      <c r="AA81" s="35"/>
+      <c r="AB81" s="35"/>
+      <c r="AC81" s="35"/>
+      <c r="AD81" s="35"/>
+      <c r="AE81" s="35"/>
+      <c r="AF81" s="35"/>
+      <c r="AG81" s="35"/>
+      <c r="AH81" s="35"/>
+      <c r="AI81" s="35"/>
+      <c r="AJ81" s="35"/>
+      <c r="AK81" s="35"/>
+      <c r="AL81" s="35"/>
+      <c r="AM81" s="35"/>
+      <c r="AN81" s="35"/>
+      <c r="AO81" s="35"/>
+      <c r="AP81" s="36"/>
+      <c r="AQ81" s="34"/>
+      <c r="AR81" s="35"/>
+      <c r="AS81" s="35"/>
+      <c r="AT81" s="35"/>
+      <c r="AU81" s="35"/>
+      <c r="AV81" s="35"/>
+      <c r="AW81" s="35"/>
+      <c r="AX81" s="35"/>
+      <c r="AY81" s="35"/>
+      <c r="AZ81" s="36"/>
     </row>
     <row r="82" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="56"/>
-      <c r="K82" s="56"/>
-      <c r="L82" s="56"/>
-      <c r="M82" s="56"/>
-      <c r="N82" s="56"/>
-      <c r="O82" s="56"/>
-      <c r="P82" s="56"/>
-      <c r="Q82" s="56"/>
-      <c r="R82" s="56"/>
-      <c r="S82" s="56"/>
-      <c r="T82" s="56"/>
-      <c r="U82" s="56"/>
-      <c r="V82" s="56"/>
-      <c r="W82" s="56"/>
-      <c r="X82" s="56"/>
-      <c r="Y82" s="56"/>
-      <c r="Z82" s="56"/>
-      <c r="AA82" s="56"/>
-      <c r="AB82" s="56"/>
-      <c r="AC82" s="56"/>
-      <c r="AD82" s="56"/>
-      <c r="AE82" s="56"/>
-      <c r="AF82" s="56"/>
-      <c r="AG82" s="56"/>
-      <c r="AH82" s="56"/>
-      <c r="AI82" s="56"/>
-      <c r="AJ82" s="56"/>
-      <c r="AK82" s="56"/>
-      <c r="AL82" s="56"/>
-      <c r="AM82" s="56"/>
-      <c r="AN82" s="56"/>
-      <c r="AO82" s="56"/>
-      <c r="AP82" s="57"/>
-      <c r="AQ82" s="55"/>
-      <c r="AR82" s="56"/>
-      <c r="AS82" s="56"/>
-      <c r="AT82" s="56"/>
-      <c r="AU82" s="56"/>
-      <c r="AV82" s="56"/>
-      <c r="AW82" s="56"/>
-      <c r="AX82" s="56"/>
-      <c r="AY82" s="56"/>
-      <c r="AZ82" s="57"/>
+      <c r="B82" s="66"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="35"/>
+      <c r="T82" s="35"/>
+      <c r="U82" s="35"/>
+      <c r="V82" s="35"/>
+      <c r="W82" s="35"/>
+      <c r="X82" s="35"/>
+      <c r="Y82" s="35"/>
+      <c r="Z82" s="35"/>
+      <c r="AA82" s="35"/>
+      <c r="AB82" s="35"/>
+      <c r="AC82" s="35"/>
+      <c r="AD82" s="35"/>
+      <c r="AE82" s="35"/>
+      <c r="AF82" s="35"/>
+      <c r="AG82" s="35"/>
+      <c r="AH82" s="35"/>
+      <c r="AI82" s="35"/>
+      <c r="AJ82" s="35"/>
+      <c r="AK82" s="35"/>
+      <c r="AL82" s="35"/>
+      <c r="AM82" s="35"/>
+      <c r="AN82" s="35"/>
+      <c r="AO82" s="35"/>
+      <c r="AP82" s="36"/>
+      <c r="AQ82" s="34"/>
+      <c r="AR82" s="35"/>
+      <c r="AS82" s="35"/>
+      <c r="AT82" s="35"/>
+      <c r="AU82" s="35"/>
+      <c r="AV82" s="35"/>
+      <c r="AW82" s="35"/>
+      <c r="AX82" s="35"/>
+      <c r="AY82" s="35"/>
+      <c r="AZ82" s="36"/>
     </row>
     <row r="83" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="24"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="56"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="56"/>
-      <c r="K83" s="56"/>
-      <c r="L83" s="56"/>
-      <c r="M83" s="56"/>
-      <c r="N83" s="56"/>
-      <c r="O83" s="56"/>
-      <c r="P83" s="56"/>
-      <c r="Q83" s="56"/>
-      <c r="R83" s="56"/>
-      <c r="S83" s="56"/>
-      <c r="T83" s="56"/>
-      <c r="U83" s="56"/>
-      <c r="V83" s="56"/>
-      <c r="W83" s="56"/>
-      <c r="X83" s="56"/>
-      <c r="Y83" s="56"/>
-      <c r="Z83" s="56"/>
-      <c r="AA83" s="56"/>
-      <c r="AB83" s="56"/>
-      <c r="AC83" s="56"/>
-      <c r="AD83" s="56"/>
-      <c r="AE83" s="56"/>
-      <c r="AF83" s="56"/>
-      <c r="AG83" s="56"/>
-      <c r="AH83" s="56"/>
-      <c r="AI83" s="56"/>
-      <c r="AJ83" s="56"/>
-      <c r="AK83" s="56"/>
-      <c r="AL83" s="56"/>
-      <c r="AM83" s="56"/>
-      <c r="AN83" s="56"/>
-      <c r="AO83" s="56"/>
-      <c r="AP83" s="57"/>
-      <c r="AQ83" s="55"/>
-      <c r="AR83" s="56"/>
-      <c r="AS83" s="56"/>
-      <c r="AT83" s="56"/>
-      <c r="AU83" s="56"/>
-      <c r="AV83" s="56"/>
-      <c r="AW83" s="56"/>
-      <c r="AX83" s="56"/>
-      <c r="AY83" s="56"/>
-      <c r="AZ83" s="57"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="35"/>
+      <c r="T83" s="35"/>
+      <c r="U83" s="35"/>
+      <c r="V83" s="35"/>
+      <c r="W83" s="35"/>
+      <c r="X83" s="35"/>
+      <c r="Y83" s="35"/>
+      <c r="Z83" s="35"/>
+      <c r="AA83" s="35"/>
+      <c r="AB83" s="35"/>
+      <c r="AC83" s="35"/>
+      <c r="AD83" s="35"/>
+      <c r="AE83" s="35"/>
+      <c r="AF83" s="35"/>
+      <c r="AG83" s="35"/>
+      <c r="AH83" s="35"/>
+      <c r="AI83" s="35"/>
+      <c r="AJ83" s="35"/>
+      <c r="AK83" s="35"/>
+      <c r="AL83" s="35"/>
+      <c r="AM83" s="35"/>
+      <c r="AN83" s="35"/>
+      <c r="AO83" s="35"/>
+      <c r="AP83" s="36"/>
+      <c r="AQ83" s="34"/>
+      <c r="AR83" s="35"/>
+      <c r="AS83" s="35"/>
+      <c r="AT83" s="35"/>
+      <c r="AU83" s="35"/>
+      <c r="AV83" s="35"/>
+      <c r="AW83" s="35"/>
+      <c r="AX83" s="35"/>
+      <c r="AY83" s="35"/>
+      <c r="AZ83" s="36"/>
     </row>
     <row r="84" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="24"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="56"/>
-      <c r="J84" s="56"/>
-      <c r="K84" s="56"/>
-      <c r="L84" s="56"/>
-      <c r="M84" s="56"/>
-      <c r="N84" s="56"/>
-      <c r="O84" s="56"/>
-      <c r="P84" s="56"/>
-      <c r="Q84" s="56"/>
-      <c r="R84" s="56"/>
-      <c r="S84" s="56"/>
-      <c r="T84" s="56"/>
-      <c r="U84" s="56"/>
-      <c r="V84" s="56"/>
-      <c r="W84" s="56"/>
-      <c r="X84" s="56"/>
-      <c r="Y84" s="56"/>
-      <c r="Z84" s="56"/>
-      <c r="AA84" s="56"/>
-      <c r="AB84" s="56"/>
-      <c r="AC84" s="56"/>
-      <c r="AD84" s="56"/>
-      <c r="AE84" s="56"/>
-      <c r="AF84" s="56"/>
-      <c r="AG84" s="56"/>
-      <c r="AH84" s="56"/>
-      <c r="AI84" s="56"/>
-      <c r="AJ84" s="56"/>
-      <c r="AK84" s="56"/>
-      <c r="AL84" s="56"/>
-      <c r="AM84" s="56"/>
-      <c r="AN84" s="56"/>
-      <c r="AO84" s="56"/>
-      <c r="AP84" s="57"/>
-      <c r="AQ84" s="55"/>
-      <c r="AR84" s="56"/>
-      <c r="AS84" s="56"/>
-      <c r="AT84" s="56"/>
-      <c r="AU84" s="56"/>
-      <c r="AV84" s="56"/>
-      <c r="AW84" s="56"/>
-      <c r="AX84" s="56"/>
-      <c r="AY84" s="56"/>
-      <c r="AZ84" s="57"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="35"/>
+      <c r="R84" s="35"/>
+      <c r="S84" s="35"/>
+      <c r="T84" s="35"/>
+      <c r="U84" s="35"/>
+      <c r="V84" s="35"/>
+      <c r="W84" s="35"/>
+      <c r="X84" s="35"/>
+      <c r="Y84" s="35"/>
+      <c r="Z84" s="35"/>
+      <c r="AA84" s="35"/>
+      <c r="AB84" s="35"/>
+      <c r="AC84" s="35"/>
+      <c r="AD84" s="35"/>
+      <c r="AE84" s="35"/>
+      <c r="AF84" s="35"/>
+      <c r="AG84" s="35"/>
+      <c r="AH84" s="35"/>
+      <c r="AI84" s="35"/>
+      <c r="AJ84" s="35"/>
+      <c r="AK84" s="35"/>
+      <c r="AL84" s="35"/>
+      <c r="AM84" s="35"/>
+      <c r="AN84" s="35"/>
+      <c r="AO84" s="35"/>
+      <c r="AP84" s="36"/>
+      <c r="AQ84" s="34"/>
+      <c r="AR84" s="35"/>
+      <c r="AS84" s="35"/>
+      <c r="AT84" s="35"/>
+      <c r="AU84" s="35"/>
+      <c r="AV84" s="35"/>
+      <c r="AW84" s="35"/>
+      <c r="AX84" s="35"/>
+      <c r="AY84" s="35"/>
+      <c r="AZ84" s="36"/>
     </row>
     <row r="85" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="24"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="56"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="56"/>
-      <c r="K85" s="56"/>
-      <c r="L85" s="56"/>
-      <c r="M85" s="56"/>
-      <c r="N85" s="56"/>
-      <c r="O85" s="56"/>
-      <c r="P85" s="56"/>
-      <c r="Q85" s="56"/>
-      <c r="R85" s="56"/>
-      <c r="S85" s="56"/>
-      <c r="T85" s="56"/>
-      <c r="U85" s="56"/>
-      <c r="V85" s="56"/>
-      <c r="W85" s="56"/>
-      <c r="X85" s="56"/>
-      <c r="Y85" s="56"/>
-      <c r="Z85" s="56"/>
-      <c r="AA85" s="56"/>
-      <c r="AB85" s="56"/>
-      <c r="AC85" s="56"/>
-      <c r="AD85" s="56"/>
-      <c r="AE85" s="56"/>
-      <c r="AF85" s="56"/>
-      <c r="AG85" s="56"/>
-      <c r="AH85" s="56"/>
-      <c r="AI85" s="56"/>
-      <c r="AJ85" s="56"/>
-      <c r="AK85" s="56"/>
-      <c r="AL85" s="56"/>
-      <c r="AM85" s="56"/>
-      <c r="AN85" s="56"/>
-      <c r="AO85" s="56"/>
-      <c r="AP85" s="57"/>
-      <c r="AQ85" s="55"/>
-      <c r="AR85" s="56"/>
-      <c r="AS85" s="56"/>
-      <c r="AT85" s="56"/>
-      <c r="AU85" s="56"/>
-      <c r="AV85" s="56"/>
-      <c r="AW85" s="56"/>
-      <c r="AX85" s="56"/>
-      <c r="AY85" s="56"/>
-      <c r="AZ85" s="57"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
+      <c r="Q85" s="35"/>
+      <c r="R85" s="35"/>
+      <c r="S85" s="35"/>
+      <c r="T85" s="35"/>
+      <c r="U85" s="35"/>
+      <c r="V85" s="35"/>
+      <c r="W85" s="35"/>
+      <c r="X85" s="35"/>
+      <c r="Y85" s="35"/>
+      <c r="Z85" s="35"/>
+      <c r="AA85" s="35"/>
+      <c r="AB85" s="35"/>
+      <c r="AC85" s="35"/>
+      <c r="AD85" s="35"/>
+      <c r="AE85" s="35"/>
+      <c r="AF85" s="35"/>
+      <c r="AG85" s="35"/>
+      <c r="AH85" s="35"/>
+      <c r="AI85" s="35"/>
+      <c r="AJ85" s="35"/>
+      <c r="AK85" s="35"/>
+      <c r="AL85" s="35"/>
+      <c r="AM85" s="35"/>
+      <c r="AN85" s="35"/>
+      <c r="AO85" s="35"/>
+      <c r="AP85" s="36"/>
+      <c r="AQ85" s="34"/>
+      <c r="AR85" s="35"/>
+      <c r="AS85" s="35"/>
+      <c r="AT85" s="35"/>
+      <c r="AU85" s="35"/>
+      <c r="AV85" s="35"/>
+      <c r="AW85" s="35"/>
+      <c r="AX85" s="35"/>
+      <c r="AY85" s="35"/>
+      <c r="AZ85" s="36"/>
     </row>
     <row r="86" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="24"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="56"/>
-      <c r="I86" s="56"/>
-      <c r="J86" s="56"/>
-      <c r="K86" s="56"/>
-      <c r="L86" s="56"/>
-      <c r="M86" s="56"/>
-      <c r="N86" s="56"/>
-      <c r="O86" s="56"/>
-      <c r="P86" s="56"/>
-      <c r="Q86" s="56"/>
-      <c r="R86" s="56"/>
-      <c r="S86" s="56"/>
-      <c r="T86" s="56"/>
-      <c r="U86" s="56"/>
-      <c r="V86" s="56"/>
-      <c r="W86" s="56"/>
-      <c r="X86" s="56"/>
-      <c r="Y86" s="56"/>
-      <c r="Z86" s="56"/>
-      <c r="AA86" s="56"/>
-      <c r="AB86" s="56"/>
-      <c r="AC86" s="56"/>
-      <c r="AD86" s="56"/>
-      <c r="AE86" s="56"/>
-      <c r="AF86" s="56"/>
-      <c r="AG86" s="56"/>
-      <c r="AH86" s="56"/>
-      <c r="AI86" s="56"/>
-      <c r="AJ86" s="56"/>
-      <c r="AK86" s="56"/>
-      <c r="AL86" s="56"/>
-      <c r="AM86" s="56"/>
-      <c r="AN86" s="56"/>
-      <c r="AO86" s="56"/>
-      <c r="AP86" s="57"/>
-      <c r="AQ86" s="55"/>
-      <c r="AR86" s="56"/>
-      <c r="AS86" s="56"/>
-      <c r="AT86" s="56"/>
-      <c r="AU86" s="56"/>
-      <c r="AV86" s="56"/>
-      <c r="AW86" s="56"/>
-      <c r="AX86" s="56"/>
-      <c r="AY86" s="56"/>
-      <c r="AZ86" s="57"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="35"/>
+      <c r="T86" s="35"/>
+      <c r="U86" s="35"/>
+      <c r="V86" s="35"/>
+      <c r="W86" s="35"/>
+      <c r="X86" s="35"/>
+      <c r="Y86" s="35"/>
+      <c r="Z86" s="35"/>
+      <c r="AA86" s="35"/>
+      <c r="AB86" s="35"/>
+      <c r="AC86" s="35"/>
+      <c r="AD86" s="35"/>
+      <c r="AE86" s="35"/>
+      <c r="AF86" s="35"/>
+      <c r="AG86" s="35"/>
+      <c r="AH86" s="35"/>
+      <c r="AI86" s="35"/>
+      <c r="AJ86" s="35"/>
+      <c r="AK86" s="35"/>
+      <c r="AL86" s="35"/>
+      <c r="AM86" s="35"/>
+      <c r="AN86" s="35"/>
+      <c r="AO86" s="35"/>
+      <c r="AP86" s="36"/>
+      <c r="AQ86" s="34"/>
+      <c r="AR86" s="35"/>
+      <c r="AS86" s="35"/>
+      <c r="AT86" s="35"/>
+      <c r="AU86" s="35"/>
+      <c r="AV86" s="35"/>
+      <c r="AW86" s="35"/>
+      <c r="AX86" s="35"/>
+      <c r="AY86" s="35"/>
+      <c r="AZ86" s="36"/>
     </row>
     <row r="87" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C87" s="35"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="56"/>
-      <c r="K87" s="56"/>
-      <c r="L87" s="56"/>
-      <c r="M87" s="56"/>
-      <c r="N87" s="56"/>
-      <c r="O87" s="56"/>
-      <c r="P87" s="56"/>
-      <c r="Q87" s="56"/>
-      <c r="R87" s="56"/>
-      <c r="S87" s="56"/>
-      <c r="T87" s="56"/>
-      <c r="U87" s="56"/>
-      <c r="V87" s="56"/>
-      <c r="W87" s="56"/>
-      <c r="X87" s="56"/>
-      <c r="Y87" s="56"/>
-      <c r="Z87" s="56"/>
-      <c r="AA87" s="56"/>
-      <c r="AB87" s="56"/>
-      <c r="AC87" s="56"/>
-      <c r="AD87" s="56"/>
-      <c r="AE87" s="56"/>
-      <c r="AF87" s="56"/>
-      <c r="AG87" s="56"/>
-      <c r="AH87" s="56"/>
-      <c r="AI87" s="56"/>
-      <c r="AJ87" s="56"/>
-      <c r="AK87" s="56"/>
-      <c r="AL87" s="56"/>
-      <c r="AM87" s="56"/>
-      <c r="AN87" s="56"/>
-      <c r="AO87" s="56"/>
-      <c r="AP87" s="57"/>
-      <c r="AQ87" s="55"/>
-      <c r="AR87" s="56"/>
-      <c r="AS87" s="56"/>
-      <c r="AT87" s="56"/>
-      <c r="AU87" s="56"/>
-      <c r="AV87" s="56"/>
-      <c r="AW87" s="56"/>
-      <c r="AX87" s="56"/>
-      <c r="AY87" s="56"/>
-      <c r="AZ87" s="57"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
+      <c r="Q87" s="35"/>
+      <c r="R87" s="35"/>
+      <c r="S87" s="35"/>
+      <c r="T87" s="35"/>
+      <c r="U87" s="35"/>
+      <c r="V87" s="35"/>
+      <c r="W87" s="35"/>
+      <c r="X87" s="35"/>
+      <c r="Y87" s="35"/>
+      <c r="Z87" s="35"/>
+      <c r="AA87" s="35"/>
+      <c r="AB87" s="35"/>
+      <c r="AC87" s="35"/>
+      <c r="AD87" s="35"/>
+      <c r="AE87" s="35"/>
+      <c r="AF87" s="35"/>
+      <c r="AG87" s="35"/>
+      <c r="AH87" s="35"/>
+      <c r="AI87" s="35"/>
+      <c r="AJ87" s="35"/>
+      <c r="AK87" s="35"/>
+      <c r="AL87" s="35"/>
+      <c r="AM87" s="35"/>
+      <c r="AN87" s="35"/>
+      <c r="AO87" s="35"/>
+      <c r="AP87" s="36"/>
+      <c r="AQ87" s="34"/>
+      <c r="AR87" s="35"/>
+      <c r="AS87" s="35"/>
+      <c r="AT87" s="35"/>
+      <c r="AU87" s="35"/>
+      <c r="AV87" s="35"/>
+      <c r="AW87" s="35"/>
+      <c r="AX87" s="35"/>
+      <c r="AY87" s="35"/>
+      <c r="AZ87" s="36"/>
     </row>
     <row r="88" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="36"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="59"/>
-      <c r="G88" s="59"/>
-      <c r="H88" s="59"/>
-      <c r="I88" s="59"/>
-      <c r="J88" s="59"/>
-      <c r="K88" s="59"/>
-      <c r="L88" s="59"/>
-      <c r="M88" s="59"/>
-      <c r="N88" s="59"/>
-      <c r="O88" s="59"/>
-      <c r="P88" s="59"/>
-      <c r="Q88" s="59"/>
-      <c r="R88" s="59"/>
-      <c r="S88" s="59"/>
-      <c r="T88" s="59"/>
-      <c r="U88" s="59"/>
-      <c r="V88" s="59"/>
-      <c r="W88" s="59"/>
-      <c r="X88" s="59"/>
-      <c r="Y88" s="59"/>
-      <c r="Z88" s="59"/>
-      <c r="AA88" s="59"/>
-      <c r="AB88" s="59"/>
-      <c r="AC88" s="59"/>
-      <c r="AD88" s="59"/>
-      <c r="AE88" s="59"/>
-      <c r="AF88" s="59"/>
-      <c r="AG88" s="59"/>
-      <c r="AH88" s="59"/>
-      <c r="AI88" s="59"/>
-      <c r="AJ88" s="59"/>
-      <c r="AK88" s="59"/>
-      <c r="AL88" s="59"/>
-      <c r="AM88" s="59"/>
-      <c r="AN88" s="59"/>
-      <c r="AO88" s="59"/>
-      <c r="AP88" s="60"/>
-      <c r="AQ88" s="58"/>
-      <c r="AR88" s="59"/>
-      <c r="AS88" s="59"/>
-      <c r="AT88" s="59"/>
-      <c r="AU88" s="59"/>
-      <c r="AV88" s="59"/>
-      <c r="AW88" s="59"/>
-      <c r="AX88" s="59"/>
-      <c r="AY88" s="59"/>
-      <c r="AZ88" s="60"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="38"/>
+      <c r="M88" s="38"/>
+      <c r="N88" s="38"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
+      <c r="Q88" s="38"/>
+      <c r="R88" s="38"/>
+      <c r="S88" s="38"/>
+      <c r="T88" s="38"/>
+      <c r="U88" s="38"/>
+      <c r="V88" s="38"/>
+      <c r="W88" s="38"/>
+      <c r="X88" s="38"/>
+      <c r="Y88" s="38"/>
+      <c r="Z88" s="38"/>
+      <c r="AA88" s="38"/>
+      <c r="AB88" s="38"/>
+      <c r="AC88" s="38"/>
+      <c r="AD88" s="38"/>
+      <c r="AE88" s="38"/>
+      <c r="AF88" s="38"/>
+      <c r="AG88" s="38"/>
+      <c r="AH88" s="38"/>
+      <c r="AI88" s="38"/>
+      <c r="AJ88" s="38"/>
+      <c r="AK88" s="38"/>
+      <c r="AL88" s="38"/>
+      <c r="AM88" s="38"/>
+      <c r="AN88" s="38"/>
+      <c r="AO88" s="38"/>
+      <c r="AP88" s="39"/>
+      <c r="AQ88" s="37"/>
+      <c r="AR88" s="38"/>
+      <c r="AS88" s="38"/>
+      <c r="AT88" s="38"/>
+      <c r="AU88" s="38"/>
+      <c r="AV88" s="38"/>
+      <c r="AW88" s="38"/>
+      <c r="AX88" s="38"/>
+      <c r="AY88" s="38"/>
+      <c r="AZ88" s="39"/>
     </row>
     <row r="89" spans="2:52" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="70" t="s">
+      <c r="B89" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="70"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="70"/>
-      <c r="F89" s="70"/>
-      <c r="G89" s="70"/>
-      <c r="H89" s="70"/>
-      <c r="I89" s="70"/>
-      <c r="J89" s="70"/>
-      <c r="K89" s="70"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="58"/>
+      <c r="J89" s="58"/>
+      <c r="K89" s="58"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
@@ -10177,16 +11726,16 @@
       <c r="AL89" s="7"/>
     </row>
     <row r="90" spans="2:52" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="40"/>
-      <c r="G90" s="40"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="40"/>
-      <c r="K90" s="40"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="59"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="59"/>
+      <c r="K90" s="59"/>
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
@@ -10195,216 +11744,216 @@
       <c r="AL90" s="8"/>
     </row>
     <row r="91" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="43"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="44"/>
-      <c r="K91" s="44"/>
-      <c r="L91" s="44"/>
-      <c r="M91" s="44"/>
-      <c r="N91" s="44"/>
-      <c r="O91" s="44"/>
-      <c r="P91" s="44"/>
-      <c r="Q91" s="44"/>
-      <c r="R91" s="44"/>
-      <c r="S91" s="44"/>
-      <c r="T91" s="44"/>
-      <c r="U91" s="44"/>
-      <c r="V91" s="44"/>
-      <c r="W91" s="44"/>
-      <c r="X91" s="44"/>
-      <c r="Y91" s="44"/>
-      <c r="Z91" s="44"/>
-      <c r="AA91" s="44"/>
-      <c r="AB91" s="44"/>
-      <c r="AC91" s="44"/>
-      <c r="AD91" s="44"/>
-      <c r="AE91" s="44"/>
-      <c r="AF91" s="44"/>
-      <c r="AG91" s="44"/>
-      <c r="AH91" s="44"/>
-      <c r="AI91" s="44"/>
-      <c r="AJ91" s="44"/>
-      <c r="AK91" s="44"/>
-      <c r="AL91" s="44"/>
-      <c r="AM91" s="44"/>
-      <c r="AN91" s="44"/>
-      <c r="AO91" s="44"/>
-      <c r="AP91" s="44"/>
-      <c r="AQ91" s="44"/>
-      <c r="AR91" s="44"/>
-      <c r="AS91" s="44"/>
-      <c r="AT91" s="44"/>
-      <c r="AU91" s="44"/>
-      <c r="AV91" s="44"/>
-      <c r="AW91" s="44"/>
-      <c r="AX91" s="44"/>
-      <c r="AY91" s="44"/>
-      <c r="AZ91" s="45"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="23"/>
+      <c r="P91" s="23"/>
+      <c r="Q91" s="23"/>
+      <c r="R91" s="23"/>
+      <c r="S91" s="23"/>
+      <c r="T91" s="23"/>
+      <c r="U91" s="23"/>
+      <c r="V91" s="23"/>
+      <c r="W91" s="23"/>
+      <c r="X91" s="23"/>
+      <c r="Y91" s="23"/>
+      <c r="Z91" s="23"/>
+      <c r="AA91" s="23"/>
+      <c r="AB91" s="23"/>
+      <c r="AC91" s="23"/>
+      <c r="AD91" s="23"/>
+      <c r="AE91" s="23"/>
+      <c r="AF91" s="23"/>
+      <c r="AG91" s="23"/>
+      <c r="AH91" s="23"/>
+      <c r="AI91" s="23"/>
+      <c r="AJ91" s="23"/>
+      <c r="AK91" s="23"/>
+      <c r="AL91" s="23"/>
+      <c r="AM91" s="23"/>
+      <c r="AN91" s="23"/>
+      <c r="AO91" s="23"/>
+      <c r="AP91" s="23"/>
+      <c r="AQ91" s="23"/>
+      <c r="AR91" s="23"/>
+      <c r="AS91" s="23"/>
+      <c r="AT91" s="23"/>
+      <c r="AU91" s="23"/>
+      <c r="AV91" s="23"/>
+      <c r="AW91" s="23"/>
+      <c r="AX91" s="23"/>
+      <c r="AY91" s="23"/>
+      <c r="AZ91" s="24"/>
     </row>
     <row r="92" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="46"/>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="47"/>
-      <c r="N92" s="47"/>
-      <c r="O92" s="47"/>
-      <c r="P92" s="47"/>
-      <c r="Q92" s="47"/>
-      <c r="R92" s="47"/>
-      <c r="S92" s="47"/>
-      <c r="T92" s="47"/>
-      <c r="U92" s="47"/>
-      <c r="V92" s="47"/>
-      <c r="W92" s="47"/>
-      <c r="X92" s="47"/>
-      <c r="Y92" s="47"/>
-      <c r="Z92" s="47"/>
-      <c r="AA92" s="47"/>
-      <c r="AB92" s="47"/>
-      <c r="AC92" s="47"/>
-      <c r="AD92" s="47"/>
-      <c r="AE92" s="47"/>
-      <c r="AF92" s="47"/>
-      <c r="AG92" s="47"/>
-      <c r="AH92" s="47"/>
-      <c r="AI92" s="47"/>
-      <c r="AJ92" s="47"/>
-      <c r="AK92" s="47"/>
-      <c r="AL92" s="47"/>
-      <c r="AM92" s="47"/>
-      <c r="AN92" s="47"/>
-      <c r="AO92" s="47"/>
-      <c r="AP92" s="47"/>
-      <c r="AQ92" s="47"/>
-      <c r="AR92" s="47"/>
-      <c r="AS92" s="47"/>
-      <c r="AT92" s="47"/>
-      <c r="AU92" s="47"/>
-      <c r="AV92" s="47"/>
-      <c r="AW92" s="47"/>
-      <c r="AX92" s="47"/>
-      <c r="AY92" s="47"/>
-      <c r="AZ92" s="48"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="26"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="26"/>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="26"/>
+      <c r="R92" s="26"/>
+      <c r="S92" s="26"/>
+      <c r="T92" s="26"/>
+      <c r="U92" s="26"/>
+      <c r="V92" s="26"/>
+      <c r="W92" s="26"/>
+      <c r="X92" s="26"/>
+      <c r="Y92" s="26"/>
+      <c r="Z92" s="26"/>
+      <c r="AA92" s="26"/>
+      <c r="AB92" s="26"/>
+      <c r="AC92" s="26"/>
+      <c r="AD92" s="26"/>
+      <c r="AE92" s="26"/>
+      <c r="AF92" s="26"/>
+      <c r="AG92" s="26"/>
+      <c r="AH92" s="26"/>
+      <c r="AI92" s="26"/>
+      <c r="AJ92" s="26"/>
+      <c r="AK92" s="26"/>
+      <c r="AL92" s="26"/>
+      <c r="AM92" s="26"/>
+      <c r="AN92" s="26"/>
+      <c r="AO92" s="26"/>
+      <c r="AP92" s="26"/>
+      <c r="AQ92" s="26"/>
+      <c r="AR92" s="26"/>
+      <c r="AS92" s="26"/>
+      <c r="AT92" s="26"/>
+      <c r="AU92" s="26"/>
+      <c r="AV92" s="26"/>
+      <c r="AW92" s="26"/>
+      <c r="AX92" s="26"/>
+      <c r="AY92" s="26"/>
+      <c r="AZ92" s="27"/>
     </row>
     <row r="93" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="46"/>
-      <c r="C93" s="47"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47"/>
-      <c r="J93" s="47"/>
-      <c r="K93" s="47"/>
-      <c r="L93" s="47"/>
-      <c r="M93" s="47"/>
-      <c r="N93" s="47"/>
-      <c r="O93" s="47"/>
-      <c r="P93" s="47"/>
-      <c r="Q93" s="47"/>
-      <c r="R93" s="47"/>
-      <c r="S93" s="47"/>
-      <c r="T93" s="47"/>
-      <c r="U93" s="47"/>
-      <c r="V93" s="47"/>
-      <c r="W93" s="47"/>
-      <c r="X93" s="47"/>
-      <c r="Y93" s="47"/>
-      <c r="Z93" s="47"/>
-      <c r="AA93" s="47"/>
-      <c r="AB93" s="47"/>
-      <c r="AC93" s="47"/>
-      <c r="AD93" s="47"/>
-      <c r="AE93" s="47"/>
-      <c r="AF93" s="47"/>
-      <c r="AG93" s="47"/>
-      <c r="AH93" s="47"/>
-      <c r="AI93" s="47"/>
-      <c r="AJ93" s="47"/>
-      <c r="AK93" s="47"/>
-      <c r="AL93" s="47"/>
-      <c r="AM93" s="47"/>
-      <c r="AN93" s="47"/>
-      <c r="AO93" s="47"/>
-      <c r="AP93" s="47"/>
-      <c r="AQ93" s="47"/>
-      <c r="AR93" s="47"/>
-      <c r="AS93" s="47"/>
-      <c r="AT93" s="47"/>
-      <c r="AU93" s="47"/>
-      <c r="AV93" s="47"/>
-      <c r="AW93" s="47"/>
-      <c r="AX93" s="47"/>
-      <c r="AY93" s="47"/>
-      <c r="AZ93" s="48"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="26"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="26"/>
+      <c r="P93" s="26"/>
+      <c r="Q93" s="26"/>
+      <c r="R93" s="26"/>
+      <c r="S93" s="26"/>
+      <c r="T93" s="26"/>
+      <c r="U93" s="26"/>
+      <c r="V93" s="26"/>
+      <c r="W93" s="26"/>
+      <c r="X93" s="26"/>
+      <c r="Y93" s="26"/>
+      <c r="Z93" s="26"/>
+      <c r="AA93" s="26"/>
+      <c r="AB93" s="26"/>
+      <c r="AC93" s="26"/>
+      <c r="AD93" s="26"/>
+      <c r="AE93" s="26"/>
+      <c r="AF93" s="26"/>
+      <c r="AG93" s="26"/>
+      <c r="AH93" s="26"/>
+      <c r="AI93" s="26"/>
+      <c r="AJ93" s="26"/>
+      <c r="AK93" s="26"/>
+      <c r="AL93" s="26"/>
+      <c r="AM93" s="26"/>
+      <c r="AN93" s="26"/>
+      <c r="AO93" s="26"/>
+      <c r="AP93" s="26"/>
+      <c r="AQ93" s="26"/>
+      <c r="AR93" s="26"/>
+      <c r="AS93" s="26"/>
+      <c r="AT93" s="26"/>
+      <c r="AU93" s="26"/>
+      <c r="AV93" s="26"/>
+      <c r="AW93" s="26"/>
+      <c r="AX93" s="26"/>
+      <c r="AY93" s="26"/>
+      <c r="AZ93" s="27"/>
     </row>
     <row r="94" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="49"/>
-      <c r="C94" s="50"/>
-      <c r="D94" s="50"/>
-      <c r="E94" s="50"/>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50"/>
-      <c r="H94" s="50"/>
-      <c r="I94" s="50"/>
-      <c r="J94" s="50"/>
-      <c r="K94" s="50"/>
-      <c r="L94" s="50"/>
-      <c r="M94" s="50"/>
-      <c r="N94" s="50"/>
-      <c r="O94" s="50"/>
-      <c r="P94" s="50"/>
-      <c r="Q94" s="50"/>
-      <c r="R94" s="50"/>
-      <c r="S94" s="50"/>
-      <c r="T94" s="50"/>
-      <c r="U94" s="50"/>
-      <c r="V94" s="50"/>
-      <c r="W94" s="50"/>
-      <c r="X94" s="50"/>
-      <c r="Y94" s="50"/>
-      <c r="Z94" s="50"/>
-      <c r="AA94" s="50"/>
-      <c r="AB94" s="50"/>
-      <c r="AC94" s="50"/>
-      <c r="AD94" s="50"/>
-      <c r="AE94" s="50"/>
-      <c r="AF94" s="50"/>
-      <c r="AG94" s="50"/>
-      <c r="AH94" s="50"/>
-      <c r="AI94" s="50"/>
-      <c r="AJ94" s="50"/>
-      <c r="AK94" s="50"/>
-      <c r="AL94" s="50"/>
-      <c r="AM94" s="50"/>
-      <c r="AN94" s="50"/>
-      <c r="AO94" s="50"/>
-      <c r="AP94" s="50"/>
-      <c r="AQ94" s="50"/>
-      <c r="AR94" s="50"/>
-      <c r="AS94" s="50"/>
-      <c r="AT94" s="50"/>
-      <c r="AU94" s="50"/>
-      <c r="AV94" s="50"/>
-      <c r="AW94" s="50"/>
-      <c r="AX94" s="50"/>
-      <c r="AY94" s="50"/>
-      <c r="AZ94" s="51"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="29"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="29"/>
+      <c r="M94" s="29"/>
+      <c r="N94" s="29"/>
+      <c r="O94" s="29"/>
+      <c r="P94" s="29"/>
+      <c r="Q94" s="29"/>
+      <c r="R94" s="29"/>
+      <c r="S94" s="29"/>
+      <c r="T94" s="29"/>
+      <c r="U94" s="29"/>
+      <c r="V94" s="29"/>
+      <c r="W94" s="29"/>
+      <c r="X94" s="29"/>
+      <c r="Y94" s="29"/>
+      <c r="Z94" s="29"/>
+      <c r="AA94" s="29"/>
+      <c r="AB94" s="29"/>
+      <c r="AC94" s="29"/>
+      <c r="AD94" s="29"/>
+      <c r="AE94" s="29"/>
+      <c r="AF94" s="29"/>
+      <c r="AG94" s="29"/>
+      <c r="AH94" s="29"/>
+      <c r="AI94" s="29"/>
+      <c r="AJ94" s="29"/>
+      <c r="AK94" s="29"/>
+      <c r="AL94" s="29"/>
+      <c r="AM94" s="29"/>
+      <c r="AN94" s="29"/>
+      <c r="AO94" s="29"/>
+      <c r="AP94" s="29"/>
+      <c r="AQ94" s="29"/>
+      <c r="AR94" s="29"/>
+      <c r="AS94" s="29"/>
+      <c r="AT94" s="29"/>
+      <c r="AU94" s="29"/>
+      <c r="AV94" s="29"/>
+      <c r="AW94" s="29"/>
+      <c r="AX94" s="29"/>
+      <c r="AY94" s="29"/>
+      <c r="AZ94" s="30"/>
     </row>
     <row r="95" spans="2:52" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="2:52" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10417,6 +11966,28 @@
     <row r="103" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B63:C70"/>
+    <mergeCell ref="B73:C75"/>
+    <mergeCell ref="B76:C78"/>
+    <mergeCell ref="B44:C46"/>
+    <mergeCell ref="B57:C59"/>
+    <mergeCell ref="B60:C62"/>
+    <mergeCell ref="B47:C54"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="B41:C43"/>
+    <mergeCell ref="AG1:AZ2"/>
+    <mergeCell ref="T1:AF2"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="AB8:AK8"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B28:C30"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B15:C22"/>
+    <mergeCell ref="B31:C38"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="B25:C27"/>
     <mergeCell ref="B91:AZ94"/>
     <mergeCell ref="B4:AZ7"/>
     <mergeCell ref="D15:AP24"/>
@@ -10433,28 +12004,6 @@
     <mergeCell ref="B87:C88"/>
     <mergeCell ref="D79:AP88"/>
     <mergeCell ref="AQ79:AZ88"/>
-    <mergeCell ref="B41:C43"/>
-    <mergeCell ref="AG1:AZ2"/>
-    <mergeCell ref="T1:AF2"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="AB8:AK8"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="B28:C30"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B15:C22"/>
-    <mergeCell ref="B31:C38"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="B25:C27"/>
-    <mergeCell ref="B63:C70"/>
-    <mergeCell ref="B73:C75"/>
-    <mergeCell ref="B76:C78"/>
-    <mergeCell ref="B44:C46"/>
-    <mergeCell ref="B57:C59"/>
-    <mergeCell ref="B60:C62"/>
-    <mergeCell ref="B47:C54"/>
-    <mergeCell ref="B55:C56"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions verticalCentered="1"/>
@@ -10466,21 +12015,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D5379252AF64A748BDD859550927C367" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2116e7e1946d68e35c0eaf3b6cc07ccd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67bb9ec5-9b1b-486c-a632-e2dd655875ec" xmlns:ns3="3fd75491-3ac1-4e58-b8d5-9038dca3fcdc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bef8a7803ea145e855fe7a4317e18dd6" ns2:_="" ns3:_="">
     <xsd:import namespace="67bb9ec5-9b1b-486c-a632-e2dd655875ec"/>
@@ -10697,10 +12231,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA46E2CD-519D-47DE-B196-0DD50840862B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{847108D8-BB9B-483A-861E-97C086A0D0E6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="67bb9ec5-9b1b-486c-a632-e2dd655875ec"/>
+    <ds:schemaRef ds:uri="3fd75491-3ac1-4e58-b8d5-9038dca3fcdc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10723,20 +12283,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{847108D8-BB9B-483A-861E-97C086A0D0E6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA46E2CD-519D-47DE-B196-0DD50840862B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="67bb9ec5-9b1b-486c-a632-e2dd655875ec"/>
-    <ds:schemaRef ds:uri="3fd75491-3ac1-4e58-b8d5-9038dca3fcdc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/【研修中】_日次報告書研修日誌林康輝.xlsx
+++ b/【研修中】_日次報告書研修日誌林康輝.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81805\Desktop\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.utsunomiya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B872370-E284-4479-BE38-CEF9C007692D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018F8A78-F93B-4BBC-961C-60BD8BB798D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="1920" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="研修日誌" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t xml:space="preserve"> 研　修　日　誌 </t>
     <rPh sb="1" eb="2">
@@ -581,6 +581,70 @@
     </rPh>
     <rPh sb="169" eb="170">
       <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>調べて必要な情報を得るというのも一つの技術です。仕事をするとき、特に新しいことをするときには重要なスキルです。また、出てきた情報の真偽を見極める力も必要です。SNSに振り回されないためにもそうした力を磨いてくださいね!</t>
+    <rPh sb="0" eb="1">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>シンギ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ミキワ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ミガ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -912,6 +976,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1028,9 +1095,6 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7724,8 +7788,8 @@
   </sheetPr>
   <dimension ref="A1:BS103"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AQ63" sqref="AQ63:AZ72"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AQ74" sqref="AQ74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="9.9499999999999993" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -7752,59 +7816,59 @@
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
       <c r="S1" s="20"/>
-      <c r="T1" s="73" t="s">
+      <c r="T1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="72" t="s">
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="72"/>
-      <c r="AZ1" s="72"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="73"/>
+      <c r="AW1" s="73"/>
+      <c r="AX1" s="73"/>
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="73"/>
       <c r="BA1" s="14"/>
     </row>
     <row r="2" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
@@ -7813,51 +7877,51 @@
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
-      <c r="AZ2" s="72"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="73"/>
+      <c r="AW2" s="73"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="73"/>
+      <c r="AZ2" s="73"/>
     </row>
     <row r="3" spans="1:53" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -8089,38 +8153,38 @@
       <c r="AZ7" s="30"/>
     </row>
     <row r="8" spans="1:53" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="AA8" s="11"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="59"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="59"/>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="59"/>
-      <c r="AJ8" s="59"/>
-      <c r="AK8" s="59"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="60"/>
+      <c r="AE8" s="60"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="60"/>
+      <c r="AH8" s="60"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="60"/>
+      <c r="AK8" s="60"/>
       <c r="AL8" s="8"/>
     </row>
     <row r="9" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="69"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="12"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -8172,22 +8236,22 @@
       <c r="AZ9" s="2"/>
     </row>
     <row r="10" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="70"/>
-      <c r="C10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="21"/>
       <c r="AZ10" s="3"/>
     </row>
     <row r="11" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="70"/>
-      <c r="C11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="15"/>
       <c r="AZ11" s="3"/>
     </row>
     <row r="12" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="76"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -8239,14 +8303,14 @@
       <c r="AZ12" s="18"/>
     </row>
     <row r="13" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="15"/>
       <c r="AZ13" s="3"/>
     </row>
     <row r="14" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
@@ -8298,10 +8362,10 @@
       <c r="AZ14" s="6"/>
     </row>
     <row r="15" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="79">
+      <c r="B15" s="80">
         <v>44060</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="31" t="s">
         <v>12</v>
       </c>
@@ -8346,19 +8410,19 @@
       <c r="AQ15" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AR15" s="41"/>
-      <c r="AS15" s="41"/>
-      <c r="AT15" s="41"/>
-      <c r="AU15" s="41"/>
-      <c r="AV15" s="41"/>
-      <c r="AW15" s="41"/>
-      <c r="AX15" s="41"/>
-      <c r="AY15" s="41"/>
-      <c r="AZ15" s="42"/>
+      <c r="AR15" s="42"/>
+      <c r="AS15" s="42"/>
+      <c r="AT15" s="42"/>
+      <c r="AU15" s="42"/>
+      <c r="AV15" s="42"/>
+      <c r="AW15" s="42"/>
+      <c r="AX15" s="42"/>
+      <c r="AY15" s="42"/>
+      <c r="AZ15" s="43"/>
     </row>
     <row r="16" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="34"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
@@ -8398,20 +8462,20 @@
       <c r="AN16" s="35"/>
       <c r="AO16" s="35"/>
       <c r="AP16" s="36"/>
-      <c r="AQ16" s="43"/>
-      <c r="AR16" s="44"/>
-      <c r="AS16" s="44"/>
-      <c r="AT16" s="44"/>
-      <c r="AU16" s="44"/>
-      <c r="AV16" s="44"/>
-      <c r="AW16" s="44"/>
-      <c r="AX16" s="44"/>
-      <c r="AY16" s="44"/>
-      <c r="AZ16" s="45"/>
+      <c r="AQ16" s="44"/>
+      <c r="AR16" s="45"/>
+      <c r="AS16" s="45"/>
+      <c r="AT16" s="45"/>
+      <c r="AU16" s="45"/>
+      <c r="AV16" s="45"/>
+      <c r="AW16" s="45"/>
+      <c r="AX16" s="45"/>
+      <c r="AY16" s="45"/>
+      <c r="AZ16" s="46"/>
     </row>
     <row r="17" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="34"/>
       <c r="E17" s="35"/>
       <c r="F17" s="35"/>
@@ -8451,20 +8515,20 @@
       <c r="AN17" s="35"/>
       <c r="AO17" s="35"/>
       <c r="AP17" s="36"/>
-      <c r="AQ17" s="43"/>
-      <c r="AR17" s="44"/>
-      <c r="AS17" s="44"/>
-      <c r="AT17" s="44"/>
-      <c r="AU17" s="44"/>
-      <c r="AV17" s="44"/>
-      <c r="AW17" s="44"/>
-      <c r="AX17" s="44"/>
-      <c r="AY17" s="44"/>
-      <c r="AZ17" s="45"/>
+      <c r="AQ17" s="44"/>
+      <c r="AR17" s="45"/>
+      <c r="AS17" s="45"/>
+      <c r="AT17" s="45"/>
+      <c r="AU17" s="45"/>
+      <c r="AV17" s="45"/>
+      <c r="AW17" s="45"/>
+      <c r="AX17" s="45"/>
+      <c r="AY17" s="45"/>
+      <c r="AZ17" s="46"/>
     </row>
     <row r="18" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="34"/>
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
@@ -8504,20 +8568,20 @@
       <c r="AN18" s="35"/>
       <c r="AO18" s="35"/>
       <c r="AP18" s="36"/>
-      <c r="AQ18" s="43"/>
-      <c r="AR18" s="44"/>
-      <c r="AS18" s="44"/>
-      <c r="AT18" s="44"/>
-      <c r="AU18" s="44"/>
-      <c r="AV18" s="44"/>
-      <c r="AW18" s="44"/>
-      <c r="AX18" s="44"/>
-      <c r="AY18" s="44"/>
-      <c r="AZ18" s="45"/>
+      <c r="AQ18" s="44"/>
+      <c r="AR18" s="45"/>
+      <c r="AS18" s="45"/>
+      <c r="AT18" s="45"/>
+      <c r="AU18" s="45"/>
+      <c r="AV18" s="45"/>
+      <c r="AW18" s="45"/>
+      <c r="AX18" s="45"/>
+      <c r="AY18" s="45"/>
+      <c r="AZ18" s="46"/>
     </row>
     <row r="19" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="34"/>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
@@ -8557,20 +8621,20 @@
       <c r="AN19" s="35"/>
       <c r="AO19" s="35"/>
       <c r="AP19" s="36"/>
-      <c r="AQ19" s="43"/>
-      <c r="AR19" s="44"/>
-      <c r="AS19" s="44"/>
-      <c r="AT19" s="44"/>
-      <c r="AU19" s="44"/>
-      <c r="AV19" s="44"/>
-      <c r="AW19" s="44"/>
-      <c r="AX19" s="44"/>
-      <c r="AY19" s="44"/>
-      <c r="AZ19" s="45"/>
+      <c r="AQ19" s="44"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
+      <c r="AT19" s="45"/>
+      <c r="AU19" s="45"/>
+      <c r="AV19" s="45"/>
+      <c r="AW19" s="45"/>
+      <c r="AX19" s="45"/>
+      <c r="AY19" s="45"/>
+      <c r="AZ19" s="46"/>
     </row>
     <row r="20" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="34"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
@@ -8610,20 +8674,20 @@
       <c r="AN20" s="35"/>
       <c r="AO20" s="35"/>
       <c r="AP20" s="36"/>
-      <c r="AQ20" s="43"/>
-      <c r="AR20" s="44"/>
-      <c r="AS20" s="44"/>
-      <c r="AT20" s="44"/>
-      <c r="AU20" s="44"/>
-      <c r="AV20" s="44"/>
-      <c r="AW20" s="44"/>
-      <c r="AX20" s="44"/>
-      <c r="AY20" s="44"/>
-      <c r="AZ20" s="45"/>
+      <c r="AQ20" s="44"/>
+      <c r="AR20" s="45"/>
+      <c r="AS20" s="45"/>
+      <c r="AT20" s="45"/>
+      <c r="AU20" s="45"/>
+      <c r="AV20" s="45"/>
+      <c r="AW20" s="45"/>
+      <c r="AX20" s="45"/>
+      <c r="AY20" s="45"/>
+      <c r="AZ20" s="46"/>
     </row>
     <row r="21" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="34"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
@@ -8663,20 +8727,20 @@
       <c r="AN21" s="35"/>
       <c r="AO21" s="35"/>
       <c r="AP21" s="36"/>
-      <c r="AQ21" s="43"/>
-      <c r="AR21" s="44"/>
-      <c r="AS21" s="44"/>
-      <c r="AT21" s="44"/>
-      <c r="AU21" s="44"/>
-      <c r="AV21" s="44"/>
-      <c r="AW21" s="44"/>
-      <c r="AX21" s="44"/>
-      <c r="AY21" s="44"/>
-      <c r="AZ21" s="45"/>
+      <c r="AQ21" s="44"/>
+      <c r="AR21" s="45"/>
+      <c r="AS21" s="45"/>
+      <c r="AT21" s="45"/>
+      <c r="AU21" s="45"/>
+      <c r="AV21" s="45"/>
+      <c r="AW21" s="45"/>
+      <c r="AX21" s="45"/>
+      <c r="AY21" s="45"/>
+      <c r="AZ21" s="46"/>
     </row>
     <row r="22" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="66"/>
-      <c r="C22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="34"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
@@ -8716,22 +8780,22 @@
       <c r="AN22" s="35"/>
       <c r="AO22" s="35"/>
       <c r="AP22" s="36"/>
-      <c r="AQ22" s="43"/>
-      <c r="AR22" s="44"/>
-      <c r="AS22" s="44"/>
-      <c r="AT22" s="44"/>
-      <c r="AU22" s="44"/>
-      <c r="AV22" s="44"/>
-      <c r="AW22" s="44"/>
-      <c r="AX22" s="44"/>
-      <c r="AY22" s="44"/>
-      <c r="AZ22" s="45"/>
+      <c r="AQ22" s="44"/>
+      <c r="AR22" s="45"/>
+      <c r="AS22" s="45"/>
+      <c r="AT22" s="45"/>
+      <c r="AU22" s="45"/>
+      <c r="AV22" s="45"/>
+      <c r="AW22" s="45"/>
+      <c r="AX22" s="45"/>
+      <c r="AY22" s="45"/>
+      <c r="AZ22" s="46"/>
     </row>
     <row r="23" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="61"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="34"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
@@ -8771,20 +8835,20 @@
       <c r="AN23" s="35"/>
       <c r="AO23" s="35"/>
       <c r="AP23" s="36"/>
-      <c r="AQ23" s="43"/>
-      <c r="AR23" s="44"/>
-      <c r="AS23" s="44"/>
-      <c r="AT23" s="44"/>
-      <c r="AU23" s="44"/>
-      <c r="AV23" s="44"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="45"/>
+      <c r="AQ23" s="44"/>
+      <c r="AR23" s="45"/>
+      <c r="AS23" s="45"/>
+      <c r="AT23" s="45"/>
+      <c r="AU23" s="45"/>
+      <c r="AV23" s="45"/>
+      <c r="AW23" s="45"/>
+      <c r="AX23" s="45"/>
+      <c r="AY23" s="45"/>
+      <c r="AZ23" s="46"/>
     </row>
     <row r="24" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
@@ -8824,22 +8888,22 @@
       <c r="AN24" s="38"/>
       <c r="AO24" s="38"/>
       <c r="AP24" s="39"/>
-      <c r="AQ24" s="46"/>
-      <c r="AR24" s="47"/>
-      <c r="AS24" s="47"/>
-      <c r="AT24" s="47"/>
-      <c r="AU24" s="47"/>
-      <c r="AV24" s="47"/>
-      <c r="AW24" s="47"/>
-      <c r="AX24" s="47"/>
-      <c r="AY24" s="47"/>
-      <c r="AZ24" s="48"/>
+      <c r="AQ24" s="47"/>
+      <c r="AR24" s="48"/>
+      <c r="AS24" s="48"/>
+      <c r="AT24" s="48"/>
+      <c r="AU24" s="48"/>
+      <c r="AV24" s="48"/>
+      <c r="AW24" s="48"/>
+      <c r="AX24" s="48"/>
+      <c r="AY24" s="48"/>
+      <c r="AZ24" s="49"/>
     </row>
     <row r="25" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="69"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="12"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -8891,22 +8955,22 @@
       <c r="AZ25" s="2"/>
     </row>
     <row r="26" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="70"/>
-      <c r="C26" s="71"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="15"/>
       <c r="AZ26" s="3"/>
     </row>
     <row r="27" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="70"/>
-      <c r="C27" s="71"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="15"/>
       <c r="AZ27" s="3"/>
     </row>
     <row r="28" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="76"/>
+      <c r="C28" s="77"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -8958,14 +9022,14 @@
       <c r="AZ28" s="18"/>
     </row>
     <row r="29" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="70"/>
-      <c r="C29" s="71"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="15"/>
       <c r="AZ29" s="3"/>
     </row>
     <row r="30" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="77"/>
-      <c r="C30" s="78"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
@@ -9017,10 +9081,10 @@
       <c r="AZ30" s="6"/>
     </row>
     <row r="31" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="65"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="31" t="s">
         <v>15</v>
       </c>
@@ -9065,19 +9129,19 @@
       <c r="AQ31" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="AR31" s="41"/>
-      <c r="AS31" s="41"/>
-      <c r="AT31" s="41"/>
-      <c r="AU31" s="41"/>
-      <c r="AV31" s="41"/>
-      <c r="AW31" s="41"/>
-      <c r="AX31" s="41"/>
-      <c r="AY31" s="41"/>
-      <c r="AZ31" s="42"/>
+      <c r="AR31" s="42"/>
+      <c r="AS31" s="42"/>
+      <c r="AT31" s="42"/>
+      <c r="AU31" s="42"/>
+      <c r="AV31" s="42"/>
+      <c r="AW31" s="42"/>
+      <c r="AX31" s="42"/>
+      <c r="AY31" s="42"/>
+      <c r="AZ31" s="43"/>
     </row>
     <row r="32" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="66"/>
-      <c r="C32" s="67"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="34"/>
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
@@ -9117,20 +9181,20 @@
       <c r="AN32" s="35"/>
       <c r="AO32" s="35"/>
       <c r="AP32" s="36"/>
-      <c r="AQ32" s="43"/>
-      <c r="AR32" s="44"/>
-      <c r="AS32" s="44"/>
-      <c r="AT32" s="44"/>
-      <c r="AU32" s="44"/>
-      <c r="AV32" s="44"/>
-      <c r="AW32" s="44"/>
-      <c r="AX32" s="44"/>
-      <c r="AY32" s="44"/>
-      <c r="AZ32" s="45"/>
+      <c r="AQ32" s="44"/>
+      <c r="AR32" s="45"/>
+      <c r="AS32" s="45"/>
+      <c r="AT32" s="45"/>
+      <c r="AU32" s="45"/>
+      <c r="AV32" s="45"/>
+      <c r="AW32" s="45"/>
+      <c r="AX32" s="45"/>
+      <c r="AY32" s="45"/>
+      <c r="AZ32" s="46"/>
     </row>
     <row r="33" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="66"/>
-      <c r="C33" s="67"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="34"/>
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
@@ -9170,20 +9234,20 @@
       <c r="AN33" s="35"/>
       <c r="AO33" s="35"/>
       <c r="AP33" s="36"/>
-      <c r="AQ33" s="43"/>
-      <c r="AR33" s="44"/>
-      <c r="AS33" s="44"/>
-      <c r="AT33" s="44"/>
-      <c r="AU33" s="44"/>
-      <c r="AV33" s="44"/>
-      <c r="AW33" s="44"/>
-      <c r="AX33" s="44"/>
-      <c r="AY33" s="44"/>
-      <c r="AZ33" s="45"/>
+      <c r="AQ33" s="44"/>
+      <c r="AR33" s="45"/>
+      <c r="AS33" s="45"/>
+      <c r="AT33" s="45"/>
+      <c r="AU33" s="45"/>
+      <c r="AV33" s="45"/>
+      <c r="AW33" s="45"/>
+      <c r="AX33" s="45"/>
+      <c r="AY33" s="45"/>
+      <c r="AZ33" s="46"/>
     </row>
     <row r="34" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="66"/>
-      <c r="C34" s="67"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="34"/>
       <c r="E34" s="35"/>
       <c r="F34" s="35"/>
@@ -9223,20 +9287,20 @@
       <c r="AN34" s="35"/>
       <c r="AO34" s="35"/>
       <c r="AP34" s="36"/>
-      <c r="AQ34" s="43"/>
-      <c r="AR34" s="44"/>
-      <c r="AS34" s="44"/>
-      <c r="AT34" s="44"/>
-      <c r="AU34" s="44"/>
-      <c r="AV34" s="44"/>
-      <c r="AW34" s="44"/>
-      <c r="AX34" s="44"/>
-      <c r="AY34" s="44"/>
-      <c r="AZ34" s="45"/>
+      <c r="AQ34" s="44"/>
+      <c r="AR34" s="45"/>
+      <c r="AS34" s="45"/>
+      <c r="AT34" s="45"/>
+      <c r="AU34" s="45"/>
+      <c r="AV34" s="45"/>
+      <c r="AW34" s="45"/>
+      <c r="AX34" s="45"/>
+      <c r="AY34" s="45"/>
+      <c r="AZ34" s="46"/>
     </row>
     <row r="35" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="66"/>
-      <c r="C35" s="67"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="34"/>
       <c r="E35" s="35"/>
       <c r="F35" s="35"/>
@@ -9276,20 +9340,20 @@
       <c r="AN35" s="35"/>
       <c r="AO35" s="35"/>
       <c r="AP35" s="36"/>
-      <c r="AQ35" s="43"/>
-      <c r="AR35" s="44"/>
-      <c r="AS35" s="44"/>
-      <c r="AT35" s="44"/>
-      <c r="AU35" s="44"/>
-      <c r="AV35" s="44"/>
-      <c r="AW35" s="44"/>
-      <c r="AX35" s="44"/>
-      <c r="AY35" s="44"/>
-      <c r="AZ35" s="45"/>
+      <c r="AQ35" s="44"/>
+      <c r="AR35" s="45"/>
+      <c r="AS35" s="45"/>
+      <c r="AT35" s="45"/>
+      <c r="AU35" s="45"/>
+      <c r="AV35" s="45"/>
+      <c r="AW35" s="45"/>
+      <c r="AX35" s="45"/>
+      <c r="AY35" s="45"/>
+      <c r="AZ35" s="46"/>
     </row>
     <row r="36" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="66"/>
-      <c r="C36" s="67"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="34"/>
       <c r="E36" s="35"/>
       <c r="F36" s="35"/>
@@ -9329,20 +9393,20 @@
       <c r="AN36" s="35"/>
       <c r="AO36" s="35"/>
       <c r="AP36" s="36"/>
-      <c r="AQ36" s="43"/>
-      <c r="AR36" s="44"/>
-      <c r="AS36" s="44"/>
-      <c r="AT36" s="44"/>
-      <c r="AU36" s="44"/>
-      <c r="AV36" s="44"/>
-      <c r="AW36" s="44"/>
-      <c r="AX36" s="44"/>
-      <c r="AY36" s="44"/>
-      <c r="AZ36" s="45"/>
+      <c r="AQ36" s="44"/>
+      <c r="AR36" s="45"/>
+      <c r="AS36" s="45"/>
+      <c r="AT36" s="45"/>
+      <c r="AU36" s="45"/>
+      <c r="AV36" s="45"/>
+      <c r="AW36" s="45"/>
+      <c r="AX36" s="45"/>
+      <c r="AY36" s="45"/>
+      <c r="AZ36" s="46"/>
     </row>
     <row r="37" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="66"/>
-      <c r="C37" s="67"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="34"/>
       <c r="E37" s="35"/>
       <c r="F37" s="35"/>
@@ -9382,20 +9446,20 @@
       <c r="AN37" s="35"/>
       <c r="AO37" s="35"/>
       <c r="AP37" s="36"/>
-      <c r="AQ37" s="43"/>
-      <c r="AR37" s="44"/>
-      <c r="AS37" s="44"/>
-      <c r="AT37" s="44"/>
-      <c r="AU37" s="44"/>
-      <c r="AV37" s="44"/>
-      <c r="AW37" s="44"/>
-      <c r="AX37" s="44"/>
-      <c r="AY37" s="44"/>
-      <c r="AZ37" s="45"/>
+      <c r="AQ37" s="44"/>
+      <c r="AR37" s="45"/>
+      <c r="AS37" s="45"/>
+      <c r="AT37" s="45"/>
+      <c r="AU37" s="45"/>
+      <c r="AV37" s="45"/>
+      <c r="AW37" s="45"/>
+      <c r="AX37" s="45"/>
+      <c r="AY37" s="45"/>
+      <c r="AZ37" s="46"/>
     </row>
     <row r="38" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="66"/>
-      <c r="C38" s="67"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="68"/>
       <c r="D38" s="34"/>
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
@@ -9435,22 +9499,22 @@
       <c r="AN38" s="35"/>
       <c r="AO38" s="35"/>
       <c r="AP38" s="36"/>
-      <c r="AQ38" s="43"/>
-      <c r="AR38" s="44"/>
-      <c r="AS38" s="44"/>
-      <c r="AT38" s="44"/>
-      <c r="AU38" s="44"/>
-      <c r="AV38" s="44"/>
-      <c r="AW38" s="44"/>
-      <c r="AX38" s="44"/>
-      <c r="AY38" s="44"/>
-      <c r="AZ38" s="45"/>
+      <c r="AQ38" s="44"/>
+      <c r="AR38" s="45"/>
+      <c r="AS38" s="45"/>
+      <c r="AT38" s="45"/>
+      <c r="AU38" s="45"/>
+      <c r="AV38" s="45"/>
+      <c r="AW38" s="45"/>
+      <c r="AX38" s="45"/>
+      <c r="AY38" s="45"/>
+      <c r="AZ38" s="46"/>
     </row>
     <row r="39" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="61"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="34"/>
       <c r="E39" s="35"/>
       <c r="F39" s="35"/>
@@ -9490,20 +9554,20 @@
       <c r="AN39" s="35"/>
       <c r="AO39" s="35"/>
       <c r="AP39" s="36"/>
-      <c r="AQ39" s="43"/>
-      <c r="AR39" s="44"/>
-      <c r="AS39" s="44"/>
-      <c r="AT39" s="44"/>
-      <c r="AU39" s="44"/>
-      <c r="AV39" s="44"/>
-      <c r="AW39" s="44"/>
-      <c r="AX39" s="44"/>
-      <c r="AY39" s="44"/>
-      <c r="AZ39" s="45"/>
+      <c r="AQ39" s="44"/>
+      <c r="AR39" s="45"/>
+      <c r="AS39" s="45"/>
+      <c r="AT39" s="45"/>
+      <c r="AU39" s="45"/>
+      <c r="AV39" s="45"/>
+      <c r="AW39" s="45"/>
+      <c r="AX39" s="45"/>
+      <c r="AY39" s="45"/>
+      <c r="AZ39" s="46"/>
     </row>
     <row r="40" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="62"/>
-      <c r="C40" s="63"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="37"/>
       <c r="E40" s="38"/>
       <c r="F40" s="38"/>
@@ -9543,22 +9607,22 @@
       <c r="AN40" s="38"/>
       <c r="AO40" s="38"/>
       <c r="AP40" s="39"/>
-      <c r="AQ40" s="46"/>
-      <c r="AR40" s="47"/>
-      <c r="AS40" s="47"/>
-      <c r="AT40" s="47"/>
-      <c r="AU40" s="47"/>
-      <c r="AV40" s="47"/>
-      <c r="AW40" s="47"/>
-      <c r="AX40" s="47"/>
-      <c r="AY40" s="47"/>
-      <c r="AZ40" s="48"/>
+      <c r="AQ40" s="47"/>
+      <c r="AR40" s="48"/>
+      <c r="AS40" s="48"/>
+      <c r="AT40" s="48"/>
+      <c r="AU40" s="48"/>
+      <c r="AV40" s="48"/>
+      <c r="AW40" s="48"/>
+      <c r="AX40" s="48"/>
+      <c r="AY40" s="48"/>
+      <c r="AZ40" s="49"/>
     </row>
     <row r="41" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="68" t="s">
+      <c r="B41" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="69"/>
+      <c r="C41" s="70"/>
       <c r="D41" s="12"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -9610,22 +9674,22 @@
       <c r="AZ41" s="2"/>
     </row>
     <row r="42" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="70"/>
-      <c r="C42" s="71"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="72"/>
       <c r="D42" s="15"/>
       <c r="AZ42" s="3"/>
     </row>
     <row r="43" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="70"/>
-      <c r="C43" s="71"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="72"/>
       <c r="D43" s="15"/>
       <c r="AZ43" s="3"/>
     </row>
     <row r="44" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="75" t="s">
+      <c r="B44" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="76"/>
+      <c r="C44" s="77"/>
       <c r="D44" s="16"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
@@ -9677,14 +9741,14 @@
       <c r="AZ44" s="18"/>
     </row>
     <row r="45" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="70"/>
-      <c r="C45" s="71"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="72"/>
       <c r="D45" s="15"/>
       <c r="AZ45" s="3"/>
     </row>
     <row r="46" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="77"/>
-      <c r="C46" s="78"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="6"/>
@@ -9736,10 +9800,10 @@
       <c r="AZ46" s="6"/>
     </row>
     <row r="47" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="65"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="40" t="s">
         <v>20</v>
       </c>
@@ -9781,22 +9845,22 @@
       <c r="AN47" s="32"/>
       <c r="AO47" s="32"/>
       <c r="AP47" s="33"/>
-      <c r="AQ47" s="49" t="s">
+      <c r="AQ47" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AR47" s="50"/>
-      <c r="AS47" s="50"/>
-      <c r="AT47" s="50"/>
-      <c r="AU47" s="50"/>
-      <c r="AV47" s="50"/>
-      <c r="AW47" s="50"/>
-      <c r="AX47" s="50"/>
-      <c r="AY47" s="50"/>
-      <c r="AZ47" s="51"/>
+      <c r="AR47" s="51"/>
+      <c r="AS47" s="51"/>
+      <c r="AT47" s="51"/>
+      <c r="AU47" s="51"/>
+      <c r="AV47" s="51"/>
+      <c r="AW47" s="51"/>
+      <c r="AX47" s="51"/>
+      <c r="AY47" s="51"/>
+      <c r="AZ47" s="52"/>
     </row>
     <row r="48" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="66"/>
-      <c r="C48" s="67"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="68"/>
       <c r="D48" s="34"/>
       <c r="E48" s="35"/>
       <c r="F48" s="35"/>
@@ -9836,20 +9900,20 @@
       <c r="AN48" s="35"/>
       <c r="AO48" s="35"/>
       <c r="AP48" s="36"/>
-      <c r="AQ48" s="52"/>
-      <c r="AR48" s="53"/>
-      <c r="AS48" s="53"/>
-      <c r="AT48" s="53"/>
-      <c r="AU48" s="53"/>
-      <c r="AV48" s="53"/>
-      <c r="AW48" s="53"/>
-      <c r="AX48" s="53"/>
-      <c r="AY48" s="53"/>
-      <c r="AZ48" s="54"/>
+      <c r="AQ48" s="53"/>
+      <c r="AR48" s="54"/>
+      <c r="AS48" s="54"/>
+      <c r="AT48" s="54"/>
+      <c r="AU48" s="54"/>
+      <c r="AV48" s="54"/>
+      <c r="AW48" s="54"/>
+      <c r="AX48" s="54"/>
+      <c r="AY48" s="54"/>
+      <c r="AZ48" s="55"/>
     </row>
     <row r="49" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="66"/>
-      <c r="C49" s="67"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="68"/>
       <c r="D49" s="34"/>
       <c r="E49" s="35"/>
       <c r="F49" s="35"/>
@@ -9889,20 +9953,20 @@
       <c r="AN49" s="35"/>
       <c r="AO49" s="35"/>
       <c r="AP49" s="36"/>
-      <c r="AQ49" s="52"/>
-      <c r="AR49" s="53"/>
-      <c r="AS49" s="53"/>
-      <c r="AT49" s="53"/>
-      <c r="AU49" s="53"/>
-      <c r="AV49" s="53"/>
-      <c r="AW49" s="53"/>
-      <c r="AX49" s="53"/>
-      <c r="AY49" s="53"/>
-      <c r="AZ49" s="54"/>
+      <c r="AQ49" s="53"/>
+      <c r="AR49" s="54"/>
+      <c r="AS49" s="54"/>
+      <c r="AT49" s="54"/>
+      <c r="AU49" s="54"/>
+      <c r="AV49" s="54"/>
+      <c r="AW49" s="54"/>
+      <c r="AX49" s="54"/>
+      <c r="AY49" s="54"/>
+      <c r="AZ49" s="55"/>
     </row>
     <row r="50" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="66"/>
-      <c r="C50" s="67"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="68"/>
       <c r="D50" s="34"/>
       <c r="E50" s="35"/>
       <c r="F50" s="35"/>
@@ -9942,20 +10006,20 @@
       <c r="AN50" s="35"/>
       <c r="AO50" s="35"/>
       <c r="AP50" s="36"/>
-      <c r="AQ50" s="52"/>
-      <c r="AR50" s="53"/>
-      <c r="AS50" s="53"/>
-      <c r="AT50" s="53"/>
-      <c r="AU50" s="53"/>
-      <c r="AV50" s="53"/>
-      <c r="AW50" s="53"/>
-      <c r="AX50" s="53"/>
-      <c r="AY50" s="53"/>
-      <c r="AZ50" s="54"/>
+      <c r="AQ50" s="53"/>
+      <c r="AR50" s="54"/>
+      <c r="AS50" s="54"/>
+      <c r="AT50" s="54"/>
+      <c r="AU50" s="54"/>
+      <c r="AV50" s="54"/>
+      <c r="AW50" s="54"/>
+      <c r="AX50" s="54"/>
+      <c r="AY50" s="54"/>
+      <c r="AZ50" s="55"/>
     </row>
     <row r="51" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="66"/>
-      <c r="C51" s="67"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="68"/>
       <c r="D51" s="34"/>
       <c r="E51" s="35"/>
       <c r="F51" s="35"/>
@@ -9995,20 +10059,20 @@
       <c r="AN51" s="35"/>
       <c r="AO51" s="35"/>
       <c r="AP51" s="36"/>
-      <c r="AQ51" s="52"/>
-      <c r="AR51" s="53"/>
-      <c r="AS51" s="53"/>
-      <c r="AT51" s="53"/>
-      <c r="AU51" s="53"/>
-      <c r="AV51" s="53"/>
-      <c r="AW51" s="53"/>
-      <c r="AX51" s="53"/>
-      <c r="AY51" s="53"/>
-      <c r="AZ51" s="54"/>
+      <c r="AQ51" s="53"/>
+      <c r="AR51" s="54"/>
+      <c r="AS51" s="54"/>
+      <c r="AT51" s="54"/>
+      <c r="AU51" s="54"/>
+      <c r="AV51" s="54"/>
+      <c r="AW51" s="54"/>
+      <c r="AX51" s="54"/>
+      <c r="AY51" s="54"/>
+      <c r="AZ51" s="55"/>
     </row>
     <row r="52" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="66"/>
-      <c r="C52" s="67"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="34"/>
       <c r="E52" s="35"/>
       <c r="F52" s="35"/>
@@ -10048,20 +10112,20 @@
       <c r="AN52" s="35"/>
       <c r="AO52" s="35"/>
       <c r="AP52" s="36"/>
-      <c r="AQ52" s="52"/>
-      <c r="AR52" s="53"/>
-      <c r="AS52" s="53"/>
-      <c r="AT52" s="53"/>
-      <c r="AU52" s="53"/>
-      <c r="AV52" s="53"/>
-      <c r="AW52" s="53"/>
-      <c r="AX52" s="53"/>
-      <c r="AY52" s="53"/>
-      <c r="AZ52" s="54"/>
+      <c r="AQ52" s="53"/>
+      <c r="AR52" s="54"/>
+      <c r="AS52" s="54"/>
+      <c r="AT52" s="54"/>
+      <c r="AU52" s="54"/>
+      <c r="AV52" s="54"/>
+      <c r="AW52" s="54"/>
+      <c r="AX52" s="54"/>
+      <c r="AY52" s="54"/>
+      <c r="AZ52" s="55"/>
     </row>
     <row r="53" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="66"/>
-      <c r="C53" s="67"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="34"/>
       <c r="E53" s="35"/>
       <c r="F53" s="35"/>
@@ -10101,20 +10165,20 @@
       <c r="AN53" s="35"/>
       <c r="AO53" s="35"/>
       <c r="AP53" s="36"/>
-      <c r="AQ53" s="52"/>
-      <c r="AR53" s="53"/>
-      <c r="AS53" s="53"/>
-      <c r="AT53" s="53"/>
-      <c r="AU53" s="53"/>
-      <c r="AV53" s="53"/>
-      <c r="AW53" s="53"/>
-      <c r="AX53" s="53"/>
-      <c r="AY53" s="53"/>
-      <c r="AZ53" s="54"/>
+      <c r="AQ53" s="53"/>
+      <c r="AR53" s="54"/>
+      <c r="AS53" s="54"/>
+      <c r="AT53" s="54"/>
+      <c r="AU53" s="54"/>
+      <c r="AV53" s="54"/>
+      <c r="AW53" s="54"/>
+      <c r="AX53" s="54"/>
+      <c r="AY53" s="54"/>
+      <c r="AZ53" s="55"/>
     </row>
     <row r="54" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="66"/>
-      <c r="C54" s="67"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="68"/>
       <c r="D54" s="34"/>
       <c r="E54" s="35"/>
       <c r="F54" s="35"/>
@@ -10154,22 +10218,22 @@
       <c r="AN54" s="35"/>
       <c r="AO54" s="35"/>
       <c r="AP54" s="36"/>
-      <c r="AQ54" s="52"/>
-      <c r="AR54" s="53"/>
-      <c r="AS54" s="53"/>
-      <c r="AT54" s="53"/>
-      <c r="AU54" s="53"/>
-      <c r="AV54" s="53"/>
-      <c r="AW54" s="53"/>
-      <c r="AX54" s="53"/>
-      <c r="AY54" s="53"/>
-      <c r="AZ54" s="54"/>
+      <c r="AQ54" s="53"/>
+      <c r="AR54" s="54"/>
+      <c r="AS54" s="54"/>
+      <c r="AT54" s="54"/>
+      <c r="AU54" s="54"/>
+      <c r="AV54" s="54"/>
+      <c r="AW54" s="54"/>
+      <c r="AX54" s="54"/>
+      <c r="AY54" s="54"/>
+      <c r="AZ54" s="55"/>
     </row>
     <row r="55" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="60" t="s">
+      <c r="B55" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="61"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="34"/>
       <c r="E55" s="35"/>
       <c r="F55" s="35"/>
@@ -10209,20 +10273,20 @@
       <c r="AN55" s="35"/>
       <c r="AO55" s="35"/>
       <c r="AP55" s="36"/>
-      <c r="AQ55" s="52"/>
-      <c r="AR55" s="53"/>
-      <c r="AS55" s="53"/>
-      <c r="AT55" s="53"/>
-      <c r="AU55" s="53"/>
-      <c r="AV55" s="53"/>
-      <c r="AW55" s="53"/>
-      <c r="AX55" s="53"/>
-      <c r="AY55" s="53"/>
-      <c r="AZ55" s="54"/>
+      <c r="AQ55" s="53"/>
+      <c r="AR55" s="54"/>
+      <c r="AS55" s="54"/>
+      <c r="AT55" s="54"/>
+      <c r="AU55" s="54"/>
+      <c r="AV55" s="54"/>
+      <c r="AW55" s="54"/>
+      <c r="AX55" s="54"/>
+      <c r="AY55" s="54"/>
+      <c r="AZ55" s="55"/>
     </row>
     <row r="56" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="62"/>
-      <c r="C56" s="63"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="64"/>
       <c r="D56" s="37"/>
       <c r="E56" s="38"/>
       <c r="F56" s="38"/>
@@ -10262,22 +10326,22 @@
       <c r="AN56" s="38"/>
       <c r="AO56" s="38"/>
       <c r="AP56" s="39"/>
-      <c r="AQ56" s="55"/>
-      <c r="AR56" s="56"/>
-      <c r="AS56" s="56"/>
-      <c r="AT56" s="56"/>
-      <c r="AU56" s="56"/>
-      <c r="AV56" s="56"/>
-      <c r="AW56" s="56"/>
-      <c r="AX56" s="56"/>
-      <c r="AY56" s="56"/>
-      <c r="AZ56" s="57"/>
+      <c r="AQ56" s="56"/>
+      <c r="AR56" s="57"/>
+      <c r="AS56" s="57"/>
+      <c r="AT56" s="57"/>
+      <c r="AU56" s="57"/>
+      <c r="AV56" s="57"/>
+      <c r="AW56" s="57"/>
+      <c r="AX56" s="57"/>
+      <c r="AY56" s="57"/>
+      <c r="AZ56" s="58"/>
     </row>
     <row r="57" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="68" t="s">
+      <c r="B57" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="69"/>
+      <c r="C57" s="70"/>
       <c r="D57" s="12"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -10329,22 +10393,22 @@
       <c r="AZ57" s="2"/>
     </row>
     <row r="58" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="70"/>
-      <c r="C58" s="71"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="72"/>
       <c r="D58" s="15"/>
       <c r="AZ58" s="3"/>
     </row>
     <row r="59" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="70"/>
-      <c r="C59" s="71"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="72"/>
       <c r="D59" s="15"/>
       <c r="AZ59" s="3"/>
     </row>
     <row r="60" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="75" t="s">
+      <c r="B60" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="76"/>
+      <c r="C60" s="77"/>
       <c r="D60" s="16"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -10396,14 +10460,14 @@
       <c r="AZ60" s="18"/>
     </row>
     <row r="61" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="70"/>
-      <c r="C61" s="71"/>
+      <c r="B61" s="71"/>
+      <c r="C61" s="72"/>
       <c r="D61" s="15"/>
       <c r="AZ61" s="3"/>
     </row>
     <row r="62" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="77"/>
-      <c r="C62" s="78"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="79"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="6"/>
@@ -10455,11 +10519,11 @@
       <c r="AZ62" s="6"/>
     </row>
     <row r="63" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="64" t="s">
+      <c r="B63" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="65"/>
-      <c r="D63" s="80" t="s">
+      <c r="C63" s="66"/>
+      <c r="D63" s="41" t="s">
         <v>22</v>
       </c>
       <c r="E63" s="32"/>
@@ -10500,20 +10564,22 @@
       <c r="AN63" s="32"/>
       <c r="AO63" s="32"/>
       <c r="AP63" s="33"/>
-      <c r="AQ63" s="31"/>
-      <c r="AR63" s="32"/>
-      <c r="AS63" s="32"/>
-      <c r="AT63" s="32"/>
-      <c r="AU63" s="32"/>
-      <c r="AV63" s="32"/>
-      <c r="AW63" s="32"/>
-      <c r="AX63" s="32"/>
-      <c r="AY63" s="32"/>
-      <c r="AZ63" s="33"/>
+      <c r="AQ63" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR63" s="51"/>
+      <c r="AS63" s="51"/>
+      <c r="AT63" s="51"/>
+      <c r="AU63" s="51"/>
+      <c r="AV63" s="51"/>
+      <c r="AW63" s="51"/>
+      <c r="AX63" s="51"/>
+      <c r="AY63" s="51"/>
+      <c r="AZ63" s="52"/>
     </row>
     <row r="64" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="66"/>
-      <c r="C64" s="67"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="68"/>
       <c r="D64" s="34"/>
       <c r="E64" s="35"/>
       <c r="F64" s="35"/>
@@ -10553,20 +10619,20 @@
       <c r="AN64" s="35"/>
       <c r="AO64" s="35"/>
       <c r="AP64" s="36"/>
-      <c r="AQ64" s="34"/>
-      <c r="AR64" s="35"/>
-      <c r="AS64" s="35"/>
-      <c r="AT64" s="35"/>
-      <c r="AU64" s="35"/>
-      <c r="AV64" s="35"/>
-      <c r="AW64" s="35"/>
-      <c r="AX64" s="35"/>
-      <c r="AY64" s="35"/>
-      <c r="AZ64" s="36"/>
+      <c r="AQ64" s="53"/>
+      <c r="AR64" s="54"/>
+      <c r="AS64" s="54"/>
+      <c r="AT64" s="54"/>
+      <c r="AU64" s="54"/>
+      <c r="AV64" s="54"/>
+      <c r="AW64" s="54"/>
+      <c r="AX64" s="54"/>
+      <c r="AY64" s="54"/>
+      <c r="AZ64" s="55"/>
     </row>
     <row r="65" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="66"/>
-      <c r="C65" s="67"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="68"/>
       <c r="D65" s="34"/>
       <c r="E65" s="35"/>
       <c r="F65" s="35"/>
@@ -10606,20 +10672,20 @@
       <c r="AN65" s="35"/>
       <c r="AO65" s="35"/>
       <c r="AP65" s="36"/>
-      <c r="AQ65" s="34"/>
-      <c r="AR65" s="35"/>
-      <c r="AS65" s="35"/>
-      <c r="AT65" s="35"/>
-      <c r="AU65" s="35"/>
-      <c r="AV65" s="35"/>
-      <c r="AW65" s="35"/>
-      <c r="AX65" s="35"/>
-      <c r="AY65" s="35"/>
-      <c r="AZ65" s="36"/>
+      <c r="AQ65" s="53"/>
+      <c r="AR65" s="54"/>
+      <c r="AS65" s="54"/>
+      <c r="AT65" s="54"/>
+      <c r="AU65" s="54"/>
+      <c r="AV65" s="54"/>
+      <c r="AW65" s="54"/>
+      <c r="AX65" s="54"/>
+      <c r="AY65" s="54"/>
+      <c r="AZ65" s="55"/>
     </row>
     <row r="66" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="66"/>
-      <c r="C66" s="67"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="68"/>
       <c r="D66" s="34"/>
       <c r="E66" s="35"/>
       <c r="F66" s="35"/>
@@ -10659,20 +10725,20 @@
       <c r="AN66" s="35"/>
       <c r="AO66" s="35"/>
       <c r="AP66" s="36"/>
-      <c r="AQ66" s="34"/>
-      <c r="AR66" s="35"/>
-      <c r="AS66" s="35"/>
-      <c r="AT66" s="35"/>
-      <c r="AU66" s="35"/>
-      <c r="AV66" s="35"/>
-      <c r="AW66" s="35"/>
-      <c r="AX66" s="35"/>
-      <c r="AY66" s="35"/>
-      <c r="AZ66" s="36"/>
+      <c r="AQ66" s="53"/>
+      <c r="AR66" s="54"/>
+      <c r="AS66" s="54"/>
+      <c r="AT66" s="54"/>
+      <c r="AU66" s="54"/>
+      <c r="AV66" s="54"/>
+      <c r="AW66" s="54"/>
+      <c r="AX66" s="54"/>
+      <c r="AY66" s="54"/>
+      <c r="AZ66" s="55"/>
     </row>
     <row r="67" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="66"/>
-      <c r="C67" s="67"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="68"/>
       <c r="D67" s="34"/>
       <c r="E67" s="35"/>
       <c r="F67" s="35"/>
@@ -10712,20 +10778,20 @@
       <c r="AN67" s="35"/>
       <c r="AO67" s="35"/>
       <c r="AP67" s="36"/>
-      <c r="AQ67" s="34"/>
-      <c r="AR67" s="35"/>
-      <c r="AS67" s="35"/>
-      <c r="AT67" s="35"/>
-      <c r="AU67" s="35"/>
-      <c r="AV67" s="35"/>
-      <c r="AW67" s="35"/>
-      <c r="AX67" s="35"/>
-      <c r="AY67" s="35"/>
-      <c r="AZ67" s="36"/>
+      <c r="AQ67" s="53"/>
+      <c r="AR67" s="54"/>
+      <c r="AS67" s="54"/>
+      <c r="AT67" s="54"/>
+      <c r="AU67" s="54"/>
+      <c r="AV67" s="54"/>
+      <c r="AW67" s="54"/>
+      <c r="AX67" s="54"/>
+      <c r="AY67" s="54"/>
+      <c r="AZ67" s="55"/>
     </row>
     <row r="68" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="66"/>
-      <c r="C68" s="67"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="68"/>
       <c r="D68" s="34"/>
       <c r="E68" s="35"/>
       <c r="F68" s="35"/>
@@ -10765,20 +10831,20 @@
       <c r="AN68" s="35"/>
       <c r="AO68" s="35"/>
       <c r="AP68" s="36"/>
-      <c r="AQ68" s="34"/>
-      <c r="AR68" s="35"/>
-      <c r="AS68" s="35"/>
-      <c r="AT68" s="35"/>
-      <c r="AU68" s="35"/>
-      <c r="AV68" s="35"/>
-      <c r="AW68" s="35"/>
-      <c r="AX68" s="35"/>
-      <c r="AY68" s="35"/>
-      <c r="AZ68" s="36"/>
+      <c r="AQ68" s="53"/>
+      <c r="AR68" s="54"/>
+      <c r="AS68" s="54"/>
+      <c r="AT68" s="54"/>
+      <c r="AU68" s="54"/>
+      <c r="AV68" s="54"/>
+      <c r="AW68" s="54"/>
+      <c r="AX68" s="54"/>
+      <c r="AY68" s="54"/>
+      <c r="AZ68" s="55"/>
     </row>
     <row r="69" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="66"/>
-      <c r="C69" s="67"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="68"/>
       <c r="D69" s="34"/>
       <c r="E69" s="35"/>
       <c r="F69" s="35"/>
@@ -10818,20 +10884,20 @@
       <c r="AN69" s="35"/>
       <c r="AO69" s="35"/>
       <c r="AP69" s="36"/>
-      <c r="AQ69" s="34"/>
-      <c r="AR69" s="35"/>
-      <c r="AS69" s="35"/>
-      <c r="AT69" s="35"/>
-      <c r="AU69" s="35"/>
-      <c r="AV69" s="35"/>
-      <c r="AW69" s="35"/>
-      <c r="AX69" s="35"/>
-      <c r="AY69" s="35"/>
-      <c r="AZ69" s="36"/>
+      <c r="AQ69" s="53"/>
+      <c r="AR69" s="54"/>
+      <c r="AS69" s="54"/>
+      <c r="AT69" s="54"/>
+      <c r="AU69" s="54"/>
+      <c r="AV69" s="54"/>
+      <c r="AW69" s="54"/>
+      <c r="AX69" s="54"/>
+      <c r="AY69" s="54"/>
+      <c r="AZ69" s="55"/>
     </row>
     <row r="70" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="66"/>
-      <c r="C70" s="67"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="68"/>
       <c r="D70" s="34"/>
       <c r="E70" s="35"/>
       <c r="F70" s="35"/>
@@ -10871,22 +10937,22 @@
       <c r="AN70" s="35"/>
       <c r="AO70" s="35"/>
       <c r="AP70" s="36"/>
-      <c r="AQ70" s="34"/>
-      <c r="AR70" s="35"/>
-      <c r="AS70" s="35"/>
-      <c r="AT70" s="35"/>
-      <c r="AU70" s="35"/>
-      <c r="AV70" s="35"/>
-      <c r="AW70" s="35"/>
-      <c r="AX70" s="35"/>
-      <c r="AY70" s="35"/>
-      <c r="AZ70" s="36"/>
+      <c r="AQ70" s="53"/>
+      <c r="AR70" s="54"/>
+      <c r="AS70" s="54"/>
+      <c r="AT70" s="54"/>
+      <c r="AU70" s="54"/>
+      <c r="AV70" s="54"/>
+      <c r="AW70" s="54"/>
+      <c r="AX70" s="54"/>
+      <c r="AY70" s="54"/>
+      <c r="AZ70" s="55"/>
     </row>
     <row r="71" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="60" t="s">
+      <c r="B71" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="61"/>
+      <c r="C71" s="62"/>
       <c r="D71" s="34"/>
       <c r="E71" s="35"/>
       <c r="F71" s="35"/>
@@ -10926,20 +10992,20 @@
       <c r="AN71" s="35"/>
       <c r="AO71" s="35"/>
       <c r="AP71" s="36"/>
-      <c r="AQ71" s="34"/>
-      <c r="AR71" s="35"/>
-      <c r="AS71" s="35"/>
-      <c r="AT71" s="35"/>
-      <c r="AU71" s="35"/>
-      <c r="AV71" s="35"/>
-      <c r="AW71" s="35"/>
-      <c r="AX71" s="35"/>
-      <c r="AY71" s="35"/>
-      <c r="AZ71" s="36"/>
+      <c r="AQ71" s="53"/>
+      <c r="AR71" s="54"/>
+      <c r="AS71" s="54"/>
+      <c r="AT71" s="54"/>
+      <c r="AU71" s="54"/>
+      <c r="AV71" s="54"/>
+      <c r="AW71" s="54"/>
+      <c r="AX71" s="54"/>
+      <c r="AY71" s="54"/>
+      <c r="AZ71" s="55"/>
     </row>
     <row r="72" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="62"/>
-      <c r="C72" s="63"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="64"/>
       <c r="D72" s="37"/>
       <c r="E72" s="38"/>
       <c r="F72" s="38"/>
@@ -10979,22 +11045,22 @@
       <c r="AN72" s="38"/>
       <c r="AO72" s="38"/>
       <c r="AP72" s="39"/>
-      <c r="AQ72" s="37"/>
-      <c r="AR72" s="38"/>
-      <c r="AS72" s="38"/>
-      <c r="AT72" s="38"/>
-      <c r="AU72" s="38"/>
-      <c r="AV72" s="38"/>
-      <c r="AW72" s="38"/>
-      <c r="AX72" s="38"/>
-      <c r="AY72" s="38"/>
-      <c r="AZ72" s="39"/>
+      <c r="AQ72" s="56"/>
+      <c r="AR72" s="57"/>
+      <c r="AS72" s="57"/>
+      <c r="AT72" s="57"/>
+      <c r="AU72" s="57"/>
+      <c r="AV72" s="57"/>
+      <c r="AW72" s="57"/>
+      <c r="AX72" s="57"/>
+      <c r="AY72" s="57"/>
+      <c r="AZ72" s="58"/>
     </row>
     <row r="73" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="68" t="s">
+      <c r="B73" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="69"/>
+      <c r="C73" s="70"/>
       <c r="D73" s="12"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -11046,22 +11112,22 @@
       <c r="AZ73" s="2"/>
     </row>
     <row r="74" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="70"/>
-      <c r="C74" s="71"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="72"/>
       <c r="D74" s="15"/>
       <c r="AZ74" s="3"/>
     </row>
     <row r="75" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="70"/>
-      <c r="C75" s="71"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="72"/>
       <c r="D75" s="15"/>
       <c r="AZ75" s="3"/>
     </row>
     <row r="76" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="75" t="s">
+      <c r="B76" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="76"/>
+      <c r="C76" s="77"/>
       <c r="D76" s="16"/>
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
@@ -11113,14 +11179,14 @@
       <c r="AZ76" s="18"/>
     </row>
     <row r="77" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="70"/>
-      <c r="C77" s="71"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="72"/>
       <c r="D77" s="15"/>
       <c r="AZ77" s="3"/>
     </row>
     <row r="78" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="77"/>
-      <c r="C78" s="78"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="79"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="6"/>
@@ -11172,10 +11238,10 @@
       <c r="AZ78" s="6"/>
     </row>
     <row r="79" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="64" t="s">
+      <c r="B79" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="65"/>
+      <c r="C79" s="66"/>
       <c r="D79" s="31"/>
       <c r="E79" s="32"/>
       <c r="F79" s="32"/>
@@ -11227,8 +11293,8 @@
       <c r="AZ79" s="33"/>
     </row>
     <row r="80" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="66"/>
-      <c r="C80" s="67"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="68"/>
       <c r="D80" s="34"/>
       <c r="E80" s="35"/>
       <c r="F80" s="35"/>
@@ -11280,8 +11346,8 @@
       <c r="AZ80" s="36"/>
     </row>
     <row r="81" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="66"/>
-      <c r="C81" s="67"/>
+      <c r="B81" s="67"/>
+      <c r="C81" s="68"/>
       <c r="D81" s="34"/>
       <c r="E81" s="35"/>
       <c r="F81" s="35"/>
@@ -11333,8 +11399,8 @@
       <c r="AZ81" s="36"/>
     </row>
     <row r="82" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="66"/>
-      <c r="C82" s="67"/>
+      <c r="B82" s="67"/>
+      <c r="C82" s="68"/>
       <c r="D82" s="34"/>
       <c r="E82" s="35"/>
       <c r="F82" s="35"/>
@@ -11386,8 +11452,8 @@
       <c r="AZ82" s="36"/>
     </row>
     <row r="83" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="66"/>
-      <c r="C83" s="67"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="68"/>
       <c r="D83" s="34"/>
       <c r="E83" s="35"/>
       <c r="F83" s="35"/>
@@ -11439,8 +11505,8 @@
       <c r="AZ83" s="36"/>
     </row>
     <row r="84" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="66"/>
-      <c r="C84" s="67"/>
+      <c r="B84" s="67"/>
+      <c r="C84" s="68"/>
       <c r="D84" s="34"/>
       <c r="E84" s="35"/>
       <c r="F84" s="35"/>
@@ -11492,8 +11558,8 @@
       <c r="AZ84" s="36"/>
     </row>
     <row r="85" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="66"/>
-      <c r="C85" s="67"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="68"/>
       <c r="D85" s="34"/>
       <c r="E85" s="35"/>
       <c r="F85" s="35"/>
@@ -11545,8 +11611,8 @@
       <c r="AZ85" s="36"/>
     </row>
     <row r="86" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="66"/>
-      <c r="C86" s="67"/>
+      <c r="B86" s="67"/>
+      <c r="C86" s="68"/>
       <c r="D86" s="34"/>
       <c r="E86" s="35"/>
       <c r="F86" s="35"/>
@@ -11598,10 +11664,10 @@
       <c r="AZ86" s="36"/>
     </row>
     <row r="87" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="60" t="s">
+      <c r="B87" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C87" s="61"/>
+      <c r="C87" s="62"/>
       <c r="D87" s="34"/>
       <c r="E87" s="35"/>
       <c r="F87" s="35"/>
@@ -11653,8 +11719,8 @@
       <c r="AZ87" s="36"/>
     </row>
     <row r="88" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="62"/>
-      <c r="C88" s="63"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="64"/>
       <c r="D88" s="37"/>
       <c r="E88" s="38"/>
       <c r="F88" s="38"/>
@@ -11706,18 +11772,18 @@
       <c r="AZ88" s="39"/>
     </row>
     <row r="89" spans="2:52" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="58" t="s">
+      <c r="B89" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="58"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="58"/>
-      <c r="F89" s="58"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="58"/>
-      <c r="I89" s="58"/>
-      <c r="J89" s="58"/>
-      <c r="K89" s="58"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="59"/>
+      <c r="H89" s="59"/>
+      <c r="I89" s="59"/>
+      <c r="J89" s="59"/>
+      <c r="K89" s="59"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
@@ -11726,16 +11792,16 @@
       <c r="AL89" s="7"/>
     </row>
     <row r="90" spans="2:52" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="59"/>
-      <c r="C90" s="59"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="59"/>
-      <c r="F90" s="59"/>
-      <c r="G90" s="59"/>
-      <c r="H90" s="59"/>
-      <c r="I90" s="59"/>
-      <c r="J90" s="59"/>
-      <c r="K90" s="59"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="60"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="60"/>
+      <c r="G90" s="60"/>
+      <c r="H90" s="60"/>
+      <c r="I90" s="60"/>
+      <c r="J90" s="60"/>
+      <c r="K90" s="60"/>
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
@@ -12015,6 +12081,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D5379252AF64A748BDD859550927C367" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2116e7e1946d68e35c0eaf3b6cc07ccd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67bb9ec5-9b1b-486c-a632-e2dd655875ec" xmlns:ns3="3fd75491-3ac1-4e58-b8d5-9038dca3fcdc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bef8a7803ea145e855fe7a4317e18dd6" ns2:_="" ns3:_="">
     <xsd:import namespace="67bb9ec5-9b1b-486c-a632-e2dd655875ec"/>
@@ -12231,22 +12306,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA46E2CD-519D-47DE-B196-0DD50840862B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{847108D8-BB9B-483A-861E-97C086A0D0E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12265,7 +12339,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57598A84-87D5-4E37-AB32-A40732200DBA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -12280,12 +12354,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA46E2CD-519D-47DE-B196-0DD50840862B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/【研修中】_日次報告書研修日誌林康輝.xlsx
+++ b/【研修中】_日次報告書研修日誌林康輝.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.utsunomiya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensyu004\Desktop\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018F8A78-F93B-4BBC-961C-60BD8BB798D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDA3460-7B22-40A7-965B-39F4FB7EB9E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="20250" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="研修日誌" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t xml:space="preserve"> 研　修　日　誌 </t>
     <rPh sb="1" eb="2">
@@ -73,10 +73,6 @@
     <rPh sb="0" eb="2">
       <t>ジッセキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月  日　</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -645,6 +641,171 @@
     </rPh>
     <rPh sb="100" eb="101">
       <t>ミガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8月 21日　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今日は昨日のHTMLの作業の残りを終わらせ、残りはJavaScriptの勉強を行いました。そこで、プロの開発現場でも足りない技術を補うために、勉強して知識を付けるための時間を設けるということは行うのかどうか気になりました。京セラのフィロソフィでは、年齢ではなく実力主義で指導者を決める、という内容を学びました。最近の有名な企業を見ていても、若い人が多いという印象を受けていたので、とても実感のわく内容でした。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ゲンバ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>オギナ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>ジツリョク</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>シュギ</t>
+    </rPh>
+    <rPh sb="135" eb="138">
+      <t>シドウシャ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>サイキン</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>ユウメイ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>ワカ</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>インショウ</t>
+    </rPh>
+    <rPh sb="182" eb="183">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>ジッカン</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日にちが進んでいくにつれ、作業への理解度もあがったことで、スムーズに作業ができるようになっていけたのではないかと思います。来週もこのまま気を緩めることなく、いただいた仕事を丁寧にこなしていきたいです。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ライシュウ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ユル</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>テイネイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -920,6 +1081,69 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1033,69 +1257,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1115,6 +1276,360 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="正方形/長方形 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5BCCCBB-1DB5-43ED-8BB4-17915BF0669F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581150" y="8877300"/>
+          <a:ext cx="1857375" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="正方形/長方形 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE5FEA66-8250-4EEF-97DE-15E1135C796E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="8877300"/>
+          <a:ext cx="295275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="正方形/長方形 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F35FD933-E4E8-4B18-BC1B-6EE15A7A5654}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3448051" y="8877300"/>
+          <a:ext cx="133350" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="正方形/長方形 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860A220A-C2D1-4D6A-A54D-B4418E5F4A47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3590926" y="8877300"/>
+          <a:ext cx="2543174" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="正方形/長方形 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D6667E5-54E9-4CD2-83D1-6C386D86D598}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="8877300"/>
+          <a:ext cx="438150" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="正方形/長方形 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA3A360-3EB0-471A-9021-414A448709ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572250" y="8877300"/>
+          <a:ext cx="438150" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -7423,6 +7938,377 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3355444" y="8582024"/>
+          <a:ext cx="330732" cy="649997"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>休憩</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586058" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="テキスト ボックス 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D7FC5C-833C-4F4F-860B-836D195CE974}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2314575" y="8905875"/>
+          <a:ext cx="586058" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>開発</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586058" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="テキスト ボックス 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16E8759-B9BE-4714-8159-48272A3A7C9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="8905875"/>
+          <a:ext cx="586058" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>開発</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="389850" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="テキスト ボックス 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41548F85-49A7-4351-AEFA-971803A1C4F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619875" y="8924925"/>
+          <a:ext cx="389850" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>日誌</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="テキスト ボックス 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C144B16-1A52-438F-A2E3-1140B8031C7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="8858250"/>
+          <a:ext cx="492443" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>社会人</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>研修</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="442814" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="テキスト ボックス 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934E5341-8B4A-4427-92B3-1250E653433E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="8848725"/>
+          <a:ext cx="442814" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ミーテ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ィング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>69319</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="330732" cy="649997"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="テキスト ボックス 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3CF8ED-0D9B-4519-8BC0-6007E8FA28F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3355444" y="8867774"/>
           <a:ext cx="330732" cy="649997"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7788,8 +8674,8 @@
   </sheetPr>
   <dimension ref="A1:BS103"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AQ74" sqref="AQ74"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AQ79" sqref="AQ79:AZ88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="9.9499999999999993" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -7816,59 +8702,59 @@
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
       <c r="S1" s="20"/>
-      <c r="T1" s="74" t="s">
+      <c r="T1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="73" t="s">
-        <v>11</v>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="38" t="s">
+        <v>10</v>
       </c>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38"/>
       <c r="BA1" s="14"/>
     </row>
     <row r="2" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
@@ -7877,51 +8763,51 @@
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="73"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="73"/>
-      <c r="AN2" s="73"/>
-      <c r="AO2" s="73"/>
-      <c r="AP2" s="73"/>
-      <c r="AQ2" s="73"/>
-      <c r="AR2" s="73"/>
-      <c r="AS2" s="73"/>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="73"/>
-      <c r="AV2" s="73"/>
-      <c r="AW2" s="73"/>
-      <c r="AX2" s="73"/>
-      <c r="AY2" s="73"/>
-      <c r="AZ2" s="73"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
     </row>
     <row r="3" spans="1:53" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -7939,252 +8825,252 @@
       <c r="AL3" s="11"/>
     </row>
     <row r="4" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="22" t="s">
-        <v>14</v>
+      <c r="B4" s="43" t="s">
+        <v>13</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="23"/>
-      <c r="AO4" s="23"/>
-      <c r="AP4" s="23"/>
-      <c r="AQ4" s="23"/>
-      <c r="AR4" s="23"/>
-      <c r="AS4" s="23"/>
-      <c r="AT4" s="23"/>
-      <c r="AU4" s="23"/>
-      <c r="AV4" s="23"/>
-      <c r="AW4" s="23"/>
-      <c r="AX4" s="23"/>
-      <c r="AY4" s="23"/>
-      <c r="AZ4" s="24"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44"/>
+      <c r="AU4" s="44"/>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="44"/>
+      <c r="AX4" s="44"/>
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="45"/>
     </row>
     <row r="5" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="26"/>
-      <c r="AJ5" s="26"/>
-      <c r="AK5" s="26"/>
-      <c r="AL5" s="26"/>
-      <c r="AM5" s="26"/>
-      <c r="AN5" s="26"/>
-      <c r="AO5" s="26"/>
-      <c r="AP5" s="26"/>
-      <c r="AQ5" s="26"/>
-      <c r="AR5" s="26"/>
-      <c r="AS5" s="26"/>
-      <c r="AT5" s="26"/>
-      <c r="AU5" s="26"/>
-      <c r="AV5" s="26"/>
-      <c r="AW5" s="26"/>
-      <c r="AX5" s="26"/>
-      <c r="AY5" s="26"/>
-      <c r="AZ5" s="27"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="47"/>
+      <c r="AS5" s="47"/>
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="47"/>
+      <c r="AV5" s="47"/>
+      <c r="AW5" s="47"/>
+      <c r="AX5" s="47"/>
+      <c r="AY5" s="47"/>
+      <c r="AZ5" s="48"/>
     </row>
     <row r="6" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="26"/>
-      <c r="AJ6" s="26"/>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="26"/>
-      <c r="AM6" s="26"/>
-      <c r="AN6" s="26"/>
-      <c r="AO6" s="26"/>
-      <c r="AP6" s="26"/>
-      <c r="AQ6" s="26"/>
-      <c r="AR6" s="26"/>
-      <c r="AS6" s="26"/>
-      <c r="AT6" s="26"/>
-      <c r="AU6" s="26"/>
-      <c r="AV6" s="26"/>
-      <c r="AW6" s="26"/>
-      <c r="AX6" s="26"/>
-      <c r="AY6" s="26"/>
-      <c r="AZ6" s="27"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="47"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="47"/>
+      <c r="AP6" s="47"/>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="47"/>
+      <c r="AS6" s="47"/>
+      <c r="AT6" s="47"/>
+      <c r="AU6" s="47"/>
+      <c r="AV6" s="47"/>
+      <c r="AW6" s="47"/>
+      <c r="AX6" s="47"/>
+      <c r="AY6" s="47"/>
+      <c r="AZ6" s="48"/>
     </row>
     <row r="7" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="29"/>
-      <c r="AT7" s="29"/>
-      <c r="AU7" s="29"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="29"/>
-      <c r="AX7" s="29"/>
-      <c r="AY7" s="29"/>
-      <c r="AZ7" s="30"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="50"/>
+      <c r="AK7" s="50"/>
+      <c r="AL7" s="50"/>
+      <c r="AM7" s="50"/>
+      <c r="AN7" s="50"/>
+      <c r="AO7" s="50"/>
+      <c r="AP7" s="50"/>
+      <c r="AQ7" s="50"/>
+      <c r="AR7" s="50"/>
+      <c r="AS7" s="50"/>
+      <c r="AT7" s="50"/>
+      <c r="AU7" s="50"/>
+      <c r="AV7" s="50"/>
+      <c r="AW7" s="50"/>
+      <c r="AX7" s="50"/>
+      <c r="AY7" s="50"/>
+      <c r="AZ7" s="51"/>
     </row>
     <row r="8" spans="1:53" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="AA8" s="11"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="60"/>
-      <c r="AE8" s="60"/>
-      <c r="AF8" s="60"/>
-      <c r="AG8" s="60"/>
-      <c r="AH8" s="60"/>
-      <c r="AI8" s="60"/>
-      <c r="AJ8" s="60"/>
-      <c r="AK8" s="60"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="40"/>
+      <c r="AI8" s="40"/>
+      <c r="AJ8" s="40"/>
+      <c r="AK8" s="40"/>
       <c r="AL8" s="8"/>
     </row>
     <row r="9" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="70"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="12"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -8236,22 +9122,22 @@
       <c r="AZ9" s="2"/>
     </row>
     <row r="10" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="71"/>
-      <c r="C10" s="72"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="21"/>
       <c r="AZ10" s="3"/>
     </row>
     <row r="11" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="71"/>
-      <c r="C11" s="72"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="15"/>
       <c r="AZ11" s="3"/>
     </row>
     <row r="12" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -8303,14 +9189,14 @@
       <c r="AZ12" s="18"/>
     </row>
     <row r="13" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="15"/>
       <c r="AZ13" s="3"/>
     </row>
     <row r="14" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="78"/>
-      <c r="C14" s="79"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
@@ -8362,548 +9248,548 @@
       <c r="AZ14" s="6"/>
     </row>
     <row r="15" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="80">
+      <c r="B15" s="42">
         <v>44060</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="53"/>
+      <c r="AJ15" s="53"/>
+      <c r="AK15" s="53"/>
+      <c r="AL15" s="53"/>
+      <c r="AM15" s="53"/>
+      <c r="AN15" s="53"/>
+      <c r="AO15" s="53"/>
+      <c r="AP15" s="54"/>
+      <c r="AQ15" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="32"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="33"/>
-      <c r="AQ15" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR15" s="42"/>
-      <c r="AS15" s="42"/>
-      <c r="AT15" s="42"/>
-      <c r="AU15" s="42"/>
-      <c r="AV15" s="42"/>
-      <c r="AW15" s="42"/>
-      <c r="AX15" s="42"/>
-      <c r="AY15" s="42"/>
-      <c r="AZ15" s="43"/>
+      <c r="AR15" s="63"/>
+      <c r="AS15" s="63"/>
+      <c r="AT15" s="63"/>
+      <c r="AU15" s="63"/>
+      <c r="AV15" s="63"/>
+      <c r="AW15" s="63"/>
+      <c r="AX15" s="63"/>
+      <c r="AY15" s="63"/>
+      <c r="AZ15" s="64"/>
     </row>
     <row r="16" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="35"/>
-      <c r="AI16" s="35"/>
-      <c r="AJ16" s="35"/>
-      <c r="AK16" s="35"/>
-      <c r="AL16" s="35"/>
-      <c r="AM16" s="35"/>
-      <c r="AN16" s="35"/>
-      <c r="AO16" s="35"/>
-      <c r="AP16" s="36"/>
-      <c r="AQ16" s="44"/>
-      <c r="AR16" s="45"/>
-      <c r="AS16" s="45"/>
-      <c r="AT16" s="45"/>
-      <c r="AU16" s="45"/>
-      <c r="AV16" s="45"/>
-      <c r="AW16" s="45"/>
-      <c r="AX16" s="45"/>
-      <c r="AY16" s="45"/>
-      <c r="AZ16" s="46"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="57"/>
+      <c r="AQ16" s="65"/>
+      <c r="AR16" s="66"/>
+      <c r="AS16" s="66"/>
+      <c r="AT16" s="66"/>
+      <c r="AU16" s="66"/>
+      <c r="AV16" s="66"/>
+      <c r="AW16" s="66"/>
+      <c r="AX16" s="66"/>
+      <c r="AY16" s="66"/>
+      <c r="AZ16" s="67"/>
     </row>
     <row r="17" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="35"/>
-      <c r="AH17" s="35"/>
-      <c r="AI17" s="35"/>
-      <c r="AJ17" s="35"/>
-      <c r="AK17" s="35"/>
-      <c r="AL17" s="35"/>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="35"/>
-      <c r="AO17" s="35"/>
-      <c r="AP17" s="36"/>
-      <c r="AQ17" s="44"/>
-      <c r="AR17" s="45"/>
-      <c r="AS17" s="45"/>
-      <c r="AT17" s="45"/>
-      <c r="AU17" s="45"/>
-      <c r="AV17" s="45"/>
-      <c r="AW17" s="45"/>
-      <c r="AX17" s="45"/>
-      <c r="AY17" s="45"/>
-      <c r="AZ17" s="46"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="56"/>
+      <c r="AM17" s="56"/>
+      <c r="AN17" s="56"/>
+      <c r="AO17" s="56"/>
+      <c r="AP17" s="57"/>
+      <c r="AQ17" s="65"/>
+      <c r="AR17" s="66"/>
+      <c r="AS17" s="66"/>
+      <c r="AT17" s="66"/>
+      <c r="AU17" s="66"/>
+      <c r="AV17" s="66"/>
+      <c r="AW17" s="66"/>
+      <c r="AX17" s="66"/>
+      <c r="AY17" s="66"/>
+      <c r="AZ17" s="67"/>
     </row>
     <row r="18" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="67"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="35"/>
-      <c r="AI18" s="35"/>
-      <c r="AJ18" s="35"/>
-      <c r="AK18" s="35"/>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="35"/>
-      <c r="AO18" s="35"/>
-      <c r="AP18" s="36"/>
-      <c r="AQ18" s="44"/>
-      <c r="AR18" s="45"/>
-      <c r="AS18" s="45"/>
-      <c r="AT18" s="45"/>
-      <c r="AU18" s="45"/>
-      <c r="AV18" s="45"/>
-      <c r="AW18" s="45"/>
-      <c r="AX18" s="45"/>
-      <c r="AY18" s="45"/>
-      <c r="AZ18" s="46"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="56"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="56"/>
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="56"/>
+      <c r="AN18" s="56"/>
+      <c r="AO18" s="56"/>
+      <c r="AP18" s="57"/>
+      <c r="AQ18" s="65"/>
+      <c r="AR18" s="66"/>
+      <c r="AS18" s="66"/>
+      <c r="AT18" s="66"/>
+      <c r="AU18" s="66"/>
+      <c r="AV18" s="66"/>
+      <c r="AW18" s="66"/>
+      <c r="AX18" s="66"/>
+      <c r="AY18" s="66"/>
+      <c r="AZ18" s="67"/>
     </row>
     <row r="19" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="35"/>
-      <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="35"/>
-      <c r="AH19" s="35"/>
-      <c r="AI19" s="35"/>
-      <c r="AJ19" s="35"/>
-      <c r="AK19" s="35"/>
-      <c r="AL19" s="35"/>
-      <c r="AM19" s="35"/>
-      <c r="AN19" s="35"/>
-      <c r="AO19" s="35"/>
-      <c r="AP19" s="36"/>
-      <c r="AQ19" s="44"/>
-      <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
-      <c r="AT19" s="45"/>
-      <c r="AU19" s="45"/>
-      <c r="AV19" s="45"/>
-      <c r="AW19" s="45"/>
-      <c r="AX19" s="45"/>
-      <c r="AY19" s="45"/>
-      <c r="AZ19" s="46"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="56"/>
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="56"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="56"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="56"/>
+      <c r="AP19" s="57"/>
+      <c r="AQ19" s="65"/>
+      <c r="AR19" s="66"/>
+      <c r="AS19" s="66"/>
+      <c r="AT19" s="66"/>
+      <c r="AU19" s="66"/>
+      <c r="AV19" s="66"/>
+      <c r="AW19" s="66"/>
+      <c r="AX19" s="66"/>
+      <c r="AY19" s="66"/>
+      <c r="AZ19" s="67"/>
     </row>
     <row r="20" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="67"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="35"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="35"/>
-      <c r="AH20" s="35"/>
-      <c r="AI20" s="35"/>
-      <c r="AJ20" s="35"/>
-      <c r="AK20" s="35"/>
-      <c r="AL20" s="35"/>
-      <c r="AM20" s="35"/>
-      <c r="AN20" s="35"/>
-      <c r="AO20" s="35"/>
-      <c r="AP20" s="36"/>
-      <c r="AQ20" s="44"/>
-      <c r="AR20" s="45"/>
-      <c r="AS20" s="45"/>
-      <c r="AT20" s="45"/>
-      <c r="AU20" s="45"/>
-      <c r="AV20" s="45"/>
-      <c r="AW20" s="45"/>
-      <c r="AX20" s="45"/>
-      <c r="AY20" s="45"/>
-      <c r="AZ20" s="46"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="56"/>
+      <c r="AN20" s="56"/>
+      <c r="AO20" s="56"/>
+      <c r="AP20" s="57"/>
+      <c r="AQ20" s="65"/>
+      <c r="AR20" s="66"/>
+      <c r="AS20" s="66"/>
+      <c r="AT20" s="66"/>
+      <c r="AU20" s="66"/>
+      <c r="AV20" s="66"/>
+      <c r="AW20" s="66"/>
+      <c r="AX20" s="66"/>
+      <c r="AY20" s="66"/>
+      <c r="AZ20" s="67"/>
     </row>
     <row r="21" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="35"/>
-      <c r="AI21" s="35"/>
-      <c r="AJ21" s="35"/>
-      <c r="AK21" s="35"/>
-      <c r="AL21" s="35"/>
-      <c r="AM21" s="35"/>
-      <c r="AN21" s="35"/>
-      <c r="AO21" s="35"/>
-      <c r="AP21" s="36"/>
-      <c r="AQ21" s="44"/>
-      <c r="AR21" s="45"/>
-      <c r="AS21" s="45"/>
-      <c r="AT21" s="45"/>
-      <c r="AU21" s="45"/>
-      <c r="AV21" s="45"/>
-      <c r="AW21" s="45"/>
-      <c r="AX21" s="45"/>
-      <c r="AY21" s="45"/>
-      <c r="AZ21" s="46"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="56"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="56"/>
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="56"/>
+      <c r="AH21" s="56"/>
+      <c r="AI21" s="56"/>
+      <c r="AJ21" s="56"/>
+      <c r="AK21" s="56"/>
+      <c r="AL21" s="56"/>
+      <c r="AM21" s="56"/>
+      <c r="AN21" s="56"/>
+      <c r="AO21" s="56"/>
+      <c r="AP21" s="57"/>
+      <c r="AQ21" s="65"/>
+      <c r="AR21" s="66"/>
+      <c r="AS21" s="66"/>
+      <c r="AT21" s="66"/>
+      <c r="AU21" s="66"/>
+      <c r="AV21" s="66"/>
+      <c r="AW21" s="66"/>
+      <c r="AX21" s="66"/>
+      <c r="AY21" s="66"/>
+      <c r="AZ21" s="67"/>
     </row>
     <row r="22" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="35"/>
-      <c r="AI22" s="35"/>
-      <c r="AJ22" s="35"/>
-      <c r="AK22" s="35"/>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="35"/>
-      <c r="AN22" s="35"/>
-      <c r="AO22" s="35"/>
-      <c r="AP22" s="36"/>
-      <c r="AQ22" s="44"/>
-      <c r="AR22" s="45"/>
-      <c r="AS22" s="45"/>
-      <c r="AT22" s="45"/>
-      <c r="AU22" s="45"/>
-      <c r="AV22" s="45"/>
-      <c r="AW22" s="45"/>
-      <c r="AX22" s="45"/>
-      <c r="AY22" s="45"/>
-      <c r="AZ22" s="46"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="56"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="56"/>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="56"/>
+      <c r="AL22" s="56"/>
+      <c r="AM22" s="56"/>
+      <c r="AN22" s="56"/>
+      <c r="AO22" s="56"/>
+      <c r="AP22" s="57"/>
+      <c r="AQ22" s="65"/>
+      <c r="AR22" s="66"/>
+      <c r="AS22" s="66"/>
+      <c r="AT22" s="66"/>
+      <c r="AU22" s="66"/>
+      <c r="AV22" s="66"/>
+      <c r="AW22" s="66"/>
+      <c r="AX22" s="66"/>
+      <c r="AY22" s="66"/>
+      <c r="AZ22" s="67"/>
     </row>
     <row r="23" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="61" t="s">
-        <v>5</v>
+      <c r="B23" s="34" t="s">
+        <v>4</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="35"/>
-      <c r="AI23" s="35"/>
-      <c r="AJ23" s="35"/>
-      <c r="AK23" s="35"/>
-      <c r="AL23" s="35"/>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="35"/>
-      <c r="AO23" s="35"/>
-      <c r="AP23" s="36"/>
-      <c r="AQ23" s="44"/>
-      <c r="AR23" s="45"/>
-      <c r="AS23" s="45"/>
-      <c r="AT23" s="45"/>
-      <c r="AU23" s="45"/>
-      <c r="AV23" s="45"/>
-      <c r="AW23" s="45"/>
-      <c r="AX23" s="45"/>
-      <c r="AY23" s="45"/>
-      <c r="AZ23" s="46"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="56"/>
+      <c r="AF23" s="56"/>
+      <c r="AG23" s="56"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="56"/>
+      <c r="AJ23" s="56"/>
+      <c r="AK23" s="56"/>
+      <c r="AL23" s="56"/>
+      <c r="AM23" s="56"/>
+      <c r="AN23" s="56"/>
+      <c r="AO23" s="56"/>
+      <c r="AP23" s="57"/>
+      <c r="AQ23" s="65"/>
+      <c r="AR23" s="66"/>
+      <c r="AS23" s="66"/>
+      <c r="AT23" s="66"/>
+      <c r="AU23" s="66"/>
+      <c r="AV23" s="66"/>
+      <c r="AW23" s="66"/>
+      <c r="AX23" s="66"/>
+      <c r="AY23" s="66"/>
+      <c r="AZ23" s="67"/>
     </row>
     <row r="24" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="38"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="38"/>
-      <c r="AI24" s="38"/>
-      <c r="AJ24" s="38"/>
-      <c r="AK24" s="38"/>
-      <c r="AL24" s="38"/>
-      <c r="AM24" s="38"/>
-      <c r="AN24" s="38"/>
-      <c r="AO24" s="38"/>
-      <c r="AP24" s="39"/>
-      <c r="AQ24" s="47"/>
-      <c r="AR24" s="48"/>
-      <c r="AS24" s="48"/>
-      <c r="AT24" s="48"/>
-      <c r="AU24" s="48"/>
-      <c r="AV24" s="48"/>
-      <c r="AW24" s="48"/>
-      <c r="AX24" s="48"/>
-      <c r="AY24" s="48"/>
-      <c r="AZ24" s="49"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="59"/>
+      <c r="AH24" s="59"/>
+      <c r="AI24" s="59"/>
+      <c r="AJ24" s="59"/>
+      <c r="AK24" s="59"/>
+      <c r="AL24" s="59"/>
+      <c r="AM24" s="59"/>
+      <c r="AN24" s="59"/>
+      <c r="AO24" s="59"/>
+      <c r="AP24" s="60"/>
+      <c r="AQ24" s="68"/>
+      <c r="AR24" s="69"/>
+      <c r="AS24" s="69"/>
+      <c r="AT24" s="69"/>
+      <c r="AU24" s="69"/>
+      <c r="AV24" s="69"/>
+      <c r="AW24" s="69"/>
+      <c r="AX24" s="69"/>
+      <c r="AY24" s="69"/>
+      <c r="AZ24" s="70"/>
     </row>
     <row r="25" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="70"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="12"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -8955,22 +9841,22 @@
       <c r="AZ25" s="2"/>
     </row>
     <row r="26" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="71"/>
-      <c r="C26" s="72"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="15"/>
       <c r="AZ26" s="3"/>
     </row>
     <row r="27" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="71"/>
-      <c r="C27" s="72"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="15"/>
       <c r="AZ27" s="3"/>
     </row>
     <row r="28" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="77"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -9022,14 +9908,14 @@
       <c r="AZ28" s="18"/>
     </row>
     <row r="29" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="71"/>
-      <c r="C29" s="72"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="15"/>
       <c r="AZ29" s="3"/>
     </row>
     <row r="30" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="78"/>
-      <c r="C30" s="79"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
@@ -9081,548 +9967,548 @@
       <c r="AZ30" s="6"/>
     </row>
     <row r="31" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="53"/>
+      <c r="AJ31" s="53"/>
+      <c r="AK31" s="53"/>
+      <c r="AL31" s="53"/>
+      <c r="AM31" s="53"/>
+      <c r="AN31" s="53"/>
+      <c r="AO31" s="53"/>
+      <c r="AP31" s="54"/>
+      <c r="AQ31" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="66"/>
-      <c r="D31" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="32"/>
-      <c r="AG31" s="32"/>
-      <c r="AH31" s="32"/>
-      <c r="AI31" s="32"/>
-      <c r="AJ31" s="32"/>
-      <c r="AK31" s="32"/>
-      <c r="AL31" s="32"/>
-      <c r="AM31" s="32"/>
-      <c r="AN31" s="32"/>
-      <c r="AO31" s="32"/>
-      <c r="AP31" s="33"/>
-      <c r="AQ31" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="AR31" s="42"/>
-      <c r="AS31" s="42"/>
-      <c r="AT31" s="42"/>
-      <c r="AU31" s="42"/>
-      <c r="AV31" s="42"/>
-      <c r="AW31" s="42"/>
-      <c r="AX31" s="42"/>
-      <c r="AY31" s="42"/>
-      <c r="AZ31" s="43"/>
+      <c r="AR31" s="63"/>
+      <c r="AS31" s="63"/>
+      <c r="AT31" s="63"/>
+      <c r="AU31" s="63"/>
+      <c r="AV31" s="63"/>
+      <c r="AW31" s="63"/>
+      <c r="AX31" s="63"/>
+      <c r="AY31" s="63"/>
+      <c r="AZ31" s="64"/>
     </row>
     <row r="32" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="67"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="35"/>
-      <c r="AA32" s="35"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="35"/>
-      <c r="AD32" s="35"/>
-      <c r="AE32" s="35"/>
-      <c r="AF32" s="35"/>
-      <c r="AG32" s="35"/>
-      <c r="AH32" s="35"/>
-      <c r="AI32" s="35"/>
-      <c r="AJ32" s="35"/>
-      <c r="AK32" s="35"/>
-      <c r="AL32" s="35"/>
-      <c r="AM32" s="35"/>
-      <c r="AN32" s="35"/>
-      <c r="AO32" s="35"/>
-      <c r="AP32" s="36"/>
-      <c r="AQ32" s="44"/>
-      <c r="AR32" s="45"/>
-      <c r="AS32" s="45"/>
-      <c r="AT32" s="45"/>
-      <c r="AU32" s="45"/>
-      <c r="AV32" s="45"/>
-      <c r="AW32" s="45"/>
-      <c r="AX32" s="45"/>
-      <c r="AY32" s="45"/>
-      <c r="AZ32" s="46"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="56"/>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="56"/>
+      <c r="AE32" s="56"/>
+      <c r="AF32" s="56"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="56"/>
+      <c r="AI32" s="56"/>
+      <c r="AJ32" s="56"/>
+      <c r="AK32" s="56"/>
+      <c r="AL32" s="56"/>
+      <c r="AM32" s="56"/>
+      <c r="AN32" s="56"/>
+      <c r="AO32" s="56"/>
+      <c r="AP32" s="57"/>
+      <c r="AQ32" s="65"/>
+      <c r="AR32" s="66"/>
+      <c r="AS32" s="66"/>
+      <c r="AT32" s="66"/>
+      <c r="AU32" s="66"/>
+      <c r="AV32" s="66"/>
+      <c r="AW32" s="66"/>
+      <c r="AX32" s="66"/>
+      <c r="AY32" s="66"/>
+      <c r="AZ32" s="67"/>
     </row>
     <row r="33" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="67"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="35"/>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="35"/>
-      <c r="AD33" s="35"/>
-      <c r="AE33" s="35"/>
-      <c r="AF33" s="35"/>
-      <c r="AG33" s="35"/>
-      <c r="AH33" s="35"/>
-      <c r="AI33" s="35"/>
-      <c r="AJ33" s="35"/>
-      <c r="AK33" s="35"/>
-      <c r="AL33" s="35"/>
-      <c r="AM33" s="35"/>
-      <c r="AN33" s="35"/>
-      <c r="AO33" s="35"/>
-      <c r="AP33" s="36"/>
-      <c r="AQ33" s="44"/>
-      <c r="AR33" s="45"/>
-      <c r="AS33" s="45"/>
-      <c r="AT33" s="45"/>
-      <c r="AU33" s="45"/>
-      <c r="AV33" s="45"/>
-      <c r="AW33" s="45"/>
-      <c r="AX33" s="45"/>
-      <c r="AY33" s="45"/>
-      <c r="AZ33" s="46"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="56"/>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="56"/>
+      <c r="AF33" s="56"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="56"/>
+      <c r="AJ33" s="56"/>
+      <c r="AK33" s="56"/>
+      <c r="AL33" s="56"/>
+      <c r="AM33" s="56"/>
+      <c r="AN33" s="56"/>
+      <c r="AO33" s="56"/>
+      <c r="AP33" s="57"/>
+      <c r="AQ33" s="65"/>
+      <c r="AR33" s="66"/>
+      <c r="AS33" s="66"/>
+      <c r="AT33" s="66"/>
+      <c r="AU33" s="66"/>
+      <c r="AV33" s="66"/>
+      <c r="AW33" s="66"/>
+      <c r="AX33" s="66"/>
+      <c r="AY33" s="66"/>
+      <c r="AZ33" s="67"/>
     </row>
     <row r="34" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="67"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="35"/>
-      <c r="AA34" s="35"/>
-      <c r="AB34" s="35"/>
-      <c r="AC34" s="35"/>
-      <c r="AD34" s="35"/>
-      <c r="AE34" s="35"/>
-      <c r="AF34" s="35"/>
-      <c r="AG34" s="35"/>
-      <c r="AH34" s="35"/>
-      <c r="AI34" s="35"/>
-      <c r="AJ34" s="35"/>
-      <c r="AK34" s="35"/>
-      <c r="AL34" s="35"/>
-      <c r="AM34" s="35"/>
-      <c r="AN34" s="35"/>
-      <c r="AO34" s="35"/>
-      <c r="AP34" s="36"/>
-      <c r="AQ34" s="44"/>
-      <c r="AR34" s="45"/>
-      <c r="AS34" s="45"/>
-      <c r="AT34" s="45"/>
-      <c r="AU34" s="45"/>
-      <c r="AV34" s="45"/>
-      <c r="AW34" s="45"/>
-      <c r="AX34" s="45"/>
-      <c r="AY34" s="45"/>
-      <c r="AZ34" s="46"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="56"/>
+      <c r="Z34" s="56"/>
+      <c r="AA34" s="56"/>
+      <c r="AB34" s="56"/>
+      <c r="AC34" s="56"/>
+      <c r="AD34" s="56"/>
+      <c r="AE34" s="56"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="56"/>
+      <c r="AJ34" s="56"/>
+      <c r="AK34" s="56"/>
+      <c r="AL34" s="56"/>
+      <c r="AM34" s="56"/>
+      <c r="AN34" s="56"/>
+      <c r="AO34" s="56"/>
+      <c r="AP34" s="57"/>
+      <c r="AQ34" s="65"/>
+      <c r="AR34" s="66"/>
+      <c r="AS34" s="66"/>
+      <c r="AT34" s="66"/>
+      <c r="AU34" s="66"/>
+      <c r="AV34" s="66"/>
+      <c r="AW34" s="66"/>
+      <c r="AX34" s="66"/>
+      <c r="AY34" s="66"/>
+      <c r="AZ34" s="67"/>
     </row>
     <row r="35" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="67"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="35"/>
-      <c r="Y35" s="35"/>
-      <c r="Z35" s="35"/>
-      <c r="AA35" s="35"/>
-      <c r="AB35" s="35"/>
-      <c r="AC35" s="35"/>
-      <c r="AD35" s="35"/>
-      <c r="AE35" s="35"/>
-      <c r="AF35" s="35"/>
-      <c r="AG35" s="35"/>
-      <c r="AH35" s="35"/>
-      <c r="AI35" s="35"/>
-      <c r="AJ35" s="35"/>
-      <c r="AK35" s="35"/>
-      <c r="AL35" s="35"/>
-      <c r="AM35" s="35"/>
-      <c r="AN35" s="35"/>
-      <c r="AO35" s="35"/>
-      <c r="AP35" s="36"/>
-      <c r="AQ35" s="44"/>
-      <c r="AR35" s="45"/>
-      <c r="AS35" s="45"/>
-      <c r="AT35" s="45"/>
-      <c r="AU35" s="45"/>
-      <c r="AV35" s="45"/>
-      <c r="AW35" s="45"/>
-      <c r="AX35" s="45"/>
-      <c r="AY35" s="45"/>
-      <c r="AZ35" s="46"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="56"/>
+      <c r="AC35" s="56"/>
+      <c r="AD35" s="56"/>
+      <c r="AE35" s="56"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="56"/>
+      <c r="AJ35" s="56"/>
+      <c r="AK35" s="56"/>
+      <c r="AL35" s="56"/>
+      <c r="AM35" s="56"/>
+      <c r="AN35" s="56"/>
+      <c r="AO35" s="56"/>
+      <c r="AP35" s="57"/>
+      <c r="AQ35" s="65"/>
+      <c r="AR35" s="66"/>
+      <c r="AS35" s="66"/>
+      <c r="AT35" s="66"/>
+      <c r="AU35" s="66"/>
+      <c r="AV35" s="66"/>
+      <c r="AW35" s="66"/>
+      <c r="AX35" s="66"/>
+      <c r="AY35" s="66"/>
+      <c r="AZ35" s="67"/>
     </row>
     <row r="36" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="67"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="35"/>
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="35"/>
-      <c r="AD36" s="35"/>
-      <c r="AE36" s="35"/>
-      <c r="AF36" s="35"/>
-      <c r="AG36" s="35"/>
-      <c r="AH36" s="35"/>
-      <c r="AI36" s="35"/>
-      <c r="AJ36" s="35"/>
-      <c r="AK36" s="35"/>
-      <c r="AL36" s="35"/>
-      <c r="AM36" s="35"/>
-      <c r="AN36" s="35"/>
-      <c r="AO36" s="35"/>
-      <c r="AP36" s="36"/>
-      <c r="AQ36" s="44"/>
-      <c r="AR36" s="45"/>
-      <c r="AS36" s="45"/>
-      <c r="AT36" s="45"/>
-      <c r="AU36" s="45"/>
-      <c r="AV36" s="45"/>
-      <c r="AW36" s="45"/>
-      <c r="AX36" s="45"/>
-      <c r="AY36" s="45"/>
-      <c r="AZ36" s="46"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56"/>
+      <c r="AB36" s="56"/>
+      <c r="AC36" s="56"/>
+      <c r="AD36" s="56"/>
+      <c r="AE36" s="56"/>
+      <c r="AF36" s="56"/>
+      <c r="AG36" s="56"/>
+      <c r="AH36" s="56"/>
+      <c r="AI36" s="56"/>
+      <c r="AJ36" s="56"/>
+      <c r="AK36" s="56"/>
+      <c r="AL36" s="56"/>
+      <c r="AM36" s="56"/>
+      <c r="AN36" s="56"/>
+      <c r="AO36" s="56"/>
+      <c r="AP36" s="57"/>
+      <c r="AQ36" s="65"/>
+      <c r="AR36" s="66"/>
+      <c r="AS36" s="66"/>
+      <c r="AT36" s="66"/>
+      <c r="AU36" s="66"/>
+      <c r="AV36" s="66"/>
+      <c r="AW36" s="66"/>
+      <c r="AX36" s="66"/>
+      <c r="AY36" s="66"/>
+      <c r="AZ36" s="67"/>
     </row>
     <row r="37" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="67"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="35"/>
-      <c r="Z37" s="35"/>
-      <c r="AA37" s="35"/>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="35"/>
-      <c r="AD37" s="35"/>
-      <c r="AE37" s="35"/>
-      <c r="AF37" s="35"/>
-      <c r="AG37" s="35"/>
-      <c r="AH37" s="35"/>
-      <c r="AI37" s="35"/>
-      <c r="AJ37" s="35"/>
-      <c r="AK37" s="35"/>
-      <c r="AL37" s="35"/>
-      <c r="AM37" s="35"/>
-      <c r="AN37" s="35"/>
-      <c r="AO37" s="35"/>
-      <c r="AP37" s="36"/>
-      <c r="AQ37" s="44"/>
-      <c r="AR37" s="45"/>
-      <c r="AS37" s="45"/>
-      <c r="AT37" s="45"/>
-      <c r="AU37" s="45"/>
-      <c r="AV37" s="45"/>
-      <c r="AW37" s="45"/>
-      <c r="AX37" s="45"/>
-      <c r="AY37" s="45"/>
-      <c r="AZ37" s="46"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
+      <c r="AB37" s="56"/>
+      <c r="AC37" s="56"/>
+      <c r="AD37" s="56"/>
+      <c r="AE37" s="56"/>
+      <c r="AF37" s="56"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="56"/>
+      <c r="AI37" s="56"/>
+      <c r="AJ37" s="56"/>
+      <c r="AK37" s="56"/>
+      <c r="AL37" s="56"/>
+      <c r="AM37" s="56"/>
+      <c r="AN37" s="56"/>
+      <c r="AO37" s="56"/>
+      <c r="AP37" s="57"/>
+      <c r="AQ37" s="65"/>
+      <c r="AR37" s="66"/>
+      <c r="AS37" s="66"/>
+      <c r="AT37" s="66"/>
+      <c r="AU37" s="66"/>
+      <c r="AV37" s="66"/>
+      <c r="AW37" s="66"/>
+      <c r="AX37" s="66"/>
+      <c r="AY37" s="66"/>
+      <c r="AZ37" s="67"/>
     </row>
     <row r="38" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="67"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="35"/>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="35"/>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="35"/>
-      <c r="AC38" s="35"/>
-      <c r="AD38" s="35"/>
-      <c r="AE38" s="35"/>
-      <c r="AF38" s="35"/>
-      <c r="AG38" s="35"/>
-      <c r="AH38" s="35"/>
-      <c r="AI38" s="35"/>
-      <c r="AJ38" s="35"/>
-      <c r="AK38" s="35"/>
-      <c r="AL38" s="35"/>
-      <c r="AM38" s="35"/>
-      <c r="AN38" s="35"/>
-      <c r="AO38" s="35"/>
-      <c r="AP38" s="36"/>
-      <c r="AQ38" s="44"/>
-      <c r="AR38" s="45"/>
-      <c r="AS38" s="45"/>
-      <c r="AT38" s="45"/>
-      <c r="AU38" s="45"/>
-      <c r="AV38" s="45"/>
-      <c r="AW38" s="45"/>
-      <c r="AX38" s="45"/>
-      <c r="AY38" s="45"/>
-      <c r="AZ38" s="46"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="56"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="56"/>
+      <c r="AB38" s="56"/>
+      <c r="AC38" s="56"/>
+      <c r="AD38" s="56"/>
+      <c r="AE38" s="56"/>
+      <c r="AF38" s="56"/>
+      <c r="AG38" s="56"/>
+      <c r="AH38" s="56"/>
+      <c r="AI38" s="56"/>
+      <c r="AJ38" s="56"/>
+      <c r="AK38" s="56"/>
+      <c r="AL38" s="56"/>
+      <c r="AM38" s="56"/>
+      <c r="AN38" s="56"/>
+      <c r="AO38" s="56"/>
+      <c r="AP38" s="57"/>
+      <c r="AQ38" s="65"/>
+      <c r="AR38" s="66"/>
+      <c r="AS38" s="66"/>
+      <c r="AT38" s="66"/>
+      <c r="AU38" s="66"/>
+      <c r="AV38" s="66"/>
+      <c r="AW38" s="66"/>
+      <c r="AX38" s="66"/>
+      <c r="AY38" s="66"/>
+      <c r="AZ38" s="67"/>
     </row>
     <row r="39" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="61" t="s">
-        <v>6</v>
+      <c r="B39" s="34" t="s">
+        <v>5</v>
       </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="35"/>
-      <c r="Z39" s="35"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="35"/>
-      <c r="AD39" s="35"/>
-      <c r="AE39" s="35"/>
-      <c r="AF39" s="35"/>
-      <c r="AG39" s="35"/>
-      <c r="AH39" s="35"/>
-      <c r="AI39" s="35"/>
-      <c r="AJ39" s="35"/>
-      <c r="AK39" s="35"/>
-      <c r="AL39" s="35"/>
-      <c r="AM39" s="35"/>
-      <c r="AN39" s="35"/>
-      <c r="AO39" s="35"/>
-      <c r="AP39" s="36"/>
-      <c r="AQ39" s="44"/>
-      <c r="AR39" s="45"/>
-      <c r="AS39" s="45"/>
-      <c r="AT39" s="45"/>
-      <c r="AU39" s="45"/>
-      <c r="AV39" s="45"/>
-      <c r="AW39" s="45"/>
-      <c r="AX39" s="45"/>
-      <c r="AY39" s="45"/>
-      <c r="AZ39" s="46"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="56"/>
+      <c r="AC39" s="56"/>
+      <c r="AD39" s="56"/>
+      <c r="AE39" s="56"/>
+      <c r="AF39" s="56"/>
+      <c r="AG39" s="56"/>
+      <c r="AH39" s="56"/>
+      <c r="AI39" s="56"/>
+      <c r="AJ39" s="56"/>
+      <c r="AK39" s="56"/>
+      <c r="AL39" s="56"/>
+      <c r="AM39" s="56"/>
+      <c r="AN39" s="56"/>
+      <c r="AO39" s="56"/>
+      <c r="AP39" s="57"/>
+      <c r="AQ39" s="65"/>
+      <c r="AR39" s="66"/>
+      <c r="AS39" s="66"/>
+      <c r="AT39" s="66"/>
+      <c r="AU39" s="66"/>
+      <c r="AV39" s="66"/>
+      <c r="AW39" s="66"/>
+      <c r="AX39" s="66"/>
+      <c r="AY39" s="66"/>
+      <c r="AZ39" s="67"/>
     </row>
     <row r="40" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="63"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
-      <c r="AA40" s="38"/>
-      <c r="AB40" s="38"/>
-      <c r="AC40" s="38"/>
-      <c r="AD40" s="38"/>
-      <c r="AE40" s="38"/>
-      <c r="AF40" s="38"/>
-      <c r="AG40" s="38"/>
-      <c r="AH40" s="38"/>
-      <c r="AI40" s="38"/>
-      <c r="AJ40" s="38"/>
-      <c r="AK40" s="38"/>
-      <c r="AL40" s="38"/>
-      <c r="AM40" s="38"/>
-      <c r="AN40" s="38"/>
-      <c r="AO40" s="38"/>
-      <c r="AP40" s="39"/>
-      <c r="AQ40" s="47"/>
-      <c r="AR40" s="48"/>
-      <c r="AS40" s="48"/>
-      <c r="AT40" s="48"/>
-      <c r="AU40" s="48"/>
-      <c r="AV40" s="48"/>
-      <c r="AW40" s="48"/>
-      <c r="AX40" s="48"/>
-      <c r="AY40" s="48"/>
-      <c r="AZ40" s="49"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="59"/>
+      <c r="AF40" s="59"/>
+      <c r="AG40" s="59"/>
+      <c r="AH40" s="59"/>
+      <c r="AI40" s="59"/>
+      <c r="AJ40" s="59"/>
+      <c r="AK40" s="59"/>
+      <c r="AL40" s="59"/>
+      <c r="AM40" s="59"/>
+      <c r="AN40" s="59"/>
+      <c r="AO40" s="59"/>
+      <c r="AP40" s="60"/>
+      <c r="AQ40" s="68"/>
+      <c r="AR40" s="69"/>
+      <c r="AS40" s="69"/>
+      <c r="AT40" s="69"/>
+      <c r="AU40" s="69"/>
+      <c r="AV40" s="69"/>
+      <c r="AW40" s="69"/>
+      <c r="AX40" s="69"/>
+      <c r="AY40" s="69"/>
+      <c r="AZ40" s="70"/>
     </row>
     <row r="41" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="70"/>
+      <c r="C41" s="27"/>
       <c r="D41" s="12"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -9674,22 +10560,22 @@
       <c r="AZ41" s="2"/>
     </row>
     <row r="42" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="71"/>
-      <c r="C42" s="72"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="29"/>
       <c r="D42" s="15"/>
       <c r="AZ42" s="3"/>
     </row>
     <row r="43" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="71"/>
-      <c r="C43" s="72"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="29"/>
       <c r="D43" s="15"/>
       <c r="AZ43" s="3"/>
     </row>
     <row r="44" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="76" t="s">
+      <c r="B44" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="77"/>
+      <c r="C44" s="31"/>
       <c r="D44" s="16"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
@@ -9741,14 +10627,14 @@
       <c r="AZ44" s="18"/>
     </row>
     <row r="45" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="71"/>
-      <c r="C45" s="72"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="29"/>
       <c r="D45" s="15"/>
       <c r="AZ45" s="3"/>
     </row>
     <row r="46" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="78"/>
-      <c r="C46" s="79"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="6"/>
@@ -9800,548 +10686,548 @@
       <c r="AZ46" s="6"/>
     </row>
     <row r="47" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="53"/>
+      <c r="T47" s="53"/>
+      <c r="U47" s="53"/>
+      <c r="V47" s="53"/>
+      <c r="W47" s="53"/>
+      <c r="X47" s="53"/>
+      <c r="Y47" s="53"/>
+      <c r="Z47" s="53"/>
+      <c r="AA47" s="53"/>
+      <c r="AB47" s="53"/>
+      <c r="AC47" s="53"/>
+      <c r="AD47" s="53"/>
+      <c r="AE47" s="53"/>
+      <c r="AF47" s="53"/>
+      <c r="AG47" s="53"/>
+      <c r="AH47" s="53"/>
+      <c r="AI47" s="53"/>
+      <c r="AJ47" s="53"/>
+      <c r="AK47" s="53"/>
+      <c r="AL47" s="53"/>
+      <c r="AM47" s="53"/>
+      <c r="AN47" s="53"/>
+      <c r="AO47" s="53"/>
+      <c r="AP47" s="54"/>
+      <c r="AQ47" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="32"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="32"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="32"/>
-      <c r="W47" s="32"/>
-      <c r="X47" s="32"/>
-      <c r="Y47" s="32"/>
-      <c r="Z47" s="32"/>
-      <c r="AA47" s="32"/>
-      <c r="AB47" s="32"/>
-      <c r="AC47" s="32"/>
-      <c r="AD47" s="32"/>
-      <c r="AE47" s="32"/>
-      <c r="AF47" s="32"/>
-      <c r="AG47" s="32"/>
-      <c r="AH47" s="32"/>
-      <c r="AI47" s="32"/>
-      <c r="AJ47" s="32"/>
-      <c r="AK47" s="32"/>
-      <c r="AL47" s="32"/>
-      <c r="AM47" s="32"/>
-      <c r="AN47" s="32"/>
-      <c r="AO47" s="32"/>
-      <c r="AP47" s="33"/>
-      <c r="AQ47" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR47" s="51"/>
-      <c r="AS47" s="51"/>
-      <c r="AT47" s="51"/>
-      <c r="AU47" s="51"/>
-      <c r="AV47" s="51"/>
-      <c r="AW47" s="51"/>
-      <c r="AX47" s="51"/>
-      <c r="AY47" s="51"/>
-      <c r="AZ47" s="52"/>
+      <c r="AR47" s="72"/>
+      <c r="AS47" s="72"/>
+      <c r="AT47" s="72"/>
+      <c r="AU47" s="72"/>
+      <c r="AV47" s="72"/>
+      <c r="AW47" s="72"/>
+      <c r="AX47" s="72"/>
+      <c r="AY47" s="72"/>
+      <c r="AZ47" s="73"/>
     </row>
     <row r="48" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="67"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="35"/>
-      <c r="Y48" s="35"/>
-      <c r="Z48" s="35"/>
-      <c r="AA48" s="35"/>
-      <c r="AB48" s="35"/>
-      <c r="AC48" s="35"/>
-      <c r="AD48" s="35"/>
-      <c r="AE48" s="35"/>
-      <c r="AF48" s="35"/>
-      <c r="AG48" s="35"/>
-      <c r="AH48" s="35"/>
-      <c r="AI48" s="35"/>
-      <c r="AJ48" s="35"/>
-      <c r="AK48" s="35"/>
-      <c r="AL48" s="35"/>
-      <c r="AM48" s="35"/>
-      <c r="AN48" s="35"/>
-      <c r="AO48" s="35"/>
-      <c r="AP48" s="36"/>
-      <c r="AQ48" s="53"/>
-      <c r="AR48" s="54"/>
-      <c r="AS48" s="54"/>
-      <c r="AT48" s="54"/>
-      <c r="AU48" s="54"/>
-      <c r="AV48" s="54"/>
-      <c r="AW48" s="54"/>
-      <c r="AX48" s="54"/>
-      <c r="AY48" s="54"/>
-      <c r="AZ48" s="55"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="56"/>
+      <c r="T48" s="56"/>
+      <c r="U48" s="56"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="56"/>
+      <c r="X48" s="56"/>
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="56"/>
+      <c r="AC48" s="56"/>
+      <c r="AD48" s="56"/>
+      <c r="AE48" s="56"/>
+      <c r="AF48" s="56"/>
+      <c r="AG48" s="56"/>
+      <c r="AH48" s="56"/>
+      <c r="AI48" s="56"/>
+      <c r="AJ48" s="56"/>
+      <c r="AK48" s="56"/>
+      <c r="AL48" s="56"/>
+      <c r="AM48" s="56"/>
+      <c r="AN48" s="56"/>
+      <c r="AO48" s="56"/>
+      <c r="AP48" s="57"/>
+      <c r="AQ48" s="74"/>
+      <c r="AR48" s="75"/>
+      <c r="AS48" s="75"/>
+      <c r="AT48" s="75"/>
+      <c r="AU48" s="75"/>
+      <c r="AV48" s="75"/>
+      <c r="AW48" s="75"/>
+      <c r="AX48" s="75"/>
+      <c r="AY48" s="75"/>
+      <c r="AZ48" s="76"/>
     </row>
     <row r="49" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="67"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="35"/>
-      <c r="X49" s="35"/>
-      <c r="Y49" s="35"/>
-      <c r="Z49" s="35"/>
-      <c r="AA49" s="35"/>
-      <c r="AB49" s="35"/>
-      <c r="AC49" s="35"/>
-      <c r="AD49" s="35"/>
-      <c r="AE49" s="35"/>
-      <c r="AF49" s="35"/>
-      <c r="AG49" s="35"/>
-      <c r="AH49" s="35"/>
-      <c r="AI49" s="35"/>
-      <c r="AJ49" s="35"/>
-      <c r="AK49" s="35"/>
-      <c r="AL49" s="35"/>
-      <c r="AM49" s="35"/>
-      <c r="AN49" s="35"/>
-      <c r="AO49" s="35"/>
-      <c r="AP49" s="36"/>
-      <c r="AQ49" s="53"/>
-      <c r="AR49" s="54"/>
-      <c r="AS49" s="54"/>
-      <c r="AT49" s="54"/>
-      <c r="AU49" s="54"/>
-      <c r="AV49" s="54"/>
-      <c r="AW49" s="54"/>
-      <c r="AX49" s="54"/>
-      <c r="AY49" s="54"/>
-      <c r="AZ49" s="55"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="56"/>
+      <c r="T49" s="56"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="56"/>
+      <c r="Z49" s="56"/>
+      <c r="AA49" s="56"/>
+      <c r="AB49" s="56"/>
+      <c r="AC49" s="56"/>
+      <c r="AD49" s="56"/>
+      <c r="AE49" s="56"/>
+      <c r="AF49" s="56"/>
+      <c r="AG49" s="56"/>
+      <c r="AH49" s="56"/>
+      <c r="AI49" s="56"/>
+      <c r="AJ49" s="56"/>
+      <c r="AK49" s="56"/>
+      <c r="AL49" s="56"/>
+      <c r="AM49" s="56"/>
+      <c r="AN49" s="56"/>
+      <c r="AO49" s="56"/>
+      <c r="AP49" s="57"/>
+      <c r="AQ49" s="74"/>
+      <c r="AR49" s="75"/>
+      <c r="AS49" s="75"/>
+      <c r="AT49" s="75"/>
+      <c r="AU49" s="75"/>
+      <c r="AV49" s="75"/>
+      <c r="AW49" s="75"/>
+      <c r="AX49" s="75"/>
+      <c r="AY49" s="75"/>
+      <c r="AZ49" s="76"/>
     </row>
     <row r="50" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="67"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="35"/>
-      <c r="W50" s="35"/>
-      <c r="X50" s="35"/>
-      <c r="Y50" s="35"/>
-      <c r="Z50" s="35"/>
-      <c r="AA50" s="35"/>
-      <c r="AB50" s="35"/>
-      <c r="AC50" s="35"/>
-      <c r="AD50" s="35"/>
-      <c r="AE50" s="35"/>
-      <c r="AF50" s="35"/>
-      <c r="AG50" s="35"/>
-      <c r="AH50" s="35"/>
-      <c r="AI50" s="35"/>
-      <c r="AJ50" s="35"/>
-      <c r="AK50" s="35"/>
-      <c r="AL50" s="35"/>
-      <c r="AM50" s="35"/>
-      <c r="AN50" s="35"/>
-      <c r="AO50" s="35"/>
-      <c r="AP50" s="36"/>
-      <c r="AQ50" s="53"/>
-      <c r="AR50" s="54"/>
-      <c r="AS50" s="54"/>
-      <c r="AT50" s="54"/>
-      <c r="AU50" s="54"/>
-      <c r="AV50" s="54"/>
-      <c r="AW50" s="54"/>
-      <c r="AX50" s="54"/>
-      <c r="AY50" s="54"/>
-      <c r="AZ50" s="55"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="56"/>
+      <c r="T50" s="56"/>
+      <c r="U50" s="56"/>
+      <c r="V50" s="56"/>
+      <c r="W50" s="56"/>
+      <c r="X50" s="56"/>
+      <c r="Y50" s="56"/>
+      <c r="Z50" s="56"/>
+      <c r="AA50" s="56"/>
+      <c r="AB50" s="56"/>
+      <c r="AC50" s="56"/>
+      <c r="AD50" s="56"/>
+      <c r="AE50" s="56"/>
+      <c r="AF50" s="56"/>
+      <c r="AG50" s="56"/>
+      <c r="AH50" s="56"/>
+      <c r="AI50" s="56"/>
+      <c r="AJ50" s="56"/>
+      <c r="AK50" s="56"/>
+      <c r="AL50" s="56"/>
+      <c r="AM50" s="56"/>
+      <c r="AN50" s="56"/>
+      <c r="AO50" s="56"/>
+      <c r="AP50" s="57"/>
+      <c r="AQ50" s="74"/>
+      <c r="AR50" s="75"/>
+      <c r="AS50" s="75"/>
+      <c r="AT50" s="75"/>
+      <c r="AU50" s="75"/>
+      <c r="AV50" s="75"/>
+      <c r="AW50" s="75"/>
+      <c r="AX50" s="75"/>
+      <c r="AY50" s="75"/>
+      <c r="AZ50" s="76"/>
     </row>
     <row r="51" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="67"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="35"/>
-      <c r="Y51" s="35"/>
-      <c r="Z51" s="35"/>
-      <c r="AA51" s="35"/>
-      <c r="AB51" s="35"/>
-      <c r="AC51" s="35"/>
-      <c r="AD51" s="35"/>
-      <c r="AE51" s="35"/>
-      <c r="AF51" s="35"/>
-      <c r="AG51" s="35"/>
-      <c r="AH51" s="35"/>
-      <c r="AI51" s="35"/>
-      <c r="AJ51" s="35"/>
-      <c r="AK51" s="35"/>
-      <c r="AL51" s="35"/>
-      <c r="AM51" s="35"/>
-      <c r="AN51" s="35"/>
-      <c r="AO51" s="35"/>
-      <c r="AP51" s="36"/>
-      <c r="AQ51" s="53"/>
-      <c r="AR51" s="54"/>
-      <c r="AS51" s="54"/>
-      <c r="AT51" s="54"/>
-      <c r="AU51" s="54"/>
-      <c r="AV51" s="54"/>
-      <c r="AW51" s="54"/>
-      <c r="AX51" s="54"/>
-      <c r="AY51" s="54"/>
-      <c r="AZ51" s="55"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="56"/>
+      <c r="T51" s="56"/>
+      <c r="U51" s="56"/>
+      <c r="V51" s="56"/>
+      <c r="W51" s="56"/>
+      <c r="X51" s="56"/>
+      <c r="Y51" s="56"/>
+      <c r="Z51" s="56"/>
+      <c r="AA51" s="56"/>
+      <c r="AB51" s="56"/>
+      <c r="AC51" s="56"/>
+      <c r="AD51" s="56"/>
+      <c r="AE51" s="56"/>
+      <c r="AF51" s="56"/>
+      <c r="AG51" s="56"/>
+      <c r="AH51" s="56"/>
+      <c r="AI51" s="56"/>
+      <c r="AJ51" s="56"/>
+      <c r="AK51" s="56"/>
+      <c r="AL51" s="56"/>
+      <c r="AM51" s="56"/>
+      <c r="AN51" s="56"/>
+      <c r="AO51" s="56"/>
+      <c r="AP51" s="57"/>
+      <c r="AQ51" s="74"/>
+      <c r="AR51" s="75"/>
+      <c r="AS51" s="75"/>
+      <c r="AT51" s="75"/>
+      <c r="AU51" s="75"/>
+      <c r="AV51" s="75"/>
+      <c r="AW51" s="75"/>
+      <c r="AX51" s="75"/>
+      <c r="AY51" s="75"/>
+      <c r="AZ51" s="76"/>
     </row>
     <row r="52" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="67"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
-      <c r="S52" s="35"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="35"/>
-      <c r="V52" s="35"/>
-      <c r="W52" s="35"/>
-      <c r="X52" s="35"/>
-      <c r="Y52" s="35"/>
-      <c r="Z52" s="35"/>
-      <c r="AA52" s="35"/>
-      <c r="AB52" s="35"/>
-      <c r="AC52" s="35"/>
-      <c r="AD52" s="35"/>
-      <c r="AE52" s="35"/>
-      <c r="AF52" s="35"/>
-      <c r="AG52" s="35"/>
-      <c r="AH52" s="35"/>
-      <c r="AI52" s="35"/>
-      <c r="AJ52" s="35"/>
-      <c r="AK52" s="35"/>
-      <c r="AL52" s="35"/>
-      <c r="AM52" s="35"/>
-      <c r="AN52" s="35"/>
-      <c r="AO52" s="35"/>
-      <c r="AP52" s="36"/>
-      <c r="AQ52" s="53"/>
-      <c r="AR52" s="54"/>
-      <c r="AS52" s="54"/>
-      <c r="AT52" s="54"/>
-      <c r="AU52" s="54"/>
-      <c r="AV52" s="54"/>
-      <c r="AW52" s="54"/>
-      <c r="AX52" s="54"/>
-      <c r="AY52" s="54"/>
-      <c r="AZ52" s="55"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="56"/>
+      <c r="T52" s="56"/>
+      <c r="U52" s="56"/>
+      <c r="V52" s="56"/>
+      <c r="W52" s="56"/>
+      <c r="X52" s="56"/>
+      <c r="Y52" s="56"/>
+      <c r="Z52" s="56"/>
+      <c r="AA52" s="56"/>
+      <c r="AB52" s="56"/>
+      <c r="AC52" s="56"/>
+      <c r="AD52" s="56"/>
+      <c r="AE52" s="56"/>
+      <c r="AF52" s="56"/>
+      <c r="AG52" s="56"/>
+      <c r="AH52" s="56"/>
+      <c r="AI52" s="56"/>
+      <c r="AJ52" s="56"/>
+      <c r="AK52" s="56"/>
+      <c r="AL52" s="56"/>
+      <c r="AM52" s="56"/>
+      <c r="AN52" s="56"/>
+      <c r="AO52" s="56"/>
+      <c r="AP52" s="57"/>
+      <c r="AQ52" s="74"/>
+      <c r="AR52" s="75"/>
+      <c r="AS52" s="75"/>
+      <c r="AT52" s="75"/>
+      <c r="AU52" s="75"/>
+      <c r="AV52" s="75"/>
+      <c r="AW52" s="75"/>
+      <c r="AX52" s="75"/>
+      <c r="AY52" s="75"/>
+      <c r="AZ52" s="76"/>
     </row>
     <row r="53" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="67"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
-      <c r="S53" s="35"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="35"/>
-      <c r="V53" s="35"/>
-      <c r="W53" s="35"/>
-      <c r="X53" s="35"/>
-      <c r="Y53" s="35"/>
-      <c r="Z53" s="35"/>
-      <c r="AA53" s="35"/>
-      <c r="AB53" s="35"/>
-      <c r="AC53" s="35"/>
-      <c r="AD53" s="35"/>
-      <c r="AE53" s="35"/>
-      <c r="AF53" s="35"/>
-      <c r="AG53" s="35"/>
-      <c r="AH53" s="35"/>
-      <c r="AI53" s="35"/>
-      <c r="AJ53" s="35"/>
-      <c r="AK53" s="35"/>
-      <c r="AL53" s="35"/>
-      <c r="AM53" s="35"/>
-      <c r="AN53" s="35"/>
-      <c r="AO53" s="35"/>
-      <c r="AP53" s="36"/>
-      <c r="AQ53" s="53"/>
-      <c r="AR53" s="54"/>
-      <c r="AS53" s="54"/>
-      <c r="AT53" s="54"/>
-      <c r="AU53" s="54"/>
-      <c r="AV53" s="54"/>
-      <c r="AW53" s="54"/>
-      <c r="AX53" s="54"/>
-      <c r="AY53" s="54"/>
-      <c r="AZ53" s="55"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="56"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56"/>
+      <c r="V53" s="56"/>
+      <c r="W53" s="56"/>
+      <c r="X53" s="56"/>
+      <c r="Y53" s="56"/>
+      <c r="Z53" s="56"/>
+      <c r="AA53" s="56"/>
+      <c r="AB53" s="56"/>
+      <c r="AC53" s="56"/>
+      <c r="AD53" s="56"/>
+      <c r="AE53" s="56"/>
+      <c r="AF53" s="56"/>
+      <c r="AG53" s="56"/>
+      <c r="AH53" s="56"/>
+      <c r="AI53" s="56"/>
+      <c r="AJ53" s="56"/>
+      <c r="AK53" s="56"/>
+      <c r="AL53" s="56"/>
+      <c r="AM53" s="56"/>
+      <c r="AN53" s="56"/>
+      <c r="AO53" s="56"/>
+      <c r="AP53" s="57"/>
+      <c r="AQ53" s="74"/>
+      <c r="AR53" s="75"/>
+      <c r="AS53" s="75"/>
+      <c r="AT53" s="75"/>
+      <c r="AU53" s="75"/>
+      <c r="AV53" s="75"/>
+      <c r="AW53" s="75"/>
+      <c r="AX53" s="75"/>
+      <c r="AY53" s="75"/>
+      <c r="AZ53" s="76"/>
     </row>
     <row r="54" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="67"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
-      <c r="S54" s="35"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="35"/>
-      <c r="V54" s="35"/>
-      <c r="W54" s="35"/>
-      <c r="X54" s="35"/>
-      <c r="Y54" s="35"/>
-      <c r="Z54" s="35"/>
-      <c r="AA54" s="35"/>
-      <c r="AB54" s="35"/>
-      <c r="AC54" s="35"/>
-      <c r="AD54" s="35"/>
-      <c r="AE54" s="35"/>
-      <c r="AF54" s="35"/>
-      <c r="AG54" s="35"/>
-      <c r="AH54" s="35"/>
-      <c r="AI54" s="35"/>
-      <c r="AJ54" s="35"/>
-      <c r="AK54" s="35"/>
-      <c r="AL54" s="35"/>
-      <c r="AM54" s="35"/>
-      <c r="AN54" s="35"/>
-      <c r="AO54" s="35"/>
-      <c r="AP54" s="36"/>
-      <c r="AQ54" s="53"/>
-      <c r="AR54" s="54"/>
-      <c r="AS54" s="54"/>
-      <c r="AT54" s="54"/>
-      <c r="AU54" s="54"/>
-      <c r="AV54" s="54"/>
-      <c r="AW54" s="54"/>
-      <c r="AX54" s="54"/>
-      <c r="AY54" s="54"/>
-      <c r="AZ54" s="55"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="56"/>
+      <c r="S54" s="56"/>
+      <c r="T54" s="56"/>
+      <c r="U54" s="56"/>
+      <c r="V54" s="56"/>
+      <c r="W54" s="56"/>
+      <c r="X54" s="56"/>
+      <c r="Y54" s="56"/>
+      <c r="Z54" s="56"/>
+      <c r="AA54" s="56"/>
+      <c r="AB54" s="56"/>
+      <c r="AC54" s="56"/>
+      <c r="AD54" s="56"/>
+      <c r="AE54" s="56"/>
+      <c r="AF54" s="56"/>
+      <c r="AG54" s="56"/>
+      <c r="AH54" s="56"/>
+      <c r="AI54" s="56"/>
+      <c r="AJ54" s="56"/>
+      <c r="AK54" s="56"/>
+      <c r="AL54" s="56"/>
+      <c r="AM54" s="56"/>
+      <c r="AN54" s="56"/>
+      <c r="AO54" s="56"/>
+      <c r="AP54" s="57"/>
+      <c r="AQ54" s="74"/>
+      <c r="AR54" s="75"/>
+      <c r="AS54" s="75"/>
+      <c r="AT54" s="75"/>
+      <c r="AU54" s="75"/>
+      <c r="AV54" s="75"/>
+      <c r="AW54" s="75"/>
+      <c r="AX54" s="75"/>
+      <c r="AY54" s="75"/>
+      <c r="AZ54" s="76"/>
     </row>
     <row r="55" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="61" t="s">
-        <v>7</v>
+      <c r="B55" s="34" t="s">
+        <v>6</v>
       </c>
-      <c r="C55" s="62"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="35"/>
-      <c r="Y55" s="35"/>
-      <c r="Z55" s="35"/>
-      <c r="AA55" s="35"/>
-      <c r="AB55" s="35"/>
-      <c r="AC55" s="35"/>
-      <c r="AD55" s="35"/>
-      <c r="AE55" s="35"/>
-      <c r="AF55" s="35"/>
-      <c r="AG55" s="35"/>
-      <c r="AH55" s="35"/>
-      <c r="AI55" s="35"/>
-      <c r="AJ55" s="35"/>
-      <c r="AK55" s="35"/>
-      <c r="AL55" s="35"/>
-      <c r="AM55" s="35"/>
-      <c r="AN55" s="35"/>
-      <c r="AO55" s="35"/>
-      <c r="AP55" s="36"/>
-      <c r="AQ55" s="53"/>
-      <c r="AR55" s="54"/>
-      <c r="AS55" s="54"/>
-      <c r="AT55" s="54"/>
-      <c r="AU55" s="54"/>
-      <c r="AV55" s="54"/>
-      <c r="AW55" s="54"/>
-      <c r="AX55" s="54"/>
-      <c r="AY55" s="54"/>
-      <c r="AZ55" s="55"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="56"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="56"/>
+      <c r="T55" s="56"/>
+      <c r="U55" s="56"/>
+      <c r="V55" s="56"/>
+      <c r="W55" s="56"/>
+      <c r="X55" s="56"/>
+      <c r="Y55" s="56"/>
+      <c r="Z55" s="56"/>
+      <c r="AA55" s="56"/>
+      <c r="AB55" s="56"/>
+      <c r="AC55" s="56"/>
+      <c r="AD55" s="56"/>
+      <c r="AE55" s="56"/>
+      <c r="AF55" s="56"/>
+      <c r="AG55" s="56"/>
+      <c r="AH55" s="56"/>
+      <c r="AI55" s="56"/>
+      <c r="AJ55" s="56"/>
+      <c r="AK55" s="56"/>
+      <c r="AL55" s="56"/>
+      <c r="AM55" s="56"/>
+      <c r="AN55" s="56"/>
+      <c r="AO55" s="56"/>
+      <c r="AP55" s="57"/>
+      <c r="AQ55" s="74"/>
+      <c r="AR55" s="75"/>
+      <c r="AS55" s="75"/>
+      <c r="AT55" s="75"/>
+      <c r="AU55" s="75"/>
+      <c r="AV55" s="75"/>
+      <c r="AW55" s="75"/>
+      <c r="AX55" s="75"/>
+      <c r="AY55" s="75"/>
+      <c r="AZ55" s="76"/>
     </row>
     <row r="56" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="63"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="38"/>
-      <c r="P56" s="38"/>
-      <c r="Q56" s="38"/>
-      <c r="R56" s="38"/>
-      <c r="S56" s="38"/>
-      <c r="T56" s="38"/>
-      <c r="U56" s="38"/>
-      <c r="V56" s="38"/>
-      <c r="W56" s="38"/>
-      <c r="X56" s="38"/>
-      <c r="Y56" s="38"/>
-      <c r="Z56" s="38"/>
-      <c r="AA56" s="38"/>
-      <c r="AB56" s="38"/>
-      <c r="AC56" s="38"/>
-      <c r="AD56" s="38"/>
-      <c r="AE56" s="38"/>
-      <c r="AF56" s="38"/>
-      <c r="AG56" s="38"/>
-      <c r="AH56" s="38"/>
-      <c r="AI56" s="38"/>
-      <c r="AJ56" s="38"/>
-      <c r="AK56" s="38"/>
-      <c r="AL56" s="38"/>
-      <c r="AM56" s="38"/>
-      <c r="AN56" s="38"/>
-      <c r="AO56" s="38"/>
-      <c r="AP56" s="39"/>
-      <c r="AQ56" s="56"/>
-      <c r="AR56" s="57"/>
-      <c r="AS56" s="57"/>
-      <c r="AT56" s="57"/>
-      <c r="AU56" s="57"/>
-      <c r="AV56" s="57"/>
-      <c r="AW56" s="57"/>
-      <c r="AX56" s="57"/>
-      <c r="AY56" s="57"/>
-      <c r="AZ56" s="58"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="59"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="59"/>
+      <c r="Q56" s="59"/>
+      <c r="R56" s="59"/>
+      <c r="S56" s="59"/>
+      <c r="T56" s="59"/>
+      <c r="U56" s="59"/>
+      <c r="V56" s="59"/>
+      <c r="W56" s="59"/>
+      <c r="X56" s="59"/>
+      <c r="Y56" s="59"/>
+      <c r="Z56" s="59"/>
+      <c r="AA56" s="59"/>
+      <c r="AB56" s="59"/>
+      <c r="AC56" s="59"/>
+      <c r="AD56" s="59"/>
+      <c r="AE56" s="59"/>
+      <c r="AF56" s="59"/>
+      <c r="AG56" s="59"/>
+      <c r="AH56" s="59"/>
+      <c r="AI56" s="59"/>
+      <c r="AJ56" s="59"/>
+      <c r="AK56" s="59"/>
+      <c r="AL56" s="59"/>
+      <c r="AM56" s="59"/>
+      <c r="AN56" s="59"/>
+      <c r="AO56" s="59"/>
+      <c r="AP56" s="60"/>
+      <c r="AQ56" s="77"/>
+      <c r="AR56" s="78"/>
+      <c r="AS56" s="78"/>
+      <c r="AT56" s="78"/>
+      <c r="AU56" s="78"/>
+      <c r="AV56" s="78"/>
+      <c r="AW56" s="78"/>
+      <c r="AX56" s="78"/>
+      <c r="AY56" s="78"/>
+      <c r="AZ56" s="79"/>
     </row>
     <row r="57" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="69" t="s">
+      <c r="B57" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="70"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="12"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -10393,22 +11279,22 @@
       <c r="AZ57" s="2"/>
     </row>
     <row r="58" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="71"/>
-      <c r="C58" s="72"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="29"/>
       <c r="D58" s="15"/>
       <c r="AZ58" s="3"/>
     </row>
     <row r="59" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="71"/>
-      <c r="C59" s="72"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="29"/>
       <c r="D59" s="15"/>
       <c r="AZ59" s="3"/>
     </row>
     <row r="60" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="76" t="s">
+      <c r="B60" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="77"/>
+      <c r="C60" s="31"/>
       <c r="D60" s="16"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -10460,14 +11346,14 @@
       <c r="AZ60" s="18"/>
     </row>
     <row r="61" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="71"/>
-      <c r="C61" s="72"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="29"/>
       <c r="D61" s="15"/>
       <c r="AZ61" s="3"/>
     </row>
     <row r="62" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="78"/>
-      <c r="C62" s="79"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="33"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="6"/>
@@ -10519,548 +11405,548 @@
       <c r="AZ62" s="6"/>
     </row>
     <row r="63" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="23"/>
+      <c r="D63" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="66"/>
-      <c r="D63" s="41" t="s">
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="53"/>
+      <c r="M63" s="53"/>
+      <c r="N63" s="53"/>
+      <c r="O63" s="53"/>
+      <c r="P63" s="53"/>
+      <c r="Q63" s="53"/>
+      <c r="R63" s="53"/>
+      <c r="S63" s="53"/>
+      <c r="T63" s="53"/>
+      <c r="U63" s="53"/>
+      <c r="V63" s="53"/>
+      <c r="W63" s="53"/>
+      <c r="X63" s="53"/>
+      <c r="Y63" s="53"/>
+      <c r="Z63" s="53"/>
+      <c r="AA63" s="53"/>
+      <c r="AB63" s="53"/>
+      <c r="AC63" s="53"/>
+      <c r="AD63" s="53"/>
+      <c r="AE63" s="53"/>
+      <c r="AF63" s="53"/>
+      <c r="AG63" s="53"/>
+      <c r="AH63" s="53"/>
+      <c r="AI63" s="53"/>
+      <c r="AJ63" s="53"/>
+      <c r="AK63" s="53"/>
+      <c r="AL63" s="53"/>
+      <c r="AM63" s="53"/>
+      <c r="AN63" s="53"/>
+      <c r="AO63" s="53"/>
+      <c r="AP63" s="54"/>
+      <c r="AQ63" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="32"/>
-      <c r="S63" s="32"/>
-      <c r="T63" s="32"/>
-      <c r="U63" s="32"/>
-      <c r="V63" s="32"/>
-      <c r="W63" s="32"/>
-      <c r="X63" s="32"/>
-      <c r="Y63" s="32"/>
-      <c r="Z63" s="32"/>
-      <c r="AA63" s="32"/>
-      <c r="AB63" s="32"/>
-      <c r="AC63" s="32"/>
-      <c r="AD63" s="32"/>
-      <c r="AE63" s="32"/>
-      <c r="AF63" s="32"/>
-      <c r="AG63" s="32"/>
-      <c r="AH63" s="32"/>
-      <c r="AI63" s="32"/>
-      <c r="AJ63" s="32"/>
-      <c r="AK63" s="32"/>
-      <c r="AL63" s="32"/>
-      <c r="AM63" s="32"/>
-      <c r="AN63" s="32"/>
-      <c r="AO63" s="32"/>
-      <c r="AP63" s="33"/>
-      <c r="AQ63" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR63" s="51"/>
-      <c r="AS63" s="51"/>
-      <c r="AT63" s="51"/>
-      <c r="AU63" s="51"/>
-      <c r="AV63" s="51"/>
-      <c r="AW63" s="51"/>
-      <c r="AX63" s="51"/>
-      <c r="AY63" s="51"/>
-      <c r="AZ63" s="52"/>
+      <c r="AR63" s="72"/>
+      <c r="AS63" s="72"/>
+      <c r="AT63" s="72"/>
+      <c r="AU63" s="72"/>
+      <c r="AV63" s="72"/>
+      <c r="AW63" s="72"/>
+      <c r="AX63" s="72"/>
+      <c r="AY63" s="72"/>
+      <c r="AZ63" s="73"/>
     </row>
     <row r="64" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="67"/>
-      <c r="C64" s="68"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="35"/>
-      <c r="V64" s="35"/>
-      <c r="W64" s="35"/>
-      <c r="X64" s="35"/>
-      <c r="Y64" s="35"/>
-      <c r="Z64" s="35"/>
-      <c r="AA64" s="35"/>
-      <c r="AB64" s="35"/>
-      <c r="AC64" s="35"/>
-      <c r="AD64" s="35"/>
-      <c r="AE64" s="35"/>
-      <c r="AF64" s="35"/>
-      <c r="AG64" s="35"/>
-      <c r="AH64" s="35"/>
-      <c r="AI64" s="35"/>
-      <c r="AJ64" s="35"/>
-      <c r="AK64" s="35"/>
-      <c r="AL64" s="35"/>
-      <c r="AM64" s="35"/>
-      <c r="AN64" s="35"/>
-      <c r="AO64" s="35"/>
-      <c r="AP64" s="36"/>
-      <c r="AQ64" s="53"/>
-      <c r="AR64" s="54"/>
-      <c r="AS64" s="54"/>
-      <c r="AT64" s="54"/>
-      <c r="AU64" s="54"/>
-      <c r="AV64" s="54"/>
-      <c r="AW64" s="54"/>
-      <c r="AX64" s="54"/>
-      <c r="AY64" s="54"/>
-      <c r="AZ64" s="55"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="56"/>
+      <c r="O64" s="56"/>
+      <c r="P64" s="56"/>
+      <c r="Q64" s="56"/>
+      <c r="R64" s="56"/>
+      <c r="S64" s="56"/>
+      <c r="T64" s="56"/>
+      <c r="U64" s="56"/>
+      <c r="V64" s="56"/>
+      <c r="W64" s="56"/>
+      <c r="X64" s="56"/>
+      <c r="Y64" s="56"/>
+      <c r="Z64" s="56"/>
+      <c r="AA64" s="56"/>
+      <c r="AB64" s="56"/>
+      <c r="AC64" s="56"/>
+      <c r="AD64" s="56"/>
+      <c r="AE64" s="56"/>
+      <c r="AF64" s="56"/>
+      <c r="AG64" s="56"/>
+      <c r="AH64" s="56"/>
+      <c r="AI64" s="56"/>
+      <c r="AJ64" s="56"/>
+      <c r="AK64" s="56"/>
+      <c r="AL64" s="56"/>
+      <c r="AM64" s="56"/>
+      <c r="AN64" s="56"/>
+      <c r="AO64" s="56"/>
+      <c r="AP64" s="57"/>
+      <c r="AQ64" s="74"/>
+      <c r="AR64" s="75"/>
+      <c r="AS64" s="75"/>
+      <c r="AT64" s="75"/>
+      <c r="AU64" s="75"/>
+      <c r="AV64" s="75"/>
+      <c r="AW64" s="75"/>
+      <c r="AX64" s="75"/>
+      <c r="AY64" s="75"/>
+      <c r="AZ64" s="76"/>
     </row>
     <row r="65" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="67"/>
-      <c r="C65" s="68"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
-      <c r="S65" s="35"/>
-      <c r="T65" s="35"/>
-      <c r="U65" s="35"/>
-      <c r="V65" s="35"/>
-      <c r="W65" s="35"/>
-      <c r="X65" s="35"/>
-      <c r="Y65" s="35"/>
-      <c r="Z65" s="35"/>
-      <c r="AA65" s="35"/>
-      <c r="AB65" s="35"/>
-      <c r="AC65" s="35"/>
-      <c r="AD65" s="35"/>
-      <c r="AE65" s="35"/>
-      <c r="AF65" s="35"/>
-      <c r="AG65" s="35"/>
-      <c r="AH65" s="35"/>
-      <c r="AI65" s="35"/>
-      <c r="AJ65" s="35"/>
-      <c r="AK65" s="35"/>
-      <c r="AL65" s="35"/>
-      <c r="AM65" s="35"/>
-      <c r="AN65" s="35"/>
-      <c r="AO65" s="35"/>
-      <c r="AP65" s="36"/>
-      <c r="AQ65" s="53"/>
-      <c r="AR65" s="54"/>
-      <c r="AS65" s="54"/>
-      <c r="AT65" s="54"/>
-      <c r="AU65" s="54"/>
-      <c r="AV65" s="54"/>
-      <c r="AW65" s="54"/>
-      <c r="AX65" s="54"/>
-      <c r="AY65" s="54"/>
-      <c r="AZ65" s="55"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="56"/>
+      <c r="K65" s="56"/>
+      <c r="L65" s="56"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="56"/>
+      <c r="O65" s="56"/>
+      <c r="P65" s="56"/>
+      <c r="Q65" s="56"/>
+      <c r="R65" s="56"/>
+      <c r="S65" s="56"/>
+      <c r="T65" s="56"/>
+      <c r="U65" s="56"/>
+      <c r="V65" s="56"/>
+      <c r="W65" s="56"/>
+      <c r="X65" s="56"/>
+      <c r="Y65" s="56"/>
+      <c r="Z65" s="56"/>
+      <c r="AA65" s="56"/>
+      <c r="AB65" s="56"/>
+      <c r="AC65" s="56"/>
+      <c r="AD65" s="56"/>
+      <c r="AE65" s="56"/>
+      <c r="AF65" s="56"/>
+      <c r="AG65" s="56"/>
+      <c r="AH65" s="56"/>
+      <c r="AI65" s="56"/>
+      <c r="AJ65" s="56"/>
+      <c r="AK65" s="56"/>
+      <c r="AL65" s="56"/>
+      <c r="AM65" s="56"/>
+      <c r="AN65" s="56"/>
+      <c r="AO65" s="56"/>
+      <c r="AP65" s="57"/>
+      <c r="AQ65" s="74"/>
+      <c r="AR65" s="75"/>
+      <c r="AS65" s="75"/>
+      <c r="AT65" s="75"/>
+      <c r="AU65" s="75"/>
+      <c r="AV65" s="75"/>
+      <c r="AW65" s="75"/>
+      <c r="AX65" s="75"/>
+      <c r="AY65" s="75"/>
+      <c r="AZ65" s="76"/>
     </row>
     <row r="66" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="67"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
-      <c r="S66" s="35"/>
-      <c r="T66" s="35"/>
-      <c r="U66" s="35"/>
-      <c r="V66" s="35"/>
-      <c r="W66" s="35"/>
-      <c r="X66" s="35"/>
-      <c r="Y66" s="35"/>
-      <c r="Z66" s="35"/>
-      <c r="AA66" s="35"/>
-      <c r="AB66" s="35"/>
-      <c r="AC66" s="35"/>
-      <c r="AD66" s="35"/>
-      <c r="AE66" s="35"/>
-      <c r="AF66" s="35"/>
-      <c r="AG66" s="35"/>
-      <c r="AH66" s="35"/>
-      <c r="AI66" s="35"/>
-      <c r="AJ66" s="35"/>
-      <c r="AK66" s="35"/>
-      <c r="AL66" s="35"/>
-      <c r="AM66" s="35"/>
-      <c r="AN66" s="35"/>
-      <c r="AO66" s="35"/>
-      <c r="AP66" s="36"/>
-      <c r="AQ66" s="53"/>
-      <c r="AR66" s="54"/>
-      <c r="AS66" s="54"/>
-      <c r="AT66" s="54"/>
-      <c r="AU66" s="54"/>
-      <c r="AV66" s="54"/>
-      <c r="AW66" s="54"/>
-      <c r="AX66" s="54"/>
-      <c r="AY66" s="54"/>
-      <c r="AZ66" s="55"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="56"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="56"/>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="56"/>
+      <c r="S66" s="56"/>
+      <c r="T66" s="56"/>
+      <c r="U66" s="56"/>
+      <c r="V66" s="56"/>
+      <c r="W66" s="56"/>
+      <c r="X66" s="56"/>
+      <c r="Y66" s="56"/>
+      <c r="Z66" s="56"/>
+      <c r="AA66" s="56"/>
+      <c r="AB66" s="56"/>
+      <c r="AC66" s="56"/>
+      <c r="AD66" s="56"/>
+      <c r="AE66" s="56"/>
+      <c r="AF66" s="56"/>
+      <c r="AG66" s="56"/>
+      <c r="AH66" s="56"/>
+      <c r="AI66" s="56"/>
+      <c r="AJ66" s="56"/>
+      <c r="AK66" s="56"/>
+      <c r="AL66" s="56"/>
+      <c r="AM66" s="56"/>
+      <c r="AN66" s="56"/>
+      <c r="AO66" s="56"/>
+      <c r="AP66" s="57"/>
+      <c r="AQ66" s="74"/>
+      <c r="AR66" s="75"/>
+      <c r="AS66" s="75"/>
+      <c r="AT66" s="75"/>
+      <c r="AU66" s="75"/>
+      <c r="AV66" s="75"/>
+      <c r="AW66" s="75"/>
+      <c r="AX66" s="75"/>
+      <c r="AY66" s="75"/>
+      <c r="AZ66" s="76"/>
     </row>
     <row r="67" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="67"/>
-      <c r="C67" s="68"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35"/>
-      <c r="S67" s="35"/>
-      <c r="T67" s="35"/>
-      <c r="U67" s="35"/>
-      <c r="V67" s="35"/>
-      <c r="W67" s="35"/>
-      <c r="X67" s="35"/>
-      <c r="Y67" s="35"/>
-      <c r="Z67" s="35"/>
-      <c r="AA67" s="35"/>
-      <c r="AB67" s="35"/>
-      <c r="AC67" s="35"/>
-      <c r="AD67" s="35"/>
-      <c r="AE67" s="35"/>
-      <c r="AF67" s="35"/>
-      <c r="AG67" s="35"/>
-      <c r="AH67" s="35"/>
-      <c r="AI67" s="35"/>
-      <c r="AJ67" s="35"/>
-      <c r="AK67" s="35"/>
-      <c r="AL67" s="35"/>
-      <c r="AM67" s="35"/>
-      <c r="AN67" s="35"/>
-      <c r="AO67" s="35"/>
-      <c r="AP67" s="36"/>
-      <c r="AQ67" s="53"/>
-      <c r="AR67" s="54"/>
-      <c r="AS67" s="54"/>
-      <c r="AT67" s="54"/>
-      <c r="AU67" s="54"/>
-      <c r="AV67" s="54"/>
-      <c r="AW67" s="54"/>
-      <c r="AX67" s="54"/>
-      <c r="AY67" s="54"/>
-      <c r="AZ67" s="55"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="56"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="56"/>
+      <c r="P67" s="56"/>
+      <c r="Q67" s="56"/>
+      <c r="R67" s="56"/>
+      <c r="S67" s="56"/>
+      <c r="T67" s="56"/>
+      <c r="U67" s="56"/>
+      <c r="V67" s="56"/>
+      <c r="W67" s="56"/>
+      <c r="X67" s="56"/>
+      <c r="Y67" s="56"/>
+      <c r="Z67" s="56"/>
+      <c r="AA67" s="56"/>
+      <c r="AB67" s="56"/>
+      <c r="AC67" s="56"/>
+      <c r="AD67" s="56"/>
+      <c r="AE67" s="56"/>
+      <c r="AF67" s="56"/>
+      <c r="AG67" s="56"/>
+      <c r="AH67" s="56"/>
+      <c r="AI67" s="56"/>
+      <c r="AJ67" s="56"/>
+      <c r="AK67" s="56"/>
+      <c r="AL67" s="56"/>
+      <c r="AM67" s="56"/>
+      <c r="AN67" s="56"/>
+      <c r="AO67" s="56"/>
+      <c r="AP67" s="57"/>
+      <c r="AQ67" s="74"/>
+      <c r="AR67" s="75"/>
+      <c r="AS67" s="75"/>
+      <c r="AT67" s="75"/>
+      <c r="AU67" s="75"/>
+      <c r="AV67" s="75"/>
+      <c r="AW67" s="75"/>
+      <c r="AX67" s="75"/>
+      <c r="AY67" s="75"/>
+      <c r="AZ67" s="76"/>
     </row>
     <row r="68" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="67"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="35"/>
-      <c r="O68" s="35"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
-      <c r="R68" s="35"/>
-      <c r="S68" s="35"/>
-      <c r="T68" s="35"/>
-      <c r="U68" s="35"/>
-      <c r="V68" s="35"/>
-      <c r="W68" s="35"/>
-      <c r="X68" s="35"/>
-      <c r="Y68" s="35"/>
-      <c r="Z68" s="35"/>
-      <c r="AA68" s="35"/>
-      <c r="AB68" s="35"/>
-      <c r="AC68" s="35"/>
-      <c r="AD68" s="35"/>
-      <c r="AE68" s="35"/>
-      <c r="AF68" s="35"/>
-      <c r="AG68" s="35"/>
-      <c r="AH68" s="35"/>
-      <c r="AI68" s="35"/>
-      <c r="AJ68" s="35"/>
-      <c r="AK68" s="35"/>
-      <c r="AL68" s="35"/>
-      <c r="AM68" s="35"/>
-      <c r="AN68" s="35"/>
-      <c r="AO68" s="35"/>
-      <c r="AP68" s="36"/>
-      <c r="AQ68" s="53"/>
-      <c r="AR68" s="54"/>
-      <c r="AS68" s="54"/>
-      <c r="AT68" s="54"/>
-      <c r="AU68" s="54"/>
-      <c r="AV68" s="54"/>
-      <c r="AW68" s="54"/>
-      <c r="AX68" s="54"/>
-      <c r="AY68" s="54"/>
-      <c r="AZ68" s="55"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="56"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="56"/>
+      <c r="O68" s="56"/>
+      <c r="P68" s="56"/>
+      <c r="Q68" s="56"/>
+      <c r="R68" s="56"/>
+      <c r="S68" s="56"/>
+      <c r="T68" s="56"/>
+      <c r="U68" s="56"/>
+      <c r="V68" s="56"/>
+      <c r="W68" s="56"/>
+      <c r="X68" s="56"/>
+      <c r="Y68" s="56"/>
+      <c r="Z68" s="56"/>
+      <c r="AA68" s="56"/>
+      <c r="AB68" s="56"/>
+      <c r="AC68" s="56"/>
+      <c r="AD68" s="56"/>
+      <c r="AE68" s="56"/>
+      <c r="AF68" s="56"/>
+      <c r="AG68" s="56"/>
+      <c r="AH68" s="56"/>
+      <c r="AI68" s="56"/>
+      <c r="AJ68" s="56"/>
+      <c r="AK68" s="56"/>
+      <c r="AL68" s="56"/>
+      <c r="AM68" s="56"/>
+      <c r="AN68" s="56"/>
+      <c r="AO68" s="56"/>
+      <c r="AP68" s="57"/>
+      <c r="AQ68" s="74"/>
+      <c r="AR68" s="75"/>
+      <c r="AS68" s="75"/>
+      <c r="AT68" s="75"/>
+      <c r="AU68" s="75"/>
+      <c r="AV68" s="75"/>
+      <c r="AW68" s="75"/>
+      <c r="AX68" s="75"/>
+      <c r="AY68" s="75"/>
+      <c r="AZ68" s="76"/>
     </row>
     <row r="69" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="67"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
-      <c r="S69" s="35"/>
-      <c r="T69" s="35"/>
-      <c r="U69" s="35"/>
-      <c r="V69" s="35"/>
-      <c r="W69" s="35"/>
-      <c r="X69" s="35"/>
-      <c r="Y69" s="35"/>
-      <c r="Z69" s="35"/>
-      <c r="AA69" s="35"/>
-      <c r="AB69" s="35"/>
-      <c r="AC69" s="35"/>
-      <c r="AD69" s="35"/>
-      <c r="AE69" s="35"/>
-      <c r="AF69" s="35"/>
-      <c r="AG69" s="35"/>
-      <c r="AH69" s="35"/>
-      <c r="AI69" s="35"/>
-      <c r="AJ69" s="35"/>
-      <c r="AK69" s="35"/>
-      <c r="AL69" s="35"/>
-      <c r="AM69" s="35"/>
-      <c r="AN69" s="35"/>
-      <c r="AO69" s="35"/>
-      <c r="AP69" s="36"/>
-      <c r="AQ69" s="53"/>
-      <c r="AR69" s="54"/>
-      <c r="AS69" s="54"/>
-      <c r="AT69" s="54"/>
-      <c r="AU69" s="54"/>
-      <c r="AV69" s="54"/>
-      <c r="AW69" s="54"/>
-      <c r="AX69" s="54"/>
-      <c r="AY69" s="54"/>
-      <c r="AZ69" s="55"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
+      <c r="L69" s="56"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="56"/>
+      <c r="O69" s="56"/>
+      <c r="P69" s="56"/>
+      <c r="Q69" s="56"/>
+      <c r="R69" s="56"/>
+      <c r="S69" s="56"/>
+      <c r="T69" s="56"/>
+      <c r="U69" s="56"/>
+      <c r="V69" s="56"/>
+      <c r="W69" s="56"/>
+      <c r="X69" s="56"/>
+      <c r="Y69" s="56"/>
+      <c r="Z69" s="56"/>
+      <c r="AA69" s="56"/>
+      <c r="AB69" s="56"/>
+      <c r="AC69" s="56"/>
+      <c r="AD69" s="56"/>
+      <c r="AE69" s="56"/>
+      <c r="AF69" s="56"/>
+      <c r="AG69" s="56"/>
+      <c r="AH69" s="56"/>
+      <c r="AI69" s="56"/>
+      <c r="AJ69" s="56"/>
+      <c r="AK69" s="56"/>
+      <c r="AL69" s="56"/>
+      <c r="AM69" s="56"/>
+      <c r="AN69" s="56"/>
+      <c r="AO69" s="56"/>
+      <c r="AP69" s="57"/>
+      <c r="AQ69" s="74"/>
+      <c r="AR69" s="75"/>
+      <c r="AS69" s="75"/>
+      <c r="AT69" s="75"/>
+      <c r="AU69" s="75"/>
+      <c r="AV69" s="75"/>
+      <c r="AW69" s="75"/>
+      <c r="AX69" s="75"/>
+      <c r="AY69" s="75"/>
+      <c r="AZ69" s="76"/>
     </row>
     <row r="70" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="67"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
-      <c r="U70" s="35"/>
-      <c r="V70" s="35"/>
-      <c r="W70" s="35"/>
-      <c r="X70" s="35"/>
-      <c r="Y70" s="35"/>
-      <c r="Z70" s="35"/>
-      <c r="AA70" s="35"/>
-      <c r="AB70" s="35"/>
-      <c r="AC70" s="35"/>
-      <c r="AD70" s="35"/>
-      <c r="AE70" s="35"/>
-      <c r="AF70" s="35"/>
-      <c r="AG70" s="35"/>
-      <c r="AH70" s="35"/>
-      <c r="AI70" s="35"/>
-      <c r="AJ70" s="35"/>
-      <c r="AK70" s="35"/>
-      <c r="AL70" s="35"/>
-      <c r="AM70" s="35"/>
-      <c r="AN70" s="35"/>
-      <c r="AO70" s="35"/>
-      <c r="AP70" s="36"/>
-      <c r="AQ70" s="53"/>
-      <c r="AR70" s="54"/>
-      <c r="AS70" s="54"/>
-      <c r="AT70" s="54"/>
-      <c r="AU70" s="54"/>
-      <c r="AV70" s="54"/>
-      <c r="AW70" s="54"/>
-      <c r="AX70" s="54"/>
-      <c r="AY70" s="54"/>
-      <c r="AZ70" s="55"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="56"/>
+      <c r="O70" s="56"/>
+      <c r="P70" s="56"/>
+      <c r="Q70" s="56"/>
+      <c r="R70" s="56"/>
+      <c r="S70" s="56"/>
+      <c r="T70" s="56"/>
+      <c r="U70" s="56"/>
+      <c r="V70" s="56"/>
+      <c r="W70" s="56"/>
+      <c r="X70" s="56"/>
+      <c r="Y70" s="56"/>
+      <c r="Z70" s="56"/>
+      <c r="AA70" s="56"/>
+      <c r="AB70" s="56"/>
+      <c r="AC70" s="56"/>
+      <c r="AD70" s="56"/>
+      <c r="AE70" s="56"/>
+      <c r="AF70" s="56"/>
+      <c r="AG70" s="56"/>
+      <c r="AH70" s="56"/>
+      <c r="AI70" s="56"/>
+      <c r="AJ70" s="56"/>
+      <c r="AK70" s="56"/>
+      <c r="AL70" s="56"/>
+      <c r="AM70" s="56"/>
+      <c r="AN70" s="56"/>
+      <c r="AO70" s="56"/>
+      <c r="AP70" s="57"/>
+      <c r="AQ70" s="74"/>
+      <c r="AR70" s="75"/>
+      <c r="AS70" s="75"/>
+      <c r="AT70" s="75"/>
+      <c r="AU70" s="75"/>
+      <c r="AV70" s="75"/>
+      <c r="AW70" s="75"/>
+      <c r="AX70" s="75"/>
+      <c r="AY70" s="75"/>
+      <c r="AZ70" s="76"/>
     </row>
     <row r="71" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="61" t="s">
-        <v>8</v>
+      <c r="B71" s="34" t="s">
+        <v>7</v>
       </c>
-      <c r="C71" s="62"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="35"/>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35"/>
-      <c r="R71" s="35"/>
-      <c r="S71" s="35"/>
-      <c r="T71" s="35"/>
-      <c r="U71" s="35"/>
-      <c r="V71" s="35"/>
-      <c r="W71" s="35"/>
-      <c r="X71" s="35"/>
-      <c r="Y71" s="35"/>
-      <c r="Z71" s="35"/>
-      <c r="AA71" s="35"/>
-      <c r="AB71" s="35"/>
-      <c r="AC71" s="35"/>
-      <c r="AD71" s="35"/>
-      <c r="AE71" s="35"/>
-      <c r="AF71" s="35"/>
-      <c r="AG71" s="35"/>
-      <c r="AH71" s="35"/>
-      <c r="AI71" s="35"/>
-      <c r="AJ71" s="35"/>
-      <c r="AK71" s="35"/>
-      <c r="AL71" s="35"/>
-      <c r="AM71" s="35"/>
-      <c r="AN71" s="35"/>
-      <c r="AO71" s="35"/>
-      <c r="AP71" s="36"/>
-      <c r="AQ71" s="53"/>
-      <c r="AR71" s="54"/>
-      <c r="AS71" s="54"/>
-      <c r="AT71" s="54"/>
-      <c r="AU71" s="54"/>
-      <c r="AV71" s="54"/>
-      <c r="AW71" s="54"/>
-      <c r="AX71" s="54"/>
-      <c r="AY71" s="54"/>
-      <c r="AZ71" s="55"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="56"/>
+      <c r="L71" s="56"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56"/>
+      <c r="O71" s="56"/>
+      <c r="P71" s="56"/>
+      <c r="Q71" s="56"/>
+      <c r="R71" s="56"/>
+      <c r="S71" s="56"/>
+      <c r="T71" s="56"/>
+      <c r="U71" s="56"/>
+      <c r="V71" s="56"/>
+      <c r="W71" s="56"/>
+      <c r="X71" s="56"/>
+      <c r="Y71" s="56"/>
+      <c r="Z71" s="56"/>
+      <c r="AA71" s="56"/>
+      <c r="AB71" s="56"/>
+      <c r="AC71" s="56"/>
+      <c r="AD71" s="56"/>
+      <c r="AE71" s="56"/>
+      <c r="AF71" s="56"/>
+      <c r="AG71" s="56"/>
+      <c r="AH71" s="56"/>
+      <c r="AI71" s="56"/>
+      <c r="AJ71" s="56"/>
+      <c r="AK71" s="56"/>
+      <c r="AL71" s="56"/>
+      <c r="AM71" s="56"/>
+      <c r="AN71" s="56"/>
+      <c r="AO71" s="56"/>
+      <c r="AP71" s="57"/>
+      <c r="AQ71" s="74"/>
+      <c r="AR71" s="75"/>
+      <c r="AS71" s="75"/>
+      <c r="AT71" s="75"/>
+      <c r="AU71" s="75"/>
+      <c r="AV71" s="75"/>
+      <c r="AW71" s="75"/>
+      <c r="AX71" s="75"/>
+      <c r="AY71" s="75"/>
+      <c r="AZ71" s="76"/>
     </row>
     <row r="72" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="63"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="38"/>
-      <c r="O72" s="38"/>
-      <c r="P72" s="38"/>
-      <c r="Q72" s="38"/>
-      <c r="R72" s="38"/>
-      <c r="S72" s="38"/>
-      <c r="T72" s="38"/>
-      <c r="U72" s="38"/>
-      <c r="V72" s="38"/>
-      <c r="W72" s="38"/>
-      <c r="X72" s="38"/>
-      <c r="Y72" s="38"/>
-      <c r="Z72" s="38"/>
-      <c r="AA72" s="38"/>
-      <c r="AB72" s="38"/>
-      <c r="AC72" s="38"/>
-      <c r="AD72" s="38"/>
-      <c r="AE72" s="38"/>
-      <c r="AF72" s="38"/>
-      <c r="AG72" s="38"/>
-      <c r="AH72" s="38"/>
-      <c r="AI72" s="38"/>
-      <c r="AJ72" s="38"/>
-      <c r="AK72" s="38"/>
-      <c r="AL72" s="38"/>
-      <c r="AM72" s="38"/>
-      <c r="AN72" s="38"/>
-      <c r="AO72" s="38"/>
-      <c r="AP72" s="39"/>
-      <c r="AQ72" s="56"/>
-      <c r="AR72" s="57"/>
-      <c r="AS72" s="57"/>
-      <c r="AT72" s="57"/>
-      <c r="AU72" s="57"/>
-      <c r="AV72" s="57"/>
-      <c r="AW72" s="57"/>
-      <c r="AX72" s="57"/>
-      <c r="AY72" s="57"/>
-      <c r="AZ72" s="58"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="59"/>
+      <c r="M72" s="59"/>
+      <c r="N72" s="59"/>
+      <c r="O72" s="59"/>
+      <c r="P72" s="59"/>
+      <c r="Q72" s="59"/>
+      <c r="R72" s="59"/>
+      <c r="S72" s="59"/>
+      <c r="T72" s="59"/>
+      <c r="U72" s="59"/>
+      <c r="V72" s="59"/>
+      <c r="W72" s="59"/>
+      <c r="X72" s="59"/>
+      <c r="Y72" s="59"/>
+      <c r="Z72" s="59"/>
+      <c r="AA72" s="59"/>
+      <c r="AB72" s="59"/>
+      <c r="AC72" s="59"/>
+      <c r="AD72" s="59"/>
+      <c r="AE72" s="59"/>
+      <c r="AF72" s="59"/>
+      <c r="AG72" s="59"/>
+      <c r="AH72" s="59"/>
+      <c r="AI72" s="59"/>
+      <c r="AJ72" s="59"/>
+      <c r="AK72" s="59"/>
+      <c r="AL72" s="59"/>
+      <c r="AM72" s="59"/>
+      <c r="AN72" s="59"/>
+      <c r="AO72" s="59"/>
+      <c r="AP72" s="60"/>
+      <c r="AQ72" s="77"/>
+      <c r="AR72" s="78"/>
+      <c r="AS72" s="78"/>
+      <c r="AT72" s="78"/>
+      <c r="AU72" s="78"/>
+      <c r="AV72" s="78"/>
+      <c r="AW72" s="78"/>
+      <c r="AX72" s="78"/>
+      <c r="AY72" s="78"/>
+      <c r="AZ72" s="79"/>
     </row>
     <row r="73" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="69" t="s">
+      <c r="B73" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="70"/>
+      <c r="C73" s="27"/>
       <c r="D73" s="12"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -11112,22 +11998,22 @@
       <c r="AZ73" s="2"/>
     </row>
     <row r="74" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="71"/>
-      <c r="C74" s="72"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="29"/>
       <c r="D74" s="15"/>
       <c r="AZ74" s="3"/>
     </row>
     <row r="75" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="71"/>
-      <c r="C75" s="72"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="29"/>
       <c r="D75" s="15"/>
       <c r="AZ75" s="3"/>
     </row>
     <row r="76" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="76" t="s">
+      <c r="B76" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="77"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="16"/>
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
@@ -11179,14 +12065,14 @@
       <c r="AZ76" s="18"/>
     </row>
     <row r="77" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="71"/>
-      <c r="C77" s="72"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="29"/>
       <c r="D77" s="15"/>
       <c r="AZ77" s="3"/>
     </row>
     <row r="78" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="78"/>
-      <c r="C78" s="79"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="33"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="6"/>
@@ -11238,552 +12124,554 @@
       <c r="AZ78" s="6"/>
     </row>
     <row r="79" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="65" t="s">
-        <v>4</v>
+      <c r="B79" s="22" t="s">
+        <v>23</v>
       </c>
-      <c r="C79" s="66"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="32"/>
-      <c r="L79" s="32"/>
-      <c r="M79" s="32"/>
-      <c r="N79" s="32"/>
-      <c r="O79" s="32"/>
-      <c r="P79" s="32"/>
-      <c r="Q79" s="32"/>
-      <c r="R79" s="32"/>
-      <c r="S79" s="32"/>
-      <c r="T79" s="32"/>
-      <c r="U79" s="32"/>
-      <c r="V79" s="32"/>
-      <c r="W79" s="32"/>
-      <c r="X79" s="32"/>
-      <c r="Y79" s="32"/>
-      <c r="Z79" s="32"/>
-      <c r="AA79" s="32"/>
-      <c r="AB79" s="32"/>
-      <c r="AC79" s="32"/>
-      <c r="AD79" s="32"/>
-      <c r="AE79" s="32"/>
-      <c r="AF79" s="32"/>
-      <c r="AG79" s="32"/>
-      <c r="AH79" s="32"/>
-      <c r="AI79" s="32"/>
-      <c r="AJ79" s="32"/>
-      <c r="AK79" s="32"/>
-      <c r="AL79" s="32"/>
-      <c r="AM79" s="32"/>
-      <c r="AN79" s="32"/>
-      <c r="AO79" s="32"/>
-      <c r="AP79" s="33"/>
-      <c r="AQ79" s="31"/>
-      <c r="AR79" s="32"/>
-      <c r="AS79" s="32"/>
-      <c r="AT79" s="32"/>
-      <c r="AU79" s="32"/>
-      <c r="AV79" s="32"/>
-      <c r="AW79" s="32"/>
-      <c r="AX79" s="32"/>
-      <c r="AY79" s="32"/>
-      <c r="AZ79" s="33"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="53"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="53"/>
+      <c r="H79" s="53"/>
+      <c r="I79" s="53"/>
+      <c r="J79" s="53"/>
+      <c r="K79" s="53"/>
+      <c r="L79" s="53"/>
+      <c r="M79" s="53"/>
+      <c r="N79" s="53"/>
+      <c r="O79" s="53"/>
+      <c r="P79" s="53"/>
+      <c r="Q79" s="53"/>
+      <c r="R79" s="53"/>
+      <c r="S79" s="53"/>
+      <c r="T79" s="53"/>
+      <c r="U79" s="53"/>
+      <c r="V79" s="53"/>
+      <c r="W79" s="53"/>
+      <c r="X79" s="53"/>
+      <c r="Y79" s="53"/>
+      <c r="Z79" s="53"/>
+      <c r="AA79" s="53"/>
+      <c r="AB79" s="53"/>
+      <c r="AC79" s="53"/>
+      <c r="AD79" s="53"/>
+      <c r="AE79" s="53"/>
+      <c r="AF79" s="53"/>
+      <c r="AG79" s="53"/>
+      <c r="AH79" s="53"/>
+      <c r="AI79" s="53"/>
+      <c r="AJ79" s="53"/>
+      <c r="AK79" s="53"/>
+      <c r="AL79" s="53"/>
+      <c r="AM79" s="53"/>
+      <c r="AN79" s="53"/>
+      <c r="AO79" s="53"/>
+      <c r="AP79" s="54"/>
+      <c r="AQ79" s="52"/>
+      <c r="AR79" s="53"/>
+      <c r="AS79" s="53"/>
+      <c r="AT79" s="53"/>
+      <c r="AU79" s="53"/>
+      <c r="AV79" s="53"/>
+      <c r="AW79" s="53"/>
+      <c r="AX79" s="53"/>
+      <c r="AY79" s="53"/>
+      <c r="AZ79" s="54"/>
     </row>
     <row r="80" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="67"/>
-      <c r="C80" s="68"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="35"/>
-      <c r="K80" s="35"/>
-      <c r="L80" s="35"/>
-      <c r="M80" s="35"/>
-      <c r="N80" s="35"/>
-      <c r="O80" s="35"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="35"/>
-      <c r="R80" s="35"/>
-      <c r="S80" s="35"/>
-      <c r="T80" s="35"/>
-      <c r="U80" s="35"/>
-      <c r="V80" s="35"/>
-      <c r="W80" s="35"/>
-      <c r="X80" s="35"/>
-      <c r="Y80" s="35"/>
-      <c r="Z80" s="35"/>
-      <c r="AA80" s="35"/>
-      <c r="AB80" s="35"/>
-      <c r="AC80" s="35"/>
-      <c r="AD80" s="35"/>
-      <c r="AE80" s="35"/>
-      <c r="AF80" s="35"/>
-      <c r="AG80" s="35"/>
-      <c r="AH80" s="35"/>
-      <c r="AI80" s="35"/>
-      <c r="AJ80" s="35"/>
-      <c r="AK80" s="35"/>
-      <c r="AL80" s="35"/>
-      <c r="AM80" s="35"/>
-      <c r="AN80" s="35"/>
-      <c r="AO80" s="35"/>
-      <c r="AP80" s="36"/>
-      <c r="AQ80" s="34"/>
-      <c r="AR80" s="35"/>
-      <c r="AS80" s="35"/>
-      <c r="AT80" s="35"/>
-      <c r="AU80" s="35"/>
-      <c r="AV80" s="35"/>
-      <c r="AW80" s="35"/>
-      <c r="AX80" s="35"/>
-      <c r="AY80" s="35"/>
-      <c r="AZ80" s="36"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="56"/>
+      <c r="M80" s="56"/>
+      <c r="N80" s="56"/>
+      <c r="O80" s="56"/>
+      <c r="P80" s="56"/>
+      <c r="Q80" s="56"/>
+      <c r="R80" s="56"/>
+      <c r="S80" s="56"/>
+      <c r="T80" s="56"/>
+      <c r="U80" s="56"/>
+      <c r="V80" s="56"/>
+      <c r="W80" s="56"/>
+      <c r="X80" s="56"/>
+      <c r="Y80" s="56"/>
+      <c r="Z80" s="56"/>
+      <c r="AA80" s="56"/>
+      <c r="AB80" s="56"/>
+      <c r="AC80" s="56"/>
+      <c r="AD80" s="56"/>
+      <c r="AE80" s="56"/>
+      <c r="AF80" s="56"/>
+      <c r="AG80" s="56"/>
+      <c r="AH80" s="56"/>
+      <c r="AI80" s="56"/>
+      <c r="AJ80" s="56"/>
+      <c r="AK80" s="56"/>
+      <c r="AL80" s="56"/>
+      <c r="AM80" s="56"/>
+      <c r="AN80" s="56"/>
+      <c r="AO80" s="56"/>
+      <c r="AP80" s="57"/>
+      <c r="AQ80" s="55"/>
+      <c r="AR80" s="56"/>
+      <c r="AS80" s="56"/>
+      <c r="AT80" s="56"/>
+      <c r="AU80" s="56"/>
+      <c r="AV80" s="56"/>
+      <c r="AW80" s="56"/>
+      <c r="AX80" s="56"/>
+      <c r="AY80" s="56"/>
+      <c r="AZ80" s="57"/>
     </row>
     <row r="81" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="67"/>
-      <c r="C81" s="68"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="35"/>
-      <c r="K81" s="35"/>
-      <c r="L81" s="35"/>
-      <c r="M81" s="35"/>
-      <c r="N81" s="35"/>
-      <c r="O81" s="35"/>
-      <c r="P81" s="35"/>
-      <c r="Q81" s="35"/>
-      <c r="R81" s="35"/>
-      <c r="S81" s="35"/>
-      <c r="T81" s="35"/>
-      <c r="U81" s="35"/>
-      <c r="V81" s="35"/>
-      <c r="W81" s="35"/>
-      <c r="X81" s="35"/>
-      <c r="Y81" s="35"/>
-      <c r="Z81" s="35"/>
-      <c r="AA81" s="35"/>
-      <c r="AB81" s="35"/>
-      <c r="AC81" s="35"/>
-      <c r="AD81" s="35"/>
-      <c r="AE81" s="35"/>
-      <c r="AF81" s="35"/>
-      <c r="AG81" s="35"/>
-      <c r="AH81" s="35"/>
-      <c r="AI81" s="35"/>
-      <c r="AJ81" s="35"/>
-      <c r="AK81" s="35"/>
-      <c r="AL81" s="35"/>
-      <c r="AM81" s="35"/>
-      <c r="AN81" s="35"/>
-      <c r="AO81" s="35"/>
-      <c r="AP81" s="36"/>
-      <c r="AQ81" s="34"/>
-      <c r="AR81" s="35"/>
-      <c r="AS81" s="35"/>
-      <c r="AT81" s="35"/>
-      <c r="AU81" s="35"/>
-      <c r="AV81" s="35"/>
-      <c r="AW81" s="35"/>
-      <c r="AX81" s="35"/>
-      <c r="AY81" s="35"/>
-      <c r="AZ81" s="36"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="56"/>
+      <c r="K81" s="56"/>
+      <c r="L81" s="56"/>
+      <c r="M81" s="56"/>
+      <c r="N81" s="56"/>
+      <c r="O81" s="56"/>
+      <c r="P81" s="56"/>
+      <c r="Q81" s="56"/>
+      <c r="R81" s="56"/>
+      <c r="S81" s="56"/>
+      <c r="T81" s="56"/>
+      <c r="U81" s="56"/>
+      <c r="V81" s="56"/>
+      <c r="W81" s="56"/>
+      <c r="X81" s="56"/>
+      <c r="Y81" s="56"/>
+      <c r="Z81" s="56"/>
+      <c r="AA81" s="56"/>
+      <c r="AB81" s="56"/>
+      <c r="AC81" s="56"/>
+      <c r="AD81" s="56"/>
+      <c r="AE81" s="56"/>
+      <c r="AF81" s="56"/>
+      <c r="AG81" s="56"/>
+      <c r="AH81" s="56"/>
+      <c r="AI81" s="56"/>
+      <c r="AJ81" s="56"/>
+      <c r="AK81" s="56"/>
+      <c r="AL81" s="56"/>
+      <c r="AM81" s="56"/>
+      <c r="AN81" s="56"/>
+      <c r="AO81" s="56"/>
+      <c r="AP81" s="57"/>
+      <c r="AQ81" s="55"/>
+      <c r="AR81" s="56"/>
+      <c r="AS81" s="56"/>
+      <c r="AT81" s="56"/>
+      <c r="AU81" s="56"/>
+      <c r="AV81" s="56"/>
+      <c r="AW81" s="56"/>
+      <c r="AX81" s="56"/>
+      <c r="AY81" s="56"/>
+      <c r="AZ81" s="57"/>
     </row>
     <row r="82" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="67"/>
-      <c r="C82" s="68"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="35"/>
-      <c r="N82" s="35"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="35"/>
-      <c r="Q82" s="35"/>
-      <c r="R82" s="35"/>
-      <c r="S82" s="35"/>
-      <c r="T82" s="35"/>
-      <c r="U82" s="35"/>
-      <c r="V82" s="35"/>
-      <c r="W82" s="35"/>
-      <c r="X82" s="35"/>
-      <c r="Y82" s="35"/>
-      <c r="Z82" s="35"/>
-      <c r="AA82" s="35"/>
-      <c r="AB82" s="35"/>
-      <c r="AC82" s="35"/>
-      <c r="AD82" s="35"/>
-      <c r="AE82" s="35"/>
-      <c r="AF82" s="35"/>
-      <c r="AG82" s="35"/>
-      <c r="AH82" s="35"/>
-      <c r="AI82" s="35"/>
-      <c r="AJ82" s="35"/>
-      <c r="AK82" s="35"/>
-      <c r="AL82" s="35"/>
-      <c r="AM82" s="35"/>
-      <c r="AN82" s="35"/>
-      <c r="AO82" s="35"/>
-      <c r="AP82" s="36"/>
-      <c r="AQ82" s="34"/>
-      <c r="AR82" s="35"/>
-      <c r="AS82" s="35"/>
-      <c r="AT82" s="35"/>
-      <c r="AU82" s="35"/>
-      <c r="AV82" s="35"/>
-      <c r="AW82" s="35"/>
-      <c r="AX82" s="35"/>
-      <c r="AY82" s="35"/>
-      <c r="AZ82" s="36"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="56"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="56"/>
+      <c r="L82" s="56"/>
+      <c r="M82" s="56"/>
+      <c r="N82" s="56"/>
+      <c r="O82" s="56"/>
+      <c r="P82" s="56"/>
+      <c r="Q82" s="56"/>
+      <c r="R82" s="56"/>
+      <c r="S82" s="56"/>
+      <c r="T82" s="56"/>
+      <c r="U82" s="56"/>
+      <c r="V82" s="56"/>
+      <c r="W82" s="56"/>
+      <c r="X82" s="56"/>
+      <c r="Y82" s="56"/>
+      <c r="Z82" s="56"/>
+      <c r="AA82" s="56"/>
+      <c r="AB82" s="56"/>
+      <c r="AC82" s="56"/>
+      <c r="AD82" s="56"/>
+      <c r="AE82" s="56"/>
+      <c r="AF82" s="56"/>
+      <c r="AG82" s="56"/>
+      <c r="AH82" s="56"/>
+      <c r="AI82" s="56"/>
+      <c r="AJ82" s="56"/>
+      <c r="AK82" s="56"/>
+      <c r="AL82" s="56"/>
+      <c r="AM82" s="56"/>
+      <c r="AN82" s="56"/>
+      <c r="AO82" s="56"/>
+      <c r="AP82" s="57"/>
+      <c r="AQ82" s="55"/>
+      <c r="AR82" s="56"/>
+      <c r="AS82" s="56"/>
+      <c r="AT82" s="56"/>
+      <c r="AU82" s="56"/>
+      <c r="AV82" s="56"/>
+      <c r="AW82" s="56"/>
+      <c r="AX82" s="56"/>
+      <c r="AY82" s="56"/>
+      <c r="AZ82" s="57"/>
     </row>
     <row r="83" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="67"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="35"/>
-      <c r="K83" s="35"/>
-      <c r="L83" s="35"/>
-      <c r="M83" s="35"/>
-      <c r="N83" s="35"/>
-      <c r="O83" s="35"/>
-      <c r="P83" s="35"/>
-      <c r="Q83" s="35"/>
-      <c r="R83" s="35"/>
-      <c r="S83" s="35"/>
-      <c r="T83" s="35"/>
-      <c r="U83" s="35"/>
-      <c r="V83" s="35"/>
-      <c r="W83" s="35"/>
-      <c r="X83" s="35"/>
-      <c r="Y83" s="35"/>
-      <c r="Z83" s="35"/>
-      <c r="AA83" s="35"/>
-      <c r="AB83" s="35"/>
-      <c r="AC83" s="35"/>
-      <c r="AD83" s="35"/>
-      <c r="AE83" s="35"/>
-      <c r="AF83" s="35"/>
-      <c r="AG83" s="35"/>
-      <c r="AH83" s="35"/>
-      <c r="AI83" s="35"/>
-      <c r="AJ83" s="35"/>
-      <c r="AK83" s="35"/>
-      <c r="AL83" s="35"/>
-      <c r="AM83" s="35"/>
-      <c r="AN83" s="35"/>
-      <c r="AO83" s="35"/>
-      <c r="AP83" s="36"/>
-      <c r="AQ83" s="34"/>
-      <c r="AR83" s="35"/>
-      <c r="AS83" s="35"/>
-      <c r="AT83" s="35"/>
-      <c r="AU83" s="35"/>
-      <c r="AV83" s="35"/>
-      <c r="AW83" s="35"/>
-      <c r="AX83" s="35"/>
-      <c r="AY83" s="35"/>
-      <c r="AZ83" s="36"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="56"/>
+      <c r="K83" s="56"/>
+      <c r="L83" s="56"/>
+      <c r="M83" s="56"/>
+      <c r="N83" s="56"/>
+      <c r="O83" s="56"/>
+      <c r="P83" s="56"/>
+      <c r="Q83" s="56"/>
+      <c r="R83" s="56"/>
+      <c r="S83" s="56"/>
+      <c r="T83" s="56"/>
+      <c r="U83" s="56"/>
+      <c r="V83" s="56"/>
+      <c r="W83" s="56"/>
+      <c r="X83" s="56"/>
+      <c r="Y83" s="56"/>
+      <c r="Z83" s="56"/>
+      <c r="AA83" s="56"/>
+      <c r="AB83" s="56"/>
+      <c r="AC83" s="56"/>
+      <c r="AD83" s="56"/>
+      <c r="AE83" s="56"/>
+      <c r="AF83" s="56"/>
+      <c r="AG83" s="56"/>
+      <c r="AH83" s="56"/>
+      <c r="AI83" s="56"/>
+      <c r="AJ83" s="56"/>
+      <c r="AK83" s="56"/>
+      <c r="AL83" s="56"/>
+      <c r="AM83" s="56"/>
+      <c r="AN83" s="56"/>
+      <c r="AO83" s="56"/>
+      <c r="AP83" s="57"/>
+      <c r="AQ83" s="55"/>
+      <c r="AR83" s="56"/>
+      <c r="AS83" s="56"/>
+      <c r="AT83" s="56"/>
+      <c r="AU83" s="56"/>
+      <c r="AV83" s="56"/>
+      <c r="AW83" s="56"/>
+      <c r="AX83" s="56"/>
+      <c r="AY83" s="56"/>
+      <c r="AZ83" s="57"/>
     </row>
     <row r="84" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="67"/>
-      <c r="C84" s="68"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="35"/>
-      <c r="K84" s="35"/>
-      <c r="L84" s="35"/>
-      <c r="M84" s="35"/>
-      <c r="N84" s="35"/>
-      <c r="O84" s="35"/>
-      <c r="P84" s="35"/>
-      <c r="Q84" s="35"/>
-      <c r="R84" s="35"/>
-      <c r="S84" s="35"/>
-      <c r="T84" s="35"/>
-      <c r="U84" s="35"/>
-      <c r="V84" s="35"/>
-      <c r="W84" s="35"/>
-      <c r="X84" s="35"/>
-      <c r="Y84" s="35"/>
-      <c r="Z84" s="35"/>
-      <c r="AA84" s="35"/>
-      <c r="AB84" s="35"/>
-      <c r="AC84" s="35"/>
-      <c r="AD84" s="35"/>
-      <c r="AE84" s="35"/>
-      <c r="AF84" s="35"/>
-      <c r="AG84" s="35"/>
-      <c r="AH84" s="35"/>
-      <c r="AI84" s="35"/>
-      <c r="AJ84" s="35"/>
-      <c r="AK84" s="35"/>
-      <c r="AL84" s="35"/>
-      <c r="AM84" s="35"/>
-      <c r="AN84" s="35"/>
-      <c r="AO84" s="35"/>
-      <c r="AP84" s="36"/>
-      <c r="AQ84" s="34"/>
-      <c r="AR84" s="35"/>
-      <c r="AS84" s="35"/>
-      <c r="AT84" s="35"/>
-      <c r="AU84" s="35"/>
-      <c r="AV84" s="35"/>
-      <c r="AW84" s="35"/>
-      <c r="AX84" s="35"/>
-      <c r="AY84" s="35"/>
-      <c r="AZ84" s="36"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="56"/>
+      <c r="I84" s="56"/>
+      <c r="J84" s="56"/>
+      <c r="K84" s="56"/>
+      <c r="L84" s="56"/>
+      <c r="M84" s="56"/>
+      <c r="N84" s="56"/>
+      <c r="O84" s="56"/>
+      <c r="P84" s="56"/>
+      <c r="Q84" s="56"/>
+      <c r="R84" s="56"/>
+      <c r="S84" s="56"/>
+      <c r="T84" s="56"/>
+      <c r="U84" s="56"/>
+      <c r="V84" s="56"/>
+      <c r="W84" s="56"/>
+      <c r="X84" s="56"/>
+      <c r="Y84" s="56"/>
+      <c r="Z84" s="56"/>
+      <c r="AA84" s="56"/>
+      <c r="AB84" s="56"/>
+      <c r="AC84" s="56"/>
+      <c r="AD84" s="56"/>
+      <c r="AE84" s="56"/>
+      <c r="AF84" s="56"/>
+      <c r="AG84" s="56"/>
+      <c r="AH84" s="56"/>
+      <c r="AI84" s="56"/>
+      <c r="AJ84" s="56"/>
+      <c r="AK84" s="56"/>
+      <c r="AL84" s="56"/>
+      <c r="AM84" s="56"/>
+      <c r="AN84" s="56"/>
+      <c r="AO84" s="56"/>
+      <c r="AP84" s="57"/>
+      <c r="AQ84" s="55"/>
+      <c r="AR84" s="56"/>
+      <c r="AS84" s="56"/>
+      <c r="AT84" s="56"/>
+      <c r="AU84" s="56"/>
+      <c r="AV84" s="56"/>
+      <c r="AW84" s="56"/>
+      <c r="AX84" s="56"/>
+      <c r="AY84" s="56"/>
+      <c r="AZ84" s="57"/>
     </row>
     <row r="85" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="67"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="35"/>
-      <c r="N85" s="35"/>
-      <c r="O85" s="35"/>
-      <c r="P85" s="35"/>
-      <c r="Q85" s="35"/>
-      <c r="R85" s="35"/>
-      <c r="S85" s="35"/>
-      <c r="T85" s="35"/>
-      <c r="U85" s="35"/>
-      <c r="V85" s="35"/>
-      <c r="W85" s="35"/>
-      <c r="X85" s="35"/>
-      <c r="Y85" s="35"/>
-      <c r="Z85" s="35"/>
-      <c r="AA85" s="35"/>
-      <c r="AB85" s="35"/>
-      <c r="AC85" s="35"/>
-      <c r="AD85" s="35"/>
-      <c r="AE85" s="35"/>
-      <c r="AF85" s="35"/>
-      <c r="AG85" s="35"/>
-      <c r="AH85" s="35"/>
-      <c r="AI85" s="35"/>
-      <c r="AJ85" s="35"/>
-      <c r="AK85" s="35"/>
-      <c r="AL85" s="35"/>
-      <c r="AM85" s="35"/>
-      <c r="AN85" s="35"/>
-      <c r="AO85" s="35"/>
-      <c r="AP85" s="36"/>
-      <c r="AQ85" s="34"/>
-      <c r="AR85" s="35"/>
-      <c r="AS85" s="35"/>
-      <c r="AT85" s="35"/>
-      <c r="AU85" s="35"/>
-      <c r="AV85" s="35"/>
-      <c r="AW85" s="35"/>
-      <c r="AX85" s="35"/>
-      <c r="AY85" s="35"/>
-      <c r="AZ85" s="36"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="56"/>
+      <c r="K85" s="56"/>
+      <c r="L85" s="56"/>
+      <c r="M85" s="56"/>
+      <c r="N85" s="56"/>
+      <c r="O85" s="56"/>
+      <c r="P85" s="56"/>
+      <c r="Q85" s="56"/>
+      <c r="R85" s="56"/>
+      <c r="S85" s="56"/>
+      <c r="T85" s="56"/>
+      <c r="U85" s="56"/>
+      <c r="V85" s="56"/>
+      <c r="W85" s="56"/>
+      <c r="X85" s="56"/>
+      <c r="Y85" s="56"/>
+      <c r="Z85" s="56"/>
+      <c r="AA85" s="56"/>
+      <c r="AB85" s="56"/>
+      <c r="AC85" s="56"/>
+      <c r="AD85" s="56"/>
+      <c r="AE85" s="56"/>
+      <c r="AF85" s="56"/>
+      <c r="AG85" s="56"/>
+      <c r="AH85" s="56"/>
+      <c r="AI85" s="56"/>
+      <c r="AJ85" s="56"/>
+      <c r="AK85" s="56"/>
+      <c r="AL85" s="56"/>
+      <c r="AM85" s="56"/>
+      <c r="AN85" s="56"/>
+      <c r="AO85" s="56"/>
+      <c r="AP85" s="57"/>
+      <c r="AQ85" s="55"/>
+      <c r="AR85" s="56"/>
+      <c r="AS85" s="56"/>
+      <c r="AT85" s="56"/>
+      <c r="AU85" s="56"/>
+      <c r="AV85" s="56"/>
+      <c r="AW85" s="56"/>
+      <c r="AX85" s="56"/>
+      <c r="AY85" s="56"/>
+      <c r="AZ85" s="57"/>
     </row>
     <row r="86" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="67"/>
-      <c r="C86" s="68"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="35"/>
-      <c r="N86" s="35"/>
-      <c r="O86" s="35"/>
-      <c r="P86" s="35"/>
-      <c r="Q86" s="35"/>
-      <c r="R86" s="35"/>
-      <c r="S86" s="35"/>
-      <c r="T86" s="35"/>
-      <c r="U86" s="35"/>
-      <c r="V86" s="35"/>
-      <c r="W86" s="35"/>
-      <c r="X86" s="35"/>
-      <c r="Y86" s="35"/>
-      <c r="Z86" s="35"/>
-      <c r="AA86" s="35"/>
-      <c r="AB86" s="35"/>
-      <c r="AC86" s="35"/>
-      <c r="AD86" s="35"/>
-      <c r="AE86" s="35"/>
-      <c r="AF86" s="35"/>
-      <c r="AG86" s="35"/>
-      <c r="AH86" s="35"/>
-      <c r="AI86" s="35"/>
-      <c r="AJ86" s="35"/>
-      <c r="AK86" s="35"/>
-      <c r="AL86" s="35"/>
-      <c r="AM86" s="35"/>
-      <c r="AN86" s="35"/>
-      <c r="AO86" s="35"/>
-      <c r="AP86" s="36"/>
-      <c r="AQ86" s="34"/>
-      <c r="AR86" s="35"/>
-      <c r="AS86" s="35"/>
-      <c r="AT86" s="35"/>
-      <c r="AU86" s="35"/>
-      <c r="AV86" s="35"/>
-      <c r="AW86" s="35"/>
-      <c r="AX86" s="35"/>
-      <c r="AY86" s="35"/>
-      <c r="AZ86" s="36"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="56"/>
+      <c r="K86" s="56"/>
+      <c r="L86" s="56"/>
+      <c r="M86" s="56"/>
+      <c r="N86" s="56"/>
+      <c r="O86" s="56"/>
+      <c r="P86" s="56"/>
+      <c r="Q86" s="56"/>
+      <c r="R86" s="56"/>
+      <c r="S86" s="56"/>
+      <c r="T86" s="56"/>
+      <c r="U86" s="56"/>
+      <c r="V86" s="56"/>
+      <c r="W86" s="56"/>
+      <c r="X86" s="56"/>
+      <c r="Y86" s="56"/>
+      <c r="Z86" s="56"/>
+      <c r="AA86" s="56"/>
+      <c r="AB86" s="56"/>
+      <c r="AC86" s="56"/>
+      <c r="AD86" s="56"/>
+      <c r="AE86" s="56"/>
+      <c r="AF86" s="56"/>
+      <c r="AG86" s="56"/>
+      <c r="AH86" s="56"/>
+      <c r="AI86" s="56"/>
+      <c r="AJ86" s="56"/>
+      <c r="AK86" s="56"/>
+      <c r="AL86" s="56"/>
+      <c r="AM86" s="56"/>
+      <c r="AN86" s="56"/>
+      <c r="AO86" s="56"/>
+      <c r="AP86" s="57"/>
+      <c r="AQ86" s="55"/>
+      <c r="AR86" s="56"/>
+      <c r="AS86" s="56"/>
+      <c r="AT86" s="56"/>
+      <c r="AU86" s="56"/>
+      <c r="AV86" s="56"/>
+      <c r="AW86" s="56"/>
+      <c r="AX86" s="56"/>
+      <c r="AY86" s="56"/>
+      <c r="AZ86" s="57"/>
     </row>
     <row r="87" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="61" t="s">
+      <c r="B87" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="35"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="56"/>
+      <c r="K87" s="56"/>
+      <c r="L87" s="56"/>
+      <c r="M87" s="56"/>
+      <c r="N87" s="56"/>
+      <c r="O87" s="56"/>
+      <c r="P87" s="56"/>
+      <c r="Q87" s="56"/>
+      <c r="R87" s="56"/>
+      <c r="S87" s="56"/>
+      <c r="T87" s="56"/>
+      <c r="U87" s="56"/>
+      <c r="V87" s="56"/>
+      <c r="W87" s="56"/>
+      <c r="X87" s="56"/>
+      <c r="Y87" s="56"/>
+      <c r="Z87" s="56"/>
+      <c r="AA87" s="56"/>
+      <c r="AB87" s="56"/>
+      <c r="AC87" s="56"/>
+      <c r="AD87" s="56"/>
+      <c r="AE87" s="56"/>
+      <c r="AF87" s="56"/>
+      <c r="AG87" s="56"/>
+      <c r="AH87" s="56"/>
+      <c r="AI87" s="56"/>
+      <c r="AJ87" s="56"/>
+      <c r="AK87" s="56"/>
+      <c r="AL87" s="56"/>
+      <c r="AM87" s="56"/>
+      <c r="AN87" s="56"/>
+      <c r="AO87" s="56"/>
+      <c r="AP87" s="57"/>
+      <c r="AQ87" s="55"/>
+      <c r="AR87" s="56"/>
+      <c r="AS87" s="56"/>
+      <c r="AT87" s="56"/>
+      <c r="AU87" s="56"/>
+      <c r="AV87" s="56"/>
+      <c r="AW87" s="56"/>
+      <c r="AX87" s="56"/>
+      <c r="AY87" s="56"/>
+      <c r="AZ87" s="57"/>
+    </row>
+    <row r="88" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="36"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="59"/>
+      <c r="J88" s="59"/>
+      <c r="K88" s="59"/>
+      <c r="L88" s="59"/>
+      <c r="M88" s="59"/>
+      <c r="N88" s="59"/>
+      <c r="O88" s="59"/>
+      <c r="P88" s="59"/>
+      <c r="Q88" s="59"/>
+      <c r="R88" s="59"/>
+      <c r="S88" s="59"/>
+      <c r="T88" s="59"/>
+      <c r="U88" s="59"/>
+      <c r="V88" s="59"/>
+      <c r="W88" s="59"/>
+      <c r="X88" s="59"/>
+      <c r="Y88" s="59"/>
+      <c r="Z88" s="59"/>
+      <c r="AA88" s="59"/>
+      <c r="AB88" s="59"/>
+      <c r="AC88" s="59"/>
+      <c r="AD88" s="59"/>
+      <c r="AE88" s="59"/>
+      <c r="AF88" s="59"/>
+      <c r="AG88" s="59"/>
+      <c r="AH88" s="59"/>
+      <c r="AI88" s="59"/>
+      <c r="AJ88" s="59"/>
+      <c r="AK88" s="59"/>
+      <c r="AL88" s="59"/>
+      <c r="AM88" s="59"/>
+      <c r="AN88" s="59"/>
+      <c r="AO88" s="59"/>
+      <c r="AP88" s="60"/>
+      <c r="AQ88" s="58"/>
+      <c r="AR88" s="59"/>
+      <c r="AS88" s="59"/>
+      <c r="AT88" s="59"/>
+      <c r="AU88" s="59"/>
+      <c r="AV88" s="59"/>
+      <c r="AW88" s="59"/>
+      <c r="AX88" s="59"/>
+      <c r="AY88" s="59"/>
+      <c r="AZ88" s="60"/>
+    </row>
+    <row r="89" spans="2:52" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="C87" s="62"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="35"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="35"/>
-      <c r="N87" s="35"/>
-      <c r="O87" s="35"/>
-      <c r="P87" s="35"/>
-      <c r="Q87" s="35"/>
-      <c r="R87" s="35"/>
-      <c r="S87" s="35"/>
-      <c r="T87" s="35"/>
-      <c r="U87" s="35"/>
-      <c r="V87" s="35"/>
-      <c r="W87" s="35"/>
-      <c r="X87" s="35"/>
-      <c r="Y87" s="35"/>
-      <c r="Z87" s="35"/>
-      <c r="AA87" s="35"/>
-      <c r="AB87" s="35"/>
-      <c r="AC87" s="35"/>
-      <c r="AD87" s="35"/>
-      <c r="AE87" s="35"/>
-      <c r="AF87" s="35"/>
-      <c r="AG87" s="35"/>
-      <c r="AH87" s="35"/>
-      <c r="AI87" s="35"/>
-      <c r="AJ87" s="35"/>
-      <c r="AK87" s="35"/>
-      <c r="AL87" s="35"/>
-      <c r="AM87" s="35"/>
-      <c r="AN87" s="35"/>
-      <c r="AO87" s="35"/>
-      <c r="AP87" s="36"/>
-      <c r="AQ87" s="34"/>
-      <c r="AR87" s="35"/>
-      <c r="AS87" s="35"/>
-      <c r="AT87" s="35"/>
-      <c r="AU87" s="35"/>
-      <c r="AV87" s="35"/>
-      <c r="AW87" s="35"/>
-      <c r="AX87" s="35"/>
-      <c r="AY87" s="35"/>
-      <c r="AZ87" s="36"/>
-    </row>
-    <row r="88" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="63"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="38"/>
-      <c r="J88" s="38"/>
-      <c r="K88" s="38"/>
-      <c r="L88" s="38"/>
-      <c r="M88" s="38"/>
-      <c r="N88" s="38"/>
-      <c r="O88" s="38"/>
-      <c r="P88" s="38"/>
-      <c r="Q88" s="38"/>
-      <c r="R88" s="38"/>
-      <c r="S88" s="38"/>
-      <c r="T88" s="38"/>
-      <c r="U88" s="38"/>
-      <c r="V88" s="38"/>
-      <c r="W88" s="38"/>
-      <c r="X88" s="38"/>
-      <c r="Y88" s="38"/>
-      <c r="Z88" s="38"/>
-      <c r="AA88" s="38"/>
-      <c r="AB88" s="38"/>
-      <c r="AC88" s="38"/>
-      <c r="AD88" s="38"/>
-      <c r="AE88" s="38"/>
-      <c r="AF88" s="38"/>
-      <c r="AG88" s="38"/>
-      <c r="AH88" s="38"/>
-      <c r="AI88" s="38"/>
-      <c r="AJ88" s="38"/>
-      <c r="AK88" s="38"/>
-      <c r="AL88" s="38"/>
-      <c r="AM88" s="38"/>
-      <c r="AN88" s="38"/>
-      <c r="AO88" s="38"/>
-      <c r="AP88" s="39"/>
-      <c r="AQ88" s="37"/>
-      <c r="AR88" s="38"/>
-      <c r="AS88" s="38"/>
-      <c r="AT88" s="38"/>
-      <c r="AU88" s="38"/>
-      <c r="AV88" s="38"/>
-      <c r="AW88" s="38"/>
-      <c r="AX88" s="38"/>
-      <c r="AY88" s="38"/>
-      <c r="AZ88" s="39"/>
-    </row>
-    <row r="89" spans="2:52" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="59"/>
-      <c r="D89" s="59"/>
-      <c r="E89" s="59"/>
-      <c r="F89" s="59"/>
-      <c r="G89" s="59"/>
-      <c r="H89" s="59"/>
-      <c r="I89" s="59"/>
-      <c r="J89" s="59"/>
-      <c r="K89" s="59"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="80"/>
+      <c r="E89" s="80"/>
+      <c r="F89" s="80"/>
+      <c r="G89" s="80"/>
+      <c r="H89" s="80"/>
+      <c r="I89" s="80"/>
+      <c r="J89" s="80"/>
+      <c r="K89" s="80"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
@@ -11792,16 +12680,16 @@
       <c r="AL89" s="7"/>
     </row>
     <row r="90" spans="2:52" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="60"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="60"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="60"/>
-      <c r="G90" s="60"/>
-      <c r="H90" s="60"/>
-      <c r="I90" s="60"/>
-      <c r="J90" s="60"/>
-      <c r="K90" s="60"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="40"/>
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
@@ -11810,216 +12698,218 @@
       <c r="AL90" s="8"/>
     </row>
     <row r="91" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="22"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="23"/>
-      <c r="M91" s="23"/>
-      <c r="N91" s="23"/>
-      <c r="O91" s="23"/>
-      <c r="P91" s="23"/>
-      <c r="Q91" s="23"/>
-      <c r="R91" s="23"/>
-      <c r="S91" s="23"/>
-      <c r="T91" s="23"/>
-      <c r="U91" s="23"/>
-      <c r="V91" s="23"/>
-      <c r="W91" s="23"/>
-      <c r="X91" s="23"/>
-      <c r="Y91" s="23"/>
-      <c r="Z91" s="23"/>
-      <c r="AA91" s="23"/>
-      <c r="AB91" s="23"/>
-      <c r="AC91" s="23"/>
-      <c r="AD91" s="23"/>
-      <c r="AE91" s="23"/>
-      <c r="AF91" s="23"/>
-      <c r="AG91" s="23"/>
-      <c r="AH91" s="23"/>
-      <c r="AI91" s="23"/>
-      <c r="AJ91" s="23"/>
-      <c r="AK91" s="23"/>
-      <c r="AL91" s="23"/>
-      <c r="AM91" s="23"/>
-      <c r="AN91" s="23"/>
-      <c r="AO91" s="23"/>
-      <c r="AP91" s="23"/>
-      <c r="AQ91" s="23"/>
-      <c r="AR91" s="23"/>
-      <c r="AS91" s="23"/>
-      <c r="AT91" s="23"/>
-      <c r="AU91" s="23"/>
-      <c r="AV91" s="23"/>
-      <c r="AW91" s="23"/>
-      <c r="AX91" s="23"/>
-      <c r="AY91" s="23"/>
-      <c r="AZ91" s="24"/>
+      <c r="B91" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="44"/>
+      <c r="M91" s="44"/>
+      <c r="N91" s="44"/>
+      <c r="O91" s="44"/>
+      <c r="P91" s="44"/>
+      <c r="Q91" s="44"/>
+      <c r="R91" s="44"/>
+      <c r="S91" s="44"/>
+      <c r="T91" s="44"/>
+      <c r="U91" s="44"/>
+      <c r="V91" s="44"/>
+      <c r="W91" s="44"/>
+      <c r="X91" s="44"/>
+      <c r="Y91" s="44"/>
+      <c r="Z91" s="44"/>
+      <c r="AA91" s="44"/>
+      <c r="AB91" s="44"/>
+      <c r="AC91" s="44"/>
+      <c r="AD91" s="44"/>
+      <c r="AE91" s="44"/>
+      <c r="AF91" s="44"/>
+      <c r="AG91" s="44"/>
+      <c r="AH91" s="44"/>
+      <c r="AI91" s="44"/>
+      <c r="AJ91" s="44"/>
+      <c r="AK91" s="44"/>
+      <c r="AL91" s="44"/>
+      <c r="AM91" s="44"/>
+      <c r="AN91" s="44"/>
+      <c r="AO91" s="44"/>
+      <c r="AP91" s="44"/>
+      <c r="AQ91" s="44"/>
+      <c r="AR91" s="44"/>
+      <c r="AS91" s="44"/>
+      <c r="AT91" s="44"/>
+      <c r="AU91" s="44"/>
+      <c r="AV91" s="44"/>
+      <c r="AW91" s="44"/>
+      <c r="AX91" s="44"/>
+      <c r="AY91" s="44"/>
+      <c r="AZ91" s="45"/>
     </row>
     <row r="92" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="25"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="26"/>
-      <c r="J92" s="26"/>
-      <c r="K92" s="26"/>
-      <c r="L92" s="26"/>
-      <c r="M92" s="26"/>
-      <c r="N92" s="26"/>
-      <c r="O92" s="26"/>
-      <c r="P92" s="26"/>
-      <c r="Q92" s="26"/>
-      <c r="R92" s="26"/>
-      <c r="S92" s="26"/>
-      <c r="T92" s="26"/>
-      <c r="U92" s="26"/>
-      <c r="V92" s="26"/>
-      <c r="W92" s="26"/>
-      <c r="X92" s="26"/>
-      <c r="Y92" s="26"/>
-      <c r="Z92" s="26"/>
-      <c r="AA92" s="26"/>
-      <c r="AB92" s="26"/>
-      <c r="AC92" s="26"/>
-      <c r="AD92" s="26"/>
-      <c r="AE92" s="26"/>
-      <c r="AF92" s="26"/>
-      <c r="AG92" s="26"/>
-      <c r="AH92" s="26"/>
-      <c r="AI92" s="26"/>
-      <c r="AJ92" s="26"/>
-      <c r="AK92" s="26"/>
-      <c r="AL92" s="26"/>
-      <c r="AM92" s="26"/>
-      <c r="AN92" s="26"/>
-      <c r="AO92" s="26"/>
-      <c r="AP92" s="26"/>
-      <c r="AQ92" s="26"/>
-      <c r="AR92" s="26"/>
-      <c r="AS92" s="26"/>
-      <c r="AT92" s="26"/>
-      <c r="AU92" s="26"/>
-      <c r="AV92" s="26"/>
-      <c r="AW92" s="26"/>
-      <c r="AX92" s="26"/>
-      <c r="AY92" s="26"/>
-      <c r="AZ92" s="27"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="47"/>
+      <c r="N92" s="47"/>
+      <c r="O92" s="47"/>
+      <c r="P92" s="47"/>
+      <c r="Q92" s="47"/>
+      <c r="R92" s="47"/>
+      <c r="S92" s="47"/>
+      <c r="T92" s="47"/>
+      <c r="U92" s="47"/>
+      <c r="V92" s="47"/>
+      <c r="W92" s="47"/>
+      <c r="X92" s="47"/>
+      <c r="Y92" s="47"/>
+      <c r="Z92" s="47"/>
+      <c r="AA92" s="47"/>
+      <c r="AB92" s="47"/>
+      <c r="AC92" s="47"/>
+      <c r="AD92" s="47"/>
+      <c r="AE92" s="47"/>
+      <c r="AF92" s="47"/>
+      <c r="AG92" s="47"/>
+      <c r="AH92" s="47"/>
+      <c r="AI92" s="47"/>
+      <c r="AJ92" s="47"/>
+      <c r="AK92" s="47"/>
+      <c r="AL92" s="47"/>
+      <c r="AM92" s="47"/>
+      <c r="AN92" s="47"/>
+      <c r="AO92" s="47"/>
+      <c r="AP92" s="47"/>
+      <c r="AQ92" s="47"/>
+      <c r="AR92" s="47"/>
+      <c r="AS92" s="47"/>
+      <c r="AT92" s="47"/>
+      <c r="AU92" s="47"/>
+      <c r="AV92" s="47"/>
+      <c r="AW92" s="47"/>
+      <c r="AX92" s="47"/>
+      <c r="AY92" s="47"/>
+      <c r="AZ92" s="48"/>
     </row>
     <row r="93" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="25"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="26"/>
-      <c r="L93" s="26"/>
-      <c r="M93" s="26"/>
-      <c r="N93" s="26"/>
-      <c r="O93" s="26"/>
-      <c r="P93" s="26"/>
-      <c r="Q93" s="26"/>
-      <c r="R93" s="26"/>
-      <c r="S93" s="26"/>
-      <c r="T93" s="26"/>
-      <c r="U93" s="26"/>
-      <c r="V93" s="26"/>
-      <c r="W93" s="26"/>
-      <c r="X93" s="26"/>
-      <c r="Y93" s="26"/>
-      <c r="Z93" s="26"/>
-      <c r="AA93" s="26"/>
-      <c r="AB93" s="26"/>
-      <c r="AC93" s="26"/>
-      <c r="AD93" s="26"/>
-      <c r="AE93" s="26"/>
-      <c r="AF93" s="26"/>
-      <c r="AG93" s="26"/>
-      <c r="AH93" s="26"/>
-      <c r="AI93" s="26"/>
-      <c r="AJ93" s="26"/>
-      <c r="AK93" s="26"/>
-      <c r="AL93" s="26"/>
-      <c r="AM93" s="26"/>
-      <c r="AN93" s="26"/>
-      <c r="AO93" s="26"/>
-      <c r="AP93" s="26"/>
-      <c r="AQ93" s="26"/>
-      <c r="AR93" s="26"/>
-      <c r="AS93" s="26"/>
-      <c r="AT93" s="26"/>
-      <c r="AU93" s="26"/>
-      <c r="AV93" s="26"/>
-      <c r="AW93" s="26"/>
-      <c r="AX93" s="26"/>
-      <c r="AY93" s="26"/>
-      <c r="AZ93" s="27"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="47"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="47"/>
+      <c r="I93" s="47"/>
+      <c r="J93" s="47"/>
+      <c r="K93" s="47"/>
+      <c r="L93" s="47"/>
+      <c r="M93" s="47"/>
+      <c r="N93" s="47"/>
+      <c r="O93" s="47"/>
+      <c r="P93" s="47"/>
+      <c r="Q93" s="47"/>
+      <c r="R93" s="47"/>
+      <c r="S93" s="47"/>
+      <c r="T93" s="47"/>
+      <c r="U93" s="47"/>
+      <c r="V93" s="47"/>
+      <c r="W93" s="47"/>
+      <c r="X93" s="47"/>
+      <c r="Y93" s="47"/>
+      <c r="Z93" s="47"/>
+      <c r="AA93" s="47"/>
+      <c r="AB93" s="47"/>
+      <c r="AC93" s="47"/>
+      <c r="AD93" s="47"/>
+      <c r="AE93" s="47"/>
+      <c r="AF93" s="47"/>
+      <c r="AG93" s="47"/>
+      <c r="AH93" s="47"/>
+      <c r="AI93" s="47"/>
+      <c r="AJ93" s="47"/>
+      <c r="AK93" s="47"/>
+      <c r="AL93" s="47"/>
+      <c r="AM93" s="47"/>
+      <c r="AN93" s="47"/>
+      <c r="AO93" s="47"/>
+      <c r="AP93" s="47"/>
+      <c r="AQ93" s="47"/>
+      <c r="AR93" s="47"/>
+      <c r="AS93" s="47"/>
+      <c r="AT93" s="47"/>
+      <c r="AU93" s="47"/>
+      <c r="AV93" s="47"/>
+      <c r="AW93" s="47"/>
+      <c r="AX93" s="47"/>
+      <c r="AY93" s="47"/>
+      <c r="AZ93" s="48"/>
     </row>
     <row r="94" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="28"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="29"/>
-      <c r="J94" s="29"/>
-      <c r="K94" s="29"/>
-      <c r="L94" s="29"/>
-      <c r="M94" s="29"/>
-      <c r="N94" s="29"/>
-      <c r="O94" s="29"/>
-      <c r="P94" s="29"/>
-      <c r="Q94" s="29"/>
-      <c r="R94" s="29"/>
-      <c r="S94" s="29"/>
-      <c r="T94" s="29"/>
-      <c r="U94" s="29"/>
-      <c r="V94" s="29"/>
-      <c r="W94" s="29"/>
-      <c r="X94" s="29"/>
-      <c r="Y94" s="29"/>
-      <c r="Z94" s="29"/>
-      <c r="AA94" s="29"/>
-      <c r="AB94" s="29"/>
-      <c r="AC94" s="29"/>
-      <c r="AD94" s="29"/>
-      <c r="AE94" s="29"/>
-      <c r="AF94" s="29"/>
-      <c r="AG94" s="29"/>
-      <c r="AH94" s="29"/>
-      <c r="AI94" s="29"/>
-      <c r="AJ94" s="29"/>
-      <c r="AK94" s="29"/>
-      <c r="AL94" s="29"/>
-      <c r="AM94" s="29"/>
-      <c r="AN94" s="29"/>
-      <c r="AO94" s="29"/>
-      <c r="AP94" s="29"/>
-      <c r="AQ94" s="29"/>
-      <c r="AR94" s="29"/>
-      <c r="AS94" s="29"/>
-      <c r="AT94" s="29"/>
-      <c r="AU94" s="29"/>
-      <c r="AV94" s="29"/>
-      <c r="AW94" s="29"/>
-      <c r="AX94" s="29"/>
-      <c r="AY94" s="29"/>
-      <c r="AZ94" s="30"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="50"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="50"/>
+      <c r="I94" s="50"/>
+      <c r="J94" s="50"/>
+      <c r="K94" s="50"/>
+      <c r="L94" s="50"/>
+      <c r="M94" s="50"/>
+      <c r="N94" s="50"/>
+      <c r="O94" s="50"/>
+      <c r="P94" s="50"/>
+      <c r="Q94" s="50"/>
+      <c r="R94" s="50"/>
+      <c r="S94" s="50"/>
+      <c r="T94" s="50"/>
+      <c r="U94" s="50"/>
+      <c r="V94" s="50"/>
+      <c r="W94" s="50"/>
+      <c r="X94" s="50"/>
+      <c r="Y94" s="50"/>
+      <c r="Z94" s="50"/>
+      <c r="AA94" s="50"/>
+      <c r="AB94" s="50"/>
+      <c r="AC94" s="50"/>
+      <c r="AD94" s="50"/>
+      <c r="AE94" s="50"/>
+      <c r="AF94" s="50"/>
+      <c r="AG94" s="50"/>
+      <c r="AH94" s="50"/>
+      <c r="AI94" s="50"/>
+      <c r="AJ94" s="50"/>
+      <c r="AK94" s="50"/>
+      <c r="AL94" s="50"/>
+      <c r="AM94" s="50"/>
+      <c r="AN94" s="50"/>
+      <c r="AO94" s="50"/>
+      <c r="AP94" s="50"/>
+      <c r="AQ94" s="50"/>
+      <c r="AR94" s="50"/>
+      <c r="AS94" s="50"/>
+      <c r="AT94" s="50"/>
+      <c r="AU94" s="50"/>
+      <c r="AV94" s="50"/>
+      <c r="AW94" s="50"/>
+      <c r="AX94" s="50"/>
+      <c r="AY94" s="50"/>
+      <c r="AZ94" s="51"/>
     </row>
     <row r="95" spans="2:52" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="2:52" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12032,28 +12922,6 @@
     <row r="103" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B63:C70"/>
-    <mergeCell ref="B73:C75"/>
-    <mergeCell ref="B76:C78"/>
-    <mergeCell ref="B44:C46"/>
-    <mergeCell ref="B57:C59"/>
-    <mergeCell ref="B60:C62"/>
-    <mergeCell ref="B47:C54"/>
-    <mergeCell ref="B55:C56"/>
-    <mergeCell ref="B41:C43"/>
-    <mergeCell ref="AG1:AZ2"/>
-    <mergeCell ref="T1:AF2"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="AB8:AK8"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="B28:C30"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B15:C22"/>
-    <mergeCell ref="B31:C38"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="B25:C27"/>
     <mergeCell ref="B91:AZ94"/>
     <mergeCell ref="B4:AZ7"/>
     <mergeCell ref="D15:AP24"/>
@@ -12070,6 +12938,28 @@
     <mergeCell ref="B87:C88"/>
     <mergeCell ref="D79:AP88"/>
     <mergeCell ref="AQ79:AZ88"/>
+    <mergeCell ref="B41:C43"/>
+    <mergeCell ref="AG1:AZ2"/>
+    <mergeCell ref="T1:AF2"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="AB8:AK8"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B28:C30"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B15:C22"/>
+    <mergeCell ref="B31:C38"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="B25:C27"/>
+    <mergeCell ref="B63:C70"/>
+    <mergeCell ref="B73:C75"/>
+    <mergeCell ref="B76:C78"/>
+    <mergeCell ref="B44:C46"/>
+    <mergeCell ref="B57:C59"/>
+    <mergeCell ref="B60:C62"/>
+    <mergeCell ref="B47:C54"/>
+    <mergeCell ref="B55:C56"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions verticalCentered="1"/>
@@ -12081,12 +12971,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12307,15 +13194,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA46E2CD-519D-47DE-B196-0DD50840862B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57598A84-87D5-4E37-AB32-A40732200DBA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="67bb9ec5-9b1b-486c-a632-e2dd655875ec"/>
+    <ds:schemaRef ds:uri="3fd75491-3ac1-4e58-b8d5-9038dca3fcdc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12340,18 +13239,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57598A84-87D5-4E37-AB32-A40732200DBA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA46E2CD-519D-47DE-B196-0DD50840862B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="67bb9ec5-9b1b-486c-a632-e2dd655875ec"/>
-    <ds:schemaRef ds:uri="3fd75491-3ac1-4e58-b8d5-9038dca3fcdc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/【研修中】_日次報告書研修日誌林康輝.xlsx
+++ b/【研修中】_日次報告書研修日誌林康輝.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensyu004\Desktop\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.utsunomiya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDA3460-7B22-40A7-965B-39F4FB7EB9E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7189BFC3-A359-4D01-97CF-37FB090180E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="20250" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="研修日誌" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t xml:space="preserve"> 研　修　日　誌 </t>
     <rPh sb="1" eb="2">
@@ -806,6 +806,64 @@
     </rPh>
     <rPh sb="86" eb="88">
       <t>テイネイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実際の仕事の中で勉強の時間をもらえることはなかなかありません。自己の力を磨くのは自己の責任だからです。どんな分野でも優秀な人は自己錬に多くの時間を使います。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ミガ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セキニン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ブンヤ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ユウシュウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>レン</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1081,69 +1139,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1256,6 +1251,69 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8675,7 +8733,7 @@
   <dimension ref="A1:BS103"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AQ79" sqref="AQ79:AZ88"/>
+      <selection activeCell="AQ89" sqref="AQ89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="9.9499999999999993" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -8702,59 +8760,59 @@
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
       <c r="S1" s="20"/>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="38" t="s">
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="73"/>
+      <c r="AW1" s="73"/>
+      <c r="AX1" s="73"/>
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="73"/>
       <c r="BA1" s="14"/>
     </row>
     <row r="2" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
@@ -8763,51 +8821,51 @@
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="38"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="73"/>
+      <c r="AW2" s="73"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="73"/>
+      <c r="AZ2" s="73"/>
     </row>
     <row r="3" spans="1:53" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -8825,252 +8883,252 @@
       <c r="AL3" s="11"/>
     </row>
     <row r="4" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="44"/>
-      <c r="AU4" s="44"/>
-      <c r="AV4" s="44"/>
-      <c r="AW4" s="44"/>
-      <c r="AX4" s="44"/>
-      <c r="AY4" s="44"/>
-      <c r="AZ4" s="45"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
+      <c r="AT4" s="23"/>
+      <c r="AU4" s="23"/>
+      <c r="AV4" s="23"/>
+      <c r="AW4" s="23"/>
+      <c r="AX4" s="23"/>
+      <c r="AY4" s="23"/>
+      <c r="AZ4" s="24"/>
     </row>
     <row r="5" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="48"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="26"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26"/>
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="26"/>
+      <c r="AP5" s="26"/>
+      <c r="AQ5" s="26"/>
+      <c r="AR5" s="26"/>
+      <c r="AS5" s="26"/>
+      <c r="AT5" s="26"/>
+      <c r="AU5" s="26"/>
+      <c r="AV5" s="26"/>
+      <c r="AW5" s="26"/>
+      <c r="AX5" s="26"/>
+      <c r="AY5" s="26"/>
+      <c r="AZ5" s="27"/>
     </row>
     <row r="6" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="47"/>
-      <c r="AP6" s="47"/>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="47"/>
-      <c r="AS6" s="47"/>
-      <c r="AT6" s="47"/>
-      <c r="AU6" s="47"/>
-      <c r="AV6" s="47"/>
-      <c r="AW6" s="47"/>
-      <c r="AX6" s="47"/>
-      <c r="AY6" s="47"/>
-      <c r="AZ6" s="48"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="26"/>
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="26"/>
+      <c r="AS6" s="26"/>
+      <c r="AT6" s="26"/>
+      <c r="AU6" s="26"/>
+      <c r="AV6" s="26"/>
+      <c r="AW6" s="26"/>
+      <c r="AX6" s="26"/>
+      <c r="AY6" s="26"/>
+      <c r="AZ6" s="27"/>
     </row>
     <row r="7" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="50"/>
-      <c r="AJ7" s="50"/>
-      <c r="AK7" s="50"/>
-      <c r="AL7" s="50"/>
-      <c r="AM7" s="50"/>
-      <c r="AN7" s="50"/>
-      <c r="AO7" s="50"/>
-      <c r="AP7" s="50"/>
-      <c r="AQ7" s="50"/>
-      <c r="AR7" s="50"/>
-      <c r="AS7" s="50"/>
-      <c r="AT7" s="50"/>
-      <c r="AU7" s="50"/>
-      <c r="AV7" s="50"/>
-      <c r="AW7" s="50"/>
-      <c r="AX7" s="50"/>
-      <c r="AY7" s="50"/>
-      <c r="AZ7" s="51"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="30"/>
     </row>
     <row r="8" spans="1:53" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="AA8" s="11"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="40"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="40"/>
-      <c r="AK8" s="40"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="60"/>
+      <c r="AE8" s="60"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="60"/>
+      <c r="AH8" s="60"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="60"/>
+      <c r="AK8" s="60"/>
       <c r="AL8" s="8"/>
     </row>
     <row r="9" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="12"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -9122,22 +9180,22 @@
       <c r="AZ9" s="2"/>
     </row>
     <row r="10" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="21"/>
       <c r="AZ10" s="3"/>
     </row>
     <row r="11" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="15"/>
       <c r="AZ11" s="3"/>
     </row>
     <row r="12" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -9189,14 +9247,14 @@
       <c r="AZ12" s="18"/>
     </row>
     <row r="13" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="15"/>
       <c r="AZ13" s="3"/>
     </row>
     <row r="14" spans="1:53" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
@@ -9248,548 +9306,548 @@
       <c r="AZ14" s="6"/>
     </row>
     <row r="15" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="42">
+      <c r="B15" s="80">
         <v>44060</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="52" t="s">
+      <c r="C15" s="66"/>
+      <c r="D15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
-      <c r="AD15" s="53"/>
-      <c r="AE15" s="53"/>
-      <c r="AF15" s="53"/>
-      <c r="AG15" s="53"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="53"/>
-      <c r="AJ15" s="53"/>
-      <c r="AK15" s="53"/>
-      <c r="AL15" s="53"/>
-      <c r="AM15" s="53"/>
-      <c r="AN15" s="53"/>
-      <c r="AO15" s="53"/>
-      <c r="AP15" s="54"/>
-      <c r="AQ15" s="61" t="s">
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="33"/>
+      <c r="AQ15" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="AR15" s="63"/>
-      <c r="AS15" s="63"/>
-      <c r="AT15" s="63"/>
-      <c r="AU15" s="63"/>
-      <c r="AV15" s="63"/>
-      <c r="AW15" s="63"/>
-      <c r="AX15" s="63"/>
-      <c r="AY15" s="63"/>
-      <c r="AZ15" s="64"/>
+      <c r="AR15" s="42"/>
+      <c r="AS15" s="42"/>
+      <c r="AT15" s="42"/>
+      <c r="AU15" s="42"/>
+      <c r="AV15" s="42"/>
+      <c r="AW15" s="42"/>
+      <c r="AX15" s="42"/>
+      <c r="AY15" s="42"/>
+      <c r="AZ15" s="43"/>
     </row>
     <row r="16" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="56"/>
-      <c r="AK16" s="56"/>
-      <c r="AL16" s="56"/>
-      <c r="AM16" s="56"/>
-      <c r="AN16" s="56"/>
-      <c r="AO16" s="56"/>
-      <c r="AP16" s="57"/>
-      <c r="AQ16" s="65"/>
-      <c r="AR16" s="66"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="66"/>
-      <c r="AU16" s="66"/>
-      <c r="AV16" s="66"/>
-      <c r="AW16" s="66"/>
-      <c r="AX16" s="66"/>
-      <c r="AY16" s="66"/>
-      <c r="AZ16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="35"/>
+      <c r="AO16" s="35"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="44"/>
+      <c r="AR16" s="45"/>
+      <c r="AS16" s="45"/>
+      <c r="AT16" s="45"/>
+      <c r="AU16" s="45"/>
+      <c r="AV16" s="45"/>
+      <c r="AW16" s="45"/>
+      <c r="AX16" s="45"/>
+      <c r="AY16" s="45"/>
+      <c r="AZ16" s="46"/>
     </row>
     <row r="17" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="56"/>
-      <c r="AF17" s="56"/>
-      <c r="AG17" s="56"/>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="56"/>
-      <c r="AJ17" s="56"/>
-      <c r="AK17" s="56"/>
-      <c r="AL17" s="56"/>
-      <c r="AM17" s="56"/>
-      <c r="AN17" s="56"/>
-      <c r="AO17" s="56"/>
-      <c r="AP17" s="57"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="66"/>
-      <c r="AS17" s="66"/>
-      <c r="AT17" s="66"/>
-      <c r="AU17" s="66"/>
-      <c r="AV17" s="66"/>
-      <c r="AW17" s="66"/>
-      <c r="AX17" s="66"/>
-      <c r="AY17" s="66"/>
-      <c r="AZ17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="35"/>
+      <c r="AK17" s="35"/>
+      <c r="AL17" s="35"/>
+      <c r="AM17" s="35"/>
+      <c r="AN17" s="35"/>
+      <c r="AO17" s="35"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="44"/>
+      <c r="AR17" s="45"/>
+      <c r="AS17" s="45"/>
+      <c r="AT17" s="45"/>
+      <c r="AU17" s="45"/>
+      <c r="AV17" s="45"/>
+      <c r="AW17" s="45"/>
+      <c r="AX17" s="45"/>
+      <c r="AY17" s="45"/>
+      <c r="AZ17" s="46"/>
     </row>
     <row r="18" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="56"/>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="56"/>
-      <c r="AJ18" s="56"/>
-      <c r="AK18" s="56"/>
-      <c r="AL18" s="56"/>
-      <c r="AM18" s="56"/>
-      <c r="AN18" s="56"/>
-      <c r="AO18" s="56"/>
-      <c r="AP18" s="57"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="66"/>
-      <c r="AS18" s="66"/>
-      <c r="AT18" s="66"/>
-      <c r="AU18" s="66"/>
-      <c r="AV18" s="66"/>
-      <c r="AW18" s="66"/>
-      <c r="AX18" s="66"/>
-      <c r="AY18" s="66"/>
-      <c r="AZ18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="35"/>
+      <c r="AO18" s="35"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="44"/>
+      <c r="AR18" s="45"/>
+      <c r="AS18" s="45"/>
+      <c r="AT18" s="45"/>
+      <c r="AU18" s="45"/>
+      <c r="AV18" s="45"/>
+      <c r="AW18" s="45"/>
+      <c r="AX18" s="45"/>
+      <c r="AY18" s="45"/>
+      <c r="AZ18" s="46"/>
     </row>
     <row r="19" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="56"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="56"/>
-      <c r="AK19" s="56"/>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="56"/>
-      <c r="AN19" s="56"/>
-      <c r="AO19" s="56"/>
-      <c r="AP19" s="57"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="66"/>
-      <c r="AS19" s="66"/>
-      <c r="AT19" s="66"/>
-      <c r="AU19" s="66"/>
-      <c r="AV19" s="66"/>
-      <c r="AW19" s="66"/>
-      <c r="AX19" s="66"/>
-      <c r="AY19" s="66"/>
-      <c r="AZ19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
+      <c r="AI19" s="35"/>
+      <c r="AJ19" s="35"/>
+      <c r="AK19" s="35"/>
+      <c r="AL19" s="35"/>
+      <c r="AM19" s="35"/>
+      <c r="AN19" s="35"/>
+      <c r="AO19" s="35"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="44"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
+      <c r="AT19" s="45"/>
+      <c r="AU19" s="45"/>
+      <c r="AV19" s="45"/>
+      <c r="AW19" s="45"/>
+      <c r="AX19" s="45"/>
+      <c r="AY19" s="45"/>
+      <c r="AZ19" s="46"/>
     </row>
     <row r="20" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="56"/>
-      <c r="AL20" s="56"/>
-      <c r="AM20" s="56"/>
-      <c r="AN20" s="56"/>
-      <c r="AO20" s="56"/>
-      <c r="AP20" s="57"/>
-      <c r="AQ20" s="65"/>
-      <c r="AR20" s="66"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="66"/>
-      <c r="AU20" s="66"/>
-      <c r="AV20" s="66"/>
-      <c r="AW20" s="66"/>
-      <c r="AX20" s="66"/>
-      <c r="AY20" s="66"/>
-      <c r="AZ20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="35"/>
+      <c r="AJ20" s="35"/>
+      <c r="AK20" s="35"/>
+      <c r="AL20" s="35"/>
+      <c r="AM20" s="35"/>
+      <c r="AN20" s="35"/>
+      <c r="AO20" s="35"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="44"/>
+      <c r="AR20" s="45"/>
+      <c r="AS20" s="45"/>
+      <c r="AT20" s="45"/>
+      <c r="AU20" s="45"/>
+      <c r="AV20" s="45"/>
+      <c r="AW20" s="45"/>
+      <c r="AX20" s="45"/>
+      <c r="AY20" s="45"/>
+      <c r="AZ20" s="46"/>
     </row>
     <row r="21" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="56"/>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="56"/>
-      <c r="AJ21" s="56"/>
-      <c r="AK21" s="56"/>
-      <c r="AL21" s="56"/>
-      <c r="AM21" s="56"/>
-      <c r="AN21" s="56"/>
-      <c r="AO21" s="56"/>
-      <c r="AP21" s="57"/>
-      <c r="AQ21" s="65"/>
-      <c r="AR21" s="66"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="66"/>
-      <c r="AU21" s="66"/>
-      <c r="AV21" s="66"/>
-      <c r="AW21" s="66"/>
-      <c r="AX21" s="66"/>
-      <c r="AY21" s="66"/>
-      <c r="AZ21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="35"/>
+      <c r="AJ21" s="35"/>
+      <c r="AK21" s="35"/>
+      <c r="AL21" s="35"/>
+      <c r="AM21" s="35"/>
+      <c r="AN21" s="35"/>
+      <c r="AO21" s="35"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="44"/>
+      <c r="AR21" s="45"/>
+      <c r="AS21" s="45"/>
+      <c r="AT21" s="45"/>
+      <c r="AU21" s="45"/>
+      <c r="AV21" s="45"/>
+      <c r="AW21" s="45"/>
+      <c r="AX21" s="45"/>
+      <c r="AY21" s="45"/>
+      <c r="AZ21" s="46"/>
     </row>
     <row r="22" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="56"/>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="56"/>
-      <c r="AJ22" s="56"/>
-      <c r="AK22" s="56"/>
-      <c r="AL22" s="56"/>
-      <c r="AM22" s="56"/>
-      <c r="AN22" s="56"/>
-      <c r="AO22" s="56"/>
-      <c r="AP22" s="57"/>
-      <c r="AQ22" s="65"/>
-      <c r="AR22" s="66"/>
-      <c r="AS22" s="66"/>
-      <c r="AT22" s="66"/>
-      <c r="AU22" s="66"/>
-      <c r="AV22" s="66"/>
-      <c r="AW22" s="66"/>
-      <c r="AX22" s="66"/>
-      <c r="AY22" s="66"/>
-      <c r="AZ22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="35"/>
+      <c r="AK22" s="35"/>
+      <c r="AL22" s="35"/>
+      <c r="AM22" s="35"/>
+      <c r="AN22" s="35"/>
+      <c r="AO22" s="35"/>
+      <c r="AP22" s="36"/>
+      <c r="AQ22" s="44"/>
+      <c r="AR22" s="45"/>
+      <c r="AS22" s="45"/>
+      <c r="AT22" s="45"/>
+      <c r="AU22" s="45"/>
+      <c r="AV22" s="45"/>
+      <c r="AW22" s="45"/>
+      <c r="AX22" s="45"/>
+      <c r="AY22" s="45"/>
+      <c r="AZ22" s="46"/>
     </row>
     <row r="23" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="56"/>
-      <c r="AF23" s="56"/>
-      <c r="AG23" s="56"/>
-      <c r="AH23" s="56"/>
-      <c r="AI23" s="56"/>
-      <c r="AJ23" s="56"/>
-      <c r="AK23" s="56"/>
-      <c r="AL23" s="56"/>
-      <c r="AM23" s="56"/>
-      <c r="AN23" s="56"/>
-      <c r="AO23" s="56"/>
-      <c r="AP23" s="57"/>
-      <c r="AQ23" s="65"/>
-      <c r="AR23" s="66"/>
-      <c r="AS23" s="66"/>
-      <c r="AT23" s="66"/>
-      <c r="AU23" s="66"/>
-      <c r="AV23" s="66"/>
-      <c r="AW23" s="66"/>
-      <c r="AX23" s="66"/>
-      <c r="AY23" s="66"/>
-      <c r="AZ23" s="67"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="35"/>
+      <c r="AJ23" s="35"/>
+      <c r="AK23" s="35"/>
+      <c r="AL23" s="35"/>
+      <c r="AM23" s="35"/>
+      <c r="AN23" s="35"/>
+      <c r="AO23" s="35"/>
+      <c r="AP23" s="36"/>
+      <c r="AQ23" s="44"/>
+      <c r="AR23" s="45"/>
+      <c r="AS23" s="45"/>
+      <c r="AT23" s="45"/>
+      <c r="AU23" s="45"/>
+      <c r="AV23" s="45"/>
+      <c r="AW23" s="45"/>
+      <c r="AX23" s="45"/>
+      <c r="AY23" s="45"/>
+      <c r="AZ23" s="46"/>
     </row>
     <row r="24" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="59"/>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="59"/>
-      <c r="AJ24" s="59"/>
-      <c r="AK24" s="59"/>
-      <c r="AL24" s="59"/>
-      <c r="AM24" s="59"/>
-      <c r="AN24" s="59"/>
-      <c r="AO24" s="59"/>
-      <c r="AP24" s="60"/>
-      <c r="AQ24" s="68"/>
-      <c r="AR24" s="69"/>
-      <c r="AS24" s="69"/>
-      <c r="AT24" s="69"/>
-      <c r="AU24" s="69"/>
-      <c r="AV24" s="69"/>
-      <c r="AW24" s="69"/>
-      <c r="AX24" s="69"/>
-      <c r="AY24" s="69"/>
-      <c r="AZ24" s="70"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="38"/>
+      <c r="AM24" s="38"/>
+      <c r="AN24" s="38"/>
+      <c r="AO24" s="38"/>
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="47"/>
+      <c r="AR24" s="48"/>
+      <c r="AS24" s="48"/>
+      <c r="AT24" s="48"/>
+      <c r="AU24" s="48"/>
+      <c r="AV24" s="48"/>
+      <c r="AW24" s="48"/>
+      <c r="AX24" s="48"/>
+      <c r="AY24" s="48"/>
+      <c r="AZ24" s="49"/>
     </row>
     <row r="25" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="12"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -9841,22 +9899,22 @@
       <c r="AZ25" s="2"/>
     </row>
     <row r="26" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="15"/>
       <c r="AZ26" s="3"/>
     </row>
     <row r="27" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="15"/>
       <c r="AZ27" s="3"/>
     </row>
     <row r="28" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="31"/>
+      <c r="C28" s="77"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -9908,14 +9966,14 @@
       <c r="AZ28" s="18"/>
     </row>
     <row r="29" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="15"/>
       <c r="AZ29" s="3"/>
     </row>
     <row r="30" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
@@ -9967,548 +10025,548 @@
       <c r="AZ30" s="6"/>
     </row>
     <row r="31" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="52" t="s">
+      <c r="C31" s="66"/>
+      <c r="D31" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="53"/>
-      <c r="AC31" s="53"/>
-      <c r="AD31" s="53"/>
-      <c r="AE31" s="53"/>
-      <c r="AF31" s="53"/>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="53"/>
-      <c r="AJ31" s="53"/>
-      <c r="AK31" s="53"/>
-      <c r="AL31" s="53"/>
-      <c r="AM31" s="53"/>
-      <c r="AN31" s="53"/>
-      <c r="AO31" s="53"/>
-      <c r="AP31" s="54"/>
-      <c r="AQ31" s="61" t="s">
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="32"/>
+      <c r="AC31" s="32"/>
+      <c r="AD31" s="32"/>
+      <c r="AE31" s="32"/>
+      <c r="AF31" s="32"/>
+      <c r="AG31" s="32"/>
+      <c r="AH31" s="32"/>
+      <c r="AI31" s="32"/>
+      <c r="AJ31" s="32"/>
+      <c r="AK31" s="32"/>
+      <c r="AL31" s="32"/>
+      <c r="AM31" s="32"/>
+      <c r="AN31" s="32"/>
+      <c r="AO31" s="32"/>
+      <c r="AP31" s="33"/>
+      <c r="AQ31" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="AR31" s="63"/>
-      <c r="AS31" s="63"/>
-      <c r="AT31" s="63"/>
-      <c r="AU31" s="63"/>
-      <c r="AV31" s="63"/>
-      <c r="AW31" s="63"/>
-      <c r="AX31" s="63"/>
-      <c r="AY31" s="63"/>
-      <c r="AZ31" s="64"/>
+      <c r="AR31" s="42"/>
+      <c r="AS31" s="42"/>
+      <c r="AT31" s="42"/>
+      <c r="AU31" s="42"/>
+      <c r="AV31" s="42"/>
+      <c r="AW31" s="42"/>
+      <c r="AX31" s="42"/>
+      <c r="AY31" s="42"/>
+      <c r="AZ31" s="43"/>
     </row>
     <row r="32" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="56"/>
-      <c r="AC32" s="56"/>
-      <c r="AD32" s="56"/>
-      <c r="AE32" s="56"/>
-      <c r="AF32" s="56"/>
-      <c r="AG32" s="56"/>
-      <c r="AH32" s="56"/>
-      <c r="AI32" s="56"/>
-      <c r="AJ32" s="56"/>
-      <c r="AK32" s="56"/>
-      <c r="AL32" s="56"/>
-      <c r="AM32" s="56"/>
-      <c r="AN32" s="56"/>
-      <c r="AO32" s="56"/>
-      <c r="AP32" s="57"/>
-      <c r="AQ32" s="65"/>
-      <c r="AR32" s="66"/>
-      <c r="AS32" s="66"/>
-      <c r="AT32" s="66"/>
-      <c r="AU32" s="66"/>
-      <c r="AV32" s="66"/>
-      <c r="AW32" s="66"/>
-      <c r="AX32" s="66"/>
-      <c r="AY32" s="66"/>
-      <c r="AZ32" s="67"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="35"/>
+      <c r="AF32" s="35"/>
+      <c r="AG32" s="35"/>
+      <c r="AH32" s="35"/>
+      <c r="AI32" s="35"/>
+      <c r="AJ32" s="35"/>
+      <c r="AK32" s="35"/>
+      <c r="AL32" s="35"/>
+      <c r="AM32" s="35"/>
+      <c r="AN32" s="35"/>
+      <c r="AO32" s="35"/>
+      <c r="AP32" s="36"/>
+      <c r="AQ32" s="44"/>
+      <c r="AR32" s="45"/>
+      <c r="AS32" s="45"/>
+      <c r="AT32" s="45"/>
+      <c r="AU32" s="45"/>
+      <c r="AV32" s="45"/>
+      <c r="AW32" s="45"/>
+      <c r="AX32" s="45"/>
+      <c r="AY32" s="45"/>
+      <c r="AZ32" s="46"/>
     </row>
     <row r="33" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="56"/>
-      <c r="AB33" s="56"/>
-      <c r="AC33" s="56"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="56"/>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="56"/>
-      <c r="AH33" s="56"/>
-      <c r="AI33" s="56"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="56"/>
-      <c r="AL33" s="56"/>
-      <c r="AM33" s="56"/>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="56"/>
-      <c r="AP33" s="57"/>
-      <c r="AQ33" s="65"/>
-      <c r="AR33" s="66"/>
-      <c r="AS33" s="66"/>
-      <c r="AT33" s="66"/>
-      <c r="AU33" s="66"/>
-      <c r="AV33" s="66"/>
-      <c r="AW33" s="66"/>
-      <c r="AX33" s="66"/>
-      <c r="AY33" s="66"/>
-      <c r="AZ33" s="67"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35"/>
+      <c r="AF33" s="35"/>
+      <c r="AG33" s="35"/>
+      <c r="AH33" s="35"/>
+      <c r="AI33" s="35"/>
+      <c r="AJ33" s="35"/>
+      <c r="AK33" s="35"/>
+      <c r="AL33" s="35"/>
+      <c r="AM33" s="35"/>
+      <c r="AN33" s="35"/>
+      <c r="AO33" s="35"/>
+      <c r="AP33" s="36"/>
+      <c r="AQ33" s="44"/>
+      <c r="AR33" s="45"/>
+      <c r="AS33" s="45"/>
+      <c r="AT33" s="45"/>
+      <c r="AU33" s="45"/>
+      <c r="AV33" s="45"/>
+      <c r="AW33" s="45"/>
+      <c r="AX33" s="45"/>
+      <c r="AY33" s="45"/>
+      <c r="AZ33" s="46"/>
     </row>
     <row r="34" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="56"/>
-      <c r="Y34" s="56"/>
-      <c r="Z34" s="56"/>
-      <c r="AA34" s="56"/>
-      <c r="AB34" s="56"/>
-      <c r="AC34" s="56"/>
-      <c r="AD34" s="56"/>
-      <c r="AE34" s="56"/>
-      <c r="AF34" s="56"/>
-      <c r="AG34" s="56"/>
-      <c r="AH34" s="56"/>
-      <c r="AI34" s="56"/>
-      <c r="AJ34" s="56"/>
-      <c r="AK34" s="56"/>
-      <c r="AL34" s="56"/>
-      <c r="AM34" s="56"/>
-      <c r="AN34" s="56"/>
-      <c r="AO34" s="56"/>
-      <c r="AP34" s="57"/>
-      <c r="AQ34" s="65"/>
-      <c r="AR34" s="66"/>
-      <c r="AS34" s="66"/>
-      <c r="AT34" s="66"/>
-      <c r="AU34" s="66"/>
-      <c r="AV34" s="66"/>
-      <c r="AW34" s="66"/>
-      <c r="AX34" s="66"/>
-      <c r="AY34" s="66"/>
-      <c r="AZ34" s="67"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="35"/>
+      <c r="AE34" s="35"/>
+      <c r="AF34" s="35"/>
+      <c r="AG34" s="35"/>
+      <c r="AH34" s="35"/>
+      <c r="AI34" s="35"/>
+      <c r="AJ34" s="35"/>
+      <c r="AK34" s="35"/>
+      <c r="AL34" s="35"/>
+      <c r="AM34" s="35"/>
+      <c r="AN34" s="35"/>
+      <c r="AO34" s="35"/>
+      <c r="AP34" s="36"/>
+      <c r="AQ34" s="44"/>
+      <c r="AR34" s="45"/>
+      <c r="AS34" s="45"/>
+      <c r="AT34" s="45"/>
+      <c r="AU34" s="45"/>
+      <c r="AV34" s="45"/>
+      <c r="AW34" s="45"/>
+      <c r="AX34" s="45"/>
+      <c r="AY34" s="45"/>
+      <c r="AZ34" s="46"/>
     </row>
     <row r="35" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56"/>
-      <c r="AA35" s="56"/>
-      <c r="AB35" s="56"/>
-      <c r="AC35" s="56"/>
-      <c r="AD35" s="56"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56"/>
-      <c r="AH35" s="56"/>
-      <c r="AI35" s="56"/>
-      <c r="AJ35" s="56"/>
-      <c r="AK35" s="56"/>
-      <c r="AL35" s="56"/>
-      <c r="AM35" s="56"/>
-      <c r="AN35" s="56"/>
-      <c r="AO35" s="56"/>
-      <c r="AP35" s="57"/>
-      <c r="AQ35" s="65"/>
-      <c r="AR35" s="66"/>
-      <c r="AS35" s="66"/>
-      <c r="AT35" s="66"/>
-      <c r="AU35" s="66"/>
-      <c r="AV35" s="66"/>
-      <c r="AW35" s="66"/>
-      <c r="AX35" s="66"/>
-      <c r="AY35" s="66"/>
-      <c r="AZ35" s="67"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
+      <c r="AF35" s="35"/>
+      <c r="AG35" s="35"/>
+      <c r="AH35" s="35"/>
+      <c r="AI35" s="35"/>
+      <c r="AJ35" s="35"/>
+      <c r="AK35" s="35"/>
+      <c r="AL35" s="35"/>
+      <c r="AM35" s="35"/>
+      <c r="AN35" s="35"/>
+      <c r="AO35" s="35"/>
+      <c r="AP35" s="36"/>
+      <c r="AQ35" s="44"/>
+      <c r="AR35" s="45"/>
+      <c r="AS35" s="45"/>
+      <c r="AT35" s="45"/>
+      <c r="AU35" s="45"/>
+      <c r="AV35" s="45"/>
+      <c r="AW35" s="45"/>
+      <c r="AX35" s="45"/>
+      <c r="AY35" s="45"/>
+      <c r="AZ35" s="46"/>
     </row>
     <row r="36" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="56"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="56"/>
-      <c r="Z36" s="56"/>
-      <c r="AA36" s="56"/>
-      <c r="AB36" s="56"/>
-      <c r="AC36" s="56"/>
-      <c r="AD36" s="56"/>
-      <c r="AE36" s="56"/>
-      <c r="AF36" s="56"/>
-      <c r="AG36" s="56"/>
-      <c r="AH36" s="56"/>
-      <c r="AI36" s="56"/>
-      <c r="AJ36" s="56"/>
-      <c r="AK36" s="56"/>
-      <c r="AL36" s="56"/>
-      <c r="AM36" s="56"/>
-      <c r="AN36" s="56"/>
-      <c r="AO36" s="56"/>
-      <c r="AP36" s="57"/>
-      <c r="AQ36" s="65"/>
-      <c r="AR36" s="66"/>
-      <c r="AS36" s="66"/>
-      <c r="AT36" s="66"/>
-      <c r="AU36" s="66"/>
-      <c r="AV36" s="66"/>
-      <c r="AW36" s="66"/>
-      <c r="AX36" s="66"/>
-      <c r="AY36" s="66"/>
-      <c r="AZ36" s="67"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="35"/>
+      <c r="AF36" s="35"/>
+      <c r="AG36" s="35"/>
+      <c r="AH36" s="35"/>
+      <c r="AI36" s="35"/>
+      <c r="AJ36" s="35"/>
+      <c r="AK36" s="35"/>
+      <c r="AL36" s="35"/>
+      <c r="AM36" s="35"/>
+      <c r="AN36" s="35"/>
+      <c r="AO36" s="35"/>
+      <c r="AP36" s="36"/>
+      <c r="AQ36" s="44"/>
+      <c r="AR36" s="45"/>
+      <c r="AS36" s="45"/>
+      <c r="AT36" s="45"/>
+      <c r="AU36" s="45"/>
+      <c r="AV36" s="45"/>
+      <c r="AW36" s="45"/>
+      <c r="AX36" s="45"/>
+      <c r="AY36" s="45"/>
+      <c r="AZ36" s="46"/>
     </row>
     <row r="37" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="56"/>
-      <c r="AC37" s="56"/>
-      <c r="AD37" s="56"/>
-      <c r="AE37" s="56"/>
-      <c r="AF37" s="56"/>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="56"/>
-      <c r="AJ37" s="56"/>
-      <c r="AK37" s="56"/>
-      <c r="AL37" s="56"/>
-      <c r="AM37" s="56"/>
-      <c r="AN37" s="56"/>
-      <c r="AO37" s="56"/>
-      <c r="AP37" s="57"/>
-      <c r="AQ37" s="65"/>
-      <c r="AR37" s="66"/>
-      <c r="AS37" s="66"/>
-      <c r="AT37" s="66"/>
-      <c r="AU37" s="66"/>
-      <c r="AV37" s="66"/>
-      <c r="AW37" s="66"/>
-      <c r="AX37" s="66"/>
-      <c r="AY37" s="66"/>
-      <c r="AZ37" s="67"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="35"/>
+      <c r="AD37" s="35"/>
+      <c r="AE37" s="35"/>
+      <c r="AF37" s="35"/>
+      <c r="AG37" s="35"/>
+      <c r="AH37" s="35"/>
+      <c r="AI37" s="35"/>
+      <c r="AJ37" s="35"/>
+      <c r="AK37" s="35"/>
+      <c r="AL37" s="35"/>
+      <c r="AM37" s="35"/>
+      <c r="AN37" s="35"/>
+      <c r="AO37" s="35"/>
+      <c r="AP37" s="36"/>
+      <c r="AQ37" s="44"/>
+      <c r="AR37" s="45"/>
+      <c r="AS37" s="45"/>
+      <c r="AT37" s="45"/>
+      <c r="AU37" s="45"/>
+      <c r="AV37" s="45"/>
+      <c r="AW37" s="45"/>
+      <c r="AX37" s="45"/>
+      <c r="AY37" s="45"/>
+      <c r="AZ37" s="46"/>
     </row>
     <row r="38" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="56"/>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="56"/>
-      <c r="T38" s="56"/>
-      <c r="U38" s="56"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="56"/>
-      <c r="Z38" s="56"/>
-      <c r="AA38" s="56"/>
-      <c r="AB38" s="56"/>
-      <c r="AC38" s="56"/>
-      <c r="AD38" s="56"/>
-      <c r="AE38" s="56"/>
-      <c r="AF38" s="56"/>
-      <c r="AG38" s="56"/>
-      <c r="AH38" s="56"/>
-      <c r="AI38" s="56"/>
-      <c r="AJ38" s="56"/>
-      <c r="AK38" s="56"/>
-      <c r="AL38" s="56"/>
-      <c r="AM38" s="56"/>
-      <c r="AN38" s="56"/>
-      <c r="AO38" s="56"/>
-      <c r="AP38" s="57"/>
-      <c r="AQ38" s="65"/>
-      <c r="AR38" s="66"/>
-      <c r="AS38" s="66"/>
-      <c r="AT38" s="66"/>
-      <c r="AU38" s="66"/>
-      <c r="AV38" s="66"/>
-      <c r="AW38" s="66"/>
-      <c r="AX38" s="66"/>
-      <c r="AY38" s="66"/>
-      <c r="AZ38" s="67"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35"/>
+      <c r="AD38" s="35"/>
+      <c r="AE38" s="35"/>
+      <c r="AF38" s="35"/>
+      <c r="AG38" s="35"/>
+      <c r="AH38" s="35"/>
+      <c r="AI38" s="35"/>
+      <c r="AJ38" s="35"/>
+      <c r="AK38" s="35"/>
+      <c r="AL38" s="35"/>
+      <c r="AM38" s="35"/>
+      <c r="AN38" s="35"/>
+      <c r="AO38" s="35"/>
+      <c r="AP38" s="36"/>
+      <c r="AQ38" s="44"/>
+      <c r="AR38" s="45"/>
+      <c r="AS38" s="45"/>
+      <c r="AT38" s="45"/>
+      <c r="AU38" s="45"/>
+      <c r="AV38" s="45"/>
+      <c r="AW38" s="45"/>
+      <c r="AX38" s="45"/>
+      <c r="AY38" s="45"/>
+      <c r="AZ38" s="46"/>
     </row>
     <row r="39" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="56"/>
-      <c r="AE39" s="56"/>
-      <c r="AF39" s="56"/>
-      <c r="AG39" s="56"/>
-      <c r="AH39" s="56"/>
-      <c r="AI39" s="56"/>
-      <c r="AJ39" s="56"/>
-      <c r="AK39" s="56"/>
-      <c r="AL39" s="56"/>
-      <c r="AM39" s="56"/>
-      <c r="AN39" s="56"/>
-      <c r="AO39" s="56"/>
-      <c r="AP39" s="57"/>
-      <c r="AQ39" s="65"/>
-      <c r="AR39" s="66"/>
-      <c r="AS39" s="66"/>
-      <c r="AT39" s="66"/>
-      <c r="AU39" s="66"/>
-      <c r="AV39" s="66"/>
-      <c r="AW39" s="66"/>
-      <c r="AX39" s="66"/>
-      <c r="AY39" s="66"/>
-      <c r="AZ39" s="67"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
+      <c r="AD39" s="35"/>
+      <c r="AE39" s="35"/>
+      <c r="AF39" s="35"/>
+      <c r="AG39" s="35"/>
+      <c r="AH39" s="35"/>
+      <c r="AI39" s="35"/>
+      <c r="AJ39" s="35"/>
+      <c r="AK39" s="35"/>
+      <c r="AL39" s="35"/>
+      <c r="AM39" s="35"/>
+      <c r="AN39" s="35"/>
+      <c r="AO39" s="35"/>
+      <c r="AP39" s="36"/>
+      <c r="AQ39" s="44"/>
+      <c r="AR39" s="45"/>
+      <c r="AS39" s="45"/>
+      <c r="AT39" s="45"/>
+      <c r="AU39" s="45"/>
+      <c r="AV39" s="45"/>
+      <c r="AW39" s="45"/>
+      <c r="AX39" s="45"/>
+      <c r="AY39" s="45"/>
+      <c r="AZ39" s="46"/>
     </row>
     <row r="40" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="59"/>
-      <c r="AF40" s="59"/>
-      <c r="AG40" s="59"/>
-      <c r="AH40" s="59"/>
-      <c r="AI40" s="59"/>
-      <c r="AJ40" s="59"/>
-      <c r="AK40" s="59"/>
-      <c r="AL40" s="59"/>
-      <c r="AM40" s="59"/>
-      <c r="AN40" s="59"/>
-      <c r="AO40" s="59"/>
-      <c r="AP40" s="60"/>
-      <c r="AQ40" s="68"/>
-      <c r="AR40" s="69"/>
-      <c r="AS40" s="69"/>
-      <c r="AT40" s="69"/>
-      <c r="AU40" s="69"/>
-      <c r="AV40" s="69"/>
-      <c r="AW40" s="69"/>
-      <c r="AX40" s="69"/>
-      <c r="AY40" s="69"/>
-      <c r="AZ40" s="70"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="38"/>
+      <c r="Z40" s="38"/>
+      <c r="AA40" s="38"/>
+      <c r="AB40" s="38"/>
+      <c r="AC40" s="38"/>
+      <c r="AD40" s="38"/>
+      <c r="AE40" s="38"/>
+      <c r="AF40" s="38"/>
+      <c r="AG40" s="38"/>
+      <c r="AH40" s="38"/>
+      <c r="AI40" s="38"/>
+      <c r="AJ40" s="38"/>
+      <c r="AK40" s="38"/>
+      <c r="AL40" s="38"/>
+      <c r="AM40" s="38"/>
+      <c r="AN40" s="38"/>
+      <c r="AO40" s="38"/>
+      <c r="AP40" s="39"/>
+      <c r="AQ40" s="47"/>
+      <c r="AR40" s="48"/>
+      <c r="AS40" s="48"/>
+      <c r="AT40" s="48"/>
+      <c r="AU40" s="48"/>
+      <c r="AV40" s="48"/>
+      <c r="AW40" s="48"/>
+      <c r="AX40" s="48"/>
+      <c r="AY40" s="48"/>
+      <c r="AZ40" s="49"/>
     </row>
     <row r="41" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="27"/>
+      <c r="C41" s="70"/>
       <c r="D41" s="12"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -10560,22 +10618,22 @@
       <c r="AZ41" s="2"/>
     </row>
     <row r="42" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="28"/>
-      <c r="C42" s="29"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="72"/>
       <c r="D42" s="15"/>
       <c r="AZ42" s="3"/>
     </row>
     <row r="43" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="72"/>
       <c r="D43" s="15"/>
       <c r="AZ43" s="3"/>
     </row>
     <row r="44" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="31"/>
+      <c r="C44" s="77"/>
       <c r="D44" s="16"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
@@ -10627,14 +10685,14 @@
       <c r="AZ44" s="18"/>
     </row>
     <row r="45" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="28"/>
-      <c r="C45" s="29"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="72"/>
       <c r="D45" s="15"/>
       <c r="AZ45" s="3"/>
     </row>
     <row r="46" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="32"/>
-      <c r="C46" s="33"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="6"/>
@@ -10686,548 +10744,548 @@
       <c r="AZ46" s="6"/>
     </row>
     <row r="47" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="61" t="s">
+      <c r="C47" s="66"/>
+      <c r="D47" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="53"/>
-      <c r="V47" s="53"/>
-      <c r="W47" s="53"/>
-      <c r="X47" s="53"/>
-      <c r="Y47" s="53"/>
-      <c r="Z47" s="53"/>
-      <c r="AA47" s="53"/>
-      <c r="AB47" s="53"/>
-      <c r="AC47" s="53"/>
-      <c r="AD47" s="53"/>
-      <c r="AE47" s="53"/>
-      <c r="AF47" s="53"/>
-      <c r="AG47" s="53"/>
-      <c r="AH47" s="53"/>
-      <c r="AI47" s="53"/>
-      <c r="AJ47" s="53"/>
-      <c r="AK47" s="53"/>
-      <c r="AL47" s="53"/>
-      <c r="AM47" s="53"/>
-      <c r="AN47" s="53"/>
-      <c r="AO47" s="53"/>
-      <c r="AP47" s="54"/>
-      <c r="AQ47" s="71" t="s">
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="32"/>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="32"/>
+      <c r="AE47" s="32"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32"/>
+      <c r="AI47" s="32"/>
+      <c r="AJ47" s="32"/>
+      <c r="AK47" s="32"/>
+      <c r="AL47" s="32"/>
+      <c r="AM47" s="32"/>
+      <c r="AN47" s="32"/>
+      <c r="AO47" s="32"/>
+      <c r="AP47" s="33"/>
+      <c r="AQ47" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="AR47" s="72"/>
-      <c r="AS47" s="72"/>
-      <c r="AT47" s="72"/>
-      <c r="AU47" s="72"/>
-      <c r="AV47" s="72"/>
-      <c r="AW47" s="72"/>
-      <c r="AX47" s="72"/>
-      <c r="AY47" s="72"/>
-      <c r="AZ47" s="73"/>
+      <c r="AR47" s="51"/>
+      <c r="AS47" s="51"/>
+      <c r="AT47" s="51"/>
+      <c r="AU47" s="51"/>
+      <c r="AV47" s="51"/>
+      <c r="AW47" s="51"/>
+      <c r="AX47" s="51"/>
+      <c r="AY47" s="51"/>
+      <c r="AZ47" s="52"/>
     </row>
     <row r="48" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="56"/>
-      <c r="T48" s="56"/>
-      <c r="U48" s="56"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="56"/>
-      <c r="X48" s="56"/>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="56"/>
-      <c r="AC48" s="56"/>
-      <c r="AD48" s="56"/>
-      <c r="AE48" s="56"/>
-      <c r="AF48" s="56"/>
-      <c r="AG48" s="56"/>
-      <c r="AH48" s="56"/>
-      <c r="AI48" s="56"/>
-      <c r="AJ48" s="56"/>
-      <c r="AK48" s="56"/>
-      <c r="AL48" s="56"/>
-      <c r="AM48" s="56"/>
-      <c r="AN48" s="56"/>
-      <c r="AO48" s="56"/>
-      <c r="AP48" s="57"/>
-      <c r="AQ48" s="74"/>
-      <c r="AR48" s="75"/>
-      <c r="AS48" s="75"/>
-      <c r="AT48" s="75"/>
-      <c r="AU48" s="75"/>
-      <c r="AV48" s="75"/>
-      <c r="AW48" s="75"/>
-      <c r="AX48" s="75"/>
-      <c r="AY48" s="75"/>
-      <c r="AZ48" s="76"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="35"/>
+      <c r="AD48" s="35"/>
+      <c r="AE48" s="35"/>
+      <c r="AF48" s="35"/>
+      <c r="AG48" s="35"/>
+      <c r="AH48" s="35"/>
+      <c r="AI48" s="35"/>
+      <c r="AJ48" s="35"/>
+      <c r="AK48" s="35"/>
+      <c r="AL48" s="35"/>
+      <c r="AM48" s="35"/>
+      <c r="AN48" s="35"/>
+      <c r="AO48" s="35"/>
+      <c r="AP48" s="36"/>
+      <c r="AQ48" s="53"/>
+      <c r="AR48" s="54"/>
+      <c r="AS48" s="54"/>
+      <c r="AT48" s="54"/>
+      <c r="AU48" s="54"/>
+      <c r="AV48" s="54"/>
+      <c r="AW48" s="54"/>
+      <c r="AX48" s="54"/>
+      <c r="AY48" s="54"/>
+      <c r="AZ48" s="55"/>
     </row>
     <row r="49" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="56"/>
-      <c r="P49" s="56"/>
-      <c r="Q49" s="56"/>
-      <c r="R49" s="56"/>
-      <c r="S49" s="56"/>
-      <c r="T49" s="56"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="56"/>
-      <c r="Z49" s="56"/>
-      <c r="AA49" s="56"/>
-      <c r="AB49" s="56"/>
-      <c r="AC49" s="56"/>
-      <c r="AD49" s="56"/>
-      <c r="AE49" s="56"/>
-      <c r="AF49" s="56"/>
-      <c r="AG49" s="56"/>
-      <c r="AH49" s="56"/>
-      <c r="AI49" s="56"/>
-      <c r="AJ49" s="56"/>
-      <c r="AK49" s="56"/>
-      <c r="AL49" s="56"/>
-      <c r="AM49" s="56"/>
-      <c r="AN49" s="56"/>
-      <c r="AO49" s="56"/>
-      <c r="AP49" s="57"/>
-      <c r="AQ49" s="74"/>
-      <c r="AR49" s="75"/>
-      <c r="AS49" s="75"/>
-      <c r="AT49" s="75"/>
-      <c r="AU49" s="75"/>
-      <c r="AV49" s="75"/>
-      <c r="AW49" s="75"/>
-      <c r="AX49" s="75"/>
-      <c r="AY49" s="75"/>
-      <c r="AZ49" s="76"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="35"/>
+      <c r="AD49" s="35"/>
+      <c r="AE49" s="35"/>
+      <c r="AF49" s="35"/>
+      <c r="AG49" s="35"/>
+      <c r="AH49" s="35"/>
+      <c r="AI49" s="35"/>
+      <c r="AJ49" s="35"/>
+      <c r="AK49" s="35"/>
+      <c r="AL49" s="35"/>
+      <c r="AM49" s="35"/>
+      <c r="AN49" s="35"/>
+      <c r="AO49" s="35"/>
+      <c r="AP49" s="36"/>
+      <c r="AQ49" s="53"/>
+      <c r="AR49" s="54"/>
+      <c r="AS49" s="54"/>
+      <c r="AT49" s="54"/>
+      <c r="AU49" s="54"/>
+      <c r="AV49" s="54"/>
+      <c r="AW49" s="54"/>
+      <c r="AX49" s="54"/>
+      <c r="AY49" s="54"/>
+      <c r="AZ49" s="55"/>
     </row>
     <row r="50" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="56"/>
-      <c r="Q50" s="56"/>
-      <c r="R50" s="56"/>
-      <c r="S50" s="56"/>
-      <c r="T50" s="56"/>
-      <c r="U50" s="56"/>
-      <c r="V50" s="56"/>
-      <c r="W50" s="56"/>
-      <c r="X50" s="56"/>
-      <c r="Y50" s="56"/>
-      <c r="Z50" s="56"/>
-      <c r="AA50" s="56"/>
-      <c r="AB50" s="56"/>
-      <c r="AC50" s="56"/>
-      <c r="AD50" s="56"/>
-      <c r="AE50" s="56"/>
-      <c r="AF50" s="56"/>
-      <c r="AG50" s="56"/>
-      <c r="AH50" s="56"/>
-      <c r="AI50" s="56"/>
-      <c r="AJ50" s="56"/>
-      <c r="AK50" s="56"/>
-      <c r="AL50" s="56"/>
-      <c r="AM50" s="56"/>
-      <c r="AN50" s="56"/>
-      <c r="AO50" s="56"/>
-      <c r="AP50" s="57"/>
-      <c r="AQ50" s="74"/>
-      <c r="AR50" s="75"/>
-      <c r="AS50" s="75"/>
-      <c r="AT50" s="75"/>
-      <c r="AU50" s="75"/>
-      <c r="AV50" s="75"/>
-      <c r="AW50" s="75"/>
-      <c r="AX50" s="75"/>
-      <c r="AY50" s="75"/>
-      <c r="AZ50" s="76"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="35"/>
+      <c r="AA50" s="35"/>
+      <c r="AB50" s="35"/>
+      <c r="AC50" s="35"/>
+      <c r="AD50" s="35"/>
+      <c r="AE50" s="35"/>
+      <c r="AF50" s="35"/>
+      <c r="AG50" s="35"/>
+      <c r="AH50" s="35"/>
+      <c r="AI50" s="35"/>
+      <c r="AJ50" s="35"/>
+      <c r="AK50" s="35"/>
+      <c r="AL50" s="35"/>
+      <c r="AM50" s="35"/>
+      <c r="AN50" s="35"/>
+      <c r="AO50" s="35"/>
+      <c r="AP50" s="36"/>
+      <c r="AQ50" s="53"/>
+      <c r="AR50" s="54"/>
+      <c r="AS50" s="54"/>
+      <c r="AT50" s="54"/>
+      <c r="AU50" s="54"/>
+      <c r="AV50" s="54"/>
+      <c r="AW50" s="54"/>
+      <c r="AX50" s="54"/>
+      <c r="AY50" s="54"/>
+      <c r="AZ50" s="55"/>
     </row>
     <row r="51" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="56"/>
-      <c r="Q51" s="56"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="56"/>
-      <c r="T51" s="56"/>
-      <c r="U51" s="56"/>
-      <c r="V51" s="56"/>
-      <c r="W51" s="56"/>
-      <c r="X51" s="56"/>
-      <c r="Y51" s="56"/>
-      <c r="Z51" s="56"/>
-      <c r="AA51" s="56"/>
-      <c r="AB51" s="56"/>
-      <c r="AC51" s="56"/>
-      <c r="AD51" s="56"/>
-      <c r="AE51" s="56"/>
-      <c r="AF51" s="56"/>
-      <c r="AG51" s="56"/>
-      <c r="AH51" s="56"/>
-      <c r="AI51" s="56"/>
-      <c r="AJ51" s="56"/>
-      <c r="AK51" s="56"/>
-      <c r="AL51" s="56"/>
-      <c r="AM51" s="56"/>
-      <c r="AN51" s="56"/>
-      <c r="AO51" s="56"/>
-      <c r="AP51" s="57"/>
-      <c r="AQ51" s="74"/>
-      <c r="AR51" s="75"/>
-      <c r="AS51" s="75"/>
-      <c r="AT51" s="75"/>
-      <c r="AU51" s="75"/>
-      <c r="AV51" s="75"/>
-      <c r="AW51" s="75"/>
-      <c r="AX51" s="75"/>
-      <c r="AY51" s="75"/>
-      <c r="AZ51" s="76"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="35"/>
+      <c r="Y51" s="35"/>
+      <c r="Z51" s="35"/>
+      <c r="AA51" s="35"/>
+      <c r="AB51" s="35"/>
+      <c r="AC51" s="35"/>
+      <c r="AD51" s="35"/>
+      <c r="AE51" s="35"/>
+      <c r="AF51" s="35"/>
+      <c r="AG51" s="35"/>
+      <c r="AH51" s="35"/>
+      <c r="AI51" s="35"/>
+      <c r="AJ51" s="35"/>
+      <c r="AK51" s="35"/>
+      <c r="AL51" s="35"/>
+      <c r="AM51" s="35"/>
+      <c r="AN51" s="35"/>
+      <c r="AO51" s="35"/>
+      <c r="AP51" s="36"/>
+      <c r="AQ51" s="53"/>
+      <c r="AR51" s="54"/>
+      <c r="AS51" s="54"/>
+      <c r="AT51" s="54"/>
+      <c r="AU51" s="54"/>
+      <c r="AV51" s="54"/>
+      <c r="AW51" s="54"/>
+      <c r="AX51" s="54"/>
+      <c r="AY51" s="54"/>
+      <c r="AZ51" s="55"/>
     </row>
     <row r="52" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="56"/>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="56"/>
-      <c r="S52" s="56"/>
-      <c r="T52" s="56"/>
-      <c r="U52" s="56"/>
-      <c r="V52" s="56"/>
-      <c r="W52" s="56"/>
-      <c r="X52" s="56"/>
-      <c r="Y52" s="56"/>
-      <c r="Z52" s="56"/>
-      <c r="AA52" s="56"/>
-      <c r="AB52" s="56"/>
-      <c r="AC52" s="56"/>
-      <c r="AD52" s="56"/>
-      <c r="AE52" s="56"/>
-      <c r="AF52" s="56"/>
-      <c r="AG52" s="56"/>
-      <c r="AH52" s="56"/>
-      <c r="AI52" s="56"/>
-      <c r="AJ52" s="56"/>
-      <c r="AK52" s="56"/>
-      <c r="AL52" s="56"/>
-      <c r="AM52" s="56"/>
-      <c r="AN52" s="56"/>
-      <c r="AO52" s="56"/>
-      <c r="AP52" s="57"/>
-      <c r="AQ52" s="74"/>
-      <c r="AR52" s="75"/>
-      <c r="AS52" s="75"/>
-      <c r="AT52" s="75"/>
-      <c r="AU52" s="75"/>
-      <c r="AV52" s="75"/>
-      <c r="AW52" s="75"/>
-      <c r="AX52" s="75"/>
-      <c r="AY52" s="75"/>
-      <c r="AZ52" s="76"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="35"/>
+      <c r="V52" s="35"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="35"/>
+      <c r="Y52" s="35"/>
+      <c r="Z52" s="35"/>
+      <c r="AA52" s="35"/>
+      <c r="AB52" s="35"/>
+      <c r="AC52" s="35"/>
+      <c r="AD52" s="35"/>
+      <c r="AE52" s="35"/>
+      <c r="AF52" s="35"/>
+      <c r="AG52" s="35"/>
+      <c r="AH52" s="35"/>
+      <c r="AI52" s="35"/>
+      <c r="AJ52" s="35"/>
+      <c r="AK52" s="35"/>
+      <c r="AL52" s="35"/>
+      <c r="AM52" s="35"/>
+      <c r="AN52" s="35"/>
+      <c r="AO52" s="35"/>
+      <c r="AP52" s="36"/>
+      <c r="AQ52" s="53"/>
+      <c r="AR52" s="54"/>
+      <c r="AS52" s="54"/>
+      <c r="AT52" s="54"/>
+      <c r="AU52" s="54"/>
+      <c r="AV52" s="54"/>
+      <c r="AW52" s="54"/>
+      <c r="AX52" s="54"/>
+      <c r="AY52" s="54"/>
+      <c r="AZ52" s="55"/>
     </row>
     <row r="53" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="56"/>
-      <c r="Q53" s="56"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="56"/>
-      <c r="T53" s="56"/>
-      <c r="U53" s="56"/>
-      <c r="V53" s="56"/>
-      <c r="W53" s="56"/>
-      <c r="X53" s="56"/>
-      <c r="Y53" s="56"/>
-      <c r="Z53" s="56"/>
-      <c r="AA53" s="56"/>
-      <c r="AB53" s="56"/>
-      <c r="AC53" s="56"/>
-      <c r="AD53" s="56"/>
-      <c r="AE53" s="56"/>
-      <c r="AF53" s="56"/>
-      <c r="AG53" s="56"/>
-      <c r="AH53" s="56"/>
-      <c r="AI53" s="56"/>
-      <c r="AJ53" s="56"/>
-      <c r="AK53" s="56"/>
-      <c r="AL53" s="56"/>
-      <c r="AM53" s="56"/>
-      <c r="AN53" s="56"/>
-      <c r="AO53" s="56"/>
-      <c r="AP53" s="57"/>
-      <c r="AQ53" s="74"/>
-      <c r="AR53" s="75"/>
-      <c r="AS53" s="75"/>
-      <c r="AT53" s="75"/>
-      <c r="AU53" s="75"/>
-      <c r="AV53" s="75"/>
-      <c r="AW53" s="75"/>
-      <c r="AX53" s="75"/>
-      <c r="AY53" s="75"/>
-      <c r="AZ53" s="76"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="35"/>
+      <c r="AD53" s="35"/>
+      <c r="AE53" s="35"/>
+      <c r="AF53" s="35"/>
+      <c r="AG53" s="35"/>
+      <c r="AH53" s="35"/>
+      <c r="AI53" s="35"/>
+      <c r="AJ53" s="35"/>
+      <c r="AK53" s="35"/>
+      <c r="AL53" s="35"/>
+      <c r="AM53" s="35"/>
+      <c r="AN53" s="35"/>
+      <c r="AO53" s="35"/>
+      <c r="AP53" s="36"/>
+      <c r="AQ53" s="53"/>
+      <c r="AR53" s="54"/>
+      <c r="AS53" s="54"/>
+      <c r="AT53" s="54"/>
+      <c r="AU53" s="54"/>
+      <c r="AV53" s="54"/>
+      <c r="AW53" s="54"/>
+      <c r="AX53" s="54"/>
+      <c r="AY53" s="54"/>
+      <c r="AZ53" s="55"/>
     </row>
     <row r="54" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="56"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="56"/>
-      <c r="S54" s="56"/>
-      <c r="T54" s="56"/>
-      <c r="U54" s="56"/>
-      <c r="V54" s="56"/>
-      <c r="W54" s="56"/>
-      <c r="X54" s="56"/>
-      <c r="Y54" s="56"/>
-      <c r="Z54" s="56"/>
-      <c r="AA54" s="56"/>
-      <c r="AB54" s="56"/>
-      <c r="AC54" s="56"/>
-      <c r="AD54" s="56"/>
-      <c r="AE54" s="56"/>
-      <c r="AF54" s="56"/>
-      <c r="AG54" s="56"/>
-      <c r="AH54" s="56"/>
-      <c r="AI54" s="56"/>
-      <c r="AJ54" s="56"/>
-      <c r="AK54" s="56"/>
-      <c r="AL54" s="56"/>
-      <c r="AM54" s="56"/>
-      <c r="AN54" s="56"/>
-      <c r="AO54" s="56"/>
-      <c r="AP54" s="57"/>
-      <c r="AQ54" s="74"/>
-      <c r="AR54" s="75"/>
-      <c r="AS54" s="75"/>
-      <c r="AT54" s="75"/>
-      <c r="AU54" s="75"/>
-      <c r="AV54" s="75"/>
-      <c r="AW54" s="75"/>
-      <c r="AX54" s="75"/>
-      <c r="AY54" s="75"/>
-      <c r="AZ54" s="76"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="35"/>
+      <c r="Y54" s="35"/>
+      <c r="Z54" s="35"/>
+      <c r="AA54" s="35"/>
+      <c r="AB54" s="35"/>
+      <c r="AC54" s="35"/>
+      <c r="AD54" s="35"/>
+      <c r="AE54" s="35"/>
+      <c r="AF54" s="35"/>
+      <c r="AG54" s="35"/>
+      <c r="AH54" s="35"/>
+      <c r="AI54" s="35"/>
+      <c r="AJ54" s="35"/>
+      <c r="AK54" s="35"/>
+      <c r="AL54" s="35"/>
+      <c r="AM54" s="35"/>
+      <c r="AN54" s="35"/>
+      <c r="AO54" s="35"/>
+      <c r="AP54" s="36"/>
+      <c r="AQ54" s="53"/>
+      <c r="AR54" s="54"/>
+      <c r="AS54" s="54"/>
+      <c r="AT54" s="54"/>
+      <c r="AU54" s="54"/>
+      <c r="AV54" s="54"/>
+      <c r="AW54" s="54"/>
+      <c r="AX54" s="54"/>
+      <c r="AY54" s="54"/>
+      <c r="AZ54" s="55"/>
     </row>
     <row r="55" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="56"/>
-      <c r="Q55" s="56"/>
-      <c r="R55" s="56"/>
-      <c r="S55" s="56"/>
-      <c r="T55" s="56"/>
-      <c r="U55" s="56"/>
-      <c r="V55" s="56"/>
-      <c r="W55" s="56"/>
-      <c r="X55" s="56"/>
-      <c r="Y55" s="56"/>
-      <c r="Z55" s="56"/>
-      <c r="AA55" s="56"/>
-      <c r="AB55" s="56"/>
-      <c r="AC55" s="56"/>
-      <c r="AD55" s="56"/>
-      <c r="AE55" s="56"/>
-      <c r="AF55" s="56"/>
-      <c r="AG55" s="56"/>
-      <c r="AH55" s="56"/>
-      <c r="AI55" s="56"/>
-      <c r="AJ55" s="56"/>
-      <c r="AK55" s="56"/>
-      <c r="AL55" s="56"/>
-      <c r="AM55" s="56"/>
-      <c r="AN55" s="56"/>
-      <c r="AO55" s="56"/>
-      <c r="AP55" s="57"/>
-      <c r="AQ55" s="74"/>
-      <c r="AR55" s="75"/>
-      <c r="AS55" s="75"/>
-      <c r="AT55" s="75"/>
-      <c r="AU55" s="75"/>
-      <c r="AV55" s="75"/>
-      <c r="AW55" s="75"/>
-      <c r="AX55" s="75"/>
-      <c r="AY55" s="75"/>
-      <c r="AZ55" s="76"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="35"/>
+      <c r="AB55" s="35"/>
+      <c r="AC55" s="35"/>
+      <c r="AD55" s="35"/>
+      <c r="AE55" s="35"/>
+      <c r="AF55" s="35"/>
+      <c r="AG55" s="35"/>
+      <c r="AH55" s="35"/>
+      <c r="AI55" s="35"/>
+      <c r="AJ55" s="35"/>
+      <c r="AK55" s="35"/>
+      <c r="AL55" s="35"/>
+      <c r="AM55" s="35"/>
+      <c r="AN55" s="35"/>
+      <c r="AO55" s="35"/>
+      <c r="AP55" s="36"/>
+      <c r="AQ55" s="53"/>
+      <c r="AR55" s="54"/>
+      <c r="AS55" s="54"/>
+      <c r="AT55" s="54"/>
+      <c r="AU55" s="54"/>
+      <c r="AV55" s="54"/>
+      <c r="AW55" s="54"/>
+      <c r="AX55" s="54"/>
+      <c r="AY55" s="54"/>
+      <c r="AZ55" s="55"/>
     </row>
     <row r="56" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="36"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="59"/>
-      <c r="O56" s="59"/>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="59"/>
-      <c r="S56" s="59"/>
-      <c r="T56" s="59"/>
-      <c r="U56" s="59"/>
-      <c r="V56" s="59"/>
-      <c r="W56" s="59"/>
-      <c r="X56" s="59"/>
-      <c r="Y56" s="59"/>
-      <c r="Z56" s="59"/>
-      <c r="AA56" s="59"/>
-      <c r="AB56" s="59"/>
-      <c r="AC56" s="59"/>
-      <c r="AD56" s="59"/>
-      <c r="AE56" s="59"/>
-      <c r="AF56" s="59"/>
-      <c r="AG56" s="59"/>
-      <c r="AH56" s="59"/>
-      <c r="AI56" s="59"/>
-      <c r="AJ56" s="59"/>
-      <c r="AK56" s="59"/>
-      <c r="AL56" s="59"/>
-      <c r="AM56" s="59"/>
-      <c r="AN56" s="59"/>
-      <c r="AO56" s="59"/>
-      <c r="AP56" s="60"/>
-      <c r="AQ56" s="77"/>
-      <c r="AR56" s="78"/>
-      <c r="AS56" s="78"/>
-      <c r="AT56" s="78"/>
-      <c r="AU56" s="78"/>
-      <c r="AV56" s="78"/>
-      <c r="AW56" s="78"/>
-      <c r="AX56" s="78"/>
-      <c r="AY56" s="78"/>
-      <c r="AZ56" s="79"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="38"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="38"/>
+      <c r="V56" s="38"/>
+      <c r="W56" s="38"/>
+      <c r="X56" s="38"/>
+      <c r="Y56" s="38"/>
+      <c r="Z56" s="38"/>
+      <c r="AA56" s="38"/>
+      <c r="AB56" s="38"/>
+      <c r="AC56" s="38"/>
+      <c r="AD56" s="38"/>
+      <c r="AE56" s="38"/>
+      <c r="AF56" s="38"/>
+      <c r="AG56" s="38"/>
+      <c r="AH56" s="38"/>
+      <c r="AI56" s="38"/>
+      <c r="AJ56" s="38"/>
+      <c r="AK56" s="38"/>
+      <c r="AL56" s="38"/>
+      <c r="AM56" s="38"/>
+      <c r="AN56" s="38"/>
+      <c r="AO56" s="38"/>
+      <c r="AP56" s="39"/>
+      <c r="AQ56" s="56"/>
+      <c r="AR56" s="57"/>
+      <c r="AS56" s="57"/>
+      <c r="AT56" s="57"/>
+      <c r="AU56" s="57"/>
+      <c r="AV56" s="57"/>
+      <c r="AW56" s="57"/>
+      <c r="AX56" s="57"/>
+      <c r="AY56" s="57"/>
+      <c r="AZ56" s="58"/>
     </row>
     <row r="57" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="27"/>
+      <c r="C57" s="70"/>
       <c r="D57" s="12"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -11279,22 +11337,22 @@
       <c r="AZ57" s="2"/>
     </row>
     <row r="58" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="28"/>
-      <c r="C58" s="29"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="72"/>
       <c r="D58" s="15"/>
       <c r="AZ58" s="3"/>
     </row>
     <row r="59" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="28"/>
-      <c r="C59" s="29"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="72"/>
       <c r="D59" s="15"/>
       <c r="AZ59" s="3"/>
     </row>
     <row r="60" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="31"/>
+      <c r="C60" s="77"/>
       <c r="D60" s="16"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -11346,14 +11404,14 @@
       <c r="AZ60" s="18"/>
     </row>
     <row r="61" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="28"/>
-      <c r="C61" s="29"/>
+      <c r="B61" s="71"/>
+      <c r="C61" s="72"/>
       <c r="D61" s="15"/>
       <c r="AZ61" s="3"/>
     </row>
     <row r="62" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="32"/>
-      <c r="C62" s="33"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="79"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="6"/>
@@ -11405,548 +11463,548 @@
       <c r="AZ62" s="6"/>
     </row>
     <row r="63" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="23"/>
-      <c r="D63" s="62" t="s">
+      <c r="C63" s="66"/>
+      <c r="D63" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="53"/>
-      <c r="O63" s="53"/>
-      <c r="P63" s="53"/>
-      <c r="Q63" s="53"/>
-      <c r="R63" s="53"/>
-      <c r="S63" s="53"/>
-      <c r="T63" s="53"/>
-      <c r="U63" s="53"/>
-      <c r="V63" s="53"/>
-      <c r="W63" s="53"/>
-      <c r="X63" s="53"/>
-      <c r="Y63" s="53"/>
-      <c r="Z63" s="53"/>
-      <c r="AA63" s="53"/>
-      <c r="AB63" s="53"/>
-      <c r="AC63" s="53"/>
-      <c r="AD63" s="53"/>
-      <c r="AE63" s="53"/>
-      <c r="AF63" s="53"/>
-      <c r="AG63" s="53"/>
-      <c r="AH63" s="53"/>
-      <c r="AI63" s="53"/>
-      <c r="AJ63" s="53"/>
-      <c r="AK63" s="53"/>
-      <c r="AL63" s="53"/>
-      <c r="AM63" s="53"/>
-      <c r="AN63" s="53"/>
-      <c r="AO63" s="53"/>
-      <c r="AP63" s="54"/>
-      <c r="AQ63" s="71" t="s">
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="32"/>
+      <c r="U63" s="32"/>
+      <c r="V63" s="32"/>
+      <c r="W63" s="32"/>
+      <c r="X63" s="32"/>
+      <c r="Y63" s="32"/>
+      <c r="Z63" s="32"/>
+      <c r="AA63" s="32"/>
+      <c r="AB63" s="32"/>
+      <c r="AC63" s="32"/>
+      <c r="AD63" s="32"/>
+      <c r="AE63" s="32"/>
+      <c r="AF63" s="32"/>
+      <c r="AG63" s="32"/>
+      <c r="AH63" s="32"/>
+      <c r="AI63" s="32"/>
+      <c r="AJ63" s="32"/>
+      <c r="AK63" s="32"/>
+      <c r="AL63" s="32"/>
+      <c r="AM63" s="32"/>
+      <c r="AN63" s="32"/>
+      <c r="AO63" s="32"/>
+      <c r="AP63" s="33"/>
+      <c r="AQ63" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="AR63" s="72"/>
-      <c r="AS63" s="72"/>
-      <c r="AT63" s="72"/>
-      <c r="AU63" s="72"/>
-      <c r="AV63" s="72"/>
-      <c r="AW63" s="72"/>
-      <c r="AX63" s="72"/>
-      <c r="AY63" s="72"/>
-      <c r="AZ63" s="73"/>
+      <c r="AR63" s="51"/>
+      <c r="AS63" s="51"/>
+      <c r="AT63" s="51"/>
+      <c r="AU63" s="51"/>
+      <c r="AV63" s="51"/>
+      <c r="AW63" s="51"/>
+      <c r="AX63" s="51"/>
+      <c r="AY63" s="51"/>
+      <c r="AZ63" s="52"/>
     </row>
     <row r="64" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="24"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="56"/>
-      <c r="K64" s="56"/>
-      <c r="L64" s="56"/>
-      <c r="M64" s="56"/>
-      <c r="N64" s="56"/>
-      <c r="O64" s="56"/>
-      <c r="P64" s="56"/>
-      <c r="Q64" s="56"/>
-      <c r="R64" s="56"/>
-      <c r="S64" s="56"/>
-      <c r="T64" s="56"/>
-      <c r="U64" s="56"/>
-      <c r="V64" s="56"/>
-      <c r="W64" s="56"/>
-      <c r="X64" s="56"/>
-      <c r="Y64" s="56"/>
-      <c r="Z64" s="56"/>
-      <c r="AA64" s="56"/>
-      <c r="AB64" s="56"/>
-      <c r="AC64" s="56"/>
-      <c r="AD64" s="56"/>
-      <c r="AE64" s="56"/>
-      <c r="AF64" s="56"/>
-      <c r="AG64" s="56"/>
-      <c r="AH64" s="56"/>
-      <c r="AI64" s="56"/>
-      <c r="AJ64" s="56"/>
-      <c r="AK64" s="56"/>
-      <c r="AL64" s="56"/>
-      <c r="AM64" s="56"/>
-      <c r="AN64" s="56"/>
-      <c r="AO64" s="56"/>
-      <c r="AP64" s="57"/>
-      <c r="AQ64" s="74"/>
-      <c r="AR64" s="75"/>
-      <c r="AS64" s="75"/>
-      <c r="AT64" s="75"/>
-      <c r="AU64" s="75"/>
-      <c r="AV64" s="75"/>
-      <c r="AW64" s="75"/>
-      <c r="AX64" s="75"/>
-      <c r="AY64" s="75"/>
-      <c r="AZ64" s="76"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="35"/>
+      <c r="S64" s="35"/>
+      <c r="T64" s="35"/>
+      <c r="U64" s="35"/>
+      <c r="V64" s="35"/>
+      <c r="W64" s="35"/>
+      <c r="X64" s="35"/>
+      <c r="Y64" s="35"/>
+      <c r="Z64" s="35"/>
+      <c r="AA64" s="35"/>
+      <c r="AB64" s="35"/>
+      <c r="AC64" s="35"/>
+      <c r="AD64" s="35"/>
+      <c r="AE64" s="35"/>
+      <c r="AF64" s="35"/>
+      <c r="AG64" s="35"/>
+      <c r="AH64" s="35"/>
+      <c r="AI64" s="35"/>
+      <c r="AJ64" s="35"/>
+      <c r="AK64" s="35"/>
+      <c r="AL64" s="35"/>
+      <c r="AM64" s="35"/>
+      <c r="AN64" s="35"/>
+      <c r="AO64" s="35"/>
+      <c r="AP64" s="36"/>
+      <c r="AQ64" s="53"/>
+      <c r="AR64" s="54"/>
+      <c r="AS64" s="54"/>
+      <c r="AT64" s="54"/>
+      <c r="AU64" s="54"/>
+      <c r="AV64" s="54"/>
+      <c r="AW64" s="54"/>
+      <c r="AX64" s="54"/>
+      <c r="AY64" s="54"/>
+      <c r="AZ64" s="55"/>
     </row>
     <row r="65" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="56"/>
-      <c r="K65" s="56"/>
-      <c r="L65" s="56"/>
-      <c r="M65" s="56"/>
-      <c r="N65" s="56"/>
-      <c r="O65" s="56"/>
-      <c r="P65" s="56"/>
-      <c r="Q65" s="56"/>
-      <c r="R65" s="56"/>
-      <c r="S65" s="56"/>
-      <c r="T65" s="56"/>
-      <c r="U65" s="56"/>
-      <c r="V65" s="56"/>
-      <c r="W65" s="56"/>
-      <c r="X65" s="56"/>
-      <c r="Y65" s="56"/>
-      <c r="Z65" s="56"/>
-      <c r="AA65" s="56"/>
-      <c r="AB65" s="56"/>
-      <c r="AC65" s="56"/>
-      <c r="AD65" s="56"/>
-      <c r="AE65" s="56"/>
-      <c r="AF65" s="56"/>
-      <c r="AG65" s="56"/>
-      <c r="AH65" s="56"/>
-      <c r="AI65" s="56"/>
-      <c r="AJ65" s="56"/>
-      <c r="AK65" s="56"/>
-      <c r="AL65" s="56"/>
-      <c r="AM65" s="56"/>
-      <c r="AN65" s="56"/>
-      <c r="AO65" s="56"/>
-      <c r="AP65" s="57"/>
-      <c r="AQ65" s="74"/>
-      <c r="AR65" s="75"/>
-      <c r="AS65" s="75"/>
-      <c r="AT65" s="75"/>
-      <c r="AU65" s="75"/>
-      <c r="AV65" s="75"/>
-      <c r="AW65" s="75"/>
-      <c r="AX65" s="75"/>
-      <c r="AY65" s="75"/>
-      <c r="AZ65" s="76"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="35"/>
+      <c r="V65" s="35"/>
+      <c r="W65" s="35"/>
+      <c r="X65" s="35"/>
+      <c r="Y65" s="35"/>
+      <c r="Z65" s="35"/>
+      <c r="AA65" s="35"/>
+      <c r="AB65" s="35"/>
+      <c r="AC65" s="35"/>
+      <c r="AD65" s="35"/>
+      <c r="AE65" s="35"/>
+      <c r="AF65" s="35"/>
+      <c r="AG65" s="35"/>
+      <c r="AH65" s="35"/>
+      <c r="AI65" s="35"/>
+      <c r="AJ65" s="35"/>
+      <c r="AK65" s="35"/>
+      <c r="AL65" s="35"/>
+      <c r="AM65" s="35"/>
+      <c r="AN65" s="35"/>
+      <c r="AO65" s="35"/>
+      <c r="AP65" s="36"/>
+      <c r="AQ65" s="53"/>
+      <c r="AR65" s="54"/>
+      <c r="AS65" s="54"/>
+      <c r="AT65" s="54"/>
+      <c r="AU65" s="54"/>
+      <c r="AV65" s="54"/>
+      <c r="AW65" s="54"/>
+      <c r="AX65" s="54"/>
+      <c r="AY65" s="54"/>
+      <c r="AZ65" s="55"/>
     </row>
     <row r="66" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="56"/>
-      <c r="K66" s="56"/>
-      <c r="L66" s="56"/>
-      <c r="M66" s="56"/>
-      <c r="N66" s="56"/>
-      <c r="O66" s="56"/>
-      <c r="P66" s="56"/>
-      <c r="Q66" s="56"/>
-      <c r="R66" s="56"/>
-      <c r="S66" s="56"/>
-      <c r="T66" s="56"/>
-      <c r="U66" s="56"/>
-      <c r="V66" s="56"/>
-      <c r="W66" s="56"/>
-      <c r="X66" s="56"/>
-      <c r="Y66" s="56"/>
-      <c r="Z66" s="56"/>
-      <c r="AA66" s="56"/>
-      <c r="AB66" s="56"/>
-      <c r="AC66" s="56"/>
-      <c r="AD66" s="56"/>
-      <c r="AE66" s="56"/>
-      <c r="AF66" s="56"/>
-      <c r="AG66" s="56"/>
-      <c r="AH66" s="56"/>
-      <c r="AI66" s="56"/>
-      <c r="AJ66" s="56"/>
-      <c r="AK66" s="56"/>
-      <c r="AL66" s="56"/>
-      <c r="AM66" s="56"/>
-      <c r="AN66" s="56"/>
-      <c r="AO66" s="56"/>
-      <c r="AP66" s="57"/>
-      <c r="AQ66" s="74"/>
-      <c r="AR66" s="75"/>
-      <c r="AS66" s="75"/>
-      <c r="AT66" s="75"/>
-      <c r="AU66" s="75"/>
-      <c r="AV66" s="75"/>
-      <c r="AW66" s="75"/>
-      <c r="AX66" s="75"/>
-      <c r="AY66" s="75"/>
-      <c r="AZ66" s="76"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="35"/>
+      <c r="V66" s="35"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="35"/>
+      <c r="Y66" s="35"/>
+      <c r="Z66" s="35"/>
+      <c r="AA66" s="35"/>
+      <c r="AB66" s="35"/>
+      <c r="AC66" s="35"/>
+      <c r="AD66" s="35"/>
+      <c r="AE66" s="35"/>
+      <c r="AF66" s="35"/>
+      <c r="AG66" s="35"/>
+      <c r="AH66" s="35"/>
+      <c r="AI66" s="35"/>
+      <c r="AJ66" s="35"/>
+      <c r="AK66" s="35"/>
+      <c r="AL66" s="35"/>
+      <c r="AM66" s="35"/>
+      <c r="AN66" s="35"/>
+      <c r="AO66" s="35"/>
+      <c r="AP66" s="36"/>
+      <c r="AQ66" s="53"/>
+      <c r="AR66" s="54"/>
+      <c r="AS66" s="54"/>
+      <c r="AT66" s="54"/>
+      <c r="AU66" s="54"/>
+      <c r="AV66" s="54"/>
+      <c r="AW66" s="54"/>
+      <c r="AX66" s="54"/>
+      <c r="AY66" s="54"/>
+      <c r="AZ66" s="55"/>
     </row>
     <row r="67" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="56"/>
-      <c r="K67" s="56"/>
-      <c r="L67" s="56"/>
-      <c r="M67" s="56"/>
-      <c r="N67" s="56"/>
-      <c r="O67" s="56"/>
-      <c r="P67" s="56"/>
-      <c r="Q67" s="56"/>
-      <c r="R67" s="56"/>
-      <c r="S67" s="56"/>
-      <c r="T67" s="56"/>
-      <c r="U67" s="56"/>
-      <c r="V67" s="56"/>
-      <c r="W67" s="56"/>
-      <c r="X67" s="56"/>
-      <c r="Y67" s="56"/>
-      <c r="Z67" s="56"/>
-      <c r="AA67" s="56"/>
-      <c r="AB67" s="56"/>
-      <c r="AC67" s="56"/>
-      <c r="AD67" s="56"/>
-      <c r="AE67" s="56"/>
-      <c r="AF67" s="56"/>
-      <c r="AG67" s="56"/>
-      <c r="AH67" s="56"/>
-      <c r="AI67" s="56"/>
-      <c r="AJ67" s="56"/>
-      <c r="AK67" s="56"/>
-      <c r="AL67" s="56"/>
-      <c r="AM67" s="56"/>
-      <c r="AN67" s="56"/>
-      <c r="AO67" s="56"/>
-      <c r="AP67" s="57"/>
-      <c r="AQ67" s="74"/>
-      <c r="AR67" s="75"/>
-      <c r="AS67" s="75"/>
-      <c r="AT67" s="75"/>
-      <c r="AU67" s="75"/>
-      <c r="AV67" s="75"/>
-      <c r="AW67" s="75"/>
-      <c r="AX67" s="75"/>
-      <c r="AY67" s="75"/>
-      <c r="AZ67" s="76"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35"/>
+      <c r="V67" s="35"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="35"/>
+      <c r="Y67" s="35"/>
+      <c r="Z67" s="35"/>
+      <c r="AA67" s="35"/>
+      <c r="AB67" s="35"/>
+      <c r="AC67" s="35"/>
+      <c r="AD67" s="35"/>
+      <c r="AE67" s="35"/>
+      <c r="AF67" s="35"/>
+      <c r="AG67" s="35"/>
+      <c r="AH67" s="35"/>
+      <c r="AI67" s="35"/>
+      <c r="AJ67" s="35"/>
+      <c r="AK67" s="35"/>
+      <c r="AL67" s="35"/>
+      <c r="AM67" s="35"/>
+      <c r="AN67" s="35"/>
+      <c r="AO67" s="35"/>
+      <c r="AP67" s="36"/>
+      <c r="AQ67" s="53"/>
+      <c r="AR67" s="54"/>
+      <c r="AS67" s="54"/>
+      <c r="AT67" s="54"/>
+      <c r="AU67" s="54"/>
+      <c r="AV67" s="54"/>
+      <c r="AW67" s="54"/>
+      <c r="AX67" s="54"/>
+      <c r="AY67" s="54"/>
+      <c r="AZ67" s="55"/>
     </row>
     <row r="68" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="56"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="56"/>
-      <c r="N68" s="56"/>
-      <c r="O68" s="56"/>
-      <c r="P68" s="56"/>
-      <c r="Q68" s="56"/>
-      <c r="R68" s="56"/>
-      <c r="S68" s="56"/>
-      <c r="T68" s="56"/>
-      <c r="U68" s="56"/>
-      <c r="V68" s="56"/>
-      <c r="W68" s="56"/>
-      <c r="X68" s="56"/>
-      <c r="Y68" s="56"/>
-      <c r="Z68" s="56"/>
-      <c r="AA68" s="56"/>
-      <c r="AB68" s="56"/>
-      <c r="AC68" s="56"/>
-      <c r="AD68" s="56"/>
-      <c r="AE68" s="56"/>
-      <c r="AF68" s="56"/>
-      <c r="AG68" s="56"/>
-      <c r="AH68" s="56"/>
-      <c r="AI68" s="56"/>
-      <c r="AJ68" s="56"/>
-      <c r="AK68" s="56"/>
-      <c r="AL68" s="56"/>
-      <c r="AM68" s="56"/>
-      <c r="AN68" s="56"/>
-      <c r="AO68" s="56"/>
-      <c r="AP68" s="57"/>
-      <c r="AQ68" s="74"/>
-      <c r="AR68" s="75"/>
-      <c r="AS68" s="75"/>
-      <c r="AT68" s="75"/>
-      <c r="AU68" s="75"/>
-      <c r="AV68" s="75"/>
-      <c r="AW68" s="75"/>
-      <c r="AX68" s="75"/>
-      <c r="AY68" s="75"/>
-      <c r="AZ68" s="76"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="35"/>
+      <c r="U68" s="35"/>
+      <c r="V68" s="35"/>
+      <c r="W68" s="35"/>
+      <c r="X68" s="35"/>
+      <c r="Y68" s="35"/>
+      <c r="Z68" s="35"/>
+      <c r="AA68" s="35"/>
+      <c r="AB68" s="35"/>
+      <c r="AC68" s="35"/>
+      <c r="AD68" s="35"/>
+      <c r="AE68" s="35"/>
+      <c r="AF68" s="35"/>
+      <c r="AG68" s="35"/>
+      <c r="AH68" s="35"/>
+      <c r="AI68" s="35"/>
+      <c r="AJ68" s="35"/>
+      <c r="AK68" s="35"/>
+      <c r="AL68" s="35"/>
+      <c r="AM68" s="35"/>
+      <c r="AN68" s="35"/>
+      <c r="AO68" s="35"/>
+      <c r="AP68" s="36"/>
+      <c r="AQ68" s="53"/>
+      <c r="AR68" s="54"/>
+      <c r="AS68" s="54"/>
+      <c r="AT68" s="54"/>
+      <c r="AU68" s="54"/>
+      <c r="AV68" s="54"/>
+      <c r="AW68" s="54"/>
+      <c r="AX68" s="54"/>
+      <c r="AY68" s="54"/>
+      <c r="AZ68" s="55"/>
     </row>
     <row r="69" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="24"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="56"/>
-      <c r="K69" s="56"/>
-      <c r="L69" s="56"/>
-      <c r="M69" s="56"/>
-      <c r="N69" s="56"/>
-      <c r="O69" s="56"/>
-      <c r="P69" s="56"/>
-      <c r="Q69" s="56"/>
-      <c r="R69" s="56"/>
-      <c r="S69" s="56"/>
-      <c r="T69" s="56"/>
-      <c r="U69" s="56"/>
-      <c r="V69" s="56"/>
-      <c r="W69" s="56"/>
-      <c r="X69" s="56"/>
-      <c r="Y69" s="56"/>
-      <c r="Z69" s="56"/>
-      <c r="AA69" s="56"/>
-      <c r="AB69" s="56"/>
-      <c r="AC69" s="56"/>
-      <c r="AD69" s="56"/>
-      <c r="AE69" s="56"/>
-      <c r="AF69" s="56"/>
-      <c r="AG69" s="56"/>
-      <c r="AH69" s="56"/>
-      <c r="AI69" s="56"/>
-      <c r="AJ69" s="56"/>
-      <c r="AK69" s="56"/>
-      <c r="AL69" s="56"/>
-      <c r="AM69" s="56"/>
-      <c r="AN69" s="56"/>
-      <c r="AO69" s="56"/>
-      <c r="AP69" s="57"/>
-      <c r="AQ69" s="74"/>
-      <c r="AR69" s="75"/>
-      <c r="AS69" s="75"/>
-      <c r="AT69" s="75"/>
-      <c r="AU69" s="75"/>
-      <c r="AV69" s="75"/>
-      <c r="AW69" s="75"/>
-      <c r="AX69" s="75"/>
-      <c r="AY69" s="75"/>
-      <c r="AZ69" s="76"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="35"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35"/>
+      <c r="Y69" s="35"/>
+      <c r="Z69" s="35"/>
+      <c r="AA69" s="35"/>
+      <c r="AB69" s="35"/>
+      <c r="AC69" s="35"/>
+      <c r="AD69" s="35"/>
+      <c r="AE69" s="35"/>
+      <c r="AF69" s="35"/>
+      <c r="AG69" s="35"/>
+      <c r="AH69" s="35"/>
+      <c r="AI69" s="35"/>
+      <c r="AJ69" s="35"/>
+      <c r="AK69" s="35"/>
+      <c r="AL69" s="35"/>
+      <c r="AM69" s="35"/>
+      <c r="AN69" s="35"/>
+      <c r="AO69" s="35"/>
+      <c r="AP69" s="36"/>
+      <c r="AQ69" s="53"/>
+      <c r="AR69" s="54"/>
+      <c r="AS69" s="54"/>
+      <c r="AT69" s="54"/>
+      <c r="AU69" s="54"/>
+      <c r="AV69" s="54"/>
+      <c r="AW69" s="54"/>
+      <c r="AX69" s="54"/>
+      <c r="AY69" s="54"/>
+      <c r="AZ69" s="55"/>
     </row>
     <row r="70" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="56"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="56"/>
-      <c r="J70" s="56"/>
-      <c r="K70" s="56"/>
-      <c r="L70" s="56"/>
-      <c r="M70" s="56"/>
-      <c r="N70" s="56"/>
-      <c r="O70" s="56"/>
-      <c r="P70" s="56"/>
-      <c r="Q70" s="56"/>
-      <c r="R70" s="56"/>
-      <c r="S70" s="56"/>
-      <c r="T70" s="56"/>
-      <c r="U70" s="56"/>
-      <c r="V70" s="56"/>
-      <c r="W70" s="56"/>
-      <c r="X70" s="56"/>
-      <c r="Y70" s="56"/>
-      <c r="Z70" s="56"/>
-      <c r="AA70" s="56"/>
-      <c r="AB70" s="56"/>
-      <c r="AC70" s="56"/>
-      <c r="AD70" s="56"/>
-      <c r="AE70" s="56"/>
-      <c r="AF70" s="56"/>
-      <c r="AG70" s="56"/>
-      <c r="AH70" s="56"/>
-      <c r="AI70" s="56"/>
-      <c r="AJ70" s="56"/>
-      <c r="AK70" s="56"/>
-      <c r="AL70" s="56"/>
-      <c r="AM70" s="56"/>
-      <c r="AN70" s="56"/>
-      <c r="AO70" s="56"/>
-      <c r="AP70" s="57"/>
-      <c r="AQ70" s="74"/>
-      <c r="AR70" s="75"/>
-      <c r="AS70" s="75"/>
-      <c r="AT70" s="75"/>
-      <c r="AU70" s="75"/>
-      <c r="AV70" s="75"/>
-      <c r="AW70" s="75"/>
-      <c r="AX70" s="75"/>
-      <c r="AY70" s="75"/>
-      <c r="AZ70" s="76"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="35"/>
+      <c r="T70" s="35"/>
+      <c r="U70" s="35"/>
+      <c r="V70" s="35"/>
+      <c r="W70" s="35"/>
+      <c r="X70" s="35"/>
+      <c r="Y70" s="35"/>
+      <c r="Z70" s="35"/>
+      <c r="AA70" s="35"/>
+      <c r="AB70" s="35"/>
+      <c r="AC70" s="35"/>
+      <c r="AD70" s="35"/>
+      <c r="AE70" s="35"/>
+      <c r="AF70" s="35"/>
+      <c r="AG70" s="35"/>
+      <c r="AH70" s="35"/>
+      <c r="AI70" s="35"/>
+      <c r="AJ70" s="35"/>
+      <c r="AK70" s="35"/>
+      <c r="AL70" s="35"/>
+      <c r="AM70" s="35"/>
+      <c r="AN70" s="35"/>
+      <c r="AO70" s="35"/>
+      <c r="AP70" s="36"/>
+      <c r="AQ70" s="53"/>
+      <c r="AR70" s="54"/>
+      <c r="AS70" s="54"/>
+      <c r="AT70" s="54"/>
+      <c r="AU70" s="54"/>
+      <c r="AV70" s="54"/>
+      <c r="AW70" s="54"/>
+      <c r="AX70" s="54"/>
+      <c r="AY70" s="54"/>
+      <c r="AZ70" s="55"/>
     </row>
     <row r="71" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="35"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="56"/>
-      <c r="K71" s="56"/>
-      <c r="L71" s="56"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="56"/>
-      <c r="O71" s="56"/>
-      <c r="P71" s="56"/>
-      <c r="Q71" s="56"/>
-      <c r="R71" s="56"/>
-      <c r="S71" s="56"/>
-      <c r="T71" s="56"/>
-      <c r="U71" s="56"/>
-      <c r="V71" s="56"/>
-      <c r="W71" s="56"/>
-      <c r="X71" s="56"/>
-      <c r="Y71" s="56"/>
-      <c r="Z71" s="56"/>
-      <c r="AA71" s="56"/>
-      <c r="AB71" s="56"/>
-      <c r="AC71" s="56"/>
-      <c r="AD71" s="56"/>
-      <c r="AE71" s="56"/>
-      <c r="AF71" s="56"/>
-      <c r="AG71" s="56"/>
-      <c r="AH71" s="56"/>
-      <c r="AI71" s="56"/>
-      <c r="AJ71" s="56"/>
-      <c r="AK71" s="56"/>
-      <c r="AL71" s="56"/>
-      <c r="AM71" s="56"/>
-      <c r="AN71" s="56"/>
-      <c r="AO71" s="56"/>
-      <c r="AP71" s="57"/>
-      <c r="AQ71" s="74"/>
-      <c r="AR71" s="75"/>
-      <c r="AS71" s="75"/>
-      <c r="AT71" s="75"/>
-      <c r="AU71" s="75"/>
-      <c r="AV71" s="75"/>
-      <c r="AW71" s="75"/>
-      <c r="AX71" s="75"/>
-      <c r="AY71" s="75"/>
-      <c r="AZ71" s="76"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="35"/>
+      <c r="S71" s="35"/>
+      <c r="T71" s="35"/>
+      <c r="U71" s="35"/>
+      <c r="V71" s="35"/>
+      <c r="W71" s="35"/>
+      <c r="X71" s="35"/>
+      <c r="Y71" s="35"/>
+      <c r="Z71" s="35"/>
+      <c r="AA71" s="35"/>
+      <c r="AB71" s="35"/>
+      <c r="AC71" s="35"/>
+      <c r="AD71" s="35"/>
+      <c r="AE71" s="35"/>
+      <c r="AF71" s="35"/>
+      <c r="AG71" s="35"/>
+      <c r="AH71" s="35"/>
+      <c r="AI71" s="35"/>
+      <c r="AJ71" s="35"/>
+      <c r="AK71" s="35"/>
+      <c r="AL71" s="35"/>
+      <c r="AM71" s="35"/>
+      <c r="AN71" s="35"/>
+      <c r="AO71" s="35"/>
+      <c r="AP71" s="36"/>
+      <c r="AQ71" s="53"/>
+      <c r="AR71" s="54"/>
+      <c r="AS71" s="54"/>
+      <c r="AT71" s="54"/>
+      <c r="AU71" s="54"/>
+      <c r="AV71" s="54"/>
+      <c r="AW71" s="54"/>
+      <c r="AX71" s="54"/>
+      <c r="AY71" s="54"/>
+      <c r="AZ71" s="55"/>
     </row>
     <row r="72" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="36"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
-      <c r="L72" s="59"/>
-      <c r="M72" s="59"/>
-      <c r="N72" s="59"/>
-      <c r="O72" s="59"/>
-      <c r="P72" s="59"/>
-      <c r="Q72" s="59"/>
-      <c r="R72" s="59"/>
-      <c r="S72" s="59"/>
-      <c r="T72" s="59"/>
-      <c r="U72" s="59"/>
-      <c r="V72" s="59"/>
-      <c r="W72" s="59"/>
-      <c r="X72" s="59"/>
-      <c r="Y72" s="59"/>
-      <c r="Z72" s="59"/>
-      <c r="AA72" s="59"/>
-      <c r="AB72" s="59"/>
-      <c r="AC72" s="59"/>
-      <c r="AD72" s="59"/>
-      <c r="AE72" s="59"/>
-      <c r="AF72" s="59"/>
-      <c r="AG72" s="59"/>
-      <c r="AH72" s="59"/>
-      <c r="AI72" s="59"/>
-      <c r="AJ72" s="59"/>
-      <c r="AK72" s="59"/>
-      <c r="AL72" s="59"/>
-      <c r="AM72" s="59"/>
-      <c r="AN72" s="59"/>
-      <c r="AO72" s="59"/>
-      <c r="AP72" s="60"/>
-      <c r="AQ72" s="77"/>
-      <c r="AR72" s="78"/>
-      <c r="AS72" s="78"/>
-      <c r="AT72" s="78"/>
-      <c r="AU72" s="78"/>
-      <c r="AV72" s="78"/>
-      <c r="AW72" s="78"/>
-      <c r="AX72" s="78"/>
-      <c r="AY72" s="78"/>
-      <c r="AZ72" s="79"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="38"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
+      <c r="Q72" s="38"/>
+      <c r="R72" s="38"/>
+      <c r="S72" s="38"/>
+      <c r="T72" s="38"/>
+      <c r="U72" s="38"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="38"/>
+      <c r="X72" s="38"/>
+      <c r="Y72" s="38"/>
+      <c r="Z72" s="38"/>
+      <c r="AA72" s="38"/>
+      <c r="AB72" s="38"/>
+      <c r="AC72" s="38"/>
+      <c r="AD72" s="38"/>
+      <c r="AE72" s="38"/>
+      <c r="AF72" s="38"/>
+      <c r="AG72" s="38"/>
+      <c r="AH72" s="38"/>
+      <c r="AI72" s="38"/>
+      <c r="AJ72" s="38"/>
+      <c r="AK72" s="38"/>
+      <c r="AL72" s="38"/>
+      <c r="AM72" s="38"/>
+      <c r="AN72" s="38"/>
+      <c r="AO72" s="38"/>
+      <c r="AP72" s="39"/>
+      <c r="AQ72" s="56"/>
+      <c r="AR72" s="57"/>
+      <c r="AS72" s="57"/>
+      <c r="AT72" s="57"/>
+      <c r="AU72" s="57"/>
+      <c r="AV72" s="57"/>
+      <c r="AW72" s="57"/>
+      <c r="AX72" s="57"/>
+      <c r="AY72" s="57"/>
+      <c r="AZ72" s="58"/>
     </row>
     <row r="73" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="27"/>
+      <c r="C73" s="70"/>
       <c r="D73" s="12"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -11998,22 +12056,22 @@
       <c r="AZ73" s="2"/>
     </row>
     <row r="74" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="28"/>
-      <c r="C74" s="29"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="72"/>
       <c r="D74" s="15"/>
       <c r="AZ74" s="3"/>
     </row>
     <row r="75" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="28"/>
-      <c r="C75" s="29"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="72"/>
       <c r="D75" s="15"/>
       <c r="AZ75" s="3"/>
     </row>
     <row r="76" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="31"/>
+      <c r="C76" s="77"/>
       <c r="D76" s="16"/>
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
@@ -12065,14 +12123,14 @@
       <c r="AZ76" s="18"/>
     </row>
     <row r="77" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="28"/>
-      <c r="C77" s="29"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="72"/>
       <c r="D77" s="15"/>
       <c r="AZ77" s="3"/>
     </row>
     <row r="78" spans="2:52" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="32"/>
-      <c r="C78" s="33"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="79"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="6"/>
@@ -12124,554 +12182,556 @@
       <c r="AZ78" s="6"/>
     </row>
     <row r="79" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C79" s="23"/>
-      <c r="D79" s="62" t="s">
+      <c r="C79" s="66"/>
+      <c r="D79" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E79" s="53"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="53"/>
-      <c r="H79" s="53"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="53"/>
-      <c r="K79" s="53"/>
-      <c r="L79" s="53"/>
-      <c r="M79" s="53"/>
-      <c r="N79" s="53"/>
-      <c r="O79" s="53"/>
-      <c r="P79" s="53"/>
-      <c r="Q79" s="53"/>
-      <c r="R79" s="53"/>
-      <c r="S79" s="53"/>
-      <c r="T79" s="53"/>
-      <c r="U79" s="53"/>
-      <c r="V79" s="53"/>
-      <c r="W79" s="53"/>
-      <c r="X79" s="53"/>
-      <c r="Y79" s="53"/>
-      <c r="Z79" s="53"/>
-      <c r="AA79" s="53"/>
-      <c r="AB79" s="53"/>
-      <c r="AC79" s="53"/>
-      <c r="AD79" s="53"/>
-      <c r="AE79" s="53"/>
-      <c r="AF79" s="53"/>
-      <c r="AG79" s="53"/>
-      <c r="AH79" s="53"/>
-      <c r="AI79" s="53"/>
-      <c r="AJ79" s="53"/>
-      <c r="AK79" s="53"/>
-      <c r="AL79" s="53"/>
-      <c r="AM79" s="53"/>
-      <c r="AN79" s="53"/>
-      <c r="AO79" s="53"/>
-      <c r="AP79" s="54"/>
-      <c r="AQ79" s="52"/>
-      <c r="AR79" s="53"/>
-      <c r="AS79" s="53"/>
-      <c r="AT79" s="53"/>
-      <c r="AU79" s="53"/>
-      <c r="AV79" s="53"/>
-      <c r="AW79" s="53"/>
-      <c r="AX79" s="53"/>
-      <c r="AY79" s="53"/>
-      <c r="AZ79" s="54"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="32"/>
+      <c r="L79" s="32"/>
+      <c r="M79" s="32"/>
+      <c r="N79" s="32"/>
+      <c r="O79" s="32"/>
+      <c r="P79" s="32"/>
+      <c r="Q79" s="32"/>
+      <c r="R79" s="32"/>
+      <c r="S79" s="32"/>
+      <c r="T79" s="32"/>
+      <c r="U79" s="32"/>
+      <c r="V79" s="32"/>
+      <c r="W79" s="32"/>
+      <c r="X79" s="32"/>
+      <c r="Y79" s="32"/>
+      <c r="Z79" s="32"/>
+      <c r="AA79" s="32"/>
+      <c r="AB79" s="32"/>
+      <c r="AC79" s="32"/>
+      <c r="AD79" s="32"/>
+      <c r="AE79" s="32"/>
+      <c r="AF79" s="32"/>
+      <c r="AG79" s="32"/>
+      <c r="AH79" s="32"/>
+      <c r="AI79" s="32"/>
+      <c r="AJ79" s="32"/>
+      <c r="AK79" s="32"/>
+      <c r="AL79" s="32"/>
+      <c r="AM79" s="32"/>
+      <c r="AN79" s="32"/>
+      <c r="AO79" s="32"/>
+      <c r="AP79" s="33"/>
+      <c r="AQ79" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR79" s="42"/>
+      <c r="AS79" s="42"/>
+      <c r="AT79" s="42"/>
+      <c r="AU79" s="42"/>
+      <c r="AV79" s="42"/>
+      <c r="AW79" s="42"/>
+      <c r="AX79" s="42"/>
+      <c r="AY79" s="42"/>
+      <c r="AZ79" s="43"/>
     </row>
     <row r="80" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="56"/>
-      <c r="K80" s="56"/>
-      <c r="L80" s="56"/>
-      <c r="M80" s="56"/>
-      <c r="N80" s="56"/>
-      <c r="O80" s="56"/>
-      <c r="P80" s="56"/>
-      <c r="Q80" s="56"/>
-      <c r="R80" s="56"/>
-      <c r="S80" s="56"/>
-      <c r="T80" s="56"/>
-      <c r="U80" s="56"/>
-      <c r="V80" s="56"/>
-      <c r="W80" s="56"/>
-      <c r="X80" s="56"/>
-      <c r="Y80" s="56"/>
-      <c r="Z80" s="56"/>
-      <c r="AA80" s="56"/>
-      <c r="AB80" s="56"/>
-      <c r="AC80" s="56"/>
-      <c r="AD80" s="56"/>
-      <c r="AE80" s="56"/>
-      <c r="AF80" s="56"/>
-      <c r="AG80" s="56"/>
-      <c r="AH80" s="56"/>
-      <c r="AI80" s="56"/>
-      <c r="AJ80" s="56"/>
-      <c r="AK80" s="56"/>
-      <c r="AL80" s="56"/>
-      <c r="AM80" s="56"/>
-      <c r="AN80" s="56"/>
-      <c r="AO80" s="56"/>
-      <c r="AP80" s="57"/>
-      <c r="AQ80" s="55"/>
-      <c r="AR80" s="56"/>
-      <c r="AS80" s="56"/>
-      <c r="AT80" s="56"/>
-      <c r="AU80" s="56"/>
-      <c r="AV80" s="56"/>
-      <c r="AW80" s="56"/>
-      <c r="AX80" s="56"/>
-      <c r="AY80" s="56"/>
-      <c r="AZ80" s="57"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35"/>
+      <c r="T80" s="35"/>
+      <c r="U80" s="35"/>
+      <c r="V80" s="35"/>
+      <c r="W80" s="35"/>
+      <c r="X80" s="35"/>
+      <c r="Y80" s="35"/>
+      <c r="Z80" s="35"/>
+      <c r="AA80" s="35"/>
+      <c r="AB80" s="35"/>
+      <c r="AC80" s="35"/>
+      <c r="AD80" s="35"/>
+      <c r="AE80" s="35"/>
+      <c r="AF80" s="35"/>
+      <c r="AG80" s="35"/>
+      <c r="AH80" s="35"/>
+      <c r="AI80" s="35"/>
+      <c r="AJ80" s="35"/>
+      <c r="AK80" s="35"/>
+      <c r="AL80" s="35"/>
+      <c r="AM80" s="35"/>
+      <c r="AN80" s="35"/>
+      <c r="AO80" s="35"/>
+      <c r="AP80" s="36"/>
+      <c r="AQ80" s="44"/>
+      <c r="AR80" s="45"/>
+      <c r="AS80" s="45"/>
+      <c r="AT80" s="45"/>
+      <c r="AU80" s="45"/>
+      <c r="AV80" s="45"/>
+      <c r="AW80" s="45"/>
+      <c r="AX80" s="45"/>
+      <c r="AY80" s="45"/>
+      <c r="AZ80" s="46"/>
     </row>
     <row r="81" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="24"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="56"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="56"/>
-      <c r="K81" s="56"/>
-      <c r="L81" s="56"/>
-      <c r="M81" s="56"/>
-      <c r="N81" s="56"/>
-      <c r="O81" s="56"/>
-      <c r="P81" s="56"/>
-      <c r="Q81" s="56"/>
-      <c r="R81" s="56"/>
-      <c r="S81" s="56"/>
-      <c r="T81" s="56"/>
-      <c r="U81" s="56"/>
-      <c r="V81" s="56"/>
-      <c r="W81" s="56"/>
-      <c r="X81" s="56"/>
-      <c r="Y81" s="56"/>
-      <c r="Z81" s="56"/>
-      <c r="AA81" s="56"/>
-      <c r="AB81" s="56"/>
-      <c r="AC81" s="56"/>
-      <c r="AD81" s="56"/>
-      <c r="AE81" s="56"/>
-      <c r="AF81" s="56"/>
-      <c r="AG81" s="56"/>
-      <c r="AH81" s="56"/>
-      <c r="AI81" s="56"/>
-      <c r="AJ81" s="56"/>
-      <c r="AK81" s="56"/>
-      <c r="AL81" s="56"/>
-      <c r="AM81" s="56"/>
-      <c r="AN81" s="56"/>
-      <c r="AO81" s="56"/>
-      <c r="AP81" s="57"/>
-      <c r="AQ81" s="55"/>
-      <c r="AR81" s="56"/>
-      <c r="AS81" s="56"/>
-      <c r="AT81" s="56"/>
-      <c r="AU81" s="56"/>
-      <c r="AV81" s="56"/>
-      <c r="AW81" s="56"/>
-      <c r="AX81" s="56"/>
-      <c r="AY81" s="56"/>
-      <c r="AZ81" s="57"/>
+      <c r="B81" s="67"/>
+      <c r="C81" s="68"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="35"/>
+      <c r="R81" s="35"/>
+      <c r="S81" s="35"/>
+      <c r="T81" s="35"/>
+      <c r="U81" s="35"/>
+      <c r="V81" s="35"/>
+      <c r="W81" s="35"/>
+      <c r="X81" s="35"/>
+      <c r="Y81" s="35"/>
+      <c r="Z81" s="35"/>
+      <c r="AA81" s="35"/>
+      <c r="AB81" s="35"/>
+      <c r="AC81" s="35"/>
+      <c r="AD81" s="35"/>
+      <c r="AE81" s="35"/>
+      <c r="AF81" s="35"/>
+      <c r="AG81" s="35"/>
+      <c r="AH81" s="35"/>
+      <c r="AI81" s="35"/>
+      <c r="AJ81" s="35"/>
+      <c r="AK81" s="35"/>
+      <c r="AL81" s="35"/>
+      <c r="AM81" s="35"/>
+      <c r="AN81" s="35"/>
+      <c r="AO81" s="35"/>
+      <c r="AP81" s="36"/>
+      <c r="AQ81" s="44"/>
+      <c r="AR81" s="45"/>
+      <c r="AS81" s="45"/>
+      <c r="AT81" s="45"/>
+      <c r="AU81" s="45"/>
+      <c r="AV81" s="45"/>
+      <c r="AW81" s="45"/>
+      <c r="AX81" s="45"/>
+      <c r="AY81" s="45"/>
+      <c r="AZ81" s="46"/>
     </row>
     <row r="82" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="56"/>
-      <c r="K82" s="56"/>
-      <c r="L82" s="56"/>
-      <c r="M82" s="56"/>
-      <c r="N82" s="56"/>
-      <c r="O82" s="56"/>
-      <c r="P82" s="56"/>
-      <c r="Q82" s="56"/>
-      <c r="R82" s="56"/>
-      <c r="S82" s="56"/>
-      <c r="T82" s="56"/>
-      <c r="U82" s="56"/>
-      <c r="V82" s="56"/>
-      <c r="W82" s="56"/>
-      <c r="X82" s="56"/>
-      <c r="Y82" s="56"/>
-      <c r="Z82" s="56"/>
-      <c r="AA82" s="56"/>
-      <c r="AB82" s="56"/>
-      <c r="AC82" s="56"/>
-      <c r="AD82" s="56"/>
-      <c r="AE82" s="56"/>
-      <c r="AF82" s="56"/>
-      <c r="AG82" s="56"/>
-      <c r="AH82" s="56"/>
-      <c r="AI82" s="56"/>
-      <c r="AJ82" s="56"/>
-      <c r="AK82" s="56"/>
-      <c r="AL82" s="56"/>
-      <c r="AM82" s="56"/>
-      <c r="AN82" s="56"/>
-      <c r="AO82" s="56"/>
-      <c r="AP82" s="57"/>
-      <c r="AQ82" s="55"/>
-      <c r="AR82" s="56"/>
-      <c r="AS82" s="56"/>
-      <c r="AT82" s="56"/>
-      <c r="AU82" s="56"/>
-      <c r="AV82" s="56"/>
-      <c r="AW82" s="56"/>
-      <c r="AX82" s="56"/>
-      <c r="AY82" s="56"/>
-      <c r="AZ82" s="57"/>
+      <c r="B82" s="67"/>
+      <c r="C82" s="68"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="35"/>
+      <c r="T82" s="35"/>
+      <c r="U82" s="35"/>
+      <c r="V82" s="35"/>
+      <c r="W82" s="35"/>
+      <c r="X82" s="35"/>
+      <c r="Y82" s="35"/>
+      <c r="Z82" s="35"/>
+      <c r="AA82" s="35"/>
+      <c r="AB82" s="35"/>
+      <c r="AC82" s="35"/>
+      <c r="AD82" s="35"/>
+      <c r="AE82" s="35"/>
+      <c r="AF82" s="35"/>
+      <c r="AG82" s="35"/>
+      <c r="AH82" s="35"/>
+      <c r="AI82" s="35"/>
+      <c r="AJ82" s="35"/>
+      <c r="AK82" s="35"/>
+      <c r="AL82" s="35"/>
+      <c r="AM82" s="35"/>
+      <c r="AN82" s="35"/>
+      <c r="AO82" s="35"/>
+      <c r="AP82" s="36"/>
+      <c r="AQ82" s="44"/>
+      <c r="AR82" s="45"/>
+      <c r="AS82" s="45"/>
+      <c r="AT82" s="45"/>
+      <c r="AU82" s="45"/>
+      <c r="AV82" s="45"/>
+      <c r="AW82" s="45"/>
+      <c r="AX82" s="45"/>
+      <c r="AY82" s="45"/>
+      <c r="AZ82" s="46"/>
     </row>
     <row r="83" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="24"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="56"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="56"/>
-      <c r="K83" s="56"/>
-      <c r="L83" s="56"/>
-      <c r="M83" s="56"/>
-      <c r="N83" s="56"/>
-      <c r="O83" s="56"/>
-      <c r="P83" s="56"/>
-      <c r="Q83" s="56"/>
-      <c r="R83" s="56"/>
-      <c r="S83" s="56"/>
-      <c r="T83" s="56"/>
-      <c r="U83" s="56"/>
-      <c r="V83" s="56"/>
-      <c r="W83" s="56"/>
-      <c r="X83" s="56"/>
-      <c r="Y83" s="56"/>
-      <c r="Z83" s="56"/>
-      <c r="AA83" s="56"/>
-      <c r="AB83" s="56"/>
-      <c r="AC83" s="56"/>
-      <c r="AD83" s="56"/>
-      <c r="AE83" s="56"/>
-      <c r="AF83" s="56"/>
-      <c r="AG83" s="56"/>
-      <c r="AH83" s="56"/>
-      <c r="AI83" s="56"/>
-      <c r="AJ83" s="56"/>
-      <c r="AK83" s="56"/>
-      <c r="AL83" s="56"/>
-      <c r="AM83" s="56"/>
-      <c r="AN83" s="56"/>
-      <c r="AO83" s="56"/>
-      <c r="AP83" s="57"/>
-      <c r="AQ83" s="55"/>
-      <c r="AR83" s="56"/>
-      <c r="AS83" s="56"/>
-      <c r="AT83" s="56"/>
-      <c r="AU83" s="56"/>
-      <c r="AV83" s="56"/>
-      <c r="AW83" s="56"/>
-      <c r="AX83" s="56"/>
-      <c r="AY83" s="56"/>
-      <c r="AZ83" s="57"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="35"/>
+      <c r="T83" s="35"/>
+      <c r="U83" s="35"/>
+      <c r="V83" s="35"/>
+      <c r="W83" s="35"/>
+      <c r="X83" s="35"/>
+      <c r="Y83" s="35"/>
+      <c r="Z83" s="35"/>
+      <c r="AA83" s="35"/>
+      <c r="AB83" s="35"/>
+      <c r="AC83" s="35"/>
+      <c r="AD83" s="35"/>
+      <c r="AE83" s="35"/>
+      <c r="AF83" s="35"/>
+      <c r="AG83" s="35"/>
+      <c r="AH83" s="35"/>
+      <c r="AI83" s="35"/>
+      <c r="AJ83" s="35"/>
+      <c r="AK83" s="35"/>
+      <c r="AL83" s="35"/>
+      <c r="AM83" s="35"/>
+      <c r="AN83" s="35"/>
+      <c r="AO83" s="35"/>
+      <c r="AP83" s="36"/>
+      <c r="AQ83" s="44"/>
+      <c r="AR83" s="45"/>
+      <c r="AS83" s="45"/>
+      <c r="AT83" s="45"/>
+      <c r="AU83" s="45"/>
+      <c r="AV83" s="45"/>
+      <c r="AW83" s="45"/>
+      <c r="AX83" s="45"/>
+      <c r="AY83" s="45"/>
+      <c r="AZ83" s="46"/>
     </row>
     <row r="84" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="24"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="56"/>
-      <c r="J84" s="56"/>
-      <c r="K84" s="56"/>
-      <c r="L84" s="56"/>
-      <c r="M84" s="56"/>
-      <c r="N84" s="56"/>
-      <c r="O84" s="56"/>
-      <c r="P84" s="56"/>
-      <c r="Q84" s="56"/>
-      <c r="R84" s="56"/>
-      <c r="S84" s="56"/>
-      <c r="T84" s="56"/>
-      <c r="U84" s="56"/>
-      <c r="V84" s="56"/>
-      <c r="W84" s="56"/>
-      <c r="X84" s="56"/>
-      <c r="Y84" s="56"/>
-      <c r="Z84" s="56"/>
-      <c r="AA84" s="56"/>
-      <c r="AB84" s="56"/>
-      <c r="AC84" s="56"/>
-      <c r="AD84" s="56"/>
-      <c r="AE84" s="56"/>
-      <c r="AF84" s="56"/>
-      <c r="AG84" s="56"/>
-      <c r="AH84" s="56"/>
-      <c r="AI84" s="56"/>
-      <c r="AJ84" s="56"/>
-      <c r="AK84" s="56"/>
-      <c r="AL84" s="56"/>
-      <c r="AM84" s="56"/>
-      <c r="AN84" s="56"/>
-      <c r="AO84" s="56"/>
-      <c r="AP84" s="57"/>
-      <c r="AQ84" s="55"/>
-      <c r="AR84" s="56"/>
-      <c r="AS84" s="56"/>
-      <c r="AT84" s="56"/>
-      <c r="AU84" s="56"/>
-      <c r="AV84" s="56"/>
-      <c r="AW84" s="56"/>
-      <c r="AX84" s="56"/>
-      <c r="AY84" s="56"/>
-      <c r="AZ84" s="57"/>
+      <c r="B84" s="67"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="35"/>
+      <c r="R84" s="35"/>
+      <c r="S84" s="35"/>
+      <c r="T84" s="35"/>
+      <c r="U84" s="35"/>
+      <c r="V84" s="35"/>
+      <c r="W84" s="35"/>
+      <c r="X84" s="35"/>
+      <c r="Y84" s="35"/>
+      <c r="Z84" s="35"/>
+      <c r="AA84" s="35"/>
+      <c r="AB84" s="35"/>
+      <c r="AC84" s="35"/>
+      <c r="AD84" s="35"/>
+      <c r="AE84" s="35"/>
+      <c r="AF84" s="35"/>
+      <c r="AG84" s="35"/>
+      <c r="AH84" s="35"/>
+      <c r="AI84" s="35"/>
+      <c r="AJ84" s="35"/>
+      <c r="AK84" s="35"/>
+      <c r="AL84" s="35"/>
+      <c r="AM84" s="35"/>
+      <c r="AN84" s="35"/>
+      <c r="AO84" s="35"/>
+      <c r="AP84" s="36"/>
+      <c r="AQ84" s="44"/>
+      <c r="AR84" s="45"/>
+      <c r="AS84" s="45"/>
+      <c r="AT84" s="45"/>
+      <c r="AU84" s="45"/>
+      <c r="AV84" s="45"/>
+      <c r="AW84" s="45"/>
+      <c r="AX84" s="45"/>
+      <c r="AY84" s="45"/>
+      <c r="AZ84" s="46"/>
     </row>
     <row r="85" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="24"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="56"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="56"/>
-      <c r="K85" s="56"/>
-      <c r="L85" s="56"/>
-      <c r="M85" s="56"/>
-      <c r="N85" s="56"/>
-      <c r="O85" s="56"/>
-      <c r="P85" s="56"/>
-      <c r="Q85" s="56"/>
-      <c r="R85" s="56"/>
-      <c r="S85" s="56"/>
-      <c r="T85" s="56"/>
-      <c r="U85" s="56"/>
-      <c r="V85" s="56"/>
-      <c r="W85" s="56"/>
-      <c r="X85" s="56"/>
-      <c r="Y85" s="56"/>
-      <c r="Z85" s="56"/>
-      <c r="AA85" s="56"/>
-      <c r="AB85" s="56"/>
-      <c r="AC85" s="56"/>
-      <c r="AD85" s="56"/>
-      <c r="AE85" s="56"/>
-      <c r="AF85" s="56"/>
-      <c r="AG85" s="56"/>
-      <c r="AH85" s="56"/>
-      <c r="AI85" s="56"/>
-      <c r="AJ85" s="56"/>
-      <c r="AK85" s="56"/>
-      <c r="AL85" s="56"/>
-      <c r="AM85" s="56"/>
-      <c r="AN85" s="56"/>
-      <c r="AO85" s="56"/>
-      <c r="AP85" s="57"/>
-      <c r="AQ85" s="55"/>
-      <c r="AR85" s="56"/>
-      <c r="AS85" s="56"/>
-      <c r="AT85" s="56"/>
-      <c r="AU85" s="56"/>
-      <c r="AV85" s="56"/>
-      <c r="AW85" s="56"/>
-      <c r="AX85" s="56"/>
-      <c r="AY85" s="56"/>
-      <c r="AZ85" s="57"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
+      <c r="Q85" s="35"/>
+      <c r="R85" s="35"/>
+      <c r="S85" s="35"/>
+      <c r="T85" s="35"/>
+      <c r="U85" s="35"/>
+      <c r="V85" s="35"/>
+      <c r="W85" s="35"/>
+      <c r="X85" s="35"/>
+      <c r="Y85" s="35"/>
+      <c r="Z85" s="35"/>
+      <c r="AA85" s="35"/>
+      <c r="AB85" s="35"/>
+      <c r="AC85" s="35"/>
+      <c r="AD85" s="35"/>
+      <c r="AE85" s="35"/>
+      <c r="AF85" s="35"/>
+      <c r="AG85" s="35"/>
+      <c r="AH85" s="35"/>
+      <c r="AI85" s="35"/>
+      <c r="AJ85" s="35"/>
+      <c r="AK85" s="35"/>
+      <c r="AL85" s="35"/>
+      <c r="AM85" s="35"/>
+      <c r="AN85" s="35"/>
+      <c r="AO85" s="35"/>
+      <c r="AP85" s="36"/>
+      <c r="AQ85" s="44"/>
+      <c r="AR85" s="45"/>
+      <c r="AS85" s="45"/>
+      <c r="AT85" s="45"/>
+      <c r="AU85" s="45"/>
+      <c r="AV85" s="45"/>
+      <c r="AW85" s="45"/>
+      <c r="AX85" s="45"/>
+      <c r="AY85" s="45"/>
+      <c r="AZ85" s="46"/>
     </row>
     <row r="86" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="24"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="56"/>
-      <c r="I86" s="56"/>
-      <c r="J86" s="56"/>
-      <c r="K86" s="56"/>
-      <c r="L86" s="56"/>
-      <c r="M86" s="56"/>
-      <c r="N86" s="56"/>
-      <c r="O86" s="56"/>
-      <c r="P86" s="56"/>
-      <c r="Q86" s="56"/>
-      <c r="R86" s="56"/>
-      <c r="S86" s="56"/>
-      <c r="T86" s="56"/>
-      <c r="U86" s="56"/>
-      <c r="V86" s="56"/>
-      <c r="W86" s="56"/>
-      <c r="X86" s="56"/>
-      <c r="Y86" s="56"/>
-      <c r="Z86" s="56"/>
-      <c r="AA86" s="56"/>
-      <c r="AB86" s="56"/>
-      <c r="AC86" s="56"/>
-      <c r="AD86" s="56"/>
-      <c r="AE86" s="56"/>
-      <c r="AF86" s="56"/>
-      <c r="AG86" s="56"/>
-      <c r="AH86" s="56"/>
-      <c r="AI86" s="56"/>
-      <c r="AJ86" s="56"/>
-      <c r="AK86" s="56"/>
-      <c r="AL86" s="56"/>
-      <c r="AM86" s="56"/>
-      <c r="AN86" s="56"/>
-      <c r="AO86" s="56"/>
-      <c r="AP86" s="57"/>
-      <c r="AQ86" s="55"/>
-      <c r="AR86" s="56"/>
-      <c r="AS86" s="56"/>
-      <c r="AT86" s="56"/>
-      <c r="AU86" s="56"/>
-      <c r="AV86" s="56"/>
-      <c r="AW86" s="56"/>
-      <c r="AX86" s="56"/>
-      <c r="AY86" s="56"/>
-      <c r="AZ86" s="57"/>
+      <c r="B86" s="67"/>
+      <c r="C86" s="68"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="35"/>
+      <c r="T86" s="35"/>
+      <c r="U86" s="35"/>
+      <c r="V86" s="35"/>
+      <c r="W86" s="35"/>
+      <c r="X86" s="35"/>
+      <c r="Y86" s="35"/>
+      <c r="Z86" s="35"/>
+      <c r="AA86" s="35"/>
+      <c r="AB86" s="35"/>
+      <c r="AC86" s="35"/>
+      <c r="AD86" s="35"/>
+      <c r="AE86" s="35"/>
+      <c r="AF86" s="35"/>
+      <c r="AG86" s="35"/>
+      <c r="AH86" s="35"/>
+      <c r="AI86" s="35"/>
+      <c r="AJ86" s="35"/>
+      <c r="AK86" s="35"/>
+      <c r="AL86" s="35"/>
+      <c r="AM86" s="35"/>
+      <c r="AN86" s="35"/>
+      <c r="AO86" s="35"/>
+      <c r="AP86" s="36"/>
+      <c r="AQ86" s="44"/>
+      <c r="AR86" s="45"/>
+      <c r="AS86" s="45"/>
+      <c r="AT86" s="45"/>
+      <c r="AU86" s="45"/>
+      <c r="AV86" s="45"/>
+      <c r="AW86" s="45"/>
+      <c r="AX86" s="45"/>
+      <c r="AY86" s="45"/>
+      <c r="AZ86" s="46"/>
     </row>
     <row r="87" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="35"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="56"/>
-      <c r="K87" s="56"/>
-      <c r="L87" s="56"/>
-      <c r="M87" s="56"/>
-      <c r="N87" s="56"/>
-      <c r="O87" s="56"/>
-      <c r="P87" s="56"/>
-      <c r="Q87" s="56"/>
-      <c r="R87" s="56"/>
-      <c r="S87" s="56"/>
-      <c r="T87" s="56"/>
-      <c r="U87" s="56"/>
-      <c r="V87" s="56"/>
-      <c r="W87" s="56"/>
-      <c r="X87" s="56"/>
-      <c r="Y87" s="56"/>
-      <c r="Z87" s="56"/>
-      <c r="AA87" s="56"/>
-      <c r="AB87" s="56"/>
-      <c r="AC87" s="56"/>
-      <c r="AD87" s="56"/>
-      <c r="AE87" s="56"/>
-      <c r="AF87" s="56"/>
-      <c r="AG87" s="56"/>
-      <c r="AH87" s="56"/>
-      <c r="AI87" s="56"/>
-      <c r="AJ87" s="56"/>
-      <c r="AK87" s="56"/>
-      <c r="AL87" s="56"/>
-      <c r="AM87" s="56"/>
-      <c r="AN87" s="56"/>
-      <c r="AO87" s="56"/>
-      <c r="AP87" s="57"/>
-      <c r="AQ87" s="55"/>
-      <c r="AR87" s="56"/>
-      <c r="AS87" s="56"/>
-      <c r="AT87" s="56"/>
-      <c r="AU87" s="56"/>
-      <c r="AV87" s="56"/>
-      <c r="AW87" s="56"/>
-      <c r="AX87" s="56"/>
-      <c r="AY87" s="56"/>
-      <c r="AZ87" s="57"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
+      <c r="Q87" s="35"/>
+      <c r="R87" s="35"/>
+      <c r="S87" s="35"/>
+      <c r="T87" s="35"/>
+      <c r="U87" s="35"/>
+      <c r="V87" s="35"/>
+      <c r="W87" s="35"/>
+      <c r="X87" s="35"/>
+      <c r="Y87" s="35"/>
+      <c r="Z87" s="35"/>
+      <c r="AA87" s="35"/>
+      <c r="AB87" s="35"/>
+      <c r="AC87" s="35"/>
+      <c r="AD87" s="35"/>
+      <c r="AE87" s="35"/>
+      <c r="AF87" s="35"/>
+      <c r="AG87" s="35"/>
+      <c r="AH87" s="35"/>
+      <c r="AI87" s="35"/>
+      <c r="AJ87" s="35"/>
+      <c r="AK87" s="35"/>
+      <c r="AL87" s="35"/>
+      <c r="AM87" s="35"/>
+      <c r="AN87" s="35"/>
+      <c r="AO87" s="35"/>
+      <c r="AP87" s="36"/>
+      <c r="AQ87" s="44"/>
+      <c r="AR87" s="45"/>
+      <c r="AS87" s="45"/>
+      <c r="AT87" s="45"/>
+      <c r="AU87" s="45"/>
+      <c r="AV87" s="45"/>
+      <c r="AW87" s="45"/>
+      <c r="AX87" s="45"/>
+      <c r="AY87" s="45"/>
+      <c r="AZ87" s="46"/>
     </row>
     <row r="88" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="36"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="59"/>
-      <c r="G88" s="59"/>
-      <c r="H88" s="59"/>
-      <c r="I88" s="59"/>
-      <c r="J88" s="59"/>
-      <c r="K88" s="59"/>
-      <c r="L88" s="59"/>
-      <c r="M88" s="59"/>
-      <c r="N88" s="59"/>
-      <c r="O88" s="59"/>
-      <c r="P88" s="59"/>
-      <c r="Q88" s="59"/>
-      <c r="R88" s="59"/>
-      <c r="S88" s="59"/>
-      <c r="T88" s="59"/>
-      <c r="U88" s="59"/>
-      <c r="V88" s="59"/>
-      <c r="W88" s="59"/>
-      <c r="X88" s="59"/>
-      <c r="Y88" s="59"/>
-      <c r="Z88" s="59"/>
-      <c r="AA88" s="59"/>
-      <c r="AB88" s="59"/>
-      <c r="AC88" s="59"/>
-      <c r="AD88" s="59"/>
-      <c r="AE88" s="59"/>
-      <c r="AF88" s="59"/>
-      <c r="AG88" s="59"/>
-      <c r="AH88" s="59"/>
-      <c r="AI88" s="59"/>
-      <c r="AJ88" s="59"/>
-      <c r="AK88" s="59"/>
-      <c r="AL88" s="59"/>
-      <c r="AM88" s="59"/>
-      <c r="AN88" s="59"/>
-      <c r="AO88" s="59"/>
-      <c r="AP88" s="60"/>
-      <c r="AQ88" s="58"/>
-      <c r="AR88" s="59"/>
-      <c r="AS88" s="59"/>
-      <c r="AT88" s="59"/>
-      <c r="AU88" s="59"/>
-      <c r="AV88" s="59"/>
-      <c r="AW88" s="59"/>
-      <c r="AX88" s="59"/>
-      <c r="AY88" s="59"/>
-      <c r="AZ88" s="60"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="38"/>
+      <c r="M88" s="38"/>
+      <c r="N88" s="38"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
+      <c r="Q88" s="38"/>
+      <c r="R88" s="38"/>
+      <c r="S88" s="38"/>
+      <c r="T88" s="38"/>
+      <c r="U88" s="38"/>
+      <c r="V88" s="38"/>
+      <c r="W88" s="38"/>
+      <c r="X88" s="38"/>
+      <c r="Y88" s="38"/>
+      <c r="Z88" s="38"/>
+      <c r="AA88" s="38"/>
+      <c r="AB88" s="38"/>
+      <c r="AC88" s="38"/>
+      <c r="AD88" s="38"/>
+      <c r="AE88" s="38"/>
+      <c r="AF88" s="38"/>
+      <c r="AG88" s="38"/>
+      <c r="AH88" s="38"/>
+      <c r="AI88" s="38"/>
+      <c r="AJ88" s="38"/>
+      <c r="AK88" s="38"/>
+      <c r="AL88" s="38"/>
+      <c r="AM88" s="38"/>
+      <c r="AN88" s="38"/>
+      <c r="AO88" s="38"/>
+      <c r="AP88" s="39"/>
+      <c r="AQ88" s="47"/>
+      <c r="AR88" s="48"/>
+      <c r="AS88" s="48"/>
+      <c r="AT88" s="48"/>
+      <c r="AU88" s="48"/>
+      <c r="AV88" s="48"/>
+      <c r="AW88" s="48"/>
+      <c r="AX88" s="48"/>
+      <c r="AY88" s="48"/>
+      <c r="AZ88" s="49"/>
     </row>
     <row r="89" spans="2:52" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="80" t="s">
+      <c r="B89" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C89" s="80"/>
-      <c r="D89" s="80"/>
-      <c r="E89" s="80"/>
-      <c r="F89" s="80"/>
-      <c r="G89" s="80"/>
-      <c r="H89" s="80"/>
-      <c r="I89" s="80"/>
-      <c r="J89" s="80"/>
-      <c r="K89" s="80"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="59"/>
+      <c r="H89" s="59"/>
+      <c r="I89" s="59"/>
+      <c r="J89" s="59"/>
+      <c r="K89" s="59"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
@@ -12680,16 +12740,16 @@
       <c r="AL89" s="7"/>
     </row>
     <row r="90" spans="2:52" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="40"/>
-      <c r="G90" s="40"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="40"/>
-      <c r="K90" s="40"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="60"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="60"/>
+      <c r="G90" s="60"/>
+      <c r="H90" s="60"/>
+      <c r="I90" s="60"/>
+      <c r="J90" s="60"/>
+      <c r="K90" s="60"/>
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
@@ -12698,218 +12758,218 @@
       <c r="AL90" s="8"/>
     </row>
     <row r="91" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="43" t="s">
+      <c r="B91" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="44"/>
-      <c r="K91" s="44"/>
-      <c r="L91" s="44"/>
-      <c r="M91" s="44"/>
-      <c r="N91" s="44"/>
-      <c r="O91" s="44"/>
-      <c r="P91" s="44"/>
-      <c r="Q91" s="44"/>
-      <c r="R91" s="44"/>
-      <c r="S91" s="44"/>
-      <c r="T91" s="44"/>
-      <c r="U91" s="44"/>
-      <c r="V91" s="44"/>
-      <c r="W91" s="44"/>
-      <c r="X91" s="44"/>
-      <c r="Y91" s="44"/>
-      <c r="Z91" s="44"/>
-      <c r="AA91" s="44"/>
-      <c r="AB91" s="44"/>
-      <c r="AC91" s="44"/>
-      <c r="AD91" s="44"/>
-      <c r="AE91" s="44"/>
-      <c r="AF91" s="44"/>
-      <c r="AG91" s="44"/>
-      <c r="AH91" s="44"/>
-      <c r="AI91" s="44"/>
-      <c r="AJ91" s="44"/>
-      <c r="AK91" s="44"/>
-      <c r="AL91" s="44"/>
-      <c r="AM91" s="44"/>
-      <c r="AN91" s="44"/>
-      <c r="AO91" s="44"/>
-      <c r="AP91" s="44"/>
-      <c r="AQ91" s="44"/>
-      <c r="AR91" s="44"/>
-      <c r="AS91" s="44"/>
-      <c r="AT91" s="44"/>
-      <c r="AU91" s="44"/>
-      <c r="AV91" s="44"/>
-      <c r="AW91" s="44"/>
-      <c r="AX91" s="44"/>
-      <c r="AY91" s="44"/>
-      <c r="AZ91" s="45"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="23"/>
+      <c r="P91" s="23"/>
+      <c r="Q91" s="23"/>
+      <c r="R91" s="23"/>
+      <c r="S91" s="23"/>
+      <c r="T91" s="23"/>
+      <c r="U91" s="23"/>
+      <c r="V91" s="23"/>
+      <c r="W91" s="23"/>
+      <c r="X91" s="23"/>
+      <c r="Y91" s="23"/>
+      <c r="Z91" s="23"/>
+      <c r="AA91" s="23"/>
+      <c r="AB91" s="23"/>
+      <c r="AC91" s="23"/>
+      <c r="AD91" s="23"/>
+      <c r="AE91" s="23"/>
+      <c r="AF91" s="23"/>
+      <c r="AG91" s="23"/>
+      <c r="AH91" s="23"/>
+      <c r="AI91" s="23"/>
+      <c r="AJ91" s="23"/>
+      <c r="AK91" s="23"/>
+      <c r="AL91" s="23"/>
+      <c r="AM91" s="23"/>
+      <c r="AN91" s="23"/>
+      <c r="AO91" s="23"/>
+      <c r="AP91" s="23"/>
+      <c r="AQ91" s="23"/>
+      <c r="AR91" s="23"/>
+      <c r="AS91" s="23"/>
+      <c r="AT91" s="23"/>
+      <c r="AU91" s="23"/>
+      <c r="AV91" s="23"/>
+      <c r="AW91" s="23"/>
+      <c r="AX91" s="23"/>
+      <c r="AY91" s="23"/>
+      <c r="AZ91" s="24"/>
     </row>
     <row r="92" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="46"/>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="47"/>
-      <c r="N92" s="47"/>
-      <c r="O92" s="47"/>
-      <c r="P92" s="47"/>
-      <c r="Q92" s="47"/>
-      <c r="R92" s="47"/>
-      <c r="S92" s="47"/>
-      <c r="T92" s="47"/>
-      <c r="U92" s="47"/>
-      <c r="V92" s="47"/>
-      <c r="W92" s="47"/>
-      <c r="X92" s="47"/>
-      <c r="Y92" s="47"/>
-      <c r="Z92" s="47"/>
-      <c r="AA92" s="47"/>
-      <c r="AB92" s="47"/>
-      <c r="AC92" s="47"/>
-      <c r="AD92" s="47"/>
-      <c r="AE92" s="47"/>
-      <c r="AF92" s="47"/>
-      <c r="AG92" s="47"/>
-      <c r="AH92" s="47"/>
-      <c r="AI92" s="47"/>
-      <c r="AJ92" s="47"/>
-      <c r="AK92" s="47"/>
-      <c r="AL92" s="47"/>
-      <c r="AM92" s="47"/>
-      <c r="AN92" s="47"/>
-      <c r="AO92" s="47"/>
-      <c r="AP92" s="47"/>
-      <c r="AQ92" s="47"/>
-      <c r="AR92" s="47"/>
-      <c r="AS92" s="47"/>
-      <c r="AT92" s="47"/>
-      <c r="AU92" s="47"/>
-      <c r="AV92" s="47"/>
-      <c r="AW92" s="47"/>
-      <c r="AX92" s="47"/>
-      <c r="AY92" s="47"/>
-      <c r="AZ92" s="48"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="26"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="26"/>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="26"/>
+      <c r="R92" s="26"/>
+      <c r="S92" s="26"/>
+      <c r="T92" s="26"/>
+      <c r="U92" s="26"/>
+      <c r="V92" s="26"/>
+      <c r="W92" s="26"/>
+      <c r="X92" s="26"/>
+      <c r="Y92" s="26"/>
+      <c r="Z92" s="26"/>
+      <c r="AA92" s="26"/>
+      <c r="AB92" s="26"/>
+      <c r="AC92" s="26"/>
+      <c r="AD92" s="26"/>
+      <c r="AE92" s="26"/>
+      <c r="AF92" s="26"/>
+      <c r="AG92" s="26"/>
+      <c r="AH92" s="26"/>
+      <c r="AI92" s="26"/>
+      <c r="AJ92" s="26"/>
+      <c r="AK92" s="26"/>
+      <c r="AL92" s="26"/>
+      <c r="AM92" s="26"/>
+      <c r="AN92" s="26"/>
+      <c r="AO92" s="26"/>
+      <c r="AP92" s="26"/>
+      <c r="AQ92" s="26"/>
+      <c r="AR92" s="26"/>
+      <c r="AS92" s="26"/>
+      <c r="AT92" s="26"/>
+      <c r="AU92" s="26"/>
+      <c r="AV92" s="26"/>
+      <c r="AW92" s="26"/>
+      <c r="AX92" s="26"/>
+      <c r="AY92" s="26"/>
+      <c r="AZ92" s="27"/>
     </row>
     <row r="93" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="46"/>
-      <c r="C93" s="47"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47"/>
-      <c r="J93" s="47"/>
-      <c r="K93" s="47"/>
-      <c r="L93" s="47"/>
-      <c r="M93" s="47"/>
-      <c r="N93" s="47"/>
-      <c r="O93" s="47"/>
-      <c r="P93" s="47"/>
-      <c r="Q93" s="47"/>
-      <c r="R93" s="47"/>
-      <c r="S93" s="47"/>
-      <c r="T93" s="47"/>
-      <c r="U93" s="47"/>
-      <c r="V93" s="47"/>
-      <c r="W93" s="47"/>
-      <c r="X93" s="47"/>
-      <c r="Y93" s="47"/>
-      <c r="Z93" s="47"/>
-      <c r="AA93" s="47"/>
-      <c r="AB93" s="47"/>
-      <c r="AC93" s="47"/>
-      <c r="AD93" s="47"/>
-      <c r="AE93" s="47"/>
-      <c r="AF93" s="47"/>
-      <c r="AG93" s="47"/>
-      <c r="AH93" s="47"/>
-      <c r="AI93" s="47"/>
-      <c r="AJ93" s="47"/>
-      <c r="AK93" s="47"/>
-      <c r="AL93" s="47"/>
-      <c r="AM93" s="47"/>
-      <c r="AN93" s="47"/>
-      <c r="AO93" s="47"/>
-      <c r="AP93" s="47"/>
-      <c r="AQ93" s="47"/>
-      <c r="AR93" s="47"/>
-      <c r="AS93" s="47"/>
-      <c r="AT93" s="47"/>
-      <c r="AU93" s="47"/>
-      <c r="AV93" s="47"/>
-      <c r="AW93" s="47"/>
-      <c r="AX93" s="47"/>
-      <c r="AY93" s="47"/>
-      <c r="AZ93" s="48"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="26"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="26"/>
+      <c r="P93" s="26"/>
+      <c r="Q93" s="26"/>
+      <c r="R93" s="26"/>
+      <c r="S93" s="26"/>
+      <c r="T93" s="26"/>
+      <c r="U93" s="26"/>
+      <c r="V93" s="26"/>
+      <c r="W93" s="26"/>
+      <c r="X93" s="26"/>
+      <c r="Y93" s="26"/>
+      <c r="Z93" s="26"/>
+      <c r="AA93" s="26"/>
+      <c r="AB93" s="26"/>
+      <c r="AC93" s="26"/>
+      <c r="AD93" s="26"/>
+      <c r="AE93" s="26"/>
+      <c r="AF93" s="26"/>
+      <c r="AG93" s="26"/>
+      <c r="AH93" s="26"/>
+      <c r="AI93" s="26"/>
+      <c r="AJ93" s="26"/>
+      <c r="AK93" s="26"/>
+      <c r="AL93" s="26"/>
+      <c r="AM93" s="26"/>
+      <c r="AN93" s="26"/>
+      <c r="AO93" s="26"/>
+      <c r="AP93" s="26"/>
+      <c r="AQ93" s="26"/>
+      <c r="AR93" s="26"/>
+      <c r="AS93" s="26"/>
+      <c r="AT93" s="26"/>
+      <c r="AU93" s="26"/>
+      <c r="AV93" s="26"/>
+      <c r="AW93" s="26"/>
+      <c r="AX93" s="26"/>
+      <c r="AY93" s="26"/>
+      <c r="AZ93" s="27"/>
     </row>
     <row r="94" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="49"/>
-      <c r="C94" s="50"/>
-      <c r="D94" s="50"/>
-      <c r="E94" s="50"/>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50"/>
-      <c r="H94" s="50"/>
-      <c r="I94" s="50"/>
-      <c r="J94" s="50"/>
-      <c r="K94" s="50"/>
-      <c r="L94" s="50"/>
-      <c r="M94" s="50"/>
-      <c r="N94" s="50"/>
-      <c r="O94" s="50"/>
-      <c r="P94" s="50"/>
-      <c r="Q94" s="50"/>
-      <c r="R94" s="50"/>
-      <c r="S94" s="50"/>
-      <c r="T94" s="50"/>
-      <c r="U94" s="50"/>
-      <c r="V94" s="50"/>
-      <c r="W94" s="50"/>
-      <c r="X94" s="50"/>
-      <c r="Y94" s="50"/>
-      <c r="Z94" s="50"/>
-      <c r="AA94" s="50"/>
-      <c r="AB94" s="50"/>
-      <c r="AC94" s="50"/>
-      <c r="AD94" s="50"/>
-      <c r="AE94" s="50"/>
-      <c r="AF94" s="50"/>
-      <c r="AG94" s="50"/>
-      <c r="AH94" s="50"/>
-      <c r="AI94" s="50"/>
-      <c r="AJ94" s="50"/>
-      <c r="AK94" s="50"/>
-      <c r="AL94" s="50"/>
-      <c r="AM94" s="50"/>
-      <c r="AN94" s="50"/>
-      <c r="AO94" s="50"/>
-      <c r="AP94" s="50"/>
-      <c r="AQ94" s="50"/>
-      <c r="AR94" s="50"/>
-      <c r="AS94" s="50"/>
-      <c r="AT94" s="50"/>
-      <c r="AU94" s="50"/>
-      <c r="AV94" s="50"/>
-      <c r="AW94" s="50"/>
-      <c r="AX94" s="50"/>
-      <c r="AY94" s="50"/>
-      <c r="AZ94" s="51"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="29"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="29"/>
+      <c r="M94" s="29"/>
+      <c r="N94" s="29"/>
+      <c r="O94" s="29"/>
+      <c r="P94" s="29"/>
+      <c r="Q94" s="29"/>
+      <c r="R94" s="29"/>
+      <c r="S94" s="29"/>
+      <c r="T94" s="29"/>
+      <c r="U94" s="29"/>
+      <c r="V94" s="29"/>
+      <c r="W94" s="29"/>
+      <c r="X94" s="29"/>
+      <c r="Y94" s="29"/>
+      <c r="Z94" s="29"/>
+      <c r="AA94" s="29"/>
+      <c r="AB94" s="29"/>
+      <c r="AC94" s="29"/>
+      <c r="AD94" s="29"/>
+      <c r="AE94" s="29"/>
+      <c r="AF94" s="29"/>
+      <c r="AG94" s="29"/>
+      <c r="AH94" s="29"/>
+      <c r="AI94" s="29"/>
+      <c r="AJ94" s="29"/>
+      <c r="AK94" s="29"/>
+      <c r="AL94" s="29"/>
+      <c r="AM94" s="29"/>
+      <c r="AN94" s="29"/>
+      <c r="AO94" s="29"/>
+      <c r="AP94" s="29"/>
+      <c r="AQ94" s="29"/>
+      <c r="AR94" s="29"/>
+      <c r="AS94" s="29"/>
+      <c r="AT94" s="29"/>
+      <c r="AU94" s="29"/>
+      <c r="AV94" s="29"/>
+      <c r="AW94" s="29"/>
+      <c r="AX94" s="29"/>
+      <c r="AY94" s="29"/>
+      <c r="AZ94" s="30"/>
     </row>
     <row r="95" spans="2:52" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="2:52" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12922,6 +12982,28 @@
     <row r="103" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B63:C70"/>
+    <mergeCell ref="B73:C75"/>
+    <mergeCell ref="B76:C78"/>
+    <mergeCell ref="B44:C46"/>
+    <mergeCell ref="B57:C59"/>
+    <mergeCell ref="B60:C62"/>
+    <mergeCell ref="B47:C54"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="B41:C43"/>
+    <mergeCell ref="AG1:AZ2"/>
+    <mergeCell ref="T1:AF2"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="AB8:AK8"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B28:C30"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B15:C22"/>
+    <mergeCell ref="B31:C38"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="B25:C27"/>
     <mergeCell ref="B91:AZ94"/>
     <mergeCell ref="B4:AZ7"/>
     <mergeCell ref="D15:AP24"/>
@@ -12938,28 +13020,6 @@
     <mergeCell ref="B87:C88"/>
     <mergeCell ref="D79:AP88"/>
     <mergeCell ref="AQ79:AZ88"/>
-    <mergeCell ref="B41:C43"/>
-    <mergeCell ref="AG1:AZ2"/>
-    <mergeCell ref="T1:AF2"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="AB8:AK8"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="B28:C30"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B15:C22"/>
-    <mergeCell ref="B31:C38"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="B25:C27"/>
-    <mergeCell ref="B63:C70"/>
-    <mergeCell ref="B73:C75"/>
-    <mergeCell ref="B76:C78"/>
-    <mergeCell ref="B44:C46"/>
-    <mergeCell ref="B57:C59"/>
-    <mergeCell ref="B60:C62"/>
-    <mergeCell ref="B47:C54"/>
-    <mergeCell ref="B55:C56"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions verticalCentered="1"/>
@@ -12971,12 +13031,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D5379252AF64A748BDD859550927C367" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2116e7e1946d68e35c0eaf3b6cc07ccd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67bb9ec5-9b1b-486c-a632-e2dd655875ec" xmlns:ns3="3fd75491-3ac1-4e58-b8d5-9038dca3fcdc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bef8a7803ea145e855fe7a4317e18dd6" ns2:_="" ns3:_="">
     <xsd:import namespace="67bb9ec5-9b1b-486c-a632-e2dd655875ec"/>
@@ -13193,6 +13247,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -13203,23 +13263,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57598A84-87D5-4E37-AB32-A40732200DBA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="67bb9ec5-9b1b-486c-a632-e2dd655875ec"/>
-    <ds:schemaRef ds:uri="3fd75491-3ac1-4e58-b8d5-9038dca3fcdc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{847108D8-BB9B-483A-861E-97C086A0D0E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13238,6 +13281,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57598A84-87D5-4E37-AB32-A40732200DBA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="67bb9ec5-9b1b-486c-a632-e2dd655875ec"/>
+    <ds:schemaRef ds:uri="3fd75491-3ac1-4e58-b8d5-9038dca3fcdc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA46E2CD-519D-47DE-B196-0DD50840862B}">
   <ds:schemaRefs>

--- a/【研修中】_日次報告書研修日誌林康輝.xlsx
+++ b/【研修中】_日次報告書研修日誌林康輝.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.utsunomiya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensyu001\Desktop\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7189BFC3-A359-4D01-97CF-37FB090180E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F7255B-ADA8-4454-8927-56DA74A19D30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="研修日誌" sheetId="2" r:id="rId1"/>
+    <sheet name="研修日誌 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">研修日誌!$A$1:$AZ$94</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'研修日誌 (2)'!$A$1:$AZ$94</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t xml:space="preserve"> 研　修　日　誌 </t>
     <rPh sb="1" eb="2">
@@ -864,6 +866,131 @@
     </rPh>
     <rPh sb="73" eb="74">
       <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+最後まで集中を切らさず仕事に取り組む
+休む時と仕事の時でメリハリをつける</t>
+    <rPh sb="1" eb="3">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウチュウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8月 25日　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8月 26日　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8月 27日　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8月 28日　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今日は、午前中はパソコンのトラブルで作業が出来ませんでしたが、その間はJavaScriptの勉強をし、午後は午前にできなかった分、より集中して作業に取り組みました。フィロソフィでは、今日から人数が増え、こんなにいろいろな感想や考え方が聞ける機会はあまりないのでとてもいい機会になると感じました。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ゴゼンチュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ゴゴ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ゴゼン</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>シュウチュウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>カン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -8406,6 +8533,4638 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2423BA1D-A9B3-485A-96A1-BB252719FFE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581150" y="8877300"/>
+          <a:ext cx="1857375" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D0623F-02A2-4453-BF26-91F2D42271DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="8877300"/>
+          <a:ext cx="295275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F774101-0932-47C0-8B2B-0F97F0A43E8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3448051" y="8877300"/>
+          <a:ext cx="133350" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632E0CD9-5518-4A2F-AB38-DABA8B5A54BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3590926" y="8877300"/>
+          <a:ext cx="2543174" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEFBA687-9C52-493D-923A-B4BBB2B303E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="8877300"/>
+          <a:ext cx="438150" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B42675-126E-4999-8215-811F8C912ADB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572250" y="8877300"/>
+          <a:ext cx="438150" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF767CF6-AC22-4888-BE2A-32CE5FC01549}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="8601075"/>
+          <a:ext cx="1724025" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DBFE56-83CB-4D0C-A266-E05A6BB3E6C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="8601075"/>
+          <a:ext cx="428625" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{946AB298-1687-4685-BCF3-2AF77086740C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581400" y="8601075"/>
+          <a:ext cx="2552699" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2EB8A38-6E85-490F-9996-E6716E9FC86E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572250" y="8601075"/>
+          <a:ext cx="438149" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC6CECB4-86E8-4A9C-99B6-1EFA80174D6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="8601075"/>
+          <a:ext cx="438149" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF81D7B9-CF27-4A23-9627-D5EFD91364CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438525" y="8601075"/>
+          <a:ext cx="133349" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9324D01C-6CB2-4F40-9E54-4ECB73B294B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457325" y="6972300"/>
+          <a:ext cx="1971675" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{334B5187-FE7D-43DF-AE26-61768B67674B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285876" y="6972300"/>
+          <a:ext cx="171450" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49DE9D2-9CC0-43DC-862B-2EFED8ECDE5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3419476" y="6972300"/>
+          <a:ext cx="171450" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA8DB613-4B9B-4C97-92B0-DE4BF5025EC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="6972300"/>
+          <a:ext cx="2552699" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{710A7AA4-7BDF-4F08-AAFE-428683A3FA4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="6972300"/>
+          <a:ext cx="438149" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77ACD30-F9AD-477B-9427-E4B25D6622E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6581775" y="6972300"/>
+          <a:ext cx="438149" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2C7029-104C-4FD5-AA33-82BC79D078F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="5067300"/>
+          <a:ext cx="1704975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037D19B3-6DA7-4D19-880C-3E2BF7B7028C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="5067300"/>
+          <a:ext cx="428625" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{862B0CBA-8233-46C4-939C-3E89F4893A3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429001" y="5067300"/>
+          <a:ext cx="152400" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31134013-0AC3-4784-BF89-ED37667F7411}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3590925" y="5067300"/>
+          <a:ext cx="2552699" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18167C77-557A-459B-B7C1-5B2C262E0393}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="5067300"/>
+          <a:ext cx="438149" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885DCF78-B938-425B-B3B8-BE1892E8D660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6581775" y="5067300"/>
+          <a:ext cx="438149" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD328DC-1F65-4F13-891B-4B8EF9A2A5CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304926" y="3162300"/>
+          <a:ext cx="419100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2311490-44C8-4CA8-8D6F-CDD623F297E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="3162300"/>
+          <a:ext cx="1704975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03A46C1-21EF-4D72-97AD-B36F2010D9CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="2876550"/>
+          <a:ext cx="409575" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B5B1F9B-385B-412A-801F-7380617D2E2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="2876550"/>
+          <a:ext cx="1704975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7709CA6C-5610-44BD-AD91-751FEBEFD751}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438525" y="2876550"/>
+          <a:ext cx="133350" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26062510-D73F-412B-BBF3-21F3D5DA1290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581399" y="2876550"/>
+          <a:ext cx="2562225" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81BA5556-A03A-41CB-AF1A-082818168AE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="2876550"/>
+          <a:ext cx="419099" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3FFBEE3-1A92-4C48-8E38-BF2E5288933E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6581775" y="2876550"/>
+          <a:ext cx="419099" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2829B75D-EAFD-4A2D-9C03-8121A767FD08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3428999" y="981075"/>
+          <a:ext cx="142875" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>69319</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="330732" cy="649997"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F4905B7-B52A-425F-8F5D-DD46CD7E80B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3355444" y="962024"/>
+          <a:ext cx="330732" cy="649997"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>休憩</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E83FE81-2F13-4C42-81B3-7593D3D5104B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="981075"/>
+          <a:ext cx="1714500" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA0714E-E47A-47C6-A22A-F260177A6EE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571874" y="981075"/>
+          <a:ext cx="2581275" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A7B87D-A21B-40F4-8F91-A0DE26149D27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="981075"/>
+          <a:ext cx="428624" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{705EA545-355B-480E-AB99-297A5A8406FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6581775" y="981075"/>
+          <a:ext cx="428624" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>69319</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="330732" cy="649997"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A71052F-A506-4391-A598-727F18A0AFD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3355444" y="1238249"/>
+          <a:ext cx="330732" cy="649997"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>休憩</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4ADEB5B-E1F9-40C8-86C0-6128670E4AE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="1266825"/>
+          <a:ext cx="1704975" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74C2A75D-1B25-4789-9B09-6C3C46F6A76B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="1257299"/>
+          <a:ext cx="428626" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{262EF9DC-DE92-4D59-9957-346F328864DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571874" y="1266825"/>
+          <a:ext cx="2581275" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CAA483B-D6B4-4D45-82EC-D8ACD44AEB39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="1266825"/>
+          <a:ext cx="428624" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49CE3FAF-12F2-481A-B1BE-D9E1617FE18A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6581775" y="1266825"/>
+          <a:ext cx="428624" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E697D30-31E4-4852-A35B-8D5E5847A4BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="981074"/>
+          <a:ext cx="428626" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="442814" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D34BAF-4CD1-4800-A3BC-C5EFD40B36E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="952500"/>
+          <a:ext cx="442814" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ミーテ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ィング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="442814" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85CEDE22-CF38-4BDB-9198-2831739A7F51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="1228725"/>
+          <a:ext cx="442814" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ミーテ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ィング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586058" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632D35D4-3C4F-4C79-A162-335A3C4D1F61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="1009650"/>
+          <a:ext cx="586058" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>開発</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586058" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24999D8F-D462-456E-8C94-486C6AAB7EFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2333625" y="1285875"/>
+          <a:ext cx="586058" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>開発</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586058" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2919E777-7C5D-4DF4-A192-B12E3977DF33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="1000125"/>
+          <a:ext cx="586058" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>開発</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586058" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="テキスト ボックス 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E43B17-E51A-4D6C-9945-7BFD0B84BE69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="1295400"/>
+          <a:ext cx="586058" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>開発</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="464038" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="テキスト ボックス 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D931E43-B180-4AD4-80AB-37EAB2755D81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="1009650"/>
+          <a:ext cx="464038" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>京セラ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="464038" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="テキスト ボックス 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A3478B-795E-4C44-BFE5-8448F1C4C714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="1295400"/>
+          <a:ext cx="464038" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>京セラ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="389850" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A91B8E-0100-471A-9B88-31D70C502FEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6610350" y="1019175"/>
+          <a:ext cx="389850" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>日誌</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="389850" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC23EEE5-73E4-4E6D-95CF-ADE0ACB22FEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6610350" y="1295400"/>
+          <a:ext cx="389850" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>日誌</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586058" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF3289E-FE9A-4AD5-B12D-C3CC7733CADE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2333625" y="2905125"/>
+          <a:ext cx="586058" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>開発</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>69319</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="330732" cy="649997"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="テキスト ボックス 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC3202D-06E1-498D-B015-374BAC3B5825}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3355444" y="2867024"/>
+          <a:ext cx="330732" cy="649997"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>休憩</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586058" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="テキスト ボックス 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{980D77E6-48A9-4449-AF4C-9BE9FCD52389}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552950" y="2905125"/>
+          <a:ext cx="586058" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>開発</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="テキスト ボックス 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{775221F0-03CC-4A73-910A-3F7885D1EDAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="2857500"/>
+          <a:ext cx="492443" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>社会人</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>研修</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="389850" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="テキスト ボックス 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB5FD38C-526A-4683-98F4-3F489B48C4DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619875" y="2914650"/>
+          <a:ext cx="389850" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>日誌</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="442814" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="テキスト ボックス 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CA13057-2556-40C1-903A-8DF0CF88B434}"/>
+            </a:ext>
+          </a:extLst>
+        </xd